--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="184">
   <si>
     <t>LAPORAN KEUANGAN KAS GAS</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>No Rek GAS (Mandiri) : 137-00-1307107-7 a/n Irvan Nasher Alimi</t>
+  </si>
+  <si>
+    <t>Connected with Github</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1563,6 +1566,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1577,14 +1594,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1600,15 +1612,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1633,39 +1664,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2420,126 +2426,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
+      <c r="A1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2610,10 +2616,10 @@
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="121" t="s">
+      <c r="D10" s="127" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1">
@@ -2625,7 +2631,7 @@
       <c r="G10" s="1">
         <v>20</v>
       </c>
-      <c r="H10" s="124" t="s">
+      <c r="H10" s="130" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="1">
@@ -2673,8 +2679,8 @@
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="1">
         <v>20</v>
       </c>
@@ -2684,7 +2690,7 @@
       <c r="G11" s="1">
         <v>20</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="128"/>
       <c r="I11" s="1">
         <v>20</v>
       </c>
@@ -2730,8 +2736,8 @@
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
       <c r="E12" s="1">
         <v>10</v>
       </c>
@@ -2741,7 +2747,7 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="122"/>
+      <c r="H12" s="128"/>
       <c r="I12" s="1">
         <v>20</v>
       </c>
@@ -2781,8 +2787,8 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
       <c r="E13" s="1">
         <v>20</v>
       </c>
@@ -2792,7 +2798,7 @@
       <c r="G13" s="1">
         <v>20</v>
       </c>
-      <c r="H13" s="122"/>
+      <c r="H13" s="128"/>
       <c r="I13" s="1">
         <v>20</v>
       </c>
@@ -2832,14 +2838,14 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
       <c r="E14" s="1">
         <v>20</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="122"/>
+      <c r="H14" s="128"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2875,8 +2881,8 @@
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
       <c r="E15" s="1">
         <v>20</v>
       </c>
@@ -2886,7 +2892,7 @@
       <c r="G15" s="1">
         <v>20</v>
       </c>
-      <c r="H15" s="122"/>
+      <c r="H15" s="128"/>
       <c r="I15" s="1">
         <v>20</v>
       </c>
@@ -2934,8 +2940,8 @@
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="1">
         <v>20</v>
       </c>
@@ -2943,7 +2949,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="122"/>
+      <c r="H16" s="128"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2979,8 +2985,8 @@
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
       <c r="E17" s="1">
         <v>20</v>
       </c>
@@ -2988,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="122"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3024,12 +3030,12 @@
       <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="122"/>
+      <c r="H18" s="128"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -3065,8 +3071,8 @@
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>20</v>
@@ -3074,7 +3080,7 @@
       <c r="G19" s="1">
         <v>20</v>
       </c>
-      <c r="H19" s="122"/>
+      <c r="H19" s="128"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3112,8 +3118,8 @@
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
       <c r="E20" s="1">
         <v>20</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="122"/>
+      <c r="H20" s="128"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3157,8 +3163,8 @@
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
       <c r="E21" s="1">
         <v>20</v>
       </c>
@@ -3168,7 +3174,7 @@
       <c r="G21" s="1">
         <v>20</v>
       </c>
-      <c r="H21" s="122"/>
+      <c r="H21" s="128"/>
       <c r="I21" s="1">
         <v>20</v>
       </c>
@@ -3208,8 +3214,8 @@
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
       <c r="E22" s="1">
         <v>20</v>
       </c>
@@ -3219,7 +3225,7 @@
       <c r="G22" s="1">
         <v>15</v>
       </c>
-      <c r="H22" s="122"/>
+      <c r="H22" s="128"/>
       <c r="I22" s="1">
         <v>10</v>
       </c>
@@ -3257,14 +3263,14 @@
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="122"/>
+      <c r="H23" s="128"/>
       <c r="I23" s="1"/>
       <c r="J23" s="9">
         <v>-40</v>
@@ -3304,8 +3310,8 @@
       <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
       <c r="E24" s="1">
         <v>20</v>
       </c>
@@ -3313,7 +3319,7 @@
       <c r="G24" s="1">
         <v>20</v>
       </c>
-      <c r="H24" s="122"/>
+      <c r="H24" s="128"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3349,12 +3355,12 @@
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="122"/>
+      <c r="H25" s="128"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -3390,8 +3396,8 @@
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
       <c r="E26" s="1">
         <v>20</v>
       </c>
@@ -3401,7 +3407,7 @@
       <c r="G26" s="1">
         <v>20</v>
       </c>
-      <c r="H26" s="122"/>
+      <c r="H26" s="128"/>
       <c r="I26" s="1">
         <v>20</v>
       </c>
@@ -3441,14 +3447,14 @@
       <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>20</v>
       </c>
-      <c r="H27" s="122"/>
+      <c r="H27" s="128"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3484,8 +3490,8 @@
       <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
       <c r="E28" s="1">
         <v>20</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="122"/>
+      <c r="H28" s="128"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3529,14 +3535,14 @@
       <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
       <c r="E29" s="1">
         <v>20</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="122"/>
+      <c r="H29" s="128"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3572,8 +3578,8 @@
       <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
       <c r="E30" s="1">
         <v>20</v>
       </c>
@@ -3583,7 +3589,7 @@
       <c r="G30" s="1">
         <v>20</v>
       </c>
-      <c r="H30" s="122"/>
+      <c r="H30" s="128"/>
       <c r="I30" s="1">
         <v>20</v>
       </c>
@@ -3629,14 +3635,14 @@
       <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
         <v>20</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="122"/>
+      <c r="H31" s="128"/>
       <c r="I31" s="1">
         <v>20</v>
       </c>
@@ -3676,8 +3682,8 @@
       <c r="B32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
       <c r="E32" s="1">
         <v>20</v>
       </c>
@@ -3687,7 +3693,7 @@
       <c r="G32" s="1">
         <v>20</v>
       </c>
-      <c r="H32" s="122"/>
+      <c r="H32" s="128"/>
       <c r="I32" s="1">
         <v>20</v>
       </c>
@@ -3733,8 +3739,8 @@
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
       <c r="E33" s="1">
         <v>20</v>
       </c>
@@ -3742,7 +3748,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="122"/>
+      <c r="H33" s="128"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3778,14 +3784,14 @@
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
       <c r="E34" s="1">
         <v>20</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="122"/>
+      <c r="H34" s="128"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3821,8 +3827,8 @@
       <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
       <c r="E35" s="1">
         <v>20</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="122"/>
+      <c r="H35" s="128"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3866,8 +3872,8 @@
       <c r="B36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
       <c r="E36" s="1">
         <v>20</v>
       </c>
@@ -3877,7 +3883,7 @@
       <c r="G36" s="1">
         <v>20</v>
       </c>
-      <c r="H36" s="122"/>
+      <c r="H36" s="128"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
         <v>20</v>
@@ -3915,8 +3921,8 @@
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="128"/>
       <c r="E37" s="1">
         <v>20</v>
       </c>
@@ -3926,7 +3932,7 @@
       <c r="G37" s="1">
         <v>20</v>
       </c>
-      <c r="H37" s="122"/>
+      <c r="H37" s="128"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
         <v>20</v>
@@ -3970,8 +3976,8 @@
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
       <c r="E38" s="1">
         <v>20</v>
       </c>
@@ -3981,7 +3987,7 @@
       <c r="G38" s="1">
         <v>20</v>
       </c>
-      <c r="H38" s="122"/>
+      <c r="H38" s="128"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
         <v>20</v>
@@ -4019,8 +4025,8 @@
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
       <c r="E39" s="1">
         <v>20</v>
       </c>
@@ -4028,7 +4034,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="122"/>
+      <c r="H39" s="128"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -4064,8 +4070,8 @@
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
       <c r="E40" s="1">
         <v>20</v>
       </c>
@@ -4075,7 +4081,7 @@
       <c r="G40" s="1">
         <v>20</v>
       </c>
-      <c r="H40" s="122"/>
+      <c r="H40" s="128"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <v>20</v>
@@ -4119,8 +4125,8 @@
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
       <c r="E41" s="1">
         <v>20</v>
       </c>
@@ -4128,7 +4134,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="122"/>
+      <c r="H41" s="128"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -4164,14 +4170,14 @@
       <c r="B42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
       <c r="E42" s="1">
         <v>20</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="122"/>
+      <c r="H42" s="128"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -4207,8 +4213,8 @@
       <c r="B43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
       <c r="E43" s="1">
         <v>20</v>
       </c>
@@ -4218,7 +4224,7 @@
       <c r="G43" s="1">
         <v>20</v>
       </c>
-      <c r="H43" s="122"/>
+      <c r="H43" s="128"/>
       <c r="I43" s="1">
         <v>20</v>
       </c>
@@ -4266,8 +4272,8 @@
       <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
       <c r="E44" s="1">
         <v>20</v>
       </c>
@@ -4277,7 +4283,7 @@
       <c r="G44" s="1">
         <v>20</v>
       </c>
-      <c r="H44" s="122"/>
+      <c r="H44" s="128"/>
       <c r="I44" s="1">
         <v>20</v>
       </c>
@@ -4321,8 +4327,8 @@
       <c r="B45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="128"/>
       <c r="E45" s="1">
         <v>20</v>
       </c>
@@ -4332,7 +4338,7 @@
       <c r="G45" s="1">
         <v>20</v>
       </c>
-      <c r="H45" s="122"/>
+      <c r="H45" s="128"/>
       <c r="I45" s="1">
         <v>15</v>
       </c>
@@ -4370,8 +4376,8 @@
       <c r="B46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
       <c r="E46" s="1">
         <v>20</v>
       </c>
@@ -4381,7 +4387,7 @@
       <c r="G46" s="1">
         <v>20</v>
       </c>
-      <c r="H46" s="122"/>
+      <c r="H46" s="128"/>
       <c r="I46" s="1">
         <v>20</v>
       </c>
@@ -4419,8 +4425,8 @@
       <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="122"/>
-      <c r="D47" s="122"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
       <c r="E47" s="1">
         <v>20</v>
       </c>
@@ -4430,7 +4436,7 @@
       <c r="G47" s="1">
         <v>20</v>
       </c>
-      <c r="H47" s="122"/>
+      <c r="H47" s="128"/>
       <c r="I47" s="1">
         <v>20</v>
       </c>
@@ -4474,8 +4480,8 @@
       <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="122"/>
-      <c r="D48" s="122"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
       <c r="E48" s="1">
         <v>20</v>
       </c>
@@ -4483,7 +4489,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="122"/>
+      <c r="H48" s="128"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4519,8 +4525,8 @@
       <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="122"/>
-      <c r="D49" s="122"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
       <c r="E49" s="1">
         <v>20</v>
       </c>
@@ -4530,7 +4536,7 @@
       <c r="G49" s="1">
         <v>20</v>
       </c>
-      <c r="H49" s="122"/>
+      <c r="H49" s="128"/>
       <c r="I49" s="1">
         <v>20</v>
       </c>
@@ -4570,12 +4576,12 @@
       <c r="B50" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="122"/>
+      <c r="H50" s="128"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -4611,12 +4617,12 @@
       <c r="B51" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="122"/>
+      <c r="H51" s="128"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -4652,12 +4658,12 @@
       <c r="B52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="129"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="123"/>
+      <c r="H52" s="129"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -4694,58 +4700,58 @@
     <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I58" s="133" t="s">
+      <c r="I58" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="J58" s="134"/>
-      <c r="K58" s="134"/>
-      <c r="L58" s="134"/>
-      <c r="M58" s="135"/>
-      <c r="O58" s="141" t="s">
+      <c r="J58" s="137"/>
+      <c r="K58" s="137"/>
+      <c r="L58" s="137"/>
+      <c r="M58" s="138"/>
+      <c r="O58" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="P58" s="134"/>
-      <c r="Q58" s="134"/>
-      <c r="R58" s="135"/>
+      <c r="P58" s="137"/>
+      <c r="Q58" s="137"/>
+      <c r="R58" s="138"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I59" s="136" t="s">
+      <c r="I59" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="128"/>
-      <c r="K59" s="128"/>
-      <c r="L59" s="128"/>
-      <c r="M59" s="137"/>
-      <c r="O59" s="136" t="s">
+      <c r="J59" s="134"/>
+      <c r="K59" s="134"/>
+      <c r="L59" s="134"/>
+      <c r="M59" s="140"/>
+      <c r="O59" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="P59" s="128"/>
-      <c r="Q59" s="128"/>
-      <c r="R59" s="137"/>
+      <c r="P59" s="134"/>
+      <c r="Q59" s="134"/>
+      <c r="R59" s="140"/>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="138"/>
-      <c r="J60" s="139"/>
-      <c r="K60" s="139"/>
-      <c r="L60" s="139"/>
-      <c r="M60" s="140"/>
-      <c r="O60" s="138"/>
-      <c r="P60" s="139"/>
-      <c r="Q60" s="139"/>
-      <c r="R60" s="140"/>
+      <c r="I60" s="141"/>
+      <c r="J60" s="142"/>
+      <c r="K60" s="142"/>
+      <c r="L60" s="142"/>
+      <c r="M60" s="143"/>
+      <c r="O60" s="141"/>
+      <c r="P60" s="142"/>
+      <c r="Q60" s="142"/>
+      <c r="R60" s="143"/>
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="132"/>
-      <c r="K61" s="130"/>
-      <c r="L61" s="131" t="s">
+      <c r="I61" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="122"/>
+      <c r="K61" s="123"/>
+      <c r="L61" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="M61" s="130"/>
-      <c r="O61" s="131"/>
-      <c r="P61" s="130"/>
+      <c r="M61" s="123"/>
+      <c r="O61" s="135"/>
+      <c r="P61" s="123"/>
       <c r="Q61" s="11" t="s">
         <v>20</v>
       </c>
@@ -4754,38 +4760,38 @@
       </c>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I62" s="142" t="s">
+      <c r="I62" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J62" s="132"/>
-      <c r="K62" s="130"/>
-      <c r="L62" s="143">
+      <c r="J62" s="122"/>
+      <c r="K62" s="123"/>
+      <c r="L62" s="124">
         <v>7350000</v>
       </c>
-      <c r="M62" s="130"/>
-      <c r="O62" s="129" t="s">
+      <c r="M62" s="123"/>
+      <c r="O62" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="P62" s="130"/>
+      <c r="P62" s="123"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="13">
         <v>40000</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I63" s="142" t="s">
+      <c r="I63" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="J63" s="132"/>
-      <c r="K63" s="130"/>
-      <c r="L63" s="144">
+      <c r="J63" s="122"/>
+      <c r="K63" s="123"/>
+      <c r="L63" s="126">
         <v>1100000</v>
       </c>
-      <c r="M63" s="130"/>
-      <c r="O63" s="129" t="s">
+      <c r="M63" s="123"/>
+      <c r="O63" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="P63" s="130"/>
+      <c r="P63" s="123"/>
       <c r="Q63" s="14" t="s">
         <v>77</v>
       </c>
@@ -4794,39 +4800,39 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I64" s="142" t="s">
+      <c r="I64" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="132"/>
-      <c r="K64" s="130"/>
-      <c r="L64" s="143">
+      <c r="J64" s="122"/>
+      <c r="K64" s="123"/>
+      <c r="L64" s="124">
         <f>L62+L63</f>
         <v>8450000</v>
       </c>
-      <c r="M64" s="130"/>
-      <c r="O64" s="129" t="s">
+      <c r="M64" s="123"/>
+      <c r="O64" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="P64" s="130"/>
+      <c r="P64" s="123"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="9:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I65" s="142" t="s">
+      <c r="I65" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="J65" s="132"/>
-      <c r="K65" s="130"/>
-      <c r="L65" s="143">
+      <c r="J65" s="122"/>
+      <c r="K65" s="123"/>
+      <c r="L65" s="124">
         <v>8411850</v>
       </c>
-      <c r="M65" s="130"/>
-      <c r="O65" s="129" t="s">
+      <c r="M65" s="123"/>
+      <c r="O65" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="P65" s="130"/>
+      <c r="P65" s="123"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="13">
         <f>R62-R63+R64</f>
@@ -4834,20 +4840,20 @@
       </c>
     </row>
     <row r="66" spans="9:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I66" s="142" t="s">
+      <c r="I66" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="J66" s="132"/>
-      <c r="K66" s="130"/>
-      <c r="L66" s="143">
+      <c r="J66" s="122"/>
+      <c r="K66" s="123"/>
+      <c r="L66" s="124">
         <f>L64-L65</f>
         <v>38150</v>
       </c>
-      <c r="M66" s="130"/>
-      <c r="O66" s="129" t="s">
+      <c r="M66" s="123"/>
+      <c r="O66" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="P66" s="130"/>
+      <c r="P66" s="123"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="13">
         <f>L66+R65</f>
@@ -5056,17 +5062,6 @@
     <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:M63"/>
     <mergeCell ref="C10:C52"/>
     <mergeCell ref="D10:D52"/>
     <mergeCell ref="H10:H52"/>
@@ -5082,6 +5077,17 @@
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="O61:P61"/>
     <mergeCell ref="O59:R60"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O65:P65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5093,7 +5099,7 @@
   <dimension ref="A2:AM263"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+      <selection activeCell="I66" sqref="I66:M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5133,42 +5139,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
       <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -5242,25 +5248,25 @@
       <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="145" t="s">
+      <c r="V5" s="155" t="s">
         <v>87</v>
       </c>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="132"/>
-      <c r="AH5" s="132"/>
-      <c r="AI5" s="132"/>
-      <c r="AJ5" s="132"/>
-      <c r="AK5" s="132"/>
-      <c r="AL5" s="130"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="122"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="122"/>
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="122"/>
+      <c r="AJ5" s="122"/>
+      <c r="AK5" s="122"/>
+      <c r="AL5" s="123"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -5308,29 +5314,29 @@
         <v>NO</v>
       </c>
       <c r="T6" s="23"/>
-      <c r="V6" s="154" t="s">
+      <c r="V6" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="154" t="s">
+      <c r="W6" s="152" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="145" t="s">
+      <c r="X6" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132"/>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="132"/>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="130"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="122"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="122"/>
+      <c r="AL6" s="123"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -5376,27 +5382,27 @@
         <v>NO</v>
       </c>
       <c r="T7" s="23"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="145" t="s">
+      <c r="V7" s="128"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="155" t="s">
         <v>90</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="Z7" s="132"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="145" t="s">
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="AC7" s="132"/>
-      <c r="AD7" s="132"/>
-      <c r="AE7" s="132"/>
-      <c r="AF7" s="132"/>
-      <c r="AG7" s="132"/>
-      <c r="AH7" s="132"/>
-      <c r="AI7" s="132"/>
-      <c r="AJ7" s="132"/>
-      <c r="AK7" s="132"/>
-      <c r="AL7" s="130"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="122"/>
+      <c r="AH7" s="122"/>
+      <c r="AI7" s="122"/>
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="122"/>
+      <c r="AL7" s="123"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -5438,8 +5444,8 @@
         <v>NO</v>
       </c>
       <c r="T8" s="23"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
+      <c r="V8" s="129"/>
+      <c r="W8" s="129"/>
       <c r="X8" s="10" t="s">
         <v>20</v>
       </c>
@@ -9012,10 +9018,10 @@
       <c r="V49" s="68"/>
       <c r="W49" s="68"/>
       <c r="X49" s="68"/>
-      <c r="Y49" s="155" t="s">
+      <c r="Y49" s="153" t="s">
         <v>145</v>
       </c>
-      <c r="Z49" s="156"/>
+      <c r="Z49" s="154"/>
       <c r="AA49" s="41">
         <f>SUM(AA9:AA21)</f>
         <v>20000</v>
@@ -9079,12 +9085,12 @@
         <v>NO</v>
       </c>
       <c r="T50" s="3"/>
-      <c r="AG50" s="146" t="s">
+      <c r="AG50" s="156" t="s">
         <v>172</v>
       </c>
-      <c r="AH50" s="146"/>
-      <c r="AI50" s="146"/>
-      <c r="AJ50" s="146"/>
+      <c r="AH50" s="156"/>
+      <c r="AI50" s="156"/>
+      <c r="AJ50" s="156"/>
       <c r="AK50" s="93">
         <v>3087000</v>
       </c>
@@ -9141,12 +9147,12 @@
       <c r="AC51" s="48"/>
       <c r="AD51" s="48"/>
       <c r="AE51" s="48"/>
-      <c r="AG51" s="150" t="s">
+      <c r="AG51" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="AH51" s="151"/>
-      <c r="AI51" s="151"/>
-      <c r="AJ51" s="152"/>
+      <c r="AH51" s="161"/>
+      <c r="AI51" s="161"/>
+      <c r="AJ51" s="162"/>
       <c r="AK51" s="105">
         <v>3077000</v>
       </c>
@@ -9202,12 +9208,12 @@
       <c r="AD52" s="48"/>
       <c r="AE52" s="48"/>
       <c r="AF52" s="48"/>
-      <c r="AG52" s="147" t="s">
+      <c r="AG52" s="157" t="s">
         <v>181</v>
       </c>
-      <c r="AH52" s="148"/>
-      <c r="AI52" s="148"/>
-      <c r="AJ52" s="149"/>
+      <c r="AH52" s="158"/>
+      <c r="AI52" s="158"/>
+      <c r="AJ52" s="159"/>
       <c r="AK52" s="109">
         <v>2550000</v>
       </c>
@@ -9417,12 +9423,12 @@
         <v>NO</v>
       </c>
       <c r="T56" s="3"/>
-      <c r="AG56" s="150" t="s">
+      <c r="AG56" s="160" t="s">
         <v>179</v>
       </c>
-      <c r="AH56" s="151"/>
-      <c r="AI56" s="151"/>
-      <c r="AJ56" s="152"/>
+      <c r="AH56" s="161"/>
+      <c r="AI56" s="161"/>
+      <c r="AJ56" s="162"/>
       <c r="AK56" s="94">
         <f>AK55</f>
         <v>2627000</v>
@@ -9463,12 +9469,12 @@
         <v>NO</v>
       </c>
       <c r="T57" s="3"/>
-      <c r="AG57" s="146" t="s">
+      <c r="AG57" s="156" t="s">
         <v>171</v>
       </c>
-      <c r="AH57" s="146"/>
-      <c r="AI57" s="146"/>
-      <c r="AJ57" s="146"/>
+      <c r="AH57" s="156"/>
+      <c r="AI57" s="156"/>
+      <c r="AJ57" s="156"/>
       <c r="AK57" s="120">
         <f>AK51-AK56</f>
         <v>450000</v>
@@ -9686,36 +9692,48 @@
       <c r="T63" s="3"/>
     </row>
     <row r="64" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="159" t="s">
+    <row r="65" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="145" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="160"/>
-      <c r="E66" s="160"/>
-      <c r="F66" s="160"/>
-      <c r="G66" s="161"/>
-    </row>
-    <row r="67" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="162"/>
-      <c r="D67" s="163"/>
-      <c r="E67" s="163"/>
-      <c r="F67" s="163"/>
-      <c r="G67" s="164"/>
-    </row>
-    <row r="68" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D66" s="146"/>
+      <c r="E66" s="146"/>
+      <c r="F66" s="146"/>
+      <c r="G66" s="147"/>
+      <c r="I66" s="165" t="s">
+        <v>183</v>
+      </c>
+      <c r="J66" s="165"/>
+      <c r="K66" s="165"/>
+      <c r="L66" s="165"/>
+      <c r="M66" s="165"/>
+    </row>
+    <row r="67" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="148"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="149"/>
+      <c r="F67" s="149"/>
+      <c r="G67" s="150"/>
+      <c r="I67" s="165"/>
+      <c r="J67" s="165"/>
+      <c r="K67" s="165"/>
+      <c r="L67" s="165"/>
+      <c r="M67" s="165"/>
+    </row>
+    <row r="68" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9900,13 +9918,7 @@
     <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C66:G67"/>
-    <mergeCell ref="C2:R3"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="X7:AA7"/>
+  <mergeCells count="15">
     <mergeCell ref="AB7:AL7"/>
     <mergeCell ref="V5:AL5"/>
     <mergeCell ref="X6:AL6"/>
@@ -9915,6 +9927,13 @@
     <mergeCell ref="AG51:AJ51"/>
     <mergeCell ref="AG50:AJ50"/>
     <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="C66:G67"/>
+    <mergeCell ref="C2:R3"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="I66:M67"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:T63">
     <cfRule type="expression" dxfId="6" priority="2">
@@ -9972,17 +9991,17 @@
     <row r="3" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="77"/>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="158"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="78"/>
       <c r="F4" s="84"/>
       <c r="G4" s="85"/>
-      <c r="H4" s="157" t="s">
+      <c r="H4" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="158"/>
+      <c r="I4" s="164"/>
       <c r="J4" s="86"/>
       <c r="K4" s="78"/>
     </row>
@@ -10109,17 +10128,17 @@
     <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="77"/>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="163" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="158"/>
+      <c r="D17" s="164"/>
       <c r="E17" s="78"/>
       <c r="F17" s="77"/>
       <c r="G17" s="86"/>
-      <c r="H17" s="157" t="s">
+      <c r="H17" s="163" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="158"/>
+      <c r="I17" s="164"/>
       <c r="J17" s="86"/>
       <c r="K17" s="78"/>
     </row>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -1643,6 +1643,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1670,14 +1673,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2403,7 +2411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T266"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:R6"/>
     </sheetView>
   </sheetViews>
@@ -5098,8 +5106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AM263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66:M67"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5114,10 +5122,10 @@
     <col min="13" max="13" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" style="104" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="23.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="25.7109375" style="104" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" customWidth="1"/>
     <col min="21" max="21" width="11.85546875" customWidth="1"/>
     <col min="22" max="22" width="4.5703125" customWidth="1"/>
@@ -5302,15 +5310,15 @@
         <v>90</v>
       </c>
       <c r="Q6" s="23">
-        <f t="shared" ref="Q6:Q63" si="1">(180)-(O6)</f>
+        <f>(240)-(O6)</f>
+        <v>210</v>
+      </c>
+      <c r="R6" s="24">
+        <f t="shared" ref="R6:R63" si="1">Q6-60</f>
         <v>150</v>
       </c>
-      <c r="R6" s="24">
-        <f t="shared" ref="R6:R63" si="2">Q6-60</f>
-        <v>90</v>
-      </c>
       <c r="S6" s="25" t="str">
-        <f t="shared" ref="S6:S63" si="3">IF(R6&lt;=0,"OK","NO")</f>
+        <f t="shared" ref="S6:S63" si="2">IF(R6&lt;=0,"OK","NO")</f>
         <v>NO</v>
       </c>
       <c r="T6" s="23"/>
@@ -5366,19 +5374,19 @@
         <v>10</v>
       </c>
       <c r="P7" s="107">
-        <f t="shared" ref="P7:P54" si="4">120-SUM(C7:H7)</f>
+        <f t="shared" ref="P7:P54" si="3">120-SUM(C7:H7)</f>
         <v>110</v>
       </c>
       <c r="Q7" s="23">
+        <f t="shared" ref="Q7:Q63" si="4">(240)-(O7)</f>
+        <v>230</v>
+      </c>
+      <c r="R7" s="24">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="R7" s="24">
+      <c r="S7" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="S7" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T7" s="23"/>
@@ -5428,19 +5436,19 @@
         <v>0</v>
       </c>
       <c r="P8" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q8" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q8" s="23">
+        <v>240</v>
+      </c>
+      <c r="R8" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R8" s="24">
+      <c r="S8" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S8" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T8" s="23"/>
@@ -5520,19 +5528,19 @@
         <v>10</v>
       </c>
       <c r="P9" s="107">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="Q9" s="23">
         <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="Q9" s="23">
+        <v>230</v>
+      </c>
+      <c r="R9" s="24">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="R9" s="24">
+      <c r="S9" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="S9" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T9" s="23"/>
@@ -5601,19 +5609,19 @@
         <v>0</v>
       </c>
       <c r="P10" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q10" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q10" s="23">
+        <v>240</v>
+      </c>
+      <c r="R10" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R10" s="24">
+      <c r="S10" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S10" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T10" s="23"/>
@@ -5694,19 +5702,19 @@
         <v>0</v>
       </c>
       <c r="P11" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q11" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q11" s="23">
+        <v>240</v>
+      </c>
+      <c r="R11" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R11" s="24">
+      <c r="S11" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S11" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T11" s="23"/>
@@ -5781,19 +5789,19 @@
         <v>0</v>
       </c>
       <c r="P12" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q12" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q12" s="23">
+        <v>240</v>
+      </c>
+      <c r="R12" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R12" s="24">
+      <c r="S12" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S12" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T12" s="23"/>
@@ -5868,19 +5876,19 @@
         <v>0</v>
       </c>
       <c r="P13" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q13" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q13" s="23">
+        <v>240</v>
+      </c>
+      <c r="R13" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R13" s="24">
+      <c r="S13" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S13" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T13" s="23"/>
@@ -5955,19 +5963,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q14" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q14" s="23">
+        <v>240</v>
+      </c>
+      <c r="R14" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R14" s="24">
+      <c r="S14" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S14" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T14" s="23"/>
@@ -6042,19 +6050,19 @@
         <v>0</v>
       </c>
       <c r="P15" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q15" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q15" s="23">
+        <v>240</v>
+      </c>
+      <c r="R15" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R15" s="24">
+      <c r="S15" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S15" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T15" s="23"/>
@@ -6129,19 +6137,19 @@
         <v>0</v>
       </c>
       <c r="P16" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q16" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q16" s="23">
+        <v>240</v>
+      </c>
+      <c r="R16" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R16" s="24">
+      <c r="S16" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S16" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T16" s="23"/>
@@ -6208,19 +6216,19 @@
         <v>0</v>
       </c>
       <c r="P17" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q17" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q17" s="23">
+        <v>240</v>
+      </c>
+      <c r="R17" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R17" s="24">
+      <c r="S17" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S17" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T17" s="23"/>
@@ -6289,19 +6297,19 @@
         <v>5</v>
       </c>
       <c r="P18" s="107">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="Q18" s="23">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="Q18" s="23">
+        <v>235</v>
+      </c>
+      <c r="R18" s="24">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="R18" s="24">
+      <c r="S18" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="S18" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T18" s="23"/>
@@ -6378,19 +6386,19 @@
         <v>0</v>
       </c>
       <c r="P19" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q19" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q19" s="23">
+        <v>240</v>
+      </c>
+      <c r="R19" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R19" s="24">
+      <c r="S19" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S19" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T19" s="23"/>
@@ -6469,19 +6477,19 @@
         <v>10</v>
       </c>
       <c r="P20" s="107">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="Q20" s="23">
         <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="Q20" s="23">
+        <v>230</v>
+      </c>
+      <c r="R20" s="24">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="R20" s="24">
+      <c r="S20" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="S20" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T20" s="23"/>
@@ -6550,19 +6558,19 @@
         <v>5</v>
       </c>
       <c r="P21" s="107">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="Q21" s="23">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="Q21" s="23">
+        <v>235</v>
+      </c>
+      <c r="R21" s="24">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="R21" s="24">
+      <c r="S21" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="S21" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T21" s="23"/>
@@ -6637,19 +6645,19 @@
         <v>0</v>
       </c>
       <c r="P22" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q22" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q22" s="23">
+        <v>240</v>
+      </c>
+      <c r="R22" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R22" s="24">
+      <c r="S22" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S22" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T22" s="23"/>
@@ -6724,19 +6732,19 @@
         <v>0</v>
       </c>
       <c r="P23" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q23" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q23" s="23">
+        <v>240</v>
+      </c>
+      <c r="R23" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R23" s="24">
+      <c r="S23" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S23" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T23" s="23"/>
@@ -6811,19 +6819,19 @@
         <v>0</v>
       </c>
       <c r="P24" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q24" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q24" s="23">
+        <v>240</v>
+      </c>
+      <c r="R24" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R24" s="24">
+      <c r="S24" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S24" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T24" s="23"/>
@@ -6898,19 +6906,19 @@
         <v>0</v>
       </c>
       <c r="P25" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q25" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q25" s="23">
+        <v>240</v>
+      </c>
+      <c r="R25" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R25" s="24">
+      <c r="S25" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S25" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T25" s="23"/>
@@ -6969,7 +6977,7 @@
         <v>44</v>
       </c>
       <c r="C26" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="23"/>
@@ -6986,22 +6994,22 @@
       <c r="N26" s="23"/>
       <c r="O26" s="23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P26" s="107">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="Q26" s="23">
         <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="Q26" s="23">
+        <v>230</v>
+      </c>
+      <c r="R26" s="24">
         <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="R26" s="24">
+        <v>170</v>
+      </c>
+      <c r="S26" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="S26" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T26" s="23"/>
@@ -7082,19 +7090,19 @@
         <v>15</v>
       </c>
       <c r="P27" s="107">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="Q27" s="23">
         <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="Q27" s="23">
+        <v>225</v>
+      </c>
+      <c r="R27" s="24">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="R27" s="24">
+      <c r="S27" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="S27" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T27" s="23"/>
@@ -7175,19 +7183,19 @@
         <v>52.8</v>
       </c>
       <c r="P28" s="107">
+        <f t="shared" si="3"/>
+        <v>67.2</v>
+      </c>
+      <c r="Q28" s="23">
         <f t="shared" si="4"/>
-        <v>67.2</v>
-      </c>
-      <c r="Q28" s="23">
+        <v>187.2</v>
+      </c>
+      <c r="R28" s="24">
         <f t="shared" si="1"/>
-        <v>127.2</v>
-      </c>
-      <c r="R28" s="24">
+        <v>127.19999999999999</v>
+      </c>
+      <c r="S28" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>67.2</v>
-      </c>
-      <c r="S28" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T28" s="23"/>
@@ -7262,19 +7270,19 @@
         <v>0</v>
       </c>
       <c r="P29" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q29" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q29" s="23">
+        <v>240</v>
+      </c>
+      <c r="R29" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R29" s="24">
+      <c r="S29" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S29" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T29" s="23"/>
@@ -7349,19 +7357,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q30" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q30" s="23">
+        <v>240</v>
+      </c>
+      <c r="R30" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R30" s="24">
+      <c r="S30" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S30" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T30" s="23"/>
@@ -7436,19 +7444,19 @@
         <v>0</v>
       </c>
       <c r="P31" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q31" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q31" s="23">
+        <v>240</v>
+      </c>
+      <c r="R31" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R31" s="24">
+      <c r="S31" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S31" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T31" s="23"/>
@@ -7523,19 +7531,19 @@
         <v>0</v>
       </c>
       <c r="P32" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q32" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q32" s="23">
+        <v>240</v>
+      </c>
+      <c r="R32" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R32" s="24">
+      <c r="S32" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S32" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T32" s="23"/>
@@ -7610,19 +7618,19 @@
         <v>0</v>
       </c>
       <c r="P33" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q33" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q33" s="23">
+        <v>240</v>
+      </c>
+      <c r="R33" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R33" s="24">
+      <c r="S33" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S33" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T33" s="23"/>
@@ -7699,19 +7707,19 @@
         <v>5</v>
       </c>
       <c r="P34" s="107">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="Q34" s="23">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="Q34" s="23">
+        <v>235</v>
+      </c>
+      <c r="R34" s="24">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="R34" s="24">
+      <c r="S34" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="S34" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T34" s="23"/>
@@ -7788,19 +7796,19 @@
         <v>5</v>
       </c>
       <c r="P35" s="107">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="Q35" s="23">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="Q35" s="23">
+        <v>235</v>
+      </c>
+      <c r="R35" s="24">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="R35" s="24">
+      <c r="S35" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="S35" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T35" s="23"/>
@@ -7885,19 +7893,19 @@
         <v>100</v>
       </c>
       <c r="P36" s="107">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="Q36" s="23">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="Q36" s="23">
+        <v>140</v>
+      </c>
+      <c r="R36" s="24">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="R36" s="24">
+      <c r="S36" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="S36" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T36" s="23"/>
@@ -7974,19 +7982,19 @@
         <v>5</v>
       </c>
       <c r="P37" s="107">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="Q37" s="23">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="Q37" s="23">
+        <v>235</v>
+      </c>
+      <c r="R37" s="24">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="R37" s="24">
+      <c r="S37" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="S37" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T37" s="23"/>
@@ -8061,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="P38" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q38" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q38" s="23">
+        <v>240</v>
+      </c>
+      <c r="R38" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R38" s="24">
+      <c r="S38" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S38" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T38" s="23"/>
@@ -8148,19 +8156,19 @@
         <v>0</v>
       </c>
       <c r="P39" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q39" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q39" s="23">
+        <v>240</v>
+      </c>
+      <c r="R39" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R39" s="24">
+      <c r="S39" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S39" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T39" s="23"/>
@@ -8234,19 +8242,19 @@
         <v>0</v>
       </c>
       <c r="P40" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q40" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q40" s="23">
+        <v>240</v>
+      </c>
+      <c r="R40" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R40" s="24">
+      <c r="S40" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S40" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T40" s="23"/>
@@ -8313,19 +8321,19 @@
         <v>0</v>
       </c>
       <c r="P41" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q41" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q41" s="23">
+        <v>240</v>
+      </c>
+      <c r="R41" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R41" s="24">
+      <c r="S41" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S41" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T41" s="23"/>
@@ -8406,19 +8414,19 @@
         <v>37.4</v>
       </c>
       <c r="P42" s="107">
+        <f t="shared" si="3"/>
+        <v>82.6</v>
+      </c>
+      <c r="Q42" s="23">
         <f t="shared" si="4"/>
-        <v>82.6</v>
-      </c>
-      <c r="Q42" s="23">
+        <v>202.6</v>
+      </c>
+      <c r="R42" s="24">
         <f t="shared" si="1"/>
         <v>142.6</v>
       </c>
-      <c r="R42" s="24">
+      <c r="S42" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>82.6</v>
-      </c>
-      <c r="S42" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T42" s="23"/>
@@ -8495,19 +8503,19 @@
         <v>0</v>
       </c>
       <c r="P43" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q43" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q43" s="23">
+        <v>240</v>
+      </c>
+      <c r="R43" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R43" s="24">
+      <c r="S43" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S43" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T43" s="23"/>
@@ -8582,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="P44" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q44" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q44" s="23">
+        <v>240</v>
+      </c>
+      <c r="R44" s="24">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R44" s="24">
+      <c r="S44" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S44" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T44" s="23"/>
@@ -8671,19 +8679,19 @@
         <v>5</v>
       </c>
       <c r="P45" s="107">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="Q45" s="23">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="Q45" s="23">
+        <v>235</v>
+      </c>
+      <c r="R45" s="24">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="R45" s="24">
+      <c r="S45" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="S45" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T45" s="23"/>
@@ -8758,19 +8766,19 @@
         <v>0</v>
       </c>
       <c r="P46" s="107">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q46" s="23">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Q46" s="23">
+        <v>240</v>
+      </c>
+      <c r="R46" s="21">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R46" s="21">
+      <c r="S46" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S46" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T46" s="23"/>
@@ -8839,19 +8847,19 @@
         <v>5</v>
       </c>
       <c r="P47" s="107">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="Q47" s="23">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="Q47" s="23">
+        <v>235</v>
+      </c>
+      <c r="R47" s="21">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="R47" s="21">
+      <c r="S47" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="S47" s="25" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T47" s="23"/>
@@ -8920,19 +8928,19 @@
         <v>5</v>
       </c>
       <c r="P48" s="107">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="Q48" s="23">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="Q48" s="23">
+        <v>235</v>
+      </c>
+      <c r="R48" s="43">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="R48" s="43">
+      <c r="S48" s="45" t="str">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="S48" s="45" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T48" s="45"/>
@@ -8975,7 +8983,7 @@
         <v>137</v>
       </c>
       <c r="C49" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D49" s="3">
         <v>20</v>
@@ -8996,22 +9004,22 @@
       <c r="N49" s="3"/>
       <c r="O49" s="23">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P49" s="107">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Q49" s="23">
         <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="Q49" s="23">
+        <v>180</v>
+      </c>
+      <c r="R49" s="21">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="R49" s="21">
+        <v>120</v>
+      </c>
+      <c r="S49" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="S49" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T49" s="3"/>
@@ -9069,28 +9077,28 @@
         <v>-5</v>
       </c>
       <c r="P50" s="107">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="Q50" s="23">
         <f t="shared" si="4"/>
-        <v>125</v>
-      </c>
-      <c r="Q50" s="23">
+        <v>245</v>
+      </c>
+      <c r="R50" s="21">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="R50" s="21">
+      <c r="S50" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="S50" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T50" s="3"/>
-      <c r="AG50" s="156" t="s">
+      <c r="AG50" s="157" t="s">
         <v>172</v>
       </c>
-      <c r="AH50" s="156"/>
-      <c r="AI50" s="156"/>
-      <c r="AJ50" s="156"/>
+      <c r="AH50" s="157"/>
+      <c r="AI50" s="157"/>
+      <c r="AJ50" s="157"/>
       <c r="AK50" s="93">
         <v>3087000</v>
       </c>
@@ -9124,19 +9132,19 @@
         <v>30</v>
       </c>
       <c r="P51" s="107">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="Q51" s="23">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="Q51" s="23">
+        <v>210</v>
+      </c>
+      <c r="R51" s="21">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="R51" s="21">
+      <c r="S51" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="S51" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T51" s="3"/>
@@ -9147,12 +9155,12 @@
       <c r="AC51" s="48"/>
       <c r="AD51" s="48"/>
       <c r="AE51" s="48"/>
-      <c r="AG51" s="160" t="s">
+      <c r="AG51" s="161" t="s">
         <v>174</v>
       </c>
-      <c r="AH51" s="161"/>
-      <c r="AI51" s="161"/>
-      <c r="AJ51" s="162"/>
+      <c r="AH51" s="162"/>
+      <c r="AI51" s="162"/>
+      <c r="AJ51" s="163"/>
       <c r="AK51" s="105">
         <v>3077000</v>
       </c>
@@ -9184,19 +9192,19 @@
         <v>5</v>
       </c>
       <c r="P52" s="107">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="Q52" s="23">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="Q52" s="23">
+        <v>235</v>
+      </c>
+      <c r="R52" s="21">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="R52" s="21">
+      <c r="S52" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="S52" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T52" s="3"/>
@@ -9208,12 +9216,12 @@
       <c r="AD52" s="48"/>
       <c r="AE52" s="48"/>
       <c r="AF52" s="48"/>
-      <c r="AG52" s="157" t="s">
+      <c r="AG52" s="158" t="s">
         <v>181</v>
       </c>
-      <c r="AH52" s="158"/>
-      <c r="AI52" s="158"/>
-      <c r="AJ52" s="159"/>
+      <c r="AH52" s="159"/>
+      <c r="AI52" s="159"/>
+      <c r="AJ52" s="160"/>
       <c r="AK52" s="109">
         <v>2550000</v>
       </c>
@@ -9245,19 +9253,19 @@
         <v>5</v>
       </c>
       <c r="P53" s="107">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="Q53" s="23">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="Q53" s="23">
+        <v>235</v>
+      </c>
+      <c r="R53" s="21">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="R53" s="21">
+      <c r="S53" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="S53" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T53" s="3"/>
@@ -9311,19 +9319,19 @@
         <v>5</v>
       </c>
       <c r="P54" s="107">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="Q54" s="23">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="Q54" s="23">
+        <v>235</v>
+      </c>
+      <c r="R54" s="21">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="R54" s="21">
+      <c r="S54" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="S54" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T54" s="3"/>
@@ -9366,15 +9374,15 @@
       </c>
       <c r="P55" s="107"/>
       <c r="Q55" s="23">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="R55" s="21">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R55" s="21">
+      <c r="S55" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S55" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T55" s="3"/>
@@ -9411,24 +9419,24 @@
       </c>
       <c r="P56" s="107"/>
       <c r="Q56" s="23">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="R56" s="21">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R56" s="21">
+      <c r="S56" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S56" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T56" s="3"/>
-      <c r="AG56" s="160" t="s">
+      <c r="AG56" s="161" t="s">
         <v>179</v>
       </c>
-      <c r="AH56" s="161"/>
-      <c r="AI56" s="161"/>
-      <c r="AJ56" s="162"/>
+      <c r="AH56" s="162"/>
+      <c r="AI56" s="162"/>
+      <c r="AJ56" s="163"/>
       <c r="AK56" s="94">
         <f>AK55</f>
         <v>2627000</v>
@@ -9457,24 +9465,24 @@
       </c>
       <c r="P57" s="107"/>
       <c r="Q57" s="23">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="R57" s="21">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R57" s="21">
+      <c r="S57" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S57" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T57" s="3"/>
-      <c r="AG57" s="156" t="s">
+      <c r="AG57" s="157" t="s">
         <v>171</v>
       </c>
-      <c r="AH57" s="156"/>
-      <c r="AI57" s="156"/>
-      <c r="AJ57" s="156"/>
+      <c r="AH57" s="157"/>
+      <c r="AI57" s="157"/>
+      <c r="AJ57" s="157"/>
       <c r="AK57" s="120">
         <f>AK51-AK56</f>
         <v>450000</v>
@@ -9503,15 +9511,15 @@
       </c>
       <c r="P58" s="107"/>
       <c r="Q58" s="23">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="R58" s="21">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R58" s="21">
+      <c r="S58" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S58" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T58" s="3"/>
@@ -9539,15 +9547,15 @@
       </c>
       <c r="P59" s="107"/>
       <c r="Q59" s="23">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="R59" s="21">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R59" s="21">
+      <c r="S59" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S59" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T59" s="3"/>
@@ -9575,15 +9583,15 @@
       </c>
       <c r="P60" s="107"/>
       <c r="Q60" s="23">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="R60" s="21">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R60" s="21">
+      <c r="S60" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S60" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T60" s="3"/>
@@ -9610,15 +9618,15 @@
       </c>
       <c r="P61" s="107"/>
       <c r="Q61" s="23">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="R61" s="21">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R61" s="21">
+      <c r="S61" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S61" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T61" s="3"/>
@@ -9644,15 +9652,15 @@
       </c>
       <c r="P62" s="107"/>
       <c r="Q62" s="23">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="R62" s="21">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R62" s="21">
+      <c r="S62" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S62" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T62" s="3"/>
@@ -9678,15 +9686,15 @@
       </c>
       <c r="P63" s="107"/>
       <c r="Q63" s="23">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="R63" s="21">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="R63" s="21">
+      <c r="S63" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S63" s="46" t="str">
-        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="T63" s="3"/>
@@ -9701,13 +9709,13 @@
       <c r="E66" s="146"/>
       <c r="F66" s="146"/>
       <c r="G66" s="147"/>
-      <c r="I66" s="165" t="s">
+      <c r="I66" s="156" t="s">
         <v>183</v>
       </c>
-      <c r="J66" s="165"/>
-      <c r="K66" s="165"/>
-      <c r="L66" s="165"/>
-      <c r="M66" s="165"/>
+      <c r="J66" s="156"/>
+      <c r="K66" s="156"/>
+      <c r="L66" s="156"/>
+      <c r="M66" s="156"/>
     </row>
     <row r="67" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="148"/>
@@ -9715,11 +9723,11 @@
       <c r="E67" s="149"/>
       <c r="F67" s="149"/>
       <c r="G67" s="150"/>
-      <c r="I67" s="165"/>
-      <c r="J67" s="165"/>
-      <c r="K67" s="165"/>
-      <c r="L67" s="165"/>
-      <c r="M67" s="165"/>
+      <c r="I67" s="156"/>
+      <c r="J67" s="156"/>
+      <c r="K67" s="156"/>
+      <c r="L67" s="156"/>
+      <c r="M67" s="156"/>
     </row>
     <row r="68" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9936,37 +9944,37 @@
     <mergeCell ref="I66:M67"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:T63">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>IF(ISBLANK($B$4), 0, SEARCH($B$4,$B6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI9:AI48">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH(("YES"),(AI9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI9:AI48">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(AI9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AL9 W46:AA46 AB46:AJ48 AA47:AA48 W10:AJ45 AK10:AL48">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>IF(ISBLANK($X$4), 0, SEARCH($X$4,$W9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S63">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(S6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S63">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH(("OK"),(S6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10:W45">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(AI10="YES",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9991,17 +9999,17 @@
     <row r="3" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="77"/>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="164"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="78"/>
       <c r="F4" s="84"/>
       <c r="G4" s="85"/>
-      <c r="H4" s="163" t="s">
+      <c r="H4" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="164"/>
+      <c r="I4" s="165"/>
       <c r="J4" s="86"/>
       <c r="K4" s="78"/>
     </row>
@@ -10128,17 +10136,17 @@
     <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="77"/>
-      <c r="C17" s="163" t="s">
+      <c r="C17" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="164"/>
+      <c r="D17" s="165"/>
       <c r="E17" s="78"/>
       <c r="F17" s="77"/>
       <c r="G17" s="86"/>
-      <c r="H17" s="163" t="s">
+      <c r="H17" s="164" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="164"/>
+      <c r="I17" s="165"/>
       <c r="J17" s="86"/>
       <c r="K17" s="78"/>
     </row>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -1566,20 +1566,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1594,9 +1580,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1610,6 +1601,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1640,32 +1664,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1677,15 +1677,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -2434,126 +2426,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
+      <c r="A1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="133"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="133"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="133"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="134"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="133"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
+      <c r="A6" s="127"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2624,10 +2616,10 @@
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="121" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1">
@@ -2639,7 +2631,7 @@
       <c r="G10" s="1">
         <v>20</v>
       </c>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="124" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="1">
@@ -2687,8 +2679,8 @@
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="1">
         <v>20</v>
       </c>
@@ -2698,7 +2690,7 @@
       <c r="G11" s="1">
         <v>20</v>
       </c>
-      <c r="H11" s="128"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="1">
         <v>20</v>
       </c>
@@ -2744,8 +2736,8 @@
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="1">
         <v>10</v>
       </c>
@@ -2755,7 +2747,7 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="128"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="1">
         <v>20</v>
       </c>
@@ -2795,8 +2787,8 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="1">
         <v>20</v>
       </c>
@@ -2806,7 +2798,7 @@
       <c r="G13" s="1">
         <v>20</v>
       </c>
-      <c r="H13" s="128"/>
+      <c r="H13" s="122"/>
       <c r="I13" s="1">
         <v>20</v>
       </c>
@@ -2846,14 +2838,14 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="1">
         <v>20</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="128"/>
+      <c r="H14" s="122"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2889,8 +2881,8 @@
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="1">
         <v>20</v>
       </c>
@@ -2900,7 +2892,7 @@
       <c r="G15" s="1">
         <v>20</v>
       </c>
-      <c r="H15" s="128"/>
+      <c r="H15" s="122"/>
       <c r="I15" s="1">
         <v>20</v>
       </c>
@@ -2948,8 +2940,8 @@
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="1">
         <v>20</v>
       </c>
@@ -2957,7 +2949,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="128"/>
+      <c r="H16" s="122"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2993,8 +2985,8 @@
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="1">
         <v>20</v>
       </c>
@@ -3002,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="128"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3038,12 +3030,12 @@
       <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="128"/>
+      <c r="H18" s="122"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -3079,8 +3071,8 @@
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>20</v>
@@ -3088,7 +3080,7 @@
       <c r="G19" s="1">
         <v>20</v>
       </c>
-      <c r="H19" s="128"/>
+      <c r="H19" s="122"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3126,8 +3118,8 @@
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
       <c r="E20" s="1">
         <v>20</v>
       </c>
@@ -3135,7 +3127,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="128"/>
+      <c r="H20" s="122"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3171,8 +3163,8 @@
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
       <c r="E21" s="1">
         <v>20</v>
       </c>
@@ -3182,7 +3174,7 @@
       <c r="G21" s="1">
         <v>20</v>
       </c>
-      <c r="H21" s="128"/>
+      <c r="H21" s="122"/>
       <c r="I21" s="1">
         <v>20</v>
       </c>
@@ -3222,8 +3214,8 @@
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
       <c r="E22" s="1">
         <v>20</v>
       </c>
@@ -3233,7 +3225,7 @@
       <c r="G22" s="1">
         <v>15</v>
       </c>
-      <c r="H22" s="128"/>
+      <c r="H22" s="122"/>
       <c r="I22" s="1">
         <v>10</v>
       </c>
@@ -3271,14 +3263,14 @@
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="128"/>
+      <c r="H23" s="122"/>
       <c r="I23" s="1"/>
       <c r="J23" s="9">
         <v>-40</v>
@@ -3318,8 +3310,8 @@
       <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
       <c r="E24" s="1">
         <v>20</v>
       </c>
@@ -3327,7 +3319,7 @@
       <c r="G24" s="1">
         <v>20</v>
       </c>
-      <c r="H24" s="128"/>
+      <c r="H24" s="122"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3363,12 +3355,12 @@
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="128"/>
+      <c r="H25" s="122"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -3404,8 +3396,8 @@
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
       <c r="E26" s="1">
         <v>20</v>
       </c>
@@ -3415,7 +3407,7 @@
       <c r="G26" s="1">
         <v>20</v>
       </c>
-      <c r="H26" s="128"/>
+      <c r="H26" s="122"/>
       <c r="I26" s="1">
         <v>20</v>
       </c>
@@ -3455,14 +3447,14 @@
       <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>20</v>
       </c>
-      <c r="H27" s="128"/>
+      <c r="H27" s="122"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3498,8 +3490,8 @@
       <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
       <c r="E28" s="1">
         <v>20</v>
       </c>
@@ -3507,7 +3499,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="128"/>
+      <c r="H28" s="122"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3543,14 +3535,14 @@
       <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
       <c r="E29" s="1">
         <v>20</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="128"/>
+      <c r="H29" s="122"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3586,8 +3578,8 @@
       <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
       <c r="E30" s="1">
         <v>20</v>
       </c>
@@ -3597,7 +3589,7 @@
       <c r="G30" s="1">
         <v>20</v>
       </c>
-      <c r="H30" s="128"/>
+      <c r="H30" s="122"/>
       <c r="I30" s="1">
         <v>20</v>
       </c>
@@ -3643,14 +3635,14 @@
       <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
         <v>20</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="128"/>
+      <c r="H31" s="122"/>
       <c r="I31" s="1">
         <v>20</v>
       </c>
@@ -3690,8 +3682,8 @@
       <c r="B32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="1">
         <v>20</v>
       </c>
@@ -3701,7 +3693,7 @@
       <c r="G32" s="1">
         <v>20</v>
       </c>
-      <c r="H32" s="128"/>
+      <c r="H32" s="122"/>
       <c r="I32" s="1">
         <v>20</v>
       </c>
@@ -3747,8 +3739,8 @@
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="1">
         <v>20</v>
       </c>
@@ -3756,7 +3748,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="128"/>
+      <c r="H33" s="122"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3792,14 +3784,14 @@
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="1">
         <v>20</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="128"/>
+      <c r="H34" s="122"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3835,8 +3827,8 @@
       <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="1">
         <v>20</v>
       </c>
@@ -3844,7 +3836,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="128"/>
+      <c r="H35" s="122"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3880,8 +3872,8 @@
       <c r="B36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
       <c r="E36" s="1">
         <v>20</v>
       </c>
@@ -3891,7 +3883,7 @@
       <c r="G36" s="1">
         <v>20</v>
       </c>
-      <c r="H36" s="128"/>
+      <c r="H36" s="122"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
         <v>20</v>
@@ -3929,8 +3921,8 @@
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="1">
         <v>20</v>
       </c>
@@ -3940,7 +3932,7 @@
       <c r="G37" s="1">
         <v>20</v>
       </c>
-      <c r="H37" s="128"/>
+      <c r="H37" s="122"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
         <v>20</v>
@@ -3984,8 +3976,8 @@
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
       <c r="E38" s="1">
         <v>20</v>
       </c>
@@ -3995,7 +3987,7 @@
       <c r="G38" s="1">
         <v>20</v>
       </c>
-      <c r="H38" s="128"/>
+      <c r="H38" s="122"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
         <v>20</v>
@@ -4033,8 +4025,8 @@
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
       <c r="E39" s="1">
         <v>20</v>
       </c>
@@ -4042,7 +4034,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="128"/>
+      <c r="H39" s="122"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -4078,8 +4070,8 @@
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
       <c r="E40" s="1">
         <v>20</v>
       </c>
@@ -4089,7 +4081,7 @@
       <c r="G40" s="1">
         <v>20</v>
       </c>
-      <c r="H40" s="128"/>
+      <c r="H40" s="122"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <v>20</v>
@@ -4133,8 +4125,8 @@
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
       <c r="E41" s="1">
         <v>20</v>
       </c>
@@ -4142,7 +4134,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="128"/>
+      <c r="H41" s="122"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -4178,14 +4170,14 @@
       <c r="B42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
       <c r="E42" s="1">
         <v>20</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="128"/>
+      <c r="H42" s="122"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -4221,8 +4213,8 @@
       <c r="B43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
       <c r="E43" s="1">
         <v>20</v>
       </c>
@@ -4232,7 +4224,7 @@
       <c r="G43" s="1">
         <v>20</v>
       </c>
-      <c r="H43" s="128"/>
+      <c r="H43" s="122"/>
       <c r="I43" s="1">
         <v>20</v>
       </c>
@@ -4280,8 +4272,8 @@
       <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
       <c r="E44" s="1">
         <v>20</v>
       </c>
@@ -4291,7 +4283,7 @@
       <c r="G44" s="1">
         <v>20</v>
       </c>
-      <c r="H44" s="128"/>
+      <c r="H44" s="122"/>
       <c r="I44" s="1">
         <v>20</v>
       </c>
@@ -4335,8 +4327,8 @@
       <c r="B45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="128"/>
-      <c r="D45" s="128"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
       <c r="E45" s="1">
         <v>20</v>
       </c>
@@ -4346,7 +4338,7 @@
       <c r="G45" s="1">
         <v>20</v>
       </c>
-      <c r="H45" s="128"/>
+      <c r="H45" s="122"/>
       <c r="I45" s="1">
         <v>15</v>
       </c>
@@ -4384,8 +4376,8 @@
       <c r="B46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="128"/>
-      <c r="D46" s="128"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
       <c r="E46" s="1">
         <v>20</v>
       </c>
@@ -4395,7 +4387,7 @@
       <c r="G46" s="1">
         <v>20</v>
       </c>
-      <c r="H46" s="128"/>
+      <c r="H46" s="122"/>
       <c r="I46" s="1">
         <v>20</v>
       </c>
@@ -4433,8 +4425,8 @@
       <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="128"/>
-      <c r="D47" s="128"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
       <c r="E47" s="1">
         <v>20</v>
       </c>
@@ -4444,7 +4436,7 @@
       <c r="G47" s="1">
         <v>20</v>
       </c>
-      <c r="H47" s="128"/>
+      <c r="H47" s="122"/>
       <c r="I47" s="1">
         <v>20</v>
       </c>
@@ -4488,8 +4480,8 @@
       <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
       <c r="E48" s="1">
         <v>20</v>
       </c>
@@ -4497,7 +4489,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="128"/>
+      <c r="H48" s="122"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4533,8 +4525,8 @@
       <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
       <c r="E49" s="1">
         <v>20</v>
       </c>
@@ -4544,7 +4536,7 @@
       <c r="G49" s="1">
         <v>20</v>
       </c>
-      <c r="H49" s="128"/>
+      <c r="H49" s="122"/>
       <c r="I49" s="1">
         <v>20</v>
       </c>
@@ -4584,12 +4576,12 @@
       <c r="B50" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="128"/>
+      <c r="H50" s="122"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -4625,12 +4617,12 @@
       <c r="B51" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="128"/>
-      <c r="D51" s="128"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="128"/>
+      <c r="H51" s="122"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -4666,12 +4658,12 @@
       <c r="B52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="129"/>
-      <c r="D52" s="129"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="123"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="129"/>
+      <c r="H52" s="123"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -4708,58 +4700,58 @@
     <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I58" s="136" t="s">
+      <c r="I58" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="J58" s="137"/>
-      <c r="K58" s="137"/>
-      <c r="L58" s="137"/>
-      <c r="M58" s="138"/>
-      <c r="O58" s="144" t="s">
+      <c r="J58" s="134"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="135"/>
+      <c r="O58" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="P58" s="137"/>
-      <c r="Q58" s="137"/>
-      <c r="R58" s="138"/>
+      <c r="P58" s="134"/>
+      <c r="Q58" s="134"/>
+      <c r="R58" s="135"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I59" s="139" t="s">
+      <c r="I59" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="134"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="140"/>
-      <c r="O59" s="139" t="s">
+      <c r="J59" s="128"/>
+      <c r="K59" s="128"/>
+      <c r="L59" s="128"/>
+      <c r="M59" s="137"/>
+      <c r="O59" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="P59" s="134"/>
-      <c r="Q59" s="134"/>
-      <c r="R59" s="140"/>
+      <c r="P59" s="128"/>
+      <c r="Q59" s="128"/>
+      <c r="R59" s="137"/>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="141"/>
-      <c r="J60" s="142"/>
-      <c r="K60" s="142"/>
-      <c r="L60" s="142"/>
-      <c r="M60" s="143"/>
-      <c r="O60" s="141"/>
-      <c r="P60" s="142"/>
-      <c r="Q60" s="142"/>
-      <c r="R60" s="143"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="139"/>
+      <c r="K60" s="139"/>
+      <c r="L60" s="139"/>
+      <c r="M60" s="140"/>
+      <c r="O60" s="138"/>
+      <c r="P60" s="139"/>
+      <c r="Q60" s="139"/>
+      <c r="R60" s="140"/>
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="122"/>
-      <c r="K61" s="123"/>
-      <c r="L61" s="135" t="s">
+      <c r="I61" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="132"/>
+      <c r="K61" s="130"/>
+      <c r="L61" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="M61" s="123"/>
-      <c r="O61" s="135"/>
-      <c r="P61" s="123"/>
+      <c r="M61" s="130"/>
+      <c r="O61" s="131"/>
+      <c r="P61" s="130"/>
       <c r="Q61" s="11" t="s">
         <v>20</v>
       </c>
@@ -4768,38 +4760,38 @@
       </c>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I62" s="121" t="s">
+      <c r="I62" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="J62" s="122"/>
-      <c r="K62" s="123"/>
-      <c r="L62" s="124">
+      <c r="J62" s="132"/>
+      <c r="K62" s="130"/>
+      <c r="L62" s="143">
         <v>7350000</v>
       </c>
-      <c r="M62" s="123"/>
-      <c r="O62" s="125" t="s">
+      <c r="M62" s="130"/>
+      <c r="O62" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="P62" s="123"/>
+      <c r="P62" s="130"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="13">
         <v>40000</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I63" s="121" t="s">
+      <c r="I63" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="J63" s="122"/>
-      <c r="K63" s="123"/>
-      <c r="L63" s="126">
+      <c r="J63" s="132"/>
+      <c r="K63" s="130"/>
+      <c r="L63" s="144">
         <v>1100000</v>
       </c>
-      <c r="M63" s="123"/>
-      <c r="O63" s="125" t="s">
+      <c r="M63" s="130"/>
+      <c r="O63" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="P63" s="123"/>
+      <c r="P63" s="130"/>
       <c r="Q63" s="14" t="s">
         <v>77</v>
       </c>
@@ -4808,39 +4800,39 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I64" s="121" t="s">
+      <c r="I64" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="122"/>
-      <c r="K64" s="123"/>
-      <c r="L64" s="124">
+      <c r="J64" s="132"/>
+      <c r="K64" s="130"/>
+      <c r="L64" s="143">
         <f>L62+L63</f>
         <v>8450000</v>
       </c>
-      <c r="M64" s="123"/>
-      <c r="O64" s="125" t="s">
+      <c r="M64" s="130"/>
+      <c r="O64" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="P64" s="123"/>
+      <c r="P64" s="130"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="9:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I65" s="121" t="s">
+      <c r="I65" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="J65" s="122"/>
-      <c r="K65" s="123"/>
-      <c r="L65" s="124">
+      <c r="J65" s="132"/>
+      <c r="K65" s="130"/>
+      <c r="L65" s="143">
         <v>8411850</v>
       </c>
-      <c r="M65" s="123"/>
-      <c r="O65" s="125" t="s">
+      <c r="M65" s="130"/>
+      <c r="O65" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="P65" s="123"/>
+      <c r="P65" s="130"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="13">
         <f>R62-R63+R64</f>
@@ -4848,20 +4840,20 @@
       </c>
     </row>
     <row r="66" spans="9:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I66" s="121" t="s">
+      <c r="I66" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="J66" s="122"/>
-      <c r="K66" s="123"/>
-      <c r="L66" s="124">
+      <c r="J66" s="132"/>
+      <c r="K66" s="130"/>
+      <c r="L66" s="143">
         <f>L64-L65</f>
         <v>38150</v>
       </c>
-      <c r="M66" s="123"/>
-      <c r="O66" s="125" t="s">
+      <c r="M66" s="130"/>
+      <c r="O66" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="P66" s="123"/>
+      <c r="P66" s="130"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="13">
         <f>L66+R65</f>
@@ -5070,6 +5062,17 @@
     <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:M63"/>
     <mergeCell ref="C10:C52"/>
     <mergeCell ref="D10:D52"/>
     <mergeCell ref="H10:H52"/>
@@ -5085,17 +5088,6 @@
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="O61:P61"/>
     <mergeCell ref="O59:R60"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O65:P65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5106,8 +5098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AM263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5125,7 +5117,7 @@
     <col min="16" max="16" width="25.7109375" style="104" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
     <col min="18" max="18" width="23.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="19" max="19" width="15" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" customWidth="1"/>
     <col min="21" max="21" width="11.85546875" customWidth="1"/>
     <col min="22" max="22" width="4.5703125" customWidth="1"/>
@@ -5147,42 +5139,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
       <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -5256,25 +5248,25 @@
       <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="155" t="s">
+      <c r="V5" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="122"/>
-      <c r="AI5" s="122"/>
-      <c r="AJ5" s="122"/>
-      <c r="AK5" s="122"/>
-      <c r="AL5" s="123"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="132"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="132"/>
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="132"/>
+      <c r="AJ5" s="132"/>
+      <c r="AK5" s="132"/>
+      <c r="AL5" s="130"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -5322,29 +5314,29 @@
         <v>NO</v>
       </c>
       <c r="T6" s="23"/>
-      <c r="V6" s="152" t="s">
+      <c r="V6" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="152" t="s">
+      <c r="W6" s="160" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="155" t="s">
+      <c r="X6" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="122"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="122"/>
-      <c r="AL6" s="123"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132"/>
+      <c r="AF6" s="132"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="132"/>
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="130"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -5390,27 +5382,27 @@
         <v>NO</v>
       </c>
       <c r="T7" s="23"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
-      <c r="X7" s="155" t="s">
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="155" t="s">
+      <c r="Y7" s="132"/>
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="122"/>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="122"/>
-      <c r="AL7" s="123"/>
+      <c r="AC7" s="132"/>
+      <c r="AD7" s="132"/>
+      <c r="AE7" s="132"/>
+      <c r="AF7" s="132"/>
+      <c r="AG7" s="132"/>
+      <c r="AH7" s="132"/>
+      <c r="AI7" s="132"/>
+      <c r="AJ7" s="132"/>
+      <c r="AK7" s="132"/>
+      <c r="AL7" s="130"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -5452,8 +5444,8 @@
         <v>NO</v>
       </c>
       <c r="T8" s="23"/>
-      <c r="V8" s="129"/>
-      <c r="W8" s="129"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
       <c r="X8" s="10" t="s">
         <v>20</v>
       </c>
@@ -9026,10 +9018,10 @@
       <c r="V49" s="68"/>
       <c r="W49" s="68"/>
       <c r="X49" s="68"/>
-      <c r="Y49" s="153" t="s">
+      <c r="Y49" s="161" t="s">
         <v>145</v>
       </c>
-      <c r="Z49" s="154"/>
+      <c r="Z49" s="162"/>
       <c r="AA49" s="41">
         <f>SUM(AA9:AA21)</f>
         <v>20000</v>
@@ -9093,12 +9085,12 @@
         <v>NO</v>
       </c>
       <c r="T50" s="3"/>
-      <c r="AG50" s="157" t="s">
+      <c r="AG50" s="146" t="s">
         <v>172</v>
       </c>
-      <c r="AH50" s="157"/>
-      <c r="AI50" s="157"/>
-      <c r="AJ50" s="157"/>
+      <c r="AH50" s="146"/>
+      <c r="AI50" s="146"/>
+      <c r="AJ50" s="146"/>
       <c r="AK50" s="93">
         <v>3087000</v>
       </c>
@@ -9155,12 +9147,12 @@
       <c r="AC51" s="48"/>
       <c r="AD51" s="48"/>
       <c r="AE51" s="48"/>
-      <c r="AG51" s="161" t="s">
+      <c r="AG51" s="150" t="s">
         <v>174</v>
       </c>
-      <c r="AH51" s="162"/>
-      <c r="AI51" s="162"/>
-      <c r="AJ51" s="163"/>
+      <c r="AH51" s="151"/>
+      <c r="AI51" s="151"/>
+      <c r="AJ51" s="152"/>
       <c r="AK51" s="105">
         <v>3077000</v>
       </c>
@@ -9216,12 +9208,12 @@
       <c r="AD52" s="48"/>
       <c r="AE52" s="48"/>
       <c r="AF52" s="48"/>
-      <c r="AG52" s="158" t="s">
+      <c r="AG52" s="147" t="s">
         <v>181</v>
       </c>
-      <c r="AH52" s="159"/>
-      <c r="AI52" s="159"/>
-      <c r="AJ52" s="160"/>
+      <c r="AH52" s="148"/>
+      <c r="AI52" s="148"/>
+      <c r="AJ52" s="149"/>
       <c r="AK52" s="109">
         <v>2550000</v>
       </c>
@@ -9431,12 +9423,12 @@
         <v>NO</v>
       </c>
       <c r="T56" s="3"/>
-      <c r="AG56" s="161" t="s">
+      <c r="AG56" s="150" t="s">
         <v>179</v>
       </c>
-      <c r="AH56" s="162"/>
-      <c r="AI56" s="162"/>
-      <c r="AJ56" s="163"/>
+      <c r="AH56" s="151"/>
+      <c r="AI56" s="151"/>
+      <c r="AJ56" s="152"/>
       <c r="AK56" s="94">
         <f>AK55</f>
         <v>2627000</v>
@@ -9477,12 +9469,12 @@
         <v>NO</v>
       </c>
       <c r="T57" s="3"/>
-      <c r="AG57" s="157" t="s">
+      <c r="AG57" s="146" t="s">
         <v>171</v>
       </c>
-      <c r="AH57" s="157"/>
-      <c r="AI57" s="157"/>
-      <c r="AJ57" s="157"/>
+      <c r="AH57" s="146"/>
+      <c r="AI57" s="146"/>
+      <c r="AJ57" s="146"/>
       <c r="AK57" s="120">
         <f>AK51-AK56</f>
         <v>450000</v>
@@ -9702,32 +9694,32 @@
     <row r="64" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="145" t="s">
+      <c r="C66" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="146"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="146"/>
-      <c r="G66" s="147"/>
-      <c r="I66" s="156" t="s">
+      <c r="D66" s="154"/>
+      <c r="E66" s="154"/>
+      <c r="F66" s="154"/>
+      <c r="G66" s="155"/>
+      <c r="I66" s="163" t="s">
         <v>183</v>
       </c>
-      <c r="J66" s="156"/>
-      <c r="K66" s="156"/>
-      <c r="L66" s="156"/>
-      <c r="M66" s="156"/>
+      <c r="J66" s="163"/>
+      <c r="K66" s="163"/>
+      <c r="L66" s="163"/>
+      <c r="M66" s="163"/>
     </row>
     <row r="67" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="148"/>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
-      <c r="F67" s="149"/>
-      <c r="G67" s="150"/>
-      <c r="I67" s="156"/>
-      <c r="J67" s="156"/>
-      <c r="K67" s="156"/>
-      <c r="L67" s="156"/>
-      <c r="M67" s="156"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="157"/>
+      <c r="E67" s="157"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="158"/>
+      <c r="I67" s="163"/>
+      <c r="J67" s="163"/>
+      <c r="K67" s="163"/>
+      <c r="L67" s="163"/>
+      <c r="M67" s="163"/>
     </row>
     <row r="68" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9927,6 +9919,13 @@
     <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C66:G67"/>
+    <mergeCell ref="C2:R3"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="I66:M67"/>
     <mergeCell ref="AB7:AL7"/>
     <mergeCell ref="V5:AL5"/>
     <mergeCell ref="X6:AL6"/>
@@ -9935,46 +9934,39 @@
     <mergeCell ref="AG51:AJ51"/>
     <mergeCell ref="AG50:AJ50"/>
     <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="C66:G67"/>
-    <mergeCell ref="C2:R3"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="I66:M67"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:T63">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>IF(ISBLANK($B$4), 0, SEARCH($B$4,$B6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI9:AI48">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH(("YES"),(AI9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI9:AI48">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(AI9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AL9 W46:AA46 AB46:AJ48 AA47:AA48 W10:AJ45 AK10:AL48">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>IF(ISBLANK($X$4), 0, SEARCH($X$4,$W9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S63">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(S6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S63">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH(("OK"),(S6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10:W45">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(AI10="YES",1,0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="464"/>
   </bookViews>
   <sheets>
     <sheet name="2018(NOT UPDATED)" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="185">
   <si>
     <t>LAPORAN KEUANGAN KAS GAS</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>Connected with Github</t>
+  </si>
+  <si>
+    <t>yahya</t>
   </si>
 </sst>
 </file>
@@ -1364,16 +1367,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1413,7 +1412,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1566,6 +1564,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1580,14 +1592,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1601,39 +1608,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1664,8 +1638,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1673,11 +1671,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2403,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T266"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R6"/>
+    <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2426,126 +2469,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
+      <c r="A1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2616,10 +2659,10 @@
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="121" t="s">
+      <c r="D10" s="124" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1">
@@ -2631,7 +2674,7 @@
       <c r="G10" s="1">
         <v>20</v>
       </c>
-      <c r="H10" s="124" t="s">
+      <c r="H10" s="127" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="1">
@@ -2679,8 +2722,8 @@
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
       <c r="E11" s="1">
         <v>20</v>
       </c>
@@ -2690,7 +2733,7 @@
       <c r="G11" s="1">
         <v>20</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="1">
         <v>20</v>
       </c>
@@ -2736,8 +2779,8 @@
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
       <c r="E12" s="1">
         <v>10</v>
       </c>
@@ -2747,7 +2790,7 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="122"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="1">
         <v>20</v>
       </c>
@@ -2787,8 +2830,8 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
       <c r="E13" s="1">
         <v>20</v>
       </c>
@@ -2798,7 +2841,7 @@
       <c r="G13" s="1">
         <v>20</v>
       </c>
-      <c r="H13" s="122"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="1">
         <v>20</v>
       </c>
@@ -2838,14 +2881,14 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
       <c r="E14" s="1">
         <v>20</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="122"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2881,8 +2924,8 @@
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
       <c r="E15" s="1">
         <v>20</v>
       </c>
@@ -2892,7 +2935,7 @@
       <c r="G15" s="1">
         <v>20</v>
       </c>
-      <c r="H15" s="122"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="1">
         <v>20</v>
       </c>
@@ -2940,8 +2983,8 @@
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
       <c r="E16" s="1">
         <v>20</v>
       </c>
@@ -2949,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="122"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2985,8 +3028,8 @@
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
       <c r="E17" s="1">
         <v>20</v>
       </c>
@@ -2994,7 +3037,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="122"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3030,12 +3073,12 @@
       <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="122"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -3071,8 +3114,8 @@
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>20</v>
@@ -3080,7 +3123,7 @@
       <c r="G19" s="1">
         <v>20</v>
       </c>
-      <c r="H19" s="122"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3118,8 +3161,8 @@
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
       <c r="E20" s="1">
         <v>20</v>
       </c>
@@ -3127,7 +3170,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="122"/>
+      <c r="H20" s="125"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3163,8 +3206,8 @@
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="1">
         <v>20</v>
       </c>
@@ -3174,36 +3217,38 @@
       <c r="G21" s="1">
         <v>20</v>
       </c>
-      <c r="H21" s="122"/>
+      <c r="H21" s="125"/>
       <c r="I21" s="1">
         <v>20</v>
       </c>
       <c r="J21" s="1">
         <v>20</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1">
+        <v>20</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R21" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
+        <v>OK</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T21" s="1"/>
     </row>
@@ -3214,8 +3259,8 @@
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
       <c r="E22" s="1">
         <v>20</v>
       </c>
@@ -3225,7 +3270,7 @@
       <c r="G22" s="1">
         <v>15</v>
       </c>
-      <c r="H22" s="122"/>
+      <c r="H22" s="125"/>
       <c r="I22" s="1">
         <v>10</v>
       </c>
@@ -3263,14 +3308,14 @@
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="122"/>
+      <c r="H23" s="125"/>
       <c r="I23" s="1"/>
       <c r="J23" s="9">
         <v>-40</v>
@@ -3310,8 +3355,8 @@
       <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
       <c r="E24" s="1">
         <v>20</v>
       </c>
@@ -3319,7 +3364,7 @@
       <c r="G24" s="1">
         <v>20</v>
       </c>
-      <c r="H24" s="122"/>
+      <c r="H24" s="125"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3355,12 +3400,12 @@
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="122"/>
+      <c r="H25" s="125"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -3396,8 +3441,8 @@
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
       <c r="E26" s="1">
         <v>20</v>
       </c>
@@ -3407,7 +3452,7 @@
       <c r="G26" s="1">
         <v>20</v>
       </c>
-      <c r="H26" s="122"/>
+      <c r="H26" s="125"/>
       <c r="I26" s="1">
         <v>20</v>
       </c>
@@ -3447,14 +3492,14 @@
       <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>20</v>
       </c>
-      <c r="H27" s="122"/>
+      <c r="H27" s="125"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3490,8 +3535,8 @@
       <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
       <c r="E28" s="1">
         <v>20</v>
       </c>
@@ -3499,7 +3544,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="122"/>
+      <c r="H28" s="125"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3535,14 +3580,14 @@
       <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
       <c r="E29" s="1">
         <v>20</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="122"/>
+      <c r="H29" s="125"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3578,8 +3623,8 @@
       <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
       <c r="E30" s="1">
         <v>20</v>
       </c>
@@ -3589,7 +3634,7 @@
       <c r="G30" s="1">
         <v>20</v>
       </c>
-      <c r="H30" s="122"/>
+      <c r="H30" s="125"/>
       <c r="I30" s="1">
         <v>20</v>
       </c>
@@ -3635,14 +3680,14 @@
       <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
         <v>20</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="122"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="1">
         <v>20</v>
       </c>
@@ -3682,8 +3727,8 @@
       <c r="B32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
       <c r="E32" s="1">
         <v>20</v>
       </c>
@@ -3693,7 +3738,7 @@
       <c r="G32" s="1">
         <v>20</v>
       </c>
-      <c r="H32" s="122"/>
+      <c r="H32" s="125"/>
       <c r="I32" s="1">
         <v>20</v>
       </c>
@@ -3739,8 +3784,8 @@
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
       <c r="E33" s="1">
         <v>20</v>
       </c>
@@ -3748,7 +3793,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="122"/>
+      <c r="H33" s="125"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3784,14 +3829,14 @@
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="1">
         <v>20</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="122"/>
+      <c r="H34" s="125"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3827,8 +3872,8 @@
       <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
       <c r="E35" s="1">
         <v>20</v>
       </c>
@@ -3836,7 +3881,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="122"/>
+      <c r="H35" s="125"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3872,8 +3917,8 @@
       <c r="B36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
       <c r="E36" s="1">
         <v>20</v>
       </c>
@@ -3883,7 +3928,7 @@
       <c r="G36" s="1">
         <v>20</v>
       </c>
-      <c r="H36" s="122"/>
+      <c r="H36" s="125"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
         <v>20</v>
@@ -3921,8 +3966,8 @@
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
       <c r="E37" s="1">
         <v>20</v>
       </c>
@@ -3932,7 +3977,7 @@
       <c r="G37" s="1">
         <v>20</v>
       </c>
-      <c r="H37" s="122"/>
+      <c r="H37" s="125"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
         <v>20</v>
@@ -3976,8 +4021,8 @@
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
       <c r="E38" s="1">
         <v>20</v>
       </c>
@@ -3987,7 +4032,7 @@
       <c r="G38" s="1">
         <v>20</v>
       </c>
-      <c r="H38" s="122"/>
+      <c r="H38" s="125"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
         <v>20</v>
@@ -4025,8 +4070,8 @@
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
       <c r="E39" s="1">
         <v>20</v>
       </c>
@@ -4034,7 +4079,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="122"/>
+      <c r="H39" s="125"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -4070,8 +4115,8 @@
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
       <c r="E40" s="1">
         <v>20</v>
       </c>
@@ -4081,7 +4126,7 @@
       <c r="G40" s="1">
         <v>20</v>
       </c>
-      <c r="H40" s="122"/>
+      <c r="H40" s="125"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <v>20</v>
@@ -4125,8 +4170,8 @@
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
       <c r="E41" s="1">
         <v>20</v>
       </c>
@@ -4134,7 +4179,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="122"/>
+      <c r="H41" s="125"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -4170,14 +4215,14 @@
       <c r="B42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
       <c r="E42" s="1">
         <v>20</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="122"/>
+      <c r="H42" s="125"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -4213,8 +4258,8 @@
       <c r="B43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
       <c r="E43" s="1">
         <v>20</v>
       </c>
@@ -4224,7 +4269,7 @@
       <c r="G43" s="1">
         <v>20</v>
       </c>
-      <c r="H43" s="122"/>
+      <c r="H43" s="125"/>
       <c r="I43" s="1">
         <v>20</v>
       </c>
@@ -4272,8 +4317,8 @@
       <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
       <c r="E44" s="1">
         <v>20</v>
       </c>
@@ -4283,7 +4328,7 @@
       <c r="G44" s="1">
         <v>20</v>
       </c>
-      <c r="H44" s="122"/>
+      <c r="H44" s="125"/>
       <c r="I44" s="1">
         <v>20</v>
       </c>
@@ -4327,8 +4372,8 @@
       <c r="B45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
       <c r="E45" s="1">
         <v>20</v>
       </c>
@@ -4338,7 +4383,7 @@
       <c r="G45" s="1">
         <v>20</v>
       </c>
-      <c r="H45" s="122"/>
+      <c r="H45" s="125"/>
       <c r="I45" s="1">
         <v>15</v>
       </c>
@@ -4376,8 +4421,8 @@
       <c r="B46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
       <c r="E46" s="1">
         <v>20</v>
       </c>
@@ -4387,7 +4432,7 @@
       <c r="G46" s="1">
         <v>20</v>
       </c>
-      <c r="H46" s="122"/>
+      <c r="H46" s="125"/>
       <c r="I46" s="1">
         <v>20</v>
       </c>
@@ -4425,8 +4470,8 @@
       <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="122"/>
-      <c r="D47" s="122"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
       <c r="E47" s="1">
         <v>20</v>
       </c>
@@ -4436,7 +4481,7 @@
       <c r="G47" s="1">
         <v>20</v>
       </c>
-      <c r="H47" s="122"/>
+      <c r="H47" s="125"/>
       <c r="I47" s="1">
         <v>20</v>
       </c>
@@ -4480,8 +4525,8 @@
       <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="122"/>
-      <c r="D48" s="122"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
       <c r="E48" s="1">
         <v>20</v>
       </c>
@@ -4489,7 +4534,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="122"/>
+      <c r="H48" s="125"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4525,8 +4570,8 @@
       <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="122"/>
-      <c r="D49" s="122"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
       <c r="E49" s="1">
         <v>20</v>
       </c>
@@ -4536,7 +4581,7 @@
       <c r="G49" s="1">
         <v>20</v>
       </c>
-      <c r="H49" s="122"/>
+      <c r="H49" s="125"/>
       <c r="I49" s="1">
         <v>20</v>
       </c>
@@ -4576,12 +4621,12 @@
       <c r="B50" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="122"/>
+      <c r="H50" s="125"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -4617,12 +4662,12 @@
       <c r="B51" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="122"/>
+      <c r="H51" s="125"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -4658,12 +4703,12 @@
       <c r="B52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="123"/>
+      <c r="H52" s="126"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -4718,15 +4763,15 @@
       <c r="I59" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="128"/>
-      <c r="K59" s="128"/>
-      <c r="L59" s="128"/>
+      <c r="J59" s="131"/>
+      <c r="K59" s="131"/>
+      <c r="L59" s="131"/>
       <c r="M59" s="137"/>
       <c r="O59" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="P59" s="128"/>
-      <c r="Q59" s="128"/>
+      <c r="P59" s="131"/>
+      <c r="Q59" s="131"/>
       <c r="R59" s="137"/>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4741,17 +4786,17 @@
       <c r="R60" s="140"/>
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="132"/>
-      <c r="K61" s="130"/>
-      <c r="L61" s="131" t="s">
+      <c r="I61" s="132" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="119"/>
+      <c r="K61" s="120"/>
+      <c r="L61" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="M61" s="130"/>
-      <c r="O61" s="131"/>
-      <c r="P61" s="130"/>
+      <c r="M61" s="120"/>
+      <c r="O61" s="132"/>
+      <c r="P61" s="120"/>
       <c r="Q61" s="11" t="s">
         <v>20</v>
       </c>
@@ -4760,38 +4805,38 @@
       </c>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I62" s="142" t="s">
+      <c r="I62" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="J62" s="132"/>
-      <c r="K62" s="130"/>
-      <c r="L62" s="143">
+      <c r="J62" s="119"/>
+      <c r="K62" s="120"/>
+      <c r="L62" s="121">
         <v>7350000</v>
       </c>
-      <c r="M62" s="130"/>
-      <c r="O62" s="129" t="s">
+      <c r="M62" s="120"/>
+      <c r="O62" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="P62" s="130"/>
+      <c r="P62" s="120"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="13">
         <v>40000</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I63" s="142" t="s">
+      <c r="I63" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="J63" s="132"/>
-      <c r="K63" s="130"/>
-      <c r="L63" s="144">
+      <c r="J63" s="119"/>
+      <c r="K63" s="120"/>
+      <c r="L63" s="123">
         <v>1100000</v>
       </c>
-      <c r="M63" s="130"/>
-      <c r="O63" s="129" t="s">
+      <c r="M63" s="120"/>
+      <c r="O63" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="P63" s="130"/>
+      <c r="P63" s="120"/>
       <c r="Q63" s="14" t="s">
         <v>77</v>
       </c>
@@ -4800,39 +4845,39 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I64" s="142" t="s">
+      <c r="I64" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="132"/>
-      <c r="K64" s="130"/>
-      <c r="L64" s="143">
+      <c r="J64" s="119"/>
+      <c r="K64" s="120"/>
+      <c r="L64" s="121">
         <f>L62+L63</f>
         <v>8450000</v>
       </c>
-      <c r="M64" s="130"/>
-      <c r="O64" s="129" t="s">
+      <c r="M64" s="120"/>
+      <c r="O64" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="P64" s="130"/>
+      <c r="P64" s="120"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="9:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I65" s="142" t="s">
+      <c r="I65" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="J65" s="132"/>
-      <c r="K65" s="130"/>
-      <c r="L65" s="143">
+      <c r="J65" s="119"/>
+      <c r="K65" s="120"/>
+      <c r="L65" s="121">
         <v>8411850</v>
       </c>
-      <c r="M65" s="130"/>
-      <c r="O65" s="129" t="s">
+      <c r="M65" s="120"/>
+      <c r="O65" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="P65" s="130"/>
+      <c r="P65" s="120"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="13">
         <f>R62-R63+R64</f>
@@ -4840,20 +4885,20 @@
       </c>
     </row>
     <row r="66" spans="9:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I66" s="142" t="s">
+      <c r="I66" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="J66" s="132"/>
-      <c r="K66" s="130"/>
-      <c r="L66" s="143">
+      <c r="J66" s="119"/>
+      <c r="K66" s="120"/>
+      <c r="L66" s="121">
         <f>L64-L65</f>
         <v>38150</v>
       </c>
-      <c r="M66" s="130"/>
-      <c r="O66" s="129" t="s">
+      <c r="M66" s="120"/>
+      <c r="O66" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="P66" s="130"/>
+      <c r="P66" s="120"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="13">
         <f>L66+R65</f>
@@ -5062,17 +5107,6 @@
     <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:M63"/>
     <mergeCell ref="C10:C52"/>
     <mergeCell ref="D10:D52"/>
     <mergeCell ref="H10:H52"/>
@@ -5088,9 +5122,28 @@
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="O61:P61"/>
     <mergeCell ref="O59:R60"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O65:P65"/>
   </mergeCells>
+  <conditionalFormatting sqref="R10:R52">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",R10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",R10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5098,8 +5151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AM263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5114,7 +5167,7 @@
     <col min="13" max="13" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="25.7109375" style="104" customWidth="1"/>
+    <col min="16" max="16" width="25.7109375" style="101" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
     <col min="18" max="18" width="23.7109375" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="15" hidden="1" customWidth="1"/>
@@ -5139,53 +5192,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
       <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>184</v>
+      </c>
       <c r="W4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="X4" s="54"/>
+      <c r="X4" s="51"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -5248,25 +5303,25 @@
       <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="145" t="s">
+      <c r="V5" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="132"/>
-      <c r="AH5" s="132"/>
-      <c r="AI5" s="132"/>
-      <c r="AJ5" s="132"/>
-      <c r="AK5" s="132"/>
-      <c r="AL5" s="130"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="120"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -5279,64 +5334,64 @@
       <c r="D6" s="22">
         <v>5</v>
       </c>
-      <c r="E6" s="23">
-        <v>20</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="E6" s="22">
+        <v>20</v>
+      </c>
+      <c r="F6" s="22">
         <v>5</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22">
         <f t="shared" ref="O6:O63" si="0">C6+D6+E6+F6+G6+I6+J6+K6+L6+M6+N6</f>
         <v>30</v>
       </c>
-      <c r="P6" s="107">
+      <c r="P6" s="104">
         <f>120-SUM(C6:H6)</f>
         <v>90</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="22">
         <f>(240)-(O6)</f>
         <v>210</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="23">
         <f t="shared" ref="R6:R63" si="1">Q6-60</f>
         <v>150</v>
       </c>
-      <c r="S6" s="25" t="str">
+      <c r="S6" s="24" t="str">
         <f t="shared" ref="S6:S63" si="2">IF(R6&lt;=0,"OK","NO")</f>
         <v>NO</v>
       </c>
-      <c r="T6" s="23"/>
-      <c r="V6" s="160" t="s">
+      <c r="T6" s="22"/>
+      <c r="V6" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="160" t="s">
+      <c r="W6" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="145" t="s">
+      <c r="X6" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132"/>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="132"/>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="130"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="120"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -5345,64 +5400,64 @@
       <c r="B7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26">
+      <c r="C7" s="163"/>
+      <c r="D7" s="163">
         <v>5</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22">
         <v>5</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23">
+      <c r="G7" s="22"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P7" s="107">
-        <f t="shared" ref="P7:P54" si="3">120-SUM(C7:H7)</f>
+      <c r="P7" s="104">
+        <f t="shared" ref="P7:P63" si="3">120-SUM(C7:H7)</f>
         <v>110</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="22">
         <f t="shared" ref="Q7:Q63" si="4">(240)-(O7)</f>
         <v>230</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="23">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S7" s="25" t="str">
+      <c r="S7" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T7" s="23"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="145" t="s">
+      <c r="T7" s="22"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="125"/>
+      <c r="X7" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="Y7" s="132"/>
-      <c r="Z7" s="132"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="145" t="s">
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="120"/>
+      <c r="AB7" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="AC7" s="132"/>
-      <c r="AD7" s="132"/>
-      <c r="AE7" s="132"/>
-      <c r="AF7" s="132"/>
-      <c r="AG7" s="132"/>
-      <c r="AH7" s="132"/>
-      <c r="AI7" s="132"/>
-      <c r="AJ7" s="132"/>
-      <c r="AK7" s="132"/>
-      <c r="AL7" s="130"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="120"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -5411,41 +5466,41 @@
       <c r="B8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23">
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="107">
+      <c r="P8" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S8" s="25" t="str">
+      <c r="S8" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T8" s="23"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
+      <c r="T8" s="22"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
       <c r="X8" s="10" t="s">
         <v>20</v>
       </c>
@@ -5499,80 +5554,80 @@
       <c r="B9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26">
+      <c r="C9" s="163"/>
+      <c r="D9" s="163">
         <v>5</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>5</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23">
+      <c r="G9" s="22"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P9" s="107">
+      <c r="P9" s="104">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="22">
         <f t="shared" si="4"/>
         <v>230</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="23">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S9" s="25" t="str">
+      <c r="S9" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T9" s="23"/>
+      <c r="T9" s="22"/>
       <c r="V9" s="1">
         <v>1</v>
       </c>
-      <c r="W9" s="47" t="s">
+      <c r="W9" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="28" t="s">
+      <c r="X9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="Y9" s="28" t="s">
+      <c r="Y9" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="Z9" s="28">
+      <c r="Z9" s="26">
         <v>1</v>
       </c>
-      <c r="AA9" s="29">
+      <c r="AA9" s="27">
         <f t="shared" ref="AA9:AA48" si="5">(Z9*10000)</f>
         <v>10000</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="32"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="30"/>
       <c r="AH9" s="10">
         <v>0</v>
       </c>
       <c r="AI9" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="34">
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="32">
         <f>IF(AB9="XXL", 82000*AH9, IF(AB9="XXXL", 89000*AH9, 75000*AH9))</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="35">
+      <c r="AL9" s="33">
         <f t="shared" ref="AL9:AL48" si="6">IF(AI9="YES",(AJ9-AK9),0)</f>
         <v>0</v>
       </c>
@@ -5584,88 +5639,88 @@
       <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23">
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="107">
+      <c r="P10" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S10" s="25" t="str">
+      <c r="S10" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T10" s="23"/>
+      <c r="T10" s="22"/>
       <c r="V10" s="1">
         <v>2</v>
       </c>
-      <c r="W10" s="27" t="s">
+      <c r="W10" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="X10" s="28" t="s">
+      <c r="X10" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="Y10" s="28" t="s">
+      <c r="Y10" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="Z10" s="28">
+      <c r="Z10" s="26">
         <v>1</v>
       </c>
-      <c r="AA10" s="29">
+      <c r="AA10" s="27">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="AB10" s="36" t="s">
+      <c r="AB10" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="37">
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="35">
         <v>2018</v>
       </c>
-      <c r="AE10" s="36" t="s">
+      <c r="AE10" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="AF10" s="38">
+      <c r="AF10" s="36">
         <v>0.85555555555555551</v>
       </c>
-      <c r="AG10" s="50" t="s">
+      <c r="AG10" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="AH10" s="36">
+      <c r="AH10" s="34">
         <v>1</v>
       </c>
-      <c r="AI10" s="36" t="s">
+      <c r="AI10" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ10" s="89">
+      <c r="AJ10" s="86">
         <v>100000</v>
       </c>
-      <c r="AK10" s="34">
+      <c r="AK10" s="32">
         <f t="shared" ref="AK10:AK48" si="7">IF(AB10="XXL", 82000*AH10, IF(AB10="XXXL", 89000*AH10, 75000*AH10))</f>
         <v>82000</v>
       </c>
-      <c r="AL10" s="35">
+      <c r="AL10" s="33">
         <f t="shared" si="6"/>
         <v>18000</v>
       </c>
@@ -5677,82 +5732,82 @@
       <c r="B11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23">
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="107">
+      <c r="P11" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S11" s="25" t="str">
+      <c r="S11" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T11" s="23"/>
+      <c r="T11" s="22"/>
       <c r="V11" s="1">
         <v>3</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="29">
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="36" t="s">
+      <c r="AB11" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="37">
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="35">
         <v>2017</v>
       </c>
-      <c r="AE11" s="39" t="s">
+      <c r="AE11" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="AF11" s="38" t="s">
+      <c r="AF11" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="AG11" s="52" t="s">
+      <c r="AG11" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="AH11" s="36">
+      <c r="AH11" s="34">
         <v>1</v>
       </c>
       <c r="AI11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AJ11" s="89">
+      <c r="AJ11" s="86">
         <v>100000</v>
       </c>
-      <c r="AK11" s="34">
+      <c r="AK11" s="32">
         <f t="shared" si="7"/>
         <v>82000</v>
       </c>
-      <c r="AL11" s="35">
+      <c r="AL11" s="33">
         <f t="shared" si="6"/>
         <v>18000</v>
       </c>
@@ -5764,39 +5819,39 @@
       <c r="B12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23">
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="107">
+      <c r="P12" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S12" s="25" t="str">
+      <c r="S12" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T12" s="23"/>
+      <c r="T12" s="22"/>
       <c r="V12" s="1">
         <v>4</v>
       </c>
@@ -5806,40 +5861,40 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-      <c r="AA12" s="29">
+      <c r="AA12" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="36" t="s">
+      <c r="AB12" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="37">
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="35">
         <v>2016</v>
       </c>
-      <c r="AE12" s="55" t="s">
+      <c r="AE12" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="AF12" s="38">
+      <c r="AF12" s="36">
         <v>0.625</v>
       </c>
-      <c r="AG12" s="106" t="s">
+      <c r="AG12" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="AH12" s="36">
+      <c r="AH12" s="34">
         <v>1</v>
       </c>
-      <c r="AI12" s="53" t="s">
+      <c r="AI12" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="AJ12" s="89">
+      <c r="AJ12" s="86">
         <v>90000</v>
       </c>
-      <c r="AK12" s="34">
+      <c r="AK12" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL12" s="35">
+      <c r="AL12" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -5851,39 +5906,39 @@
       <c r="B13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23">
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="107">
+      <c r="P13" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S13" s="25" t="str">
+      <c r="S13" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T13" s="23"/>
+      <c r="T13" s="22"/>
       <c r="V13" s="1">
         <v>5</v>
       </c>
@@ -5893,40 +5948,40 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AA13" s="29">
+      <c r="AA13" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="36" t="s">
+      <c r="AB13" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="37">
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="35">
         <v>2017</v>
       </c>
-      <c r="AE13" s="55" t="s">
+      <c r="AE13" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="AF13" s="38">
+      <c r="AF13" s="36">
         <v>0.625</v>
       </c>
-      <c r="AG13" s="106" t="s">
+      <c r="AG13" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="AH13" s="36">
+      <c r="AH13" s="34">
         <v>1</v>
       </c>
-      <c r="AI13" s="53" t="s">
+      <c r="AI13" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="AJ13" s="89">
+      <c r="AJ13" s="86">
         <v>90000</v>
       </c>
-      <c r="AK13" s="34">
+      <c r="AK13" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL13" s="35">
+      <c r="AL13" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -5938,82 +5993,82 @@
       <c r="B14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23">
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" s="107">
+      <c r="P14" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S14" s="25" t="str">
+      <c r="S14" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T14" s="23"/>
+      <c r="T14" s="22"/>
       <c r="V14" s="1">
         <v>6</v>
       </c>
-      <c r="W14" s="87" t="s">
+      <c r="W14" s="84" t="s">
         <v>113</v>
       </c>
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AA14" s="29">
+      <c r="AA14" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="36" t="s">
+      <c r="AB14" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="37">
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="35">
         <v>2017</v>
       </c>
-      <c r="AE14" s="39" t="s">
+      <c r="AE14" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="AF14" s="38">
+      <c r="AF14" s="36">
         <v>0.76180555555555562</v>
       </c>
-      <c r="AG14" s="51" t="s">
+      <c r="AG14" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="AH14" s="36">
+      <c r="AH14" s="34">
         <v>1</v>
       </c>
-      <c r="AI14" s="36" t="s">
+      <c r="AI14" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ14" s="89">
+      <c r="AJ14" s="86">
         <v>90000</v>
       </c>
-      <c r="AK14" s="34">
+      <c r="AK14" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL14" s="35">
+      <c r="AL14" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -6025,39 +6080,39 @@
       <c r="B15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23">
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P15" s="107">
+      <c r="P15" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S15" s="25" t="str">
+      <c r="S15" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T15" s="23"/>
+      <c r="T15" s="22"/>
       <c r="V15" s="1">
         <v>7</v>
       </c>
@@ -6067,40 +6122,40 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AA15" s="29">
+      <c r="AA15" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="36" t="s">
+      <c r="AB15" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="37">
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="35">
         <v>2017</v>
       </c>
-      <c r="AE15" s="36" t="s">
+      <c r="AE15" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="AF15" s="38">
+      <c r="AF15" s="36">
         <v>0.91180555555555554</v>
       </c>
-      <c r="AG15" s="50" t="s">
+      <c r="AG15" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="AH15" s="36">
+      <c r="AH15" s="34">
         <v>1</v>
       </c>
-      <c r="AI15" s="36" t="s">
+      <c r="AI15" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ15" s="89">
+      <c r="AJ15" s="86">
         <v>90000</v>
       </c>
-      <c r="AK15" s="34">
+      <c r="AK15" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL15" s="35">
+      <c r="AL15" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -6112,39 +6167,39 @@
       <c r="B16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23">
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="107">
+      <c r="P16" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R16" s="24">
+      <c r="R16" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S16" s="25" t="str">
+      <c r="S16" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T16" s="23"/>
+      <c r="T16" s="22"/>
       <c r="V16" s="1">
         <v>8</v>
       </c>
@@ -6154,32 +6209,32 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AA16" s="29">
+      <c r="AA16" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="36" t="s">
+      <c r="AB16" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="37">
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="35">
         <v>2016</v>
       </c>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="36" t="s">
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="34">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="AJ16" s="89"/>
-      <c r="AK16" s="34">
+      <c r="AJ16" s="86"/>
+      <c r="AK16" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="35">
+      <c r="AL16" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6191,39 +6246,41 @@
       <c r="B17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23">
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="164">
+        <v>120</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" s="107">
+      <c r="P17" s="104">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="Q17" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S17" s="25" t="str">
+      <c r="S17" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T17" s="23"/>
+      <c r="T17" s="22"/>
       <c r="V17" s="1">
         <v>9</v>
       </c>
@@ -6233,32 +6290,32 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AA17" s="29">
+      <c r="AA17" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="36" t="s">
+      <c r="AB17" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="37">
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="35">
         <v>2011</v>
       </c>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="36" t="s">
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="34">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="34">
+      <c r="AJ17" s="86"/>
+      <c r="AK17" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="35">
+      <c r="AL17" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6270,41 +6327,41 @@
       <c r="B18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23">
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22">
         <v>5</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23">
+      <c r="G18" s="22"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P18" s="107">
+      <c r="P18" s="104">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="22">
         <f t="shared" si="4"/>
         <v>235</v>
       </c>
-      <c r="R18" s="24">
+      <c r="R18" s="23">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="S18" s="25" t="str">
+      <c r="S18" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T18" s="23"/>
+      <c r="T18" s="22"/>
       <c r="V18" s="1">
         <v>10</v>
       </c>
@@ -6314,42 +6371,42 @@
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-      <c r="AA18" s="29">
+      <c r="AA18" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="36" t="s">
+      <c r="AB18" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="AC18" s="36" t="s">
+      <c r="AC18" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="AD18" s="37">
+      <c r="AD18" s="35">
         <v>2017</v>
       </c>
-      <c r="AE18" s="39" t="s">
+      <c r="AE18" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="AF18" s="38">
+      <c r="AF18" s="36">
         <v>0.61597222222222225</v>
       </c>
-      <c r="AG18" s="52" t="s">
+      <c r="AG18" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="AH18" s="36">
+      <c r="AH18" s="34">
         <v>1</v>
       </c>
-      <c r="AI18" s="36" t="s">
+      <c r="AI18" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ18" s="89">
+      <c r="AJ18" s="86">
         <v>100000</v>
       </c>
-      <c r="AK18" s="34">
+      <c r="AK18" s="32">
         <f t="shared" si="7"/>
         <v>89000</v>
       </c>
-      <c r="AL18" s="35">
+      <c r="AL18" s="33">
         <f t="shared" si="6"/>
         <v>11000</v>
       </c>
@@ -6361,39 +6418,39 @@
       <c r="B19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23">
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" s="107">
+      <c r="P19" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R19" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S19" s="25" t="str">
+      <c r="S19" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T19" s="23"/>
+      <c r="T19" s="22"/>
       <c r="V19" s="1">
         <v>11</v>
       </c>
@@ -6403,40 +6460,40 @@
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
-      <c r="AA19" s="29">
+      <c r="AA19" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="36" t="s">
+      <c r="AB19" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="37">
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="35">
         <v>2017</v>
       </c>
-      <c r="AE19" s="39" t="s">
+      <c r="AE19" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="AF19" s="38">
+      <c r="AF19" s="36">
         <v>0.84166666666666667</v>
       </c>
-      <c r="AG19" s="52" t="s">
+      <c r="AG19" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="AH19" s="36">
+      <c r="AH19" s="34">
         <v>1</v>
       </c>
-      <c r="AI19" s="53" t="s">
+      <c r="AI19" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="AJ19" s="89">
+      <c r="AJ19" s="86">
         <v>100000</v>
       </c>
-      <c r="AK19" s="34">
+      <c r="AK19" s="32">
         <f t="shared" si="7"/>
         <v>89000</v>
       </c>
-      <c r="AL19" s="35">
+      <c r="AL19" s="33">
         <f t="shared" si="6"/>
         <v>11000</v>
       </c>
@@ -6448,78 +6505,78 @@
       <c r="B20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="163">
         <v>5</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="163">
         <v>5</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23">
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P20" s="107">
+      <c r="P20" s="104">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="22">
         <f t="shared" si="4"/>
         <v>230</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="23">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S20" s="25" t="str">
+      <c r="S20" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T20" s="23"/>
+      <c r="T20" s="22"/>
       <c r="V20" s="1">
         <v>12</v>
       </c>
-      <c r="W20" s="108" t="s">
+      <c r="W20" s="105" t="s">
         <v>120</v>
       </c>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
-      <c r="AA20" s="29">
+      <c r="AA20" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="36" t="s">
+      <c r="AB20" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="37">
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="35">
         <v>2016</v>
       </c>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="36" t="s">
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="34">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="AJ20" s="89"/>
-      <c r="AK20" s="34">
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="35">
+      <c r="AL20" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6531,41 +6588,41 @@
       <c r="B21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26">
+      <c r="C21" s="163"/>
+      <c r="D21" s="163">
         <v>5</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23">
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P21" s="107">
+      <c r="P21" s="104">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="22">
         <f t="shared" si="4"/>
         <v>235</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="23">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="S21" s="25" t="str">
+      <c r="S21" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T21" s="23"/>
+      <c r="T21" s="22"/>
       <c r="V21" s="1">
         <v>13</v>
       </c>
@@ -6575,40 +6632,40 @@
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
-      <c r="AA21" s="29">
+      <c r="AA21" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="36" t="s">
+      <c r="AB21" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="37">
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="35">
         <v>2011</v>
       </c>
-      <c r="AE21" s="36" t="s">
+      <c r="AE21" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="AF21" s="38">
+      <c r="AF21" s="36">
         <v>0.95625000000000004</v>
       </c>
-      <c r="AG21" s="50" t="s">
+      <c r="AG21" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="AH21" s="36">
+      <c r="AH21" s="34">
         <v>1</v>
       </c>
-      <c r="AI21" s="36" t="s">
+      <c r="AI21" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ21" s="89">
+      <c r="AJ21" s="86">
         <v>90000</v>
       </c>
-      <c r="AK21" s="34">
+      <c r="AK21" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL21" s="35">
+      <c r="AL21" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -6620,39 +6677,39 @@
       <c r="B22" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23">
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="107">
+      <c r="P22" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R22" s="24">
+      <c r="R22" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S22" s="25" t="str">
+      <c r="S22" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T22" s="23"/>
+      <c r="T22" s="22"/>
       <c r="V22" s="1">
         <v>14</v>
       </c>
@@ -6662,40 +6719,40 @@
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
-      <c r="AA22" s="29">
+      <c r="AA22" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="36" t="s">
+      <c r="AB22" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="37">
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="35">
         <v>2017</v>
       </c>
-      <c r="AE22" s="39" t="s">
+      <c r="AE22" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="AF22" s="38">
+      <c r="AF22" s="36">
         <v>0.45555555555555555</v>
       </c>
-      <c r="AG22" s="50" t="s">
+      <c r="AG22" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="AH22" s="36">
+      <c r="AH22" s="34">
         <v>1</v>
       </c>
-      <c r="AI22" s="36" t="s">
+      <c r="AI22" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ22" s="89">
+      <c r="AJ22" s="86">
         <v>100000</v>
       </c>
-      <c r="AK22" s="34">
+      <c r="AK22" s="32">
         <f t="shared" si="7"/>
         <v>89000</v>
       </c>
-      <c r="AL22" s="35">
+      <c r="AL22" s="33">
         <f t="shared" si="6"/>
         <v>11000</v>
       </c>
@@ -6707,82 +6764,82 @@
       <c r="B23" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23">
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="107">
+      <c r="P23" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="Q23" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R23" s="24">
+      <c r="R23" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S23" s="25" t="str">
+      <c r="S23" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T23" s="23"/>
+      <c r="T23" s="22"/>
       <c r="V23" s="1">
         <v>15</v>
       </c>
-      <c r="W23" s="87" t="s">
+      <c r="W23" s="84" t="s">
         <v>122</v>
       </c>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
-      <c r="AA23" s="29">
+      <c r="AA23" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="36" t="s">
+      <c r="AB23" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="37">
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="35">
         <v>2017</v>
       </c>
-      <c r="AE23" s="39" t="s">
+      <c r="AE23" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="AF23" s="38">
+      <c r="AF23" s="36">
         <v>0.38194444444444442</v>
       </c>
-      <c r="AG23" s="51" t="s">
+      <c r="AG23" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="AH23" s="36">
+      <c r="AH23" s="34">
         <v>1</v>
       </c>
-      <c r="AI23" s="36" t="s">
+      <c r="AI23" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ23" s="89">
+      <c r="AJ23" s="86">
         <v>100000</v>
       </c>
-      <c r="AK23" s="34">
+      <c r="AK23" s="32">
         <f t="shared" si="7"/>
         <v>89000</v>
       </c>
-      <c r="AL23" s="35">
+      <c r="AL23" s="33">
         <f t="shared" si="6"/>
         <v>11000</v>
       </c>
@@ -6794,82 +6851,82 @@
       <c r="B24" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23">
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="107">
+      <c r="P24" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="Q24" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R24" s="24">
+      <c r="R24" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S24" s="25" t="str">
+      <c r="S24" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T24" s="23"/>
+      <c r="T24" s="22"/>
       <c r="V24" s="1">
         <v>16</v>
       </c>
-      <c r="W24" s="87" t="s">
+      <c r="W24" s="84" t="s">
         <v>57</v>
       </c>
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
-      <c r="AA24" s="29">
+      <c r="AA24" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="36" t="s">
+      <c r="AB24" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="37">
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="35">
         <v>2016</v>
       </c>
-      <c r="AE24" s="39" t="s">
+      <c r="AE24" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="AF24" s="38">
+      <c r="AF24" s="36">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AG24" s="50" t="s">
+      <c r="AG24" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="AH24" s="36">
+      <c r="AH24" s="34">
         <v>1</v>
       </c>
-      <c r="AI24" s="53" t="s">
+      <c r="AI24" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="AJ24" s="89">
+      <c r="AJ24" s="86">
         <v>90000</v>
       </c>
-      <c r="AK24" s="34">
+      <c r="AK24" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL24" s="35">
+      <c r="AL24" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -6881,39 +6938,39 @@
       <c r="B25" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23">
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="107">
+      <c r="P25" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q25" s="23">
+      <c r="Q25" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R25" s="24">
+      <c r="R25" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S25" s="25" t="str">
+      <c r="S25" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T25" s="23"/>
+      <c r="T25" s="22"/>
       <c r="V25" s="1">
         <v>17</v>
       </c>
@@ -6923,40 +6980,40 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
-      <c r="AA25" s="29">
+      <c r="AA25" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="36" t="s">
+      <c r="AB25" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="37">
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="35">
         <v>2016</v>
       </c>
-      <c r="AE25" s="39" t="s">
+      <c r="AE25" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="AF25" s="38">
+      <c r="AF25" s="36">
         <v>0.62777777777777777</v>
       </c>
-      <c r="AG25" s="50" t="s">
+      <c r="AG25" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="AH25" s="36">
+      <c r="AH25" s="34">
         <v>1</v>
       </c>
-      <c r="AI25" s="36" t="s">
+      <c r="AI25" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ25" s="89">
+      <c r="AJ25" s="86">
         <v>90000</v>
       </c>
-      <c r="AK25" s="34">
+      <c r="AK25" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL25" s="35">
+      <c r="AL25" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -6968,43 +7025,43 @@
       <c r="B26" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="163">
         <v>5</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23">
+      <c r="D26" s="163"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22">
         <v>5</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23">
+      <c r="G26" s="22"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P26" s="107">
+      <c r="P26" s="104">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q26" s="22">
         <f t="shared" si="4"/>
         <v>230</v>
       </c>
-      <c r="R26" s="24">
+      <c r="R26" s="23">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S26" s="25" t="str">
+      <c r="S26" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T26" s="23"/>
+      <c r="T26" s="22"/>
       <c r="V26" s="1">
         <v>18</v>
       </c>
@@ -7014,40 +7071,40 @@
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
-      <c r="AA26" s="29">
+      <c r="AA26" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="36" t="s">
+      <c r="AB26" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="37">
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="35">
         <v>2017</v>
       </c>
-      <c r="AE26" s="39" t="s">
+      <c r="AE26" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="AF26" s="38">
+      <c r="AF26" s="36">
         <v>0.71944444444444444</v>
       </c>
-      <c r="AG26" s="50" t="s">
+      <c r="AG26" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="AH26" s="36">
+      <c r="AH26" s="34">
         <v>1</v>
       </c>
-      <c r="AI26" s="36" t="s">
+      <c r="AI26" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ26" s="89">
+      <c r="AJ26" s="86">
         <v>90000</v>
       </c>
-      <c r="AK26" s="34">
+      <c r="AK26" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL26" s="35">
+      <c r="AL26" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -7059,45 +7116,45 @@
       <c r="B27" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="163">
         <v>5</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="163">
         <v>5</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23">
+      <c r="E27" s="22"/>
+      <c r="F27" s="22">
         <v>5</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23">
+      <c r="G27" s="22"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P27" s="107">
+      <c r="P27" s="104">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="22">
         <f t="shared" si="4"/>
         <v>225</v>
       </c>
-      <c r="R27" s="24">
+      <c r="R27" s="23">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="S27" s="25" t="str">
+      <c r="S27" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T27" s="23"/>
+      <c r="T27" s="22"/>
       <c r="V27" s="1">
         <v>19</v>
       </c>
@@ -7107,40 +7164,40 @@
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
-      <c r="AA27" s="29">
+      <c r="AA27" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="36" t="s">
+      <c r="AB27" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="37">
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="35">
         <v>2018</v>
       </c>
-      <c r="AE27" s="36" t="s">
+      <c r="AE27" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="AF27" s="38">
+      <c r="AF27" s="36">
         <v>0.87291666666666667</v>
       </c>
-      <c r="AG27" s="52" t="s">
+      <c r="AG27" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="AH27" s="36">
+      <c r="AH27" s="34">
         <v>1</v>
       </c>
-      <c r="AI27" s="40" t="s">
+      <c r="AI27" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="AJ27" s="89">
+      <c r="AJ27" s="86">
         <v>90000</v>
       </c>
-      <c r="AK27" s="34">
+      <c r="AK27" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL27" s="35">
+      <c r="AL27" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -7152,88 +7209,88 @@
       <c r="B28" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="26">
-        <v>20</v>
-      </c>
-      <c r="D28" s="26">
-        <v>20</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="C28" s="163">
+        <v>20</v>
+      </c>
+      <c r="D28" s="163">
+        <v>20</v>
+      </c>
+      <c r="E28" s="22">
         <v>12.8</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23">
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22">
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="P28" s="107">
+      <c r="P28" s="104">
         <f t="shared" si="3"/>
         <v>67.2</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="Q28" s="22">
         <f t="shared" si="4"/>
         <v>187.2</v>
       </c>
-      <c r="R28" s="24">
+      <c r="R28" s="23">
         <f t="shared" si="1"/>
         <v>127.19999999999999</v>
       </c>
-      <c r="S28" s="25" t="str">
+      <c r="S28" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T28" s="23"/>
+      <c r="T28" s="22"/>
       <c r="V28" s="1">
         <v>20</v>
       </c>
-      <c r="W28" s="49" t="s">
+      <c r="W28" s="46" t="s">
         <v>65</v>
       </c>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
-      <c r="AA28" s="29">
+      <c r="AA28" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="36" t="s">
+      <c r="AB28" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="37">
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="35">
         <v>2015</v>
       </c>
-      <c r="AE28" s="39" t="s">
+      <c r="AE28" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="AF28" s="38">
+      <c r="AF28" s="36">
         <v>0.87777777777777777</v>
       </c>
-      <c r="AG28" s="51" t="s">
+      <c r="AG28" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="AH28" s="36">
+      <c r="AH28" s="34">
         <v>1</v>
       </c>
-      <c r="AI28" s="36" t="s">
+      <c r="AI28" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ28" s="89">
+      <c r="AJ28" s="86">
         <v>90000</v>
       </c>
-      <c r="AK28" s="34">
+      <c r="AK28" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL28" s="35">
+      <c r="AL28" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -7245,39 +7302,39 @@
       <c r="B29" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23">
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P29" s="107">
+      <c r="P29" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q29" s="23">
+      <c r="Q29" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R29" s="24">
+      <c r="R29" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S29" s="25" t="str">
+      <c r="S29" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T29" s="23"/>
+      <c r="T29" s="22"/>
       <c r="V29" s="1">
         <v>21</v>
       </c>
@@ -7287,40 +7344,40 @@
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
-      <c r="AA29" s="29">
+      <c r="AA29" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="36" t="s">
+      <c r="AB29" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="37">
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="35">
         <v>2014</v>
       </c>
-      <c r="AE29" s="39" t="s">
+      <c r="AE29" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="AF29" s="38">
+      <c r="AF29" s="36">
         <v>0.35486111111111113</v>
       </c>
-      <c r="AG29" s="51" t="s">
+      <c r="AG29" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="AH29" s="36">
+      <c r="AH29" s="34">
         <v>1</v>
       </c>
-      <c r="AI29" s="36" t="s">
+      <c r="AI29" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ29" s="89">
+      <c r="AJ29" s="86">
         <v>90000</v>
       </c>
-      <c r="AK29" s="34">
+      <c r="AK29" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL29" s="35">
+      <c r="AL29" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -7332,39 +7389,39 @@
       <c r="B30" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23">
+      <c r="C30" s="163"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="107">
+      <c r="P30" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q30" s="23">
+      <c r="Q30" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R30" s="24">
+      <c r="R30" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S30" s="25" t="str">
+      <c r="S30" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T30" s="23"/>
+      <c r="T30" s="22"/>
       <c r="V30" s="1">
         <v>22</v>
       </c>
@@ -7374,40 +7431,40 @@
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
-      <c r="AA30" s="29">
+      <c r="AA30" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="36" t="s">
+      <c r="AB30" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="37">
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="35">
         <v>2013</v>
       </c>
-      <c r="AE30" s="36" t="s">
+      <c r="AE30" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="AF30" s="38">
+      <c r="AF30" s="36">
         <v>0.95763888888888893</v>
       </c>
-      <c r="AG30" s="50" t="s">
+      <c r="AG30" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="AH30" s="36">
+      <c r="AH30" s="34">
         <v>1</v>
       </c>
-      <c r="AI30" s="36" t="s">
+      <c r="AI30" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ30" s="89">
+      <c r="AJ30" s="86">
         <v>90000</v>
       </c>
-      <c r="AK30" s="34">
+      <c r="AK30" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL30" s="35">
+      <c r="AL30" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -7419,82 +7476,82 @@
       <c r="B31" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23">
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P31" s="107">
+      <c r="P31" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R31" s="24">
+      <c r="R31" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S31" s="25" t="str">
+      <c r="S31" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T31" s="23"/>
+      <c r="T31" s="22"/>
       <c r="V31" s="1">
         <v>23</v>
       </c>
-      <c r="W31" s="49" t="s">
+      <c r="W31" s="46" t="s">
         <v>130</v>
       </c>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
-      <c r="AA31" s="29">
+      <c r="AA31" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="36" t="s">
+      <c r="AB31" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="37">
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="35">
         <v>2017</v>
       </c>
-      <c r="AE31" s="39" t="s">
+      <c r="AE31" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="AF31" s="38">
+      <c r="AF31" s="36">
         <v>0.4694444444444445</v>
       </c>
-      <c r="AG31" s="50" t="s">
+      <c r="AG31" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="AH31" s="36">
+      <c r="AH31" s="34">
         <v>1</v>
       </c>
-      <c r="AI31" s="36" t="s">
+      <c r="AI31" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ31" s="89">
+      <c r="AJ31" s="86">
         <v>90000</v>
       </c>
-      <c r="AK31" s="34">
+      <c r="AK31" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL31" s="35">
+      <c r="AL31" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -7506,39 +7563,39 @@
       <c r="B32" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23">
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P32" s="107">
+      <c r="P32" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q32" s="23">
+      <c r="Q32" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R32" s="24">
+      <c r="R32" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S32" s="25" t="str">
+      <c r="S32" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T32" s="23"/>
+      <c r="T32" s="22"/>
       <c r="V32" s="1">
         <v>24</v>
       </c>
@@ -7548,40 +7605,40 @@
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
-      <c r="AA32" s="29">
+      <c r="AA32" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="36" t="s">
+      <c r="AB32" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="37">
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="35">
         <v>2016</v>
       </c>
-      <c r="AE32" s="36" t="s">
+      <c r="AE32" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="AF32" s="38">
+      <c r="AF32" s="36">
         <v>0.8569444444444444</v>
       </c>
-      <c r="AG32" s="50" t="s">
+      <c r="AG32" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="AH32" s="36">
+      <c r="AH32" s="34">
         <v>1</v>
       </c>
-      <c r="AI32" s="36" t="s">
+      <c r="AI32" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ32" s="89">
+      <c r="AJ32" s="86">
         <v>90000</v>
       </c>
-      <c r="AK32" s="34">
+      <c r="AK32" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL32" s="35">
+      <c r="AL32" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -7593,39 +7650,39 @@
       <c r="B33" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23">
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="107">
+      <c r="P33" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q33" s="23">
+      <c r="Q33" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R33" s="24">
+      <c r="R33" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S33" s="25" t="str">
+      <c r="S33" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T33" s="23"/>
+      <c r="T33" s="22"/>
       <c r="V33" s="1">
         <v>25</v>
       </c>
@@ -7635,40 +7692,40 @@
       <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
-      <c r="AA33" s="29">
+      <c r="AA33" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="36" t="s">
+      <c r="AB33" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="37">
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="35">
         <v>2017</v>
       </c>
-      <c r="AE33" s="39" t="s">
+      <c r="AE33" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="AF33" s="38">
+      <c r="AF33" s="36">
         <v>0.65138888888888891</v>
       </c>
-      <c r="AG33" s="51" t="s">
+      <c r="AG33" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="AH33" s="36">
+      <c r="AH33" s="34">
         <v>1</v>
       </c>
-      <c r="AI33" s="36" t="s">
+      <c r="AI33" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ33" s="89">
+      <c r="AJ33" s="86">
         <v>90000</v>
       </c>
-      <c r="AK33" s="34">
+      <c r="AK33" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL33" s="35">
+      <c r="AL33" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -7680,84 +7737,84 @@
       <c r="B34" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26">
+      <c r="C34" s="163"/>
+      <c r="D34" s="163">
         <v>5</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23">
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P34" s="107">
+      <c r="P34" s="104">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="Q34" s="23">
+      <c r="Q34" s="22">
         <f t="shared" si="4"/>
         <v>235</v>
       </c>
-      <c r="R34" s="24">
+      <c r="R34" s="23">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="S34" s="25" t="str">
+      <c r="S34" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T34" s="23"/>
+      <c r="T34" s="22"/>
       <c r="V34" s="1">
         <v>26</v>
       </c>
-      <c r="W34" s="49" t="s">
+      <c r="W34" s="46" t="s">
         <v>133</v>
       </c>
       <c r="X34" s="10"/>
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
-      <c r="AA34" s="29">
+      <c r="AA34" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB34" s="36" t="s">
+      <c r="AB34" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="37">
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="35">
         <v>2018</v>
       </c>
-      <c r="AE34" s="39" t="s">
+      <c r="AE34" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="AF34" s="38">
+      <c r="AF34" s="36">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="AG34" s="51" t="s">
+      <c r="AG34" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="AH34" s="36">
+      <c r="AH34" s="34">
         <v>1</v>
       </c>
-      <c r="AI34" s="36" t="s">
+      <c r="AI34" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ34" s="89">
+      <c r="AJ34" s="86">
         <v>90000</v>
       </c>
-      <c r="AK34" s="34">
+      <c r="AK34" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL34" s="35">
+      <c r="AL34" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -7769,84 +7826,84 @@
       <c r="B35" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26">
+      <c r="C35" s="163"/>
+      <c r="D35" s="163">
         <v>5</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23">
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P35" s="107">
+      <c r="P35" s="104">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="Q35" s="23">
+      <c r="Q35" s="22">
         <f t="shared" si="4"/>
         <v>235</v>
       </c>
-      <c r="R35" s="24">
+      <c r="R35" s="23">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="S35" s="25" t="str">
+      <c r="S35" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T35" s="23"/>
+      <c r="T35" s="22"/>
       <c r="V35" s="1">
         <v>27</v>
       </c>
-      <c r="W35" s="87" t="s">
+      <c r="W35" s="84" t="s">
         <v>134</v>
       </c>
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
-      <c r="AA35" s="29">
+      <c r="AA35" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB35" s="36" t="s">
+      <c r="AB35" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="37">
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="35">
         <v>2018</v>
       </c>
-      <c r="AE35" s="55" t="s">
+      <c r="AE35" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="AF35" s="38">
+      <c r="AF35" s="36">
         <v>0.85625000000000007</v>
       </c>
-      <c r="AG35" s="52" t="s">
+      <c r="AG35" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="AH35" s="36">
+      <c r="AH35" s="34">
         <v>1</v>
       </c>
-      <c r="AI35" s="36" t="s">
+      <c r="AI35" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ35" s="89">
+      <c r="AJ35" s="86">
         <v>90000</v>
       </c>
-      <c r="AK35" s="34">
+      <c r="AK35" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL35" s="35">
+      <c r="AL35" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -7858,49 +7915,49 @@
       <c r="B36" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="26">
-        <v>20</v>
-      </c>
-      <c r="D36" s="26">
-        <v>20</v>
-      </c>
-      <c r="E36" s="26">
-        <v>20</v>
-      </c>
-      <c r="F36" s="26">
-        <v>20</v>
-      </c>
-      <c r="G36" s="23">
-        <v>20</v>
-      </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23">
+      <c r="C36" s="163">
+        <v>20</v>
+      </c>
+      <c r="D36" s="163">
+        <v>20</v>
+      </c>
+      <c r="E36" s="163">
+        <v>20</v>
+      </c>
+      <c r="F36" s="163">
+        <v>20</v>
+      </c>
+      <c r="G36" s="22">
+        <v>20</v>
+      </c>
+      <c r="H36" s="163"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="P36" s="107">
+      <c r="P36" s="104">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Q36" s="23">
+      <c r="Q36" s="22">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R36" s="24">
+      <c r="R36" s="23">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="S36" s="25" t="str">
+      <c r="S36" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T36" s="23"/>
+      <c r="T36" s="22"/>
       <c r="V36" s="1">
         <v>28</v>
       </c>
@@ -7910,40 +7967,40 @@
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
-      <c r="AA36" s="29">
+      <c r="AA36" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB36" s="36" t="s">
+      <c r="AB36" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="37">
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="35">
         <v>2018</v>
       </c>
-      <c r="AE36" s="39" t="s">
+      <c r="AE36" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="AF36" s="38">
+      <c r="AF36" s="36">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AG36" s="50" t="s">
+      <c r="AG36" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="AH36" s="36">
+      <c r="AH36" s="34">
         <v>1</v>
       </c>
-      <c r="AI36" s="36" t="s">
+      <c r="AI36" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ36" s="89">
+      <c r="AJ36" s="86">
         <v>90000</v>
       </c>
-      <c r="AK36" s="34">
+      <c r="AK36" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL36" s="35">
+      <c r="AL36" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -7955,84 +8012,84 @@
       <c r="B37" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23">
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22">
         <v>5</v>
       </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23">
+      <c r="G37" s="22"/>
+      <c r="H37" s="163"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P37" s="107">
+      <c r="P37" s="104">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="Q37" s="23">
+      <c r="Q37" s="22">
         <f t="shared" si="4"/>
         <v>235</v>
       </c>
-      <c r="R37" s="24">
+      <c r="R37" s="23">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="S37" s="25" t="str">
+      <c r="S37" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T37" s="23"/>
+      <c r="T37" s="22"/>
       <c r="V37" s="1">
         <v>29</v>
       </c>
-      <c r="W37" s="49" t="s">
+      <c r="W37" s="46" t="s">
         <v>52</v>
       </c>
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
-      <c r="AA37" s="29">
+      <c r="AA37" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB37" s="36" t="s">
+      <c r="AB37" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="37">
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="35">
         <v>2017</v>
       </c>
-      <c r="AE37" s="39" t="s">
+      <c r="AE37" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="AF37" s="38">
+      <c r="AF37" s="36">
         <v>0.95486111111111116</v>
       </c>
-      <c r="AG37" s="50" t="s">
+      <c r="AG37" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="AH37" s="36">
+      <c r="AH37" s="34">
         <v>1</v>
       </c>
-      <c r="AI37" s="36" t="s">
+      <c r="AI37" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ37" s="89">
+      <c r="AJ37" s="86">
         <v>90000</v>
       </c>
-      <c r="AK37" s="34">
+      <c r="AK37" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL37" s="35">
+      <c r="AL37" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -8044,39 +8101,39 @@
       <c r="B38" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23">
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P38" s="107">
+      <c r="P38" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q38" s="23">
+      <c r="Q38" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R38" s="24">
+      <c r="R38" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S38" s="25" t="str">
+      <c r="S38" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T38" s="23"/>
+      <c r="T38" s="22"/>
       <c r="V38" s="1">
         <v>30</v>
       </c>
@@ -8086,40 +8143,40 @@
       <c r="X38" s="10"/>
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
-      <c r="AA38" s="29">
+      <c r="AA38" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB38" s="36" t="s">
+      <c r="AB38" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="37">
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="35">
         <v>2016</v>
       </c>
-      <c r="AE38" s="36" t="s">
+      <c r="AE38" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="AF38" s="38">
+      <c r="AF38" s="36">
         <v>0.85416666666666663</v>
       </c>
-      <c r="AG38" s="50" t="s">
+      <c r="AG38" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="AH38" s="36">
+      <c r="AH38" s="34">
         <v>1</v>
       </c>
-      <c r="AI38" s="36" t="s">
+      <c r="AI38" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ38" s="89">
+      <c r="AJ38" s="86">
         <v>90000</v>
       </c>
-      <c r="AK38" s="34">
+      <c r="AK38" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL38" s="35">
+      <c r="AL38" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -8131,39 +8188,39 @@
       <c r="B39" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23">
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="163"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P39" s="107">
+      <c r="P39" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q39" s="23">
+      <c r="Q39" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R39" s="24">
+      <c r="R39" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S39" s="25" t="str">
+      <c r="S39" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T39" s="23"/>
+      <c r="T39" s="22"/>
       <c r="V39" s="1">
         <v>31</v>
       </c>
@@ -8173,40 +8230,40 @@
       <c r="X39" s="10"/>
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
-      <c r="AA39" s="29">
+      <c r="AA39" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB39" s="36" t="s">
+      <c r="AB39" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="37">
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="35">
         <v>2018</v>
       </c>
-      <c r="AE39" s="36" t="s">
+      <c r="AE39" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="AF39" s="38">
+      <c r="AF39" s="36">
         <v>0.8569444444444444</v>
       </c>
-      <c r="AG39" s="50" t="s">
+      <c r="AG39" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="AH39" s="36">
+      <c r="AH39" s="34">
         <v>1</v>
       </c>
-      <c r="AI39" s="36" t="s">
+      <c r="AI39" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ39" s="89">
+      <c r="AJ39" s="86">
         <v>90000</v>
       </c>
-      <c r="AK39" s="34">
+      <c r="AK39" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL39" s="35" t="s">
+      <c r="AL39" s="33" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8217,39 +8274,39 @@
       <c r="B40" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23">
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P40" s="107">
+      <c r="P40" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q40" s="23">
+      <c r="Q40" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R40" s="24">
+      <c r="R40" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S40" s="25" t="str">
+      <c r="S40" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T40" s="23"/>
+      <c r="T40" s="22"/>
       <c r="V40" s="1">
         <v>32</v>
       </c>
@@ -8259,32 +8316,32 @@
       <c r="X40" s="10"/>
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
-      <c r="AA40" s="29">
+      <c r="AA40" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB40" s="36" t="s">
+      <c r="AB40" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="37">
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="35">
         <v>2018</v>
       </c>
-      <c r="AE40" s="39"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="50"/>
-      <c r="AH40" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="36" t="s">
+      <c r="AE40" s="37"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="34">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="AJ40" s="89"/>
-      <c r="AK40" s="34">
+      <c r="AJ40" s="86"/>
+      <c r="AK40" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="35">
+      <c r="AL40" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8296,39 +8353,39 @@
       <c r="B41" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23">
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P41" s="107">
+      <c r="P41" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q41" s="23">
+      <c r="Q41" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R41" s="24">
+      <c r="R41" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S41" s="25" t="str">
+      <c r="S41" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T41" s="23"/>
+      <c r="T41" s="22"/>
       <c r="V41" s="1">
         <v>33</v>
       </c>
@@ -8338,40 +8395,40 @@
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
-      <c r="AA41" s="29">
+      <c r="AA41" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB41" s="36" t="s">
+      <c r="AB41" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="37">
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="35">
         <v>2012</v>
       </c>
-      <c r="AE41" s="36" t="s">
+      <c r="AE41" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="AF41" s="38">
+      <c r="AF41" s="36">
         <v>0.87708333333333333</v>
       </c>
-      <c r="AG41" s="50" t="s">
+      <c r="AG41" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="AH41" s="36">
+      <c r="AH41" s="34">
         <v>1</v>
       </c>
-      <c r="AI41" s="36" t="s">
+      <c r="AI41" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ41" s="89">
+      <c r="AJ41" s="86">
         <v>100000</v>
       </c>
-      <c r="AK41" s="34">
+      <c r="AK41" s="32">
         <f t="shared" si="7"/>
         <v>82000</v>
       </c>
-      <c r="AL41" s="35">
+      <c r="AL41" s="33">
         <f>IF(AI41="YES",(AJ41-AK41),0)</f>
         <v>18000</v>
       </c>
@@ -8383,90 +8440,90 @@
       <c r="B42" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="163">
         <v>5</v>
       </c>
-      <c r="D42" s="26">
-        <v>20</v>
-      </c>
-      <c r="E42" s="23">
+      <c r="D42" s="163">
+        <v>20</v>
+      </c>
+      <c r="E42" s="22">
         <v>12.4</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23">
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22">
         <f t="shared" si="0"/>
         <v>37.4</v>
       </c>
-      <c r="P42" s="107">
+      <c r="P42" s="104">
         <f t="shared" si="3"/>
         <v>82.6</v>
       </c>
-      <c r="Q42" s="23">
+      <c r="Q42" s="22">
         <f t="shared" si="4"/>
         <v>202.6</v>
       </c>
-      <c r="R42" s="24">
+      <c r="R42" s="23">
         <f t="shared" si="1"/>
         <v>142.6</v>
       </c>
-      <c r="S42" s="25" t="str">
+      <c r="S42" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T42" s="23"/>
+      <c r="T42" s="22"/>
       <c r="V42" s="1">
         <v>34</v>
       </c>
-      <c r="W42" s="49" t="s">
+      <c r="W42" s="46" t="s">
         <v>141</v>
       </c>
       <c r="X42" s="10"/>
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
-      <c r="AA42" s="29">
+      <c r="AA42" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="36" t="s">
+      <c r="AB42" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AC42" s="53" t="s">
+      <c r="AC42" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="AD42" s="37">
+      <c r="AD42" s="35">
         <v>2018</v>
       </c>
-      <c r="AE42" s="39" t="s">
+      <c r="AE42" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="AF42" s="38">
+      <c r="AF42" s="36">
         <v>0.47986111111111113</v>
       </c>
-      <c r="AG42" s="50" t="s">
+      <c r="AG42" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="AH42" s="36">
+      <c r="AH42" s="34">
         <v>1</v>
       </c>
-      <c r="AI42" s="36" t="s">
+      <c r="AI42" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ42" s="89">
+      <c r="AJ42" s="86">
         <v>90000</v>
       </c>
-      <c r="AK42" s="34">
+      <c r="AK42" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL42" s="35">
+      <c r="AL42" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -8476,41 +8533,41 @@
         <v>38</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23">
+        <v>122</v>
+      </c>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P43" s="107">
+      <c r="P43" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q43" s="23">
+      <c r="Q43" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R43" s="24">
+      <c r="R43" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S43" s="25" t="str">
+      <c r="S43" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T43" s="23"/>
+      <c r="T43" s="22"/>
       <c r="V43" s="1">
         <v>35</v>
       </c>
@@ -8520,40 +8577,40 @@
       <c r="X43" s="10"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
-      <c r="AA43" s="29">
+      <c r="AA43" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB43" s="36" t="s">
+      <c r="AB43" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AC43" s="36"/>
-      <c r="AD43" s="37">
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="35">
         <v>2016</v>
       </c>
-      <c r="AE43" s="39" t="s">
+      <c r="AE43" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="AF43" s="38">
+      <c r="AF43" s="36">
         <v>0.60833333333333328</v>
       </c>
-      <c r="AG43" s="50">
+      <c r="AG43" s="47">
         <v>2016</v>
       </c>
-      <c r="AH43" s="36">
+      <c r="AH43" s="34">
         <v>1</v>
       </c>
-      <c r="AI43" s="36" t="s">
+      <c r="AI43" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ43" s="89">
+      <c r="AJ43" s="86">
         <v>90000</v>
       </c>
-      <c r="AK43" s="34">
+      <c r="AK43" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL43" s="35">
+      <c r="AL43" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -8565,39 +8622,39 @@
       <c r="B44" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23">
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P44" s="107">
+      <c r="P44" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q44" s="23">
+      <c r="Q44" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="R44" s="24">
+      <c r="R44" s="23">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S44" s="25" t="str">
+      <c r="S44" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T44" s="23"/>
+      <c r="T44" s="22"/>
       <c r="V44" s="1">
         <v>36</v>
       </c>
@@ -8607,40 +8664,40 @@
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
-      <c r="AA44" s="29">
+      <c r="AA44" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB44" s="36" t="s">
+      <c r="AB44" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AC44" s="36"/>
-      <c r="AD44" s="37">
+      <c r="AC44" s="34"/>
+      <c r="AD44" s="35">
         <v>2013</v>
       </c>
-      <c r="AE44" s="36" t="s">
+      <c r="AE44" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="AF44" s="38">
+      <c r="AF44" s="36">
         <v>0.87569444444444444</v>
       </c>
-      <c r="AG44" s="50" t="s">
+      <c r="AG44" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="AH44" s="36">
+      <c r="AH44" s="34">
         <v>1</v>
       </c>
-      <c r="AI44" s="36" t="s">
+      <c r="AI44" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ44" s="89">
+      <c r="AJ44" s="86">
         <v>90000</v>
       </c>
-      <c r="AK44" s="34">
+      <c r="AK44" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL44" s="35">
+      <c r="AL44" s="33">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -8652,84 +8709,84 @@
       <c r="B45" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26">
+      <c r="C45" s="163"/>
+      <c r="D45" s="163">
         <v>5</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23">
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="163"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P45" s="107">
+      <c r="P45" s="104">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="Q45" s="23">
+      <c r="Q45" s="22">
         <f t="shared" si="4"/>
         <v>235</v>
       </c>
-      <c r="R45" s="24">
+      <c r="R45" s="23">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="S45" s="25" t="str">
+      <c r="S45" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T45" s="23"/>
-      <c r="V45" s="56">
+      <c r="T45" s="22"/>
+      <c r="V45" s="53">
         <v>37</v>
       </c>
-      <c r="W45" s="57" t="s">
+      <c r="W45" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="X45" s="58"/>
-      <c r="Y45" s="58"/>
-      <c r="Z45" s="58"/>
-      <c r="AA45" s="59">
+      <c r="X45" s="55"/>
+      <c r="Y45" s="55"/>
+      <c r="Z45" s="55"/>
+      <c r="AA45" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB45" s="60" t="s">
+      <c r="AB45" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="AC45" s="60"/>
-      <c r="AD45" s="61">
+      <c r="AC45" s="57"/>
+      <c r="AD45" s="58">
         <v>2010</v>
       </c>
-      <c r="AE45" s="62" t="s">
+      <c r="AE45" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="AF45" s="63">
+      <c r="AF45" s="60">
         <v>0.84722222222222221</v>
       </c>
-      <c r="AG45" s="64" t="s">
+      <c r="AG45" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="AH45" s="60">
+      <c r="AH45" s="57">
         <v>1</v>
       </c>
-      <c r="AI45" s="65" t="s">
+      <c r="AI45" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="AJ45" s="90">
+      <c r="AJ45" s="87">
         <v>90000</v>
       </c>
-      <c r="AK45" s="34">
+      <c r="AK45" s="32">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="AL45" s="67">
+      <c r="AL45" s="64">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
@@ -8741,27 +8798,27 @@
       <c r="B46" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23">
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P46" s="107">
+      <c r="P46" s="104">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q46" s="23">
+      <c r="Q46" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
@@ -8769,46 +8826,46 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S46" s="25" t="str">
+      <c r="S46" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T46" s="23"/>
-      <c r="V46" s="70">
+      <c r="T46" s="22"/>
+      <c r="V46" s="67">
         <v>38</v>
       </c>
-      <c r="W46" s="76" t="s">
+      <c r="W46" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="72"/>
-      <c r="AA46" s="73">
+      <c r="X46" s="69"/>
+      <c r="Y46" s="69"/>
+      <c r="Z46" s="69"/>
+      <c r="AA46" s="70">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB46" s="65" t="s">
+      <c r="AB46" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="AC46" s="60"/>
-      <c r="AD46" s="61">
+      <c r="AC46" s="57"/>
+      <c r="AD46" s="58">
         <v>2015</v>
       </c>
-      <c r="AE46" s="62"/>
-      <c r="AF46" s="63"/>
-      <c r="AG46" s="64"/>
-      <c r="AH46" s="60">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="95" t="s">
+      <c r="AE46" s="59"/>
+      <c r="AF46" s="60"/>
+      <c r="AG46" s="61"/>
+      <c r="AH46" s="57">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="AJ46" s="66"/>
-      <c r="AK46" s="34">
+      <c r="AJ46" s="63"/>
+      <c r="AK46" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL46" s="96">
+      <c r="AL46" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8820,29 +8877,29 @@
       <c r="B47" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23">
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22">
         <v>5</v>
       </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23">
+      <c r="G47" s="22"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P47" s="107">
+      <c r="P47" s="104">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="Q47" s="23">
+      <c r="Q47" s="22">
         <f t="shared" si="4"/>
         <v>235</v>
       </c>
@@ -8850,119 +8907,119 @@
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="S47" s="25" t="str">
+      <c r="S47" s="24" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T47" s="23"/>
-      <c r="V47" s="70">
+      <c r="T47" s="22"/>
+      <c r="V47" s="67">
         <v>39</v>
       </c>
-      <c r="W47" s="76" t="s">
+      <c r="W47" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="75"/>
-      <c r="Z47" s="75"/>
-      <c r="AA47" s="73">
+      <c r="X47" s="68"/>
+      <c r="Y47" s="72"/>
+      <c r="Z47" s="72"/>
+      <c r="AA47" s="70">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB47" s="97" t="s">
+      <c r="AB47" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="AC47" s="98"/>
-      <c r="AD47" s="99">
+      <c r="AC47" s="95"/>
+      <c r="AD47" s="96">
         <v>2016</v>
       </c>
-      <c r="AE47" s="100"/>
-      <c r="AF47" s="101"/>
-      <c r="AG47" s="102"/>
-      <c r="AH47" s="98">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="88" t="s">
+      <c r="AE47" s="97"/>
+      <c r="AF47" s="98"/>
+      <c r="AG47" s="99"/>
+      <c r="AH47" s="95">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="AJ47" s="103"/>
-      <c r="AK47" s="34">
+      <c r="AJ47" s="100"/>
+      <c r="AK47" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL47" s="74">
+      <c r="AL47" s="71">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42">
+      <c r="A48" s="40">
         <v>43</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43">
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42">
         <v>5</v>
       </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="23">
+      <c r="G48" s="42"/>
+      <c r="H48" s="165"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P48" s="107">
+      <c r="P48" s="104">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="Q48" s="23">
+      <c r="Q48" s="22">
         <f t="shared" si="4"/>
         <v>235</v>
       </c>
-      <c r="R48" s="43">
+      <c r="R48" s="41">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="S48" s="45" t="str">
+      <c r="S48" s="42" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
-      <c r="T48" s="45"/>
-      <c r="V48" s="75"/>
-      <c r="W48" s="75"/>
-      <c r="X48" s="75"/>
-      <c r="Y48" s="75"/>
-      <c r="Z48" s="75"/>
-      <c r="AA48" s="73">
+      <c r="T48" s="42"/>
+      <c r="V48" s="72"/>
+      <c r="W48" s="72"/>
+      <c r="X48" s="72"/>
+      <c r="Y48" s="72"/>
+      <c r="Z48" s="72"/>
+      <c r="AA48" s="70">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB48" s="98"/>
-      <c r="AC48" s="98"/>
-      <c r="AD48" s="99"/>
-      <c r="AE48" s="100"/>
-      <c r="AF48" s="101"/>
-      <c r="AG48" s="102"/>
-      <c r="AH48" s="98">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="88" t="s">
+      <c r="AB48" s="95"/>
+      <c r="AC48" s="95"/>
+      <c r="AD48" s="96"/>
+      <c r="AE48" s="97"/>
+      <c r="AF48" s="98"/>
+      <c r="AG48" s="99"/>
+      <c r="AH48" s="95">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="AJ48" s="103"/>
-      <c r="AK48" s="34">
+      <c r="AJ48" s="100"/>
+      <c r="AK48" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL48" s="74">
+      <c r="AL48" s="71">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8974,35 +9031,35 @@
       <c r="B49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="10">
         <v>15</v>
       </c>
-      <c r="D49" s="3">
-        <v>20</v>
-      </c>
-      <c r="E49" s="3">
-        <v>20</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="D49" s="10">
+        <v>20</v>
+      </c>
+      <c r="E49" s="10">
+        <v>20</v>
+      </c>
+      <c r="F49" s="10">
         <v>5</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="23">
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="22">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="P49" s="107">
+      <c r="P49" s="104">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="Q49" s="23">
+      <c r="Q49" s="22">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
@@ -9010,38 +9067,38 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="S49" s="46" t="str">
+      <c r="S49" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T49" s="3"/>
-      <c r="V49" s="68"/>
-      <c r="W49" s="68"/>
-      <c r="X49" s="68"/>
-      <c r="Y49" s="161" t="s">
+      <c r="V49" s="65"/>
+      <c r="W49" s="65"/>
+      <c r="X49" s="65"/>
+      <c r="Y49" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="Z49" s="162"/>
-      <c r="AA49" s="41">
+      <c r="Z49" s="151"/>
+      <c r="AA49" s="39">
         <f>SUM(AA9:AA21)</f>
         <v>20000</v>
       </c>
-      <c r="AB49" s="69"/>
-      <c r="AC49" s="69"/>
-      <c r="AD49" s="69"/>
-      <c r="AE49" s="69"/>
-      <c r="AF49" s="69"/>
-      <c r="AG49" s="69"/>
-      <c r="AH49" s="69"/>
-      <c r="AI49" s="91" t="s">
+      <c r="AB49" s="66"/>
+      <c r="AC49" s="66"/>
+      <c r="AD49" s="66"/>
+      <c r="AE49" s="66"/>
+      <c r="AF49" s="66"/>
+      <c r="AG49" s="66"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="AJ49" s="92">
+      <c r="AJ49" s="89">
         <f>SUM(AJ9:AJ48:AJ46)</f>
         <v>2950000</v>
       </c>
-      <c r="AK49" s="68"/>
-      <c r="AL49" s="68"/>
+      <c r="AK49" s="65"/>
+      <c r="AL49" s="65"/>
     </row>
     <row r="50" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -9050,29 +9107,29 @@
       <c r="B50" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="10">
         <v>-5</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="23">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="22">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="P50" s="107">
+      <c r="P50" s="104">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="Q50" s="23">
+      <c r="Q50" s="22">
         <f t="shared" si="4"/>
         <v>245</v>
       </c>
@@ -9080,21 +9137,21 @@
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="S50" s="46" t="str">
+      <c r="S50" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T50" s="3"/>
-      <c r="AG50" s="146" t="s">
+      <c r="AG50" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="AH50" s="146"/>
-      <c r="AI50" s="146"/>
-      <c r="AJ50" s="146"/>
-      <c r="AK50" s="93">
+      <c r="AH50" s="154"/>
+      <c r="AI50" s="154"/>
+      <c r="AJ50" s="154"/>
+      <c r="AK50" s="90">
         <v>3087000</v>
       </c>
-      <c r="AL50" s="117"/>
+      <c r="AL50" s="114"/>
     </row>
     <row r="51" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -9103,31 +9160,31 @@
       <c r="B51" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="3">
-        <v>20</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="C51" s="10">
+        <v>20</v>
+      </c>
+      <c r="D51" s="10">
         <v>10</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="23">
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P51" s="107">
+      <c r="P51" s="104">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="Q51" s="23">
+      <c r="Q51" s="22">
         <f t="shared" si="4"/>
         <v>210</v>
       </c>
@@ -9135,28 +9192,28 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="S51" s="46" t="str">
+      <c r="S51" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T51" s="3"/>
-      <c r="Y51" s="48"/>
-      <c r="Z51" s="48"/>
-      <c r="AA51" s="48"/>
-      <c r="AB51" s="48"/>
-      <c r="AC51" s="48"/>
-      <c r="AD51" s="48"/>
-      <c r="AE51" s="48"/>
-      <c r="AG51" s="150" t="s">
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="45"/>
+      <c r="AA51" s="45"/>
+      <c r="AB51" s="45"/>
+      <c r="AC51" s="45"/>
+      <c r="AD51" s="45"/>
+      <c r="AE51" s="45"/>
+      <c r="AG51" s="158" t="s">
         <v>174</v>
       </c>
-      <c r="AH51" s="151"/>
-      <c r="AI51" s="151"/>
-      <c r="AJ51" s="152"/>
-      <c r="AK51" s="105">
+      <c r="AH51" s="159"/>
+      <c r="AI51" s="159"/>
+      <c r="AJ51" s="160"/>
+      <c r="AK51" s="102">
         <v>3077000</v>
       </c>
-      <c r="AL51" s="117"/>
+      <c r="AL51" s="114"/>
     </row>
     <row r="52" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
@@ -9165,29 +9222,29 @@
       <c r="B52" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="10">
         <v>5</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="23">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P52" s="107">
+      <c r="P52" s="104">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="Q52" s="23">
+      <c r="Q52" s="22">
         <f t="shared" si="4"/>
         <v>235</v>
       </c>
@@ -9195,29 +9252,29 @@
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="S52" s="46" t="str">
+      <c r="S52" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T52" s="3"/>
-      <c r="Y52" s="48"/>
-      <c r="Z52" s="48"/>
-      <c r="AA52" s="48"/>
-      <c r="AB52" s="48"/>
-      <c r="AC52" s="48"/>
-      <c r="AD52" s="48"/>
-      <c r="AE52" s="48"/>
-      <c r="AF52" s="48"/>
-      <c r="AG52" s="147" t="s">
+      <c r="Y52" s="45"/>
+      <c r="Z52" s="45"/>
+      <c r="AA52" s="45"/>
+      <c r="AB52" s="45"/>
+      <c r="AC52" s="45"/>
+      <c r="AD52" s="45"/>
+      <c r="AE52" s="45"/>
+      <c r="AF52" s="45"/>
+      <c r="AG52" s="155" t="s">
         <v>181</v>
       </c>
-      <c r="AH52" s="148"/>
-      <c r="AI52" s="148"/>
-      <c r="AJ52" s="149"/>
-      <c r="AK52" s="109">
+      <c r="AH52" s="156"/>
+      <c r="AI52" s="156"/>
+      <c r="AJ52" s="157"/>
+      <c r="AK52" s="106">
         <v>2550000</v>
       </c>
-      <c r="AL52" s="118"/>
+      <c r="AL52" s="115"/>
     </row>
     <row r="53" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -9226,29 +9283,29 @@
       <c r="B53" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="10">
         <v>5</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="23">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P53" s="107">
+      <c r="P53" s="104">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="Q53" s="23">
+      <c r="Q53" s="22">
         <f t="shared" si="4"/>
         <v>235</v>
       </c>
@@ -9256,34 +9313,34 @@
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="S53" s="46" t="str">
+      <c r="S53" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T53" s="3"/>
-      <c r="Y53" s="48"/>
-      <c r="Z53" s="48"/>
-      <c r="AA53" s="48"/>
-      <c r="AB53" s="48"/>
-      <c r="AC53" s="48"/>
-      <c r="AD53" s="48"/>
-      <c r="AE53" s="48"/>
-      <c r="AF53" s="48"/>
-      <c r="AG53" s="110" t="s">
+      <c r="Y53" s="45"/>
+      <c r="Z53" s="45"/>
+      <c r="AA53" s="45"/>
+      <c r="AB53" s="45"/>
+      <c r="AC53" s="45"/>
+      <c r="AD53" s="45"/>
+      <c r="AE53" s="45"/>
+      <c r="AF53" s="45"/>
+      <c r="AG53" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="AH53" s="110"/>
-      <c r="AI53" s="111">
+      <c r="AH53" s="107"/>
+      <c r="AI53" s="108">
         <v>3</v>
       </c>
-      <c r="AJ53" s="112">
+      <c r="AJ53" s="109">
         <v>7000</v>
       </c>
-      <c r="AK53" s="112">
+      <c r="AK53" s="109">
         <f>AI53*AJ53</f>
         <v>21000</v>
       </c>
-      <c r="AL53" s="117"/>
+      <c r="AL53" s="114"/>
     </row>
     <row r="54" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -9292,29 +9349,29 @@
       <c r="B54" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="10">
         <v>5</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="23">
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P54" s="107">
+      <c r="P54" s="104">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="Q54" s="23">
+      <c r="Q54" s="22">
         <f t="shared" si="4"/>
         <v>235</v>
       </c>
@@ -9322,50 +9379,57 @@
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="S54" s="46" t="str">
+      <c r="S54" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T54" s="3"/>
-      <c r="Y54" s="48"/>
-      <c r="Z54" s="48"/>
-      <c r="AG54" s="110" t="s">
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="45"/>
+      <c r="AG54" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="AH54" s="110"/>
-      <c r="AI54" s="111">
+      <c r="AH54" s="107"/>
+      <c r="AI54" s="108">
         <v>4</v>
       </c>
-      <c r="AJ54" s="112">
+      <c r="AJ54" s="109">
         <v>14000</v>
       </c>
-      <c r="AK54" s="112">
+      <c r="AK54" s="109">
         <f>AI54*AJ54</f>
         <v>56000</v>
       </c>
-      <c r="AL54" s="117"/>
+      <c r="AL54" s="114"/>
     </row>
     <row r="55" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="23">
+      <c r="A55" s="1">
+        <v>50</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P55" s="107"/>
-      <c r="Q55" s="23">
+      <c r="P55" s="104">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q55" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
@@ -9373,44 +9437,47 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S55" s="46" t="str">
+      <c r="S55" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T55" s="3"/>
-      <c r="AG55" s="113" t="s">
+      <c r="AG55" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="AH55" s="114"/>
-      <c r="AI55" s="114"/>
-      <c r="AJ55" s="115"/>
-      <c r="AK55" s="116">
+      <c r="AH55" s="111"/>
+      <c r="AI55" s="111"/>
+      <c r="AJ55" s="112"/>
+      <c r="AK55" s="113">
         <f>SUM(AK52:AK54)</f>
         <v>2627000</v>
       </c>
-      <c r="AL55" s="117"/>
+      <c r="AL55" s="114"/>
     </row>
     <row r="56" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="23">
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P56" s="107"/>
-      <c r="Q56" s="23">
+      <c r="P56" s="104">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q56" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
@@ -9418,45 +9485,48 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S56" s="46" t="str">
+      <c r="S56" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T56" s="3"/>
-      <c r="AG56" s="150" t="s">
+      <c r="AG56" s="158" t="s">
         <v>179</v>
       </c>
-      <c r="AH56" s="151"/>
-      <c r="AI56" s="151"/>
-      <c r="AJ56" s="152"/>
-      <c r="AK56" s="94">
+      <c r="AH56" s="159"/>
+      <c r="AI56" s="159"/>
+      <c r="AJ56" s="160"/>
+      <c r="AK56" s="91">
         <f>AK55</f>
         <v>2627000</v>
       </c>
-      <c r="AL56" s="119"/>
-      <c r="AM56" s="68"/>
+      <c r="AL56" s="116"/>
+      <c r="AM56" s="65"/>
     </row>
     <row r="57" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="23">
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P57" s="107"/>
-      <c r="Q57" s="23">
+      <c r="P57" s="104">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q57" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
@@ -9464,45 +9534,48 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S57" s="46" t="str">
+      <c r="S57" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T57" s="3"/>
-      <c r="AG57" s="146" t="s">
+      <c r="AG57" s="154" t="s">
         <v>171</v>
       </c>
-      <c r="AH57" s="146"/>
-      <c r="AI57" s="146"/>
-      <c r="AJ57" s="146"/>
-      <c r="AK57" s="120">
+      <c r="AH57" s="154"/>
+      <c r="AI57" s="154"/>
+      <c r="AJ57" s="154"/>
+      <c r="AK57" s="117">
         <f>AK51-AK56</f>
         <v>450000</v>
       </c>
-      <c r="AL57" s="119"/>
-      <c r="AM57" s="68"/>
+      <c r="AL57" s="116"/>
+      <c r="AM57" s="65"/>
     </row>
     <row r="58" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="23">
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P58" s="107"/>
-      <c r="Q58" s="23">
+      <c r="P58" s="104">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q58" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
@@ -9510,35 +9583,38 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S58" s="46" t="str">
+      <c r="S58" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T58" s="3"/>
-      <c r="AL58" s="117"/>
-      <c r="AM58" s="68"/>
+      <c r="AL58" s="114"/>
+      <c r="AM58" s="65"/>
     </row>
     <row r="59" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="23">
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P59" s="107"/>
-      <c r="Q59" s="23">
+      <c r="P59" s="104">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q59" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
@@ -9546,35 +9622,38 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S59" s="46" t="str">
+      <c r="S59" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T59" s="3"/>
-      <c r="AL59" s="117"/>
-      <c r="AM59" s="68"/>
+      <c r="AL59" s="114"/>
+      <c r="AM59" s="65"/>
     </row>
     <row r="60" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="23">
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P60" s="107"/>
-      <c r="Q60" s="23">
+      <c r="P60" s="104">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q60" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
@@ -9582,34 +9661,37 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S60" s="46" t="str">
+      <c r="S60" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T60" s="3"/>
-      <c r="AM60" s="68"/>
+      <c r="AM60" s="65"/>
     </row>
     <row r="61" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="23">
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P61" s="107"/>
-      <c r="Q61" s="23">
+      <c r="P61" s="104">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q61" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
@@ -9617,7 +9699,7 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S61" s="46" t="str">
+      <c r="S61" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
@@ -9626,24 +9708,27 @@
     <row r="62" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="23">
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P62" s="107"/>
-      <c r="Q62" s="23">
+      <c r="P62" s="104">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q62" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
@@ -9651,7 +9736,7 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S62" s="46" t="str">
+      <c r="S62" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
@@ -9660,24 +9745,27 @@
     <row r="63" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="23">
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P63" s="107"/>
-      <c r="Q63" s="23">
+      <c r="P63" s="104">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q63" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
@@ -9685,7 +9773,7 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="S63" s="46" t="str">
+      <c r="S63" s="43" t="str">
         <f t="shared" si="2"/>
         <v>NO</v>
       </c>
@@ -9694,32 +9782,32 @@
     <row r="64" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="153" t="s">
+      <c r="C66" s="142" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="154"/>
-      <c r="E66" s="154"/>
-      <c r="F66" s="154"/>
-      <c r="G66" s="155"/>
-      <c r="I66" s="163" t="s">
+      <c r="D66" s="143"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="143"/>
+      <c r="G66" s="144"/>
+      <c r="I66" s="153" t="s">
         <v>183</v>
       </c>
-      <c r="J66" s="163"/>
-      <c r="K66" s="163"/>
-      <c r="L66" s="163"/>
-      <c r="M66" s="163"/>
+      <c r="J66" s="153"/>
+      <c r="K66" s="153"/>
+      <c r="L66" s="153"/>
+      <c r="M66" s="153"/>
     </row>
     <row r="67" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="156"/>
-      <c r="D67" s="157"/>
-      <c r="E67" s="157"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="158"/>
-      <c r="I67" s="163"/>
-      <c r="J67" s="163"/>
-      <c r="K67" s="163"/>
-      <c r="L67" s="163"/>
-      <c r="M67" s="163"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="146"/>
+      <c r="G67" s="147"/>
+      <c r="I67" s="153"/>
+      <c r="J67" s="153"/>
+      <c r="K67" s="153"/>
+      <c r="L67" s="153"/>
+      <c r="M67" s="153"/>
     </row>
     <row r="68" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9919,13 +10007,6 @@
     <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C66:G67"/>
-    <mergeCell ref="C2:R3"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="I66:M67"/>
     <mergeCell ref="AB7:AL7"/>
     <mergeCell ref="V5:AL5"/>
     <mergeCell ref="X6:AL6"/>
@@ -9934,39 +10015,46 @@
     <mergeCell ref="AG51:AJ51"/>
     <mergeCell ref="AG50:AJ50"/>
     <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="C66:G67"/>
+    <mergeCell ref="C2:R3"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="I66:M67"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:T63">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>IF(ISBLANK($B$4), 0, SEARCH($B$4,$B6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI9:AI48">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH(("YES"),(AI9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI9:AI48">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(AI9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AL9 W46:AA46 AB46:AJ48 AA47:AA48 W10:AJ45 AK10:AL48">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>IF(ISBLANK($X$4), 0, SEARCH($X$4,$W9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S63">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(S6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S63">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH(("OK"),(S6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10:W45">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>IF(AI10="YES",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9990,277 +10078,277 @@
   <sheetData>
     <row r="3" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="77"/>
-      <c r="C4" s="164" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="161" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="165"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="164" t="s">
+      <c r="D4" s="162"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="165"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="78"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="79"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="80"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="79"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="80"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="79"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="80"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="79"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="80"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="77"/>
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="79"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="80"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="79"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="80"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="77"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="79"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="80"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="77"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="79"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="80"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="77"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="79"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="80"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="77"/>
     </row>
     <row r="14" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="77"/>
-      <c r="C17" s="164" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="161" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="165"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="164" t="s">
+      <c r="D17" s="162"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="161" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="165"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="78"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="75"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="79"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="80"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="77"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="79"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="80"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="77"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="79"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="80"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="77"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="79"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="80"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="77"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="79"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="80"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="77"/>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="79"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="80"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="77"/>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="79"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="80"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="77"/>
     </row>
     <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="79"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="80"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="77"/>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="79"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="80"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="77"/>
     </row>
     <row r="27" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="83"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="464"/>
+    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="464" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018(NOT UPDATED)" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
     <t>Connected with Github</t>
   </si>
   <si>
-    <t>yahya</t>
+    <t>abi</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1564,18 +1564,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1592,9 +1584,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1608,6 +1605,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1638,32 +1668,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1671,48 +1677,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1773,6 +1742,20 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF92D050"/>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2446,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
+    <sheetView topLeftCell="H18" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -2469,126 +2452,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
+      <c r="A1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="130"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="131"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2659,10 +2642,10 @@
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="120" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1">
@@ -2674,7 +2657,7 @@
       <c r="G10" s="1">
         <v>20</v>
       </c>
-      <c r="H10" s="127" t="s">
+      <c r="H10" s="123" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="1">
@@ -2722,8 +2705,8 @@
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="1">
         <v>20</v>
       </c>
@@ -2733,7 +2716,7 @@
       <c r="G11" s="1">
         <v>20</v>
       </c>
-      <c r="H11" s="125"/>
+      <c r="H11" s="121"/>
       <c r="I11" s="1">
         <v>20</v>
       </c>
@@ -2779,8 +2762,8 @@
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="1">
         <v>10</v>
       </c>
@@ -2790,7 +2773,7 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="125"/>
+      <c r="H12" s="121"/>
       <c r="I12" s="1">
         <v>20</v>
       </c>
@@ -2830,8 +2813,8 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="1">
         <v>20</v>
       </c>
@@ -2841,7 +2824,7 @@
       <c r="G13" s="1">
         <v>20</v>
       </c>
-      <c r="H13" s="125"/>
+      <c r="H13" s="121"/>
       <c r="I13" s="1">
         <v>20</v>
       </c>
@@ -2881,14 +2864,14 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="1">
         <v>20</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="125"/>
+      <c r="H14" s="121"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2924,8 +2907,8 @@
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="1">
         <v>20</v>
       </c>
@@ -2935,7 +2918,7 @@
       <c r="G15" s="1">
         <v>20</v>
       </c>
-      <c r="H15" s="125"/>
+      <c r="H15" s="121"/>
       <c r="I15" s="1">
         <v>20</v>
       </c>
@@ -2983,8 +2966,8 @@
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="1">
         <v>20</v>
       </c>
@@ -2992,7 +2975,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="125"/>
+      <c r="H16" s="121"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3028,8 +3011,8 @@
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="1">
         <v>20</v>
       </c>
@@ -3037,7 +3020,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="125"/>
+      <c r="H17" s="121"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3073,12 +3056,12 @@
       <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="125"/>
+      <c r="H18" s="121"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -3114,8 +3097,8 @@
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>20</v>
@@ -3123,7 +3106,7 @@
       <c r="G19" s="1">
         <v>20</v>
       </c>
-      <c r="H19" s="125"/>
+      <c r="H19" s="121"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3161,8 +3144,8 @@
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="1">
         <v>20</v>
       </c>
@@ -3170,7 +3153,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="125"/>
+      <c r="H20" s="121"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3206,8 +3189,8 @@
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="1">
         <v>20</v>
       </c>
@@ -3217,7 +3200,7 @@
       <c r="G21" s="1">
         <v>20</v>
       </c>
-      <c r="H21" s="125"/>
+      <c r="H21" s="121"/>
       <c r="I21" s="1">
         <v>20</v>
       </c>
@@ -3259,8 +3242,8 @@
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
       <c r="E22" s="1">
         <v>20</v>
       </c>
@@ -3270,7 +3253,7 @@
       <c r="G22" s="1">
         <v>15</v>
       </c>
-      <c r="H22" s="125"/>
+      <c r="H22" s="121"/>
       <c r="I22" s="1">
         <v>10</v>
       </c>
@@ -3308,14 +3291,14 @@
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="125"/>
+      <c r="H23" s="121"/>
       <c r="I23" s="1"/>
       <c r="J23" s="9">
         <v>-40</v>
@@ -3355,8 +3338,8 @@
       <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
       <c r="E24" s="1">
         <v>20</v>
       </c>
@@ -3364,7 +3347,7 @@
       <c r="G24" s="1">
         <v>20</v>
       </c>
-      <c r="H24" s="125"/>
+      <c r="H24" s="121"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3400,12 +3383,12 @@
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="125"/>
+      <c r="H25" s="121"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -3441,8 +3424,8 @@
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
       <c r="E26" s="1">
         <v>20</v>
       </c>
@@ -3452,7 +3435,7 @@
       <c r="G26" s="1">
         <v>20</v>
       </c>
-      <c r="H26" s="125"/>
+      <c r="H26" s="121"/>
       <c r="I26" s="1">
         <v>20</v>
       </c>
@@ -3492,14 +3475,14 @@
       <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>20</v>
       </c>
-      <c r="H27" s="125"/>
+      <c r="H27" s="121"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3535,8 +3518,8 @@
       <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
       <c r="E28" s="1">
         <v>20</v>
       </c>
@@ -3544,7 +3527,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="125"/>
+      <c r="H28" s="121"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3580,14 +3563,14 @@
       <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
       <c r="E29" s="1">
         <v>20</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="125"/>
+      <c r="H29" s="121"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3623,8 +3606,8 @@
       <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
       <c r="E30" s="1">
         <v>20</v>
       </c>
@@ -3634,7 +3617,7 @@
       <c r="G30" s="1">
         <v>20</v>
       </c>
-      <c r="H30" s="125"/>
+      <c r="H30" s="121"/>
       <c r="I30" s="1">
         <v>20</v>
       </c>
@@ -3680,14 +3663,14 @@
       <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
         <v>20</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="125"/>
+      <c r="H31" s="121"/>
       <c r="I31" s="1">
         <v>20</v>
       </c>
@@ -3727,8 +3710,8 @@
       <c r="B32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="1">
         <v>20</v>
       </c>
@@ -3738,7 +3721,7 @@
       <c r="G32" s="1">
         <v>20</v>
       </c>
-      <c r="H32" s="125"/>
+      <c r="H32" s="121"/>
       <c r="I32" s="1">
         <v>20</v>
       </c>
@@ -3784,8 +3767,8 @@
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="1">
         <v>20</v>
       </c>
@@ -3793,7 +3776,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="125"/>
+      <c r="H33" s="121"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3829,14 +3812,14 @@
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
       <c r="E34" s="1">
         <v>20</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="125"/>
+      <c r="H34" s="121"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3872,8 +3855,8 @@
       <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="1">
         <v>20</v>
       </c>
@@ -3881,7 +3864,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="125"/>
+      <c r="H35" s="121"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3917,8 +3900,8 @@
       <c r="B36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="1">
         <v>20</v>
       </c>
@@ -3928,7 +3911,7 @@
       <c r="G36" s="1">
         <v>20</v>
       </c>
-      <c r="H36" s="125"/>
+      <c r="H36" s="121"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
         <v>20</v>
@@ -3966,8 +3949,8 @@
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="1">
         <v>20</v>
       </c>
@@ -3977,7 +3960,7 @@
       <c r="G37" s="1">
         <v>20</v>
       </c>
-      <c r="H37" s="125"/>
+      <c r="H37" s="121"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
         <v>20</v>
@@ -4021,8 +4004,8 @@
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="1">
         <v>20</v>
       </c>
@@ -4032,7 +4015,7 @@
       <c r="G38" s="1">
         <v>20</v>
       </c>
-      <c r="H38" s="125"/>
+      <c r="H38" s="121"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
         <v>20</v>
@@ -4070,8 +4053,8 @@
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="1">
         <v>20</v>
       </c>
@@ -4079,7 +4062,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="125"/>
+      <c r="H39" s="121"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -4115,8 +4098,8 @@
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="1">
         <v>20</v>
       </c>
@@ -4126,7 +4109,7 @@
       <c r="G40" s="1">
         <v>20</v>
       </c>
-      <c r="H40" s="125"/>
+      <c r="H40" s="121"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <v>20</v>
@@ -4170,8 +4153,8 @@
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
       <c r="E41" s="1">
         <v>20</v>
       </c>
@@ -4179,7 +4162,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="125"/>
+      <c r="H41" s="121"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -4215,14 +4198,14 @@
       <c r="B42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
       <c r="E42" s="1">
         <v>20</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="125"/>
+      <c r="H42" s="121"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -4258,8 +4241,8 @@
       <c r="B43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
       <c r="E43" s="1">
         <v>20</v>
       </c>
@@ -4269,7 +4252,7 @@
       <c r="G43" s="1">
         <v>20</v>
       </c>
-      <c r="H43" s="125"/>
+      <c r="H43" s="121"/>
       <c r="I43" s="1">
         <v>20</v>
       </c>
@@ -4317,8 +4300,8 @@
       <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
       <c r="E44" s="1">
         <v>20</v>
       </c>
@@ -4328,7 +4311,7 @@
       <c r="G44" s="1">
         <v>20</v>
       </c>
-      <c r="H44" s="125"/>
+      <c r="H44" s="121"/>
       <c r="I44" s="1">
         <v>20</v>
       </c>
@@ -4372,8 +4355,8 @@
       <c r="B45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
       <c r="E45" s="1">
         <v>20</v>
       </c>
@@ -4383,7 +4366,7 @@
       <c r="G45" s="1">
         <v>20</v>
       </c>
-      <c r="H45" s="125"/>
+      <c r="H45" s="121"/>
       <c r="I45" s="1">
         <v>15</v>
       </c>
@@ -4421,8 +4404,8 @@
       <c r="B46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="1">
         <v>20</v>
       </c>
@@ -4432,7 +4415,7 @@
       <c r="G46" s="1">
         <v>20</v>
       </c>
-      <c r="H46" s="125"/>
+      <c r="H46" s="121"/>
       <c r="I46" s="1">
         <v>20</v>
       </c>
@@ -4470,8 +4453,8 @@
       <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
       <c r="E47" s="1">
         <v>20</v>
       </c>
@@ -4481,7 +4464,7 @@
       <c r="G47" s="1">
         <v>20</v>
       </c>
-      <c r="H47" s="125"/>
+      <c r="H47" s="121"/>
       <c r="I47" s="1">
         <v>20</v>
       </c>
@@ -4525,8 +4508,8 @@
       <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="125"/>
-      <c r="D48" s="125"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
       <c r="E48" s="1">
         <v>20</v>
       </c>
@@ -4534,7 +4517,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="125"/>
+      <c r="H48" s="121"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4570,8 +4553,8 @@
       <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="1">
         <v>20</v>
       </c>
@@ -4581,7 +4564,7 @@
       <c r="G49" s="1">
         <v>20</v>
       </c>
-      <c r="H49" s="125"/>
+      <c r="H49" s="121"/>
       <c r="I49" s="1">
         <v>20</v>
       </c>
@@ -4621,12 +4604,12 @@
       <c r="B50" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="125"/>
-      <c r="D50" s="125"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="125"/>
+      <c r="H50" s="121"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -4662,12 +4645,12 @@
       <c r="B51" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="125"/>
-      <c r="D51" s="125"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="125"/>
+      <c r="H51" s="121"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -4703,12 +4686,12 @@
       <c r="B52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="126"/>
+      <c r="H52" s="122"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -4745,58 +4728,58 @@
     <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I58" s="133" t="s">
+      <c r="I58" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="J58" s="134"/>
-      <c r="K58" s="134"/>
-      <c r="L58" s="134"/>
-      <c r="M58" s="135"/>
-      <c r="O58" s="141" t="s">
+      <c r="J58" s="133"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="133"/>
+      <c r="M58" s="134"/>
+      <c r="O58" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="P58" s="134"/>
-      <c r="Q58" s="134"/>
-      <c r="R58" s="135"/>
+      <c r="P58" s="133"/>
+      <c r="Q58" s="133"/>
+      <c r="R58" s="134"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I59" s="136" t="s">
+      <c r="I59" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="131"/>
-      <c r="K59" s="131"/>
-      <c r="L59" s="131"/>
-      <c r="M59" s="137"/>
-      <c r="O59" s="136" t="s">
+      <c r="J59" s="127"/>
+      <c r="K59" s="127"/>
+      <c r="L59" s="127"/>
+      <c r="M59" s="136"/>
+      <c r="O59" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="P59" s="131"/>
-      <c r="Q59" s="131"/>
-      <c r="R59" s="137"/>
+      <c r="P59" s="127"/>
+      <c r="Q59" s="127"/>
+      <c r="R59" s="136"/>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="138"/>
-      <c r="J60" s="139"/>
-      <c r="K60" s="139"/>
-      <c r="L60" s="139"/>
-      <c r="M60" s="140"/>
-      <c r="O60" s="138"/>
-      <c r="P60" s="139"/>
-      <c r="Q60" s="139"/>
-      <c r="R60" s="140"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="138"/>
+      <c r="K60" s="138"/>
+      <c r="L60" s="138"/>
+      <c r="M60" s="139"/>
+      <c r="O60" s="137"/>
+      <c r="P60" s="138"/>
+      <c r="Q60" s="138"/>
+      <c r="R60" s="139"/>
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="132" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="119"/>
-      <c r="K61" s="120"/>
-      <c r="L61" s="132" t="s">
+      <c r="I61" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="131"/>
+      <c r="K61" s="129"/>
+      <c r="L61" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="M61" s="120"/>
-      <c r="O61" s="132"/>
-      <c r="P61" s="120"/>
+      <c r="M61" s="129"/>
+      <c r="O61" s="130"/>
+      <c r="P61" s="129"/>
       <c r="Q61" s="11" t="s">
         <v>20</v>
       </c>
@@ -4805,38 +4788,38 @@
       </c>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I62" s="118" t="s">
+      <c r="I62" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="J62" s="119"/>
-      <c r="K62" s="120"/>
-      <c r="L62" s="121">
+      <c r="J62" s="131"/>
+      <c r="K62" s="129"/>
+      <c r="L62" s="142">
         <v>7350000</v>
       </c>
-      <c r="M62" s="120"/>
-      <c r="O62" s="122" t="s">
+      <c r="M62" s="129"/>
+      <c r="O62" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="P62" s="120"/>
+      <c r="P62" s="129"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="13">
         <v>40000</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I63" s="118" t="s">
+      <c r="I63" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="J63" s="119"/>
-      <c r="K63" s="120"/>
-      <c r="L63" s="123">
+      <c r="J63" s="131"/>
+      <c r="K63" s="129"/>
+      <c r="L63" s="143">
         <v>1100000</v>
       </c>
-      <c r="M63" s="120"/>
-      <c r="O63" s="122" t="s">
+      <c r="M63" s="129"/>
+      <c r="O63" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="P63" s="120"/>
+      <c r="P63" s="129"/>
       <c r="Q63" s="14" t="s">
         <v>77</v>
       </c>
@@ -4845,39 +4828,39 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I64" s="118" t="s">
+      <c r="I64" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="119"/>
-      <c r="K64" s="120"/>
-      <c r="L64" s="121">
+      <c r="J64" s="131"/>
+      <c r="K64" s="129"/>
+      <c r="L64" s="142">
         <f>L62+L63</f>
         <v>8450000</v>
       </c>
-      <c r="M64" s="120"/>
-      <c r="O64" s="122" t="s">
+      <c r="M64" s="129"/>
+      <c r="O64" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="P64" s="120"/>
+      <c r="P64" s="129"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="9:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I65" s="118" t="s">
+      <c r="I65" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="J65" s="119"/>
-      <c r="K65" s="120"/>
-      <c r="L65" s="121">
+      <c r="J65" s="131"/>
+      <c r="K65" s="129"/>
+      <c r="L65" s="142">
         <v>8411850</v>
       </c>
-      <c r="M65" s="120"/>
-      <c r="O65" s="122" t="s">
+      <c r="M65" s="129"/>
+      <c r="O65" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="P65" s="120"/>
+      <c r="P65" s="129"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="13">
         <f>R62-R63+R64</f>
@@ -4885,20 +4868,20 @@
       </c>
     </row>
     <row r="66" spans="9:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I66" s="118" t="s">
+      <c r="I66" s="141" t="s">
         <v>82</v>
       </c>
-      <c r="J66" s="119"/>
-      <c r="K66" s="120"/>
-      <c r="L66" s="121">
+      <c r="J66" s="131"/>
+      <c r="K66" s="129"/>
+      <c r="L66" s="142">
         <f>L64-L65</f>
         <v>38150</v>
       </c>
-      <c r="M66" s="120"/>
-      <c r="O66" s="122" t="s">
+      <c r="M66" s="129"/>
+      <c r="O66" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="P66" s="120"/>
+      <c r="P66" s="129"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="13">
         <f>L66+R65</f>
@@ -5107,6 +5090,17 @@
     <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:M63"/>
     <mergeCell ref="C10:C52"/>
     <mergeCell ref="D10:D52"/>
     <mergeCell ref="H10:H52"/>
@@ -5122,23 +5116,12 @@
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="O61:P61"/>
     <mergeCell ref="O59:R60"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O65:P65"/>
   </mergeCells>
   <conditionalFormatting sqref="R10:R52">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",R10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",R10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5151,8 +5134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AM263"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5192,42 +5175,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C2" s="148" t="s">
+      <c r="C2" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="131"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
       <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -5303,25 +5286,25 @@
       <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="152" t="s">
+      <c r="V5" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="W5" s="119"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="119"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="119"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="120"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="131"/>
+      <c r="AD5" s="131"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="131"/>
+      <c r="AG5" s="131"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="131"/>
+      <c r="AJ5" s="131"/>
+      <c r="AK5" s="131"/>
+      <c r="AL5" s="129"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -5369,29 +5352,29 @@
         <v>NO</v>
       </c>
       <c r="T6" s="22"/>
-      <c r="V6" s="149" t="s">
+      <c r="V6" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="149" t="s">
+      <c r="W6" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="152" t="s">
+      <c r="X6" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="119"/>
-      <c r="AH6" s="119"/>
-      <c r="AI6" s="119"/>
-      <c r="AJ6" s="119"/>
-      <c r="AK6" s="119"/>
-      <c r="AL6" s="120"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="131"/>
+      <c r="AI6" s="131"/>
+      <c r="AJ6" s="131"/>
+      <c r="AK6" s="131"/>
+      <c r="AL6" s="129"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -5400,8 +5383,8 @@
       <c r="B7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163">
+      <c r="C7" s="118"/>
+      <c r="D7" s="118">
         <v>5</v>
       </c>
       <c r="E7" s="22"/>
@@ -5409,7 +5392,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="163"/>
+      <c r="H7" s="118"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -5437,27 +5420,27 @@
         <v>NO</v>
       </c>
       <c r="T7" s="22"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="152" t="s">
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="152" t="s">
+      <c r="Y7" s="131"/>
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="129"/>
+      <c r="AB7" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="120"/>
+      <c r="AC7" s="131"/>
+      <c r="AD7" s="131"/>
+      <c r="AE7" s="131"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="131"/>
+      <c r="AI7" s="131"/>
+      <c r="AJ7" s="131"/>
+      <c r="AK7" s="131"/>
+      <c r="AL7" s="129"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -5466,12 +5449,12 @@
       <c r="B8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="163"/>
+      <c r="H8" s="118"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -5499,8 +5482,8 @@
         <v>NO</v>
       </c>
       <c r="T8" s="22"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
       <c r="X8" s="10" t="s">
         <v>20</v>
       </c>
@@ -5554,8 +5537,8 @@
       <c r="B9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163">
+      <c r="C9" s="118"/>
+      <c r="D9" s="118">
         <v>5</v>
       </c>
       <c r="E9" s="22"/>
@@ -5563,7 +5546,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="22"/>
-      <c r="H9" s="163"/>
+      <c r="H9" s="118"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
@@ -5639,12 +5622,12 @@
       <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
-      <c r="H10" s="163"/>
+      <c r="H10" s="118"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
@@ -5732,12 +5715,12 @@
       <c r="B11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="163"/>
+      <c r="H11" s="118"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
@@ -5819,12 +5802,12 @@
       <c r="B12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="163"/>
+      <c r="H12" s="118"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
@@ -5906,12 +5889,12 @@
       <c r="B13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="163"/>
+      <c r="H13" s="118"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -5993,12 +5976,12 @@
       <c r="B14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="163"/>
+      <c r="H14" s="118"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
@@ -6080,12 +6063,12 @@
       <c r="B15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="163"/>
+      <c r="H15" s="118"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
@@ -6167,12 +6150,12 @@
       <c r="B16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="163"/>
+      <c r="H16" s="118"/>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
@@ -6246,13 +6229,23 @@
       <c r="B17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="164">
-        <v>120</v>
+      <c r="C17" s="118">
+        <v>20</v>
+      </c>
+      <c r="D17" s="118">
+        <v>20</v>
+      </c>
+      <c r="E17" s="118">
+        <v>20</v>
+      </c>
+      <c r="F17" s="118">
+        <v>20</v>
+      </c>
+      <c r="G17" s="118">
+        <v>20</v>
+      </c>
+      <c r="H17" s="118">
+        <v>20</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -6262,7 +6255,7 @@
       <c r="N17" s="22"/>
       <c r="O17" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="104">
         <f t="shared" si="3"/>
@@ -6270,11 +6263,11 @@
       </c>
       <c r="Q17" s="22">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="R17" s="23">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="S17" s="24" t="str">
         <f t="shared" si="2"/>
@@ -6327,14 +6320,14 @@
       <c r="B18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22">
         <v>5</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="163"/>
+      <c r="H18" s="118"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
@@ -6418,12 +6411,12 @@
       <c r="B19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="163"/>
+      <c r="H19" s="118"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
@@ -6505,16 +6498,16 @@
       <c r="B20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="163">
+      <c r="C20" s="118">
         <v>5</v>
       </c>
-      <c r="D20" s="163">
+      <c r="D20" s="118">
         <v>5</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="163"/>
+      <c r="H20" s="118"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
@@ -6588,14 +6581,14 @@
       <c r="B21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163">
+      <c r="C21" s="118"/>
+      <c r="D21" s="118">
         <v>5</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="163"/>
+      <c r="H21" s="118"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
@@ -6677,12 +6670,12 @@
       <c r="B22" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="163"/>
+      <c r="H22" s="118"/>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
@@ -6764,12 +6757,12 @@
       <c r="B23" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="163"/>
+      <c r="H23" s="118"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
@@ -6851,12 +6844,12 @@
       <c r="B24" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="163"/>
+      <c r="H24" s="118"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
@@ -6938,12 +6931,12 @@
       <c r="B25" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="163"/>
+      <c r="H25" s="118"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
@@ -7025,16 +7018,16 @@
       <c r="B26" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="163">
+      <c r="C26" s="118">
         <v>5</v>
       </c>
-      <c r="D26" s="163"/>
+      <c r="D26" s="118"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22">
         <v>5</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="163"/>
+      <c r="H26" s="118"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
@@ -7116,10 +7109,10 @@
       <c r="B27" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="163">
+      <c r="C27" s="118">
         <v>5</v>
       </c>
-      <c r="D27" s="163">
+      <c r="D27" s="118">
         <v>5</v>
       </c>
       <c r="E27" s="22"/>
@@ -7127,7 +7120,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="22"/>
-      <c r="H27" s="163"/>
+      <c r="H27" s="118"/>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
@@ -7209,10 +7202,10 @@
       <c r="B28" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="163">
-        <v>20</v>
-      </c>
-      <c r="D28" s="163">
+      <c r="C28" s="118">
+        <v>20</v>
+      </c>
+      <c r="D28" s="118">
         <v>20</v>
       </c>
       <c r="E28" s="22">
@@ -7220,7 +7213,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="163"/>
+      <c r="H28" s="118"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
@@ -7302,12 +7295,12 @@
       <c r="B29" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="163"/>
+      <c r="H29" s="118"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
@@ -7389,12 +7382,12 @@
       <c r="B30" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="163"/>
+      <c r="H30" s="118"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
@@ -7476,12 +7469,12 @@
       <c r="B31" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="163"/>
+      <c r="H31" s="118"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
@@ -7563,12 +7556,12 @@
       <c r="B32" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="163"/>
+      <c r="H32" s="118"/>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
@@ -7650,12 +7643,12 @@
       <c r="B33" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="163"/>
+      <c r="H33" s="118"/>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
@@ -7737,14 +7730,14 @@
       <c r="B34" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163">
+      <c r="C34" s="118"/>
+      <c r="D34" s="118">
         <v>5</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="163"/>
+      <c r="H34" s="118"/>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
@@ -7826,14 +7819,14 @@
       <c r="B35" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163">
+      <c r="C35" s="118"/>
+      <c r="D35" s="118">
         <v>5</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="163"/>
+      <c r="H35" s="118"/>
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
@@ -7915,22 +7908,22 @@
       <c r="B36" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="163">
-        <v>20</v>
-      </c>
-      <c r="D36" s="163">
-        <v>20</v>
-      </c>
-      <c r="E36" s="163">
-        <v>20</v>
-      </c>
-      <c r="F36" s="163">
+      <c r="C36" s="118">
+        <v>20</v>
+      </c>
+      <c r="D36" s="118">
+        <v>20</v>
+      </c>
+      <c r="E36" s="118">
+        <v>20</v>
+      </c>
+      <c r="F36" s="118">
         <v>20</v>
       </c>
       <c r="G36" s="22">
         <v>20</v>
       </c>
-      <c r="H36" s="163"/>
+      <c r="H36" s="118"/>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
@@ -8012,14 +8005,14 @@
       <c r="B37" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22">
         <v>5</v>
       </c>
       <c r="G37" s="22"/>
-      <c r="H37" s="163"/>
+      <c r="H37" s="118"/>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
@@ -8101,12 +8094,12 @@
       <c r="B38" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="163"/>
+      <c r="H38" s="118"/>
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
@@ -8188,12 +8181,12 @@
       <c r="B39" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="163"/>
+      <c r="H39" s="118"/>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
@@ -8274,12 +8267,12 @@
       <c r="B40" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="163"/>
+      <c r="H40" s="118"/>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
@@ -8353,12 +8346,12 @@
       <c r="B41" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="163"/>
+      <c r="H41" s="118"/>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
@@ -8440,10 +8433,10 @@
       <c r="B42" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="163">
+      <c r="C42" s="118">
         <v>5</v>
       </c>
-      <c r="D42" s="163">
+      <c r="D42" s="118">
         <v>20</v>
       </c>
       <c r="E42" s="22">
@@ -8451,7 +8444,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="163"/>
+      <c r="H42" s="118"/>
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
@@ -8535,12 +8528,12 @@
       <c r="B43" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="163"/>
+      <c r="H43" s="118"/>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
@@ -8622,12 +8615,12 @@
       <c r="B44" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="163"/>
+      <c r="H44" s="118"/>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
@@ -8709,14 +8702,14 @@
       <c r="B45" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163">
+      <c r="C45" s="118"/>
+      <c r="D45" s="118">
         <v>5</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="163"/>
+      <c r="H45" s="118"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -8798,12 +8791,12 @@
       <c r="B46" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
-      <c r="H46" s="163"/>
+      <c r="H46" s="118"/>
       <c r="I46" s="22"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
@@ -8877,14 +8870,14 @@
       <c r="B47" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22">
         <v>5</v>
       </c>
       <c r="G47" s="22"/>
-      <c r="H47" s="163"/>
+      <c r="H47" s="118"/>
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
@@ -8958,14 +8951,14 @@
       <c r="B48" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="42"/>
       <c r="F48" s="42">
         <v>5</v>
       </c>
       <c r="G48" s="42"/>
-      <c r="H48" s="165"/>
+      <c r="H48" s="119"/>
       <c r="I48" s="42"/>
       <c r="J48" s="42"/>
       <c r="K48" s="42"/>
@@ -9075,10 +9068,10 @@
       <c r="V49" s="65"/>
       <c r="W49" s="65"/>
       <c r="X49" s="65"/>
-      <c r="Y49" s="150" t="s">
+      <c r="Y49" s="160" t="s">
         <v>145</v>
       </c>
-      <c r="Z49" s="151"/>
+      <c r="Z49" s="161"/>
       <c r="AA49" s="39">
         <f>SUM(AA9:AA21)</f>
         <v>20000</v>
@@ -9142,12 +9135,12 @@
         <v>NO</v>
       </c>
       <c r="T50" s="3"/>
-      <c r="AG50" s="154" t="s">
+      <c r="AG50" s="145" t="s">
         <v>172</v>
       </c>
-      <c r="AH50" s="154"/>
-      <c r="AI50" s="154"/>
-      <c r="AJ50" s="154"/>
+      <c r="AH50" s="145"/>
+      <c r="AI50" s="145"/>
+      <c r="AJ50" s="145"/>
       <c r="AK50" s="90">
         <v>3087000</v>
       </c>
@@ -9204,12 +9197,12 @@
       <c r="AC51" s="45"/>
       <c r="AD51" s="45"/>
       <c r="AE51" s="45"/>
-      <c r="AG51" s="158" t="s">
+      <c r="AG51" s="149" t="s">
         <v>174</v>
       </c>
-      <c r="AH51" s="159"/>
-      <c r="AI51" s="159"/>
-      <c r="AJ51" s="160"/>
+      <c r="AH51" s="150"/>
+      <c r="AI51" s="150"/>
+      <c r="AJ51" s="151"/>
       <c r="AK51" s="102">
         <v>3077000</v>
       </c>
@@ -9265,12 +9258,12 @@
       <c r="AD52" s="45"/>
       <c r="AE52" s="45"/>
       <c r="AF52" s="45"/>
-      <c r="AG52" s="155" t="s">
+      <c r="AG52" s="146" t="s">
         <v>181</v>
       </c>
-      <c r="AH52" s="156"/>
-      <c r="AI52" s="156"/>
-      <c r="AJ52" s="157"/>
+      <c r="AH52" s="147"/>
+      <c r="AI52" s="147"/>
+      <c r="AJ52" s="148"/>
       <c r="AK52" s="106">
         <v>2550000</v>
       </c>
@@ -9284,13 +9277,23 @@
         <v>177</v>
       </c>
       <c r="C53" s="10">
-        <v>5</v>
-      </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="D53" s="10">
+        <v>20</v>
+      </c>
+      <c r="E53" s="10">
+        <v>20</v>
+      </c>
+      <c r="F53" s="10">
+        <v>20</v>
+      </c>
+      <c r="G53" s="10">
+        <v>20</v>
+      </c>
+      <c r="H53" s="10">
+        <v>20</v>
+      </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
@@ -9299,19 +9302,19 @@
       <c r="N53" s="10"/>
       <c r="O53" s="22">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="P53" s="104">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="22">
         <f t="shared" si="4"/>
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="R53" s="21">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="S53" s="43" t="str">
         <f t="shared" si="2"/>
@@ -9490,12 +9493,12 @@
         <v>NO</v>
       </c>
       <c r="T56" s="3"/>
-      <c r="AG56" s="158" t="s">
+      <c r="AG56" s="149" t="s">
         <v>179</v>
       </c>
-      <c r="AH56" s="159"/>
-      <c r="AI56" s="159"/>
-      <c r="AJ56" s="160"/>
+      <c r="AH56" s="150"/>
+      <c r="AI56" s="150"/>
+      <c r="AJ56" s="151"/>
       <c r="AK56" s="91">
         <f>AK55</f>
         <v>2627000</v>
@@ -9539,12 +9542,12 @@
         <v>NO</v>
       </c>
       <c r="T57" s="3"/>
-      <c r="AG57" s="154" t="s">
+      <c r="AG57" s="145" t="s">
         <v>171</v>
       </c>
-      <c r="AH57" s="154"/>
-      <c r="AI57" s="154"/>
-      <c r="AJ57" s="154"/>
+      <c r="AH57" s="145"/>
+      <c r="AI57" s="145"/>
+      <c r="AJ57" s="145"/>
       <c r="AK57" s="117">
         <f>AK51-AK56</f>
         <v>450000</v>
@@ -9782,32 +9785,32 @@
     <row r="64" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="142" t="s">
+      <c r="C66" s="152" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="143"/>
-      <c r="E66" s="143"/>
-      <c r="F66" s="143"/>
-      <c r="G66" s="144"/>
-      <c r="I66" s="153" t="s">
+      <c r="D66" s="153"/>
+      <c r="E66" s="153"/>
+      <c r="F66" s="153"/>
+      <c r="G66" s="154"/>
+      <c r="I66" s="162" t="s">
         <v>183</v>
       </c>
-      <c r="J66" s="153"/>
-      <c r="K66" s="153"/>
-      <c r="L66" s="153"/>
-      <c r="M66" s="153"/>
+      <c r="J66" s="162"/>
+      <c r="K66" s="162"/>
+      <c r="L66" s="162"/>
+      <c r="M66" s="162"/>
     </row>
     <row r="67" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="145"/>
-      <c r="D67" s="146"/>
-      <c r="E67" s="146"/>
-      <c r="F67" s="146"/>
-      <c r="G67" s="147"/>
-      <c r="I67" s="153"/>
-      <c r="J67" s="153"/>
-      <c r="K67" s="153"/>
-      <c r="L67" s="153"/>
-      <c r="M67" s="153"/>
+      <c r="C67" s="155"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="157"/>
+      <c r="I67" s="162"/>
+      <c r="J67" s="162"/>
+      <c r="K67" s="162"/>
+      <c r="L67" s="162"/>
+      <c r="M67" s="162"/>
     </row>
     <row r="68" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10007,6 +10010,13 @@
     <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C66:G67"/>
+    <mergeCell ref="C2:R3"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="I66:M67"/>
     <mergeCell ref="AB7:AL7"/>
     <mergeCell ref="V5:AL5"/>
     <mergeCell ref="X6:AL6"/>
@@ -10015,46 +10025,39 @@
     <mergeCell ref="AG51:AJ51"/>
     <mergeCell ref="AG50:AJ50"/>
     <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="C66:G67"/>
-    <mergeCell ref="C2:R3"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="I66:M67"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:T63">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>IF(ISBLANK($B$4), 0, SEARCH($B$4,$B6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI9:AI48">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH(("YES"),(AI9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI9:AI48">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(AI9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AL9 W46:AA46 AB46:AJ48 AA47:AA48 W10:AJ45 AK10:AL48">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>IF(ISBLANK($X$4), 0, SEARCH($X$4,$W9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S63">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(S6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S63">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH(("OK"),(S6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10:W45">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(AI10="YES",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10079,17 +10082,17 @@
     <row r="3" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="74"/>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="75"/>
       <c r="F4" s="81"/>
       <c r="G4" s="82"/>
-      <c r="H4" s="161" t="s">
+      <c r="H4" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="162"/>
+      <c r="I4" s="164"/>
       <c r="J4" s="83"/>
       <c r="K4" s="75"/>
     </row>
@@ -10216,17 +10219,17 @@
     <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="74"/>
-      <c r="C17" s="161" t="s">
+      <c r="C17" s="163" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="162"/>
+      <c r="D17" s="164"/>
       <c r="E17" s="75"/>
       <c r="F17" s="74"/>
       <c r="G17" s="83"/>
-      <c r="H17" s="161" t="s">
+      <c r="H17" s="163" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="162"/>
+      <c r="I17" s="164"/>
       <c r="J17" s="83"/>
       <c r="K17" s="75"/>
     </row>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="186">
   <si>
     <t>LAPORAN KEUANGAN KAS GAS</t>
   </si>
@@ -571,7 +571,10 @@
     <t>Connected with Github</t>
   </si>
   <si>
-    <t>abi</t>
+    <t>ace</t>
+  </si>
+  <si>
+    <t>sisa 15</t>
   </si>
 </sst>
 </file>
@@ -1570,6 +1573,20 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1584,14 +1601,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1605,39 +1617,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1668,8 +1647,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1681,7 +1684,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2452,126 +2469,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
+      <c r="A1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="126"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2642,10 +2659,10 @@
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="126" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1">
@@ -2657,7 +2674,7 @@
       <c r="G10" s="1">
         <v>20</v>
       </c>
-      <c r="H10" s="123" t="s">
+      <c r="H10" s="129" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="1">
@@ -2705,8 +2722,8 @@
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="1">
         <v>20</v>
       </c>
@@ -2716,7 +2733,7 @@
       <c r="G11" s="1">
         <v>20</v>
       </c>
-      <c r="H11" s="121"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="1">
         <v>20</v>
       </c>
@@ -2762,8 +2779,8 @@
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="1">
         <v>10</v>
       </c>
@@ -2773,7 +2790,7 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="121"/>
+      <c r="H12" s="127"/>
       <c r="I12" s="1">
         <v>20</v>
       </c>
@@ -2813,8 +2830,8 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="1">
         <v>20</v>
       </c>
@@ -2824,7 +2841,7 @@
       <c r="G13" s="1">
         <v>20</v>
       </c>
-      <c r="H13" s="121"/>
+      <c r="H13" s="127"/>
       <c r="I13" s="1">
         <v>20</v>
       </c>
@@ -2864,14 +2881,14 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="1">
         <v>20</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="121"/>
+      <c r="H14" s="127"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2907,8 +2924,8 @@
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="1">
         <v>20</v>
       </c>
@@ -2918,7 +2935,7 @@
       <c r="G15" s="1">
         <v>20</v>
       </c>
-      <c r="H15" s="121"/>
+      <c r="H15" s="127"/>
       <c r="I15" s="1">
         <v>20</v>
       </c>
@@ -2966,8 +2983,8 @@
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="1">
         <v>20</v>
       </c>
@@ -2975,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="121"/>
+      <c r="H16" s="127"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3011,8 +3028,8 @@
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="1">
         <v>20</v>
       </c>
@@ -3020,7 +3037,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="121"/>
+      <c r="H17" s="127"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3056,12 +3073,12 @@
       <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="121"/>
+      <c r="H18" s="127"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -3097,8 +3114,8 @@
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>20</v>
@@ -3106,7 +3123,7 @@
       <c r="G19" s="1">
         <v>20</v>
       </c>
-      <c r="H19" s="121"/>
+      <c r="H19" s="127"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3144,8 +3161,8 @@
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="1">
         <v>20</v>
       </c>
@@ -3153,7 +3170,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="121"/>
+      <c r="H20" s="127"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3189,8 +3206,8 @@
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
       <c r="E21" s="1">
         <v>20</v>
       </c>
@@ -3200,7 +3217,7 @@
       <c r="G21" s="1">
         <v>20</v>
       </c>
-      <c r="H21" s="121"/>
+      <c r="H21" s="127"/>
       <c r="I21" s="1">
         <v>20</v>
       </c>
@@ -3242,8 +3259,8 @@
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="1">
         <v>20</v>
       </c>
@@ -3253,7 +3270,7 @@
       <c r="G22" s="1">
         <v>15</v>
       </c>
-      <c r="H22" s="121"/>
+      <c r="H22" s="127"/>
       <c r="I22" s="1">
         <v>10</v>
       </c>
@@ -3291,14 +3308,14 @@
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="121"/>
+      <c r="H23" s="127"/>
       <c r="I23" s="1"/>
       <c r="J23" s="9">
         <v>-40</v>
@@ -3338,8 +3355,8 @@
       <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="1">
         <v>20</v>
       </c>
@@ -3347,7 +3364,7 @@
       <c r="G24" s="1">
         <v>20</v>
       </c>
-      <c r="H24" s="121"/>
+      <c r="H24" s="127"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3383,12 +3400,12 @@
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="121"/>
+      <c r="H25" s="127"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -3424,8 +3441,8 @@
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="1">
         <v>20</v>
       </c>
@@ -3435,7 +3452,7 @@
       <c r="G26" s="1">
         <v>20</v>
       </c>
-      <c r="H26" s="121"/>
+      <c r="H26" s="127"/>
       <c r="I26" s="1">
         <v>20</v>
       </c>
@@ -3475,14 +3492,14 @@
       <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>20</v>
       </c>
-      <c r="H27" s="121"/>
+      <c r="H27" s="127"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3518,8 +3535,8 @@
       <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
       <c r="E28" s="1">
         <v>20</v>
       </c>
@@ -3527,7 +3544,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="121"/>
+      <c r="H28" s="127"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3563,14 +3580,14 @@
       <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="1">
         <v>20</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="121"/>
+      <c r="H29" s="127"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3606,8 +3623,8 @@
       <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="1">
         <v>20</v>
       </c>
@@ -3617,7 +3634,7 @@
       <c r="G30" s="1">
         <v>20</v>
       </c>
-      <c r="H30" s="121"/>
+      <c r="H30" s="127"/>
       <c r="I30" s="1">
         <v>20</v>
       </c>
@@ -3663,14 +3680,14 @@
       <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
         <v>20</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="121"/>
+      <c r="H31" s="127"/>
       <c r="I31" s="1">
         <v>20</v>
       </c>
@@ -3710,8 +3727,8 @@
       <c r="B32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
       <c r="E32" s="1">
         <v>20</v>
       </c>
@@ -3721,7 +3738,7 @@
       <c r="G32" s="1">
         <v>20</v>
       </c>
-      <c r="H32" s="121"/>
+      <c r="H32" s="127"/>
       <c r="I32" s="1">
         <v>20</v>
       </c>
@@ -3767,8 +3784,8 @@
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
       <c r="E33" s="1">
         <v>20</v>
       </c>
@@ -3776,7 +3793,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="121"/>
+      <c r="H33" s="127"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3812,14 +3829,14 @@
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
       <c r="E34" s="1">
         <v>20</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="121"/>
+      <c r="H34" s="127"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3855,8 +3872,8 @@
       <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
       <c r="E35" s="1">
         <v>20</v>
       </c>
@@ -3864,7 +3881,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="121"/>
+      <c r="H35" s="127"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3900,8 +3917,8 @@
       <c r="B36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
       <c r="E36" s="1">
         <v>20</v>
       </c>
@@ -3911,7 +3928,7 @@
       <c r="G36" s="1">
         <v>20</v>
       </c>
-      <c r="H36" s="121"/>
+      <c r="H36" s="127"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
         <v>20</v>
@@ -3949,8 +3966,8 @@
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="1">
         <v>20</v>
       </c>
@@ -3960,7 +3977,7 @@
       <c r="G37" s="1">
         <v>20</v>
       </c>
-      <c r="H37" s="121"/>
+      <c r="H37" s="127"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
         <v>20</v>
@@ -4004,8 +4021,8 @@
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
       <c r="E38" s="1">
         <v>20</v>
       </c>
@@ -4015,7 +4032,7 @@
       <c r="G38" s="1">
         <v>20</v>
       </c>
-      <c r="H38" s="121"/>
+      <c r="H38" s="127"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
         <v>20</v>
@@ -4053,8 +4070,8 @@
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
       <c r="E39" s="1">
         <v>20</v>
       </c>
@@ -4062,7 +4079,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="121"/>
+      <c r="H39" s="127"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -4098,8 +4115,8 @@
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
       <c r="E40" s="1">
         <v>20</v>
       </c>
@@ -4109,7 +4126,7 @@
       <c r="G40" s="1">
         <v>20</v>
       </c>
-      <c r="H40" s="121"/>
+      <c r="H40" s="127"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <v>20</v>
@@ -4153,8 +4170,8 @@
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
       <c r="E41" s="1">
         <v>20</v>
       </c>
@@ -4162,7 +4179,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="121"/>
+      <c r="H41" s="127"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -4198,14 +4215,14 @@
       <c r="B42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
       <c r="E42" s="1">
         <v>20</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="121"/>
+      <c r="H42" s="127"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -4241,8 +4258,8 @@
       <c r="B43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="127"/>
       <c r="E43" s="1">
         <v>20</v>
       </c>
@@ -4252,7 +4269,7 @@
       <c r="G43" s="1">
         <v>20</v>
       </c>
-      <c r="H43" s="121"/>
+      <c r="H43" s="127"/>
       <c r="I43" s="1">
         <v>20</v>
       </c>
@@ -4300,8 +4317,8 @@
       <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
       <c r="E44" s="1">
         <v>20</v>
       </c>
@@ -4311,7 +4328,7 @@
       <c r="G44" s="1">
         <v>20</v>
       </c>
-      <c r="H44" s="121"/>
+      <c r="H44" s="127"/>
       <c r="I44" s="1">
         <v>20</v>
       </c>
@@ -4355,8 +4372,8 @@
       <c r="B45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
       <c r="E45" s="1">
         <v>20</v>
       </c>
@@ -4366,7 +4383,7 @@
       <c r="G45" s="1">
         <v>20</v>
       </c>
-      <c r="H45" s="121"/>
+      <c r="H45" s="127"/>
       <c r="I45" s="1">
         <v>15</v>
       </c>
@@ -4404,8 +4421,8 @@
       <c r="B46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="127"/>
       <c r="E46" s="1">
         <v>20</v>
       </c>
@@ -4415,7 +4432,7 @@
       <c r="G46" s="1">
         <v>20</v>
       </c>
-      <c r="H46" s="121"/>
+      <c r="H46" s="127"/>
       <c r="I46" s="1">
         <v>20</v>
       </c>
@@ -4453,8 +4470,8 @@
       <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
       <c r="E47" s="1">
         <v>20</v>
       </c>
@@ -4464,7 +4481,7 @@
       <c r="G47" s="1">
         <v>20</v>
       </c>
-      <c r="H47" s="121"/>
+      <c r="H47" s="127"/>
       <c r="I47" s="1">
         <v>20</v>
       </c>
@@ -4508,8 +4525,8 @@
       <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="127"/>
       <c r="E48" s="1">
         <v>20</v>
       </c>
@@ -4517,7 +4534,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="121"/>
+      <c r="H48" s="127"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4553,8 +4570,8 @@
       <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
       <c r="E49" s="1">
         <v>20</v>
       </c>
@@ -4564,7 +4581,7 @@
       <c r="G49" s="1">
         <v>20</v>
       </c>
-      <c r="H49" s="121"/>
+      <c r="H49" s="127"/>
       <c r="I49" s="1">
         <v>20</v>
       </c>
@@ -4604,12 +4621,12 @@
       <c r="B50" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="121"/>
+      <c r="H50" s="127"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -4645,12 +4662,12 @@
       <c r="B51" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="121"/>
+      <c r="H51" s="127"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -4686,12 +4703,12 @@
       <c r="B52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="122"/>
-      <c r="D52" s="122"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="122"/>
+      <c r="H52" s="128"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -4728,58 +4745,58 @@
     <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I58" s="132" t="s">
+      <c r="I58" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="J58" s="133"/>
-      <c r="K58" s="133"/>
-      <c r="L58" s="133"/>
-      <c r="M58" s="134"/>
-      <c r="O58" s="140" t="s">
+      <c r="J58" s="136"/>
+      <c r="K58" s="136"/>
+      <c r="L58" s="136"/>
+      <c r="M58" s="137"/>
+      <c r="O58" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="P58" s="133"/>
-      <c r="Q58" s="133"/>
-      <c r="R58" s="134"/>
+      <c r="P58" s="136"/>
+      <c r="Q58" s="136"/>
+      <c r="R58" s="137"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I59" s="135" t="s">
+      <c r="I59" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="127"/>
-      <c r="K59" s="127"/>
-      <c r="L59" s="127"/>
-      <c r="M59" s="136"/>
-      <c r="O59" s="135" t="s">
+      <c r="J59" s="133"/>
+      <c r="K59" s="133"/>
+      <c r="L59" s="133"/>
+      <c r="M59" s="139"/>
+      <c r="O59" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="P59" s="127"/>
-      <c r="Q59" s="127"/>
-      <c r="R59" s="136"/>
+      <c r="P59" s="133"/>
+      <c r="Q59" s="133"/>
+      <c r="R59" s="139"/>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="137"/>
-      <c r="J60" s="138"/>
-      <c r="K60" s="138"/>
-      <c r="L60" s="138"/>
-      <c r="M60" s="139"/>
-      <c r="O60" s="137"/>
-      <c r="P60" s="138"/>
-      <c r="Q60" s="138"/>
-      <c r="R60" s="139"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="141"/>
+      <c r="K60" s="141"/>
+      <c r="L60" s="141"/>
+      <c r="M60" s="142"/>
+      <c r="O60" s="140"/>
+      <c r="P60" s="141"/>
+      <c r="Q60" s="141"/>
+      <c r="R60" s="142"/>
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="130" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="131"/>
-      <c r="K61" s="129"/>
-      <c r="L61" s="130" t="s">
+      <c r="I61" s="134" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="121"/>
+      <c r="K61" s="122"/>
+      <c r="L61" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="M61" s="129"/>
-      <c r="O61" s="130"/>
-      <c r="P61" s="129"/>
+      <c r="M61" s="122"/>
+      <c r="O61" s="134"/>
+      <c r="P61" s="122"/>
       <c r="Q61" s="11" t="s">
         <v>20</v>
       </c>
@@ -4788,38 +4805,38 @@
       </c>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I62" s="141" t="s">
+      <c r="I62" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="J62" s="131"/>
-      <c r="K62" s="129"/>
-      <c r="L62" s="142">
+      <c r="J62" s="121"/>
+      <c r="K62" s="122"/>
+      <c r="L62" s="123">
         <v>7350000</v>
       </c>
-      <c r="M62" s="129"/>
-      <c r="O62" s="128" t="s">
+      <c r="M62" s="122"/>
+      <c r="O62" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="P62" s="129"/>
+      <c r="P62" s="122"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="13">
         <v>40000</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I63" s="141" t="s">
+      <c r="I63" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="J63" s="131"/>
-      <c r="K63" s="129"/>
-      <c r="L63" s="143">
+      <c r="J63" s="121"/>
+      <c r="K63" s="122"/>
+      <c r="L63" s="125">
         <v>1100000</v>
       </c>
-      <c r="M63" s="129"/>
-      <c r="O63" s="128" t="s">
+      <c r="M63" s="122"/>
+      <c r="O63" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="P63" s="129"/>
+      <c r="P63" s="122"/>
       <c r="Q63" s="14" t="s">
         <v>77</v>
       </c>
@@ -4828,39 +4845,39 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I64" s="141" t="s">
+      <c r="I64" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="131"/>
-      <c r="K64" s="129"/>
-      <c r="L64" s="142">
+      <c r="J64" s="121"/>
+      <c r="K64" s="122"/>
+      <c r="L64" s="123">
         <f>L62+L63</f>
         <v>8450000</v>
       </c>
-      <c r="M64" s="129"/>
-      <c r="O64" s="128" t="s">
+      <c r="M64" s="122"/>
+      <c r="O64" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="P64" s="129"/>
+      <c r="P64" s="122"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="9:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I65" s="141" t="s">
+      <c r="I65" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="J65" s="131"/>
-      <c r="K65" s="129"/>
-      <c r="L65" s="142">
+      <c r="J65" s="121"/>
+      <c r="K65" s="122"/>
+      <c r="L65" s="123">
         <v>8411850</v>
       </c>
-      <c r="M65" s="129"/>
-      <c r="O65" s="128" t="s">
+      <c r="M65" s="122"/>
+      <c r="O65" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="P65" s="129"/>
+      <c r="P65" s="122"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="13">
         <f>R62-R63+R64</f>
@@ -4868,20 +4885,20 @@
       </c>
     </row>
     <row r="66" spans="9:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I66" s="141" t="s">
+      <c r="I66" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="J66" s="131"/>
-      <c r="K66" s="129"/>
-      <c r="L66" s="142">
+      <c r="J66" s="121"/>
+      <c r="K66" s="122"/>
+      <c r="L66" s="123">
         <f>L64-L65</f>
         <v>38150</v>
       </c>
-      <c r="M66" s="129"/>
-      <c r="O66" s="128" t="s">
+      <c r="M66" s="122"/>
+      <c r="O66" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="P66" s="129"/>
+      <c r="P66" s="122"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="13">
         <f>L66+R65</f>
@@ -5090,17 +5107,6 @@
     <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:M63"/>
     <mergeCell ref="C10:C52"/>
     <mergeCell ref="D10:D52"/>
     <mergeCell ref="H10:H52"/>
@@ -5116,12 +5122,23 @@
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="O61:P61"/>
     <mergeCell ref="O59:R60"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O65:P65"/>
   </mergeCells>
   <conditionalFormatting sqref="R10:R52">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",R10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",R10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5134,8 +5151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AM263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6:P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5175,42 +5192,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C2" s="158" t="s">
+      <c r="C2" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
       <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -5286,25 +5303,25 @@
       <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="144" t="s">
+      <c r="V5" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="W5" s="131"/>
-      <c r="X5" s="131"/>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="131"/>
-      <c r="AB5" s="131"/>
-      <c r="AC5" s="131"/>
-      <c r="AD5" s="131"/>
-      <c r="AE5" s="131"/>
-      <c r="AF5" s="131"/>
-      <c r="AG5" s="131"/>
-      <c r="AH5" s="131"/>
-      <c r="AI5" s="131"/>
-      <c r="AJ5" s="131"/>
-      <c r="AK5" s="131"/>
-      <c r="AL5" s="129"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="121"/>
+      <c r="AF5" s="121"/>
+      <c r="AG5" s="121"/>
+      <c r="AH5" s="121"/>
+      <c r="AI5" s="121"/>
+      <c r="AJ5" s="121"/>
+      <c r="AK5" s="121"/>
+      <c r="AL5" s="122"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -5332,7 +5349,7 @@
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22">
-        <f t="shared" ref="O6:O63" si="0">C6+D6+E6+F6+G6+I6+J6+K6+L6+M6+N6</f>
+        <f>SUM(C6:N6)</f>
         <v>30</v>
       </c>
       <c r="P6" s="104">
@@ -5344,37 +5361,37 @@
         <v>210</v>
       </c>
       <c r="R6" s="23">
-        <f t="shared" ref="R6:R63" si="1">Q6-60</f>
+        <f t="shared" ref="R6:R63" si="0">Q6-60</f>
         <v>150</v>
       </c>
       <c r="S6" s="24" t="str">
-        <f t="shared" ref="S6:S63" si="2">IF(R6&lt;=0,"OK","NO")</f>
+        <f t="shared" ref="S6:S63" si="1">IF(R6&lt;=0,"OK","NO")</f>
         <v>NO</v>
       </c>
       <c r="T6" s="22"/>
-      <c r="V6" s="159" t="s">
+      <c r="V6" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="159" t="s">
+      <c r="W6" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="144" t="s">
+      <c r="X6" s="154" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="131"/>
-      <c r="AD6" s="131"/>
-      <c r="AE6" s="131"/>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="131"/>
-      <c r="AH6" s="131"/>
-      <c r="AI6" s="131"/>
-      <c r="AJ6" s="131"/>
-      <c r="AK6" s="131"/>
-      <c r="AL6" s="129"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="121"/>
+      <c r="AI6" s="121"/>
+      <c r="AJ6" s="121"/>
+      <c r="AK6" s="121"/>
+      <c r="AL6" s="122"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -5400,7 +5417,7 @@
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O7:O63" si="2">SUM(C7:N7)</f>
         <v>10</v>
       </c>
       <c r="P7" s="104">
@@ -5412,35 +5429,35 @@
         <v>230</v>
       </c>
       <c r="R7" s="23">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="S7" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="S7" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T7" s="22"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="144" t="s">
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="154" t="s">
         <v>90</v>
       </c>
-      <c r="Y7" s="131"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="144" t="s">
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="AC7" s="131"/>
-      <c r="AD7" s="131"/>
-      <c r="AE7" s="131"/>
-      <c r="AF7" s="131"/>
-      <c r="AG7" s="131"/>
-      <c r="AH7" s="131"/>
-      <c r="AI7" s="131"/>
-      <c r="AJ7" s="131"/>
-      <c r="AK7" s="131"/>
-      <c r="AL7" s="129"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="121"/>
+      <c r="AE7" s="121"/>
+      <c r="AF7" s="121"/>
+      <c r="AG7" s="121"/>
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="121"/>
+      <c r="AJ7" s="121"/>
+      <c r="AK7" s="121"/>
+      <c r="AL7" s="122"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -5462,7 +5479,7 @@
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P8" s="104">
@@ -5474,16 +5491,16 @@
         <v>240</v>
       </c>
       <c r="R8" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S8" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S8" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T8" s="22"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="122"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="128"/>
       <c r="X8" s="10" t="s">
         <v>20</v>
       </c>
@@ -5554,7 +5571,7 @@
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P9" s="104">
@@ -5566,11 +5583,11 @@
         <v>230</v>
       </c>
       <c r="R9" s="23">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="S9" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="S9" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T9" s="22"/>
@@ -5635,7 +5652,7 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P10" s="104">
@@ -5647,11 +5664,11 @@
         <v>240</v>
       </c>
       <c r="R10" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S10" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S10" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T10" s="22"/>
@@ -5728,7 +5745,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P11" s="104">
@@ -5740,11 +5757,11 @@
         <v>240</v>
       </c>
       <c r="R11" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S11" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S11" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T11" s="22"/>
@@ -5815,7 +5832,7 @@
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P12" s="104">
@@ -5827,11 +5844,11 @@
         <v>240</v>
       </c>
       <c r="R12" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S12" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S12" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T12" s="22"/>
@@ -5902,7 +5919,7 @@
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P13" s="104">
@@ -5914,11 +5931,11 @@
         <v>240</v>
       </c>
       <c r="R13" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S13" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S13" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T13" s="22"/>
@@ -5989,7 +6006,7 @@
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P14" s="104">
@@ -6001,11 +6018,11 @@
         <v>240</v>
       </c>
       <c r="R14" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S14" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S14" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T14" s="22"/>
@@ -6076,7 +6093,7 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P15" s="104">
@@ -6088,11 +6105,11 @@
         <v>240</v>
       </c>
       <c r="R15" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S15" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S15" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T15" s="22"/>
@@ -6163,7 +6180,7 @@
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P16" s="104">
@@ -6175,11 +6192,11 @@
         <v>240</v>
       </c>
       <c r="R16" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S16" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S16" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T16" s="22"/>
@@ -6254,8 +6271,8 @@
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="P17" s="104">
         <f t="shared" si="3"/>
@@ -6263,14 +6280,14 @@
       </c>
       <c r="Q17" s="22">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="R17" s="23">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="S17" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="S17" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T17" s="22"/>
@@ -6335,7 +6352,7 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P18" s="104">
@@ -6347,11 +6364,11 @@
         <v>235</v>
       </c>
       <c r="R18" s="23">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="S18" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="S18" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T18" s="22"/>
@@ -6424,7 +6441,7 @@
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P19" s="104">
@@ -6436,11 +6453,11 @@
         <v>240</v>
       </c>
       <c r="R19" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S19" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S19" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T19" s="22"/>
@@ -6515,7 +6532,7 @@
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P20" s="104">
@@ -6527,11 +6544,11 @@
         <v>230</v>
       </c>
       <c r="R20" s="23">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="S20" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="S20" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T20" s="22"/>
@@ -6596,7 +6613,7 @@
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P21" s="104">
@@ -6608,11 +6625,11 @@
         <v>235</v>
       </c>
       <c r="R21" s="23">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="S21" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="S21" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T21" s="22"/>
@@ -6683,7 +6700,7 @@
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P22" s="104">
@@ -6695,11 +6712,11 @@
         <v>240</v>
       </c>
       <c r="R22" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S22" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S22" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T22" s="22"/>
@@ -6770,7 +6787,7 @@
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P23" s="104">
@@ -6782,11 +6799,11 @@
         <v>240</v>
       </c>
       <c r="R23" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S23" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S23" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T23" s="22"/>
@@ -6857,7 +6874,7 @@
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P24" s="104">
@@ -6869,11 +6886,11 @@
         <v>240</v>
       </c>
       <c r="R24" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S24" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S24" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T24" s="22"/>
@@ -6944,7 +6961,7 @@
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P25" s="104">
@@ -6956,11 +6973,11 @@
         <v>240</v>
       </c>
       <c r="R25" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S25" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S25" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T25" s="22"/>
@@ -7035,7 +7052,7 @@
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P26" s="104">
@@ -7047,11 +7064,11 @@
         <v>230</v>
       </c>
       <c r="R26" s="23">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="S26" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="S26" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T26" s="22"/>
@@ -7128,7 +7145,7 @@
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="P27" s="104">
@@ -7140,11 +7157,11 @@
         <v>225</v>
       </c>
       <c r="R27" s="23">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="S27" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="S27" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T27" s="22"/>
@@ -7221,7 +7238,7 @@
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52.8</v>
       </c>
       <c r="P28" s="104">
@@ -7233,11 +7250,11 @@
         <v>187.2</v>
       </c>
       <c r="R28" s="23">
+        <f t="shared" si="0"/>
+        <v>127.19999999999999</v>
+      </c>
+      <c r="S28" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>127.19999999999999</v>
-      </c>
-      <c r="S28" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T28" s="22"/>
@@ -7308,7 +7325,7 @@
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P29" s="104">
@@ -7320,11 +7337,11 @@
         <v>240</v>
       </c>
       <c r="R29" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S29" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S29" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T29" s="22"/>
@@ -7395,7 +7412,7 @@
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P30" s="104">
@@ -7407,11 +7424,11 @@
         <v>240</v>
       </c>
       <c r="R30" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S30" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S30" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T30" s="22"/>
@@ -7482,7 +7499,7 @@
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P31" s="104">
@@ -7494,11 +7511,11 @@
         <v>240</v>
       </c>
       <c r="R31" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S31" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S31" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T31" s="22"/>
@@ -7569,7 +7586,7 @@
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P32" s="104">
@@ -7581,11 +7598,11 @@
         <v>240</v>
       </c>
       <c r="R32" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S32" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S32" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T32" s="22"/>
@@ -7656,7 +7673,7 @@
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P33" s="104">
@@ -7668,11 +7685,11 @@
         <v>240</v>
       </c>
       <c r="R33" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S33" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S33" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T33" s="22"/>
@@ -7745,7 +7762,7 @@
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P34" s="104">
@@ -7757,11 +7774,11 @@
         <v>235</v>
       </c>
       <c r="R34" s="23">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="S34" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="S34" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T34" s="22"/>
@@ -7834,7 +7851,7 @@
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P35" s="104">
@@ -7846,11 +7863,11 @@
         <v>235</v>
       </c>
       <c r="R35" s="23">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="S35" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="S35" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T35" s="22"/>
@@ -7931,7 +7948,7 @@
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="P36" s="104">
@@ -7943,11 +7960,11 @@
         <v>140</v>
       </c>
       <c r="R36" s="23">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="S36" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="S36" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T36" s="22"/>
@@ -8020,7 +8037,7 @@
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P37" s="104">
@@ -8032,11 +8049,11 @@
         <v>235</v>
       </c>
       <c r="R37" s="23">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="S37" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="S37" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T37" s="22"/>
@@ -8107,7 +8124,7 @@
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P38" s="104">
@@ -8119,11 +8136,11 @@
         <v>240</v>
       </c>
       <c r="R38" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S38" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S38" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T38" s="22"/>
@@ -8194,7 +8211,7 @@
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P39" s="104">
@@ -8206,11 +8223,11 @@
         <v>240</v>
       </c>
       <c r="R39" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S39" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S39" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T39" s="22"/>
@@ -8280,7 +8297,7 @@
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P40" s="104">
@@ -8292,11 +8309,11 @@
         <v>240</v>
       </c>
       <c r="R40" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S40" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S40" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T40" s="22"/>
@@ -8359,7 +8376,7 @@
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P41" s="104">
@@ -8371,11 +8388,11 @@
         <v>240</v>
       </c>
       <c r="R41" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S41" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S41" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T41" s="22"/>
@@ -8452,7 +8469,7 @@
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37.4</v>
       </c>
       <c r="P42" s="104">
@@ -8464,11 +8481,11 @@
         <v>202.6</v>
       </c>
       <c r="R42" s="23">
+        <f t="shared" si="0"/>
+        <v>142.6</v>
+      </c>
+      <c r="S42" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>142.6</v>
-      </c>
-      <c r="S42" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T42" s="22"/>
@@ -8541,7 +8558,7 @@
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P43" s="104">
@@ -8553,11 +8570,11 @@
         <v>240</v>
       </c>
       <c r="R43" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S43" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S43" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T43" s="22"/>
@@ -8628,7 +8645,7 @@
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P44" s="104">
@@ -8640,11 +8657,11 @@
         <v>240</v>
       </c>
       <c r="R44" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S44" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S44" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T44" s="22"/>
@@ -8717,7 +8734,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P45" s="104">
@@ -8729,11 +8746,11 @@
         <v>235</v>
       </c>
       <c r="R45" s="23">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="S45" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="S45" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T45" s="22"/>
@@ -8804,7 +8821,7 @@
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P46" s="104">
@@ -8816,11 +8833,11 @@
         <v>240</v>
       </c>
       <c r="R46" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S46" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S46" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T46" s="22"/>
@@ -8885,7 +8902,7 @@
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P47" s="104">
@@ -8897,11 +8914,11 @@
         <v>235</v>
       </c>
       <c r="R47" s="21">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="S47" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="S47" s="24" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T47" s="22"/>
@@ -8951,41 +8968,65 @@
       <c r="B48" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="119"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="42"/>
+      <c r="C48" s="119">
+        <v>20</v>
+      </c>
+      <c r="D48" s="119">
+        <v>20</v>
+      </c>
+      <c r="E48" s="42">
+        <v>20</v>
+      </c>
       <c r="F48" s="42">
-        <v>5</v>
-      </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="G48" s="42">
+        <v>20</v>
+      </c>
+      <c r="H48" s="119">
+        <v>20</v>
+      </c>
+      <c r="I48" s="42">
+        <v>20</v>
+      </c>
+      <c r="J48" s="42">
+        <v>20</v>
+      </c>
+      <c r="K48" s="42">
+        <v>20</v>
+      </c>
+      <c r="L48" s="42">
+        <v>20</v>
+      </c>
+      <c r="M48" s="42">
+        <v>20</v>
+      </c>
+      <c r="N48" s="42">
+        <v>20</v>
+      </c>
       <c r="O48" s="22">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="P48" s="104">
+        <f>120-SUM(C48:N48)</f>
+        <v>-120</v>
+      </c>
+      <c r="Q48" s="22">
+        <f>(240)-(O48)</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="41">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P48" s="104">
-        <f t="shared" si="3"/>
-        <v>115</v>
-      </c>
-      <c r="Q48" s="22">
-        <f t="shared" si="4"/>
-        <v>235</v>
-      </c>
-      <c r="R48" s="41">
+        <v>-60</v>
+      </c>
+      <c r="S48" s="42" t="str">
         <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="S48" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="T48" s="42"/>
+        <v>OK</v>
+      </c>
+      <c r="T48" s="42" t="s">
+        <v>185</v>
+      </c>
       <c r="V48" s="72"/>
       <c r="W48" s="72"/>
       <c r="X48" s="72"/>
@@ -9045,7 +9086,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="P49" s="104">
@@ -9057,21 +9098,21 @@
         <v>180</v>
       </c>
       <c r="R49" s="21">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="S49" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="S49" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T49" s="3"/>
       <c r="V49" s="65"/>
       <c r="W49" s="65"/>
       <c r="X49" s="65"/>
-      <c r="Y49" s="160" t="s">
+      <c r="Y49" s="152" t="s">
         <v>145</v>
       </c>
-      <c r="Z49" s="161"/>
+      <c r="Z49" s="153"/>
       <c r="AA49" s="39">
         <f>SUM(AA9:AA21)</f>
         <v>20000</v>
@@ -9115,7 +9156,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="P50" s="104">
@@ -9127,20 +9168,20 @@
         <v>245</v>
       </c>
       <c r="R50" s="21">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="S50" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>185</v>
-      </c>
-      <c r="S50" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T50" s="3"/>
-      <c r="AG50" s="145" t="s">
+      <c r="AG50" s="156" t="s">
         <v>172</v>
       </c>
-      <c r="AH50" s="145"/>
-      <c r="AI50" s="145"/>
-      <c r="AJ50" s="145"/>
+      <c r="AH50" s="156"/>
+      <c r="AI50" s="156"/>
+      <c r="AJ50" s="156"/>
       <c r="AK50" s="90">
         <v>3087000</v>
       </c>
@@ -9170,7 +9211,7 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="P51" s="104">
@@ -9182,11 +9223,11 @@
         <v>210</v>
       </c>
       <c r="R51" s="21">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="S51" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="S51" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T51" s="3"/>
@@ -9197,12 +9238,12 @@
       <c r="AC51" s="45"/>
       <c r="AD51" s="45"/>
       <c r="AE51" s="45"/>
-      <c r="AG51" s="149" t="s">
+      <c r="AG51" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="AH51" s="150"/>
-      <c r="AI51" s="150"/>
-      <c r="AJ51" s="151"/>
+      <c r="AH51" s="161"/>
+      <c r="AI51" s="161"/>
+      <c r="AJ51" s="162"/>
       <c r="AK51" s="102">
         <v>3077000</v>
       </c>
@@ -9230,7 +9271,7 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P52" s="104">
@@ -9242,11 +9283,11 @@
         <v>235</v>
       </c>
       <c r="R52" s="21">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="S52" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="S52" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T52" s="3"/>
@@ -9258,12 +9299,12 @@
       <c r="AD52" s="45"/>
       <c r="AE52" s="45"/>
       <c r="AF52" s="45"/>
-      <c r="AG52" s="146" t="s">
+      <c r="AG52" s="157" t="s">
         <v>181</v>
       </c>
-      <c r="AH52" s="147"/>
-      <c r="AI52" s="147"/>
-      <c r="AJ52" s="148"/>
+      <c r="AH52" s="158"/>
+      <c r="AI52" s="158"/>
+      <c r="AJ52" s="159"/>
       <c r="AK52" s="106">
         <v>2550000</v>
       </c>
@@ -9301,8 +9342,8 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="22">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="P53" s="104">
         <f t="shared" si="3"/>
@@ -9310,14 +9351,14 @@
       </c>
       <c r="Q53" s="22">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="R53" s="21">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="S53" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="S53" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T53" s="3"/>
@@ -9367,7 +9408,7 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P54" s="104">
@@ -9379,11 +9420,11 @@
         <v>235</v>
       </c>
       <c r="R54" s="21">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="S54" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="S54" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T54" s="3"/>
@@ -9425,7 +9466,7 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P55" s="104">
@@ -9437,11 +9478,11 @@
         <v>240</v>
       </c>
       <c r="R55" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S55" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S55" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T55" s="3"/>
@@ -9473,7 +9514,7 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P56" s="104">
@@ -9485,20 +9526,20 @@
         <v>240</v>
       </c>
       <c r="R56" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S56" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S56" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T56" s="3"/>
-      <c r="AG56" s="149" t="s">
+      <c r="AG56" s="160" t="s">
         <v>179</v>
       </c>
-      <c r="AH56" s="150"/>
-      <c r="AI56" s="150"/>
-      <c r="AJ56" s="151"/>
+      <c r="AH56" s="161"/>
+      <c r="AI56" s="161"/>
+      <c r="AJ56" s="162"/>
       <c r="AK56" s="91">
         <f>AK55</f>
         <v>2627000</v>
@@ -9522,7 +9563,7 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P57" s="104">
@@ -9534,20 +9575,20 @@
         <v>240</v>
       </c>
       <c r="R57" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S57" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S57" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T57" s="3"/>
-      <c r="AG57" s="145" t="s">
+      <c r="AG57" s="156" t="s">
         <v>171</v>
       </c>
-      <c r="AH57" s="145"/>
-      <c r="AI57" s="145"/>
-      <c r="AJ57" s="145"/>
+      <c r="AH57" s="156"/>
+      <c r="AI57" s="156"/>
+      <c r="AJ57" s="156"/>
       <c r="AK57" s="117">
         <f>AK51-AK56</f>
         <v>450000</v>
@@ -9571,7 +9612,7 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P58" s="104">
@@ -9583,11 +9624,11 @@
         <v>240</v>
       </c>
       <c r="R58" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S58" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S58" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T58" s="3"/>
@@ -9610,7 +9651,7 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P59" s="104">
@@ -9622,11 +9663,11 @@
         <v>240</v>
       </c>
       <c r="R59" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S59" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S59" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T59" s="3"/>
@@ -9649,7 +9690,7 @@
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P60" s="104">
@@ -9661,11 +9702,11 @@
         <v>240</v>
       </c>
       <c r="R60" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S60" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S60" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T60" s="3"/>
@@ -9687,7 +9728,7 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P61" s="104">
@@ -9699,11 +9740,11 @@
         <v>240</v>
       </c>
       <c r="R61" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S61" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S61" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T61" s="3"/>
@@ -9724,7 +9765,7 @@
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P62" s="104">
@@ -9736,11 +9777,11 @@
         <v>240</v>
       </c>
       <c r="R62" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S62" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S62" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T62" s="3"/>
@@ -9761,7 +9802,7 @@
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P63" s="104">
@@ -9773,11 +9814,11 @@
         <v>240</v>
       </c>
       <c r="R63" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="S63" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="S63" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
       <c r="T63" s="3"/>
@@ -9785,32 +9826,32 @@
     <row r="64" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="152" t="s">
+      <c r="C66" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="153"/>
-      <c r="E66" s="153"/>
-      <c r="F66" s="153"/>
-      <c r="G66" s="154"/>
-      <c r="I66" s="162" t="s">
+      <c r="D66" s="145"/>
+      <c r="E66" s="145"/>
+      <c r="F66" s="145"/>
+      <c r="G66" s="146"/>
+      <c r="I66" s="155" t="s">
         <v>183</v>
       </c>
-      <c r="J66" s="162"/>
-      <c r="K66" s="162"/>
-      <c r="L66" s="162"/>
-      <c r="M66" s="162"/>
+      <c r="J66" s="155"/>
+      <c r="K66" s="155"/>
+      <c r="L66" s="155"/>
+      <c r="M66" s="155"/>
     </row>
     <row r="67" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="155"/>
-      <c r="D67" s="156"/>
-      <c r="E67" s="156"/>
-      <c r="F67" s="156"/>
-      <c r="G67" s="157"/>
-      <c r="I67" s="162"/>
-      <c r="J67" s="162"/>
-      <c r="K67" s="162"/>
-      <c r="L67" s="162"/>
-      <c r="M67" s="162"/>
+      <c r="C67" s="147"/>
+      <c r="D67" s="148"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="148"/>
+      <c r="G67" s="149"/>
+      <c r="I67" s="155"/>
+      <c r="J67" s="155"/>
+      <c r="K67" s="155"/>
+      <c r="L67" s="155"/>
+      <c r="M67" s="155"/>
     </row>
     <row r="68" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10010,13 +10051,6 @@
     <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C66:G67"/>
-    <mergeCell ref="C2:R3"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="I66:M67"/>
     <mergeCell ref="AB7:AL7"/>
     <mergeCell ref="V5:AL5"/>
     <mergeCell ref="X6:AL6"/>
@@ -10025,44 +10059,59 @@
     <mergeCell ref="AG51:AJ51"/>
     <mergeCell ref="AG50:AJ50"/>
     <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="C66:G67"/>
+    <mergeCell ref="C2:R3"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="I66:M67"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:T63">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>IF(ISBLANK($B$4), 0, SEARCH($B$4,$B6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI9:AI48">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH(("YES"),(AI9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI9:AI48">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(AI9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AL9 W46:AA46 AB46:AJ48 AA47:AA48 W10:AJ45 AK10:AL48">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>IF(ISBLANK($X$4), 0, SEARCH($X$4,$W9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S63">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(S6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S63">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH(("OK"),(S6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10:W45">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>IF(AI10="YES",1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:P63">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="P48" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="464" activeTab="1"/>
+    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="464" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2018(NOT UPDATED)" sheetId="1" r:id="rId1"/>
     <sheet name="2019" sheetId="2" r:id="rId2"/>
     <sheet name="Lampiran Polo" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Pengeluaran" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="193">
   <si>
     <t>LAPORAN KEUANGAN KAS GAS</t>
   </si>
@@ -575,13 +575,34 @@
   </si>
   <si>
     <t>sisa 15</t>
+  </si>
+  <si>
+    <t>Pengeluaran KAS</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Total Uang KAS Setelah Pengeluaran</t>
+  </si>
+  <si>
+    <t>Sewa Stand Gelex 2019</t>
+  </si>
+  <si>
+    <t>Tanggal Pengeluaran</t>
+  </si>
+  <si>
+    <t>22 Juli 2019</t>
+  </si>
+  <si>
+    <t>Stand Size A (Dandy urunan 250)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="166" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@"/>
@@ -592,8 +613,9 @@
     <numFmt numFmtId="171" formatCode="0;[Red]0"/>
     <numFmt numFmtId="172" formatCode="[$IDR]\ #,##0.0"/>
     <numFmt numFmtId="173" formatCode="[$IDR]\ #,##0.00_);\([$IDR]\ #,##0.00\)"/>
+    <numFmt numFmtId="175" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -627,8 +649,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,8 +777,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1318,11 +1358,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1573,20 +1628,6 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1601,9 +1642,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1617,6 +1663,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1647,32 +1726,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1680,30 +1735,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1765,14 +1845,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1845,6 +1925,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2469,126 +2552,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
+      <c r="A1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="132"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2659,10 +2742,10 @@
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="D10" s="120" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1">
@@ -2674,7 +2757,7 @@
       <c r="G10" s="1">
         <v>20</v>
       </c>
-      <c r="H10" s="129" t="s">
+      <c r="H10" s="123" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="1">
@@ -2722,8 +2805,8 @@
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="1">
         <v>20</v>
       </c>
@@ -2733,7 +2816,7 @@
       <c r="G11" s="1">
         <v>20</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="121"/>
       <c r="I11" s="1">
         <v>20</v>
       </c>
@@ -2779,8 +2862,8 @@
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="1">
         <v>10</v>
       </c>
@@ -2790,7 +2873,7 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="127"/>
+      <c r="H12" s="121"/>
       <c r="I12" s="1">
         <v>20</v>
       </c>
@@ -2830,8 +2913,8 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="1">
         <v>20</v>
       </c>
@@ -2841,7 +2924,7 @@
       <c r="G13" s="1">
         <v>20</v>
       </c>
-      <c r="H13" s="127"/>
+      <c r="H13" s="121"/>
       <c r="I13" s="1">
         <v>20</v>
       </c>
@@ -2881,14 +2964,14 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="1">
         <v>20</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="127"/>
+      <c r="H14" s="121"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2924,8 +3007,8 @@
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="1">
         <v>20</v>
       </c>
@@ -2935,7 +3018,7 @@
       <c r="G15" s="1">
         <v>20</v>
       </c>
-      <c r="H15" s="127"/>
+      <c r="H15" s="121"/>
       <c r="I15" s="1">
         <v>20</v>
       </c>
@@ -2983,8 +3066,8 @@
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="1">
         <v>20</v>
       </c>
@@ -2992,7 +3075,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="127"/>
+      <c r="H16" s="121"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3028,8 +3111,8 @@
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="1">
         <v>20</v>
       </c>
@@ -3037,7 +3120,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="127"/>
+      <c r="H17" s="121"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3073,12 +3156,12 @@
       <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="127"/>
+      <c r="H18" s="121"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -3114,8 +3197,8 @@
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>20</v>
@@ -3123,7 +3206,7 @@
       <c r="G19" s="1">
         <v>20</v>
       </c>
-      <c r="H19" s="127"/>
+      <c r="H19" s="121"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3161,8 +3244,8 @@
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="1">
         <v>20</v>
       </c>
@@ -3170,7 +3253,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="127"/>
+      <c r="H20" s="121"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3206,8 +3289,8 @@
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="1">
         <v>20</v>
       </c>
@@ -3217,7 +3300,7 @@
       <c r="G21" s="1">
         <v>20</v>
       </c>
-      <c r="H21" s="127"/>
+      <c r="H21" s="121"/>
       <c r="I21" s="1">
         <v>20</v>
       </c>
@@ -3259,8 +3342,8 @@
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
       <c r="E22" s="1">
         <v>20</v>
       </c>
@@ -3270,7 +3353,7 @@
       <c r="G22" s="1">
         <v>15</v>
       </c>
-      <c r="H22" s="127"/>
+      <c r="H22" s="121"/>
       <c r="I22" s="1">
         <v>10</v>
       </c>
@@ -3308,14 +3391,14 @@
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="127"/>
+      <c r="H23" s="121"/>
       <c r="I23" s="1"/>
       <c r="J23" s="9">
         <v>-40</v>
@@ -3355,8 +3438,8 @@
       <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
       <c r="E24" s="1">
         <v>20</v>
       </c>
@@ -3364,7 +3447,7 @@
       <c r="G24" s="1">
         <v>20</v>
       </c>
-      <c r="H24" s="127"/>
+      <c r="H24" s="121"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3400,12 +3483,12 @@
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="127"/>
+      <c r="H25" s="121"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -3441,8 +3524,8 @@
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
       <c r="E26" s="1">
         <v>20</v>
       </c>
@@ -3452,7 +3535,7 @@
       <c r="G26" s="1">
         <v>20</v>
       </c>
-      <c r="H26" s="127"/>
+      <c r="H26" s="121"/>
       <c r="I26" s="1">
         <v>20</v>
       </c>
@@ -3492,14 +3575,14 @@
       <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>20</v>
       </c>
-      <c r="H27" s="127"/>
+      <c r="H27" s="121"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3535,8 +3618,8 @@
       <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
       <c r="E28" s="1">
         <v>20</v>
       </c>
@@ -3544,7 +3627,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="127"/>
+      <c r="H28" s="121"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3580,14 +3663,14 @@
       <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
       <c r="E29" s="1">
         <v>20</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="127"/>
+      <c r="H29" s="121"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3623,8 +3706,8 @@
       <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
       <c r="E30" s="1">
         <v>20</v>
       </c>
@@ -3634,7 +3717,7 @@
       <c r="G30" s="1">
         <v>20</v>
       </c>
-      <c r="H30" s="127"/>
+      <c r="H30" s="121"/>
       <c r="I30" s="1">
         <v>20</v>
       </c>
@@ -3680,14 +3763,14 @@
       <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
         <v>20</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="127"/>
+      <c r="H31" s="121"/>
       <c r="I31" s="1">
         <v>20</v>
       </c>
@@ -3727,8 +3810,8 @@
       <c r="B32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="1">
         <v>20</v>
       </c>
@@ -3738,7 +3821,7 @@
       <c r="G32" s="1">
         <v>20</v>
       </c>
-      <c r="H32" s="127"/>
+      <c r="H32" s="121"/>
       <c r="I32" s="1">
         <v>20</v>
       </c>
@@ -3784,8 +3867,8 @@
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="1">
         <v>20</v>
       </c>
@@ -3793,7 +3876,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="127"/>
+      <c r="H33" s="121"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3829,14 +3912,14 @@
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
       <c r="E34" s="1">
         <v>20</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="127"/>
+      <c r="H34" s="121"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3872,8 +3955,8 @@
       <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="1">
         <v>20</v>
       </c>
@@ -3881,7 +3964,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="127"/>
+      <c r="H35" s="121"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3917,8 +4000,8 @@
       <c r="B36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="1">
         <v>20</v>
       </c>
@@ -3928,7 +4011,7 @@
       <c r="G36" s="1">
         <v>20</v>
       </c>
-      <c r="H36" s="127"/>
+      <c r="H36" s="121"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
         <v>20</v>
@@ -3966,8 +4049,8 @@
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="1">
         <v>20</v>
       </c>
@@ -3977,7 +4060,7 @@
       <c r="G37" s="1">
         <v>20</v>
       </c>
-      <c r="H37" s="127"/>
+      <c r="H37" s="121"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
         <v>20</v>
@@ -4021,8 +4104,8 @@
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="1">
         <v>20</v>
       </c>
@@ -4032,7 +4115,7 @@
       <c r="G38" s="1">
         <v>20</v>
       </c>
-      <c r="H38" s="127"/>
+      <c r="H38" s="121"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
         <v>20</v>
@@ -4070,8 +4153,8 @@
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="1">
         <v>20</v>
       </c>
@@ -4079,7 +4162,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="127"/>
+      <c r="H39" s="121"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -4115,8 +4198,8 @@
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="1">
         <v>20</v>
       </c>
@@ -4126,7 +4209,7 @@
       <c r="G40" s="1">
         <v>20</v>
       </c>
-      <c r="H40" s="127"/>
+      <c r="H40" s="121"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <v>20</v>
@@ -4170,8 +4253,8 @@
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
       <c r="E41" s="1">
         <v>20</v>
       </c>
@@ -4179,7 +4262,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="127"/>
+      <c r="H41" s="121"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -4215,14 +4298,14 @@
       <c r="B42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
       <c r="E42" s="1">
         <v>20</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="127"/>
+      <c r="H42" s="121"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -4258,8 +4341,8 @@
       <c r="B43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="127"/>
-      <c r="D43" s="127"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
       <c r="E43" s="1">
         <v>20</v>
       </c>
@@ -4269,7 +4352,7 @@
       <c r="G43" s="1">
         <v>20</v>
       </c>
-      <c r="H43" s="127"/>
+      <c r="H43" s="121"/>
       <c r="I43" s="1">
         <v>20</v>
       </c>
@@ -4317,8 +4400,8 @@
       <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
       <c r="E44" s="1">
         <v>20</v>
       </c>
@@ -4328,7 +4411,7 @@
       <c r="G44" s="1">
         <v>20</v>
       </c>
-      <c r="H44" s="127"/>
+      <c r="H44" s="121"/>
       <c r="I44" s="1">
         <v>20</v>
       </c>
@@ -4372,8 +4455,8 @@
       <c r="B45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
       <c r="E45" s="1">
         <v>20</v>
       </c>
@@ -4383,7 +4466,7 @@
       <c r="G45" s="1">
         <v>20</v>
       </c>
-      <c r="H45" s="127"/>
+      <c r="H45" s="121"/>
       <c r="I45" s="1">
         <v>15</v>
       </c>
@@ -4421,8 +4504,8 @@
       <c r="B46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="1">
         <v>20</v>
       </c>
@@ -4432,7 +4515,7 @@
       <c r="G46" s="1">
         <v>20</v>
       </c>
-      <c r="H46" s="127"/>
+      <c r="H46" s="121"/>
       <c r="I46" s="1">
         <v>20</v>
       </c>
@@ -4470,8 +4553,8 @@
       <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
       <c r="E47" s="1">
         <v>20</v>
       </c>
@@ -4481,7 +4564,7 @@
       <c r="G47" s="1">
         <v>20</v>
       </c>
-      <c r="H47" s="127"/>
+      <c r="H47" s="121"/>
       <c r="I47" s="1">
         <v>20</v>
       </c>
@@ -4525,8 +4608,8 @@
       <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
       <c r="E48" s="1">
         <v>20</v>
       </c>
@@ -4534,7 +4617,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="127"/>
+      <c r="H48" s="121"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4570,8 +4653,8 @@
       <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="1">
         <v>20</v>
       </c>
@@ -4581,7 +4664,7 @@
       <c r="G49" s="1">
         <v>20</v>
       </c>
-      <c r="H49" s="127"/>
+      <c r="H49" s="121"/>
       <c r="I49" s="1">
         <v>20</v>
       </c>
@@ -4621,12 +4704,12 @@
       <c r="B50" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="127"/>
+      <c r="H50" s="121"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -4662,12 +4745,12 @@
       <c r="B51" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="127"/>
+      <c r="H51" s="121"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -4703,12 +4786,12 @@
       <c r="B52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="128"/>
-      <c r="D52" s="128"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="128"/>
+      <c r="H52" s="122"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -4745,58 +4828,58 @@
     <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I58" s="135" t="s">
+      <c r="I58" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="J58" s="136"/>
-      <c r="K58" s="136"/>
-      <c r="L58" s="136"/>
-      <c r="M58" s="137"/>
-      <c r="O58" s="143" t="s">
+      <c r="J58" s="133"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="133"/>
+      <c r="M58" s="134"/>
+      <c r="O58" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="P58" s="136"/>
-      <c r="Q58" s="136"/>
-      <c r="R58" s="137"/>
+      <c r="P58" s="133"/>
+      <c r="Q58" s="133"/>
+      <c r="R58" s="134"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I59" s="138" t="s">
+      <c r="I59" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="133"/>
-      <c r="K59" s="133"/>
-      <c r="L59" s="133"/>
-      <c r="M59" s="139"/>
-      <c r="O59" s="138" t="s">
+      <c r="J59" s="127"/>
+      <c r="K59" s="127"/>
+      <c r="L59" s="127"/>
+      <c r="M59" s="136"/>
+      <c r="O59" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="P59" s="133"/>
-      <c r="Q59" s="133"/>
-      <c r="R59" s="139"/>
+      <c r="P59" s="127"/>
+      <c r="Q59" s="127"/>
+      <c r="R59" s="136"/>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="140"/>
-      <c r="J60" s="141"/>
-      <c r="K60" s="141"/>
-      <c r="L60" s="141"/>
-      <c r="M60" s="142"/>
-      <c r="O60" s="140"/>
-      <c r="P60" s="141"/>
-      <c r="Q60" s="141"/>
-      <c r="R60" s="142"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="138"/>
+      <c r="K60" s="138"/>
+      <c r="L60" s="138"/>
+      <c r="M60" s="139"/>
+      <c r="O60" s="137"/>
+      <c r="P60" s="138"/>
+      <c r="Q60" s="138"/>
+      <c r="R60" s="139"/>
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="134" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="121"/>
-      <c r="K61" s="122"/>
-      <c r="L61" s="134" t="s">
+      <c r="I61" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="131"/>
+      <c r="K61" s="129"/>
+      <c r="L61" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="M61" s="122"/>
-      <c r="O61" s="134"/>
-      <c r="P61" s="122"/>
+      <c r="M61" s="129"/>
+      <c r="O61" s="130"/>
+      <c r="P61" s="129"/>
       <c r="Q61" s="11" t="s">
         <v>20</v>
       </c>
@@ -4805,38 +4888,38 @@
       </c>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I62" s="120" t="s">
+      <c r="I62" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="J62" s="121"/>
-      <c r="K62" s="122"/>
-      <c r="L62" s="123">
+      <c r="J62" s="131"/>
+      <c r="K62" s="129"/>
+      <c r="L62" s="142">
         <v>7350000</v>
       </c>
-      <c r="M62" s="122"/>
-      <c r="O62" s="124" t="s">
+      <c r="M62" s="129"/>
+      <c r="O62" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="P62" s="122"/>
+      <c r="P62" s="129"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="13">
         <v>40000</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I63" s="120" t="s">
+      <c r="I63" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="J63" s="121"/>
-      <c r="K63" s="122"/>
-      <c r="L63" s="125">
+      <c r="J63" s="131"/>
+      <c r="K63" s="129"/>
+      <c r="L63" s="143">
         <v>1100000</v>
       </c>
-      <c r="M63" s="122"/>
-      <c r="O63" s="124" t="s">
+      <c r="M63" s="129"/>
+      <c r="O63" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="P63" s="122"/>
+      <c r="P63" s="129"/>
       <c r="Q63" s="14" t="s">
         <v>77</v>
       </c>
@@ -4845,39 +4928,39 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I64" s="120" t="s">
+      <c r="I64" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="121"/>
-      <c r="K64" s="122"/>
-      <c r="L64" s="123">
+      <c r="J64" s="131"/>
+      <c r="K64" s="129"/>
+      <c r="L64" s="142">
         <f>L62+L63</f>
         <v>8450000</v>
       </c>
-      <c r="M64" s="122"/>
-      <c r="O64" s="124" t="s">
+      <c r="M64" s="129"/>
+      <c r="O64" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="P64" s="122"/>
+      <c r="P64" s="129"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="9:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I65" s="120" t="s">
+      <c r="I65" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="J65" s="121"/>
-      <c r="K65" s="122"/>
-      <c r="L65" s="123">
+      <c r="J65" s="131"/>
+      <c r="K65" s="129"/>
+      <c r="L65" s="142">
         <v>8411850</v>
       </c>
-      <c r="M65" s="122"/>
-      <c r="O65" s="124" t="s">
+      <c r="M65" s="129"/>
+      <c r="O65" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="P65" s="122"/>
+      <c r="P65" s="129"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="13">
         <f>R62-R63+R64</f>
@@ -4885,20 +4968,20 @@
       </c>
     </row>
     <row r="66" spans="9:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I66" s="120" t="s">
+      <c r="I66" s="141" t="s">
         <v>82</v>
       </c>
-      <c r="J66" s="121"/>
-      <c r="K66" s="122"/>
-      <c r="L66" s="123">
+      <c r="J66" s="131"/>
+      <c r="K66" s="129"/>
+      <c r="L66" s="142">
         <f>L64-L65</f>
         <v>38150</v>
       </c>
-      <c r="M66" s="122"/>
-      <c r="O66" s="124" t="s">
+      <c r="M66" s="129"/>
+      <c r="O66" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="P66" s="122"/>
+      <c r="P66" s="129"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="13">
         <f>L66+R65</f>
@@ -5107,6 +5190,17 @@
     <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:M63"/>
     <mergeCell ref="C10:C52"/>
     <mergeCell ref="D10:D52"/>
     <mergeCell ref="H10:H52"/>
@@ -5122,24 +5216,13 @@
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="O61:P61"/>
     <mergeCell ref="O59:R60"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O65:P65"/>
   </mergeCells>
   <conditionalFormatting sqref="R10:R52">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",R10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",R10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",R10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5151,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AM263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:P63"/>
+    <sheetView topLeftCell="B67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5192,42 +5275,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
       <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -5303,25 +5386,25 @@
       <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="154" t="s">
+      <c r="V5" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
-      <c r="AF5" s="121"/>
-      <c r="AG5" s="121"/>
-      <c r="AH5" s="121"/>
-      <c r="AI5" s="121"/>
-      <c r="AJ5" s="121"/>
-      <c r="AK5" s="121"/>
-      <c r="AL5" s="122"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="131"/>
+      <c r="AD5" s="131"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="131"/>
+      <c r="AG5" s="131"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="131"/>
+      <c r="AJ5" s="131"/>
+      <c r="AK5" s="131"/>
+      <c r="AL5" s="129"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -5369,29 +5452,29 @@
         <v>NO</v>
       </c>
       <c r="T6" s="22"/>
-      <c r="V6" s="151" t="s">
+      <c r="V6" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="151" t="s">
+      <c r="W6" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="154" t="s">
+      <c r="X6" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
-      <c r="AF6" s="121"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="121"/>
-      <c r="AI6" s="121"/>
-      <c r="AJ6" s="121"/>
-      <c r="AK6" s="121"/>
-      <c r="AL6" s="122"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="131"/>
+      <c r="AI6" s="131"/>
+      <c r="AJ6" s="131"/>
+      <c r="AK6" s="131"/>
+      <c r="AL6" s="129"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -5437,27 +5520,27 @@
         <v>NO</v>
       </c>
       <c r="T7" s="22"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="154" t="s">
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="121"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="154" t="s">
+      <c r="Y7" s="131"/>
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="129"/>
+      <c r="AB7" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="AC7" s="121"/>
-      <c r="AD7" s="121"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="121"/>
-      <c r="AG7" s="121"/>
-      <c r="AH7" s="121"/>
-      <c r="AI7" s="121"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
-      <c r="AL7" s="122"/>
+      <c r="AC7" s="131"/>
+      <c r="AD7" s="131"/>
+      <c r="AE7" s="131"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="131"/>
+      <c r="AI7" s="131"/>
+      <c r="AJ7" s="131"/>
+      <c r="AK7" s="131"/>
+      <c r="AL7" s="129"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -5499,8 +5582,8 @@
         <v>NO</v>
       </c>
       <c r="T8" s="22"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="128"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
       <c r="X8" s="10" t="s">
         <v>20</v>
       </c>
@@ -9109,10 +9192,10 @@
       <c r="V49" s="65"/>
       <c r="W49" s="65"/>
       <c r="X49" s="65"/>
-      <c r="Y49" s="152" t="s">
+      <c r="Y49" s="160" t="s">
         <v>145</v>
       </c>
-      <c r="Z49" s="153"/>
+      <c r="Z49" s="161"/>
       <c r="AA49" s="39">
         <f>SUM(AA9:AA21)</f>
         <v>20000</v>
@@ -9176,12 +9259,12 @@
         <v>NO</v>
       </c>
       <c r="T50" s="3"/>
-      <c r="AG50" s="156" t="s">
+      <c r="AG50" s="145" t="s">
         <v>172</v>
       </c>
-      <c r="AH50" s="156"/>
-      <c r="AI50" s="156"/>
-      <c r="AJ50" s="156"/>
+      <c r="AH50" s="145"/>
+      <c r="AI50" s="145"/>
+      <c r="AJ50" s="145"/>
       <c r="AK50" s="90">
         <v>3087000</v>
       </c>
@@ -9238,12 +9321,12 @@
       <c r="AC51" s="45"/>
       <c r="AD51" s="45"/>
       <c r="AE51" s="45"/>
-      <c r="AG51" s="160" t="s">
+      <c r="AG51" s="149" t="s">
         <v>174</v>
       </c>
-      <c r="AH51" s="161"/>
-      <c r="AI51" s="161"/>
-      <c r="AJ51" s="162"/>
+      <c r="AH51" s="150"/>
+      <c r="AI51" s="150"/>
+      <c r="AJ51" s="151"/>
       <c r="AK51" s="102">
         <v>3077000</v>
       </c>
@@ -9299,12 +9382,12 @@
       <c r="AD52" s="45"/>
       <c r="AE52" s="45"/>
       <c r="AF52" s="45"/>
-      <c r="AG52" s="157" t="s">
+      <c r="AG52" s="146" t="s">
         <v>181</v>
       </c>
-      <c r="AH52" s="158"/>
-      <c r="AI52" s="158"/>
-      <c r="AJ52" s="159"/>
+      <c r="AH52" s="147"/>
+      <c r="AI52" s="147"/>
+      <c r="AJ52" s="148"/>
       <c r="AK52" s="106">
         <v>2550000</v>
       </c>
@@ -9534,12 +9617,12 @@
         <v>NO</v>
       </c>
       <c r="T56" s="3"/>
-      <c r="AG56" s="160" t="s">
+      <c r="AG56" s="149" t="s">
         <v>179</v>
       </c>
-      <c r="AH56" s="161"/>
-      <c r="AI56" s="161"/>
-      <c r="AJ56" s="162"/>
+      <c r="AH56" s="150"/>
+      <c r="AI56" s="150"/>
+      <c r="AJ56" s="151"/>
       <c r="AK56" s="91">
         <f>AK55</f>
         <v>2627000</v>
@@ -9583,12 +9666,12 @@
         <v>NO</v>
       </c>
       <c r="T57" s="3"/>
-      <c r="AG57" s="156" t="s">
+      <c r="AG57" s="145" t="s">
         <v>171</v>
       </c>
-      <c r="AH57" s="156"/>
-      <c r="AI57" s="156"/>
-      <c r="AJ57" s="156"/>
+      <c r="AH57" s="145"/>
+      <c r="AI57" s="145"/>
+      <c r="AJ57" s="145"/>
       <c r="AK57" s="117">
         <f>AK51-AK56</f>
         <v>450000</v>
@@ -9824,64 +9907,416 @@
       <c r="T63" s="3"/>
     </row>
     <row r="64" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="144" t="s">
+    <row r="65" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="152" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="145"/>
-      <c r="E66" s="145"/>
-      <c r="F66" s="145"/>
-      <c r="G66" s="146"/>
-      <c r="I66" s="155" t="s">
+      <c r="D66" s="153"/>
+      <c r="E66" s="153"/>
+      <c r="F66" s="153"/>
+      <c r="G66" s="154"/>
+      <c r="I66" s="162" t="s">
         <v>183</v>
       </c>
-      <c r="J66" s="155"/>
-      <c r="K66" s="155"/>
-      <c r="L66" s="155"/>
-      <c r="M66" s="155"/>
-    </row>
-    <row r="67" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="147"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="148"/>
-      <c r="F67" s="148"/>
-      <c r="G67" s="149"/>
-      <c r="I67" s="155"/>
-      <c r="J67" s="155"/>
-      <c r="K67" s="155"/>
-      <c r="L67" s="155"/>
-      <c r="M67" s="155"/>
-    </row>
-    <row r="68" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J66" s="162"/>
+      <c r="K66" s="162"/>
+      <c r="L66" s="162"/>
+      <c r="M66" s="162"/>
+    </row>
+    <row r="67" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="155"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="157"/>
+      <c r="I67" s="162"/>
+      <c r="J67" s="162"/>
+      <c r="K67" s="162"/>
+      <c r="L67" s="162"/>
+      <c r="M67" s="162"/>
+    </row>
+    <row r="68" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="168"/>
+      <c r="D72" s="168"/>
+      <c r="E72" s="168"/>
+      <c r="F72" s="168"/>
+      <c r="G72" s="168"/>
+      <c r="H72" s="168"/>
+      <c r="I72" s="168"/>
+      <c r="J72" s="168"/>
+      <c r="K72" s="168"/>
+      <c r="L72" s="168"/>
+      <c r="M72" s="168"/>
+      <c r="N72" s="168"/>
+      <c r="O72" s="168"/>
+      <c r="P72" s="168"/>
+      <c r="Q72" s="168"/>
+    </row>
+    <row r="73" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="168"/>
+      <c r="D73" s="168"/>
+      <c r="E73" s="168"/>
+      <c r="F73" s="168"/>
+      <c r="G73" s="168"/>
+      <c r="H73" s="168"/>
+      <c r="I73" s="168"/>
+      <c r="J73" s="168"/>
+      <c r="K73" s="168"/>
+      <c r="L73" s="168"/>
+      <c r="M73" s="168"/>
+      <c r="N73" s="168"/>
+      <c r="O73" s="168"/>
+      <c r="P73" s="168"/>
+      <c r="Q73" s="168"/>
+    </row>
+    <row r="74" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="167"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="167"/>
+      <c r="F74" s="167"/>
+      <c r="G74" s="167"/>
+      <c r="H74" s="167"/>
+      <c r="I74" s="167"/>
+      <c r="J74" s="167"/>
+      <c r="K74" s="167"/>
+      <c r="L74" s="167"/>
+      <c r="M74" s="167"/>
+      <c r="N74" s="167"/>
+      <c r="O74" s="167"/>
+      <c r="P74" s="167"/>
+      <c r="Q74" s="167"/>
+    </row>
+    <row r="75" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="114"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="114"/>
+      <c r="G75" s="114"/>
+      <c r="H75" s="114"/>
+      <c r="I75" s="114"/>
+      <c r="J75" s="114"/>
+      <c r="K75" s="114"/>
+      <c r="L75" s="114"/>
+      <c r="M75" s="114"/>
+      <c r="N75" s="114"/>
+      <c r="O75" s="114"/>
+      <c r="P75" s="114"/>
+      <c r="Q75" s="114"/>
+    </row>
+    <row r="76" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="114"/>
+      <c r="D76" s="114"/>
+      <c r="E76" s="114"/>
+      <c r="F76" s="114"/>
+      <c r="G76" s="114"/>
+      <c r="H76" s="114"/>
+      <c r="I76" s="114"/>
+      <c r="J76" s="114"/>
+      <c r="K76" s="114"/>
+      <c r="L76" s="114"/>
+      <c r="M76" s="114"/>
+      <c r="N76" s="114"/>
+      <c r="O76" s="114"/>
+      <c r="P76" s="114"/>
+      <c r="Q76" s="114"/>
+    </row>
+    <row r="77" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="114"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="114"/>
+      <c r="F77" s="114"/>
+      <c r="G77" s="114"/>
+      <c r="H77" s="114"/>
+      <c r="I77" s="114"/>
+      <c r="J77" s="114"/>
+      <c r="K77" s="114"/>
+      <c r="L77" s="114"/>
+      <c r="M77" s="114"/>
+      <c r="N77" s="114"/>
+      <c r="O77" s="114"/>
+      <c r="P77" s="114"/>
+      <c r="Q77" s="114"/>
+    </row>
+    <row r="78" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="114"/>
+      <c r="D78" s="114"/>
+      <c r="E78" s="114"/>
+      <c r="F78" s="114"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="114"/>
+      <c r="P78" s="114"/>
+      <c r="Q78" s="114"/>
+    </row>
+    <row r="79" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="114"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="114"/>
+      <c r="F79" s="114"/>
+      <c r="G79" s="114"/>
+      <c r="H79" s="114"/>
+      <c r="I79" s="114"/>
+      <c r="J79" s="114"/>
+      <c r="K79" s="114"/>
+      <c r="L79" s="114"/>
+      <c r="M79" s="114"/>
+      <c r="N79" s="114"/>
+      <c r="O79" s="114"/>
+      <c r="P79" s="114"/>
+      <c r="Q79" s="114"/>
+    </row>
+    <row r="80" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="114"/>
+      <c r="D80" s="114"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="114"/>
+      <c r="H80" s="114"/>
+      <c r="I80" s="114"/>
+      <c r="J80" s="114"/>
+      <c r="K80" s="114"/>
+      <c r="L80" s="114"/>
+      <c r="M80" s="114"/>
+      <c r="N80" s="114"/>
+      <c r="O80" s="114"/>
+      <c r="P80" s="114"/>
+      <c r="Q80" s="114"/>
+    </row>
+    <row r="81" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="114"/>
+      <c r="D81" s="114"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="114"/>
+      <c r="G81" s="114"/>
+      <c r="H81" s="114"/>
+      <c r="I81" s="114"/>
+      <c r="J81" s="114"/>
+      <c r="K81" s="114"/>
+      <c r="L81" s="114"/>
+      <c r="M81" s="114"/>
+      <c r="N81" s="114"/>
+      <c r="O81" s="114"/>
+      <c r="P81" s="114"/>
+      <c r="Q81" s="114"/>
+    </row>
+    <row r="82" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="114"/>
+      <c r="I82" s="114"/>
+      <c r="J82" s="114"/>
+      <c r="K82" s="114"/>
+      <c r="L82" s="114"/>
+      <c r="M82" s="114"/>
+      <c r="N82" s="114"/>
+      <c r="O82" s="114"/>
+      <c r="P82" s="114"/>
+      <c r="Q82" s="114"/>
+    </row>
+    <row r="83" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="114"/>
+      <c r="D83" s="114"/>
+      <c r="E83" s="114"/>
+      <c r="F83" s="114"/>
+      <c r="G83" s="114"/>
+      <c r="H83" s="114"/>
+      <c r="I83" s="114"/>
+      <c r="J83" s="114"/>
+      <c r="K83" s="114"/>
+      <c r="L83" s="114"/>
+      <c r="M83" s="114"/>
+      <c r="N83" s="114"/>
+      <c r="O83" s="114"/>
+      <c r="P83" s="114"/>
+      <c r="Q83" s="114"/>
+    </row>
+    <row r="84" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="114"/>
+      <c r="D84" s="114"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="114"/>
+      <c r="H84" s="114"/>
+      <c r="I84" s="114"/>
+      <c r="J84" s="114"/>
+      <c r="K84" s="114"/>
+      <c r="L84" s="114"/>
+      <c r="M84" s="114"/>
+      <c r="N84" s="114"/>
+      <c r="O84" s="114"/>
+      <c r="P84" s="114"/>
+      <c r="Q84" s="114"/>
+    </row>
+    <row r="85" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="114"/>
+      <c r="D85" s="114"/>
+      <c r="E85" s="114"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="114"/>
+      <c r="H85" s="114"/>
+      <c r="I85" s="114"/>
+      <c r="J85" s="114"/>
+      <c r="K85" s="114"/>
+      <c r="L85" s="114"/>
+      <c r="M85" s="114"/>
+      <c r="N85" s="114"/>
+      <c r="O85" s="114"/>
+      <c r="P85" s="114"/>
+      <c r="Q85" s="114"/>
+    </row>
+    <row r="86" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="114"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="114"/>
+      <c r="F86" s="114"/>
+      <c r="G86" s="114"/>
+      <c r="H86" s="114"/>
+      <c r="I86" s="114"/>
+      <c r="J86" s="114"/>
+      <c r="K86" s="114"/>
+      <c r="L86" s="114"/>
+      <c r="M86" s="114"/>
+      <c r="N86" s="114"/>
+      <c r="O86" s="114"/>
+      <c r="P86" s="114"/>
+      <c r="Q86" s="114"/>
+    </row>
+    <row r="87" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="114"/>
+      <c r="D87" s="114"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="114"/>
+      <c r="G87" s="114"/>
+      <c r="H87" s="114"/>
+      <c r="I87" s="114"/>
+      <c r="J87" s="114"/>
+      <c r="K87" s="114"/>
+      <c r="L87" s="114"/>
+      <c r="M87" s="114"/>
+      <c r="N87" s="114"/>
+      <c r="O87" s="114"/>
+      <c r="P87" s="114"/>
+      <c r="Q87" s="114"/>
+    </row>
+    <row r="88" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="114"/>
+      <c r="G88" s="114"/>
+      <c r="H88" s="114"/>
+      <c r="I88" s="114"/>
+      <c r="J88" s="114"/>
+      <c r="K88" s="114"/>
+      <c r="L88" s="114"/>
+      <c r="M88" s="114"/>
+      <c r="N88" s="114"/>
+      <c r="O88" s="114"/>
+      <c r="P88" s="114"/>
+      <c r="Q88" s="114"/>
+    </row>
+    <row r="89" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="114"/>
+      <c r="D89" s="114"/>
+      <c r="E89" s="114"/>
+      <c r="F89" s="114"/>
+      <c r="G89" s="114"/>
+      <c r="H89" s="114"/>
+      <c r="I89" s="114"/>
+      <c r="J89" s="114"/>
+      <c r="K89" s="114"/>
+      <c r="L89" s="114"/>
+      <c r="M89" s="114"/>
+      <c r="N89" s="114"/>
+      <c r="O89" s="114"/>
+      <c r="P89" s="114"/>
+      <c r="Q89" s="114"/>
+    </row>
+    <row r="90" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="114"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="114"/>
+      <c r="F90" s="114"/>
+      <c r="G90" s="114"/>
+      <c r="H90" s="114"/>
+      <c r="I90" s="114"/>
+      <c r="J90" s="114"/>
+      <c r="K90" s="114"/>
+      <c r="L90" s="114"/>
+      <c r="M90" s="114"/>
+      <c r="N90" s="114"/>
+      <c r="O90" s="114"/>
+      <c r="P90" s="114"/>
+      <c r="Q90" s="114"/>
+    </row>
+    <row r="91" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
+      <c r="G91" s="114"/>
+      <c r="H91" s="114"/>
+      <c r="I91" s="114"/>
+      <c r="J91" s="114"/>
+      <c r="K91" s="114"/>
+      <c r="L91" s="114"/>
+      <c r="M91" s="114"/>
+      <c r="N91" s="114"/>
+      <c r="O91" s="114"/>
+      <c r="P91" s="114"/>
+      <c r="Q91" s="114"/>
+    </row>
+    <row r="92" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="114"/>
+      <c r="D92" s="114"/>
+      <c r="E92" s="114"/>
+      <c r="F92" s="114"/>
+      <c r="G92" s="114"/>
+      <c r="H92" s="114"/>
+      <c r="I92" s="114"/>
+      <c r="J92" s="114"/>
+      <c r="K92" s="114"/>
+      <c r="L92" s="114"/>
+      <c r="M92" s="114"/>
+      <c r="N92" s="114"/>
+      <c r="O92" s="114"/>
+      <c r="P92" s="114"/>
+      <c r="Q92" s="114"/>
+    </row>
+    <row r="93" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="114"/>
+      <c r="D93" s="114"/>
+      <c r="E93" s="114"/>
+      <c r="F93" s="114"/>
+      <c r="G93" s="114"/>
+      <c r="H93" s="114"/>
+      <c r="I93" s="114"/>
+      <c r="J93" s="114"/>
+      <c r="K93" s="114"/>
+      <c r="L93" s="114"/>
+      <c r="M93" s="114"/>
+      <c r="N93" s="114"/>
+      <c r="O93" s="114"/>
+      <c r="P93" s="114"/>
+      <c r="Q93" s="114"/>
+    </row>
+    <row r="94" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10051,6 +10486,13 @@
     <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C66:G67"/>
+    <mergeCell ref="C2:R3"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="I66:M67"/>
     <mergeCell ref="AB7:AL7"/>
     <mergeCell ref="V5:AL5"/>
     <mergeCell ref="X6:AL6"/>
@@ -10059,51 +10501,44 @@
     <mergeCell ref="AG51:AJ51"/>
     <mergeCell ref="AG50:AJ50"/>
     <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="C66:G67"/>
-    <mergeCell ref="C2:R3"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="I66:M67"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:T63">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>IF(ISBLANK($B$4), 0, SEARCH($B$4,$B6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI9:AI48">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH(("YES"),(AI9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI9:AI48">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(AI9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AL9 W46:AA46 AB46:AJ48 AA47:AA48 W10:AJ45 AK10:AL48">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>IF(ISBLANK($X$4), 0, SEARCH($X$4,$W9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S63">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(S6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S63">
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH(("OK"),(S6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10:W45">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>IF(AI10="YES",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P63">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10416,27 +10851,286 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A21:A220"/>
+  <dimension ref="C2:K220"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="169" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+    </row>
+    <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+    </row>
+    <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="174" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="174" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="174" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="173">
+        <v>1</v>
+      </c>
+      <c r="D7" s="175" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="176" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="172">
+        <v>750000</v>
+      </c>
+      <c r="G7" s="175" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="170" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171">
+        <v>1400000</v>
+      </c>
+      <c r="K7" s="171"/>
+    </row>
+    <row r="8" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="173">
+        <v>2</v>
+      </c>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="170" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" s="165"/>
+      <c r="J8" s="181">
+        <f>J7-F27</f>
+        <v>650000</v>
+      </c>
+      <c r="K8" s="182"/>
+    </row>
+    <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="173">
+        <v>3</v>
+      </c>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173"/>
+    </row>
+    <row r="10" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="173">
+        <v>4</v>
+      </c>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="173"/>
+    </row>
+    <row r="11" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="173">
+        <v>5</v>
+      </c>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="173"/>
+    </row>
+    <row r="12" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="173">
+        <v>6</v>
+      </c>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="173"/>
+    </row>
+    <row r="13" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="173">
+        <v>7</v>
+      </c>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="173"/>
+    </row>
+    <row r="14" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="173">
+        <v>8</v>
+      </c>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="173"/>
+    </row>
+    <row r="15" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="173">
+        <v>9</v>
+      </c>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="173"/>
+    </row>
+    <row r="16" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="173">
+        <v>10</v>
+      </c>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="173"/>
+    </row>
+    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="173">
+        <v>11</v>
+      </c>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="173"/>
+    </row>
+    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="173">
+        <v>12</v>
+      </c>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="173"/>
+    </row>
+    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="173">
+        <v>13</v>
+      </c>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="173"/>
+    </row>
+    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="173">
+        <v>14</v>
+      </c>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="173"/>
+    </row>
+    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="173">
+        <v>15</v>
+      </c>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="173"/>
+    </row>
+    <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="173">
+        <v>16</v>
+      </c>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="173"/>
+    </row>
+    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="173">
+        <v>17</v>
+      </c>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="173"/>
+    </row>
+    <row r="24" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="173">
+        <v>18</v>
+      </c>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="173"/>
+    </row>
+    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="173">
+        <v>19</v>
+      </c>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="173"/>
+    </row>
+    <row r="26" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="173">
+        <v>20</v>
+      </c>
+      <c r="D26" s="173"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="173"/>
+    </row>
+    <row r="27" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="179" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="180">
+        <f>SUM(F7:F26)</f>
+        <v>750000</v>
+      </c>
+      <c r="G27" s="65"/>
+    </row>
+    <row r="28" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10626,6 +11320,13 @@
     <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:K3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="459" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="459" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018(NOT UPDATED)" sheetId="1" r:id="rId1"/>
@@ -1829,18 +1829,35 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="21" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,9 +1874,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1875,6 +1897,117 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1903,31 +2036,67 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="21" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="21" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="17" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="21" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="21" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1935,175 +2104,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="21" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="21" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="21" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="21" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="21" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="17" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2860,7 +2860,7 @@
   <dimension ref="A1:T266"/>
   <sheetViews>
     <sheetView topLeftCell="H45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="I58" sqref="I58:M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2882,126 +2882,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="141"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="141"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="141"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
+      <c r="A4" s="148"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
+      <c r="R4" s="149"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="141"/>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
+      <c r="A5" s="148"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="149"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="149"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="141"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
+      <c r="A6" s="148"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -3072,10 +3072,10 @@
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="142" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1">
@@ -3087,7 +3087,7 @@
       <c r="G10" s="1">
         <v>20</v>
       </c>
-      <c r="H10" s="138" t="s">
+      <c r="H10" s="145" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="1">
@@ -3135,8 +3135,8 @@
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
       <c r="E11" s="1">
         <v>20</v>
       </c>
@@ -3146,7 +3146,7 @@
       <c r="G11" s="1">
         <v>20</v>
       </c>
-      <c r="H11" s="136"/>
+      <c r="H11" s="143"/>
       <c r="I11" s="1">
         <v>20</v>
       </c>
@@ -3192,8 +3192,8 @@
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
       <c r="E12" s="1">
         <v>10</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="136"/>
+      <c r="H12" s="143"/>
       <c r="I12" s="1">
         <v>20</v>
       </c>
@@ -3243,8 +3243,8 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
       <c r="E13" s="1">
         <v>20</v>
       </c>
@@ -3254,7 +3254,7 @@
       <c r="G13" s="1">
         <v>20</v>
       </c>
-      <c r="H13" s="136"/>
+      <c r="H13" s="143"/>
       <c r="I13" s="1">
         <v>20</v>
       </c>
@@ -3294,14 +3294,14 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
       <c r="E14" s="1">
         <v>20</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="136"/>
+      <c r="H14" s="143"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3337,8 +3337,8 @@
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
       <c r="E15" s="1">
         <v>20</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="G15" s="1">
         <v>20</v>
       </c>
-      <c r="H15" s="136"/>
+      <c r="H15" s="143"/>
       <c r="I15" s="1">
         <v>20</v>
       </c>
@@ -3396,8 +3396,8 @@
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
       <c r="E16" s="1">
         <v>20</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="136"/>
+      <c r="H16" s="143"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3441,8 +3441,8 @@
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
       <c r="E17" s="1">
         <v>20</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="136"/>
+      <c r="H17" s="143"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3486,12 +3486,12 @@
       <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="136"/>
+      <c r="H18" s="143"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -3527,8 +3527,8 @@
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>20</v>
@@ -3536,7 +3536,7 @@
       <c r="G19" s="1">
         <v>20</v>
       </c>
-      <c r="H19" s="136"/>
+      <c r="H19" s="143"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3574,8 +3574,8 @@
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
       <c r="E20" s="1">
         <v>20</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="136"/>
+      <c r="H20" s="143"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3619,8 +3619,8 @@
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
       <c r="E21" s="1">
         <v>20</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="G21" s="1">
         <v>20</v>
       </c>
-      <c r="H21" s="136"/>
+      <c r="H21" s="143"/>
       <c r="I21" s="1">
         <v>20</v>
       </c>
@@ -3672,8 +3672,8 @@
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
       <c r="E22" s="1">
         <v>20</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="G22" s="1">
         <v>15</v>
       </c>
-      <c r="H22" s="136"/>
+      <c r="H22" s="143"/>
       <c r="I22" s="1">
         <v>10</v>
       </c>
@@ -3721,14 +3721,14 @@
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="136"/>
+      <c r="H23" s="143"/>
       <c r="I23" s="1"/>
       <c r="J23" s="9">
         <v>-40</v>
@@ -3768,8 +3768,8 @@
       <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
       <c r="E24" s="1">
         <v>20</v>
       </c>
@@ -3777,7 +3777,7 @@
       <c r="G24" s="1">
         <v>20</v>
       </c>
-      <c r="H24" s="136"/>
+      <c r="H24" s="143"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3813,12 +3813,12 @@
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="136"/>
+      <c r="H25" s="143"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -3854,8 +3854,8 @@
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
       <c r="E26" s="1">
         <v>20</v>
       </c>
@@ -3865,7 +3865,7 @@
       <c r="G26" s="1">
         <v>20</v>
       </c>
-      <c r="H26" s="136"/>
+      <c r="H26" s="143"/>
       <c r="I26" s="1">
         <v>20</v>
       </c>
@@ -3905,14 +3905,14 @@
       <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>20</v>
       </c>
-      <c r="H27" s="136"/>
+      <c r="H27" s="143"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3948,8 +3948,8 @@
       <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
       <c r="E28" s="1">
         <v>20</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="136"/>
+      <c r="H28" s="143"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3993,14 +3993,14 @@
       <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
       <c r="E29" s="1">
         <v>20</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="136"/>
+      <c r="H29" s="143"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -4036,8 +4036,8 @@
       <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="143"/>
       <c r="E30" s="1">
         <v>20</v>
       </c>
@@ -4047,7 +4047,7 @@
       <c r="G30" s="1">
         <v>20</v>
       </c>
-      <c r="H30" s="136"/>
+      <c r="H30" s="143"/>
       <c r="I30" s="1">
         <v>20</v>
       </c>
@@ -4093,14 +4093,14 @@
       <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
         <v>20</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="136"/>
+      <c r="H31" s="143"/>
       <c r="I31" s="1">
         <v>20</v>
       </c>
@@ -4140,8 +4140,8 @@
       <c r="B32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
       <c r="E32" s="1">
         <v>20</v>
       </c>
@@ -4151,7 +4151,7 @@
       <c r="G32" s="1">
         <v>20</v>
       </c>
-      <c r="H32" s="136"/>
+      <c r="H32" s="143"/>
       <c r="I32" s="1">
         <v>20</v>
       </c>
@@ -4197,8 +4197,8 @@
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="1">
         <v>20</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="136"/>
+      <c r="H33" s="143"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -4242,14 +4242,14 @@
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
       <c r="E34" s="1">
         <v>20</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="136"/>
+      <c r="H34" s="143"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -4285,8 +4285,8 @@
       <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="1">
         <v>20</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="136"/>
+      <c r="H35" s="143"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -4330,8 +4330,8 @@
       <c r="B36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
       <c r="E36" s="1">
         <v>20</v>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="G36" s="1">
         <v>20</v>
       </c>
-      <c r="H36" s="136"/>
+      <c r="H36" s="143"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
         <v>20</v>
@@ -4379,8 +4379,8 @@
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
       <c r="E37" s="1">
         <v>20</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="G37" s="1">
         <v>20</v>
       </c>
-      <c r="H37" s="136"/>
+      <c r="H37" s="143"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
         <v>20</v>
@@ -4434,8 +4434,8 @@
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
       <c r="E38" s="1">
         <v>20</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="G38" s="1">
         <v>20</v>
       </c>
-      <c r="H38" s="136"/>
+      <c r="H38" s="143"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
         <v>20</v>
@@ -4483,8 +4483,8 @@
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="1">
         <v>20</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="136"/>
+      <c r="H39" s="143"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -4528,8 +4528,8 @@
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
       <c r="E40" s="1">
         <v>20</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="G40" s="1">
         <v>20</v>
       </c>
-      <c r="H40" s="136"/>
+      <c r="H40" s="143"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <v>20</v>
@@ -4583,8 +4583,8 @@
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
       <c r="E41" s="1">
         <v>20</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="136"/>
+      <c r="H41" s="143"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -4628,14 +4628,14 @@
       <c r="B42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
       <c r="E42" s="1">
         <v>20</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="136"/>
+      <c r="H42" s="143"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -4671,8 +4671,8 @@
       <c r="B43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="1">
         <v>20</v>
       </c>
@@ -4682,7 +4682,7 @@
       <c r="G43" s="1">
         <v>20</v>
       </c>
-      <c r="H43" s="136"/>
+      <c r="H43" s="143"/>
       <c r="I43" s="1">
         <v>20</v>
       </c>
@@ -4730,8 +4730,8 @@
       <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
       <c r="E44" s="1">
         <v>20</v>
       </c>
@@ -4741,7 +4741,7 @@
       <c r="G44" s="1">
         <v>20</v>
       </c>
-      <c r="H44" s="136"/>
+      <c r="H44" s="143"/>
       <c r="I44" s="1">
         <v>20</v>
       </c>
@@ -4785,8 +4785,8 @@
       <c r="B45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
       <c r="E45" s="1">
         <v>20</v>
       </c>
@@ -4796,7 +4796,7 @@
       <c r="G45" s="1">
         <v>20</v>
       </c>
-      <c r="H45" s="136"/>
+      <c r="H45" s="143"/>
       <c r="I45" s="1">
         <v>15</v>
       </c>
@@ -4834,8 +4834,8 @@
       <c r="B46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="1">
         <v>20</v>
       </c>
@@ -4845,7 +4845,7 @@
       <c r="G46" s="1">
         <v>20</v>
       </c>
-      <c r="H46" s="136"/>
+      <c r="H46" s="143"/>
       <c r="I46" s="1">
         <v>20</v>
       </c>
@@ -4883,8 +4883,8 @@
       <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="1">
         <v>20</v>
       </c>
@@ -4894,7 +4894,7 @@
       <c r="G47" s="1">
         <v>20</v>
       </c>
-      <c r="H47" s="136"/>
+      <c r="H47" s="143"/>
       <c r="I47" s="1">
         <v>20</v>
       </c>
@@ -4938,8 +4938,8 @@
       <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
       <c r="E48" s="1">
         <v>20</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="136"/>
+      <c r="H48" s="143"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4983,8 +4983,8 @@
       <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
       <c r="E49" s="1">
         <v>20</v>
       </c>
@@ -4994,7 +4994,7 @@
       <c r="G49" s="1">
         <v>20</v>
       </c>
-      <c r="H49" s="136"/>
+      <c r="H49" s="143"/>
       <c r="I49" s="1">
         <v>20</v>
       </c>
@@ -5034,12 +5034,12 @@
       <c r="B50" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="136"/>
+      <c r="H50" s="143"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -5075,12 +5075,12 @@
       <c r="B51" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="136"/>
+      <c r="H51" s="143"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -5116,12 +5116,12 @@
       <c r="B52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="144"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="137"/>
+      <c r="H52" s="144"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -5158,58 +5158,58 @@
     <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I58" s="144" t="s">
+      <c r="I58" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="J58" s="145"/>
-      <c r="K58" s="145"/>
-      <c r="L58" s="145"/>
-      <c r="M58" s="146"/>
-      <c r="O58" s="152" t="s">
+      <c r="J58" s="155"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="156"/>
+      <c r="O58" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="P58" s="145"/>
-      <c r="Q58" s="145"/>
-      <c r="R58" s="146"/>
+      <c r="P58" s="155"/>
+      <c r="Q58" s="155"/>
+      <c r="R58" s="156"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I59" s="147" t="s">
+      <c r="I59" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="142"/>
-      <c r="K59" s="142"/>
-      <c r="L59" s="142"/>
-      <c r="M59" s="148"/>
-      <c r="O59" s="147" t="s">
+      <c r="J59" s="149"/>
+      <c r="K59" s="149"/>
+      <c r="L59" s="149"/>
+      <c r="M59" s="158"/>
+      <c r="O59" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="P59" s="142"/>
-      <c r="Q59" s="142"/>
-      <c r="R59" s="148"/>
+      <c r="P59" s="149"/>
+      <c r="Q59" s="149"/>
+      <c r="R59" s="158"/>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="149"/>
-      <c r="J60" s="150"/>
-      <c r="K60" s="150"/>
-      <c r="L60" s="150"/>
-      <c r="M60" s="151"/>
-      <c r="O60" s="149"/>
-      <c r="P60" s="150"/>
-      <c r="Q60" s="150"/>
-      <c r="R60" s="151"/>
+      <c r="I60" s="159"/>
+      <c r="J60" s="160"/>
+      <c r="K60" s="160"/>
+      <c r="L60" s="160"/>
+      <c r="M60" s="161"/>
+      <c r="O60" s="159"/>
+      <c r="P60" s="160"/>
+      <c r="Q60" s="160"/>
+      <c r="R60" s="161"/>
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="143" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="130"/>
-      <c r="K61" s="131"/>
-      <c r="L61" s="143" t="s">
+      <c r="I61" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="153"/>
+      <c r="K61" s="151"/>
+      <c r="L61" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="M61" s="131"/>
-      <c r="O61" s="143"/>
-      <c r="P61" s="131"/>
+      <c r="M61" s="151"/>
+      <c r="O61" s="152"/>
+      <c r="P61" s="151"/>
       <c r="Q61" s="11" t="s">
         <v>20</v>
       </c>
@@ -5218,38 +5218,38 @@
       </c>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I62" s="129" t="s">
+      <c r="I62" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="J62" s="130"/>
-      <c r="K62" s="131"/>
-      <c r="L62" s="132">
+      <c r="J62" s="153"/>
+      <c r="K62" s="151"/>
+      <c r="L62" s="164">
         <v>7350000</v>
       </c>
-      <c r="M62" s="131"/>
-      <c r="O62" s="133" t="s">
+      <c r="M62" s="151"/>
+      <c r="O62" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="P62" s="131"/>
+      <c r="P62" s="151"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="13">
         <v>40000</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I63" s="129" t="s">
+      <c r="I63" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="J63" s="130"/>
-      <c r="K63" s="131"/>
-      <c r="L63" s="134">
+      <c r="J63" s="153"/>
+      <c r="K63" s="151"/>
+      <c r="L63" s="165">
         <v>1100000</v>
       </c>
-      <c r="M63" s="131"/>
-      <c r="O63" s="133" t="s">
+      <c r="M63" s="151"/>
+      <c r="O63" s="150" t="s">
         <v>76</v>
       </c>
-      <c r="P63" s="131"/>
+      <c r="P63" s="151"/>
       <c r="Q63" s="14" t="s">
         <v>77</v>
       </c>
@@ -5258,39 +5258,39 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I64" s="129" t="s">
+      <c r="I64" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="130"/>
-      <c r="K64" s="131"/>
-      <c r="L64" s="132">
+      <c r="J64" s="153"/>
+      <c r="K64" s="151"/>
+      <c r="L64" s="164">
         <f>L62+L63</f>
         <v>8450000</v>
       </c>
-      <c r="M64" s="131"/>
-      <c r="O64" s="133" t="s">
+      <c r="M64" s="151"/>
+      <c r="O64" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="P64" s="131"/>
+      <c r="P64" s="151"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="9:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I65" s="129" t="s">
+      <c r="I65" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="J65" s="130"/>
-      <c r="K65" s="131"/>
-      <c r="L65" s="132">
+      <c r="J65" s="153"/>
+      <c r="K65" s="151"/>
+      <c r="L65" s="164">
         <v>8411850</v>
       </c>
-      <c r="M65" s="131"/>
-      <c r="O65" s="133" t="s">
+      <c r="M65" s="151"/>
+      <c r="O65" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="P65" s="131"/>
+      <c r="P65" s="151"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="13">
         <f>R62-R63+R64</f>
@@ -5298,20 +5298,20 @@
       </c>
     </row>
     <row r="66" spans="9:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I66" s="129" t="s">
+      <c r="I66" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="J66" s="130"/>
-      <c r="K66" s="131"/>
-      <c r="L66" s="132">
+      <c r="J66" s="153"/>
+      <c r="K66" s="151"/>
+      <c r="L66" s="164">
         <f>L64-L65</f>
         <v>38150</v>
       </c>
-      <c r="M66" s="131"/>
-      <c r="O66" s="133" t="s">
+      <c r="M66" s="151"/>
+      <c r="O66" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="P66" s="131"/>
+      <c r="P66" s="151"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="13">
         <f>L66+R65</f>
@@ -5519,7 +5519,19 @@
     <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="26">
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:M63"/>
     <mergeCell ref="C10:C52"/>
     <mergeCell ref="D10:D52"/>
     <mergeCell ref="H10:H52"/>
@@ -5535,17 +5547,6 @@
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="O61:P61"/>
     <mergeCell ref="O59:R60"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O65:P65"/>
   </mergeCells>
   <conditionalFormatting sqref="R10:R52">
     <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="NO">
@@ -5564,8 +5565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AM263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73:J73"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5605,49 +5606,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="206" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
       <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="138" t="s">
         <v>206</v>
       </c>
       <c r="W4" s="16" t="s">
@@ -5716,25 +5717,25 @@
       <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="163" t="s">
+      <c r="V5" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="W5" s="130"/>
-      <c r="X5" s="130"/>
-      <c r="Y5" s="130"/>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="130"/>
-      <c r="AB5" s="130"/>
-      <c r="AC5" s="130"/>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="130"/>
-      <c r="AF5" s="130"/>
-      <c r="AG5" s="130"/>
-      <c r="AH5" s="130"/>
-      <c r="AI5" s="130"/>
-      <c r="AJ5" s="130"/>
-      <c r="AK5" s="130"/>
-      <c r="AL5" s="131"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="153"/>
+      <c r="AF5" s="153"/>
+      <c r="AG5" s="153"/>
+      <c r="AH5" s="153"/>
+      <c r="AI5" s="153"/>
+      <c r="AJ5" s="153"/>
+      <c r="AK5" s="153"/>
+      <c r="AL5" s="151"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -5743,24 +5744,24 @@
       <c r="B6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223">
+      <c r="C6" s="139"/>
+      <c r="D6" s="139">
         <v>5</v>
       </c>
-      <c r="E6" s="223">
-        <v>20</v>
-      </c>
-      <c r="F6" s="223">
+      <c r="E6" s="139">
+        <v>20</v>
+      </c>
+      <c r="F6" s="139">
         <v>5</v>
       </c>
-      <c r="G6" s="223"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
       <c r="O6" s="21">
         <f>SUM(C6:N6)</f>
         <v>30</v>
@@ -5782,29 +5783,29 @@
         <v>NO</v>
       </c>
       <c r="T6" s="21"/>
-      <c r="V6" s="160" t="s">
+      <c r="V6" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="160" t="s">
+      <c r="W6" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="163" t="s">
+      <c r="X6" s="192" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130"/>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130"/>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="131"/>
+      <c r="Y6" s="153"/>
+      <c r="Z6" s="153"/>
+      <c r="AA6" s="153"/>
+      <c r="AB6" s="153"/>
+      <c r="AC6" s="153"/>
+      <c r="AD6" s="153"/>
+      <c r="AE6" s="153"/>
+      <c r="AF6" s="153"/>
+      <c r="AG6" s="153"/>
+      <c r="AH6" s="153"/>
+      <c r="AI6" s="153"/>
+      <c r="AJ6" s="153"/>
+      <c r="AK6" s="153"/>
+      <c r="AL6" s="151"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -5813,22 +5814,22 @@
       <c r="B7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224">
+      <c r="C7" s="140"/>
+      <c r="D7" s="140">
         <v>5</v>
       </c>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223">
+      <c r="E7" s="139"/>
+      <c r="F7" s="139">
         <v>5</v>
       </c>
-      <c r="G7" s="223"/>
-      <c r="H7" s="224"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="223"/>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
       <c r="O7" s="21">
         <f t="shared" ref="O7:O63" si="2">SUM(C7:N7)</f>
         <v>10</v>
@@ -5850,27 +5851,27 @@
         <v>NO</v>
       </c>
       <c r="T7" s="21"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="163" t="s">
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="192" t="s">
         <v>90</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="131"/>
-      <c r="AB7" s="163" t="s">
+      <c r="Y7" s="153"/>
+      <c r="Z7" s="153"/>
+      <c r="AA7" s="151"/>
+      <c r="AB7" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="130"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="130"/>
-      <c r="AI7" s="130"/>
-      <c r="AJ7" s="130"/>
-      <c r="AK7" s="130"/>
-      <c r="AL7" s="131"/>
+      <c r="AC7" s="153"/>
+      <c r="AD7" s="153"/>
+      <c r="AE7" s="153"/>
+      <c r="AF7" s="153"/>
+      <c r="AG7" s="153"/>
+      <c r="AH7" s="153"/>
+      <c r="AI7" s="153"/>
+      <c r="AJ7" s="153"/>
+      <c r="AK7" s="153"/>
+      <c r="AL7" s="151"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -5879,18 +5880,18 @@
       <c r="B8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="223"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="223"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
       <c r="O8" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5912,8 +5913,8 @@
         <v>NO</v>
       </c>
       <c r="T8" s="21"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="137"/>
+      <c r="V8" s="144"/>
+      <c r="W8" s="144"/>
       <c r="X8" s="10" t="s">
         <v>20</v>
       </c>
@@ -5967,22 +5968,22 @@
       <c r="B9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="224"/>
-      <c r="D9" s="224">
+      <c r="C9" s="140"/>
+      <c r="D9" s="140">
         <v>5</v>
       </c>
-      <c r="E9" s="223"/>
-      <c r="F9" s="223">
+      <c r="E9" s="139"/>
+      <c r="F9" s="139">
         <v>5</v>
       </c>
-      <c r="G9" s="223"/>
-      <c r="H9" s="224"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="223"/>
-      <c r="K9" s="223"/>
-      <c r="L9" s="223"/>
-      <c r="M9" s="223"/>
-      <c r="N9" s="223"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
       <c r="O9" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -6052,18 +6053,18 @@
       <c r="B10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="224"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="223"/>
-      <c r="K10" s="223"/>
-      <c r="L10" s="223"/>
-      <c r="M10" s="223"/>
-      <c r="N10" s="223"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
       <c r="O10" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6145,18 +6146,18 @@
       <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="224"/>
-      <c r="D11" s="224"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="223"/>
-      <c r="K11" s="223"/>
-      <c r="L11" s="223"/>
-      <c r="M11" s="223"/>
-      <c r="N11" s="223"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
       <c r="O11" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6232,18 +6233,18 @@
       <c r="B12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="224"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="223"/>
-      <c r="F12" s="223"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="224"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="223"/>
-      <c r="K12" s="223"/>
-      <c r="L12" s="223"/>
-      <c r="M12" s="223"/>
-      <c r="N12" s="223"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="139"/>
       <c r="O12" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6319,18 +6320,18 @@
       <c r="B13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="224"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="224"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="223"/>
-      <c r="L13" s="223"/>
-      <c r="M13" s="223"/>
-      <c r="N13" s="223"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
       <c r="O13" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6406,18 +6407,18 @@
       <c r="B14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="223"/>
-      <c r="G14" s="223"/>
-      <c r="H14" s="224"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="223"/>
-      <c r="K14" s="223"/>
-      <c r="L14" s="223"/>
-      <c r="M14" s="223"/>
-      <c r="N14" s="223"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
       <c r="O14" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6493,18 +6494,18 @@
       <c r="B15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="223"/>
-      <c r="F15" s="223"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="224"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="223"/>
-      <c r="L15" s="223"/>
-      <c r="M15" s="223"/>
-      <c r="N15" s="223"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
       <c r="O15" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6580,18 +6581,18 @@
       <c r="B16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="224"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="223"/>
-      <c r="F16" s="223"/>
-      <c r="G16" s="223"/>
-      <c r="H16" s="224"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="223"/>
-      <c r="K16" s="223"/>
-      <c r="L16" s="223"/>
-      <c r="M16" s="223"/>
-      <c r="N16" s="223"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
       <c r="O16" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6659,30 +6660,30 @@
       <c r="B17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="224">
-        <v>20</v>
-      </c>
-      <c r="D17" s="224">
-        <v>20</v>
-      </c>
-      <c r="E17" s="224">
-        <v>20</v>
-      </c>
-      <c r="F17" s="224">
-        <v>20</v>
-      </c>
-      <c r="G17" s="224">
-        <v>20</v>
-      </c>
-      <c r="H17" s="224">
-        <v>20</v>
-      </c>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223"/>
-      <c r="L17" s="223"/>
-      <c r="M17" s="223"/>
-      <c r="N17" s="223"/>
+      <c r="C17" s="140">
+        <v>20</v>
+      </c>
+      <c r="D17" s="140">
+        <v>20</v>
+      </c>
+      <c r="E17" s="140">
+        <v>20</v>
+      </c>
+      <c r="F17" s="140">
+        <v>20</v>
+      </c>
+      <c r="G17" s="140">
+        <v>20</v>
+      </c>
+      <c r="H17" s="140">
+        <v>20</v>
+      </c>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
       <c r="O17" s="21">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -6750,20 +6751,20 @@
       <c r="B18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="224"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223">
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139">
         <v>5</v>
       </c>
-      <c r="G18" s="223"/>
-      <c r="H18" s="224"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="223"/>
-      <c r="K18" s="223"/>
-      <c r="L18" s="223"/>
-      <c r="M18" s="223"/>
-      <c r="N18" s="223"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
       <c r="O18" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -6841,18 +6842,18 @@
       <c r="B19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="223"/>
-      <c r="G19" s="223"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="223"/>
-      <c r="J19" s="223"/>
-      <c r="K19" s="223"/>
-      <c r="L19" s="223"/>
-      <c r="M19" s="223"/>
-      <c r="N19" s="223"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
       <c r="O19" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6928,22 +6929,22 @@
       <c r="B20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="224">
+      <c r="C20" s="140">
         <v>5</v>
       </c>
-      <c r="D20" s="224">
+      <c r="D20" s="140">
         <v>5</v>
       </c>
-      <c r="E20" s="223"/>
-      <c r="F20" s="223"/>
-      <c r="G20" s="223"/>
-      <c r="H20" s="224"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="223"/>
-      <c r="K20" s="223"/>
-      <c r="L20" s="223"/>
-      <c r="M20" s="223"/>
-      <c r="N20" s="223"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
       <c r="O20" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -7011,20 +7012,20 @@
       <c r="B21" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="224"/>
-      <c r="D21" s="224">
+      <c r="C21" s="140"/>
+      <c r="D21" s="140">
         <v>5</v>
       </c>
-      <c r="E21" s="223"/>
-      <c r="F21" s="223"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="224"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223"/>
-      <c r="K21" s="223"/>
-      <c r="L21" s="223"/>
-      <c r="M21" s="223"/>
-      <c r="N21" s="223"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
       <c r="O21" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -7100,18 +7101,18 @@
       <c r="B22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="224"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="223"/>
-      <c r="G22" s="223"/>
-      <c r="H22" s="224"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
-      <c r="K22" s="223"/>
-      <c r="L22" s="223"/>
-      <c r="M22" s="223"/>
-      <c r="N22" s="223"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
       <c r="O22" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7187,18 +7188,18 @@
       <c r="B23" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="224"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="223"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="224"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="223"/>
-      <c r="K23" s="223"/>
-      <c r="L23" s="223"/>
-      <c r="M23" s="223"/>
-      <c r="N23" s="223"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
       <c r="O23" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7274,18 +7275,18 @@
       <c r="B24" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="224"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="224"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="223"/>
-      <c r="L24" s="223"/>
-      <c r="M24" s="223"/>
-      <c r="N24" s="223"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="139"/>
       <c r="O24" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7361,18 +7362,18 @@
       <c r="B25" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="224"/>
-      <c r="D25" s="224"/>
-      <c r="E25" s="223"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="224"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="223"/>
-      <c r="K25" s="223"/>
-      <c r="L25" s="223"/>
-      <c r="M25" s="223"/>
-      <c r="N25" s="223"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
       <c r="O25" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7448,22 +7449,22 @@
       <c r="B26" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="224">
+      <c r="C26" s="140">
         <v>5</v>
       </c>
-      <c r="D26" s="224"/>
-      <c r="E26" s="223"/>
-      <c r="F26" s="223">
+      <c r="D26" s="140"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139">
         <v>5</v>
       </c>
-      <c r="G26" s="223"/>
-      <c r="H26" s="224"/>
-      <c r="I26" s="223"/>
-      <c r="J26" s="223"/>
-      <c r="K26" s="223"/>
-      <c r="L26" s="223"/>
-      <c r="M26" s="223"/>
-      <c r="N26" s="223"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
       <c r="O26" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -7539,24 +7540,24 @@
       <c r="B27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="224">
+      <c r="C27" s="140">
         <v>5</v>
       </c>
-      <c r="D27" s="224">
+      <c r="D27" s="140">
         <v>5</v>
       </c>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223">
+      <c r="E27" s="139"/>
+      <c r="F27" s="139">
         <v>5</v>
       </c>
-      <c r="G27" s="223"/>
-      <c r="H27" s="224"/>
-      <c r="I27" s="223"/>
-      <c r="J27" s="223"/>
-      <c r="K27" s="223"/>
-      <c r="L27" s="223"/>
-      <c r="M27" s="223"/>
-      <c r="N27" s="223"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="139"/>
       <c r="O27" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -7632,24 +7633,24 @@
       <c r="B28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="224">
-        <v>20</v>
-      </c>
-      <c r="D28" s="224">
-        <v>20</v>
-      </c>
-      <c r="E28" s="223">
+      <c r="C28" s="140">
+        <v>20</v>
+      </c>
+      <c r="D28" s="140">
+        <v>20</v>
+      </c>
+      <c r="E28" s="139">
         <v>12.8</v>
       </c>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="224"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="223"/>
-      <c r="L28" s="223"/>
-      <c r="M28" s="223"/>
-      <c r="N28" s="223"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
       <c r="O28" s="21">
         <f t="shared" si="2"/>
         <v>52.8</v>
@@ -7725,18 +7726,18 @@
       <c r="B29" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="224"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="223"/>
-      <c r="K29" s="223"/>
-      <c r="L29" s="223"/>
-      <c r="M29" s="223"/>
-      <c r="N29" s="223"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
       <c r="O29" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7812,18 +7813,18 @@
       <c r="B30" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="224"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="223"/>
-      <c r="F30" s="223"/>
-      <c r="G30" s="223"/>
-      <c r="H30" s="224"/>
-      <c r="I30" s="223"/>
-      <c r="J30" s="223"/>
-      <c r="K30" s="223"/>
-      <c r="L30" s="223"/>
-      <c r="M30" s="223"/>
-      <c r="N30" s="223"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="139"/>
       <c r="O30" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7899,18 +7900,18 @@
       <c r="B31" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="224"/>
-      <c r="D31" s="224"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
-      <c r="G31" s="223"/>
-      <c r="H31" s="224"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="223"/>
-      <c r="K31" s="223"/>
-      <c r="L31" s="223"/>
-      <c r="M31" s="223"/>
-      <c r="N31" s="223"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
       <c r="O31" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7986,18 +7987,18 @@
       <c r="B32" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="224"/>
-      <c r="D32" s="224"/>
-      <c r="E32" s="223"/>
-      <c r="F32" s="223"/>
-      <c r="G32" s="223"/>
-      <c r="H32" s="224"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="223"/>
-      <c r="K32" s="223"/>
-      <c r="L32" s="223"/>
-      <c r="M32" s="223"/>
-      <c r="N32" s="223"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="139"/>
       <c r="O32" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8073,18 +8074,18 @@
       <c r="B33" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="224"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="223"/>
-      <c r="F33" s="223"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="224"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="223"/>
-      <c r="L33" s="223"/>
-      <c r="M33" s="223"/>
-      <c r="N33" s="223"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="139"/>
+      <c r="N33" s="139"/>
       <c r="O33" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8160,20 +8161,20 @@
       <c r="B34" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="224"/>
-      <c r="D34" s="224">
+      <c r="C34" s="140"/>
+      <c r="D34" s="140">
         <v>5</v>
       </c>
-      <c r="E34" s="223"/>
-      <c r="F34" s="223"/>
-      <c r="G34" s="223"/>
-      <c r="H34" s="224"/>
-      <c r="I34" s="223"/>
-      <c r="J34" s="223"/>
-      <c r="K34" s="223"/>
-      <c r="L34" s="223"/>
-      <c r="M34" s="223"/>
-      <c r="N34" s="223"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="139"/>
+      <c r="N34" s="139"/>
       <c r="O34" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -8249,28 +8250,28 @@
       <c r="B35" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="224">
-        <v>20</v>
-      </c>
-      <c r="D35" s="224">
-        <v>20</v>
-      </c>
-      <c r="E35" s="223">
-        <v>20</v>
-      </c>
-      <c r="F35" s="223">
-        <v>20</v>
-      </c>
-      <c r="G35" s="223">
+      <c r="C35" s="140">
+        <v>20</v>
+      </c>
+      <c r="D35" s="140">
+        <v>20</v>
+      </c>
+      <c r="E35" s="139">
+        <v>20</v>
+      </c>
+      <c r="F35" s="139">
+        <v>20</v>
+      </c>
+      <c r="G35" s="139">
         <v>3</v>
       </c>
-      <c r="H35" s="224"/>
-      <c r="I35" s="223"/>
-      <c r="J35" s="223"/>
-      <c r="K35" s="223"/>
-      <c r="L35" s="223"/>
-      <c r="M35" s="223"/>
-      <c r="N35" s="223"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="139"/>
+      <c r="K35" s="139"/>
+      <c r="L35" s="139"/>
+      <c r="M35" s="139"/>
+      <c r="N35" s="139"/>
       <c r="O35" s="21">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -8346,28 +8347,28 @@
       <c r="B36" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="224">
-        <v>20</v>
-      </c>
-      <c r="D36" s="224">
-        <v>20</v>
-      </c>
-      <c r="E36" s="224">
-        <v>20</v>
-      </c>
-      <c r="F36" s="224">
-        <v>20</v>
-      </c>
-      <c r="G36" s="223">
-        <v>20</v>
-      </c>
-      <c r="H36" s="224"/>
-      <c r="I36" s="223"/>
-      <c r="J36" s="223"/>
-      <c r="K36" s="223"/>
-      <c r="L36" s="223"/>
-      <c r="M36" s="223"/>
-      <c r="N36" s="223"/>
+      <c r="C36" s="140">
+        <v>20</v>
+      </c>
+      <c r="D36" s="140">
+        <v>20</v>
+      </c>
+      <c r="E36" s="140">
+        <v>20</v>
+      </c>
+      <c r="F36" s="140">
+        <v>20</v>
+      </c>
+      <c r="G36" s="139">
+        <v>20</v>
+      </c>
+      <c r="H36" s="140"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="139"/>
+      <c r="L36" s="139"/>
+      <c r="M36" s="139"/>
+      <c r="N36" s="139"/>
       <c r="O36" s="21">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -8443,20 +8444,20 @@
       <c r="B37" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="224"/>
-      <c r="D37" s="224"/>
-      <c r="E37" s="223"/>
-      <c r="F37" s="223">
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139">
         <v>5</v>
       </c>
-      <c r="G37" s="223"/>
-      <c r="H37" s="224"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="223"/>
-      <c r="K37" s="223"/>
-      <c r="L37" s="223"/>
-      <c r="M37" s="223"/>
-      <c r="N37" s="223"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="139"/>
+      <c r="L37" s="139"/>
+      <c r="M37" s="139"/>
+      <c r="N37" s="139"/>
       <c r="O37" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -8532,18 +8533,18 @@
       <c r="B38" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="224"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="223"/>
-      <c r="F38" s="223"/>
-      <c r="G38" s="223"/>
-      <c r="H38" s="224"/>
-      <c r="I38" s="223"/>
-      <c r="J38" s="223"/>
-      <c r="K38" s="223"/>
-      <c r="L38" s="223"/>
-      <c r="M38" s="223"/>
-      <c r="N38" s="223"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="139"/>
+      <c r="K38" s="139"/>
+      <c r="L38" s="139"/>
+      <c r="M38" s="139"/>
+      <c r="N38" s="139"/>
       <c r="O38" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8619,18 +8620,18 @@
       <c r="B39" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="224"/>
-      <c r="D39" s="224"/>
-      <c r="E39" s="223"/>
-      <c r="F39" s="223"/>
-      <c r="G39" s="223"/>
-      <c r="H39" s="224"/>
-      <c r="I39" s="223"/>
-      <c r="J39" s="223"/>
-      <c r="K39" s="223"/>
-      <c r="L39" s="223"/>
-      <c r="M39" s="223"/>
-      <c r="N39" s="223"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="139"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="139"/>
+      <c r="N39" s="139"/>
       <c r="O39" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8705,18 +8706,18 @@
       <c r="B40" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="224"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="223"/>
-      <c r="F40" s="223"/>
-      <c r="G40" s="223"/>
-      <c r="H40" s="224"/>
-      <c r="I40" s="223"/>
-      <c r="J40" s="223"/>
-      <c r="K40" s="223"/>
-      <c r="L40" s="223"/>
-      <c r="M40" s="223"/>
-      <c r="N40" s="223"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="139"/>
+      <c r="J40" s="139"/>
+      <c r="K40" s="139"/>
+      <c r="L40" s="139"/>
+      <c r="M40" s="139"/>
+      <c r="N40" s="139"/>
       <c r="O40" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8784,18 +8785,18 @@
       <c r="B41" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="224"/>
-      <c r="D41" s="224"/>
-      <c r="E41" s="223"/>
-      <c r="F41" s="223"/>
-      <c r="G41" s="223"/>
-      <c r="H41" s="224"/>
-      <c r="I41" s="223"/>
-      <c r="J41" s="223"/>
-      <c r="K41" s="223"/>
-      <c r="L41" s="223"/>
-      <c r="M41" s="223"/>
-      <c r="N41" s="223"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="139"/>
+      <c r="J41" s="139"/>
+      <c r="K41" s="139"/>
+      <c r="L41" s="139"/>
+      <c r="M41" s="139"/>
+      <c r="N41" s="139"/>
       <c r="O41" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8871,24 +8872,24 @@
       <c r="B42" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="224">
+      <c r="C42" s="140">
         <v>5</v>
       </c>
-      <c r="D42" s="224">
-        <v>20</v>
-      </c>
-      <c r="E42" s="223">
+      <c r="D42" s="140">
+        <v>20</v>
+      </c>
+      <c r="E42" s="139">
         <v>12.4</v>
       </c>
-      <c r="F42" s="223"/>
-      <c r="G42" s="223"/>
-      <c r="H42" s="224"/>
-      <c r="I42" s="223"/>
-      <c r="J42" s="223"/>
-      <c r="K42" s="223"/>
-      <c r="L42" s="223"/>
-      <c r="M42" s="223"/>
-      <c r="N42" s="223"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="139"/>
+      <c r="K42" s="139"/>
+      <c r="L42" s="139"/>
+      <c r="M42" s="139"/>
+      <c r="N42" s="139"/>
       <c r="O42" s="21">
         <f t="shared" si="2"/>
         <v>37.4</v>
@@ -8966,18 +8967,18 @@
       <c r="B43" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="224"/>
-      <c r="D43" s="224"/>
-      <c r="E43" s="223"/>
-      <c r="F43" s="223"/>
-      <c r="G43" s="223"/>
-      <c r="H43" s="224"/>
-      <c r="I43" s="223"/>
-      <c r="J43" s="223"/>
-      <c r="K43" s="223"/>
-      <c r="L43" s="223"/>
-      <c r="M43" s="223"/>
-      <c r="N43" s="223"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="139"/>
+      <c r="J43" s="139"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="139"/>
+      <c r="M43" s="139"/>
+      <c r="N43" s="139"/>
       <c r="O43" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9053,18 +9054,18 @@
       <c r="B44" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="224"/>
-      <c r="D44" s="224"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="223"/>
-      <c r="G44" s="223"/>
-      <c r="H44" s="224"/>
-      <c r="I44" s="223"/>
-      <c r="J44" s="223"/>
-      <c r="K44" s="223"/>
-      <c r="L44" s="223"/>
-      <c r="M44" s="223"/>
-      <c r="N44" s="223"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="139"/>
+      <c r="J44" s="139"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="139"/>
+      <c r="M44" s="139"/>
+      <c r="N44" s="139"/>
       <c r="O44" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9140,20 +9141,20 @@
       <c r="B45" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="224"/>
-      <c r="D45" s="224">
+      <c r="C45" s="140"/>
+      <c r="D45" s="140">
         <v>5</v>
       </c>
-      <c r="E45" s="223"/>
-      <c r="F45" s="223"/>
-      <c r="G45" s="223"/>
-      <c r="H45" s="224"/>
-      <c r="I45" s="223"/>
-      <c r="J45" s="223"/>
-      <c r="K45" s="223"/>
-      <c r="L45" s="223"/>
-      <c r="M45" s="223"/>
-      <c r="N45" s="223"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="139"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="139"/>
+      <c r="M45" s="139"/>
+      <c r="N45" s="139"/>
       <c r="O45" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -9229,18 +9230,18 @@
       <c r="B46" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="224"/>
-      <c r="D46" s="224"/>
-      <c r="E46" s="223"/>
-      <c r="F46" s="223"/>
-      <c r="G46" s="223"/>
-      <c r="H46" s="224"/>
-      <c r="I46" s="223"/>
-      <c r="J46" s="223"/>
-      <c r="K46" s="223"/>
-      <c r="L46" s="223"/>
-      <c r="M46" s="223"/>
-      <c r="N46" s="223"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="139"/>
+      <c r="J46" s="139"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="139"/>
+      <c r="N46" s="139"/>
       <c r="O46" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9308,20 +9309,20 @@
       <c r="B47" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="224"/>
-      <c r="D47" s="224"/>
-      <c r="E47" s="223"/>
-      <c r="F47" s="223">
+      <c r="C47" s="140"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="139">
         <v>5</v>
       </c>
-      <c r="G47" s="223"/>
-      <c r="H47" s="224"/>
-      <c r="I47" s="223"/>
-      <c r="J47" s="223"/>
-      <c r="K47" s="223"/>
-      <c r="L47" s="223"/>
-      <c r="M47" s="223"/>
-      <c r="N47" s="223"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="139"/>
+      <c r="J47" s="139"/>
+      <c r="K47" s="139"/>
+      <c r="L47" s="139"/>
+      <c r="M47" s="139"/>
+      <c r="N47" s="139"/>
       <c r="O47" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -9389,40 +9390,40 @@
       <c r="B48" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="225">
-        <v>20</v>
-      </c>
-      <c r="D48" s="225">
-        <v>20</v>
-      </c>
-      <c r="E48" s="225">
-        <v>20</v>
-      </c>
-      <c r="F48" s="225">
-        <v>20</v>
-      </c>
-      <c r="G48" s="225">
-        <v>20</v>
-      </c>
-      <c r="H48" s="225">
-        <v>20</v>
-      </c>
-      <c r="I48" s="225">
-        <v>20</v>
-      </c>
-      <c r="J48" s="225">
-        <v>20</v>
-      </c>
-      <c r="K48" s="225">
-        <v>20</v>
-      </c>
-      <c r="L48" s="225">
-        <v>20</v>
-      </c>
-      <c r="M48" s="225">
-        <v>20</v>
-      </c>
-      <c r="N48" s="225">
+      <c r="C48" s="141">
+        <v>20</v>
+      </c>
+      <c r="D48" s="141">
+        <v>20</v>
+      </c>
+      <c r="E48" s="141">
+        <v>20</v>
+      </c>
+      <c r="F48" s="141">
+        <v>20</v>
+      </c>
+      <c r="G48" s="141">
+        <v>20</v>
+      </c>
+      <c r="H48" s="141">
+        <v>20</v>
+      </c>
+      <c r="I48" s="141">
+        <v>20</v>
+      </c>
+      <c r="J48" s="141">
+        <v>20</v>
+      </c>
+      <c r="K48" s="141">
+        <v>20</v>
+      </c>
+      <c r="L48" s="141">
+        <v>20</v>
+      </c>
+      <c r="M48" s="141">
+        <v>20</v>
+      </c>
+      <c r="N48" s="141">
         <v>20</v>
       </c>
       <c r="O48" s="21">
@@ -9445,7 +9446,7 @@
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="T48" s="225" t="s">
+      <c r="T48" s="141" t="s">
         <v>207</v>
       </c>
       <c r="V48" s="71"/>
@@ -9486,26 +9487,26 @@
       <c r="B49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="180">
+      <c r="C49" s="130">
         <v>15</v>
       </c>
-      <c r="D49" s="180">
-        <v>20</v>
-      </c>
-      <c r="E49" s="180">
-        <v>20</v>
-      </c>
-      <c r="F49" s="180">
+      <c r="D49" s="130">
+        <v>20</v>
+      </c>
+      <c r="E49" s="130">
+        <v>20</v>
+      </c>
+      <c r="F49" s="130">
         <v>5</v>
       </c>
-      <c r="G49" s="180"/>
-      <c r="H49" s="180"/>
-      <c r="I49" s="180"/>
-      <c r="J49" s="180"/>
-      <c r="K49" s="180"/>
-      <c r="L49" s="180"/>
-      <c r="M49" s="180"/>
-      <c r="N49" s="180"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="130"/>
+      <c r="N49" s="130"/>
       <c r="O49" s="21">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -9530,10 +9531,10 @@
       <c r="V49" s="64"/>
       <c r="W49" s="64"/>
       <c r="X49" s="64"/>
-      <c r="Y49" s="161" t="s">
+      <c r="Y49" s="208" t="s">
         <v>145</v>
       </c>
-      <c r="Z49" s="162"/>
+      <c r="Z49" s="209"/>
       <c r="AA49" s="38">
         <f>SUM(AA9:AA21)</f>
         <v>20000</v>
@@ -9562,20 +9563,20 @@
       <c r="B50" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="180">
+      <c r="C50" s="130">
         <v>-5</v>
       </c>
-      <c r="D50" s="180"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="180"/>
-      <c r="G50" s="180"/>
-      <c r="H50" s="180"/>
-      <c r="I50" s="180"/>
-      <c r="J50" s="180"/>
-      <c r="K50" s="180"/>
-      <c r="L50" s="180"/>
-      <c r="M50" s="180"/>
-      <c r="N50" s="180"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="130"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="130"/>
+      <c r="N50" s="130"/>
       <c r="O50" s="21">
         <f t="shared" si="2"/>
         <v>-5</v>
@@ -9597,12 +9598,12 @@
         <v>NO</v>
       </c>
       <c r="T50" s="3"/>
-      <c r="AG50" s="165" t="s">
+      <c r="AG50" s="193" t="s">
         <v>172</v>
       </c>
-      <c r="AH50" s="165"/>
-      <c r="AI50" s="165"/>
-      <c r="AJ50" s="165"/>
+      <c r="AH50" s="193"/>
+      <c r="AI50" s="193"/>
+      <c r="AJ50" s="193"/>
       <c r="AK50" s="89">
         <v>3087000</v>
       </c>
@@ -9615,22 +9616,22 @@
       <c r="B51" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="180">
-        <v>20</v>
-      </c>
-      <c r="D51" s="180">
+      <c r="C51" s="130">
+        <v>20</v>
+      </c>
+      <c r="D51" s="130">
         <v>10</v>
       </c>
-      <c r="E51" s="180"/>
-      <c r="F51" s="180"/>
-      <c r="G51" s="180"/>
-      <c r="H51" s="180"/>
-      <c r="I51" s="180"/>
-      <c r="J51" s="180"/>
-      <c r="K51" s="180"/>
-      <c r="L51" s="180"/>
-      <c r="M51" s="180"/>
-      <c r="N51" s="180"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="130"/>
+      <c r="K51" s="130"/>
+      <c r="L51" s="130"/>
+      <c r="M51" s="130"/>
+      <c r="N51" s="130"/>
       <c r="O51" s="21">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -9659,12 +9660,12 @@
       <c r="AC51" s="44"/>
       <c r="AD51" s="44"/>
       <c r="AE51" s="44"/>
-      <c r="AG51" s="169" t="s">
+      <c r="AG51" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="AH51" s="170"/>
-      <c r="AI51" s="170"/>
-      <c r="AJ51" s="171"/>
+      <c r="AH51" s="198"/>
+      <c r="AI51" s="198"/>
+      <c r="AJ51" s="199"/>
       <c r="AK51" s="101">
         <v>3077000</v>
       </c>
@@ -9677,20 +9678,20 @@
       <c r="B52" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="180">
+      <c r="C52" s="130">
         <v>5</v>
       </c>
-      <c r="D52" s="180"/>
-      <c r="E52" s="180"/>
-      <c r="F52" s="180"/>
-      <c r="G52" s="180"/>
-      <c r="H52" s="180"/>
-      <c r="I52" s="180"/>
-      <c r="J52" s="180"/>
-      <c r="K52" s="180"/>
-      <c r="L52" s="180"/>
-      <c r="M52" s="180"/>
-      <c r="N52" s="180"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="130"/>
+      <c r="K52" s="130"/>
+      <c r="L52" s="130"/>
+      <c r="M52" s="130"/>
+      <c r="N52" s="130"/>
       <c r="O52" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -9720,12 +9721,12 @@
       <c r="AD52" s="44"/>
       <c r="AE52" s="44"/>
       <c r="AF52" s="44"/>
-      <c r="AG52" s="166" t="s">
+      <c r="AG52" s="194" t="s">
         <v>181</v>
       </c>
-      <c r="AH52" s="167"/>
-      <c r="AI52" s="167"/>
-      <c r="AJ52" s="168"/>
+      <c r="AH52" s="195"/>
+      <c r="AI52" s="195"/>
+      <c r="AJ52" s="196"/>
       <c r="AK52" s="105">
         <v>2550000</v>
       </c>
@@ -9738,30 +9739,30 @@
       <c r="B53" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C53" s="180">
-        <v>20</v>
-      </c>
-      <c r="D53" s="180">
-        <v>20</v>
-      </c>
-      <c r="E53" s="180">
-        <v>20</v>
-      </c>
-      <c r="F53" s="180">
-        <v>20</v>
-      </c>
-      <c r="G53" s="180">
-        <v>20</v>
-      </c>
-      <c r="H53" s="180">
-        <v>20</v>
-      </c>
-      <c r="I53" s="180"/>
-      <c r="J53" s="180"/>
-      <c r="K53" s="180"/>
-      <c r="L53" s="180"/>
-      <c r="M53" s="180"/>
-      <c r="N53" s="180"/>
+      <c r="C53" s="130">
+        <v>20</v>
+      </c>
+      <c r="D53" s="130">
+        <v>20</v>
+      </c>
+      <c r="E53" s="130">
+        <v>20</v>
+      </c>
+      <c r="F53" s="130">
+        <v>20</v>
+      </c>
+      <c r="G53" s="130">
+        <v>20</v>
+      </c>
+      <c r="H53" s="130">
+        <v>20</v>
+      </c>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="130"/>
       <c r="O53" s="21">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -9814,20 +9815,20 @@
       <c r="B54" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="180">
+      <c r="C54" s="130">
         <v>5</v>
       </c>
-      <c r="D54" s="180"/>
-      <c r="E54" s="180"/>
-      <c r="F54" s="180"/>
-      <c r="G54" s="180"/>
-      <c r="H54" s="180"/>
-      <c r="I54" s="180"/>
-      <c r="J54" s="180"/>
-      <c r="K54" s="180"/>
-      <c r="L54" s="180"/>
-      <c r="M54" s="180"/>
-      <c r="N54" s="180"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="130"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="130"/>
+      <c r="N54" s="130"/>
       <c r="O54" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -9849,9 +9850,9 @@
         <v>NO</v>
       </c>
       <c r="T54" s="3"/>
-      <c r="Z54" s="183"/>
-      <c r="AA54" s="183"/>
-      <c r="AB54" s="183"/>
+      <c r="Z54" s="133"/>
+      <c r="AA54" s="133"/>
+      <c r="AB54" s="133"/>
       <c r="AG54" s="106" t="s">
         <v>118</v>
       </c>
@@ -9875,18 +9876,18 @@
       <c r="B55" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="180"/>
-      <c r="D55" s="180"/>
-      <c r="E55" s="180"/>
-      <c r="F55" s="180"/>
-      <c r="G55" s="180"/>
-      <c r="H55" s="180"/>
-      <c r="I55" s="180"/>
-      <c r="J55" s="180"/>
-      <c r="K55" s="180"/>
-      <c r="L55" s="180"/>
-      <c r="M55" s="180"/>
-      <c r="N55" s="180"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="130"/>
+      <c r="K55" s="130"/>
+      <c r="L55" s="130"/>
+      <c r="M55" s="130"/>
+      <c r="N55" s="130"/>
       <c r="O55" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9908,9 +9909,9 @@
         <v>NO</v>
       </c>
       <c r="T55" s="3"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="184"/>
+      <c r="Z55" s="134"/>
+      <c r="AA55" s="134"/>
+      <c r="AB55" s="134"/>
       <c r="AG55" s="109" t="s">
         <v>180</v>
       </c>
@@ -9926,18 +9927,18 @@
     <row r="56" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="180"/>
-      <c r="D56" s="180"/>
-      <c r="E56" s="180"/>
-      <c r="F56" s="180"/>
-      <c r="G56" s="180"/>
-      <c r="H56" s="180"/>
-      <c r="I56" s="180"/>
-      <c r="J56" s="180"/>
-      <c r="K56" s="180"/>
-      <c r="L56" s="180"/>
-      <c r="M56" s="180"/>
-      <c r="N56" s="180"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+      <c r="K56" s="130"/>
+      <c r="L56" s="130"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="130"/>
       <c r="O56" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9959,14 +9960,14 @@
         <v>NO</v>
       </c>
       <c r="T56" s="3"/>
-      <c r="AA56" s="176"/>
-      <c r="AB56" s="176"/>
-      <c r="AG56" s="169" t="s">
+      <c r="AA56" s="184"/>
+      <c r="AB56" s="184"/>
+      <c r="AG56" s="197" t="s">
         <v>179</v>
       </c>
-      <c r="AH56" s="170"/>
-      <c r="AI56" s="170"/>
-      <c r="AJ56" s="171"/>
+      <c r="AH56" s="198"/>
+      <c r="AI56" s="198"/>
+      <c r="AJ56" s="199"/>
       <c r="AK56" s="90">
         <f>AK55</f>
         <v>2627000</v>
@@ -9977,18 +9978,18 @@
     <row r="57" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="180"/>
-      <c r="D57" s="180"/>
-      <c r="E57" s="180"/>
-      <c r="F57" s="180"/>
-      <c r="G57" s="180"/>
-      <c r="H57" s="180"/>
-      <c r="I57" s="180"/>
-      <c r="J57" s="180"/>
-      <c r="K57" s="180"/>
-      <c r="L57" s="180"/>
-      <c r="M57" s="180"/>
-      <c r="N57" s="180"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="130"/>
+      <c r="L57" s="130"/>
+      <c r="M57" s="130"/>
+      <c r="N57" s="130"/>
       <c r="O57" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10010,12 +10011,12 @@
         <v>NO</v>
       </c>
       <c r="T57" s="3"/>
-      <c r="AG57" s="165" t="s">
+      <c r="AG57" s="193" t="s">
         <v>171</v>
       </c>
-      <c r="AH57" s="165"/>
-      <c r="AI57" s="165"/>
-      <c r="AJ57" s="165"/>
+      <c r="AH57" s="193"/>
+      <c r="AI57" s="193"/>
+      <c r="AJ57" s="193"/>
       <c r="AK57" s="116">
         <f>AK51-AK56</f>
         <v>450000</v>
@@ -10026,18 +10027,18 @@
     <row r="58" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="180"/>
-      <c r="D58" s="180"/>
-      <c r="E58" s="180"/>
-      <c r="F58" s="180"/>
-      <c r="G58" s="180"/>
-      <c r="H58" s="180"/>
-      <c r="I58" s="180"/>
-      <c r="J58" s="180"/>
-      <c r="K58" s="180"/>
-      <c r="L58" s="180"/>
-      <c r="M58" s="180"/>
-      <c r="N58" s="180"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="130"/>
+      <c r="I58" s="130"/>
+      <c r="J58" s="130"/>
+      <c r="K58" s="130"/>
+      <c r="L58" s="130"/>
+      <c r="M58" s="130"/>
+      <c r="N58" s="130"/>
       <c r="O58" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10065,18 +10066,18 @@
     <row r="59" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="180"/>
-      <c r="D59" s="180"/>
-      <c r="E59" s="180"/>
-      <c r="F59" s="180"/>
-      <c r="G59" s="180"/>
-      <c r="H59" s="180"/>
-      <c r="I59" s="180"/>
-      <c r="J59" s="180"/>
-      <c r="K59" s="180"/>
-      <c r="L59" s="180"/>
-      <c r="M59" s="180"/>
-      <c r="N59" s="180"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
+      <c r="J59" s="130"/>
+      <c r="K59" s="130"/>
+      <c r="L59" s="130"/>
+      <c r="M59" s="130"/>
+      <c r="N59" s="130"/>
       <c r="O59" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10104,18 +10105,18 @@
     <row r="60" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="180"/>
-      <c r="D60" s="180"/>
-      <c r="E60" s="180"/>
-      <c r="F60" s="180"/>
-      <c r="G60" s="180"/>
-      <c r="H60" s="180"/>
-      <c r="I60" s="180"/>
-      <c r="J60" s="180"/>
-      <c r="K60" s="180"/>
-      <c r="L60" s="180"/>
-      <c r="M60" s="180"/>
-      <c r="N60" s="180"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="130"/>
+      <c r="K60" s="130"/>
+      <c r="L60" s="130"/>
+      <c r="M60" s="130"/>
+      <c r="N60" s="130"/>
       <c r="O60" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10142,18 +10143,18 @@
     <row r="61" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="180"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="180"/>
-      <c r="F61" s="180"/>
-      <c r="G61" s="180"/>
-      <c r="H61" s="180"/>
-      <c r="I61" s="180"/>
-      <c r="J61" s="180"/>
-      <c r="K61" s="180"/>
-      <c r="L61" s="180"/>
-      <c r="M61" s="180"/>
-      <c r="N61" s="180"/>
+      <c r="C61" s="130"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="130"/>
+      <c r="K61" s="130"/>
+      <c r="L61" s="130"/>
+      <c r="M61" s="130"/>
+      <c r="N61" s="130"/>
       <c r="O61" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10179,18 +10180,18 @@
     <row r="62" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="180"/>
-      <c r="D62" s="180"/>
-      <c r="E62" s="180"/>
-      <c r="F62" s="180"/>
-      <c r="G62" s="180"/>
-      <c r="H62" s="180"/>
-      <c r="I62" s="180"/>
-      <c r="J62" s="180"/>
-      <c r="K62" s="180"/>
-      <c r="L62" s="180"/>
-      <c r="M62" s="180"/>
-      <c r="N62" s="180"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
+      <c r="J62" s="130"/>
+      <c r="K62" s="130"/>
+      <c r="L62" s="130"/>
+      <c r="M62" s="130"/>
+      <c r="N62" s="130"/>
       <c r="O62" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10216,18 +10217,18 @@
     <row r="63" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="180"/>
-      <c r="D63" s="180"/>
-      <c r="E63" s="180"/>
-      <c r="F63" s="180"/>
-      <c r="G63" s="180"/>
-      <c r="H63" s="180"/>
-      <c r="I63" s="180"/>
-      <c r="J63" s="180"/>
-      <c r="K63" s="180"/>
-      <c r="L63" s="180"/>
-      <c r="M63" s="180"/>
-      <c r="N63" s="180"/>
+      <c r="C63" s="130"/>
+      <c r="D63" s="130"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="130"/>
+      <c r="G63" s="130"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="130"/>
+      <c r="J63" s="130"/>
+      <c r="K63" s="130"/>
+      <c r="L63" s="130"/>
+      <c r="M63" s="130"/>
+      <c r="N63" s="130"/>
       <c r="O63" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10252,41 +10253,41 @@
     </row>
     <row r="64" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T65" s="185" t="s">
+      <c r="T65" s="168" t="s">
         <v>200</v>
       </c>
-      <c r="U65" s="186"/>
-      <c r="V65" s="186"/>
-      <c r="W65" s="186"/>
+      <c r="U65" s="169"/>
+      <c r="V65" s="169"/>
+      <c r="W65" s="169"/>
     </row>
     <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="153" t="s">
+      <c r="C66" s="200" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="154"/>
-      <c r="E66" s="154"/>
-      <c r="F66" s="154"/>
-      <c r="G66" s="155"/>
-      <c r="I66" s="164" t="s">
+      <c r="D66" s="201"/>
+      <c r="E66" s="201"/>
+      <c r="F66" s="201"/>
+      <c r="G66" s="202"/>
+      <c r="I66" s="210" t="s">
         <v>183</v>
       </c>
-      <c r="J66" s="164"/>
-      <c r="K66" s="164"/>
-      <c r="L66" s="164"/>
-      <c r="M66" s="164"/>
-      <c r="O66" s="198" t="s">
+      <c r="J66" s="210"/>
+      <c r="K66" s="210"/>
+      <c r="L66" s="210"/>
+      <c r="M66" s="210"/>
+      <c r="O66" s="211" t="s">
         <v>198</v>
       </c>
-      <c r="P66" s="199"/>
-      <c r="Q66" s="199"/>
-      <c r="R66" s="200">
+      <c r="P66" s="212"/>
+      <c r="Q66" s="212"/>
+      <c r="R66" s="136">
         <v>1400000</v>
       </c>
       <c r="S66" s="64"/>
-      <c r="T66" s="185" t="s">
+      <c r="T66" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="U66" s="185"/>
+      <c r="U66" s="168"/>
       <c r="V66" s="187">
         <f>R67</f>
         <v>1478000</v>
@@ -10294,28 +10295,28 @@
       <c r="W66" s="187"/>
     </row>
     <row r="67" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="156"/>
-      <c r="D67" s="157"/>
-      <c r="E67" s="157"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="158"/>
-      <c r="I67" s="164"/>
-      <c r="J67" s="164"/>
-      <c r="K67" s="164"/>
-      <c r="L67" s="164"/>
-      <c r="M67" s="164"/>
-      <c r="O67" s="201" t="s">
+      <c r="C67" s="203"/>
+      <c r="D67" s="204"/>
+      <c r="E67" s="204"/>
+      <c r="F67" s="204"/>
+      <c r="G67" s="205"/>
+      <c r="I67" s="210"/>
+      <c r="J67" s="210"/>
+      <c r="K67" s="210"/>
+      <c r="L67" s="210"/>
+      <c r="M67" s="210"/>
+      <c r="O67" s="213" t="s">
         <v>199</v>
       </c>
-      <c r="P67" s="197"/>
-      <c r="Q67" s="197"/>
-      <c r="R67" s="202">
+      <c r="P67" s="214"/>
+      <c r="Q67" s="214"/>
+      <c r="R67" s="137">
         <v>1478000</v>
       </c>
-      <c r="T67" s="186" t="s">
+      <c r="T67" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="U67" s="186"/>
+      <c r="U67" s="169"/>
       <c r="V67" s="188">
         <f>Pengeluaran!F30</f>
         <v>750000</v>
@@ -10323,19 +10324,19 @@
       <c r="W67" s="189"/>
     </row>
     <row r="68" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O68" s="194" t="s">
+      <c r="O68" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="P68" s="195"/>
-      <c r="Q68" s="195"/>
-      <c r="R68" s="196">
+      <c r="P68" s="186"/>
+      <c r="Q68" s="186"/>
+      <c r="R68" s="135">
         <f>V69</f>
         <v>850000</v>
       </c>
-      <c r="T68" s="186" t="s">
+      <c r="T68" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="U68" s="186"/>
+      <c r="U68" s="169"/>
       <c r="V68" s="190">
         <f>Pemasukkan!F31</f>
         <v>122000</v>
@@ -10343,63 +10344,63 @@
       <c r="W68" s="191"/>
     </row>
     <row r="69" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T69" s="185" t="s">
+      <c r="T69" s="168" t="s">
         <v>196</v>
       </c>
-      <c r="U69" s="186"/>
-      <c r="V69" s="192">
+      <c r="U69" s="169"/>
+      <c r="V69" s="178">
         <f>(V66-V67)+V68</f>
         <v>850000</v>
       </c>
-      <c r="W69" s="193"/>
+      <c r="W69" s="179"/>
     </row>
     <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="212" t="s">
+      <c r="A70" s="180" t="s">
         <v>201</v>
       </c>
-      <c r="B70" s="228"/>
-      <c r="C70" s="213" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="228"/>
-      <c r="E70" s="228"/>
-      <c r="F70" s="228"/>
-      <c r="G70" s="228"/>
-      <c r="H70" s="228"/>
-      <c r="I70" s="228"/>
-      <c r="J70" s="229"/>
+      <c r="B70" s="181"/>
+      <c r="C70" s="182" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="181"/>
+      <c r="E70" s="181"/>
+      <c r="F70" s="181"/>
+      <c r="G70" s="181"/>
+      <c r="H70" s="181"/>
+      <c r="I70" s="181"/>
+      <c r="J70" s="183"/>
     </row>
     <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="205" t="s">
+      <c r="A71" s="177" t="s">
         <v>202</v>
       </c>
-      <c r="B71" s="186"/>
-      <c r="C71" s="185" t="s">
+      <c r="B71" s="169"/>
+      <c r="C71" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="D71" s="186"/>
-      <c r="E71" s="186"/>
-      <c r="F71" s="186"/>
-      <c r="G71" s="186"/>
-      <c r="H71" s="186"/>
-      <c r="I71" s="186"/>
-      <c r="J71" s="230"/>
+      <c r="D71" s="169"/>
+      <c r="E71" s="169"/>
+      <c r="F71" s="169"/>
+      <c r="G71" s="169"/>
+      <c r="H71" s="169"/>
+      <c r="I71" s="169"/>
+      <c r="J71" s="170"/>
     </row>
     <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="205" t="s">
+      <c r="A72" s="177" t="s">
         <v>203</v>
       </c>
-      <c r="B72" s="186"/>
-      <c r="C72" s="226" t="s">
+      <c r="B72" s="169"/>
+      <c r="C72" s="171" t="s">
         <v>205</v>
       </c>
-      <c r="D72" s="226"/>
-      <c r="E72" s="226"/>
-      <c r="F72" s="226"/>
-      <c r="G72" s="226"/>
-      <c r="H72" s="226"/>
-      <c r="I72" s="226"/>
-      <c r="J72" s="231"/>
+      <c r="D72" s="171"/>
+      <c r="E72" s="171"/>
+      <c r="F72" s="171"/>
+      <c r="G72" s="171"/>
+      <c r="H72" s="171"/>
+      <c r="I72" s="171"/>
+      <c r="J72" s="172"/>
       <c r="K72" s="119"/>
       <c r="L72" s="119"/>
       <c r="M72" s="119"/>
@@ -10409,16 +10410,16 @@
       <c r="Q72" s="119"/>
     </row>
     <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="207"/>
-      <c r="B73" s="186"/>
-      <c r="C73" s="186"/>
-      <c r="D73" s="186"/>
-      <c r="E73" s="186"/>
-      <c r="F73" s="186"/>
-      <c r="G73" s="186"/>
-      <c r="H73" s="186"/>
-      <c r="I73" s="186"/>
-      <c r="J73" s="230"/>
+      <c r="A73" s="176"/>
+      <c r="B73" s="169"/>
+      <c r="C73" s="169"/>
+      <c r="D73" s="169"/>
+      <c r="E73" s="169"/>
+      <c r="F73" s="169"/>
+      <c r="G73" s="169"/>
+      <c r="H73" s="169"/>
+      <c r="I73" s="169"/>
+      <c r="J73" s="170"/>
       <c r="K73" s="119"/>
       <c r="L73" s="119"/>
       <c r="M73" s="119"/>
@@ -10428,16 +10429,16 @@
       <c r="Q73" s="119"/>
     </row>
     <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="207"/>
-      <c r="B74" s="186"/>
-      <c r="C74" s="227"/>
-      <c r="D74" s="227"/>
-      <c r="E74" s="227"/>
-      <c r="F74" s="227"/>
-      <c r="G74" s="227"/>
-      <c r="H74" s="227"/>
-      <c r="I74" s="227"/>
-      <c r="J74" s="232"/>
+      <c r="A74" s="176"/>
+      <c r="B74" s="169"/>
+      <c r="C74" s="173"/>
+      <c r="D74" s="173"/>
+      <c r="E74" s="173"/>
+      <c r="F74" s="173"/>
+      <c r="G74" s="173"/>
+      <c r="H74" s="173"/>
+      <c r="I74" s="173"/>
+      <c r="J74" s="174"/>
       <c r="K74" s="118"/>
       <c r="L74" s="118"/>
       <c r="M74" s="118"/>
@@ -10447,16 +10448,16 @@
       <c r="Q74" s="118"/>
     </row>
     <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="207"/>
-      <c r="B75" s="186"/>
-      <c r="C75" s="186"/>
-      <c r="D75" s="186"/>
-      <c r="E75" s="186"/>
-      <c r="F75" s="186"/>
-      <c r="G75" s="186"/>
-      <c r="H75" s="186"/>
-      <c r="I75" s="186"/>
-      <c r="J75" s="230"/>
+      <c r="A75" s="176"/>
+      <c r="B75" s="169"/>
+      <c r="C75" s="169"/>
+      <c r="D75" s="169"/>
+      <c r="E75" s="169"/>
+      <c r="F75" s="169"/>
+      <c r="G75" s="169"/>
+      <c r="H75" s="169"/>
+      <c r="I75" s="169"/>
+      <c r="J75" s="170"/>
       <c r="K75" s="113"/>
       <c r="L75" s="113"/>
       <c r="M75" s="113"/>
@@ -10466,16 +10467,16 @@
       <c r="Q75" s="113"/>
     </row>
     <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="207"/>
-      <c r="B76" s="186"/>
-      <c r="C76" s="227"/>
-      <c r="D76" s="227"/>
-      <c r="E76" s="227"/>
-      <c r="F76" s="227"/>
-      <c r="G76" s="227"/>
-      <c r="H76" s="227"/>
-      <c r="I76" s="227"/>
-      <c r="J76" s="232"/>
+      <c r="A76" s="176"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="173"/>
+      <c r="D76" s="173"/>
+      <c r="E76" s="173"/>
+      <c r="F76" s="173"/>
+      <c r="G76" s="173"/>
+      <c r="H76" s="173"/>
+      <c r="I76" s="173"/>
+      <c r="J76" s="174"/>
       <c r="K76" s="113"/>
       <c r="L76" s="113"/>
       <c r="M76" s="113"/>
@@ -10485,16 +10486,16 @@
       <c r="Q76" s="113"/>
     </row>
     <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="207"/>
-      <c r="B77" s="186"/>
-      <c r="C77" s="186"/>
-      <c r="D77" s="186"/>
-      <c r="E77" s="186"/>
-      <c r="F77" s="186"/>
-      <c r="G77" s="186"/>
-      <c r="H77" s="186"/>
-      <c r="I77" s="186"/>
-      <c r="J77" s="230"/>
+      <c r="A77" s="176"/>
+      <c r="B77" s="169"/>
+      <c r="C77" s="169"/>
+      <c r="D77" s="169"/>
+      <c r="E77" s="169"/>
+      <c r="F77" s="169"/>
+      <c r="G77" s="169"/>
+      <c r="H77" s="169"/>
+      <c r="I77" s="169"/>
+      <c r="J77" s="170"/>
       <c r="K77" s="113"/>
       <c r="L77" s="113"/>
       <c r="M77" s="113"/>
@@ -10504,16 +10505,16 @@
       <c r="Q77" s="113"/>
     </row>
     <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="207"/>
-      <c r="B78" s="186"/>
-      <c r="C78" s="227"/>
-      <c r="D78" s="227"/>
-      <c r="E78" s="227"/>
-      <c r="F78" s="227"/>
-      <c r="G78" s="227"/>
-      <c r="H78" s="227"/>
-      <c r="I78" s="227"/>
-      <c r="J78" s="232"/>
+      <c r="A78" s="176"/>
+      <c r="B78" s="169"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
+      <c r="E78" s="173"/>
+      <c r="F78" s="173"/>
+      <c r="G78" s="173"/>
+      <c r="H78" s="173"/>
+      <c r="I78" s="173"/>
+      <c r="J78" s="174"/>
       <c r="K78" s="113"/>
       <c r="L78" s="113"/>
       <c r="M78" s="113"/>
@@ -10523,16 +10524,16 @@
       <c r="Q78" s="113"/>
     </row>
     <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="207"/>
-      <c r="B79" s="186"/>
-      <c r="C79" s="186"/>
-      <c r="D79" s="186"/>
-      <c r="E79" s="186"/>
-      <c r="F79" s="186"/>
-      <c r="G79" s="186"/>
-      <c r="H79" s="186"/>
-      <c r="I79" s="186"/>
-      <c r="J79" s="230"/>
+      <c r="A79" s="176"/>
+      <c r="B79" s="169"/>
+      <c r="C79" s="169"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="169"/>
+      <c r="F79" s="169"/>
+      <c r="G79" s="169"/>
+      <c r="H79" s="169"/>
+      <c r="I79" s="169"/>
+      <c r="J79" s="170"/>
       <c r="K79" s="113"/>
       <c r="L79" s="113"/>
       <c r="M79" s="113"/>
@@ -10542,16 +10543,16 @@
       <c r="Q79" s="113"/>
     </row>
     <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="207"/>
-      <c r="B80" s="186"/>
-      <c r="C80" s="227"/>
-      <c r="D80" s="227"/>
-      <c r="E80" s="227"/>
-      <c r="F80" s="227"/>
-      <c r="G80" s="227"/>
-      <c r="H80" s="227"/>
-      <c r="I80" s="227"/>
-      <c r="J80" s="232"/>
+      <c r="A80" s="176"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
+      <c r="E80" s="173"/>
+      <c r="F80" s="173"/>
+      <c r="G80" s="173"/>
+      <c r="H80" s="173"/>
+      <c r="I80" s="173"/>
+      <c r="J80" s="174"/>
       <c r="K80" s="113"/>
       <c r="L80" s="113"/>
       <c r="M80" s="113"/>
@@ -10561,16 +10562,16 @@
       <c r="Q80" s="113"/>
     </row>
     <row r="81" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="209"/>
-      <c r="B81" s="210"/>
-      <c r="C81" s="210"/>
-      <c r="D81" s="210"/>
-      <c r="E81" s="210"/>
-      <c r="F81" s="210"/>
-      <c r="G81" s="210"/>
-      <c r="H81" s="210"/>
-      <c r="I81" s="210"/>
-      <c r="J81" s="211"/>
+      <c r="A81" s="166"/>
+      <c r="B81" s="167"/>
+      <c r="C81" s="167"/>
+      <c r="D81" s="167"/>
+      <c r="E81" s="167"/>
+      <c r="F81" s="167"/>
+      <c r="G81" s="167"/>
+      <c r="H81" s="167"/>
+      <c r="I81" s="167"/>
+      <c r="J81" s="175"/>
       <c r="K81" s="113"/>
       <c r="L81" s="113"/>
       <c r="M81" s="113"/>
@@ -10954,7 +10955,44 @@
     <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="52">
+    <mergeCell ref="C2:R3"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AL7"/>
+    <mergeCell ref="V5:AL5"/>
+    <mergeCell ref="X6:AL6"/>
+    <mergeCell ref="AG57:AJ57"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AA56:AB56"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="T65:W65"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C66:G67"/>
+    <mergeCell ref="I66:M67"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="C71:J71"/>
     <mergeCell ref="C72:J72"/>
@@ -10971,42 +11009,6 @@
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="T65:W65"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="AA56:AB56"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="AB7:AL7"/>
-    <mergeCell ref="V5:AL5"/>
-    <mergeCell ref="X6:AL6"/>
-    <mergeCell ref="AG57:AJ57"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="C66:G67"/>
-    <mergeCell ref="C2:R3"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="I66:M67"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="O67:Q67"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:T63">
     <cfRule type="expression" dxfId="7" priority="3">
@@ -11077,28 +11079,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="215" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="122" t="s">
@@ -11319,48 +11321,48 @@
     </row>
     <row r="28" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="212" t="s">
+      <c r="D29" s="180" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="213"/>
-      <c r="F29" s="214">
+      <c r="E29" s="182"/>
+      <c r="F29" s="217">
         <f>'2019'!R67</f>
         <v>1478000</v>
       </c>
-      <c r="G29" s="215"/>
+      <c r="G29" s="218"/>
     </row>
     <row r="30" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="207" t="s">
+      <c r="D30" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="186"/>
+      <c r="E30" s="169"/>
       <c r="F30" s="188">
         <f>F27</f>
         <v>750000</v>
       </c>
-      <c r="G30" s="206"/>
+      <c r="G30" s="223"/>
     </row>
     <row r="31" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="207" t="s">
+      <c r="D31" s="176" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="186"/>
+      <c r="E31" s="169"/>
       <c r="F31" s="190">
         <f>Pemasukkan!F27</f>
         <v>122000</v>
       </c>
-      <c r="G31" s="208"/>
+      <c r="G31" s="224"/>
     </row>
     <row r="32" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="216" t="s">
+      <c r="D32" s="219" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="217"/>
-      <c r="F32" s="218">
+      <c r="E32" s="220"/>
+      <c r="F32" s="221">
         <f>'2019'!R68</f>
         <v>850000</v>
       </c>
-      <c r="G32" s="219"/>
+      <c r="G32" s="222"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11551,6 +11553,7 @@
     <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="D29:E29"/>
@@ -11591,28 +11594,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="225" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="122" t="s">
@@ -11641,10 +11644,10 @@
       <c r="E7" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="F7" s="179">
+      <c r="F7" s="129">
         <v>122000</v>
       </c>
-      <c r="G7" s="181" t="s">
+      <c r="G7" s="131" t="s">
         <v>194</v>
       </c>
     </row>
@@ -11654,7 +11657,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="179"/>
+      <c r="F8" s="129"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11663,7 +11666,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="179"/>
+      <c r="F9" s="129"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11672,7 +11675,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="179"/>
+      <c r="F10" s="129"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11681,7 +11684,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="179"/>
+      <c r="F11" s="129"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11690,7 +11693,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="179"/>
+      <c r="F12" s="129"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11699,7 +11702,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="179"/>
+      <c r="F13" s="129"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11708,7 +11711,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="179"/>
+      <c r="F14" s="129"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11717,7 +11720,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="179"/>
+      <c r="F15" s="129"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11726,7 +11729,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="179"/>
+      <c r="F16" s="129"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11735,7 +11738,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="179"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11744,7 +11747,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="179"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11753,7 +11756,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="179"/>
+      <c r="F19" s="129"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11762,7 +11765,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="179"/>
+      <c r="F20" s="129"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11771,7 +11774,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="179"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11780,7 +11783,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="179"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11789,7 +11792,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="179"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11798,7 +11801,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="179"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11807,7 +11810,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="179"/>
+      <c r="F25" s="129"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11816,7 +11819,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="52"/>
-      <c r="F26" s="182"/>
+      <c r="F26" s="132"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11833,48 +11836,48 @@
     </row>
     <row r="28" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="198" t="s">
+      <c r="D29" s="211" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="199"/>
-      <c r="F29" s="203">
+      <c r="E29" s="212"/>
+      <c r="F29" s="227">
         <f>'2019'!R67</f>
         <v>1478000</v>
       </c>
-      <c r="G29" s="204"/>
+      <c r="G29" s="228"/>
     </row>
     <row r="30" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="205" t="s">
+      <c r="D30" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="186"/>
+      <c r="E30" s="169"/>
       <c r="F30" s="188">
         <f>Pengeluaran!F30</f>
         <v>750000</v>
       </c>
-      <c r="G30" s="206"/>
+      <c r="G30" s="223"/>
     </row>
     <row r="31" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="207" t="s">
+      <c r="D31" s="176" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="186"/>
+      <c r="E31" s="169"/>
       <c r="F31" s="190">
         <f>F27</f>
         <v>122000</v>
       </c>
-      <c r="G31" s="208"/>
+      <c r="G31" s="224"/>
     </row>
     <row r="32" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="216" t="s">
+      <c r="D32" s="219" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="217"/>
-      <c r="F32" s="220">
+      <c r="E32" s="220"/>
+      <c r="F32" s="229">
         <f>'2019'!R68</f>
         <v>850000</v>
       </c>
-      <c r="G32" s="221"/>
+      <c r="G32" s="230"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12065,16 +12068,17 @@
     <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -12097,17 +12101,17 @@
     <row r="3" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="73"/>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="231" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="173"/>
+      <c r="D4" s="232"/>
       <c r="E4" s="74"/>
       <c r="F4" s="80"/>
       <c r="G4" s="81"/>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="231" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="173"/>
+      <c r="I4" s="232"/>
       <c r="J4" s="82"/>
       <c r="K4" s="74"/>
     </row>
@@ -12234,17 +12238,17 @@
     <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="73"/>
-      <c r="C17" s="172" t="s">
+      <c r="C17" s="231" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="173"/>
+      <c r="D17" s="232"/>
       <c r="E17" s="74"/>
       <c r="F17" s="73"/>
       <c r="G17" s="82"/>
-      <c r="H17" s="172" t="s">
+      <c r="H17" s="231" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="173"/>
+      <c r="I17" s="232"/>
       <c r="J17" s="82"/>
       <c r="K17" s="74"/>
     </row>
@@ -12369,6 +12373,7 @@
       <c r="K27" s="79"/>
     </row>
   </sheetData>
+  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="H4:I4"/>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="221">
   <si>
     <t>LAPORAN KEUANGAN KAS GAS</t>
   </si>
@@ -678,6 +678,9 @@
   </si>
   <si>
     <t>Kekurangan 2018 + 2019-Juli</t>
+  </si>
+  <si>
+    <t>Simpanan 10k</t>
   </si>
 </sst>
 </file>
@@ -2029,29 +2032,131 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="24" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="24" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="24" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="24" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="24" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="24" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="24" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="24" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2067,7 +2172,133 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2082,81 +2313,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2172,54 +2334,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2274,117 +2388,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="24" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="24" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="24" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="24" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="24" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="24" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="24" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="24" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3199,126 +3202,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
+      <c r="A1" s="221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="222"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="222"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="184"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="184"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="185"/>
+      <c r="A3" s="223"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="224"/>
+      <c r="O3" s="224"/>
+      <c r="P3" s="224"/>
+      <c r="Q3" s="224"/>
+      <c r="R3" s="224"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="184"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="185"/>
+      <c r="A4" s="223"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="224"/>
+      <c r="N4" s="224"/>
+      <c r="O4" s="224"/>
+      <c r="P4" s="224"/>
+      <c r="Q4" s="224"/>
+      <c r="R4" s="224"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="184"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="185"/>
-      <c r="L5" s="185"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="185"/>
-      <c r="P5" s="185"/>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="185"/>
+      <c r="A5" s="223"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="224"/>
+      <c r="O5" s="224"/>
+      <c r="P5" s="224"/>
+      <c r="Q5" s="224"/>
+      <c r="R5" s="224"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="184"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="185"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="185"/>
-      <c r="O6" s="185"/>
-      <c r="P6" s="185"/>
-      <c r="Q6" s="185"/>
-      <c r="R6" s="185"/>
+      <c r="A6" s="223"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
+      <c r="I6" s="224"/>
+      <c r="J6" s="224"/>
+      <c r="K6" s="224"/>
+      <c r="L6" s="224"/>
+      <c r="M6" s="224"/>
+      <c r="N6" s="224"/>
+      <c r="O6" s="224"/>
+      <c r="P6" s="224"/>
+      <c r="Q6" s="224"/>
+      <c r="R6" s="224"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="97" t="s">
@@ -6263,58 +6266,58 @@
     <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J79" s="187" t="s">
+      <c r="J79" s="229" t="s">
         <v>65</v>
       </c>
-      <c r="K79" s="188"/>
-      <c r="L79" s="188"/>
-      <c r="M79" s="188"/>
-      <c r="N79" s="189"/>
-      <c r="P79" s="195" t="s">
+      <c r="K79" s="230"/>
+      <c r="L79" s="230"/>
+      <c r="M79" s="230"/>
+      <c r="N79" s="231"/>
+      <c r="P79" s="237" t="s">
         <v>66</v>
       </c>
-      <c r="Q79" s="188"/>
-      <c r="R79" s="188"/>
-      <c r="S79" s="189"/>
+      <c r="Q79" s="230"/>
+      <c r="R79" s="230"/>
+      <c r="S79" s="231"/>
     </row>
     <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J80" s="190" t="s">
+      <c r="J80" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="K80" s="185"/>
-      <c r="L80" s="185"/>
-      <c r="M80" s="185"/>
-      <c r="N80" s="191"/>
-      <c r="P80" s="190" t="s">
+      <c r="K80" s="224"/>
+      <c r="L80" s="224"/>
+      <c r="M80" s="224"/>
+      <c r="N80" s="233"/>
+      <c r="P80" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="Q80" s="185"/>
-      <c r="R80" s="185"/>
-      <c r="S80" s="191"/>
+      <c r="Q80" s="224"/>
+      <c r="R80" s="224"/>
+      <c r="S80" s="233"/>
     </row>
     <row r="81" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J81" s="192"/>
-      <c r="K81" s="193"/>
-      <c r="L81" s="193"/>
-      <c r="M81" s="193"/>
-      <c r="N81" s="194"/>
-      <c r="P81" s="192"/>
-      <c r="Q81" s="193"/>
-      <c r="R81" s="193"/>
-      <c r="S81" s="194"/>
+      <c r="J81" s="234"/>
+      <c r="K81" s="235"/>
+      <c r="L81" s="235"/>
+      <c r="M81" s="235"/>
+      <c r="N81" s="236"/>
+      <c r="P81" s="234"/>
+      <c r="Q81" s="235"/>
+      <c r="R81" s="235"/>
+      <c r="S81" s="236"/>
     </row>
     <row r="82" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J82" s="186" t="s">
+      <c r="J82" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="K82" s="177"/>
-      <c r="L82" s="178"/>
-      <c r="M82" s="186" t="s">
+      <c r="K82" s="228"/>
+      <c r="L82" s="226"/>
+      <c r="M82" s="227" t="s">
         <v>69</v>
       </c>
-      <c r="N82" s="178"/>
-      <c r="P82" s="186"/>
-      <c r="Q82" s="178"/>
+      <c r="N82" s="226"/>
+      <c r="P82" s="227"/>
+      <c r="Q82" s="226"/>
       <c r="R82" s="4" t="s">
         <v>19</v>
       </c>
@@ -6323,38 +6326,38 @@
       </c>
     </row>
     <row r="83" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J83" s="176" t="s">
+      <c r="J83" s="238" t="s">
         <v>70</v>
       </c>
-      <c r="K83" s="177"/>
-      <c r="L83" s="178"/>
-      <c r="M83" s="179">
+      <c r="K83" s="228"/>
+      <c r="L83" s="226"/>
+      <c r="M83" s="239">
         <v>7350000</v>
       </c>
-      <c r="N83" s="178"/>
-      <c r="P83" s="180" t="s">
+      <c r="N83" s="226"/>
+      <c r="P83" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="Q83" s="178"/>
+      <c r="Q83" s="226"/>
       <c r="R83" s="5"/>
       <c r="S83" s="6">
         <v>40000</v>
       </c>
     </row>
     <row r="84" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J84" s="176" t="s">
+      <c r="J84" s="238" t="s">
         <v>72</v>
       </c>
-      <c r="K84" s="177"/>
-      <c r="L84" s="178"/>
-      <c r="M84" s="181">
+      <c r="K84" s="228"/>
+      <c r="L84" s="226"/>
+      <c r="M84" s="240">
         <v>1100000</v>
       </c>
-      <c r="N84" s="178"/>
-      <c r="P84" s="180" t="s">
+      <c r="N84" s="226"/>
+      <c r="P84" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="Q84" s="178"/>
+      <c r="Q84" s="226"/>
       <c r="R84" s="7" t="s">
         <v>74</v>
       </c>
@@ -6363,39 +6366,39 @@
       </c>
     </row>
     <row r="85" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J85" s="176" t="s">
+      <c r="J85" s="238" t="s">
         <v>75</v>
       </c>
-      <c r="K85" s="177"/>
-      <c r="L85" s="178"/>
-      <c r="M85" s="179">
+      <c r="K85" s="228"/>
+      <c r="L85" s="226"/>
+      <c r="M85" s="239">
         <f>M83+M84</f>
         <v>8450000</v>
       </c>
-      <c r="N85" s="178"/>
-      <c r="P85" s="180" t="s">
+      <c r="N85" s="226"/>
+      <c r="P85" s="225" t="s">
         <v>76</v>
       </c>
-      <c r="Q85" s="178"/>
+      <c r="Q85" s="226"/>
       <c r="R85" s="5"/>
       <c r="S85" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J86" s="176" t="s">
+      <c r="J86" s="238" t="s">
         <v>77</v>
       </c>
-      <c r="K86" s="177"/>
-      <c r="L86" s="178"/>
-      <c r="M86" s="179">
+      <c r="K86" s="228"/>
+      <c r="L86" s="226"/>
+      <c r="M86" s="239">
         <v>8411850</v>
       </c>
-      <c r="N86" s="178"/>
-      <c r="P86" s="180" t="s">
+      <c r="N86" s="226"/>
+      <c r="P86" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="Q86" s="178"/>
+      <c r="Q86" s="226"/>
       <c r="R86" s="5"/>
       <c r="S86" s="6">
         <f>S83-S84+S85</f>
@@ -6403,20 +6406,20 @@
       </c>
     </row>
     <row r="87" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J87" s="176" t="s">
+      <c r="J87" s="238" t="s">
         <v>79</v>
       </c>
-      <c r="K87" s="177"/>
-      <c r="L87" s="178"/>
-      <c r="M87" s="179">
+      <c r="K87" s="228"/>
+      <c r="L87" s="226"/>
+      <c r="M87" s="239">
         <f>M85-M86</f>
         <v>38150</v>
       </c>
-      <c r="N87" s="178"/>
-      <c r="P87" s="180" t="s">
+      <c r="N87" s="226"/>
+      <c r="P87" s="225" t="s">
         <v>80</v>
       </c>
-      <c r="Q87" s="178"/>
+      <c r="Q87" s="226"/>
       <c r="R87" s="5"/>
       <c r="S87" s="6">
         <f>M87+S86</f>
@@ -6605,6 +6608,17 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="23">
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="M84:N84"/>
     <mergeCell ref="A1:R6"/>
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="J82:L82"/>
@@ -6617,17 +6631,6 @@
     <mergeCell ref="P83:Q83"/>
     <mergeCell ref="P82:Q82"/>
     <mergeCell ref="P80:S81"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P86:Q86"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T52">
     <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
@@ -6661,8 +6664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BM260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:T3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6704,46 +6707,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="281" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="222"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="223"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="222"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="184"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="185"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="224"/>
+      <c r="O3" s="224"/>
+      <c r="P3" s="224"/>
+      <c r="Q3" s="224"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="224"/>
+      <c r="T3" s="224"/>
       <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6826,25 +6829,25 @@
       <c r="V5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="203" t="s">
+      <c r="X5" s="272" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="177"/>
-      <c r="Z5" s="177"/>
-      <c r="AA5" s="177"/>
-      <c r="AB5" s="177"/>
-      <c r="AC5" s="177"/>
-      <c r="AD5" s="177"/>
-      <c r="AE5" s="177"/>
-      <c r="AF5" s="177"/>
-      <c r="AG5" s="177"/>
-      <c r="AH5" s="177"/>
-      <c r="AI5" s="177"/>
-      <c r="AJ5" s="177"/>
-      <c r="AK5" s="177"/>
-      <c r="AL5" s="177"/>
-      <c r="AM5" s="177"/>
-      <c r="AN5" s="178"/>
+      <c r="Y5" s="228"/>
+      <c r="Z5" s="228"/>
+      <c r="AA5" s="228"/>
+      <c r="AB5" s="228"/>
+      <c r="AC5" s="228"/>
+      <c r="AD5" s="228"/>
+      <c r="AE5" s="228"/>
+      <c r="AF5" s="228"/>
+      <c r="AG5" s="228"/>
+      <c r="AH5" s="228"/>
+      <c r="AI5" s="228"/>
+      <c r="AJ5" s="228"/>
+      <c r="AK5" s="228"/>
+      <c r="AL5" s="228"/>
+      <c r="AM5" s="228"/>
+      <c r="AN5" s="226"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -6853,75 +6856,85 @@
       <c r="B6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="86"/>
+      <c r="C6" s="86">
+        <v>20</v>
+      </c>
       <c r="D6" s="86">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E6" s="86">
         <v>20</v>
       </c>
       <c r="F6" s="86">
-        <v>5</v>
-      </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+        <v>20</v>
+      </c>
+      <c r="G6" s="86">
+        <v>20</v>
+      </c>
+      <c r="H6" s="86">
+        <v>20</v>
+      </c>
+      <c r="I6" s="86">
+        <v>20</v>
+      </c>
+      <c r="J6" s="86">
+        <v>10</v>
+      </c>
       <c r="K6" s="86"/>
       <c r="L6" s="86"/>
       <c r="M6" s="86"/>
       <c r="N6" s="86"/>
       <c r="O6" s="14">
         <f t="shared" ref="O6:O37" si="0">SUM(C6:N6)</f>
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="P6" s="145">
         <v>0</v>
       </c>
       <c r="Q6" s="146">
         <f>(140-SUM(C6:I6))</f>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="R6" s="147">
         <f>Q6+P6</f>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" ref="S6:S37" si="1">(240)-(O6)</f>
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="T6" s="15">
         <f t="shared" ref="T6:T60" si="2">S6-60</f>
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="U6" s="16" t="str">
         <f t="shared" ref="U6:U60" si="3">IF(T6&lt;=0,"OK","NO")</f>
         <v>NO</v>
       </c>
       <c r="V6" s="14"/>
-      <c r="X6" s="198" t="s">
+      <c r="X6" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="198" t="s">
+      <c r="Y6" s="282" t="s">
         <v>85</v>
       </c>
-      <c r="Z6" s="203" t="s">
+      <c r="Z6" s="272" t="s">
         <v>86</v>
       </c>
-      <c r="AA6" s="177"/>
-      <c r="AB6" s="177"/>
-      <c r="AC6" s="177"/>
-      <c r="AD6" s="177"/>
-      <c r="AE6" s="177"/>
-      <c r="AF6" s="177"/>
-      <c r="AG6" s="177"/>
-      <c r="AH6" s="177"/>
-      <c r="AI6" s="177"/>
-      <c r="AJ6" s="177"/>
-      <c r="AK6" s="177"/>
-      <c r="AL6" s="177"/>
-      <c r="AM6" s="177"/>
-      <c r="AN6" s="178"/>
+      <c r="AA6" s="228"/>
+      <c r="AB6" s="228"/>
+      <c r="AC6" s="228"/>
+      <c r="AD6" s="228"/>
+      <c r="AE6" s="228"/>
+      <c r="AF6" s="228"/>
+      <c r="AG6" s="228"/>
+      <c r="AH6" s="228"/>
+      <c r="AI6" s="228"/>
+      <c r="AJ6" s="228"/>
+      <c r="AK6" s="228"/>
+      <c r="AL6" s="228"/>
+      <c r="AM6" s="228"/>
+      <c r="AN6" s="226"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
@@ -6930,17 +6943,27 @@
       <c r="B7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="87">
+        <v>20</v>
+      </c>
       <c r="D7" s="87">
-        <v>5</v>
-      </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86">
-        <v>5</v>
-      </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="86"/>
+        <v>20</v>
+      </c>
+      <c r="E7" s="87">
+        <v>20</v>
+      </c>
+      <c r="F7" s="87">
+        <v>20</v>
+      </c>
+      <c r="G7" s="87">
+        <v>20</v>
+      </c>
+      <c r="H7" s="87">
+        <v>20</v>
+      </c>
+      <c r="I7" s="87">
+        <v>20</v>
+      </c>
       <c r="J7" s="86"/>
       <c r="K7" s="86"/>
       <c r="L7" s="86"/>
@@ -6948,53 +6971,53 @@
       <c r="N7" s="86"/>
       <c r="O7" s="14">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="P7" s="145">
         <v>0</v>
       </c>
       <c r="Q7" s="146">
         <f t="shared" ref="Q7:Q60" si="4">140-SUM(C7:I7)</f>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="R7" s="147">
         <f t="shared" ref="R7:R60" si="5">Q7+P7</f>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S7" s="14">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="T7" s="15">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="U7" s="16" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="V7" s="14"/>
-      <c r="X7" s="199"/>
-      <c r="Y7" s="199"/>
-      <c r="Z7" s="203" t="s">
+      <c r="X7" s="283"/>
+      <c r="Y7" s="283"/>
+      <c r="Z7" s="272" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="178"/>
-      <c r="AD7" s="203" t="s">
+      <c r="AA7" s="228"/>
+      <c r="AB7" s="228"/>
+      <c r="AC7" s="226"/>
+      <c r="AD7" s="272" t="s">
         <v>88</v>
       </c>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="177"/>
-      <c r="AG7" s="177"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="177"/>
-      <c r="AJ7" s="177"/>
-      <c r="AK7" s="177"/>
-      <c r="AL7" s="177"/>
-      <c r="AM7" s="177"/>
-      <c r="AN7" s="178"/>
+      <c r="AE7" s="228"/>
+      <c r="AF7" s="228"/>
+      <c r="AG7" s="228"/>
+      <c r="AH7" s="228"/>
+      <c r="AI7" s="228"/>
+      <c r="AJ7" s="228"/>
+      <c r="AK7" s="228"/>
+      <c r="AL7" s="228"/>
+      <c r="AM7" s="228"/>
+      <c r="AN7" s="226"/>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -7044,8 +7067,8 @@
         <v>NO</v>
       </c>
       <c r="V8" s="14"/>
-      <c r="X8" s="200"/>
-      <c r="Y8" s="200"/>
+      <c r="X8" s="284"/>
+      <c r="Y8" s="284"/>
       <c r="Z8" s="3" t="s">
         <v>19</v>
       </c>
@@ -7186,103 +7209,103 @@
       </c>
       <c r="BM9" s="149"/>
     </row>
-    <row r="10" spans="1:65" s="276" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="267">
+    <row r="10" spans="1:65" s="185" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="176">
         <v>5</v>
       </c>
-      <c r="B10" s="268" t="s">
+      <c r="B10" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="269"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="270"/>
-      <c r="G10" s="270"/>
-      <c r="H10" s="269"/>
-      <c r="I10" s="270"/>
-      <c r="J10" s="270"/>
-      <c r="K10" s="270"/>
-      <c r="L10" s="270"/>
-      <c r="M10" s="270"/>
-      <c r="N10" s="270"/>
-      <c r="O10" s="271">
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="180">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="272">
+      <c r="P10" s="181">
         <f>'2018(NOT UPDATED)'!S14</f>
         <v>100</v>
       </c>
-      <c r="Q10" s="272">
+      <c r="Q10" s="181">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R10" s="273">
+      <c r="R10" s="182">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="S10" s="271">
+      <c r="S10" s="180">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="T10" s="274">
+      <c r="T10" s="183">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U10" s="275" t="str">
+      <c r="U10" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V10" s="271"/>
-      <c r="X10" s="277">
+      <c r="V10" s="180"/>
+      <c r="X10" s="186">
         <v>2</v>
       </c>
-      <c r="Y10" s="278" t="s">
+      <c r="Y10" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="Z10" s="279" t="s">
+      <c r="Z10" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="AA10" s="279" t="s">
+      <c r="AA10" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="AB10" s="279">
+      <c r="AB10" s="188">
         <v>1</v>
       </c>
-      <c r="AC10" s="280">
+      <c r="AC10" s="189">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="AD10" s="279" t="s">
+      <c r="AD10" s="188" t="s">
         <v>102</v>
       </c>
-      <c r="AE10" s="279"/>
-      <c r="AF10" s="278">
+      <c r="AE10" s="188"/>
+      <c r="AF10" s="187">
         <v>2018</v>
       </c>
-      <c r="AG10" s="279" t="s">
+      <c r="AG10" s="188" t="s">
         <v>103</v>
       </c>
-      <c r="AH10" s="281">
+      <c r="AH10" s="190">
         <v>0.85555555555555551</v>
       </c>
-      <c r="AI10" s="282" t="s">
+      <c r="AI10" s="191" t="s">
         <v>104</v>
       </c>
-      <c r="AJ10" s="279">
+      <c r="AJ10" s="188">
         <v>1</v>
       </c>
-      <c r="AK10" s="279" t="s">
+      <c r="AK10" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="AL10" s="283">
+      <c r="AL10" s="192">
         <v>100000</v>
       </c>
-      <c r="AM10" s="284">
+      <c r="AM10" s="193">
         <f t="shared" ref="AM10:AM48" si="8">IF(AD10="XXL", 82000*AJ10, IF(AD10="XXXL", 89000*AJ10, 75000*AJ10))</f>
         <v>82000</v>
       </c>
-      <c r="AN10" s="285">
+      <c r="AN10" s="194">
         <f t="shared" si="7"/>
         <v>18000</v>
       </c>
@@ -7407,287 +7430,287 @@
       <c r="BL11" s="149"/>
       <c r="BM11" s="149"/>
     </row>
-    <row r="12" spans="1:65" s="276" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="267">
+    <row r="12" spans="1:65" s="185" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="176">
         <v>7</v>
       </c>
-      <c r="B12" s="268" t="s">
+      <c r="B12" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="269"/>
-      <c r="D12" s="269"/>
-      <c r="E12" s="270"/>
-      <c r="F12" s="270"/>
-      <c r="G12" s="270"/>
-      <c r="H12" s="269"/>
-      <c r="I12" s="270"/>
-      <c r="J12" s="270"/>
-      <c r="K12" s="270"/>
-      <c r="L12" s="270"/>
-      <c r="M12" s="270"/>
-      <c r="N12" s="270"/>
-      <c r="O12" s="271">
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="179"/>
+      <c r="O12" s="180">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="272">
+      <c r="P12" s="181">
         <f>'2018(NOT UPDATED)'!S16</f>
         <v>90</v>
       </c>
-      <c r="Q12" s="272">
+      <c r="Q12" s="181">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R12" s="273">
+      <c r="R12" s="182">
         <f t="shared" si="5"/>
         <v>230</v>
       </c>
-      <c r="S12" s="271">
+      <c r="S12" s="180">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="T12" s="274">
+      <c r="T12" s="183">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U12" s="275" t="str">
+      <c r="U12" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V12" s="271"/>
-      <c r="X12" s="277">
+      <c r="V12" s="180"/>
+      <c r="X12" s="186">
         <v>4</v>
       </c>
-      <c r="Y12" s="278" t="s">
+      <c r="Y12" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="Z12" s="279"/>
-      <c r="AA12" s="279"/>
-      <c r="AB12" s="279"/>
-      <c r="AC12" s="280">
+      <c r="Z12" s="188"/>
+      <c r="AA12" s="188"/>
+      <c r="AB12" s="188"/>
+      <c r="AC12" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="279" t="s">
+      <c r="AD12" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="AE12" s="279"/>
-      <c r="AF12" s="278">
+      <c r="AE12" s="188"/>
+      <c r="AF12" s="187">
         <v>2016</v>
       </c>
-      <c r="AG12" s="286" t="s">
+      <c r="AG12" s="195" t="s">
         <v>165</v>
       </c>
-      <c r="AH12" s="281">
+      <c r="AH12" s="190">
         <v>0.625</v>
       </c>
-      <c r="AI12" s="287" t="s">
+      <c r="AI12" s="196" t="s">
         <v>171</v>
       </c>
-      <c r="AJ12" s="279">
+      <c r="AJ12" s="188">
         <v>1</v>
       </c>
-      <c r="AK12" s="288" t="s">
+      <c r="AK12" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="AL12" s="283">
+      <c r="AL12" s="192">
         <v>90000</v>
       </c>
-      <c r="AM12" s="284">
+      <c r="AM12" s="193">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN12" s="285">
+      <c r="AN12" s="194">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="13" spans="1:65" s="276" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="267">
+    <row r="13" spans="1:65" s="185" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="176">
         <v>8</v>
       </c>
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="269"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="269"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="270"/>
-      <c r="M13" s="270"/>
-      <c r="N13" s="270"/>
-      <c r="O13" s="271">
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="179"/>
+      <c r="N13" s="179"/>
+      <c r="O13" s="180">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="272">
+      <c r="P13" s="181">
         <f>'2018(NOT UPDATED)'!S17</f>
         <v>85</v>
       </c>
-      <c r="Q13" s="272">
+      <c r="Q13" s="181">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R13" s="273">
+      <c r="R13" s="182">
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="S13" s="271">
+      <c r="S13" s="180">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="T13" s="274">
+      <c r="T13" s="183">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U13" s="275" t="str">
+      <c r="U13" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V13" s="271"/>
-      <c r="X13" s="277">
+      <c r="V13" s="180"/>
+      <c r="X13" s="186">
         <v>5</v>
       </c>
-      <c r="Y13" s="278" t="s">
+      <c r="Y13" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="Z13" s="279"/>
-      <c r="AA13" s="279"/>
-      <c r="AB13" s="279"/>
-      <c r="AC13" s="280">
+      <c r="Z13" s="188"/>
+      <c r="AA13" s="188"/>
+      <c r="AB13" s="188"/>
+      <c r="AC13" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="279" t="s">
+      <c r="AD13" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="AE13" s="279"/>
-      <c r="AF13" s="278">
+      <c r="AE13" s="188"/>
+      <c r="AF13" s="187">
         <v>2017</v>
       </c>
-      <c r="AG13" s="286" t="s">
+      <c r="AG13" s="195" t="s">
         <v>165</v>
       </c>
-      <c r="AH13" s="281">
+      <c r="AH13" s="190">
         <v>0.625</v>
       </c>
-      <c r="AI13" s="287" t="s">
+      <c r="AI13" s="196" t="s">
         <v>172</v>
       </c>
-      <c r="AJ13" s="279">
+      <c r="AJ13" s="188">
         <v>1</v>
       </c>
-      <c r="AK13" s="288" t="s">
+      <c r="AK13" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="AL13" s="283">
+      <c r="AL13" s="192">
         <v>90000</v>
       </c>
-      <c r="AM13" s="284">
+      <c r="AM13" s="193">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN13" s="285">
+      <c r="AN13" s="194">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="14" spans="1:65" s="276" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="267">
+    <row r="14" spans="1:65" s="185" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="176">
         <v>9</v>
       </c>
-      <c r="B14" s="268" t="s">
+      <c r="B14" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="269"/>
-      <c r="D14" s="269"/>
-      <c r="E14" s="270"/>
-      <c r="F14" s="270"/>
-      <c r="G14" s="270"/>
-      <c r="H14" s="269"/>
-      <c r="I14" s="270"/>
-      <c r="J14" s="270"/>
-      <c r="K14" s="270"/>
-      <c r="L14" s="270"/>
-      <c r="M14" s="270"/>
-      <c r="N14" s="270"/>
-      <c r="O14" s="271">
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="179"/>
+      <c r="N14" s="179"/>
+      <c r="O14" s="180">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" s="272">
+      <c r="P14" s="181">
         <f>'2018(NOT UPDATED)'!S18</f>
         <v>120</v>
       </c>
-      <c r="Q14" s="272">
+      <c r="Q14" s="181">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R14" s="273">
+      <c r="R14" s="182">
         <f t="shared" si="5"/>
         <v>260</v>
       </c>
-      <c r="S14" s="271">
+      <c r="S14" s="180">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="T14" s="274">
+      <c r="T14" s="183">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U14" s="275" t="str">
+      <c r="U14" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V14" s="271"/>
-      <c r="X14" s="277">
+      <c r="V14" s="180"/>
+      <c r="X14" s="186">
         <v>6</v>
       </c>
-      <c r="Y14" s="278" t="s">
+      <c r="Y14" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="Z14" s="279"/>
-      <c r="AA14" s="279"/>
-      <c r="AB14" s="279"/>
-      <c r="AC14" s="280">
+      <c r="Z14" s="188"/>
+      <c r="AA14" s="188"/>
+      <c r="AB14" s="188"/>
+      <c r="AC14" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="279" t="s">
+      <c r="AD14" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="AE14" s="279"/>
-      <c r="AF14" s="278">
+      <c r="AE14" s="188"/>
+      <c r="AF14" s="187">
         <v>2017</v>
       </c>
-      <c r="AG14" s="289" t="s">
+      <c r="AG14" s="198" t="s">
         <v>156</v>
       </c>
-      <c r="AH14" s="281">
+      <c r="AH14" s="190">
         <v>0.76180555555555562</v>
       </c>
-      <c r="AI14" s="290" t="s">
+      <c r="AI14" s="199" t="s">
         <v>161</v>
       </c>
-      <c r="AJ14" s="279">
+      <c r="AJ14" s="188">
         <v>1</v>
       </c>
-      <c r="AK14" s="279" t="s">
+      <c r="AK14" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="AL14" s="283">
+      <c r="AL14" s="192">
         <v>90000</v>
       </c>
-      <c r="AM14" s="284">
+      <c r="AM14" s="193">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN14" s="285">
+      <c r="AN14" s="194">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -7813,89 +7836,89 @@
       <c r="BL15" s="149"/>
       <c r="BM15" s="149"/>
     </row>
-    <row r="16" spans="1:65" s="276" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="267">
+    <row r="16" spans="1:65" s="185" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="176">
         <v>11</v>
       </c>
-      <c r="B16" s="268" t="s">
+      <c r="B16" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="269"/>
-      <c r="D16" s="269"/>
-      <c r="E16" s="270"/>
-      <c r="F16" s="270"/>
-      <c r="G16" s="270"/>
-      <c r="H16" s="269"/>
-      <c r="I16" s="270"/>
-      <c r="J16" s="270"/>
-      <c r="K16" s="270"/>
-      <c r="L16" s="270"/>
-      <c r="M16" s="270"/>
-      <c r="N16" s="270"/>
-      <c r="O16" s="271">
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="179"/>
+      <c r="M16" s="179"/>
+      <c r="N16" s="179"/>
+      <c r="O16" s="180">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="272">
+      <c r="P16" s="181">
         <f>'2018(NOT UPDATED)'!S20</f>
         <v>80</v>
       </c>
-      <c r="Q16" s="272">
+      <c r="Q16" s="181">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R16" s="273">
+      <c r="R16" s="182">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="S16" s="271">
+      <c r="S16" s="180">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="T16" s="274">
+      <c r="T16" s="183">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U16" s="275" t="str">
+      <c r="U16" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V16" s="271"/>
-      <c r="X16" s="277">
+      <c r="V16" s="180"/>
+      <c r="X16" s="186">
         <v>8</v>
       </c>
-      <c r="Y16" s="278" t="s">
+      <c r="Y16" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="Z16" s="279"/>
-      <c r="AA16" s="279"/>
-      <c r="AB16" s="279"/>
-      <c r="AC16" s="280">
+      <c r="Z16" s="188"/>
+      <c r="AA16" s="188"/>
+      <c r="AB16" s="188"/>
+      <c r="AC16" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="279" t="s">
+      <c r="AD16" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="AE16" s="279"/>
-      <c r="AF16" s="278">
+      <c r="AE16" s="188"/>
+      <c r="AF16" s="187">
         <v>2016</v>
       </c>
-      <c r="AG16" s="289"/>
-      <c r="AH16" s="281"/>
-      <c r="AI16" s="282"/>
-      <c r="AJ16" s="279">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="279" t="s">
+      <c r="AG16" s="198"/>
+      <c r="AH16" s="190"/>
+      <c r="AI16" s="191"/>
+      <c r="AJ16" s="188">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="AL16" s="283"/>
-      <c r="AM16" s="284">
+      <c r="AL16" s="192"/>
+      <c r="AM16" s="193">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="285">
+      <c r="AN16" s="194">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -8150,285 +8173,285 @@
       <c r="BL18" s="149"/>
       <c r="BM18" s="149"/>
     </row>
-    <row r="19" spans="1:65" s="276" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="267">
+    <row r="19" spans="1:65" s="185" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="176">
         <v>14</v>
       </c>
-      <c r="B19" s="268" t="s">
+      <c r="B19" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="269"/>
-      <c r="D19" s="269"/>
-      <c r="E19" s="270"/>
-      <c r="F19" s="270"/>
-      <c r="G19" s="270"/>
-      <c r="H19" s="269"/>
-      <c r="I19" s="270"/>
-      <c r="J19" s="270"/>
-      <c r="K19" s="270"/>
-      <c r="L19" s="270"/>
-      <c r="M19" s="270"/>
-      <c r="N19" s="270"/>
-      <c r="O19" s="271">
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="179"/>
+      <c r="N19" s="179"/>
+      <c r="O19" s="180">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" s="272">
+      <c r="P19" s="181">
         <f>'2018(NOT UPDATED)'!S23</f>
         <v>120</v>
       </c>
-      <c r="Q19" s="272">
+      <c r="Q19" s="181">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R19" s="273">
+      <c r="R19" s="182">
         <f t="shared" si="5"/>
         <v>260</v>
       </c>
-      <c r="S19" s="271">
+      <c r="S19" s="180">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="T19" s="274">
+      <c r="T19" s="183">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U19" s="275" t="str">
+      <c r="U19" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V19" s="271"/>
-      <c r="X19" s="277">
+      <c r="V19" s="180"/>
+      <c r="X19" s="186">
         <v>11</v>
       </c>
-      <c r="Y19" s="278" t="s">
+      <c r="Y19" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="Z19" s="279"/>
-      <c r="AA19" s="279"/>
-      <c r="AB19" s="279"/>
-      <c r="AC19" s="280">
+      <c r="Z19" s="188"/>
+      <c r="AA19" s="188"/>
+      <c r="AB19" s="188"/>
+      <c r="AC19" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="279" t="s">
+      <c r="AD19" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="AE19" s="279"/>
-      <c r="AF19" s="278">
+      <c r="AE19" s="188"/>
+      <c r="AF19" s="187">
         <v>2017</v>
       </c>
-      <c r="AG19" s="289" t="s">
+      <c r="AG19" s="198" t="s">
         <v>146</v>
       </c>
-      <c r="AH19" s="281">
+      <c r="AH19" s="190">
         <v>0.84166666666666667</v>
       </c>
-      <c r="AI19" s="291" t="s">
+      <c r="AI19" s="200" t="s">
         <v>149</v>
       </c>
-      <c r="AJ19" s="279">
+      <c r="AJ19" s="188">
         <v>1</v>
       </c>
-      <c r="AK19" s="288" t="s">
+      <c r="AK19" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="AL19" s="283">
+      <c r="AL19" s="192">
         <v>100000</v>
       </c>
-      <c r="AM19" s="284">
+      <c r="AM19" s="193">
         <f t="shared" si="8"/>
         <v>89000</v>
       </c>
-      <c r="AN19" s="285">
+      <c r="AN19" s="194">
         <f t="shared" si="7"/>
         <v>11000</v>
       </c>
     </row>
-    <row r="20" spans="1:65" s="276" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="267">
+    <row r="20" spans="1:65" s="185" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="176">
         <v>15</v>
       </c>
-      <c r="B20" s="268" t="s">
+      <c r="B20" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="269">
+      <c r="C20" s="178">
         <v>5</v>
       </c>
-      <c r="D20" s="269">
+      <c r="D20" s="178">
         <v>5</v>
       </c>
-      <c r="E20" s="270"/>
-      <c r="F20" s="270"/>
-      <c r="G20" s="270"/>
-      <c r="H20" s="269"/>
-      <c r="I20" s="270"/>
-      <c r="J20" s="270"/>
-      <c r="K20" s="270"/>
-      <c r="L20" s="270"/>
-      <c r="M20" s="270"/>
-      <c r="N20" s="270"/>
-      <c r="O20" s="271">
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="179"/>
+      <c r="N20" s="179"/>
+      <c r="O20" s="180">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P20" s="272">
+      <c r="P20" s="181">
         <f>'2018(NOT UPDATED)'!S24</f>
         <v>80</v>
       </c>
-      <c r="Q20" s="272">
+      <c r="Q20" s="181">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="R20" s="273">
+      <c r="R20" s="182">
         <f t="shared" si="5"/>
         <v>210</v>
       </c>
-      <c r="S20" s="271">
+      <c r="S20" s="180">
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="T20" s="274">
+      <c r="T20" s="183">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="U20" s="275" t="str">
+      <c r="U20" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V20" s="271"/>
-      <c r="X20" s="277">
+      <c r="V20" s="180"/>
+      <c r="X20" s="186">
         <v>12</v>
       </c>
-      <c r="Y20" s="278" t="s">
+      <c r="Y20" s="187" t="s">
         <v>117</v>
       </c>
-      <c r="Z20" s="279"/>
-      <c r="AA20" s="279"/>
-      <c r="AB20" s="279"/>
-      <c r="AC20" s="280">
+      <c r="Z20" s="188"/>
+      <c r="AA20" s="188"/>
+      <c r="AB20" s="188"/>
+      <c r="AC20" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="279" t="s">
+      <c r="AD20" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="AE20" s="279"/>
-      <c r="AF20" s="278">
+      <c r="AE20" s="188"/>
+      <c r="AF20" s="187">
         <v>2016</v>
       </c>
-      <c r="AG20" s="289"/>
-      <c r="AH20" s="281"/>
-      <c r="AI20" s="282"/>
-      <c r="AJ20" s="279">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="279" t="s">
+      <c r="AG20" s="198"/>
+      <c r="AH20" s="190"/>
+      <c r="AI20" s="191"/>
+      <c r="AJ20" s="188">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="AL20" s="283"/>
-      <c r="AM20" s="284">
+      <c r="AL20" s="192"/>
+      <c r="AM20" s="193">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="285">
+      <c r="AN20" s="194">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:65" s="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="267">
+    <row r="21" spans="1:65" s="185" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="176">
         <v>16</v>
       </c>
-      <c r="B21" s="268" t="s">
+      <c r="B21" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="269"/>
-      <c r="D21" s="269">
+      <c r="C21" s="178"/>
+      <c r="D21" s="178">
         <v>5</v>
       </c>
-      <c r="E21" s="270"/>
-      <c r="F21" s="270"/>
-      <c r="G21" s="270"/>
-      <c r="H21" s="269"/>
-      <c r="I21" s="270"/>
-      <c r="J21" s="270"/>
-      <c r="K21" s="270"/>
-      <c r="L21" s="270"/>
-      <c r="M21" s="270"/>
-      <c r="N21" s="270"/>
-      <c r="O21" s="271">
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="179"/>
+      <c r="O21" s="180">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P21" s="272">
+      <c r="P21" s="181">
         <f>'2018(NOT UPDATED)'!S25</f>
         <v>120</v>
       </c>
-      <c r="Q21" s="272">
+      <c r="Q21" s="181">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="R21" s="273">
+      <c r="R21" s="182">
         <f t="shared" si="5"/>
         <v>255</v>
       </c>
-      <c r="S21" s="271">
+      <c r="S21" s="180">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="T21" s="274">
+      <c r="T21" s="183">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="U21" s="275" t="str">
+      <c r="U21" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V21" s="271"/>
-      <c r="X21" s="277">
+      <c r="V21" s="180"/>
+      <c r="X21" s="186">
         <v>13</v>
       </c>
-      <c r="Y21" s="278" t="s">
+      <c r="Y21" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="Z21" s="279"/>
-      <c r="AA21" s="279"/>
-      <c r="AB21" s="279"/>
-      <c r="AC21" s="280">
+      <c r="Z21" s="188"/>
+      <c r="AA21" s="188"/>
+      <c r="AB21" s="188"/>
+      <c r="AC21" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="279" t="s">
+      <c r="AD21" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="AE21" s="279"/>
-      <c r="AF21" s="278">
+      <c r="AE21" s="188"/>
+      <c r="AF21" s="187">
         <v>2011</v>
       </c>
-      <c r="AG21" s="279" t="s">
+      <c r="AG21" s="188" t="s">
         <v>103</v>
       </c>
-      <c r="AH21" s="281">
+      <c r="AH21" s="190">
         <v>0.95625000000000004</v>
       </c>
-      <c r="AI21" s="282" t="s">
+      <c r="AI21" s="191" t="s">
         <v>118</v>
       </c>
-      <c r="AJ21" s="279">
+      <c r="AJ21" s="188">
         <v>1</v>
       </c>
-      <c r="AK21" s="279" t="s">
+      <c r="AK21" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="AL21" s="283">
+      <c r="AL21" s="192">
         <v>90000</v>
       </c>
-      <c r="AM21" s="284">
+      <c r="AM21" s="193">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN21" s="285">
+      <c r="AN21" s="194">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -8554,192 +8577,192 @@
       <c r="BL22" s="149"/>
       <c r="BM22" s="149"/>
     </row>
-    <row r="23" spans="1:65" s="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="267">
+    <row r="23" spans="1:65" s="185" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="176">
         <v>18</v>
       </c>
-      <c r="B23" s="268" t="s">
+      <c r="B23" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="269"/>
-      <c r="D23" s="269"/>
-      <c r="E23" s="270"/>
-      <c r="F23" s="270"/>
-      <c r="G23" s="270"/>
-      <c r="H23" s="269"/>
-      <c r="I23" s="270"/>
-      <c r="J23" s="270"/>
-      <c r="K23" s="270"/>
-      <c r="L23" s="270"/>
-      <c r="M23" s="270"/>
-      <c r="N23" s="270"/>
-      <c r="O23" s="271">
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="179"/>
+      <c r="M23" s="179"/>
+      <c r="N23" s="179"/>
+      <c r="O23" s="180">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="272">
+      <c r="P23" s="181">
         <f>'2018(NOT UPDATED)'!S27</f>
         <v>100</v>
       </c>
-      <c r="Q23" s="272">
+      <c r="Q23" s="181">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R23" s="273">
+      <c r="R23" s="182">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="S23" s="271">
+      <c r="S23" s="180">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="T23" s="274">
+      <c r="T23" s="183">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U23" s="275" t="str">
+      <c r="U23" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V23" s="271"/>
-      <c r="X23" s="277">
+      <c r="V23" s="180"/>
+      <c r="X23" s="186">
         <v>15</v>
       </c>
-      <c r="Y23" s="278" t="s">
+      <c r="Y23" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="Z23" s="279"/>
-      <c r="AA23" s="279"/>
-      <c r="AB23" s="279"/>
-      <c r="AC23" s="280">
+      <c r="Z23" s="188"/>
+      <c r="AA23" s="188"/>
+      <c r="AB23" s="188"/>
+      <c r="AC23" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="279" t="s">
+      <c r="AD23" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="AE23" s="279"/>
-      <c r="AF23" s="278">
+      <c r="AE23" s="188"/>
+      <c r="AF23" s="187">
         <v>2017</v>
       </c>
-      <c r="AG23" s="289" t="s">
+      <c r="AG23" s="198" t="s">
         <v>156</v>
       </c>
-      <c r="AH23" s="281">
+      <c r="AH23" s="190">
         <v>0.38194444444444442</v>
       </c>
-      <c r="AI23" s="290" t="s">
+      <c r="AI23" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="AJ23" s="279">
+      <c r="AJ23" s="188">
         <v>1</v>
       </c>
-      <c r="AK23" s="279" t="s">
+      <c r="AK23" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="AL23" s="283">
+      <c r="AL23" s="192">
         <v>100000</v>
       </c>
-      <c r="AM23" s="284">
+      <c r="AM23" s="193">
         <f t="shared" si="8"/>
         <v>89000</v>
       </c>
-      <c r="AN23" s="285">
+      <c r="AN23" s="194">
         <f t="shared" si="7"/>
         <v>11000</v>
       </c>
     </row>
-    <row r="24" spans="1:65" s="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="267">
+    <row r="24" spans="1:65" s="185" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="176">
         <v>19</v>
       </c>
-      <c r="B24" s="268" t="s">
+      <c r="B24" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="269"/>
-      <c r="D24" s="269"/>
-      <c r="E24" s="270"/>
-      <c r="F24" s="270"/>
-      <c r="G24" s="270"/>
-      <c r="H24" s="269"/>
-      <c r="I24" s="270"/>
-      <c r="J24" s="270"/>
-      <c r="K24" s="270"/>
-      <c r="L24" s="270"/>
-      <c r="M24" s="270"/>
-      <c r="N24" s="270"/>
-      <c r="O24" s="271">
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="179"/>
+      <c r="M24" s="179"/>
+      <c r="N24" s="179"/>
+      <c r="O24" s="180">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="272">
+      <c r="P24" s="181">
         <f>'2018(NOT UPDATED)'!S28</f>
         <v>80</v>
       </c>
-      <c r="Q24" s="272">
+      <c r="Q24" s="181">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R24" s="273">
+      <c r="R24" s="182">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="S24" s="271">
+      <c r="S24" s="180">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="T24" s="274">
+      <c r="T24" s="183">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U24" s="275" t="str">
+      <c r="U24" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V24" s="271"/>
-      <c r="X24" s="277">
+      <c r="V24" s="180"/>
+      <c r="X24" s="186">
         <v>16</v>
       </c>
-      <c r="Y24" s="278" t="s">
+      <c r="Y24" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="Z24" s="279"/>
-      <c r="AA24" s="279"/>
-      <c r="AB24" s="279"/>
-      <c r="AC24" s="280">
+      <c r="Z24" s="188"/>
+      <c r="AA24" s="188"/>
+      <c r="AB24" s="188"/>
+      <c r="AC24" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="279" t="s">
+      <c r="AD24" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="AE24" s="279"/>
-      <c r="AF24" s="278">
+      <c r="AE24" s="188"/>
+      <c r="AF24" s="187">
         <v>2016</v>
       </c>
-      <c r="AG24" s="289" t="s">
+      <c r="AG24" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="AH24" s="281">
+      <c r="AH24" s="190">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AI24" s="282" t="s">
+      <c r="AI24" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="AJ24" s="279">
+      <c r="AJ24" s="188">
         <v>1</v>
       </c>
-      <c r="AK24" s="288" t="s">
+      <c r="AK24" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="AL24" s="283">
+      <c r="AL24" s="192">
         <v>90000</v>
       </c>
-      <c r="AM24" s="284">
+      <c r="AM24" s="193">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN24" s="285">
+      <c r="AN24" s="194">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -8873,16 +8896,26 @@
         <v>43</v>
       </c>
       <c r="C26" s="87">
-        <v>5</v>
-      </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86">
-        <v>5</v>
-      </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="86"/>
+        <v>20</v>
+      </c>
+      <c r="D26" s="87">
+        <v>20</v>
+      </c>
+      <c r="E26" s="87">
+        <v>20</v>
+      </c>
+      <c r="F26" s="87">
+        <v>20</v>
+      </c>
+      <c r="G26" s="87">
+        <v>20</v>
+      </c>
+      <c r="H26" s="87">
+        <v>20</v>
+      </c>
+      <c r="I26" s="87">
+        <v>20</v>
+      </c>
       <c r="J26" s="86"/>
       <c r="K26" s="86"/>
       <c r="L26" s="86"/>
@@ -8890,26 +8923,26 @@
       <c r="N26" s="86"/>
       <c r="O26" s="14">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="P26" s="145">
         <v>0</v>
       </c>
       <c r="Q26" s="146">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="R26" s="147">
         <f t="shared" si="5"/>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S26" s="14">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="T26" s="15">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="U26" s="16" t="str">
         <f t="shared" si="3"/>
@@ -9242,287 +9275,287 @@
       <c r="BL28" s="149"/>
       <c r="BM28" s="149"/>
     </row>
-    <row r="29" spans="1:65" s="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="267">
+    <row r="29" spans="1:65" s="185" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="176">
         <v>24</v>
       </c>
-      <c r="B29" s="268" t="s">
+      <c r="B29" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="269"/>
-      <c r="D29" s="269"/>
-      <c r="E29" s="270"/>
-      <c r="F29" s="270"/>
-      <c r="G29" s="270"/>
-      <c r="H29" s="269"/>
-      <c r="I29" s="270"/>
-      <c r="J29" s="270"/>
-      <c r="K29" s="270"/>
-      <c r="L29" s="270"/>
-      <c r="M29" s="270"/>
-      <c r="N29" s="270"/>
-      <c r="O29" s="271">
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="179"/>
+      <c r="L29" s="179"/>
+      <c r="M29" s="179"/>
+      <c r="N29" s="179"/>
+      <c r="O29" s="180">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P29" s="272">
+      <c r="P29" s="181">
         <f>'2018(NOT UPDATED)'!S33</f>
         <v>85</v>
       </c>
-      <c r="Q29" s="272">
+      <c r="Q29" s="181">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R29" s="273">
+      <c r="R29" s="182">
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="S29" s="271">
+      <c r="S29" s="180">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="T29" s="274">
+      <c r="T29" s="183">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U29" s="275" t="str">
+      <c r="U29" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V29" s="271"/>
-      <c r="X29" s="277">
+      <c r="V29" s="180"/>
+      <c r="X29" s="186">
         <v>21</v>
       </c>
-      <c r="Y29" s="278" t="s">
+      <c r="Y29" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="Z29" s="279"/>
-      <c r="AA29" s="279"/>
-      <c r="AB29" s="279"/>
-      <c r="AC29" s="280">
+      <c r="Z29" s="188"/>
+      <c r="AA29" s="188"/>
+      <c r="AB29" s="188"/>
+      <c r="AC29" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="279" t="s">
+      <c r="AD29" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="AE29" s="279"/>
-      <c r="AF29" s="278">
+      <c r="AE29" s="188"/>
+      <c r="AF29" s="187">
         <v>2014</v>
       </c>
-      <c r="AG29" s="289" t="s">
+      <c r="AG29" s="198" t="s">
         <v>156</v>
       </c>
-      <c r="AH29" s="281">
+      <c r="AH29" s="190">
         <v>0.35486111111111113</v>
       </c>
-      <c r="AI29" s="290" t="s">
+      <c r="AI29" s="199" t="s">
         <v>157</v>
       </c>
-      <c r="AJ29" s="279">
+      <c r="AJ29" s="188">
         <v>1</v>
       </c>
-      <c r="AK29" s="279" t="s">
+      <c r="AK29" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="AL29" s="283">
+      <c r="AL29" s="192">
         <v>90000</v>
       </c>
-      <c r="AM29" s="284">
+      <c r="AM29" s="193">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN29" s="285">
+      <c r="AN29" s="194">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="30" spans="1:65" s="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="267">
+    <row r="30" spans="1:65" s="185" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="176">
         <v>25</v>
       </c>
-      <c r="B30" s="268" t="s">
+      <c r="B30" s="177" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="269"/>
-      <c r="D30" s="269"/>
-      <c r="E30" s="270"/>
-      <c r="F30" s="270"/>
-      <c r="G30" s="270"/>
-      <c r="H30" s="269"/>
-      <c r="I30" s="270"/>
-      <c r="J30" s="270"/>
-      <c r="K30" s="270"/>
-      <c r="L30" s="270"/>
-      <c r="M30" s="270"/>
-      <c r="N30" s="270"/>
-      <c r="O30" s="271">
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="179"/>
+      <c r="M30" s="179"/>
+      <c r="N30" s="179"/>
+      <c r="O30" s="180">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="272">
+      <c r="P30" s="181">
         <f>'2018(NOT UPDATED)'!S34</f>
         <v>100</v>
       </c>
-      <c r="Q30" s="272">
+      <c r="Q30" s="181">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R30" s="273">
+      <c r="R30" s="182">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="S30" s="271">
+      <c r="S30" s="180">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="T30" s="274">
+      <c r="T30" s="183">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U30" s="275" t="str">
+      <c r="U30" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V30" s="271"/>
-      <c r="X30" s="277">
+      <c r="V30" s="180"/>
+      <c r="X30" s="186">
         <v>22</v>
       </c>
-      <c r="Y30" s="278" t="s">
+      <c r="Y30" s="187" t="s">
         <v>125</v>
       </c>
-      <c r="Z30" s="279"/>
-      <c r="AA30" s="279"/>
-      <c r="AB30" s="279"/>
-      <c r="AC30" s="280">
+      <c r="Z30" s="188"/>
+      <c r="AA30" s="188"/>
+      <c r="AB30" s="188"/>
+      <c r="AC30" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="279" t="s">
+      <c r="AD30" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="AE30" s="279"/>
-      <c r="AF30" s="278">
+      <c r="AE30" s="188"/>
+      <c r="AF30" s="187">
         <v>2013</v>
       </c>
-      <c r="AG30" s="279" t="s">
+      <c r="AG30" s="188" t="s">
         <v>103</v>
       </c>
-      <c r="AH30" s="281">
+      <c r="AH30" s="190">
         <v>0.95763888888888893</v>
       </c>
-      <c r="AI30" s="282" t="s">
+      <c r="AI30" s="191" t="s">
         <v>126</v>
       </c>
-      <c r="AJ30" s="279">
+      <c r="AJ30" s="188">
         <v>1</v>
       </c>
-      <c r="AK30" s="279" t="s">
+      <c r="AK30" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="AL30" s="283">
+      <c r="AL30" s="192">
         <v>90000</v>
       </c>
-      <c r="AM30" s="284">
+      <c r="AM30" s="193">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN30" s="285">
+      <c r="AN30" s="194">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="31" spans="1:65" s="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="267">
+    <row r="31" spans="1:65" s="185" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="176">
         <v>26</v>
       </c>
-      <c r="B31" s="268" t="s">
+      <c r="B31" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="269"/>
-      <c r="D31" s="269"/>
-      <c r="E31" s="270"/>
-      <c r="F31" s="270"/>
-      <c r="G31" s="270"/>
-      <c r="H31" s="269"/>
-      <c r="I31" s="270"/>
-      <c r="J31" s="270"/>
-      <c r="K31" s="270"/>
-      <c r="L31" s="270"/>
-      <c r="M31" s="270"/>
-      <c r="N31" s="270"/>
-      <c r="O31" s="271">
+      <c r="C31" s="178"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="179"/>
+      <c r="M31" s="179"/>
+      <c r="N31" s="179"/>
+      <c r="O31" s="180">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P31" s="272">
+      <c r="P31" s="181">
         <f>'2018(NOT UPDATED)'!S35</f>
         <v>80</v>
       </c>
-      <c r="Q31" s="272">
+      <c r="Q31" s="181">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R31" s="273">
+      <c r="R31" s="182">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="S31" s="271">
+      <c r="S31" s="180">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="T31" s="274">
+      <c r="T31" s="183">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U31" s="275" t="str">
+      <c r="U31" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V31" s="271"/>
-      <c r="X31" s="277">
+      <c r="V31" s="180"/>
+      <c r="X31" s="186">
         <v>23</v>
       </c>
-      <c r="Y31" s="278" t="s">
+      <c r="Y31" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="Z31" s="279"/>
-      <c r="AA31" s="279"/>
-      <c r="AB31" s="279"/>
-      <c r="AC31" s="280">
+      <c r="Z31" s="188"/>
+      <c r="AA31" s="188"/>
+      <c r="AB31" s="188"/>
+      <c r="AC31" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD31" s="279" t="s">
+      <c r="AD31" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="AE31" s="279"/>
-      <c r="AF31" s="278">
+      <c r="AE31" s="188"/>
+      <c r="AF31" s="187">
         <v>2017</v>
       </c>
-      <c r="AG31" s="289" t="s">
+      <c r="AG31" s="198" t="s">
         <v>146</v>
       </c>
-      <c r="AH31" s="281">
+      <c r="AH31" s="190">
         <v>0.4694444444444445</v>
       </c>
-      <c r="AI31" s="282" t="s">
+      <c r="AI31" s="191" t="s">
         <v>147</v>
       </c>
-      <c r="AJ31" s="279">
+      <c r="AJ31" s="188">
         <v>1</v>
       </c>
-      <c r="AK31" s="279" t="s">
+      <c r="AK31" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="AL31" s="283">
+      <c r="AL31" s="192">
         <v>90000</v>
       </c>
-      <c r="AM31" s="284">
+      <c r="AM31" s="193">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN31" s="285">
+      <c r="AN31" s="194">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -10150,194 +10183,194 @@
       <c r="BK36" s="149"/>
       <c r="BL36" s="149"/>
     </row>
-    <row r="37" spans="1:65" s="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="267">
+    <row r="37" spans="1:65" s="185" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="176">
         <v>32</v>
       </c>
-      <c r="B37" s="268" t="s">
+      <c r="B37" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="269"/>
-      <c r="D37" s="269"/>
-      <c r="E37" s="270"/>
-      <c r="F37" s="270">
+      <c r="C37" s="178"/>
+      <c r="D37" s="178"/>
+      <c r="E37" s="179"/>
+      <c r="F37" s="179">
         <v>5</v>
       </c>
-      <c r="G37" s="270"/>
-      <c r="H37" s="269"/>
-      <c r="I37" s="270"/>
-      <c r="J37" s="270"/>
-      <c r="K37" s="270"/>
-      <c r="L37" s="270"/>
-      <c r="M37" s="270"/>
-      <c r="N37" s="270"/>
-      <c r="O37" s="271">
+      <c r="G37" s="179"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="179"/>
+      <c r="K37" s="179"/>
+      <c r="L37" s="179"/>
+      <c r="M37" s="179"/>
+      <c r="N37" s="179"/>
+      <c r="O37" s="180">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P37" s="272">
+      <c r="P37" s="181">
         <f>'2018(NOT UPDATED)'!S41</f>
         <v>80</v>
       </c>
-      <c r="Q37" s="272">
+      <c r="Q37" s="181">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="R37" s="273">
+      <c r="R37" s="182">
         <f t="shared" si="5"/>
         <v>215</v>
       </c>
-      <c r="S37" s="271">
+      <c r="S37" s="180">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="T37" s="274">
+      <c r="T37" s="183">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="U37" s="275" t="str">
+      <c r="U37" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V37" s="271"/>
-      <c r="X37" s="277">
+      <c r="V37" s="180"/>
+      <c r="X37" s="186">
         <v>29</v>
       </c>
-      <c r="Y37" s="278" t="s">
+      <c r="Y37" s="187" t="s">
         <v>51</v>
       </c>
-      <c r="Z37" s="279"/>
-      <c r="AA37" s="279"/>
-      <c r="AB37" s="279"/>
-      <c r="AC37" s="280">
+      <c r="Z37" s="188"/>
+      <c r="AA37" s="188"/>
+      <c r="AB37" s="188"/>
+      <c r="AC37" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD37" s="279" t="s">
+      <c r="AD37" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="AE37" s="279"/>
-      <c r="AF37" s="278">
+      <c r="AE37" s="188"/>
+      <c r="AF37" s="187">
         <v>2017</v>
       </c>
-      <c r="AG37" s="289" t="s">
+      <c r="AG37" s="198" t="s">
         <v>156</v>
       </c>
-      <c r="AH37" s="281">
+      <c r="AH37" s="190">
         <v>0.95486111111111116</v>
       </c>
-      <c r="AI37" s="282" t="s">
+      <c r="AI37" s="191" t="s">
         <v>164</v>
       </c>
-      <c r="AJ37" s="279">
+      <c r="AJ37" s="188">
         <v>1</v>
       </c>
-      <c r="AK37" s="279" t="s">
+      <c r="AK37" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="AL37" s="283">
+      <c r="AL37" s="192">
         <v>90000</v>
       </c>
-      <c r="AM37" s="284">
+      <c r="AM37" s="193">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN37" s="285">
+      <c r="AN37" s="194">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="38" spans="1:65" s="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="267">
+    <row r="38" spans="1:65" s="185" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="176">
         <v>33</v>
       </c>
-      <c r="B38" s="268" t="s">
+      <c r="B38" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="269"/>
-      <c r="D38" s="269"/>
-      <c r="E38" s="270"/>
-      <c r="F38" s="270"/>
-      <c r="G38" s="270"/>
-      <c r="H38" s="269"/>
-      <c r="I38" s="270"/>
-      <c r="J38" s="270"/>
-      <c r="K38" s="270"/>
-      <c r="L38" s="270"/>
-      <c r="M38" s="270"/>
-      <c r="N38" s="270"/>
-      <c r="O38" s="271">
+      <c r="C38" s="178"/>
+      <c r="D38" s="178"/>
+      <c r="E38" s="179"/>
+      <c r="F38" s="179"/>
+      <c r="G38" s="179"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="179"/>
+      <c r="K38" s="179"/>
+      <c r="L38" s="179"/>
+      <c r="M38" s="179"/>
+      <c r="N38" s="179"/>
+      <c r="O38" s="180">
         <f t="shared" ref="O38:O60" si="9">SUM(C38:N38)</f>
         <v>0</v>
       </c>
-      <c r="P38" s="272">
+      <c r="P38" s="181">
         <f>'2018(NOT UPDATED)'!S42</f>
         <v>100</v>
       </c>
-      <c r="Q38" s="272">
+      <c r="Q38" s="181">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R38" s="273">
+      <c r="R38" s="182">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="S38" s="271">
+      <c r="S38" s="180">
         <f t="shared" ref="S38:S60" si="10">(240)-(O38)</f>
         <v>240</v>
       </c>
-      <c r="T38" s="274">
+      <c r="T38" s="183">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U38" s="275" t="str">
+      <c r="U38" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V38" s="271"/>
-      <c r="X38" s="277">
+      <c r="V38" s="180"/>
+      <c r="X38" s="186">
         <v>30</v>
       </c>
-      <c r="Y38" s="278" t="s">
+      <c r="Y38" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="Z38" s="279"/>
-      <c r="AA38" s="279"/>
-      <c r="AB38" s="279"/>
-      <c r="AC38" s="280">
+      <c r="Z38" s="188"/>
+      <c r="AA38" s="188"/>
+      <c r="AB38" s="188"/>
+      <c r="AC38" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD38" s="279" t="s">
+      <c r="AD38" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="AE38" s="279"/>
-      <c r="AF38" s="278">
+      <c r="AE38" s="188"/>
+      <c r="AF38" s="187">
         <v>2016</v>
       </c>
-      <c r="AG38" s="279" t="s">
+      <c r="AG38" s="188" t="s">
         <v>103</v>
       </c>
-      <c r="AH38" s="281">
+      <c r="AH38" s="190">
         <v>0.85416666666666663</v>
       </c>
-      <c r="AI38" s="282" t="s">
+      <c r="AI38" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="AJ38" s="279">
+      <c r="AJ38" s="188">
         <v>1</v>
       </c>
-      <c r="AK38" s="279" t="s">
+      <c r="AK38" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="AL38" s="283">
+      <c r="AL38" s="192">
         <v>90000</v>
       </c>
-      <c r="AM38" s="284">
+      <c r="AM38" s="193">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN38" s="285">
+      <c r="AN38" s="194">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -10467,40 +10500,56 @@
       <c r="B40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
+      <c r="C40" s="87">
+        <v>20</v>
+      </c>
+      <c r="D40" s="87">
+        <v>20</v>
+      </c>
+      <c r="E40" s="87">
+        <v>20</v>
+      </c>
+      <c r="F40" s="87">
+        <v>20</v>
+      </c>
+      <c r="G40" s="87">
+        <v>20</v>
+      </c>
+      <c r="H40" s="87">
+        <v>20</v>
+      </c>
+      <c r="I40" s="87">
+        <v>20</v>
+      </c>
+      <c r="J40" s="86">
+        <v>10</v>
+      </c>
       <c r="K40" s="86"/>
       <c r="L40" s="86"/>
       <c r="M40" s="86"/>
       <c r="N40" s="86"/>
       <c r="O40" s="14">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="P40" s="145">
         <v>0</v>
       </c>
       <c r="Q40" s="146">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R40" s="147">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S40" s="14">
         <f t="shared" si="10"/>
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="T40" s="15">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="U40" s="16" t="str">
         <f t="shared" si="3"/>
@@ -10826,13 +10875,27 @@
       <c r="B43" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="86"/>
+      <c r="C43" s="87">
+        <v>20</v>
+      </c>
+      <c r="D43" s="87">
+        <v>20</v>
+      </c>
+      <c r="E43" s="87">
+        <v>20</v>
+      </c>
+      <c r="F43" s="87">
+        <v>20</v>
+      </c>
+      <c r="G43" s="87">
+        <v>20</v>
+      </c>
+      <c r="H43" s="87">
+        <v>20</v>
+      </c>
+      <c r="I43" s="87">
+        <v>20</v>
+      </c>
       <c r="J43" s="86"/>
       <c r="K43" s="86"/>
       <c r="L43" s="86"/>
@@ -10840,32 +10903,34 @@
       <c r="N43" s="86"/>
       <c r="O43" s="14">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="P43" s="145">
         <v>0</v>
       </c>
       <c r="Q43" s="146">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R43" s="147">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S43" s="14">
         <f t="shared" si="10"/>
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="T43" s="15">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="U43" s="16" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V43" s="14"/>
+      <c r="V43" s="14" t="s">
+        <v>220</v>
+      </c>
       <c r="W43" s="149"/>
       <c r="X43" s="150">
         <v>35</v>
@@ -10938,97 +11003,97 @@
       <c r="BK43" s="149"/>
       <c r="BL43" s="149"/>
     </row>
-    <row r="44" spans="1:65" s="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="267">
+    <row r="44" spans="1:65" s="185" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="176">
         <v>39</v>
       </c>
-      <c r="B44" s="268" t="s">
+      <c r="B44" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="269"/>
-      <c r="D44" s="269"/>
-      <c r="E44" s="270"/>
-      <c r="F44" s="270"/>
-      <c r="G44" s="270"/>
-      <c r="H44" s="269"/>
-      <c r="I44" s="270"/>
-      <c r="J44" s="270"/>
-      <c r="K44" s="270"/>
-      <c r="L44" s="270"/>
-      <c r="M44" s="270"/>
-      <c r="N44" s="270"/>
-      <c r="O44" s="271">
+      <c r="C44" s="178"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="179"/>
+      <c r="J44" s="179"/>
+      <c r="K44" s="179"/>
+      <c r="L44" s="179"/>
+      <c r="M44" s="179"/>
+      <c r="N44" s="179"/>
+      <c r="O44" s="180">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P44" s="272">
+      <c r="P44" s="181">
         <f>'2018(NOT UPDATED)'!S48</f>
         <v>80</v>
       </c>
-      <c r="Q44" s="272">
+      <c r="Q44" s="181">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R44" s="273">
+      <c r="R44" s="182">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="S44" s="271">
+      <c r="S44" s="180">
         <f t="shared" si="10"/>
         <v>240</v>
       </c>
-      <c r="T44" s="274">
+      <c r="T44" s="183">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U44" s="275" t="str">
+      <c r="U44" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V44" s="271"/>
-      <c r="X44" s="277">
+      <c r="V44" s="180"/>
+      <c r="X44" s="186">
         <v>36</v>
       </c>
-      <c r="Y44" s="278" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z44" s="279"/>
-      <c r="AA44" s="279"/>
-      <c r="AB44" s="279"/>
-      <c r="AC44" s="280">
+      <c r="Y44" s="187" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z44" s="188"/>
+      <c r="AA44" s="188"/>
+      <c r="AB44" s="188"/>
+      <c r="AC44" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD44" s="279" t="s">
+      <c r="AD44" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="AE44" s="279"/>
-      <c r="AF44" s="278">
+      <c r="AE44" s="188"/>
+      <c r="AF44" s="187">
         <v>2013</v>
       </c>
-      <c r="AG44" s="279" t="s">
+      <c r="AG44" s="188" t="s">
         <v>103</v>
       </c>
-      <c r="AH44" s="281">
+      <c r="AH44" s="190">
         <v>0.87569444444444444</v>
       </c>
-      <c r="AI44" s="282" t="s">
+      <c r="AI44" s="191" t="s">
         <v>140</v>
       </c>
-      <c r="AJ44" s="279">
+      <c r="AJ44" s="188">
         <v>1</v>
       </c>
-      <c r="AK44" s="279" t="s">
+      <c r="AK44" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="AL44" s="283">
+      <c r="AL44" s="192">
         <v>90000</v>
       </c>
-      <c r="AM44" s="284">
+      <c r="AM44" s="193">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN44" s="285">
+      <c r="AN44" s="194">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -11154,178 +11219,178 @@
       <c r="BK45" s="149"/>
       <c r="BL45" s="149"/>
     </row>
-    <row r="46" spans="1:65" s="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="267">
+    <row r="46" spans="1:65" s="185" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="176">
         <v>41</v>
       </c>
-      <c r="B46" s="268" t="s">
+      <c r="B46" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="269"/>
-      <c r="D46" s="269"/>
-      <c r="E46" s="270"/>
-      <c r="F46" s="270"/>
-      <c r="G46" s="270"/>
-      <c r="H46" s="269"/>
-      <c r="I46" s="270"/>
-      <c r="J46" s="270"/>
-      <c r="K46" s="270"/>
-      <c r="L46" s="270"/>
-      <c r="M46" s="270"/>
-      <c r="N46" s="270"/>
-      <c r="O46" s="271">
+      <c r="C46" s="178"/>
+      <c r="D46" s="178"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="178"/>
+      <c r="I46" s="179"/>
+      <c r="J46" s="179"/>
+      <c r="K46" s="179"/>
+      <c r="L46" s="179"/>
+      <c r="M46" s="179"/>
+      <c r="N46" s="179"/>
+      <c r="O46" s="180">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P46" s="272">
+      <c r="P46" s="181">
         <f>'2018(NOT UPDATED)'!S50</f>
         <v>120</v>
       </c>
-      <c r="Q46" s="272">
+      <c r="Q46" s="181">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="R46" s="273">
+      <c r="R46" s="182">
         <f t="shared" si="5"/>
         <v>260</v>
       </c>
-      <c r="S46" s="271">
+      <c r="S46" s="180">
         <f t="shared" si="10"/>
         <v>240</v>
       </c>
-      <c r="T46" s="268">
+      <c r="T46" s="177">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="U46" s="275" t="str">
+      <c r="U46" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V46" s="271"/>
-      <c r="X46" s="292">
+      <c r="V46" s="180"/>
+      <c r="X46" s="201">
         <v>38</v>
       </c>
-      <c r="Y46" s="293" t="s">
+      <c r="Y46" s="202" t="s">
         <v>152</v>
       </c>
-      <c r="Z46" s="294"/>
-      <c r="AA46" s="294"/>
-      <c r="AB46" s="294"/>
-      <c r="AC46" s="295">
+      <c r="Z46" s="203"/>
+      <c r="AA46" s="203"/>
+      <c r="AB46" s="203"/>
+      <c r="AC46" s="204">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD46" s="296" t="s">
+      <c r="AD46" s="205" t="s">
         <v>115</v>
       </c>
-      <c r="AE46" s="297"/>
-      <c r="AF46" s="298">
+      <c r="AE46" s="206"/>
+      <c r="AF46" s="207">
         <v>2015</v>
       </c>
-      <c r="AG46" s="299"/>
-      <c r="AH46" s="300"/>
-      <c r="AI46" s="301"/>
-      <c r="AJ46" s="297">
-        <v>0</v>
-      </c>
-      <c r="AK46" s="302" t="s">
+      <c r="AG46" s="208"/>
+      <c r="AH46" s="209"/>
+      <c r="AI46" s="210"/>
+      <c r="AJ46" s="206">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="AL46" s="303"/>
-      <c r="AM46" s="284">
+      <c r="AL46" s="212"/>
+      <c r="AM46" s="193">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN46" s="304">
+      <c r="AN46" s="213">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:65" s="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="267">
+    <row r="47" spans="1:65" s="185" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="176">
         <v>42</v>
       </c>
-      <c r="B47" s="268" t="s">
+      <c r="B47" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="269"/>
-      <c r="D47" s="269"/>
-      <c r="E47" s="270"/>
-      <c r="F47" s="270">
+      <c r="C47" s="178"/>
+      <c r="D47" s="178"/>
+      <c r="E47" s="179"/>
+      <c r="F47" s="179">
         <v>5</v>
       </c>
-      <c r="G47" s="270"/>
-      <c r="H47" s="269"/>
-      <c r="I47" s="270"/>
-      <c r="J47" s="270"/>
-      <c r="K47" s="270"/>
-      <c r="L47" s="270"/>
-      <c r="M47" s="270"/>
-      <c r="N47" s="270"/>
-      <c r="O47" s="271">
+      <c r="G47" s="179"/>
+      <c r="H47" s="178"/>
+      <c r="I47" s="179"/>
+      <c r="J47" s="179"/>
+      <c r="K47" s="179"/>
+      <c r="L47" s="179"/>
+      <c r="M47" s="179"/>
+      <c r="N47" s="179"/>
+      <c r="O47" s="180">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="P47" s="272">
+      <c r="P47" s="181">
         <f>'2018(NOT UPDATED)'!S51</f>
         <v>120</v>
       </c>
-      <c r="Q47" s="272">
+      <c r="Q47" s="181">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="R47" s="273">
+      <c r="R47" s="182">
         <f t="shared" si="5"/>
         <v>255</v>
       </c>
-      <c r="S47" s="271">
+      <c r="S47" s="180">
         <f t="shared" si="10"/>
         <v>235</v>
       </c>
-      <c r="T47" s="268">
+      <c r="T47" s="177">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="U47" s="275" t="str">
+      <c r="U47" s="184" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V47" s="271"/>
-      <c r="X47" s="292">
+      <c r="V47" s="180"/>
+      <c r="X47" s="201">
         <v>39</v>
       </c>
-      <c r="Y47" s="293" t="s">
+      <c r="Y47" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="Z47" s="305"/>
-      <c r="AA47" s="306"/>
-      <c r="AB47" s="306"/>
-      <c r="AC47" s="295">
+      <c r="Z47" s="214"/>
+      <c r="AA47" s="215"/>
+      <c r="AB47" s="215"/>
+      <c r="AC47" s="204">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD47" s="307" t="s">
+      <c r="AD47" s="216" t="s">
         <v>108</v>
       </c>
-      <c r="AE47" s="294"/>
-      <c r="AF47" s="305">
+      <c r="AE47" s="203"/>
+      <c r="AF47" s="214">
         <v>2016</v>
       </c>
-      <c r="AG47" s="308"/>
-      <c r="AH47" s="309"/>
-      <c r="AI47" s="310"/>
-      <c r="AJ47" s="294">
-        <v>0</v>
-      </c>
-      <c r="AK47" s="294" t="s">
+      <c r="AG47" s="217"/>
+      <c r="AH47" s="218"/>
+      <c r="AI47" s="219"/>
+      <c r="AJ47" s="203">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="AL47" s="295"/>
-      <c r="AM47" s="284">
+      <c r="AL47" s="204"/>
+      <c r="AM47" s="193">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN47" s="311">
+      <c r="AN47" s="220">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11488,10 +11553,10 @@
       <c r="X49" s="26"/>
       <c r="Y49" s="26"/>
       <c r="Z49" s="26"/>
-      <c r="AA49" s="201" t="s">
+      <c r="AA49" s="285" t="s">
         <v>142</v>
       </c>
-      <c r="AB49" s="202"/>
+      <c r="AB49" s="286"/>
       <c r="AC49" s="18">
         <f>SUM(AC9:AC21)</f>
         <v>20000</v>
@@ -11569,12 +11634,12 @@
       <c r="AE50" s="23"/>
       <c r="AF50" s="23"/>
       <c r="AG50" s="23"/>
-      <c r="AI50" s="207" t="s">
+      <c r="AI50" s="277" t="s">
         <v>170</v>
       </c>
-      <c r="AJ50" s="208"/>
-      <c r="AK50" s="208"/>
-      <c r="AL50" s="209"/>
+      <c r="AJ50" s="278"/>
+      <c r="AK50" s="278"/>
+      <c r="AL50" s="279"/>
       <c r="AM50" s="52">
         <v>3077000</v>
       </c>
@@ -11635,12 +11700,12 @@
       <c r="AF51" s="23"/>
       <c r="AG51" s="23"/>
       <c r="AH51" s="23"/>
-      <c r="AI51" s="204" t="s">
+      <c r="AI51" s="274" t="s">
         <v>176</v>
       </c>
-      <c r="AJ51" s="205"/>
-      <c r="AK51" s="205"/>
-      <c r="AL51" s="206"/>
+      <c r="AJ51" s="275"/>
+      <c r="AK51" s="275"/>
+      <c r="AL51" s="276"/>
       <c r="AM51" s="53">
         <v>2550000</v>
       </c>
@@ -11898,14 +11963,14 @@
         <v>NO</v>
       </c>
       <c r="V55" s="2"/>
-      <c r="AC55" s="210"/>
-      <c r="AD55" s="210"/>
-      <c r="AI55" s="207" t="s">
+      <c r="AC55" s="280"/>
+      <c r="AD55" s="280"/>
+      <c r="AI55" s="277" t="s">
         <v>174</v>
       </c>
-      <c r="AJ55" s="208"/>
-      <c r="AK55" s="208"/>
-      <c r="AL55" s="209"/>
+      <c r="AJ55" s="278"/>
+      <c r="AK55" s="278"/>
+      <c r="AL55" s="279"/>
       <c r="AM55" s="44">
         <f>AM54</f>
         <v>2627000</v>
@@ -11958,12 +12023,12 @@
         <v>NO</v>
       </c>
       <c r="V56" s="2"/>
-      <c r="AI56" s="196" t="s">
+      <c r="AI56" s="273" t="s">
         <v>168</v>
       </c>
-      <c r="AJ56" s="196"/>
-      <c r="AK56" s="196"/>
-      <c r="AL56" s="196"/>
+      <c r="AJ56" s="273"/>
+      <c r="AK56" s="273"/>
+      <c r="AL56" s="273"/>
       <c r="AM56" s="64">
         <f>AM50-AM55</f>
         <v>450000</v>
@@ -12157,164 +12222,164 @@
     </row>
     <row r="61" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:41" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V62" s="211" t="s">
+      <c r="V62" s="243" t="s">
         <v>195</v>
       </c>
-      <c r="W62" s="212"/>
-      <c r="X62" s="212"/>
-      <c r="Y62" s="212"/>
+      <c r="W62" s="244"/>
+      <c r="X62" s="244"/>
+      <c r="Y62" s="244"/>
     </row>
     <row r="63" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="219" t="s">
+      <c r="C63" s="257" t="s">
         <v>177</v>
       </c>
-      <c r="D63" s="220"/>
-      <c r="E63" s="220"/>
-      <c r="F63" s="220"/>
-      <c r="G63" s="221"/>
-      <c r="I63" s="225" t="s">
+      <c r="D63" s="258"/>
+      <c r="E63" s="258"/>
+      <c r="F63" s="258"/>
+      <c r="G63" s="259"/>
+      <c r="I63" s="263" t="s">
         <v>178</v>
       </c>
-      <c r="J63" s="225"/>
-      <c r="K63" s="225"/>
-      <c r="L63" s="225"/>
-      <c r="M63" s="225"/>
-      <c r="O63" s="233" t="s">
+      <c r="J63" s="263"/>
+      <c r="K63" s="263"/>
+      <c r="L63" s="263"/>
+      <c r="M63" s="263"/>
+      <c r="O63" s="266" t="s">
         <v>193</v>
       </c>
-      <c r="P63" s="234"/>
-      <c r="Q63" s="235"/>
-      <c r="R63" s="235"/>
-      <c r="S63" s="235"/>
+      <c r="P63" s="267"/>
+      <c r="Q63" s="268"/>
+      <c r="R63" s="268"/>
+      <c r="S63" s="268"/>
       <c r="T63" s="83">
         <v>1400000</v>
       </c>
       <c r="U63" s="26"/>
-      <c r="V63" s="211" t="s">
+      <c r="V63" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="W63" s="211"/>
-      <c r="X63" s="228">
+      <c r="W63" s="243"/>
+      <c r="X63" s="289">
         <f>T64</f>
-        <v>1478000</v>
-      </c>
-      <c r="Y63" s="228"/>
+        <v>2128000</v>
+      </c>
+      <c r="Y63" s="289"/>
     </row>
     <row r="64" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="222"/>
-      <c r="D64" s="223"/>
-      <c r="E64" s="223"/>
-      <c r="F64" s="223"/>
-      <c r="G64" s="224"/>
-      <c r="I64" s="225"/>
-      <c r="J64" s="225"/>
-      <c r="K64" s="225"/>
-      <c r="L64" s="225"/>
-      <c r="M64" s="225"/>
-      <c r="O64" s="236" t="s">
+      <c r="C64" s="260"/>
+      <c r="D64" s="261"/>
+      <c r="E64" s="261"/>
+      <c r="F64" s="261"/>
+      <c r="G64" s="262"/>
+      <c r="I64" s="263"/>
+      <c r="J64" s="263"/>
+      <c r="K64" s="263"/>
+      <c r="L64" s="263"/>
+      <c r="M64" s="263"/>
+      <c r="O64" s="269" t="s">
         <v>194</v>
       </c>
-      <c r="P64" s="237"/>
-      <c r="Q64" s="238"/>
-      <c r="R64" s="238"/>
-      <c r="S64" s="238"/>
+      <c r="P64" s="270"/>
+      <c r="Q64" s="271"/>
+      <c r="R64" s="271"/>
+      <c r="S64" s="271"/>
       <c r="T64" s="84">
-        <v>1478000</v>
-      </c>
-      <c r="V64" s="212" t="s">
+        <v>2128000</v>
+      </c>
+      <c r="V64" s="244" t="s">
         <v>65</v>
       </c>
-      <c r="W64" s="212"/>
-      <c r="X64" s="229">
+      <c r="W64" s="244"/>
+      <c r="X64" s="290">
         <f>Pengeluaran!F30</f>
         <v>795000</v>
       </c>
-      <c r="Y64" s="230"/>
+      <c r="Y64" s="291"/>
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O65" s="226" t="s">
+      <c r="O65" s="264" t="s">
         <v>192</v>
       </c>
-      <c r="P65" s="227"/>
-      <c r="Q65" s="227"/>
-      <c r="R65" s="227"/>
-      <c r="S65" s="227"/>
+      <c r="P65" s="265"/>
+      <c r="Q65" s="265"/>
+      <c r="R65" s="265"/>
+      <c r="S65" s="265"/>
       <c r="T65" s="82">
         <f>X66</f>
-        <v>805000</v>
-      </c>
-      <c r="V65" s="212" t="s">
+        <v>1455000</v>
+      </c>
+      <c r="V65" s="244" t="s">
         <v>98</v>
       </c>
-      <c r="W65" s="212"/>
-      <c r="X65" s="231">
+      <c r="W65" s="244"/>
+      <c r="X65" s="292">
         <f>Pemasukkan!F31</f>
         <v>122000</v>
       </c>
-      <c r="Y65" s="232"/>
+      <c r="Y65" s="293"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V66" s="211" t="s">
+      <c r="V66" s="243" t="s">
         <v>191</v>
       </c>
-      <c r="W66" s="212"/>
-      <c r="X66" s="213">
+      <c r="W66" s="244"/>
+      <c r="X66" s="287">
         <f>(X63-X64)+X65</f>
-        <v>805000</v>
-      </c>
-      <c r="Y66" s="214"/>
+        <v>1455000</v>
+      </c>
+      <c r="Y66" s="288"/>
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="215" t="s">
+      <c r="A67" s="253" t="s">
         <v>196</v>
       </c>
-      <c r="B67" s="216"/>
-      <c r="C67" s="217" t="s">
+      <c r="B67" s="254"/>
+      <c r="C67" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="216"/>
-      <c r="E67" s="216"/>
-      <c r="F67" s="216"/>
-      <c r="G67" s="216"/>
-      <c r="H67" s="216"/>
-      <c r="I67" s="216"/>
-      <c r="J67" s="218"/>
+      <c r="D67" s="254"/>
+      <c r="E67" s="254"/>
+      <c r="F67" s="254"/>
+      <c r="G67" s="254"/>
+      <c r="H67" s="254"/>
+      <c r="I67" s="254"/>
+      <c r="J67" s="256"/>
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="240" t="s">
+      <c r="A68" s="252" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="212"/>
-      <c r="C68" s="211" t="s">
+      <c r="B68" s="244"/>
+      <c r="C68" s="243" t="s">
         <v>199</v>
       </c>
-      <c r="D68" s="212"/>
-      <c r="E68" s="212"/>
-      <c r="F68" s="212"/>
-      <c r="G68" s="212"/>
-      <c r="H68" s="212"/>
-      <c r="I68" s="212"/>
-      <c r="J68" s="243"/>
-      <c r="P68" s="196" t="s">
+      <c r="D68" s="244"/>
+      <c r="E68" s="244"/>
+      <c r="F68" s="244"/>
+      <c r="G68" s="244"/>
+      <c r="H68" s="244"/>
+      <c r="I68" s="244"/>
+      <c r="J68" s="245"/>
+      <c r="P68" s="273" t="s">
         <v>215</v>
       </c>
-      <c r="Q68" s="196"/>
+      <c r="Q68" s="273"/>
     </row>
     <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="240" t="s">
+      <c r="A69" s="252" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="212"/>
-      <c r="C69" s="244" t="s">
+      <c r="B69" s="244"/>
+      <c r="C69" s="246" t="s">
         <v>200</v>
       </c>
-      <c r="D69" s="244"/>
-      <c r="E69" s="244"/>
-      <c r="F69" s="244"/>
-      <c r="G69" s="244"/>
-      <c r="H69" s="244"/>
-      <c r="I69" s="244"/>
-      <c r="J69" s="245"/>
+      <c r="D69" s="246"/>
+      <c r="E69" s="246"/>
+      <c r="F69" s="246"/>
+      <c r="G69" s="246"/>
+      <c r="H69" s="246"/>
+      <c r="I69" s="246"/>
+      <c r="J69" s="247"/>
       <c r="K69" s="67"/>
       <c r="L69" s="67"/>
       <c r="M69" s="67"/>
@@ -12329,16 +12394,16 @@
       <c r="S69" s="67"/>
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="239"/>
-      <c r="B70" s="212"/>
-      <c r="C70" s="212"/>
-      <c r="D70" s="212"/>
-      <c r="E70" s="212"/>
-      <c r="F70" s="212"/>
-      <c r="G70" s="212"/>
-      <c r="H70" s="212"/>
-      <c r="I70" s="212"/>
-      <c r="J70" s="243"/>
+      <c r="A70" s="251"/>
+      <c r="B70" s="244"/>
+      <c r="C70" s="244"/>
+      <c r="D70" s="244"/>
+      <c r="E70" s="244"/>
+      <c r="F70" s="244"/>
+      <c r="G70" s="244"/>
+      <c r="H70" s="244"/>
+      <c r="I70" s="244"/>
+      <c r="J70" s="245"/>
       <c r="K70" s="67"/>
       <c r="L70" s="67"/>
       <c r="M70" s="67"/>
@@ -12350,16 +12415,16 @@
       <c r="S70" s="67"/>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="239"/>
-      <c r="B71" s="212"/>
-      <c r="C71" s="246"/>
-      <c r="D71" s="246"/>
-      <c r="E71" s="246"/>
-      <c r="F71" s="246"/>
-      <c r="G71" s="246"/>
-      <c r="H71" s="246"/>
-      <c r="I71" s="246"/>
-      <c r="J71" s="247"/>
+      <c r="A71" s="251"/>
+      <c r="B71" s="244"/>
+      <c r="C71" s="248"/>
+      <c r="D71" s="248"/>
+      <c r="E71" s="248"/>
+      <c r="F71" s="248"/>
+      <c r="G71" s="248"/>
+      <c r="H71" s="248"/>
+      <c r="I71" s="248"/>
+      <c r="J71" s="249"/>
       <c r="K71" s="66"/>
       <c r="L71" s="66"/>
       <c r="M71" s="66"/>
@@ -12371,16 +12436,16 @@
       <c r="S71" s="66"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="239"/>
-      <c r="B72" s="212"/>
-      <c r="C72" s="212"/>
-      <c r="D72" s="212"/>
-      <c r="E72" s="212"/>
-      <c r="F72" s="212"/>
-      <c r="G72" s="212"/>
-      <c r="H72" s="212"/>
-      <c r="I72" s="212"/>
-      <c r="J72" s="243"/>
+      <c r="A72" s="251"/>
+      <c r="B72" s="244"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="244"/>
+      <c r="E72" s="244"/>
+      <c r="F72" s="244"/>
+      <c r="G72" s="244"/>
+      <c r="H72" s="244"/>
+      <c r="I72" s="244"/>
+      <c r="J72" s="245"/>
       <c r="K72" s="61"/>
       <c r="L72" s="61"/>
       <c r="M72" s="61"/>
@@ -12392,16 +12457,16 @@
       <c r="S72" s="61"/>
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="239"/>
-      <c r="B73" s="212"/>
-      <c r="C73" s="246"/>
-      <c r="D73" s="246"/>
-      <c r="E73" s="246"/>
-      <c r="F73" s="246"/>
-      <c r="G73" s="246"/>
-      <c r="H73" s="246"/>
-      <c r="I73" s="246"/>
-      <c r="J73" s="247"/>
+      <c r="A73" s="251"/>
+      <c r="B73" s="244"/>
+      <c r="C73" s="248"/>
+      <c r="D73" s="248"/>
+      <c r="E73" s="248"/>
+      <c r="F73" s="248"/>
+      <c r="G73" s="248"/>
+      <c r="H73" s="248"/>
+      <c r="I73" s="248"/>
+      <c r="J73" s="249"/>
       <c r="K73" s="61"/>
       <c r="L73" s="61"/>
       <c r="M73" s="61"/>
@@ -12413,16 +12478,16 @@
       <c r="S73" s="61"/>
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="239"/>
-      <c r="B74" s="212"/>
-      <c r="C74" s="212"/>
-      <c r="D74" s="212"/>
-      <c r="E74" s="212"/>
-      <c r="F74" s="212"/>
-      <c r="G74" s="212"/>
-      <c r="H74" s="212"/>
-      <c r="I74" s="212"/>
-      <c r="J74" s="243"/>
+      <c r="A74" s="251"/>
+      <c r="B74" s="244"/>
+      <c r="C74" s="244"/>
+      <c r="D74" s="244"/>
+      <c r="E74" s="244"/>
+      <c r="F74" s="244"/>
+      <c r="G74" s="244"/>
+      <c r="H74" s="244"/>
+      <c r="I74" s="244"/>
+      <c r="J74" s="245"/>
       <c r="K74" s="61"/>
       <c r="L74" s="61"/>
       <c r="M74" s="61"/>
@@ -12434,16 +12499,16 @@
       <c r="S74" s="61"/>
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="239"/>
-      <c r="B75" s="212"/>
-      <c r="C75" s="246"/>
-      <c r="D75" s="246"/>
-      <c r="E75" s="246"/>
-      <c r="F75" s="246"/>
-      <c r="G75" s="246"/>
-      <c r="H75" s="246"/>
-      <c r="I75" s="246"/>
-      <c r="J75" s="247"/>
+      <c r="A75" s="251"/>
+      <c r="B75" s="244"/>
+      <c r="C75" s="248"/>
+      <c r="D75" s="248"/>
+      <c r="E75" s="248"/>
+      <c r="F75" s="248"/>
+      <c r="G75" s="248"/>
+      <c r="H75" s="248"/>
+      <c r="I75" s="248"/>
+      <c r="J75" s="249"/>
       <c r="K75" s="61"/>
       <c r="L75" s="61"/>
       <c r="M75" s="61"/>
@@ -12455,16 +12520,16 @@
       <c r="S75" s="61"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="239"/>
-      <c r="B76" s="212"/>
-      <c r="C76" s="212"/>
-      <c r="D76" s="212"/>
-      <c r="E76" s="212"/>
-      <c r="F76" s="212"/>
-      <c r="G76" s="212"/>
-      <c r="H76" s="212"/>
-      <c r="I76" s="212"/>
-      <c r="J76" s="243"/>
+      <c r="A76" s="251"/>
+      <c r="B76" s="244"/>
+      <c r="C76" s="244"/>
+      <c r="D76" s="244"/>
+      <c r="E76" s="244"/>
+      <c r="F76" s="244"/>
+      <c r="G76" s="244"/>
+      <c r="H76" s="244"/>
+      <c r="I76" s="244"/>
+      <c r="J76" s="245"/>
       <c r="K76" s="61"/>
       <c r="L76" s="61"/>
       <c r="M76" s="61"/>
@@ -12476,16 +12541,16 @@
       <c r="S76" s="61"/>
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="239"/>
-      <c r="B77" s="212"/>
-      <c r="C77" s="246"/>
-      <c r="D77" s="246"/>
-      <c r="E77" s="246"/>
-      <c r="F77" s="246"/>
-      <c r="G77" s="246"/>
-      <c r="H77" s="246"/>
-      <c r="I77" s="246"/>
-      <c r="J77" s="247"/>
+      <c r="A77" s="251"/>
+      <c r="B77" s="244"/>
+      <c r="C77" s="248"/>
+      <c r="D77" s="248"/>
+      <c r="E77" s="248"/>
+      <c r="F77" s="248"/>
+      <c r="G77" s="248"/>
+      <c r="H77" s="248"/>
+      <c r="I77" s="248"/>
+      <c r="J77" s="249"/>
       <c r="K77" s="61"/>
       <c r="L77" s="61"/>
       <c r="M77" s="61"/>
@@ -12506,7 +12571,7 @@
       <c r="G78" s="242"/>
       <c r="H78" s="242"/>
       <c r="I78" s="242"/>
-      <c r="J78" s="248"/>
+      <c r="J78" s="250"/>
       <c r="K78" s="61"/>
       <c r="L78" s="61"/>
       <c r="M78" s="61"/>
@@ -12918,6 +12983,42 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="52">
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="C2:T3"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="AD7:AN7"/>
+    <mergeCell ref="X5:AN5"/>
+    <mergeCell ref="Z6:AN6"/>
+    <mergeCell ref="AI56:AL56"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="AI50:AL50"/>
+    <mergeCell ref="AI55:AL55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C63:G64"/>
+    <mergeCell ref="I63:M64"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="O63:S63"/>
+    <mergeCell ref="O64:S64"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C68:J68"/>
     <mergeCell ref="C69:J69"/>
@@ -12934,44 +13035,8 @@
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C63:G64"/>
-    <mergeCell ref="I63:M64"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="O63:S63"/>
-    <mergeCell ref="O64:S64"/>
-    <mergeCell ref="AD7:AN7"/>
-    <mergeCell ref="X5:AN5"/>
-    <mergeCell ref="Z6:AN6"/>
-    <mergeCell ref="AI56:AL56"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="AI50:AL50"/>
-    <mergeCell ref="AI55:AL55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="C2:T3"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="X65:Y65"/>
   </mergeCells>
-  <conditionalFormatting sqref="B60:V60 C55:V59 B6:V54 Q7:R60">
+  <conditionalFormatting sqref="B60:V60 C55:V59 Q7:R60 B6:V54">
     <cfRule type="expression" dxfId="9" priority="6">
       <formula>IF(ISBLANK($B$4), 0, SEARCH($B$4,$B6))</formula>
     </cfRule>
@@ -13045,28 +13110,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="249" t="s">
+      <c r="C2" s="294" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="250"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="295"/>
+      <c r="F3" s="295"/>
+      <c r="G3" s="295"/>
+      <c r="H3" s="295"/>
+      <c r="I3" s="295"/>
+      <c r="J3" s="295"/>
+      <c r="K3" s="295"/>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="70" t="s">
@@ -13293,48 +13358,48 @@
     </row>
     <row r="28" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="215" t="s">
+      <c r="D29" s="253" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="217"/>
-      <c r="F29" s="251">
+      <c r="E29" s="255"/>
+      <c r="F29" s="296">
         <f>'2019'!T64</f>
-        <v>1478000</v>
-      </c>
-      <c r="G29" s="252"/>
+        <v>2128000</v>
+      </c>
+      <c r="G29" s="297"/>
     </row>
     <row r="30" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="239" t="s">
+      <c r="D30" s="251" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="212"/>
-      <c r="F30" s="229">
+      <c r="E30" s="244"/>
+      <c r="F30" s="290">
         <f>F27</f>
         <v>795000</v>
       </c>
-      <c r="G30" s="257"/>
+      <c r="G30" s="302"/>
     </row>
     <row r="31" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="239" t="s">
+      <c r="D31" s="251" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="212"/>
-      <c r="F31" s="231">
+      <c r="E31" s="244"/>
+      <c r="F31" s="292">
         <f>Pemasukkan!F27</f>
         <v>122000</v>
       </c>
-      <c r="G31" s="258"/>
+      <c r="G31" s="303"/>
     </row>
     <row r="32" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="253" t="s">
+      <c r="D32" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="254"/>
-      <c r="F32" s="255">
+      <c r="E32" s="299"/>
+      <c r="F32" s="300">
         <f>'2019'!T65</f>
-        <v>805000</v>
-      </c>
-      <c r="G32" s="256"/>
+        <v>1455000</v>
+      </c>
+      <c r="G32" s="301"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13566,28 +13631,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="261" t="s">
+      <c r="C2" s="306" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="262"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
+      <c r="K2" s="307"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="307"/>
+      <c r="G3" s="307"/>
+      <c r="H3" s="307"/>
+      <c r="I3" s="307"/>
+      <c r="J3" s="307"/>
+      <c r="K3" s="307"/>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="70" t="s">
@@ -13808,48 +13873,48 @@
     </row>
     <row r="28" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="233" t="s">
+      <c r="D29" s="266" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="235"/>
-      <c r="F29" s="263">
+      <c r="E29" s="268"/>
+      <c r="F29" s="308">
         <f>'2019'!T64</f>
-        <v>1478000</v>
-      </c>
-      <c r="G29" s="264"/>
+        <v>2128000</v>
+      </c>
+      <c r="G29" s="309"/>
     </row>
     <row r="30" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="240" t="s">
+      <c r="D30" s="252" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="212"/>
-      <c r="F30" s="229">
+      <c r="E30" s="244"/>
+      <c r="F30" s="290">
         <f>Pengeluaran!F30</f>
         <v>795000</v>
       </c>
-      <c r="G30" s="257"/>
+      <c r="G30" s="302"/>
     </row>
     <row r="31" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="239" t="s">
+      <c r="D31" s="251" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="212"/>
-      <c r="F31" s="231">
+      <c r="E31" s="244"/>
+      <c r="F31" s="292">
         <f>F27</f>
         <v>122000</v>
       </c>
-      <c r="G31" s="258"/>
+      <c r="G31" s="303"/>
     </row>
     <row r="32" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="253" t="s">
+      <c r="D32" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="254"/>
-      <c r="F32" s="259">
+      <c r="E32" s="299"/>
+      <c r="F32" s="304">
         <f>'2019'!T65</f>
-        <v>805000</v>
-      </c>
-      <c r="G32" s="260"/>
+        <v>1455000</v>
+      </c>
+      <c r="G32" s="305"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14073,17 +14138,17 @@
     <row r="3" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="31"/>
-      <c r="C4" s="265" t="s">
+      <c r="C4" s="310" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="266"/>
+      <c r="D4" s="311"/>
       <c r="E4" s="32"/>
       <c r="F4" s="38"/>
       <c r="G4" s="39"/>
-      <c r="H4" s="265" t="s">
+      <c r="H4" s="310" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="266"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="40"/>
       <c r="K4" s="32"/>
     </row>
@@ -14210,17 +14275,17 @@
     <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
-      <c r="C17" s="265" t="s">
+      <c r="C17" s="310" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="266"/>
+      <c r="D17" s="311"/>
       <c r="E17" s="32"/>
       <c r="F17" s="31"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="265" t="s">
+      <c r="H17" s="310" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="266"/>
+      <c r="I17" s="311"/>
       <c r="J17" s="40"/>
       <c r="K17" s="32"/>
     </row>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="459" activeTab="1"/>
+    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="459" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018(NOT UPDATED)" sheetId="1" r:id="rId1"/>
     <sheet name="2019" sheetId="2" r:id="rId2"/>
     <sheet name="Pengeluaran" sheetId="4" r:id="rId3"/>
     <sheet name="Pemasukkan" sheetId="6" r:id="rId4"/>
-    <sheet name="Lampiran Polo" sheetId="3" r:id="rId5"/>
+    <sheet name="Inventaris" sheetId="7" r:id="rId5"/>
+    <sheet name="Lampiran Polo" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="238">
   <si>
     <t>LAPORAN KEUANGAN KAS GAS</t>
   </si>
@@ -681,6 +682,57 @@
   </si>
   <si>
     <t>Simpanan 10k</t>
+  </si>
+  <si>
+    <t>Print Tagihan Kas</t>
+  </si>
+  <si>
+    <t>2 Agustus 2019</t>
+  </si>
+  <si>
+    <t>Print List Email Ganci</t>
+  </si>
+  <si>
+    <t>5 Agustus 2019</t>
+  </si>
+  <si>
+    <t>Talangi Grafir Anca</t>
+  </si>
+  <si>
+    <t>3 Agustus 2019</t>
+  </si>
+  <si>
+    <t>Orange Tip Pak Adhika</t>
+  </si>
+  <si>
+    <t>Pak Adhika sumbang OT untuk Inventaris GAS Simpanan dimasukkan KAS</t>
+  </si>
+  <si>
+    <t>5 Agustus  2019</t>
+  </si>
+  <si>
+    <t>Anca Transfer Grafir (Ganti KAS)</t>
+  </si>
+  <si>
+    <t>Anca Transfer 150k, 100k untuk ganti Talangan KAS, 50 Untuk grafir Anca pribadi</t>
+  </si>
+  <si>
+    <t>Inventaris Senilai</t>
+  </si>
+  <si>
+    <t>Pemasukan Inventaris GAS</t>
+  </si>
+  <si>
+    <t>Teks Ungu</t>
+  </si>
+  <si>
+    <t>Kas dibayarkan bedasarkan Inventaris/Sumbangan ke GAS</t>
+  </si>
+  <si>
+    <t>Anggota Yang memiliki tagihan KAS lebih dari 200k</t>
+  </si>
+  <si>
+    <t>(Pada Tabel KAS) Lunas</t>
   </si>
 </sst>
 </file>
@@ -702,7 +754,7 @@
     <numFmt numFmtId="174" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="175" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -775,8 +827,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,8 +979,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="63">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1658,12 +1728,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2143,20 +2258,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2172,133 +2300,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2313,6 +2315,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2334,6 +2345,114 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2387,6 +2506,77 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3202,126 +3392,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="230"/>
+      <c r="M1" s="230"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="230"/>
+      <c r="P1" s="230"/>
+      <c r="Q1" s="230"/>
+      <c r="R1" s="230"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="223"/>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
+      <c r="A2" s="231"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="223"/>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="224"/>
-      <c r="P3" s="224"/>
-      <c r="Q3" s="224"/>
-      <c r="R3" s="224"/>
+      <c r="A3" s="231"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="232"/>
+      <c r="Q3" s="232"/>
+      <c r="R3" s="232"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="223"/>
-      <c r="B4" s="224"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="224"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="224"/>
-      <c r="K4" s="224"/>
-      <c r="L4" s="224"/>
-      <c r="M4" s="224"/>
-      <c r="N4" s="224"/>
-      <c r="O4" s="224"/>
-      <c r="P4" s="224"/>
-      <c r="Q4" s="224"/>
-      <c r="R4" s="224"/>
+      <c r="A4" s="231"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="232"/>
+      <c r="M4" s="232"/>
+      <c r="N4" s="232"/>
+      <c r="O4" s="232"/>
+      <c r="P4" s="232"/>
+      <c r="Q4" s="232"/>
+      <c r="R4" s="232"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="223"/>
-      <c r="B5" s="224"/>
-      <c r="C5" s="224"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="224"/>
-      <c r="O5" s="224"/>
-      <c r="P5" s="224"/>
-      <c r="Q5" s="224"/>
-      <c r="R5" s="224"/>
+      <c r="A5" s="231"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
+      <c r="G5" s="232"/>
+      <c r="H5" s="232"/>
+      <c r="I5" s="232"/>
+      <c r="J5" s="232"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="232"/>
+      <c r="M5" s="232"/>
+      <c r="N5" s="232"/>
+      <c r="O5" s="232"/>
+      <c r="P5" s="232"/>
+      <c r="Q5" s="232"/>
+      <c r="R5" s="232"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="223"/>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="224"/>
-      <c r="L6" s="224"/>
-      <c r="M6" s="224"/>
-      <c r="N6" s="224"/>
-      <c r="O6" s="224"/>
-      <c r="P6" s="224"/>
-      <c r="Q6" s="224"/>
-      <c r="R6" s="224"/>
+      <c r="A6" s="231"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="232"/>
+      <c r="G6" s="232"/>
+      <c r="H6" s="232"/>
+      <c r="I6" s="232"/>
+      <c r="J6" s="232"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="232"/>
+      <c r="M6" s="232"/>
+      <c r="N6" s="232"/>
+      <c r="O6" s="232"/>
+      <c r="P6" s="232"/>
+      <c r="Q6" s="232"/>
+      <c r="R6" s="232"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="97" t="s">
@@ -6266,58 +6456,58 @@
     <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J79" s="229" t="s">
+      <c r="J79" s="234" t="s">
         <v>65</v>
       </c>
-      <c r="K79" s="230"/>
-      <c r="L79" s="230"/>
-      <c r="M79" s="230"/>
-      <c r="N79" s="231"/>
-      <c r="P79" s="237" t="s">
+      <c r="K79" s="235"/>
+      <c r="L79" s="235"/>
+      <c r="M79" s="235"/>
+      <c r="N79" s="236"/>
+      <c r="P79" s="242" t="s">
         <v>66</v>
       </c>
-      <c r="Q79" s="230"/>
-      <c r="R79" s="230"/>
-      <c r="S79" s="231"/>
+      <c r="Q79" s="235"/>
+      <c r="R79" s="235"/>
+      <c r="S79" s="236"/>
     </row>
     <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J80" s="232" t="s">
+      <c r="J80" s="237" t="s">
         <v>67</v>
       </c>
-      <c r="K80" s="224"/>
-      <c r="L80" s="224"/>
-      <c r="M80" s="224"/>
-      <c r="N80" s="233"/>
-      <c r="P80" s="232" t="s">
+      <c r="K80" s="232"/>
+      <c r="L80" s="232"/>
+      <c r="M80" s="232"/>
+      <c r="N80" s="238"/>
+      <c r="P80" s="237" t="s">
         <v>68</v>
       </c>
-      <c r="Q80" s="224"/>
-      <c r="R80" s="224"/>
-      <c r="S80" s="233"/>
+      <c r="Q80" s="232"/>
+      <c r="R80" s="232"/>
+      <c r="S80" s="238"/>
     </row>
     <row r="81" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J81" s="234"/>
-      <c r="K81" s="235"/>
-      <c r="L81" s="235"/>
-      <c r="M81" s="235"/>
-      <c r="N81" s="236"/>
-      <c r="P81" s="234"/>
-      <c r="Q81" s="235"/>
-      <c r="R81" s="235"/>
-      <c r="S81" s="236"/>
+      <c r="J81" s="239"/>
+      <c r="K81" s="240"/>
+      <c r="L81" s="240"/>
+      <c r="M81" s="240"/>
+      <c r="N81" s="241"/>
+      <c r="P81" s="239"/>
+      <c r="Q81" s="240"/>
+      <c r="R81" s="240"/>
+      <c r="S81" s="241"/>
     </row>
     <row r="82" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J82" s="227" t="s">
+      <c r="J82" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="K82" s="228"/>
-      <c r="L82" s="226"/>
-      <c r="M82" s="227" t="s">
+      <c r="K82" s="224"/>
+      <c r="L82" s="225"/>
+      <c r="M82" s="233" t="s">
         <v>69</v>
       </c>
-      <c r="N82" s="226"/>
-      <c r="P82" s="227"/>
-      <c r="Q82" s="226"/>
+      <c r="N82" s="225"/>
+      <c r="P82" s="233"/>
+      <c r="Q82" s="225"/>
       <c r="R82" s="4" t="s">
         <v>19</v>
       </c>
@@ -6326,38 +6516,38 @@
       </c>
     </row>
     <row r="83" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J83" s="238" t="s">
+      <c r="J83" s="223" t="s">
         <v>70</v>
       </c>
-      <c r="K83" s="228"/>
-      <c r="L83" s="226"/>
-      <c r="M83" s="239">
+      <c r="K83" s="224"/>
+      <c r="L83" s="225"/>
+      <c r="M83" s="226">
         <v>7350000</v>
       </c>
-      <c r="N83" s="226"/>
-      <c r="P83" s="225" t="s">
+      <c r="N83" s="225"/>
+      <c r="P83" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="Q83" s="226"/>
+      <c r="Q83" s="225"/>
       <c r="R83" s="5"/>
       <c r="S83" s="6">
         <v>40000</v>
       </c>
     </row>
     <row r="84" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J84" s="238" t="s">
+      <c r="J84" s="223" t="s">
         <v>72</v>
       </c>
-      <c r="K84" s="228"/>
-      <c r="L84" s="226"/>
-      <c r="M84" s="240">
+      <c r="K84" s="224"/>
+      <c r="L84" s="225"/>
+      <c r="M84" s="228">
         <v>1100000</v>
       </c>
-      <c r="N84" s="226"/>
-      <c r="P84" s="225" t="s">
+      <c r="N84" s="225"/>
+      <c r="P84" s="227" t="s">
         <v>73</v>
       </c>
-      <c r="Q84" s="226"/>
+      <c r="Q84" s="225"/>
       <c r="R84" s="7" t="s">
         <v>74</v>
       </c>
@@ -6366,39 +6556,39 @@
       </c>
     </row>
     <row r="85" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J85" s="238" t="s">
+      <c r="J85" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="K85" s="228"/>
-      <c r="L85" s="226"/>
-      <c r="M85" s="239">
+      <c r="K85" s="224"/>
+      <c r="L85" s="225"/>
+      <c r="M85" s="226">
         <f>M83+M84</f>
         <v>8450000</v>
       </c>
-      <c r="N85" s="226"/>
-      <c r="P85" s="225" t="s">
+      <c r="N85" s="225"/>
+      <c r="P85" s="227" t="s">
         <v>76</v>
       </c>
-      <c r="Q85" s="226"/>
+      <c r="Q85" s="225"/>
       <c r="R85" s="5"/>
       <c r="S85" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J86" s="238" t="s">
+      <c r="J86" s="223" t="s">
         <v>77</v>
       </c>
-      <c r="K86" s="228"/>
-      <c r="L86" s="226"/>
-      <c r="M86" s="239">
+      <c r="K86" s="224"/>
+      <c r="L86" s="225"/>
+      <c r="M86" s="226">
         <v>8411850</v>
       </c>
-      <c r="N86" s="226"/>
-      <c r="P86" s="225" t="s">
+      <c r="N86" s="225"/>
+      <c r="P86" s="227" t="s">
         <v>78</v>
       </c>
-      <c r="Q86" s="226"/>
+      <c r="Q86" s="225"/>
       <c r="R86" s="5"/>
       <c r="S86" s="6">
         <f>S83-S84+S85</f>
@@ -6406,20 +6596,20 @@
       </c>
     </row>
     <row r="87" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J87" s="238" t="s">
+      <c r="J87" s="223" t="s">
         <v>79</v>
       </c>
-      <c r="K87" s="228"/>
-      <c r="L87" s="226"/>
-      <c r="M87" s="239">
+      <c r="K87" s="224"/>
+      <c r="L87" s="225"/>
+      <c r="M87" s="226">
         <f>M85-M86</f>
         <v>38150</v>
       </c>
-      <c r="N87" s="226"/>
-      <c r="P87" s="225" t="s">
+      <c r="N87" s="225"/>
+      <c r="P87" s="227" t="s">
         <v>80</v>
       </c>
-      <c r="Q87" s="226"/>
+      <c r="Q87" s="225"/>
       <c r="R87" s="5"/>
       <c r="S87" s="6">
         <f>M87+S86</f>
@@ -6608,17 +6798,6 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="23">
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="M84:N84"/>
     <mergeCell ref="A1:R6"/>
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="J82:L82"/>
@@ -6631,6 +6810,17 @@
     <mergeCell ref="P83:Q83"/>
     <mergeCell ref="P82:Q82"/>
     <mergeCell ref="P80:S81"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P86:Q86"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T52">
     <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
@@ -6664,8 +6854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BM260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73:J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6707,46 +6897,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="C2" s="281" t="s">
+      <c r="C2" s="244" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="223"/>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="223"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="222"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="231"/>
+      <c r="Q2" s="231"/>
+      <c r="R2" s="231"/>
+      <c r="S2" s="230"/>
+      <c r="T2" s="230"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="223"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="224"/>
-      <c r="P3" s="224"/>
-      <c r="Q3" s="224"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="224"/>
-      <c r="T3" s="224"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="232"/>
+      <c r="Q3" s="232"/>
+      <c r="R3" s="232"/>
+      <c r="S3" s="232"/>
+      <c r="T3" s="232"/>
       <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6829,25 +7019,25 @@
       <c r="V5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="272" t="s">
+      <c r="X5" s="250" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="228"/>
-      <c r="Z5" s="228"/>
-      <c r="AA5" s="228"/>
-      <c r="AB5" s="228"/>
-      <c r="AC5" s="228"/>
-      <c r="AD5" s="228"/>
-      <c r="AE5" s="228"/>
-      <c r="AF5" s="228"/>
-      <c r="AG5" s="228"/>
-      <c r="AH5" s="228"/>
-      <c r="AI5" s="228"/>
-      <c r="AJ5" s="228"/>
-      <c r="AK5" s="228"/>
-      <c r="AL5" s="228"/>
-      <c r="AM5" s="228"/>
-      <c r="AN5" s="226"/>
+      <c r="Y5" s="224"/>
+      <c r="Z5" s="224"/>
+      <c r="AA5" s="224"/>
+      <c r="AB5" s="224"/>
+      <c r="AC5" s="224"/>
+      <c r="AD5" s="224"/>
+      <c r="AE5" s="224"/>
+      <c r="AF5" s="224"/>
+      <c r="AG5" s="224"/>
+      <c r="AH5" s="224"/>
+      <c r="AI5" s="224"/>
+      <c r="AJ5" s="224"/>
+      <c r="AK5" s="224"/>
+      <c r="AL5" s="224"/>
+      <c r="AM5" s="224"/>
+      <c r="AN5" s="225"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -6912,29 +7102,29 @@
         <v>NO</v>
       </c>
       <c r="V6" s="14"/>
-      <c r="X6" s="282" t="s">
+      <c r="X6" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="282" t="s">
+      <c r="Y6" s="245" t="s">
         <v>85</v>
       </c>
-      <c r="Z6" s="272" t="s">
+      <c r="Z6" s="250" t="s">
         <v>86</v>
       </c>
-      <c r="AA6" s="228"/>
-      <c r="AB6" s="228"/>
-      <c r="AC6" s="228"/>
-      <c r="AD6" s="228"/>
-      <c r="AE6" s="228"/>
-      <c r="AF6" s="228"/>
-      <c r="AG6" s="228"/>
-      <c r="AH6" s="228"/>
-      <c r="AI6" s="228"/>
-      <c r="AJ6" s="228"/>
-      <c r="AK6" s="228"/>
-      <c r="AL6" s="228"/>
-      <c r="AM6" s="228"/>
-      <c r="AN6" s="226"/>
+      <c r="AA6" s="224"/>
+      <c r="AB6" s="224"/>
+      <c r="AC6" s="224"/>
+      <c r="AD6" s="224"/>
+      <c r="AE6" s="224"/>
+      <c r="AF6" s="224"/>
+      <c r="AG6" s="224"/>
+      <c r="AH6" s="224"/>
+      <c r="AI6" s="224"/>
+      <c r="AJ6" s="224"/>
+      <c r="AK6" s="224"/>
+      <c r="AL6" s="224"/>
+      <c r="AM6" s="224"/>
+      <c r="AN6" s="225"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
@@ -6997,27 +7187,27 @@
         <v>NO</v>
       </c>
       <c r="V7" s="14"/>
-      <c r="X7" s="283"/>
-      <c r="Y7" s="283"/>
-      <c r="Z7" s="272" t="s">
+      <c r="X7" s="246"/>
+      <c r="Y7" s="246"/>
+      <c r="Z7" s="250" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="228"/>
-      <c r="AB7" s="228"/>
-      <c r="AC7" s="226"/>
-      <c r="AD7" s="272" t="s">
+      <c r="AA7" s="224"/>
+      <c r="AB7" s="224"/>
+      <c r="AC7" s="225"/>
+      <c r="AD7" s="250" t="s">
         <v>88</v>
       </c>
-      <c r="AE7" s="228"/>
-      <c r="AF7" s="228"/>
-      <c r="AG7" s="228"/>
-      <c r="AH7" s="228"/>
-      <c r="AI7" s="228"/>
-      <c r="AJ7" s="228"/>
-      <c r="AK7" s="228"/>
-      <c r="AL7" s="228"/>
-      <c r="AM7" s="228"/>
-      <c r="AN7" s="226"/>
+      <c r="AE7" s="224"/>
+      <c r="AF7" s="224"/>
+      <c r="AG7" s="224"/>
+      <c r="AH7" s="224"/>
+      <c r="AI7" s="224"/>
+      <c r="AJ7" s="224"/>
+      <c r="AK7" s="224"/>
+      <c r="AL7" s="224"/>
+      <c r="AM7" s="224"/>
+      <c r="AN7" s="225"/>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -7067,8 +7257,8 @@
         <v>NO</v>
       </c>
       <c r="V8" s="14"/>
-      <c r="X8" s="284"/>
-      <c r="Y8" s="284"/>
+      <c r="X8" s="247"/>
+      <c r="Y8" s="247"/>
       <c r="Z8" s="3" t="s">
         <v>19</v>
       </c>
@@ -10896,14 +11086,20 @@
       <c r="I43" s="87">
         <v>20</v>
       </c>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
+      <c r="J43" s="333">
+        <v>20</v>
+      </c>
+      <c r="K43" s="333">
+        <v>20</v>
+      </c>
+      <c r="L43" s="333">
+        <v>20</v>
+      </c>
       <c r="M43" s="86"/>
       <c r="N43" s="86"/>
       <c r="O43" s="14">
         <f t="shared" si="9"/>
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="P43" s="145">
         <v>0</v>
@@ -10918,15 +11114,15 @@
       </c>
       <c r="S43" s="14">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="T43" s="15">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>-20</v>
       </c>
       <c r="U43" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
+        <v>OK</v>
       </c>
       <c r="V43" s="14" t="s">
         <v>220</v>
@@ -11423,19 +11619,19 @@
       <c r="I48" s="88">
         <v>20</v>
       </c>
-      <c r="J48" s="88">
-        <v>20</v>
-      </c>
-      <c r="K48" s="88">
-        <v>20</v>
-      </c>
-      <c r="L48" s="88">
-        <v>20</v>
-      </c>
-      <c r="M48" s="88">
-        <v>20</v>
-      </c>
-      <c r="N48" s="88">
+      <c r="J48" s="334">
+        <v>20</v>
+      </c>
+      <c r="K48" s="334">
+        <v>20</v>
+      </c>
+      <c r="L48" s="334">
+        <v>20</v>
+      </c>
+      <c r="M48" s="334">
+        <v>20</v>
+      </c>
+      <c r="N48" s="334">
         <v>20</v>
       </c>
       <c r="O48" s="14">
@@ -11553,10 +11749,10 @@
       <c r="X49" s="26"/>
       <c r="Y49" s="26"/>
       <c r="Z49" s="26"/>
-      <c r="AA49" s="285" t="s">
+      <c r="AA49" s="248" t="s">
         <v>142</v>
       </c>
-      <c r="AB49" s="286"/>
+      <c r="AB49" s="249"/>
       <c r="AC49" s="18">
         <f>SUM(AC9:AC21)</f>
         <v>20000</v>
@@ -11634,12 +11830,12 @@
       <c r="AE50" s="23"/>
       <c r="AF50" s="23"/>
       <c r="AG50" s="23"/>
-      <c r="AI50" s="277" t="s">
+      <c r="AI50" s="263" t="s">
         <v>170</v>
       </c>
-      <c r="AJ50" s="278"/>
-      <c r="AK50" s="278"/>
-      <c r="AL50" s="279"/>
+      <c r="AJ50" s="264"/>
+      <c r="AK50" s="264"/>
+      <c r="AL50" s="265"/>
       <c r="AM50" s="52">
         <v>3077000</v>
       </c>
@@ -11700,12 +11896,12 @@
       <c r="AF51" s="23"/>
       <c r="AG51" s="23"/>
       <c r="AH51" s="23"/>
-      <c r="AI51" s="274" t="s">
+      <c r="AI51" s="260" t="s">
         <v>176</v>
       </c>
-      <c r="AJ51" s="275"/>
-      <c r="AK51" s="275"/>
-      <c r="AL51" s="276"/>
+      <c r="AJ51" s="261"/>
+      <c r="AK51" s="261"/>
+      <c r="AL51" s="262"/>
       <c r="AM51" s="53">
         <v>2550000</v>
       </c>
@@ -11963,14 +12159,14 @@
         <v>NO</v>
       </c>
       <c r="V55" s="2"/>
-      <c r="AC55" s="280"/>
-      <c r="AD55" s="280"/>
-      <c r="AI55" s="277" t="s">
+      <c r="AC55" s="266"/>
+      <c r="AD55" s="266"/>
+      <c r="AI55" s="263" t="s">
         <v>174</v>
       </c>
-      <c r="AJ55" s="278"/>
-      <c r="AK55" s="278"/>
-      <c r="AL55" s="279"/>
+      <c r="AJ55" s="264"/>
+      <c r="AK55" s="264"/>
+      <c r="AL55" s="265"/>
       <c r="AM55" s="44">
         <f>AM54</f>
         <v>2627000</v>
@@ -12023,12 +12219,12 @@
         <v>NO</v>
       </c>
       <c r="V56" s="2"/>
-      <c r="AI56" s="273" t="s">
+      <c r="AI56" s="243" t="s">
         <v>168</v>
       </c>
-      <c r="AJ56" s="273"/>
-      <c r="AK56" s="273"/>
-      <c r="AL56" s="273"/>
+      <c r="AJ56" s="243"/>
+      <c r="AK56" s="243"/>
+      <c r="AL56" s="243"/>
       <c r="AM56" s="64">
         <f>AM50-AM55</f>
         <v>450000</v>
@@ -12222,164 +12418,164 @@
     </row>
     <row r="61" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:41" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V62" s="243" t="s">
+      <c r="V62" s="251" t="s">
         <v>195</v>
       </c>
-      <c r="W62" s="244"/>
-      <c r="X62" s="244"/>
-      <c r="Y62" s="244"/>
+      <c r="W62" s="252"/>
+      <c r="X62" s="252"/>
+      <c r="Y62" s="252"/>
     </row>
     <row r="63" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="257" t="s">
+      <c r="C63" s="271" t="s">
         <v>177</v>
       </c>
-      <c r="D63" s="258"/>
-      <c r="E63" s="258"/>
-      <c r="F63" s="258"/>
-      <c r="G63" s="259"/>
-      <c r="I63" s="263" t="s">
+      <c r="D63" s="272"/>
+      <c r="E63" s="272"/>
+      <c r="F63" s="272"/>
+      <c r="G63" s="273"/>
+      <c r="I63" s="277" t="s">
         <v>178</v>
       </c>
-      <c r="J63" s="263"/>
-      <c r="K63" s="263"/>
-      <c r="L63" s="263"/>
-      <c r="M63" s="263"/>
-      <c r="O63" s="266" t="s">
+      <c r="J63" s="277"/>
+      <c r="K63" s="277"/>
+      <c r="L63" s="277"/>
+      <c r="M63" s="277"/>
+      <c r="O63" s="280" t="s">
         <v>193</v>
       </c>
-      <c r="P63" s="267"/>
-      <c r="Q63" s="268"/>
-      <c r="R63" s="268"/>
-      <c r="S63" s="268"/>
+      <c r="P63" s="281"/>
+      <c r="Q63" s="282"/>
+      <c r="R63" s="282"/>
+      <c r="S63" s="282"/>
       <c r="T63" s="83">
         <v>1400000</v>
       </c>
       <c r="U63" s="26"/>
-      <c r="V63" s="243" t="s">
+      <c r="V63" s="251" t="s">
         <v>72</v>
       </c>
-      <c r="W63" s="243"/>
-      <c r="X63" s="289">
+      <c r="W63" s="251"/>
+      <c r="X63" s="255">
         <f>T64</f>
         <v>2128000</v>
       </c>
-      <c r="Y63" s="289"/>
+      <c r="Y63" s="255"/>
     </row>
     <row r="64" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="260"/>
-      <c r="D64" s="261"/>
-      <c r="E64" s="261"/>
-      <c r="F64" s="261"/>
-      <c r="G64" s="262"/>
-      <c r="I64" s="263"/>
-      <c r="J64" s="263"/>
-      <c r="K64" s="263"/>
-      <c r="L64" s="263"/>
-      <c r="M64" s="263"/>
-      <c r="O64" s="269" t="s">
+      <c r="C64" s="274"/>
+      <c r="D64" s="275"/>
+      <c r="E64" s="275"/>
+      <c r="F64" s="275"/>
+      <c r="G64" s="276"/>
+      <c r="I64" s="277"/>
+      <c r="J64" s="277"/>
+      <c r="K64" s="277"/>
+      <c r="L64" s="277"/>
+      <c r="M64" s="277"/>
+      <c r="O64" s="283" t="s">
         <v>194</v>
       </c>
-      <c r="P64" s="270"/>
-      <c r="Q64" s="271"/>
-      <c r="R64" s="271"/>
-      <c r="S64" s="271"/>
+      <c r="P64" s="284"/>
+      <c r="Q64" s="285"/>
+      <c r="R64" s="285"/>
+      <c r="S64" s="285"/>
       <c r="T64" s="84">
         <v>2128000</v>
       </c>
-      <c r="V64" s="244" t="s">
+      <c r="V64" s="252" t="s">
         <v>65</v>
       </c>
-      <c r="W64" s="244"/>
-      <c r="X64" s="290">
+      <c r="W64" s="252"/>
+      <c r="X64" s="256">
         <f>Pengeluaran!F30</f>
-        <v>795000</v>
-      </c>
-      <c r="Y64" s="291"/>
+        <v>896800</v>
+      </c>
+      <c r="Y64" s="257"/>
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O65" s="264" t="s">
+      <c r="O65" s="278" t="s">
         <v>192</v>
       </c>
-      <c r="P65" s="265"/>
-      <c r="Q65" s="265"/>
-      <c r="R65" s="265"/>
-      <c r="S65" s="265"/>
+      <c r="P65" s="279"/>
+      <c r="Q65" s="279"/>
+      <c r="R65" s="279"/>
+      <c r="S65" s="279"/>
       <c r="T65" s="82">
         <f>X66</f>
-        <v>1455000</v>
-      </c>
-      <c r="V65" s="244" t="s">
+        <v>1513200</v>
+      </c>
+      <c r="V65" s="252" t="s">
         <v>98</v>
       </c>
-      <c r="W65" s="244"/>
-      <c r="X65" s="292">
+      <c r="W65" s="252"/>
+      <c r="X65" s="258">
         <f>Pemasukkan!F31</f>
-        <v>122000</v>
-      </c>
-      <c r="Y65" s="293"/>
+        <v>282000</v>
+      </c>
+      <c r="Y65" s="259"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V66" s="243" t="s">
+      <c r="V66" s="251" t="s">
         <v>191</v>
       </c>
-      <c r="W66" s="244"/>
-      <c r="X66" s="287">
+      <c r="W66" s="252"/>
+      <c r="X66" s="253">
         <f>(X63-X64)+X65</f>
-        <v>1455000</v>
-      </c>
-      <c r="Y66" s="288"/>
+        <v>1513200</v>
+      </c>
+      <c r="Y66" s="254"/>
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="253" t="s">
+      <c r="A67" s="267" t="s">
         <v>196</v>
       </c>
-      <c r="B67" s="254"/>
-      <c r="C67" s="255" t="s">
+      <c r="B67" s="268"/>
+      <c r="C67" s="269" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="254"/>
-      <c r="E67" s="254"/>
-      <c r="F67" s="254"/>
-      <c r="G67" s="254"/>
-      <c r="H67" s="254"/>
-      <c r="I67" s="254"/>
-      <c r="J67" s="256"/>
+      <c r="D67" s="268"/>
+      <c r="E67" s="268"/>
+      <c r="F67" s="268"/>
+      <c r="G67" s="268"/>
+      <c r="H67" s="268"/>
+      <c r="I67" s="268"/>
+      <c r="J67" s="270"/>
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="252" t="s">
+      <c r="A68" s="287" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="244"/>
-      <c r="C68" s="243" t="s">
+      <c r="B68" s="252"/>
+      <c r="C68" s="251" t="s">
         <v>199</v>
       </c>
-      <c r="D68" s="244"/>
-      <c r="E68" s="244"/>
-      <c r="F68" s="244"/>
-      <c r="G68" s="244"/>
-      <c r="H68" s="244"/>
-      <c r="I68" s="244"/>
-      <c r="J68" s="245"/>
-      <c r="P68" s="273" t="s">
+      <c r="D68" s="252"/>
+      <c r="E68" s="252"/>
+      <c r="F68" s="252"/>
+      <c r="G68" s="252"/>
+      <c r="H68" s="252"/>
+      <c r="I68" s="252"/>
+      <c r="J68" s="290"/>
+      <c r="P68" s="243" t="s">
         <v>215</v>
       </c>
-      <c r="Q68" s="273"/>
+      <c r="Q68" s="243"/>
     </row>
     <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="252" t="s">
+      <c r="A69" s="287" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="244"/>
-      <c r="C69" s="246" t="s">
+      <c r="B69" s="252"/>
+      <c r="C69" s="291" t="s">
         <v>200</v>
       </c>
-      <c r="D69" s="246"/>
-      <c r="E69" s="246"/>
-      <c r="F69" s="246"/>
-      <c r="G69" s="246"/>
-      <c r="H69" s="246"/>
-      <c r="I69" s="246"/>
-      <c r="J69" s="247"/>
+      <c r="D69" s="291"/>
+      <c r="E69" s="291"/>
+      <c r="F69" s="291"/>
+      <c r="G69" s="291"/>
+      <c r="H69" s="291"/>
+      <c r="I69" s="291"/>
+      <c r="J69" s="292"/>
       <c r="K69" s="67"/>
       <c r="L69" s="67"/>
       <c r="M69" s="67"/>
@@ -12394,16 +12590,20 @@
       <c r="S69" s="67"/>
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="251"/>
-      <c r="B70" s="244"/>
-      <c r="C70" s="244"/>
-      <c r="D70" s="244"/>
-      <c r="E70" s="244"/>
-      <c r="F70" s="244"/>
-      <c r="G70" s="244"/>
-      <c r="H70" s="244"/>
-      <c r="I70" s="244"/>
-      <c r="J70" s="245"/>
+      <c r="A70" s="335" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" s="252"/>
+      <c r="C70" s="251" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="252"/>
+      <c r="E70" s="252"/>
+      <c r="F70" s="252"/>
+      <c r="G70" s="252"/>
+      <c r="H70" s="252"/>
+      <c r="I70" s="252"/>
+      <c r="J70" s="290"/>
       <c r="K70" s="67"/>
       <c r="L70" s="67"/>
       <c r="M70" s="67"/>
@@ -12415,16 +12615,18 @@
       <c r="S70" s="67"/>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="251"/>
-      <c r="B71" s="244"/>
-      <c r="C71" s="248"/>
-      <c r="D71" s="248"/>
-      <c r="E71" s="248"/>
-      <c r="F71" s="248"/>
-      <c r="G71" s="248"/>
-      <c r="H71" s="248"/>
-      <c r="I71" s="248"/>
-      <c r="J71" s="249"/>
+      <c r="A71" s="336"/>
+      <c r="B71" s="337"/>
+      <c r="C71" s="291" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="291"/>
+      <c r="E71" s="291"/>
+      <c r="F71" s="291"/>
+      <c r="G71" s="291"/>
+      <c r="H71" s="291"/>
+      <c r="I71" s="291"/>
+      <c r="J71" s="292"/>
       <c r="K71" s="66"/>
       <c r="L71" s="66"/>
       <c r="M71" s="66"/>
@@ -12436,16 +12638,18 @@
       <c r="S71" s="66"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="251"/>
-      <c r="B72" s="244"/>
-      <c r="C72" s="244"/>
-      <c r="D72" s="244"/>
-      <c r="E72" s="244"/>
-      <c r="F72" s="244"/>
-      <c r="G72" s="244"/>
-      <c r="H72" s="244"/>
-      <c r="I72" s="244"/>
-      <c r="J72" s="245"/>
+      <c r="A72" s="338"/>
+      <c r="B72" s="259"/>
+      <c r="C72" s="251" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="252"/>
+      <c r="E72" s="252"/>
+      <c r="F72" s="252"/>
+      <c r="G72" s="252"/>
+      <c r="H72" s="252"/>
+      <c r="I72" s="252"/>
+      <c r="J72" s="290"/>
       <c r="K72" s="61"/>
       <c r="L72" s="61"/>
       <c r="M72" s="61"/>
@@ -12457,16 +12661,16 @@
       <c r="S72" s="61"/>
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="251"/>
-      <c r="B73" s="244"/>
-      <c r="C73" s="248"/>
-      <c r="D73" s="248"/>
-      <c r="E73" s="248"/>
-      <c r="F73" s="248"/>
-      <c r="G73" s="248"/>
-      <c r="H73" s="248"/>
-      <c r="I73" s="248"/>
-      <c r="J73" s="249"/>
+      <c r="A73" s="286"/>
+      <c r="B73" s="252"/>
+      <c r="C73" s="293"/>
+      <c r="D73" s="293"/>
+      <c r="E73" s="293"/>
+      <c r="F73" s="293"/>
+      <c r="G73" s="293"/>
+      <c r="H73" s="293"/>
+      <c r="I73" s="293"/>
+      <c r="J73" s="294"/>
       <c r="K73" s="61"/>
       <c r="L73" s="61"/>
       <c r="M73" s="61"/>
@@ -12478,16 +12682,16 @@
       <c r="S73" s="61"/>
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="251"/>
-      <c r="B74" s="244"/>
-      <c r="C74" s="244"/>
-      <c r="D74" s="244"/>
-      <c r="E74" s="244"/>
-      <c r="F74" s="244"/>
-      <c r="G74" s="244"/>
-      <c r="H74" s="244"/>
-      <c r="I74" s="244"/>
-      <c r="J74" s="245"/>
+      <c r="A74" s="286"/>
+      <c r="B74" s="252"/>
+      <c r="C74" s="252"/>
+      <c r="D74" s="252"/>
+      <c r="E74" s="252"/>
+      <c r="F74" s="252"/>
+      <c r="G74" s="252"/>
+      <c r="H74" s="252"/>
+      <c r="I74" s="252"/>
+      <c r="J74" s="290"/>
       <c r="K74" s="61"/>
       <c r="L74" s="61"/>
       <c r="M74" s="61"/>
@@ -12499,16 +12703,16 @@
       <c r="S74" s="61"/>
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="251"/>
-      <c r="B75" s="244"/>
-      <c r="C75" s="248"/>
-      <c r="D75" s="248"/>
-      <c r="E75" s="248"/>
-      <c r="F75" s="248"/>
-      <c r="G75" s="248"/>
-      <c r="H75" s="248"/>
-      <c r="I75" s="248"/>
-      <c r="J75" s="249"/>
+      <c r="A75" s="286"/>
+      <c r="B75" s="252"/>
+      <c r="C75" s="293"/>
+      <c r="D75" s="293"/>
+      <c r="E75" s="293"/>
+      <c r="F75" s="293"/>
+      <c r="G75" s="293"/>
+      <c r="H75" s="293"/>
+      <c r="I75" s="293"/>
+      <c r="J75" s="294"/>
       <c r="K75" s="61"/>
       <c r="L75" s="61"/>
       <c r="M75" s="61"/>
@@ -12520,16 +12724,16 @@
       <c r="S75" s="61"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="251"/>
-      <c r="B76" s="244"/>
-      <c r="C76" s="244"/>
-      <c r="D76" s="244"/>
-      <c r="E76" s="244"/>
-      <c r="F76" s="244"/>
-      <c r="G76" s="244"/>
-      <c r="H76" s="244"/>
-      <c r="I76" s="244"/>
-      <c r="J76" s="245"/>
+      <c r="A76" s="286"/>
+      <c r="B76" s="252"/>
+      <c r="C76" s="252"/>
+      <c r="D76" s="252"/>
+      <c r="E76" s="252"/>
+      <c r="F76" s="252"/>
+      <c r="G76" s="252"/>
+      <c r="H76" s="252"/>
+      <c r="I76" s="252"/>
+      <c r="J76" s="290"/>
       <c r="K76" s="61"/>
       <c r="L76" s="61"/>
       <c r="M76" s="61"/>
@@ -12541,16 +12745,16 @@
       <c r="S76" s="61"/>
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="251"/>
-      <c r="B77" s="244"/>
-      <c r="C77" s="248"/>
-      <c r="D77" s="248"/>
-      <c r="E77" s="248"/>
-      <c r="F77" s="248"/>
-      <c r="G77" s="248"/>
-      <c r="H77" s="248"/>
-      <c r="I77" s="248"/>
-      <c r="J77" s="249"/>
+      <c r="A77" s="286"/>
+      <c r="B77" s="252"/>
+      <c r="C77" s="293"/>
+      <c r="D77" s="293"/>
+      <c r="E77" s="293"/>
+      <c r="F77" s="293"/>
+      <c r="G77" s="293"/>
+      <c r="H77" s="293"/>
+      <c r="I77" s="293"/>
+      <c r="J77" s="294"/>
       <c r="K77" s="61"/>
       <c r="L77" s="61"/>
       <c r="M77" s="61"/>
@@ -12562,16 +12766,16 @@
       <c r="S77" s="61"/>
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="241"/>
-      <c r="B78" s="242"/>
-      <c r="C78" s="242"/>
-      <c r="D78" s="242"/>
-      <c r="E78" s="242"/>
-      <c r="F78" s="242"/>
-      <c r="G78" s="242"/>
-      <c r="H78" s="242"/>
-      <c r="I78" s="242"/>
-      <c r="J78" s="250"/>
+      <c r="A78" s="288"/>
+      <c r="B78" s="289"/>
+      <c r="C78" s="289"/>
+      <c r="D78" s="289"/>
+      <c r="E78" s="289"/>
+      <c r="F78" s="289"/>
+      <c r="G78" s="289"/>
+      <c r="H78" s="289"/>
+      <c r="I78" s="289"/>
+      <c r="J78" s="295"/>
       <c r="K78" s="61"/>
       <c r="L78" s="61"/>
       <c r="M78" s="61"/>
@@ -12983,42 +13187,6 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="52">
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="C2:T3"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="AD7:AN7"/>
-    <mergeCell ref="X5:AN5"/>
-    <mergeCell ref="Z6:AN6"/>
-    <mergeCell ref="AI56:AL56"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="AI50:AL50"/>
-    <mergeCell ref="AI55:AL55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C63:G64"/>
-    <mergeCell ref="I63:M64"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="O63:S63"/>
-    <mergeCell ref="O64:S64"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C68:J68"/>
     <mergeCell ref="C69:J69"/>
@@ -13035,6 +13203,42 @@
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C63:G64"/>
+    <mergeCell ref="I63:M64"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="O63:S63"/>
+    <mergeCell ref="O64:S64"/>
+    <mergeCell ref="AD7:AN7"/>
+    <mergeCell ref="X5:AN5"/>
+    <mergeCell ref="Z6:AN6"/>
+    <mergeCell ref="AI56:AL56"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="AI50:AL50"/>
+    <mergeCell ref="AI55:AL55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="C2:T3"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="X65:Y65"/>
   </mergeCells>
   <conditionalFormatting sqref="B60:V60 C55:V59 Q7:R60 B6:V54">
     <cfRule type="expression" dxfId="9" priority="6">
@@ -13094,7 +13298,7 @@
   <dimension ref="C2:K220"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13110,28 +13314,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="294" t="s">
+      <c r="C2" s="296" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
-      <c r="J2" s="295"/>
-      <c r="K2" s="295"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
+      <c r="J2" s="297"/>
+      <c r="K2" s="297"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="295"/>
-      <c r="D3" s="295"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295"/>
-      <c r="H3" s="295"/>
-      <c r="I3" s="295"/>
-      <c r="J3" s="295"/>
-      <c r="K3" s="295"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="297"/>
+      <c r="K3" s="297"/>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="70" t="s">
@@ -13171,42 +13375,60 @@
       <c r="C8" s="69">
         <v>2</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="314" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="73">
         <v>45000</v>
       </c>
-      <c r="G8" s="69"/>
+      <c r="G8" s="314"/>
     </row>
     <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="69">
+      <c r="C9" s="315">
         <v>3</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="68"/>
+      <c r="D9" s="318" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="319" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="68">
+        <v>100000</v>
+      </c>
       <c r="G9" s="69"/>
     </row>
     <row r="10" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="69">
         <v>4</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
+      <c r="D10" s="316" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="317">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="316"/>
     </row>
     <row r="11" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="69">
         <v>5</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="68"/>
+      <c r="D11" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="68">
+        <v>800</v>
+      </c>
       <c r="G11" s="69"/>
     </row>
     <row r="12" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13352,54 +13574,54 @@
       </c>
       <c r="F27" s="75">
         <f>SUM(F7:F26)</f>
-        <v>795000</v>
+        <v>896800</v>
       </c>
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="253" t="s">
+      <c r="D29" s="267" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="255"/>
-      <c r="F29" s="296">
+      <c r="E29" s="269"/>
+      <c r="F29" s="298">
         <f>'2019'!T64</f>
         <v>2128000</v>
       </c>
-      <c r="G29" s="297"/>
+      <c r="G29" s="299"/>
     </row>
     <row r="30" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="251" t="s">
+      <c r="D30" s="286" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="244"/>
-      <c r="F30" s="290">
+      <c r="E30" s="252"/>
+      <c r="F30" s="256">
         <f>F27</f>
-        <v>795000</v>
-      </c>
-      <c r="G30" s="302"/>
+        <v>896800</v>
+      </c>
+      <c r="G30" s="304"/>
     </row>
     <row r="31" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="251" t="s">
+      <c r="D31" s="286" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="244"/>
-      <c r="F31" s="292">
+      <c r="E31" s="252"/>
+      <c r="F31" s="258">
         <f>Pemasukkan!F27</f>
-        <v>122000</v>
-      </c>
-      <c r="G31" s="303"/>
+        <v>282000</v>
+      </c>
+      <c r="G31" s="305"/>
     </row>
     <row r="32" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="298" t="s">
+      <c r="D32" s="300" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="299"/>
-      <c r="F32" s="300">
+      <c r="E32" s="301"/>
+      <c r="F32" s="302">
         <f>'2019'!T65</f>
-        <v>1455000</v>
-      </c>
-      <c r="G32" s="301"/>
+        <v>1513200</v>
+      </c>
+      <c r="G32" s="303"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13612,17 +13834,17 @@
   <dimension ref="C2:K220"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.7109375" style="65" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="65" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" style="65" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="65" customWidth="1"/>
-    <col min="7" max="7" width="51" style="65" customWidth="1"/>
+    <col min="7" max="7" width="79.7109375" style="65" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="65" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" style="65" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="65"/>
@@ -13631,28 +13853,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="306" t="s">
+      <c r="C2" s="308" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307"/>
-      <c r="K2" s="307"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="309"/>
+      <c r="G2" s="309"/>
+      <c r="H2" s="309"/>
+      <c r="I2" s="309"/>
+      <c r="J2" s="309"/>
+      <c r="K2" s="309"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
-      <c r="F3" s="307"/>
-      <c r="G3" s="307"/>
-      <c r="H3" s="307"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="307"/>
-      <c r="K3" s="307"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="309"/>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="70" t="s">
@@ -13688,23 +13910,39 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="76">
+        <v>60000</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="76">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="10" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
@@ -13867,54 +14105,54 @@
       </c>
       <c r="F27" s="75">
         <f>SUM(F7:F26)</f>
-        <v>122000</v>
+        <v>282000</v>
       </c>
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="266" t="s">
+      <c r="D29" s="280" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="268"/>
-      <c r="F29" s="308">
+      <c r="E29" s="282"/>
+      <c r="F29" s="310">
         <f>'2019'!T64</f>
         <v>2128000</v>
       </c>
-      <c r="G29" s="309"/>
+      <c r="G29" s="311"/>
     </row>
     <row r="30" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="252" t="s">
+      <c r="D30" s="287" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="244"/>
-      <c r="F30" s="290">
+      <c r="E30" s="252"/>
+      <c r="F30" s="256">
         <f>Pengeluaran!F30</f>
-        <v>795000</v>
-      </c>
-      <c r="G30" s="302"/>
+        <v>896800</v>
+      </c>
+      <c r="G30" s="304"/>
     </row>
     <row r="31" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="251" t="s">
+      <c r="D31" s="286" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="244"/>
-      <c r="F31" s="292">
+      <c r="E31" s="252"/>
+      <c r="F31" s="258">
         <f>F27</f>
-        <v>122000</v>
-      </c>
-      <c r="G31" s="303"/>
+        <v>282000</v>
+      </c>
+      <c r="G31" s="305"/>
     </row>
     <row r="32" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="298" t="s">
+      <c r="D32" s="300" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="299"/>
-      <c r="F32" s="304">
+      <c r="E32" s="301"/>
+      <c r="F32" s="306">
         <f>'2019'!T65</f>
-        <v>1455000</v>
-      </c>
-      <c r="G32" s="305"/>
+        <v>1513200</v>
+      </c>
+      <c r="G32" s="307"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14124,6 +14362,445 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K32"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="7" max="7" width="60.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="339" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
+      <c r="G2" s="340"/>
+      <c r="H2" s="340"/>
+      <c r="I2" s="340"/>
+      <c r="J2" s="340"/>
+      <c r="K2" s="340"/>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="340"/>
+      <c r="K3" s="340"/>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="222" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="222" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="222" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="222" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="222" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="221"/>
+      <c r="K6" s="221"/>
+    </row>
+    <row r="7" spans="3:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="79">
+        <v>60000</v>
+      </c>
+      <c r="G7" s="321" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" s="221"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="221"/>
+    </row>
+    <row r="8" spans="3:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="320"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221"/>
+      <c r="K8" s="221"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="330"/>
+      <c r="F9" s="331"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
+      <c r="K9" s="221"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="321"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="221"/>
+      <c r="K10" s="221"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="321"/>
+      <c r="H11" s="221"/>
+      <c r="I11" s="221"/>
+      <c r="J11" s="221"/>
+      <c r="K11" s="221"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="321"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="221"/>
+      <c r="K12" s="221"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="221"/>
+      <c r="I13" s="221"/>
+      <c r="J13" s="221"/>
+      <c r="K13" s="221"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="221"/>
+      <c r="K14" s="221"/>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="320"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="221"/>
+      <c r="J15" s="221"/>
+      <c r="K15" s="221"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="320"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="221"/>
+      <c r="J16" s="221"/>
+      <c r="K16" s="221"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="320"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="221"/>
+      <c r="K17" s="221"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="320"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="221"/>
+      <c r="J18" s="221"/>
+      <c r="K18" s="221"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="320"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="221"/>
+      <c r="J19" s="221"/>
+      <c r="K19" s="221"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="320"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="221"/>
+      <c r="J20" s="221"/>
+      <c r="K20" s="221"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="320"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="221"/>
+      <c r="J21" s="221"/>
+      <c r="K21" s="221"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="320"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="221"/>
+      <c r="J22" s="221"/>
+      <c r="K22" s="221"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="320"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="221"/>
+      <c r="K23" s="221"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="320"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
+      <c r="K24" s="221"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="320"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
+      <c r="J25" s="221"/>
+      <c r="K25" s="221"/>
+    </row>
+    <row r="26" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="1">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="320"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="221"/>
+    </row>
+    <row r="27" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="75">
+        <f>SUM(F7:F26)</f>
+        <v>60000</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="221"/>
+      <c r="J27" s="221"/>
+      <c r="K27" s="221"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="221"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="221"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="221"/>
+      <c r="J28" s="221"/>
+      <c r="K28" s="221"/>
+    </row>
+    <row r="29" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="221"/>
+      <c r="D29" s="324"/>
+      <c r="E29" s="324"/>
+      <c r="F29" s="325"/>
+      <c r="G29" s="325"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="221"/>
+      <c r="J29" s="221"/>
+      <c r="K29" s="221"/>
+    </row>
+    <row r="30" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="26"/>
+      <c r="D30" s="326" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="327"/>
+      <c r="F30" s="328">
+        <f>F27</f>
+        <v>60000</v>
+      </c>
+      <c r="G30" s="329"/>
+      <c r="H30" s="221"/>
+      <c r="I30" s="221"/>
+      <c r="J30" s="221"/>
+      <c r="K30" s="221"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="221"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="221"/>
+      <c r="K31" s="221"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="221"/>
+      <c r="D32" s="322"/>
+      <c r="E32" s="322"/>
+      <c r="F32" s="323"/>
+      <c r="G32" s="322"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="221"/>
+      <c r="J32" s="221"/>
+      <c r="K32" s="221"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="C2:K3"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14138,17 +14815,17 @@
     <row r="3" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="31"/>
-      <c r="C4" s="310" t="s">
+      <c r="C4" s="312" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="311"/>
+      <c r="D4" s="313"/>
       <c r="E4" s="32"/>
       <c r="F4" s="38"/>
       <c r="G4" s="39"/>
-      <c r="H4" s="310" t="s">
+      <c r="H4" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="40"/>
       <c r="K4" s="32"/>
     </row>
@@ -14275,17 +14952,17 @@
     <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
-      <c r="C17" s="310" t="s">
+      <c r="C17" s="312" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="311"/>
+      <c r="D17" s="313"/>
       <c r="E17" s="32"/>
       <c r="F17" s="31"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="310" t="s">
+      <c r="H17" s="312" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="311"/>
+      <c r="I17" s="313"/>
       <c r="J17" s="40"/>
       <c r="K17" s="32"/>
     </row>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="459" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="533" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2018(NOT UPDATED)" sheetId="1" r:id="rId1"/>
     <sheet name="2019" sheetId="2" r:id="rId2"/>
-    <sheet name="Pengeluaran" sheetId="4" r:id="rId3"/>
+    <sheet name="Hitung Pemasukan Pengeluaran" sheetId="8" r:id="rId3"/>
     <sheet name="Pemasukkan" sheetId="6" r:id="rId4"/>
-    <sheet name="Inventaris" sheetId="7" r:id="rId5"/>
-    <sheet name="Lampiran Polo" sheetId="3" r:id="rId6"/>
+    <sheet name="Pengeluaran" sheetId="4" r:id="rId5"/>
+    <sheet name="Inventaris" sheetId="7" r:id="rId6"/>
+    <sheet name="Lampiran Polo" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="265">
   <si>
     <t>LAPORAN KEUANGAN KAS GAS</t>
   </si>
@@ -745,6 +746,75 @@
   </si>
   <si>
     <t>ruman</t>
+  </si>
+  <si>
+    <t>Biaya Ambil Uang bukan Mandiri</t>
+  </si>
+  <si>
+    <t>15 Agustus 2019</t>
+  </si>
+  <si>
+    <t>Pilox Orange</t>
+  </si>
+  <si>
+    <t>Cableties 25 cm</t>
+  </si>
+  <si>
+    <t>(*A)</t>
+  </si>
+  <si>
+    <t>Pengeluaran Dan Pemasukkan Terakhir 8 Agustus</t>
+  </si>
+  <si>
+    <t>Pengeluaran - 8 Agustus 2019</t>
+  </si>
+  <si>
+    <t>Pengeluaran Mulai dari 15 Agustus</t>
+  </si>
+  <si>
+    <t>Pemasukkan sampai 08 Agustus</t>
+  </si>
+  <si>
+    <t>Pemasukkan Mulai Tanggal 15 Agustus</t>
+  </si>
+  <si>
+    <t>Pengeluaran Dan Pemasukkan Mulai 08 Agustus</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Ruman Bayar KAS 100k tunai</t>
+  </si>
+  <si>
+    <t>Josh Bayar KAS 130k Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total KAS Dibayarkan (*T)</t>
+  </si>
+  <si>
+    <t>Total Uang KAS GAS (*A)</t>
+  </si>
+  <si>
+    <t>Uang Rekening</t>
+  </si>
+  <si>
+    <t>Uang Disetor</t>
+  </si>
+  <si>
+    <t>Total Uang Di Setor Rekening</t>
+  </si>
+  <si>
+    <t>4k sisa ambil duit perkap gelex masi di rapli</t>
+  </si>
+  <si>
+    <t>(*T)</t>
+  </si>
+  <si>
+    <t>Uang Yang ada pada Amplop/Bayar KAS Tunai</t>
+  </si>
+  <si>
+    <t>Uang KAS yang dibayarkan via trf</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1074,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -1785,12 +1855,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2152,18 +2319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="6" fillId="13" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2212,19 +2367,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2232,9 +2377,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2250,12 +2400,86 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2274,12 +2498,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2289,27 +2507,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2355,77 +2555,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2502,6 +2631,134 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2510,14 +2767,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2590,6 +2839,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF00B050"/>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3301,7 +3558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U266"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -3325,126 +3582,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="209"/>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="209"/>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="209"/>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
+      <c r="A4" s="201"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="209"/>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
-      <c r="L5" s="210"/>
-      <c r="M5" s="210"/>
-      <c r="N5" s="210"/>
-      <c r="O5" s="210"/>
-      <c r="P5" s="210"/>
-      <c r="Q5" s="210"/>
-      <c r="R5" s="210"/>
+      <c r="A5" s="201"/>
+      <c r="B5" s="202"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="202"/>
+      <c r="O5" s="202"/>
+      <c r="P5" s="202"/>
+      <c r="Q5" s="202"/>
+      <c r="R5" s="202"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="209"/>
-      <c r="B6" s="210"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
-      <c r="L6" s="210"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="210"/>
-      <c r="O6" s="210"/>
-      <c r="P6" s="210"/>
-      <c r="Q6" s="210"/>
-      <c r="R6" s="210"/>
+      <c r="A6" s="201"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="202"/>
+      <c r="N6" s="202"/>
+      <c r="O6" s="202"/>
+      <c r="P6" s="202"/>
+      <c r="Q6" s="202"/>
+      <c r="R6" s="202"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="s">
@@ -6389,58 +6646,58 @@
     <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J79" s="212" t="s">
+      <c r="J79" s="207" t="s">
         <v>65</v>
       </c>
-      <c r="K79" s="213"/>
-      <c r="L79" s="213"/>
-      <c r="M79" s="213"/>
-      <c r="N79" s="214"/>
-      <c r="P79" s="220" t="s">
+      <c r="K79" s="208"/>
+      <c r="L79" s="208"/>
+      <c r="M79" s="208"/>
+      <c r="N79" s="209"/>
+      <c r="P79" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="Q79" s="213"/>
-      <c r="R79" s="213"/>
-      <c r="S79" s="214"/>
+      <c r="Q79" s="208"/>
+      <c r="R79" s="208"/>
+      <c r="S79" s="209"/>
     </row>
     <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J80" s="215" t="s">
+      <c r="J80" s="210" t="s">
         <v>67</v>
       </c>
-      <c r="K80" s="210"/>
-      <c r="L80" s="210"/>
-      <c r="M80" s="210"/>
-      <c r="N80" s="216"/>
-      <c r="P80" s="215" t="s">
+      <c r="K80" s="202"/>
+      <c r="L80" s="202"/>
+      <c r="M80" s="202"/>
+      <c r="N80" s="211"/>
+      <c r="P80" s="210" t="s">
         <v>68</v>
       </c>
-      <c r="Q80" s="210"/>
-      <c r="R80" s="210"/>
-      <c r="S80" s="216"/>
+      <c r="Q80" s="202"/>
+      <c r="R80" s="202"/>
+      <c r="S80" s="211"/>
     </row>
     <row r="81" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J81" s="217"/>
-      <c r="K81" s="218"/>
-      <c r="L81" s="218"/>
-      <c r="M81" s="218"/>
-      <c r="N81" s="219"/>
-      <c r="P81" s="217"/>
-      <c r="Q81" s="218"/>
-      <c r="R81" s="218"/>
-      <c r="S81" s="219"/>
+      <c r="J81" s="212"/>
+      <c r="K81" s="213"/>
+      <c r="L81" s="213"/>
+      <c r="M81" s="213"/>
+      <c r="N81" s="214"/>
+      <c r="P81" s="212"/>
+      <c r="Q81" s="213"/>
+      <c r="R81" s="213"/>
+      <c r="S81" s="214"/>
     </row>
     <row r="82" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J82" s="211" t="s">
+      <c r="J82" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="K82" s="202"/>
-      <c r="L82" s="203"/>
-      <c r="M82" s="211" t="s">
+      <c r="K82" s="206"/>
+      <c r="L82" s="204"/>
+      <c r="M82" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="N82" s="203"/>
-      <c r="P82" s="211"/>
-      <c r="Q82" s="203"/>
+      <c r="N82" s="204"/>
+      <c r="P82" s="205"/>
+      <c r="Q82" s="204"/>
       <c r="R82" s="3" t="s">
         <v>19</v>
       </c>
@@ -6449,38 +6706,38 @@
       </c>
     </row>
     <row r="83" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J83" s="201" t="s">
+      <c r="J83" s="216" t="s">
         <v>70</v>
       </c>
-      <c r="K83" s="202"/>
-      <c r="L83" s="203"/>
-      <c r="M83" s="204">
+      <c r="K83" s="206"/>
+      <c r="L83" s="204"/>
+      <c r="M83" s="217">
         <v>7350000</v>
       </c>
-      <c r="N83" s="203"/>
-      <c r="P83" s="205" t="s">
+      <c r="N83" s="204"/>
+      <c r="P83" s="203" t="s">
         <v>71</v>
       </c>
-      <c r="Q83" s="203"/>
+      <c r="Q83" s="204"/>
       <c r="R83" s="4"/>
       <c r="S83" s="5">
         <v>40000</v>
       </c>
     </row>
     <row r="84" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J84" s="201" t="s">
+      <c r="J84" s="216" t="s">
         <v>72</v>
       </c>
-      <c r="K84" s="202"/>
-      <c r="L84" s="203"/>
-      <c r="M84" s="206">
+      <c r="K84" s="206"/>
+      <c r="L84" s="204"/>
+      <c r="M84" s="218">
         <v>1100000</v>
       </c>
-      <c r="N84" s="203"/>
-      <c r="P84" s="205" t="s">
+      <c r="N84" s="204"/>
+      <c r="P84" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="Q84" s="203"/>
+      <c r="Q84" s="204"/>
       <c r="R84" s="6" t="s">
         <v>74</v>
       </c>
@@ -6489,39 +6746,39 @@
       </c>
     </row>
     <row r="85" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J85" s="201" t="s">
+      <c r="J85" s="216" t="s">
         <v>75</v>
       </c>
-      <c r="K85" s="202"/>
-      <c r="L85" s="203"/>
-      <c r="M85" s="204">
+      <c r="K85" s="206"/>
+      <c r="L85" s="204"/>
+      <c r="M85" s="217">
         <f>M83+M84</f>
         <v>8450000</v>
       </c>
-      <c r="N85" s="203"/>
-      <c r="P85" s="205" t="s">
+      <c r="N85" s="204"/>
+      <c r="P85" s="203" t="s">
         <v>76</v>
       </c>
-      <c r="Q85" s="203"/>
+      <c r="Q85" s="204"/>
       <c r="R85" s="4"/>
       <c r="S85" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J86" s="201" t="s">
+      <c r="J86" s="216" t="s">
         <v>77</v>
       </c>
-      <c r="K86" s="202"/>
-      <c r="L86" s="203"/>
-      <c r="M86" s="204">
+      <c r="K86" s="206"/>
+      <c r="L86" s="204"/>
+      <c r="M86" s="217">
         <v>8411850</v>
       </c>
-      <c r="N86" s="203"/>
-      <c r="P86" s="205" t="s">
+      <c r="N86" s="204"/>
+      <c r="P86" s="203" t="s">
         <v>78</v>
       </c>
-      <c r="Q86" s="203"/>
+      <c r="Q86" s="204"/>
       <c r="R86" s="4"/>
       <c r="S86" s="5">
         <f>S83-S84+S85</f>
@@ -6529,20 +6786,20 @@
       </c>
     </row>
     <row r="87" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J87" s="201" t="s">
+      <c r="J87" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="K87" s="202"/>
-      <c r="L87" s="203"/>
-      <c r="M87" s="204">
+      <c r="K87" s="206"/>
+      <c r="L87" s="204"/>
+      <c r="M87" s="217">
         <f>M85-M86</f>
         <v>38150</v>
       </c>
-      <c r="N87" s="203"/>
-      <c r="P87" s="205" t="s">
+      <c r="N87" s="204"/>
+      <c r="P87" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="Q87" s="203"/>
+      <c r="Q87" s="204"/>
       <c r="R87" s="4"/>
       <c r="S87" s="5">
         <f>M87+S86</f>
@@ -6731,6 +6988,17 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="23">
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="M84:N84"/>
     <mergeCell ref="A1:R6"/>
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="J82:L82"/>
@@ -6743,17 +7011,6 @@
     <mergeCell ref="P83:Q83"/>
     <mergeCell ref="P82:Q82"/>
     <mergeCell ref="P80:S81"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P86:Q86"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T52">
     <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
@@ -6787,8 +7044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BM260"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="B2" colorId="8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView defaultGridColor="0" topLeftCell="A43" colorId="8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6830,46 +7087,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="C2" s="256" t="s">
+      <c r="C2" s="239" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="209"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="210"/>
-      <c r="T3" s="210"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6956,25 +7213,25 @@
       <c r="V5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="268" t="s">
+      <c r="X5" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="202"/>
-      <c r="Z5" s="202"/>
-      <c r="AA5" s="202"/>
-      <c r="AB5" s="202"/>
-      <c r="AC5" s="202"/>
-      <c r="AD5" s="202"/>
-      <c r="AE5" s="202"/>
-      <c r="AF5" s="202"/>
-      <c r="AG5" s="202"/>
-      <c r="AH5" s="202"/>
-      <c r="AI5" s="202"/>
-      <c r="AJ5" s="202"/>
-      <c r="AK5" s="202"/>
-      <c r="AL5" s="202"/>
-      <c r="AM5" s="202"/>
-      <c r="AN5" s="203"/>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="206"/>
+      <c r="AA5" s="206"/>
+      <c r="AB5" s="206"/>
+      <c r="AC5" s="206"/>
+      <c r="AD5" s="206"/>
+      <c r="AE5" s="206"/>
+      <c r="AF5" s="206"/>
+      <c r="AG5" s="206"/>
+      <c r="AH5" s="206"/>
+      <c r="AI5" s="206"/>
+      <c r="AJ5" s="206"/>
+      <c r="AK5" s="206"/>
+      <c r="AL5" s="206"/>
+      <c r="AM5" s="206"/>
+      <c r="AN5" s="204"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -7039,29 +7296,29 @@
         <v>NO</v>
       </c>
       <c r="V6" s="13"/>
-      <c r="X6" s="257" t="s">
+      <c r="X6" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="257" t="s">
+      <c r="Y6" s="240" t="s">
         <v>85</v>
       </c>
       <c r="Z6" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="AA6" s="258"/>
-      <c r="AB6" s="258"/>
-      <c r="AC6" s="258"/>
-      <c r="AD6" s="258"/>
-      <c r="AE6" s="258"/>
-      <c r="AF6" s="258"/>
-      <c r="AG6" s="258"/>
-      <c r="AH6" s="258"/>
-      <c r="AI6" s="258"/>
-      <c r="AJ6" s="258"/>
-      <c r="AK6" s="258"/>
-      <c r="AL6" s="258"/>
-      <c r="AM6" s="258"/>
-      <c r="AN6" s="258"/>
+      <c r="AA6" s="227"/>
+      <c r="AB6" s="227"/>
+      <c r="AC6" s="227"/>
+      <c r="AD6" s="227"/>
+      <c r="AE6" s="227"/>
+      <c r="AF6" s="227"/>
+      <c r="AG6" s="227"/>
+      <c r="AH6" s="227"/>
+      <c r="AI6" s="227"/>
+      <c r="AJ6" s="227"/>
+      <c r="AK6" s="227"/>
+      <c r="AL6" s="227"/>
+      <c r="AM6" s="227"/>
+      <c r="AN6" s="227"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -7124,27 +7381,27 @@
         <v>NO</v>
       </c>
       <c r="V7" s="13"/>
-      <c r="X7" s="258"/>
-      <c r="Y7" s="258"/>
+      <c r="X7" s="227"/>
+      <c r="Y7" s="227"/>
       <c r="Z7" s="222" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="258"/>
-      <c r="AB7" s="258"/>
-      <c r="AC7" s="258"/>
+      <c r="AA7" s="227"/>
+      <c r="AB7" s="227"/>
+      <c r="AC7" s="227"/>
       <c r="AD7" s="222" t="s">
         <v>88</v>
       </c>
-      <c r="AE7" s="258"/>
-      <c r="AF7" s="258"/>
-      <c r="AG7" s="258"/>
-      <c r="AH7" s="258"/>
-      <c r="AI7" s="258"/>
-      <c r="AJ7" s="258"/>
-      <c r="AK7" s="258"/>
-      <c r="AL7" s="258"/>
-      <c r="AM7" s="258"/>
-      <c r="AN7" s="258"/>
+      <c r="AE7" s="227"/>
+      <c r="AF7" s="227"/>
+      <c r="AG7" s="227"/>
+      <c r="AH7" s="227"/>
+      <c r="AI7" s="227"/>
+      <c r="AJ7" s="227"/>
+      <c r="AK7" s="227"/>
+      <c r="AL7" s="227"/>
+      <c r="AM7" s="227"/>
+      <c r="AN7" s="227"/>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -7194,8 +7451,8 @@
         <v>NO</v>
       </c>
       <c r="V8" s="13"/>
-      <c r="X8" s="258"/>
-      <c r="Y8" s="258"/>
+      <c r="X8" s="227"/>
+      <c r="Y8" s="227"/>
       <c r="Z8" s="172" t="s">
         <v>19</v>
       </c>
@@ -7249,17 +7506,27 @@
       <c r="B9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="73"/>
+      <c r="C9" s="73">
+        <v>20</v>
+      </c>
       <c r="D9" s="73">
-        <v>5</v>
-      </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72">
-        <v>5</v>
-      </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="72"/>
+        <v>20</v>
+      </c>
+      <c r="E9" s="73">
+        <v>20</v>
+      </c>
+      <c r="F9" s="73">
+        <v>20</v>
+      </c>
+      <c r="G9" s="73">
+        <v>20</v>
+      </c>
+      <c r="H9" s="73">
+        <v>20</v>
+      </c>
+      <c r="I9" s="73">
+        <v>20</v>
+      </c>
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
       <c r="L9" s="72"/>
@@ -7267,7 +7534,7 @@
       <c r="N9" s="72"/>
       <c r="O9" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="P9" s="130">
         <f>'2018(NOT UPDATED)'!S13</f>
@@ -7275,19 +7542,19 @@
       </c>
       <c r="Q9" s="131">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="R9" s="132">
         <f t="shared" si="5"/>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S9" s="13">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="T9" s="14">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="U9" s="15" t="str">
         <f t="shared" si="3"/>
@@ -7297,7 +7564,7 @@
       <c r="X9" s="1">
         <v>1</v>
       </c>
-      <c r="Y9" s="179" t="s">
+      <c r="Y9" s="175" t="s">
         <v>32</v>
       </c>
       <c r="Z9" s="138" t="s">
@@ -7309,28 +7576,28 @@
       <c r="AB9" s="138">
         <v>1</v>
       </c>
-      <c r="AC9" s="180">
+      <c r="AC9" s="176">
         <f t="shared" ref="AC9:AC48" si="6">(AB9*10000)</f>
         <v>10000</v>
       </c>
       <c r="AD9" s="138"/>
       <c r="AE9" s="138"/>
-      <c r="AF9" s="179"/>
+      <c r="AF9" s="175"/>
       <c r="AG9" s="137"/>
-      <c r="AH9" s="181"/>
-      <c r="AI9" s="182"/>
+      <c r="AH9" s="177"/>
+      <c r="AI9" s="178"/>
       <c r="AJ9" s="138">
         <v>0</v>
       </c>
       <c r="AK9" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="AL9" s="180"/>
-      <c r="AM9" s="183">
+      <c r="AL9" s="176"/>
+      <c r="AM9" s="179">
         <f>IF(AD9="XXL", 82000*AJ9, IF(AD9="XXXL", 89000*AJ9, 75000*AJ9))</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="184">
+      <c r="AN9" s="180">
         <f t="shared" ref="AN9:AN48" si="7">IF(AK9="YES",(AL9-AM9),0)</f>
         <v>0</v>
       </c>
@@ -7387,7 +7654,7 @@
       <c r="X10" s="151">
         <v>2</v>
       </c>
-      <c r="Y10" s="185" t="s">
+      <c r="Y10" s="181" t="s">
         <v>64</v>
       </c>
       <c r="Z10" s="154" t="s">
@@ -7399,7 +7666,7 @@
       <c r="AB10" s="154">
         <v>1</v>
       </c>
-      <c r="AC10" s="186">
+      <c r="AC10" s="182">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
@@ -7407,13 +7674,13 @@
         <v>102</v>
       </c>
       <c r="AE10" s="154"/>
-      <c r="AF10" s="185">
+      <c r="AF10" s="181">
         <v>2018</v>
       </c>
       <c r="AG10" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="AH10" s="187">
+      <c r="AH10" s="183">
         <v>0.85555555555555551</v>
       </c>
       <c r="AI10" s="153" t="s">
@@ -7425,14 +7692,14 @@
       <c r="AK10" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="AL10" s="186">
+      <c r="AL10" s="182">
         <v>100000</v>
       </c>
-      <c r="AM10" s="188">
+      <c r="AM10" s="184">
         <f t="shared" ref="AM10:AM48" si="8">IF(AD10="XXL", 82000*AJ10, IF(AD10="XXXL", 89000*AJ10, 75000*AJ10))</f>
         <v>82000</v>
       </c>
-      <c r="AN10" s="189">
+      <c r="AN10" s="185">
         <f t="shared" si="7"/>
         <v>18000</v>
       </c>
@@ -7488,13 +7755,13 @@
       <c r="X11" s="135">
         <v>3</v>
       </c>
-      <c r="Y11" s="179" t="s">
+      <c r="Y11" s="175" t="s">
         <v>49</v>
       </c>
       <c r="Z11" s="138"/>
       <c r="AA11" s="138"/>
       <c r="AB11" s="138"/>
-      <c r="AC11" s="180">
+      <c r="AC11" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7502,13 +7769,13 @@
         <v>102</v>
       </c>
       <c r="AE11" s="138"/>
-      <c r="AF11" s="179">
+      <c r="AF11" s="175">
         <v>2017</v>
       </c>
       <c r="AG11" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="AH11" s="181" t="s">
+      <c r="AH11" s="177" t="s">
         <v>107</v>
       </c>
       <c r="AI11" s="136" t="s">
@@ -7520,14 +7787,14 @@
       <c r="AK11" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL11" s="180">
+      <c r="AL11" s="176">
         <v>100000</v>
       </c>
-      <c r="AM11" s="183">
+      <c r="AM11" s="179">
         <f t="shared" si="8"/>
         <v>82000</v>
       </c>
-      <c r="AN11" s="184">
+      <c r="AN11" s="180">
         <f t="shared" si="7"/>
         <v>18000</v>
       </c>
@@ -7608,13 +7875,13 @@
       <c r="X12" s="151">
         <v>4</v>
       </c>
-      <c r="Y12" s="185" t="s">
+      <c r="Y12" s="181" t="s">
         <v>59</v>
       </c>
       <c r="Z12" s="154"/>
       <c r="AA12" s="154"/>
       <c r="AB12" s="154"/>
-      <c r="AC12" s="186">
+      <c r="AC12" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7622,13 +7889,13 @@
         <v>108</v>
       </c>
       <c r="AE12" s="154"/>
-      <c r="AF12" s="185">
+      <c r="AF12" s="181">
         <v>2016</v>
       </c>
       <c r="AG12" s="152" t="s">
         <v>165</v>
       </c>
-      <c r="AH12" s="187">
+      <c r="AH12" s="183">
         <v>0.625</v>
       </c>
       <c r="AI12" s="153" t="s">
@@ -7640,14 +7907,14 @@
       <c r="AK12" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="AL12" s="186">
+      <c r="AL12" s="182">
         <v>90000</v>
       </c>
-      <c r="AM12" s="188">
+      <c r="AM12" s="184">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN12" s="189">
+      <c r="AN12" s="185">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -7703,13 +7970,13 @@
       <c r="X13" s="151">
         <v>5</v>
       </c>
-      <c r="Y13" s="185" t="s">
+      <c r="Y13" s="181" t="s">
         <v>44</v>
       </c>
       <c r="Z13" s="154"/>
       <c r="AA13" s="154"/>
       <c r="AB13" s="154"/>
-      <c r="AC13" s="186">
+      <c r="AC13" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7717,13 +7984,13 @@
         <v>109</v>
       </c>
       <c r="AE13" s="154"/>
-      <c r="AF13" s="185">
+      <c r="AF13" s="181">
         <v>2017</v>
       </c>
       <c r="AG13" s="152" t="s">
         <v>165</v>
       </c>
-      <c r="AH13" s="187">
+      <c r="AH13" s="183">
         <v>0.625</v>
       </c>
       <c r="AI13" s="153" t="s">
@@ -7735,14 +8002,14 @@
       <c r="AK13" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="AL13" s="186">
+      <c r="AL13" s="182">
         <v>90000</v>
       </c>
-      <c r="AM13" s="188">
+      <c r="AM13" s="184">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN13" s="189">
+      <c r="AN13" s="185">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -7798,13 +8065,13 @@
       <c r="X14" s="151">
         <v>6</v>
       </c>
-      <c r="Y14" s="185" t="s">
+      <c r="Y14" s="181" t="s">
         <v>110</v>
       </c>
       <c r="Z14" s="154"/>
       <c r="AA14" s="154"/>
       <c r="AB14" s="154"/>
-      <c r="AC14" s="186">
+      <c r="AC14" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7812,13 +8079,13 @@
         <v>109</v>
       </c>
       <c r="AE14" s="154"/>
-      <c r="AF14" s="185">
+      <c r="AF14" s="181">
         <v>2017</v>
       </c>
       <c r="AG14" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="AH14" s="187">
+      <c r="AH14" s="183">
         <v>0.76180555555555562</v>
       </c>
       <c r="AI14" s="155" t="s">
@@ -7830,14 +8097,14 @@
       <c r="AK14" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="AL14" s="186">
+      <c r="AL14" s="182">
         <v>90000</v>
       </c>
-      <c r="AM14" s="188">
+      <c r="AM14" s="184">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN14" s="189">
+      <c r="AN14" s="185">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -7894,13 +8161,13 @@
       <c r="X15" s="135">
         <v>7</v>
       </c>
-      <c r="Y15" s="179" t="s">
+      <c r="Y15" s="175" t="s">
         <v>34</v>
       </c>
       <c r="Z15" s="138"/>
       <c r="AA15" s="138"/>
       <c r="AB15" s="138"/>
-      <c r="AC15" s="180">
+      <c r="AC15" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7908,16 +8175,16 @@
         <v>109</v>
       </c>
       <c r="AE15" s="138"/>
-      <c r="AF15" s="179">
+      <c r="AF15" s="175">
         <v>2017</v>
       </c>
       <c r="AG15" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="AH15" s="181">
+      <c r="AH15" s="177">
         <v>0.91180555555555554</v>
       </c>
-      <c r="AI15" s="190" t="s">
+      <c r="AI15" s="186" t="s">
         <v>111</v>
       </c>
       <c r="AJ15" s="138">
@@ -7926,14 +8193,14 @@
       <c r="AK15" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL15" s="180">
+      <c r="AL15" s="176">
         <v>90000</v>
       </c>
-      <c r="AM15" s="183">
+      <c r="AM15" s="179">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN15" s="184">
+      <c r="AN15" s="180">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -8014,13 +8281,13 @@
       <c r="X16" s="151">
         <v>8</v>
       </c>
-      <c r="Y16" s="185" t="s">
+      <c r="Y16" s="181" t="s">
         <v>31</v>
       </c>
       <c r="Z16" s="154"/>
       <c r="AA16" s="154"/>
       <c r="AB16" s="154"/>
-      <c r="AC16" s="186">
+      <c r="AC16" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8028,11 +8295,11 @@
         <v>108</v>
       </c>
       <c r="AE16" s="154"/>
-      <c r="AF16" s="185">
+      <c r="AF16" s="181">
         <v>2016</v>
       </c>
       <c r="AG16" s="152"/>
-      <c r="AH16" s="187"/>
+      <c r="AH16" s="183"/>
       <c r="AI16" s="153"/>
       <c r="AJ16" s="154">
         <v>0</v>
@@ -8040,12 +8307,12 @@
       <c r="AK16" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="AL16" s="186"/>
-      <c r="AM16" s="188">
+      <c r="AL16" s="182"/>
+      <c r="AM16" s="184">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="189">
+      <c r="AN16" s="185">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -8114,13 +8381,13 @@
       <c r="X17" s="135">
         <v>9</v>
       </c>
-      <c r="Y17" s="179" t="s">
+      <c r="Y17" s="175" t="s">
         <v>112</v>
       </c>
       <c r="Z17" s="138"/>
       <c r="AA17" s="138"/>
       <c r="AB17" s="138"/>
-      <c r="AC17" s="180">
+      <c r="AC17" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8128,24 +8395,24 @@
         <v>113</v>
       </c>
       <c r="AE17" s="138"/>
-      <c r="AF17" s="179">
+      <c r="AF17" s="175">
         <v>2011</v>
       </c>
       <c r="AG17" s="137"/>
-      <c r="AH17" s="181"/>
-      <c r="AI17" s="190"/>
+      <c r="AH17" s="177"/>
+      <c r="AI17" s="186"/>
       <c r="AJ17" s="138">
         <v>0</v>
       </c>
       <c r="AK17" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="AL17" s="180"/>
-      <c r="AM17" s="183">
+      <c r="AL17" s="176"/>
+      <c r="AM17" s="179">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="184">
+      <c r="AN17" s="180">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -8229,13 +8496,13 @@
       <c r="X18" s="135">
         <v>10</v>
       </c>
-      <c r="Y18" s="179" t="s">
+      <c r="Y18" s="175" t="s">
         <v>114</v>
       </c>
       <c r="Z18" s="138"/>
       <c r="AA18" s="138"/>
       <c r="AB18" s="138"/>
-      <c r="AC18" s="180">
+      <c r="AC18" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8245,13 +8512,13 @@
       <c r="AE18" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="AF18" s="179">
+      <c r="AF18" s="175">
         <v>2017</v>
       </c>
       <c r="AG18" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="AH18" s="181">
+      <c r="AH18" s="177">
         <v>0.61597222222222225</v>
       </c>
       <c r="AI18" s="136" t="s">
@@ -8263,14 +8530,14 @@
       <c r="AK18" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL18" s="180">
+      <c r="AL18" s="176">
         <v>100000</v>
       </c>
-      <c r="AM18" s="183">
+      <c r="AM18" s="179">
         <f t="shared" si="8"/>
         <v>89000</v>
       </c>
-      <c r="AN18" s="184">
+      <c r="AN18" s="180">
         <f t="shared" si="7"/>
         <v>11000</v>
       </c>
@@ -8351,13 +8618,13 @@
       <c r="X19" s="151">
         <v>11</v>
       </c>
-      <c r="Y19" s="185" t="s">
+      <c r="Y19" s="181" t="s">
         <v>43</v>
       </c>
       <c r="Z19" s="154"/>
       <c r="AA19" s="154"/>
       <c r="AB19" s="154"/>
-      <c r="AC19" s="186">
+      <c r="AC19" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8365,13 +8632,13 @@
         <v>115</v>
       </c>
       <c r="AE19" s="154"/>
-      <c r="AF19" s="185">
+      <c r="AF19" s="181">
         <v>2017</v>
       </c>
       <c r="AG19" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="AH19" s="187">
+      <c r="AH19" s="183">
         <v>0.84166666666666667</v>
       </c>
       <c r="AI19" s="155" t="s">
@@ -8383,113 +8650,113 @@
       <c r="AK19" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="AL19" s="186">
+      <c r="AL19" s="182">
         <v>100000</v>
       </c>
-      <c r="AM19" s="188">
+      <c r="AM19" s="184">
         <f t="shared" si="8"/>
         <v>89000</v>
       </c>
-      <c r="AN19" s="189">
+      <c r="AN19" s="185">
         <f t="shared" si="7"/>
         <v>11000</v>
       </c>
     </row>
-    <row r="20" spans="1:65" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="141">
+    <row r="20" spans="1:65" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="340">
         <v>15</v>
       </c>
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="341" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="143">
-        <v>20</v>
-      </c>
-      <c r="D20" s="143">
-        <v>20</v>
-      </c>
-      <c r="E20" s="143">
-        <v>20</v>
-      </c>
-      <c r="F20" s="143">
-        <v>20</v>
-      </c>
-      <c r="G20" s="143">
-        <v>20</v>
-      </c>
-      <c r="H20" s="143">
+      <c r="C20" s="138">
+        <v>20</v>
+      </c>
+      <c r="D20" s="138">
+        <v>20</v>
+      </c>
+      <c r="E20" s="138">
+        <v>20</v>
+      </c>
+      <c r="F20" s="138">
+        <v>20</v>
+      </c>
+      <c r="G20" s="138">
+        <v>20</v>
+      </c>
+      <c r="H20" s="138">
         <v>10</v>
       </c>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="144"/>
-      <c r="O20" s="145">
+      <c r="I20" s="342"/>
+      <c r="J20" s="342"/>
+      <c r="K20" s="342"/>
+      <c r="L20" s="342"/>
+      <c r="M20" s="342"/>
+      <c r="N20" s="342"/>
+      <c r="O20" s="135">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="P20" s="146">
+      <c r="P20" s="132">
         <f>'2018(NOT UPDATED)'!S24</f>
         <v>80</v>
       </c>
-      <c r="Q20" s="146">
+      <c r="Q20" s="132">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="R20" s="147">
+      <c r="R20" s="132">
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="S20" s="145">
+      <c r="S20" s="135">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="T20" s="148">
+      <c r="T20" s="343">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="U20" s="149" t="str">
+      <c r="U20" s="344" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V20" s="145"/>
-      <c r="X20" s="151">
+      <c r="V20" s="135"/>
+      <c r="X20" s="135">
         <v>12</v>
       </c>
-      <c r="Y20" s="185" t="s">
+      <c r="Y20" s="175" t="s">
         <v>117</v>
       </c>
-      <c r="Z20" s="154"/>
-      <c r="AA20" s="154"/>
-      <c r="AB20" s="154"/>
-      <c r="AC20" s="186">
+      <c r="Z20" s="138"/>
+      <c r="AA20" s="138"/>
+      <c r="AB20" s="138"/>
+      <c r="AC20" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="154" t="s">
+      <c r="AD20" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="AE20" s="154"/>
-      <c r="AF20" s="185">
+      <c r="AE20" s="138"/>
+      <c r="AF20" s="175">
         <v>2016</v>
       </c>
-      <c r="AG20" s="152"/>
-      <c r="AH20" s="187"/>
-      <c r="AI20" s="153"/>
-      <c r="AJ20" s="154">
+      <c r="AG20" s="137"/>
+      <c r="AH20" s="177"/>
+      <c r="AI20" s="186"/>
+      <c r="AJ20" s="138">
         <v>0</v>
       </c>
-      <c r="AK20" s="154" t="s">
+      <c r="AK20" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="AL20" s="186"/>
-      <c r="AM20" s="188">
+      <c r="AL20" s="176"/>
+      <c r="AM20" s="179">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="189">
+      <c r="AN20" s="180">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -8547,13 +8814,13 @@
       <c r="X21" s="151">
         <v>13</v>
       </c>
-      <c r="Y21" s="185" t="s">
+      <c r="Y21" s="181" t="s">
         <v>23</v>
       </c>
       <c r="Z21" s="154"/>
       <c r="AA21" s="154"/>
       <c r="AB21" s="154"/>
-      <c r="AC21" s="186">
+      <c r="AC21" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8561,13 +8828,13 @@
         <v>109</v>
       </c>
       <c r="AE21" s="154"/>
-      <c r="AF21" s="185">
+      <c r="AF21" s="181">
         <v>2011</v>
       </c>
       <c r="AG21" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="AH21" s="187">
+      <c r="AH21" s="183">
         <v>0.95625000000000004</v>
       </c>
       <c r="AI21" s="153" t="s">
@@ -8579,14 +8846,14 @@
       <c r="AK21" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="AL21" s="186">
+      <c r="AL21" s="182">
         <v>90000</v>
       </c>
-      <c r="AM21" s="188">
+      <c r="AM21" s="184">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN21" s="189">
+      <c r="AN21" s="185">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -8643,13 +8910,13 @@
       <c r="X22" s="135">
         <v>14</v>
       </c>
-      <c r="Y22" s="179" t="s">
+      <c r="Y22" s="175" t="s">
         <v>53</v>
       </c>
       <c r="Z22" s="138"/>
       <c r="AA22" s="138"/>
       <c r="AB22" s="138"/>
-      <c r="AC22" s="180">
+      <c r="AC22" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8657,16 +8924,16 @@
         <v>115</v>
       </c>
       <c r="AE22" s="138"/>
-      <c r="AF22" s="179">
+      <c r="AF22" s="175">
         <v>2017</v>
       </c>
       <c r="AG22" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="AH22" s="181">
+      <c r="AH22" s="177">
         <v>0.45555555555555555</v>
       </c>
-      <c r="AI22" s="190" t="s">
+      <c r="AI22" s="186" t="s">
         <v>159</v>
       </c>
       <c r="AJ22" s="138">
@@ -8675,14 +8942,14 @@
       <c r="AK22" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL22" s="180">
+      <c r="AL22" s="176">
         <v>100000</v>
       </c>
-      <c r="AM22" s="183">
+      <c r="AM22" s="179">
         <f t="shared" si="8"/>
         <v>89000</v>
       </c>
-      <c r="AN22" s="184">
+      <c r="AN22" s="180">
         <f t="shared" si="7"/>
         <v>11000</v>
       </c>
@@ -8763,13 +9030,13 @@
       <c r="X23" s="151">
         <v>15</v>
       </c>
-      <c r="Y23" s="185" t="s">
+      <c r="Y23" s="181" t="s">
         <v>119</v>
       </c>
       <c r="Z23" s="154"/>
       <c r="AA23" s="154"/>
       <c r="AB23" s="154"/>
-      <c r="AC23" s="186">
+      <c r="AC23" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8777,13 +9044,13 @@
         <v>115</v>
       </c>
       <c r="AE23" s="154"/>
-      <c r="AF23" s="185">
+      <c r="AF23" s="181">
         <v>2017</v>
       </c>
       <c r="AG23" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="AH23" s="187">
+      <c r="AH23" s="183">
         <v>0.38194444444444442</v>
       </c>
       <c r="AI23" s="155" t="s">
@@ -8795,14 +9062,14 @@
       <c r="AK23" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="AL23" s="186">
+      <c r="AL23" s="182">
         <v>100000</v>
       </c>
-      <c r="AM23" s="188">
+      <c r="AM23" s="184">
         <f t="shared" si="8"/>
         <v>89000</v>
       </c>
-      <c r="AN23" s="189">
+      <c r="AN23" s="185">
         <f t="shared" si="7"/>
         <v>11000</v>
       </c>
@@ -8858,13 +9125,13 @@
       <c r="X24" s="151">
         <v>16</v>
       </c>
-      <c r="Y24" s="185" t="s">
+      <c r="Y24" s="181" t="s">
         <v>56</v>
       </c>
       <c r="Z24" s="154"/>
       <c r="AA24" s="154"/>
       <c r="AB24" s="154"/>
-      <c r="AC24" s="186">
+      <c r="AC24" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8872,13 +9139,13 @@
         <v>108</v>
       </c>
       <c r="AE24" s="154"/>
-      <c r="AF24" s="185">
+      <c r="AF24" s="181">
         <v>2016</v>
       </c>
       <c r="AG24" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="AH24" s="187">
+      <c r="AH24" s="183">
         <v>0.70833333333333337</v>
       </c>
       <c r="AI24" s="153" t="s">
@@ -8890,14 +9157,14 @@
       <c r="AK24" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="AL24" s="186">
+      <c r="AL24" s="182">
         <v>90000</v>
       </c>
-      <c r="AM24" s="188">
+      <c r="AM24" s="184">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN24" s="189">
+      <c r="AN24" s="185">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -8954,13 +9221,13 @@
       <c r="X25" s="135">
         <v>17</v>
       </c>
-      <c r="Y25" s="179" t="s">
+      <c r="Y25" s="175" t="s">
         <v>30</v>
       </c>
       <c r="Z25" s="138"/>
       <c r="AA25" s="138"/>
       <c r="AB25" s="138"/>
-      <c r="AC25" s="180">
+      <c r="AC25" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8968,16 +9235,16 @@
         <v>109</v>
       </c>
       <c r="AE25" s="138"/>
-      <c r="AF25" s="179">
+      <c r="AF25" s="175">
         <v>2016</v>
       </c>
       <c r="AG25" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="AH25" s="181">
+      <c r="AH25" s="177">
         <v>0.62777777777777777</v>
       </c>
-      <c r="AI25" s="190" t="s">
+      <c r="AI25" s="186" t="s">
         <v>148</v>
       </c>
       <c r="AJ25" s="138">
@@ -8986,14 +9253,14 @@
       <c r="AK25" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL25" s="180">
+      <c r="AL25" s="176">
         <v>90000</v>
       </c>
-      <c r="AM25" s="183">
+      <c r="AM25" s="179">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN25" s="184">
+      <c r="AN25" s="180">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -9088,13 +9355,13 @@
       <c r="X26" s="135">
         <v>18</v>
       </c>
-      <c r="Y26" s="179" t="s">
+      <c r="Y26" s="175" t="s">
         <v>121</v>
       </c>
       <c r="Z26" s="138"/>
       <c r="AA26" s="138"/>
       <c r="AB26" s="138"/>
-      <c r="AC26" s="180">
+      <c r="AC26" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9102,16 +9369,16 @@
         <v>108</v>
       </c>
       <c r="AE26" s="138"/>
-      <c r="AF26" s="179">
+      <c r="AF26" s="175">
         <v>2017</v>
       </c>
       <c r="AG26" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="AH26" s="181">
+      <c r="AH26" s="177">
         <v>0.71944444444444444</v>
       </c>
-      <c r="AI26" s="190" t="s">
+      <c r="AI26" s="186" t="s">
         <v>123</v>
       </c>
       <c r="AJ26" s="138">
@@ -9120,14 +9387,14 @@
       <c r="AK26" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL26" s="180">
+      <c r="AL26" s="176">
         <v>90000</v>
       </c>
-      <c r="AM26" s="183">
+      <c r="AM26" s="179">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN26" s="184">
+      <c r="AN26" s="180">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -9217,13 +9484,13 @@
       <c r="X27" s="135">
         <v>19</v>
       </c>
-      <c r="Y27" s="179" t="s">
+      <c r="Y27" s="175" t="s">
         <v>83</v>
       </c>
       <c r="Z27" s="138"/>
       <c r="AA27" s="138"/>
       <c r="AB27" s="138"/>
-      <c r="AC27" s="180">
+      <c r="AC27" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9231,13 +9498,13 @@
         <v>124</v>
       </c>
       <c r="AE27" s="138"/>
-      <c r="AF27" s="179">
+      <c r="AF27" s="175">
         <v>2018</v>
       </c>
       <c r="AG27" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="AH27" s="181">
+      <c r="AH27" s="177">
         <v>0.87291666666666667</v>
       </c>
       <c r="AI27" s="136" t="s">
@@ -9249,14 +9516,14 @@
       <c r="AK27" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL27" s="180">
+      <c r="AL27" s="176">
         <v>90000</v>
       </c>
-      <c r="AM27" s="183">
+      <c r="AM27" s="179">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN27" s="184">
+      <c r="AN27" s="180">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -9343,13 +9610,13 @@
       <c r="X28" s="135">
         <v>20</v>
       </c>
-      <c r="Y28" s="179" t="s">
+      <c r="Y28" s="175" t="s">
         <v>63</v>
       </c>
       <c r="Z28" s="138"/>
       <c r="AA28" s="138"/>
       <c r="AB28" s="138"/>
-      <c r="AC28" s="180">
+      <c r="AC28" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9357,13 +9624,13 @@
         <v>108</v>
       </c>
       <c r="AE28" s="138"/>
-      <c r="AF28" s="179">
+      <c r="AF28" s="175">
         <v>2015</v>
       </c>
       <c r="AG28" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="AH28" s="181">
+      <c r="AH28" s="177">
         <v>0.87777777777777777</v>
       </c>
       <c r="AI28" s="136" t="s">
@@ -9375,14 +9642,14 @@
       <c r="AK28" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL28" s="180">
+      <c r="AL28" s="176">
         <v>90000</v>
       </c>
-      <c r="AM28" s="183">
+      <c r="AM28" s="179">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN28" s="184">
+      <c r="AN28" s="180">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -9463,13 +9730,13 @@
       <c r="X29" s="151">
         <v>21</v>
       </c>
-      <c r="Y29" s="185" t="s">
+      <c r="Y29" s="181" t="s">
         <v>25</v>
       </c>
       <c r="Z29" s="154"/>
       <c r="AA29" s="154"/>
       <c r="AB29" s="154"/>
-      <c r="AC29" s="186">
+      <c r="AC29" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9477,13 +9744,13 @@
         <v>113</v>
       </c>
       <c r="AE29" s="154"/>
-      <c r="AF29" s="185">
+      <c r="AF29" s="181">
         <v>2014</v>
       </c>
       <c r="AG29" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="AH29" s="187">
+      <c r="AH29" s="183">
         <v>0.35486111111111113</v>
       </c>
       <c r="AI29" s="155" t="s">
@@ -9495,14 +9762,14 @@
       <c r="AK29" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="AL29" s="186">
+      <c r="AL29" s="182">
         <v>90000</v>
       </c>
-      <c r="AM29" s="188">
+      <c r="AM29" s="184">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN29" s="189">
+      <c r="AN29" s="185">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -9558,13 +9825,13 @@
       <c r="X30" s="151">
         <v>22</v>
       </c>
-      <c r="Y30" s="185" t="s">
+      <c r="Y30" s="181" t="s">
         <v>125</v>
       </c>
       <c r="Z30" s="154"/>
       <c r="AA30" s="154"/>
       <c r="AB30" s="154"/>
-      <c r="AC30" s="186">
+      <c r="AC30" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9572,13 +9839,13 @@
         <v>108</v>
       </c>
       <c r="AE30" s="154"/>
-      <c r="AF30" s="185">
+      <c r="AF30" s="181">
         <v>2013</v>
       </c>
       <c r="AG30" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="AH30" s="187">
+      <c r="AH30" s="183">
         <v>0.95763888888888893</v>
       </c>
       <c r="AI30" s="153" t="s">
@@ -9590,14 +9857,14 @@
       <c r="AK30" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="AL30" s="186">
+      <c r="AL30" s="182">
         <v>90000</v>
       </c>
-      <c r="AM30" s="188">
+      <c r="AM30" s="184">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN30" s="189">
+      <c r="AN30" s="185">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -9653,13 +9920,13 @@
       <c r="X31" s="151">
         <v>23</v>
       </c>
-      <c r="Y31" s="185" t="s">
+      <c r="Y31" s="181" t="s">
         <v>127</v>
       </c>
       <c r="Z31" s="154"/>
       <c r="AA31" s="154"/>
       <c r="AB31" s="154"/>
-      <c r="AC31" s="186">
+      <c r="AC31" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9667,13 +9934,13 @@
         <v>109</v>
       </c>
       <c r="AE31" s="154"/>
-      <c r="AF31" s="185">
+      <c r="AF31" s="181">
         <v>2017</v>
       </c>
       <c r="AG31" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="AH31" s="187">
+      <c r="AH31" s="183">
         <v>0.4694444444444445</v>
       </c>
       <c r="AI31" s="153" t="s">
@@ -9685,14 +9952,14 @@
       <c r="AK31" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="AL31" s="186">
+      <c r="AL31" s="182">
         <v>90000</v>
       </c>
-      <c r="AM31" s="188">
+      <c r="AM31" s="184">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN31" s="189">
+      <c r="AN31" s="185">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -9749,13 +10016,13 @@
       <c r="X32" s="135">
         <v>24</v>
       </c>
-      <c r="Y32" s="179" t="s">
+      <c r="Y32" s="175" t="s">
         <v>61</v>
       </c>
       <c r="Z32" s="138"/>
       <c r="AA32" s="138"/>
       <c r="AB32" s="138"/>
-      <c r="AC32" s="180">
+      <c r="AC32" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9763,16 +10030,16 @@
         <v>113</v>
       </c>
       <c r="AE32" s="138"/>
-      <c r="AF32" s="179">
+      <c r="AF32" s="175">
         <v>2016</v>
       </c>
       <c r="AG32" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="AH32" s="181">
+      <c r="AH32" s="177">
         <v>0.8569444444444444</v>
       </c>
-      <c r="AI32" s="190" t="s">
+      <c r="AI32" s="186" t="s">
         <v>129</v>
       </c>
       <c r="AJ32" s="138">
@@ -9781,14 +10048,14 @@
       <c r="AK32" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL32" s="180">
+      <c r="AL32" s="176">
         <v>90000</v>
       </c>
-      <c r="AM32" s="183">
+      <c r="AM32" s="179">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN32" s="184">
+      <c r="AN32" s="180">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -9869,13 +10136,13 @@
       <c r="X33" s="135">
         <v>25</v>
       </c>
-      <c r="Y33" s="179" t="s">
+      <c r="Y33" s="175" t="s">
         <v>33</v>
       </c>
       <c r="Z33" s="138"/>
       <c r="AA33" s="138"/>
       <c r="AB33" s="138"/>
-      <c r="AC33" s="180">
+      <c r="AC33" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9883,13 +10150,13 @@
         <v>124</v>
       </c>
       <c r="AE33" s="138"/>
-      <c r="AF33" s="179">
+      <c r="AF33" s="175">
         <v>2017</v>
       </c>
       <c r="AG33" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="AH33" s="181">
+      <c r="AH33" s="177">
         <v>0.65138888888888891</v>
       </c>
       <c r="AI33" s="136" t="s">
@@ -9901,14 +10168,14 @@
       <c r="AK33" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL33" s="180">
+      <c r="AL33" s="176">
         <v>90000</v>
       </c>
-      <c r="AM33" s="183">
+      <c r="AM33" s="179">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN33" s="184">
+      <c r="AN33" s="180">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -9992,13 +10259,13 @@
       <c r="X34" s="135">
         <v>26</v>
       </c>
-      <c r="Y34" s="179" t="s">
+      <c r="Y34" s="175" t="s">
         <v>130</v>
       </c>
       <c r="Z34" s="138"/>
       <c r="AA34" s="138"/>
       <c r="AB34" s="138"/>
-      <c r="AC34" s="180">
+      <c r="AC34" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -10006,13 +10273,13 @@
         <v>109</v>
       </c>
       <c r="AE34" s="138"/>
-      <c r="AF34" s="179">
+      <c r="AF34" s="175">
         <v>2018</v>
       </c>
       <c r="AG34" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="AH34" s="181">
+      <c r="AH34" s="177">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="AI34" s="136" t="s">
@@ -10024,14 +10291,14 @@
       <c r="AK34" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL34" s="180">
+      <c r="AL34" s="176">
         <v>90000</v>
       </c>
-      <c r="AM34" s="183">
+      <c r="AM34" s="179">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN34" s="184">
+      <c r="AN34" s="180">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -10123,13 +10390,13 @@
       <c r="X35" s="135">
         <v>27</v>
       </c>
-      <c r="Y35" s="179" t="s">
+      <c r="Y35" s="175" t="s">
         <v>131</v>
       </c>
       <c r="Z35" s="138"/>
       <c r="AA35" s="138"/>
       <c r="AB35" s="138"/>
-      <c r="AC35" s="180">
+      <c r="AC35" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -10137,13 +10404,13 @@
         <v>109</v>
       </c>
       <c r="AE35" s="138"/>
-      <c r="AF35" s="179">
+      <c r="AF35" s="175">
         <v>2018</v>
       </c>
       <c r="AG35" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="AH35" s="181">
+      <c r="AH35" s="177">
         <v>0.85625000000000007</v>
       </c>
       <c r="AI35" s="136" t="s">
@@ -10155,14 +10422,14 @@
       <c r="AK35" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL35" s="180">
+      <c r="AL35" s="176">
         <v>90000</v>
       </c>
-      <c r="AM35" s="183">
+      <c r="AM35" s="179">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN35" s="184">
+      <c r="AN35" s="180">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -10252,13 +10519,13 @@
       <c r="X36" s="135">
         <v>28</v>
       </c>
-      <c r="Y36" s="179" t="s">
+      <c r="Y36" s="175" t="s">
         <v>132</v>
       </c>
       <c r="Z36" s="138"/>
       <c r="AA36" s="138"/>
       <c r="AB36" s="138"/>
-      <c r="AC36" s="180">
+      <c r="AC36" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -10266,16 +10533,16 @@
         <v>113</v>
       </c>
       <c r="AE36" s="138"/>
-      <c r="AF36" s="179">
+      <c r="AF36" s="175">
         <v>2018</v>
       </c>
       <c r="AG36" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="AH36" s="181">
+      <c r="AH36" s="177">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AI36" s="190" t="s">
+      <c r="AI36" s="186" t="s">
         <v>160</v>
       </c>
       <c r="AJ36" s="138">
@@ -10284,14 +10551,14 @@
       <c r="AK36" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL36" s="180">
+      <c r="AL36" s="176">
         <v>90000</v>
       </c>
-      <c r="AM36" s="183">
+      <c r="AM36" s="179">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN36" s="184">
+      <c r="AN36" s="180">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -10373,13 +10640,13 @@
       <c r="X37" s="151">
         <v>29</v>
       </c>
-      <c r="Y37" s="185" t="s">
+      <c r="Y37" s="181" t="s">
         <v>51</v>
       </c>
       <c r="Z37" s="154"/>
       <c r="AA37" s="154"/>
       <c r="AB37" s="154"/>
-      <c r="AC37" s="186">
+      <c r="AC37" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -10387,13 +10654,13 @@
         <v>113</v>
       </c>
       <c r="AE37" s="154"/>
-      <c r="AF37" s="185">
+      <c r="AF37" s="181">
         <v>2017</v>
       </c>
       <c r="AG37" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="AH37" s="187">
+      <c r="AH37" s="183">
         <v>0.95486111111111116</v>
       </c>
       <c r="AI37" s="153" t="s">
@@ -10405,14 +10672,14 @@
       <c r="AK37" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="AL37" s="186">
+      <c r="AL37" s="182">
         <v>90000</v>
       </c>
-      <c r="AM37" s="188">
+      <c r="AM37" s="184">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN37" s="189">
+      <c r="AN37" s="185">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -10468,13 +10735,13 @@
       <c r="X38" s="151">
         <v>30</v>
       </c>
-      <c r="Y38" s="185" t="s">
+      <c r="Y38" s="181" t="s">
         <v>37</v>
       </c>
       <c r="Z38" s="154"/>
       <c r="AA38" s="154"/>
       <c r="AB38" s="154"/>
-      <c r="AC38" s="186">
+      <c r="AC38" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -10482,13 +10749,13 @@
         <v>108</v>
       </c>
       <c r="AE38" s="154"/>
-      <c r="AF38" s="185">
+      <c r="AF38" s="181">
         <v>2016</v>
       </c>
       <c r="AG38" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="AH38" s="187">
+      <c r="AH38" s="183">
         <v>0.85416666666666663</v>
       </c>
       <c r="AI38" s="153" t="s">
@@ -10500,14 +10767,14 @@
       <c r="AK38" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="AL38" s="186">
+      <c r="AL38" s="182">
         <v>90000</v>
       </c>
-      <c r="AM38" s="188">
+      <c r="AM38" s="184">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN38" s="189">
+      <c r="AN38" s="185">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -10563,13 +10830,13 @@
       <c r="X39" s="135">
         <v>31</v>
       </c>
-      <c r="Y39" s="179" t="s">
+      <c r="Y39" s="175" t="s">
         <v>134</v>
       </c>
       <c r="Z39" s="138"/>
       <c r="AA39" s="138"/>
       <c r="AB39" s="138"/>
-      <c r="AC39" s="180">
+      <c r="AC39" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -10577,16 +10844,16 @@
         <v>108</v>
       </c>
       <c r="AE39" s="138"/>
-      <c r="AF39" s="179">
+      <c r="AF39" s="175">
         <v>2018</v>
       </c>
       <c r="AG39" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="AH39" s="181">
+      <c r="AH39" s="177">
         <v>0.8569444444444444</v>
       </c>
-      <c r="AI39" s="190" t="s">
+      <c r="AI39" s="186" t="s">
         <v>135</v>
       </c>
       <c r="AJ39" s="138">
@@ -10595,14 +10862,14 @@
       <c r="AK39" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL39" s="180">
+      <c r="AL39" s="176">
         <v>90000</v>
       </c>
-      <c r="AM39" s="183">
+      <c r="AM39" s="179">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN39" s="184" t="s">
+      <c r="AN39" s="180" t="s">
         <v>167</v>
       </c>
       <c r="AO39" s="134"/>
@@ -10697,13 +10964,13 @@
       <c r="X40" s="135">
         <v>32</v>
       </c>
-      <c r="Y40" s="179" t="s">
+      <c r="Y40" s="175" t="s">
         <v>52</v>
       </c>
       <c r="Z40" s="138"/>
       <c r="AA40" s="138"/>
       <c r="AB40" s="138"/>
-      <c r="AC40" s="180">
+      <c r="AC40" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -10711,24 +10978,24 @@
         <v>108</v>
       </c>
       <c r="AE40" s="138"/>
-      <c r="AF40" s="179">
+      <c r="AF40" s="175">
         <v>2018</v>
       </c>
       <c r="AG40" s="137"/>
-      <c r="AH40" s="181"/>
-      <c r="AI40" s="190"/>
+      <c r="AH40" s="177"/>
+      <c r="AI40" s="186"/>
       <c r="AJ40" s="138">
         <v>0</v>
       </c>
       <c r="AK40" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="AL40" s="180"/>
-      <c r="AM40" s="183">
+      <c r="AL40" s="176"/>
+      <c r="AM40" s="179">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN40" s="184">
+      <c r="AN40" s="180">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10809,13 +11076,13 @@
       <c r="X41" s="135">
         <v>33</v>
       </c>
-      <c r="Y41" s="179" t="s">
+      <c r="Y41" s="175" t="s">
         <v>136</v>
       </c>
       <c r="Z41" s="138"/>
       <c r="AA41" s="138"/>
       <c r="AB41" s="138"/>
-      <c r="AC41" s="180">
+      <c r="AC41" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -10823,16 +11090,16 @@
         <v>102</v>
       </c>
       <c r="AE41" s="138"/>
-      <c r="AF41" s="179">
+      <c r="AF41" s="175">
         <v>2012</v>
       </c>
       <c r="AG41" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="AH41" s="181">
+      <c r="AH41" s="177">
         <v>0.87708333333333333</v>
       </c>
-      <c r="AI41" s="190" t="s">
+      <c r="AI41" s="186" t="s">
         <v>137</v>
       </c>
       <c r="AJ41" s="138">
@@ -10841,14 +11108,14 @@
       <c r="AK41" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL41" s="180">
+      <c r="AL41" s="176">
         <v>100000</v>
       </c>
-      <c r="AM41" s="183">
+      <c r="AM41" s="179">
         <f t="shared" si="8"/>
         <v>82000</v>
       </c>
-      <c r="AN41" s="184">
+      <c r="AN41" s="180">
         <f>IF(AK41="YES",(AL41-AM41),0)</f>
         <v>18000</v>
       </c>
@@ -10935,13 +11202,13 @@
       <c r="X42" s="135">
         <v>34</v>
       </c>
-      <c r="Y42" s="179" t="s">
+      <c r="Y42" s="175" t="s">
         <v>138</v>
       </c>
       <c r="Z42" s="138"/>
       <c r="AA42" s="138"/>
       <c r="AB42" s="138"/>
-      <c r="AC42" s="180">
+      <c r="AC42" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -10951,16 +11218,16 @@
       <c r="AE42" s="138" t="s">
         <v>169</v>
       </c>
-      <c r="AF42" s="179">
+      <c r="AF42" s="175">
         <v>2018</v>
       </c>
       <c r="AG42" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="AH42" s="181">
+      <c r="AH42" s="177">
         <v>0.47986111111111113</v>
       </c>
-      <c r="AI42" s="190" t="s">
+      <c r="AI42" s="186" t="s">
         <v>166</v>
       </c>
       <c r="AJ42" s="138">
@@ -10969,14 +11236,14 @@
       <c r="AK42" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL42" s="180">
+      <c r="AL42" s="176">
         <v>90000</v>
       </c>
-      <c r="AM42" s="183">
+      <c r="AM42" s="179">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN42" s="184">
+      <c r="AN42" s="180">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -11078,13 +11345,13 @@
       <c r="X43" s="135">
         <v>35</v>
       </c>
-      <c r="Y43" s="179" t="s">
+      <c r="Y43" s="175" t="s">
         <v>139</v>
       </c>
       <c r="Z43" s="138"/>
       <c r="AA43" s="138"/>
       <c r="AB43" s="138"/>
-      <c r="AC43" s="180">
+      <c r="AC43" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11092,16 +11359,16 @@
         <v>108</v>
       </c>
       <c r="AE43" s="138"/>
-      <c r="AF43" s="179">
+      <c r="AF43" s="175">
         <v>2016</v>
       </c>
       <c r="AG43" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="AH43" s="181">
+      <c r="AH43" s="177">
         <v>0.60833333333333328</v>
       </c>
-      <c r="AI43" s="190">
+      <c r="AI43" s="186">
         <v>2016</v>
       </c>
       <c r="AJ43" s="138">
@@ -11110,14 +11377,14 @@
       <c r="AK43" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL43" s="180">
+      <c r="AL43" s="176">
         <v>90000</v>
       </c>
-      <c r="AM43" s="183">
+      <c r="AM43" s="179">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN43" s="184">
+      <c r="AN43" s="180">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -11197,13 +11464,13 @@
       <c r="X44" s="151">
         <v>36</v>
       </c>
-      <c r="Y44" s="185" t="s">
+      <c r="Y44" s="181" t="s">
         <v>20</v>
       </c>
       <c r="Z44" s="154"/>
       <c r="AA44" s="154"/>
       <c r="AB44" s="154"/>
-      <c r="AC44" s="186">
+      <c r="AC44" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11211,13 +11478,13 @@
         <v>108</v>
       </c>
       <c r="AE44" s="154"/>
-      <c r="AF44" s="185">
+      <c r="AF44" s="181">
         <v>2013</v>
       </c>
       <c r="AG44" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="AH44" s="187">
+      <c r="AH44" s="183">
         <v>0.87569444444444444</v>
       </c>
       <c r="AI44" s="153" t="s">
@@ -11229,14 +11496,14 @@
       <c r="AK44" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="AL44" s="186">
+      <c r="AL44" s="182">
         <v>90000</v>
       </c>
-      <c r="AM44" s="188">
+      <c r="AM44" s="184">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN44" s="189">
+      <c r="AN44" s="185">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -11294,13 +11561,13 @@
       <c r="X45" s="135">
         <v>37</v>
       </c>
-      <c r="Y45" s="179" t="s">
+      <c r="Y45" s="175" t="s">
         <v>141</v>
       </c>
       <c r="Z45" s="138"/>
       <c r="AA45" s="138"/>
       <c r="AB45" s="138"/>
-      <c r="AC45" s="180">
+      <c r="AC45" s="176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11308,13 +11575,13 @@
         <v>109</v>
       </c>
       <c r="AE45" s="138"/>
-      <c r="AF45" s="179">
+      <c r="AF45" s="175">
         <v>2010</v>
       </c>
       <c r="AG45" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="AH45" s="181">
+      <c r="AH45" s="177">
         <v>0.84722222222222221</v>
       </c>
       <c r="AI45" s="136" t="s">
@@ -11326,14 +11593,14 @@
       <c r="AK45" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AL45" s="180">
+      <c r="AL45" s="176">
         <v>90000</v>
       </c>
-      <c r="AM45" s="183">
+      <c r="AM45" s="179">
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-      <c r="AN45" s="184">
+      <c r="AN45" s="180">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
@@ -11413,13 +11680,13 @@
       <c r="X46" s="151">
         <v>38</v>
       </c>
-      <c r="Y46" s="185" t="s">
+      <c r="Y46" s="181" t="s">
         <v>152</v>
       </c>
       <c r="Z46" s="154"/>
       <c r="AA46" s="154"/>
       <c r="AB46" s="154"/>
-      <c r="AC46" s="186">
+      <c r="AC46" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11427,11 +11694,11 @@
         <v>115</v>
       </c>
       <c r="AE46" s="154"/>
-      <c r="AF46" s="185">
+      <c r="AF46" s="181">
         <v>2015</v>
       </c>
       <c r="AG46" s="152"/>
-      <c r="AH46" s="187"/>
+      <c r="AH46" s="183"/>
       <c r="AI46" s="155"/>
       <c r="AJ46" s="154">
         <v>0</v>
@@ -11439,12 +11706,12 @@
       <c r="AK46" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="AL46" s="186"/>
-      <c r="AM46" s="188">
+      <c r="AL46" s="182"/>
+      <c r="AM46" s="184">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN46" s="189">
+      <c r="AN46" s="185">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11502,13 +11769,13 @@
       <c r="X47" s="151">
         <v>39</v>
       </c>
-      <c r="Y47" s="185" t="s">
+      <c r="Y47" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="Z47" s="185"/>
-      <c r="AA47" s="192"/>
-      <c r="AB47" s="192"/>
-      <c r="AC47" s="186">
+      <c r="Z47" s="181"/>
+      <c r="AA47" s="188"/>
+      <c r="AB47" s="188"/>
+      <c r="AC47" s="182">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11516,11 +11783,11 @@
         <v>108</v>
       </c>
       <c r="AE47" s="154"/>
-      <c r="AF47" s="185">
+      <c r="AF47" s="181">
         <v>2016</v>
       </c>
       <c r="AG47" s="152"/>
-      <c r="AH47" s="187"/>
+      <c r="AH47" s="183"/>
       <c r="AI47" s="155"/>
       <c r="AJ47" s="154">
         <v>0</v>
@@ -11528,12 +11795,12 @@
       <c r="AK47" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="AL47" s="186"/>
-      <c r="AM47" s="188">
+      <c r="AL47" s="182"/>
+      <c r="AM47" s="184">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN47" s="189">
+      <c r="AN47" s="185">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11614,28 +11881,28 @@
       <c r="Z48" s="59"/>
       <c r="AA48" s="59"/>
       <c r="AB48" s="59"/>
-      <c r="AC48" s="193">
+      <c r="AC48" s="189">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD48" s="194"/>
-      <c r="AE48" s="194"/>
-      <c r="AF48" s="195"/>
-      <c r="AG48" s="196"/>
-      <c r="AH48" s="197"/>
-      <c r="AI48" s="198"/>
-      <c r="AJ48" s="194">
+      <c r="AD48" s="190"/>
+      <c r="AE48" s="190"/>
+      <c r="AF48" s="191"/>
+      <c r="AG48" s="192"/>
+      <c r="AH48" s="193"/>
+      <c r="AI48" s="194"/>
+      <c r="AJ48" s="190">
         <v>0</v>
       </c>
       <c r="AK48" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="AL48" s="199"/>
-      <c r="AM48" s="191">
+      <c r="AL48" s="195"/>
+      <c r="AM48" s="187">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN48" s="200">
+      <c r="AN48" s="196">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11696,10 +11963,10 @@
       <c r="X49" s="24"/>
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
-      <c r="AA49" s="259" t="s">
+      <c r="AA49" s="241" t="s">
         <v>142</v>
       </c>
-      <c r="AB49" s="260"/>
+      <c r="AB49" s="242"/>
       <c r="AC49" s="16">
         <f>SUM(AC9:AC21)</f>
         <v>20000</v>
@@ -11777,12 +12044,12 @@
       <c r="AE50" s="21"/>
       <c r="AF50" s="21"/>
       <c r="AG50" s="21"/>
-      <c r="AI50" s="272" t="s">
+      <c r="AI50" s="233" t="s">
         <v>170</v>
       </c>
-      <c r="AJ50" s="273"/>
-      <c r="AK50" s="273"/>
-      <c r="AL50" s="274"/>
+      <c r="AJ50" s="234"/>
+      <c r="AK50" s="234"/>
+      <c r="AL50" s="235"/>
       <c r="AM50" s="40">
         <v>3077000</v>
       </c>
@@ -11843,12 +12110,12 @@
       <c r="AF51" s="21"/>
       <c r="AG51" s="21"/>
       <c r="AH51" s="21"/>
-      <c r="AI51" s="269" t="s">
+      <c r="AI51" s="230" t="s">
         <v>176</v>
       </c>
-      <c r="AJ51" s="270"/>
-      <c r="AK51" s="270"/>
-      <c r="AL51" s="271"/>
+      <c r="AJ51" s="231"/>
+      <c r="AK51" s="231"/>
+      <c r="AL51" s="232"/>
       <c r="AM51" s="41">
         <v>2550000</v>
       </c>
@@ -12106,14 +12373,14 @@
         <v>NO</v>
       </c>
       <c r="V55" s="2"/>
-      <c r="AC55" s="275"/>
-      <c r="AD55" s="275"/>
-      <c r="AI55" s="272" t="s">
+      <c r="AC55" s="236"/>
+      <c r="AD55" s="236"/>
+      <c r="AI55" s="233" t="s">
         <v>174</v>
       </c>
-      <c r="AJ55" s="273"/>
-      <c r="AK55" s="273"/>
-      <c r="AL55" s="274"/>
+      <c r="AJ55" s="234"/>
+      <c r="AK55" s="234"/>
+      <c r="AL55" s="235"/>
       <c r="AM55" s="38">
         <f>AM54</f>
         <v>2627000</v>
@@ -12166,12 +12433,12 @@
         <v>NO</v>
       </c>
       <c r="V56" s="2"/>
-      <c r="AI56" s="238" t="s">
+      <c r="AI56" s="229" t="s">
         <v>168</v>
       </c>
-      <c r="AJ56" s="238"/>
-      <c r="AK56" s="238"/>
-      <c r="AL56" s="238"/>
+      <c r="AJ56" s="229"/>
+      <c r="AK56" s="229"/>
+      <c r="AL56" s="229"/>
       <c r="AM56" s="52">
         <f>AM50-AM55</f>
         <v>450000</v>
@@ -12364,182 +12631,40 @@
       <c r="V60" s="2"/>
     </row>
     <row r="61" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:41" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V62" s="239" t="s">
-        <v>194</v>
-      </c>
-      <c r="W62" s="222"/>
-      <c r="X62" s="222"/>
-      <c r="Y62" s="222"/>
-    </row>
+    <row r="62" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="245" t="s">
+      <c r="C63" s="258" t="s">
         <v>177</v>
       </c>
-      <c r="D63" s="246"/>
-      <c r="E63" s="246"/>
-      <c r="F63" s="246"/>
-      <c r="G63" s="247"/>
-      <c r="I63" s="251" t="s">
+      <c r="D63" s="259"/>
+      <c r="E63" s="259"/>
+      <c r="F63" s="259"/>
+      <c r="G63" s="260"/>
+      <c r="I63" s="264" t="s">
         <v>178</v>
       </c>
-      <c r="J63" s="251"/>
-      <c r="K63" s="251"/>
-      <c r="L63" s="251"/>
-      <c r="M63" s="251"/>
-      <c r="O63" s="252" t="s">
-        <v>193</v>
-      </c>
-      <c r="P63" s="253"/>
-      <c r="Q63" s="253"/>
-      <c r="R63" s="253"/>
-      <c r="S63" s="253"/>
-      <c r="T63" s="70">
-        <v>1004200</v>
-      </c>
-      <c r="U63" s="24"/>
-      <c r="V63" s="239" t="s">
-        <v>72</v>
-      </c>
-      <c r="W63" s="239"/>
-      <c r="X63" s="263">
-        <f>T66</f>
-        <v>2332529.1800000002</v>
-      </c>
-      <c r="Y63" s="263"/>
+      <c r="J63" s="264"/>
+      <c r="K63" s="264"/>
+      <c r="L63" s="264"/>
+      <c r="M63" s="264"/>
     </row>
     <row r="64" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="248"/>
-      <c r="D64" s="249"/>
-      <c r="E64" s="249"/>
-      <c r="F64" s="249"/>
-      <c r="G64" s="250"/>
-      <c r="I64" s="251"/>
-      <c r="J64" s="251"/>
-      <c r="K64" s="251"/>
-      <c r="L64" s="251"/>
-      <c r="M64" s="251"/>
-      <c r="O64" s="221" t="s">
-        <v>237</v>
-      </c>
-      <c r="P64" s="222"/>
-      <c r="Q64" s="222"/>
-      <c r="R64" s="222"/>
-      <c r="S64" s="222"/>
-      <c r="T64" s="177">
-        <v>568329.18000000005</v>
-      </c>
-      <c r="V64" s="222" t="s">
-        <v>65</v>
-      </c>
-      <c r="W64" s="222"/>
-      <c r="X64" s="264">
-        <f>Pengeluaran!F30</f>
-        <v>896800</v>
-      </c>
-      <c r="Y64" s="265"/>
-    </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O65" s="254" t="s">
-        <v>238</v>
-      </c>
-      <c r="P65" s="255"/>
-      <c r="Q65" s="255"/>
-      <c r="R65" s="255"/>
-      <c r="S65" s="255"/>
-      <c r="T65" s="177">
-        <v>760000</v>
-      </c>
-      <c r="V65" s="222" t="s">
-        <v>98</v>
-      </c>
-      <c r="W65" s="222"/>
-      <c r="X65" s="266">
-        <f>Pemasukkan!F31</f>
-        <v>222000</v>
-      </c>
-      <c r="Y65" s="267"/>
-    </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O66" s="221" t="s">
-        <v>15</v>
-      </c>
-      <c r="P66" s="222"/>
-      <c r="Q66" s="222"/>
-      <c r="R66" s="222"/>
-      <c r="S66" s="222"/>
-      <c r="T66" s="177">
-        <f>SUM(T63:T65)</f>
-        <v>2332529.1800000002</v>
-      </c>
-      <c r="V66" s="239" t="s">
-        <v>191</v>
-      </c>
-      <c r="W66" s="222"/>
-      <c r="X66" s="261">
-        <f>(X63-X64)+X65</f>
-        <v>1657729.1800000002</v>
-      </c>
-      <c r="Y66" s="262"/>
-    </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="241" t="s">
-        <v>195</v>
-      </c>
-      <c r="B67" s="242"/>
-      <c r="C67" s="243" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="242"/>
-      <c r="E67" s="242"/>
-      <c r="F67" s="242"/>
-      <c r="G67" s="242"/>
-      <c r="H67" s="242"/>
-      <c r="I67" s="242"/>
-      <c r="J67" s="244"/>
-      <c r="O67" s="223" t="s">
-        <v>192</v>
-      </c>
-      <c r="P67" s="224"/>
-      <c r="Q67" s="224"/>
-      <c r="R67" s="224"/>
-      <c r="S67" s="224"/>
-      <c r="T67" s="178">
-        <f>X66</f>
-        <v>1657729.1800000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="237" t="s">
-        <v>196</v>
-      </c>
-      <c r="B68" s="222"/>
-      <c r="C68" s="239" t="s">
-        <v>198</v>
-      </c>
-      <c r="D68" s="222"/>
-      <c r="E68" s="222"/>
-      <c r="F68" s="222"/>
-      <c r="G68" s="222"/>
-      <c r="H68" s="222"/>
-      <c r="I68" s="222"/>
-      <c r="J68" s="240"/>
-    </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="173" t="s">
-        <v>233</v>
-      </c>
-      <c r="B69" s="174"/>
-      <c r="C69" s="231" t="s">
-        <v>234</v>
-      </c>
-      <c r="D69" s="232"/>
-      <c r="E69" s="232"/>
-      <c r="F69" s="232"/>
-      <c r="G69" s="232"/>
-      <c r="H69" s="232"/>
-      <c r="I69" s="232"/>
-      <c r="J69" s="233"/>
+      <c r="C64" s="261"/>
+      <c r="D64" s="262"/>
+      <c r="E64" s="262"/>
+      <c r="F64" s="262"/>
+      <c r="G64" s="263"/>
+      <c r="I64" s="264"/>
+      <c r="J64" s="264"/>
+      <c r="K64" s="264"/>
+      <c r="L64" s="264"/>
+      <c r="M64" s="264"/>
+    </row>
+    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K69" s="55"/>
       <c r="L69" s="55"/>
       <c r="M69" s="55"/>
@@ -12548,44 +12673,20 @@
       <c r="R69" s="55"/>
       <c r="S69" s="55"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="175"/>
-      <c r="B70" s="176"/>
-      <c r="C70" s="234" t="s">
-        <v>235</v>
-      </c>
-      <c r="D70" s="235"/>
-      <c r="E70" s="235"/>
-      <c r="F70" s="235"/>
-      <c r="G70" s="235"/>
-      <c r="H70" s="235"/>
-      <c r="I70" s="235"/>
-      <c r="J70" s="236"/>
+    <row r="70" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K70" s="55"/>
       <c r="L70" s="55"/>
       <c r="M70" s="55"/>
       <c r="N70" s="55"/>
       <c r="O70" s="55"/>
-      <c r="P70" s="238" t="s">
+      <c r="P70" s="229" t="s">
         <v>214</v>
       </c>
-      <c r="Q70" s="238"/>
+      <c r="Q70" s="229"/>
       <c r="R70" s="55"/>
       <c r="S70" s="55"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="280"/>
-      <c r="B71" s="267"/>
-      <c r="C71" s="239" t="s">
-        <v>236</v>
-      </c>
-      <c r="D71" s="222"/>
-      <c r="E71" s="222"/>
-      <c r="F71" s="222"/>
-      <c r="G71" s="222"/>
-      <c r="H71" s="222"/>
-      <c r="I71" s="222"/>
-      <c r="J71" s="240"/>
+    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K71" s="54"/>
       <c r="L71" s="54"/>
       <c r="M71" s="54"/>
@@ -12599,21 +12700,7 @@
       <c r="R71" s="54"/>
       <c r="S71" s="54"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="225" t="s">
-        <v>197</v>
-      </c>
-      <c r="B72" s="226"/>
-      <c r="C72" s="234" t="s">
-        <v>199</v>
-      </c>
-      <c r="D72" s="235"/>
-      <c r="E72" s="235"/>
-      <c r="F72" s="235"/>
-      <c r="G72" s="235"/>
-      <c r="H72" s="235"/>
-      <c r="I72" s="235"/>
-      <c r="J72" s="236"/>
+    <row r="72" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K72" s="49"/>
       <c r="L72" s="49"/>
       <c r="M72" s="49"/>
@@ -12624,19 +12711,7 @@
       <c r="R72" s="49"/>
       <c r="S72" s="49"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="227"/>
-      <c r="B73" s="228"/>
-      <c r="C73" s="234" t="s">
-        <v>239</v>
-      </c>
-      <c r="D73" s="235"/>
-      <c r="E73" s="235"/>
-      <c r="F73" s="235"/>
-      <c r="G73" s="235"/>
-      <c r="H73" s="235"/>
-      <c r="I73" s="235"/>
-      <c r="J73" s="236"/>
+    <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K73" s="49"/>
       <c r="L73" s="49"/>
       <c r="M73" s="49"/>
@@ -12647,17 +12722,7 @@
       <c r="R73" s="49"/>
       <c r="S73" s="49"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="227"/>
-      <c r="B74" s="228"/>
-      <c r="C74" s="222"/>
-      <c r="D74" s="222"/>
-      <c r="E74" s="222"/>
-      <c r="F74" s="222"/>
-      <c r="G74" s="222"/>
-      <c r="H74" s="222"/>
-      <c r="I74" s="222"/>
-      <c r="J74" s="240"/>
+    <row r="74" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K74" s="49"/>
       <c r="L74" s="49"/>
       <c r="M74" s="49"/>
@@ -12668,91 +12733,33 @@
       <c r="R74" s="49"/>
       <c r="S74" s="49"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="227"/>
-      <c r="B75" s="228"/>
-      <c r="C75" s="276"/>
-      <c r="D75" s="276"/>
-      <c r="E75" s="276"/>
-      <c r="F75" s="276"/>
-      <c r="G75" s="276"/>
-      <c r="H75" s="276"/>
-      <c r="I75" s="276"/>
-      <c r="J75" s="277"/>
+    <row r="75" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K75" s="49"/>
       <c r="L75" s="49"/>
       <c r="M75" s="49"/>
       <c r="N75" s="49"/>
-      <c r="O75" s="49"/>
-      <c r="P75" s="49"/>
-      <c r="Q75" s="49"/>
-      <c r="R75" s="49"/>
-      <c r="S75" s="49"/>
-    </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="227"/>
-      <c r="B76" s="228"/>
-      <c r="C76" s="222"/>
-      <c r="D76" s="222"/>
-      <c r="E76" s="222"/>
-      <c r="F76" s="222"/>
-      <c r="G76" s="222"/>
-      <c r="H76" s="222"/>
-      <c r="I76" s="222"/>
-      <c r="J76" s="240"/>
+    </row>
+    <row r="76" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K76" s="49"/>
       <c r="L76" s="49"/>
       <c r="M76" s="49"/>
       <c r="N76" s="49"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
-      <c r="Q76" s="49"/>
-      <c r="R76" s="49"/>
-      <c r="S76" s="49"/>
-    </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="227"/>
-      <c r="B77" s="228"/>
-      <c r="C77" s="276"/>
-      <c r="D77" s="276"/>
-      <c r="E77" s="276"/>
-      <c r="F77" s="276"/>
-      <c r="G77" s="276"/>
-      <c r="H77" s="276"/>
-      <c r="I77" s="276"/>
-      <c r="J77" s="277"/>
+    </row>
+    <row r="77" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K77" s="49"/>
       <c r="L77" s="49"/>
       <c r="M77" s="49"/>
       <c r="N77" s="49"/>
-      <c r="O77" s="49"/>
-      <c r="P77" s="49"/>
-      <c r="Q77" s="49"/>
-      <c r="R77" s="49"/>
-      <c r="S77" s="49"/>
-    </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="229"/>
-      <c r="B78" s="230"/>
-      <c r="C78" s="278"/>
-      <c r="D78" s="278"/>
-      <c r="E78" s="278"/>
-      <c r="F78" s="278"/>
-      <c r="G78" s="278"/>
-      <c r="H78" s="278"/>
-      <c r="I78" s="278"/>
-      <c r="J78" s="279"/>
+    </row>
+    <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K78" s="49"/>
       <c r="L78" s="49"/>
       <c r="M78" s="49"/>
       <c r="N78" s="49"/>
-      <c r="O78" s="49"/>
-      <c r="P78" s="49"/>
-      <c r="Q78" s="49"/>
-      <c r="R78" s="49"/>
-      <c r="S78" s="49"/>
-    </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="197"/>
+      <c r="B79" s="197"/>
       <c r="C79" s="49"/>
       <c r="D79" s="49"/>
       <c r="E79" s="49"/>
@@ -12765,13 +12772,8 @@
       <c r="L79" s="49"/>
       <c r="M79" s="49"/>
       <c r="N79" s="49"/>
-      <c r="O79" s="49"/>
-      <c r="P79" s="49"/>
-      <c r="Q79" s="49"/>
-      <c r="R79" s="49"/>
-      <c r="S79" s="49"/>
-    </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="49"/>
       <c r="D80" s="49"/>
       <c r="E80" s="49"/>
@@ -12784,11 +12786,6 @@
       <c r="L80" s="49"/>
       <c r="M80" s="49"/>
       <c r="N80" s="49"/>
-      <c r="O80" s="49"/>
-      <c r="P80" s="49"/>
-      <c r="Q80" s="49"/>
-      <c r="R80" s="49"/>
-      <c r="S80" s="49"/>
     </row>
     <row r="81" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="49"/>
@@ -13152,15 +13149,15 @@
     <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="46">
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C72:J72"/>
+  <mergeCells count="16">
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="C63:G64"/>
+    <mergeCell ref="I63:M64"/>
+    <mergeCell ref="C2:T3"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="Z7:AC7"/>
     <mergeCell ref="AD7:AN7"/>
     <mergeCell ref="X5:AN5"/>
     <mergeCell ref="Z6:AN6"/>
@@ -13169,87 +13166,57 @@
     <mergeCell ref="AI50:AL50"/>
     <mergeCell ref="AI55:AL55"/>
     <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="C2:T3"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="O64:S64"/>
-    <mergeCell ref="O67:S67"/>
-    <mergeCell ref="A72:B78"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C63:G64"/>
-    <mergeCell ref="I63:M64"/>
-    <mergeCell ref="O66:S66"/>
-    <mergeCell ref="O63:S63"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="C76:J76"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:V60">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>IF(ISBLANK($B$4), 0, SEARCH($B$4,$B6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9:AK48">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH(("YES"),(AK9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9:AK48">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(AK9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:AN9 Y46:AC46 AD46:AL48 AC47:AC48 Y10:AL45 AM10:AN48">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>IF(ISBLANK($Z$4), 0, SEARCH($Z$4,$Y9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U60">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(U6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U60">
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH(("OK"),(U6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10:Y45">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>IF(AK10="YES",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:R60">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P60">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:AN48">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(ISBLANK($AA$4), 0, SEARCH($AA$4,$Y9))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13260,49 +13227,833 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K220"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="308"/>
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="308"/>
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="316" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="316"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="316"/>
+      <c r="M2" s="310"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="311"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="312"/>
+      <c r="U3" s="254" t="s">
+        <v>195</v>
+      </c>
+      <c r="V3" s="255"/>
+      <c r="W3" s="256" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="255"/>
+      <c r="AA3" s="255"/>
+      <c r="AB3" s="255"/>
+      <c r="AC3" s="255"/>
+      <c r="AD3" s="257"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="311"/>
+      <c r="B4" s="265" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="266"/>
+      <c r="D4" s="266"/>
+      <c r="E4" s="266"/>
+      <c r="F4" s="266"/>
+      <c r="G4" s="70">
+        <v>1004200</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="221" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="312"/>
+      <c r="U4" s="253" t="s">
+        <v>196</v>
+      </c>
+      <c r="V4" s="222"/>
+      <c r="W4" s="221" t="s">
+        <v>198</v>
+      </c>
+      <c r="X4" s="222"/>
+      <c r="Y4" s="222"/>
+      <c r="Z4" s="222"/>
+      <c r="AA4" s="222"/>
+      <c r="AB4" s="222"/>
+      <c r="AC4" s="222"/>
+      <c r="AD4" s="223"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="311"/>
+      <c r="B5" s="243" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="173">
+        <v>568329.18000000005</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="250" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="304"/>
+      <c r="K5" s="296">
+        <f>G7</f>
+        <v>2332529.1800000002</v>
+      </c>
+      <c r="L5" s="297"/>
+      <c r="M5" s="312"/>
+      <c r="U5" s="329" t="s">
+        <v>233</v>
+      </c>
+      <c r="V5" s="330"/>
+      <c r="W5" s="250" t="s">
+        <v>234</v>
+      </c>
+      <c r="X5" s="251"/>
+      <c r="Y5" s="251"/>
+      <c r="Z5" s="251"/>
+      <c r="AA5" s="251"/>
+      <c r="AB5" s="251"/>
+      <c r="AC5" s="251"/>
+      <c r="AD5" s="252"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="311"/>
+      <c r="B6" s="267" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="173">
+        <v>760000</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="305" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="306"/>
+      <c r="K6" s="298">
+        <f>Pengeluaran!F30</f>
+        <v>903300</v>
+      </c>
+      <c r="L6" s="299"/>
+      <c r="M6" s="312"/>
+      <c r="U6" s="331"/>
+      <c r="V6" s="332"/>
+      <c r="W6" s="224" t="s">
+        <v>235</v>
+      </c>
+      <c r="X6" s="225"/>
+      <c r="Y6" s="225"/>
+      <c r="Z6" s="225"/>
+      <c r="AA6" s="225"/>
+      <c r="AB6" s="225"/>
+      <c r="AC6" s="225"/>
+      <c r="AD6" s="226"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="311"/>
+      <c r="B7" s="317" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="318"/>
+      <c r="D7" s="318"/>
+      <c r="E7" s="318"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="173">
+        <f>SUM(G4:G6)</f>
+        <v>2332529.1800000002</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="305" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="306"/>
+      <c r="K7" s="300">
+        <f>Pemasukkan!F31</f>
+        <v>222000</v>
+      </c>
+      <c r="L7" s="301"/>
+      <c r="M7" s="312"/>
+      <c r="U7" s="333"/>
+      <c r="V7" s="334"/>
+      <c r="W7" s="221" t="s">
+        <v>236</v>
+      </c>
+      <c r="X7" s="222"/>
+      <c r="Y7" s="222"/>
+      <c r="Z7" s="222"/>
+      <c r="AA7" s="222"/>
+      <c r="AB7" s="222"/>
+      <c r="AC7" s="222"/>
+      <c r="AD7" s="223"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="311"/>
+      <c r="B8" s="244" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="245"/>
+      <c r="D8" s="245"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="245"/>
+      <c r="G8" s="174">
+        <f>K8</f>
+        <v>1651229.1800000002</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="250" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" s="304"/>
+      <c r="K8" s="302">
+        <f>(K5-K6)+K7</f>
+        <v>1651229.1800000002</v>
+      </c>
+      <c r="L8" s="303"/>
+      <c r="M8" s="312"/>
+      <c r="U8" s="246" t="s">
+        <v>197</v>
+      </c>
+      <c r="V8" s="247"/>
+      <c r="W8" s="224" t="s">
+        <v>199</v>
+      </c>
+      <c r="X8" s="225"/>
+      <c r="Y8" s="225"/>
+      <c r="Z8" s="225"/>
+      <c r="AA8" s="225"/>
+      <c r="AB8" s="225"/>
+      <c r="AC8" s="225"/>
+      <c r="AD8" s="226"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="311"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="312"/>
+      <c r="U9" s="248"/>
+      <c r="V9" s="249"/>
+      <c r="W9" s="224" t="s">
+        <v>239</v>
+      </c>
+      <c r="X9" s="225"/>
+      <c r="Y9" s="225"/>
+      <c r="Z9" s="225"/>
+      <c r="AA9" s="225"/>
+      <c r="AB9" s="225"/>
+      <c r="AC9" s="225"/>
+      <c r="AD9" s="226"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="311"/>
+      <c r="B10" s="222" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="222"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="56">
+        <f>G5</f>
+        <v>568329.18000000005</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="312"/>
+      <c r="U10" s="267" t="s">
+        <v>246</v>
+      </c>
+      <c r="V10" s="268"/>
+      <c r="W10" s="222" t="s">
+        <v>263</v>
+      </c>
+      <c r="X10" s="222"/>
+      <c r="Y10" s="222"/>
+      <c r="Z10" s="222"/>
+      <c r="AA10" s="222"/>
+      <c r="AB10" s="222"/>
+      <c r="AC10" s="222"/>
+      <c r="AD10" s="223"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="311"/>
+      <c r="B11" s="222" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="222"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="56">
+        <v>1089400</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="312"/>
+      <c r="U11" s="267" t="s">
+        <v>262</v>
+      </c>
+      <c r="V11" s="268"/>
+      <c r="W11" s="337" t="s">
+        <v>264</v>
+      </c>
+      <c r="X11" s="337"/>
+      <c r="Y11" s="337"/>
+      <c r="Z11" s="337"/>
+      <c r="AA11" s="337"/>
+      <c r="AB11" s="337"/>
+      <c r="AC11" s="337"/>
+      <c r="AD11" s="338"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="311"/>
+      <c r="B12" s="327" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="327"/>
+      <c r="D12" s="327"/>
+      <c r="E12" s="327"/>
+      <c r="F12" s="327"/>
+      <c r="G12" s="328">
+        <f>SUM(G10:G11)</f>
+        <v>1657729.1800000002</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="312"/>
+      <c r="U12" s="267"/>
+      <c r="V12" s="268"/>
+      <c r="W12" s="222"/>
+      <c r="X12" s="222"/>
+      <c r="Y12" s="222"/>
+      <c r="Z12" s="222"/>
+      <c r="AA12" s="222"/>
+      <c r="AB12" s="222"/>
+      <c r="AC12" s="222"/>
+      <c r="AD12" s="223"/>
+    </row>
+    <row r="13" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="313"/>
+      <c r="B13" s="314"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="314"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="314"/>
+      <c r="M13" s="315"/>
+      <c r="U13" s="267"/>
+      <c r="V13" s="268"/>
+      <c r="W13" s="222"/>
+      <c r="X13" s="222"/>
+      <c r="Y13" s="222"/>
+      <c r="Z13" s="222"/>
+      <c r="AA13" s="222"/>
+      <c r="AB13" s="222"/>
+      <c r="AC13" s="222"/>
+      <c r="AD13" s="223"/>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U14" s="335"/>
+      <c r="V14" s="336"/>
+      <c r="W14" s="219"/>
+      <c r="X14" s="219"/>
+      <c r="Y14" s="219"/>
+      <c r="Z14" s="219"/>
+      <c r="AA14" s="219"/>
+      <c r="AB14" s="219"/>
+      <c r="AC14" s="219"/>
+      <c r="AD14" s="220"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="308"/>
+      <c r="B18" s="309"/>
+      <c r="C18" s="309"/>
+      <c r="D18" s="316" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="316"/>
+      <c r="F18" s="316"/>
+      <c r="G18" s="316"/>
+      <c r="H18" s="316"/>
+      <c r="I18" s="316"/>
+      <c r="J18" s="316"/>
+      <c r="K18" s="316"/>
+      <c r="L18" s="316"/>
+      <c r="M18" s="310"/>
+      <c r="O18" s="325" t="s">
+        <v>253</v>
+      </c>
+      <c r="P18" s="295"/>
+      <c r="Q18" s="295"/>
+      <c r="R18" s="295"/>
+      <c r="S18" s="326"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="311"/>
+      <c r="M19" s="312"/>
+      <c r="O19" s="243" t="s">
+        <v>254</v>
+      </c>
+      <c r="P19" s="222"/>
+      <c r="Q19" s="222"/>
+      <c r="R19" s="222"/>
+      <c r="S19" s="223"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="311"/>
+      <c r="B20" s="265" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="266"/>
+      <c r="D20" s="266"/>
+      <c r="E20" s="266"/>
+      <c r="F20" s="266"/>
+      <c r="G20" s="70">
+        <v>100000</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="221" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" s="222"/>
+      <c r="K20" s="222"/>
+      <c r="L20" s="222"/>
+      <c r="M20" s="312"/>
+      <c r="O20" s="243" t="s">
+        <v>255</v>
+      </c>
+      <c r="P20" s="222"/>
+      <c r="Q20" s="222"/>
+      <c r="R20" s="222"/>
+      <c r="S20" s="223"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="311"/>
+      <c r="B21" s="317" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="318"/>
+      <c r="D21" s="318"/>
+      <c r="E21" s="318"/>
+      <c r="F21" s="306"/>
+      <c r="G21" s="173">
+        <f>G12</f>
+        <v>1657729.1800000002</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="250" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="304"/>
+      <c r="K21" s="296">
+        <f>G23</f>
+        <v>1887729.1800000002</v>
+      </c>
+      <c r="L21" s="297"/>
+      <c r="M21" s="312"/>
+      <c r="N21" s="197"/>
+      <c r="O21" s="243" t="s">
+        <v>261</v>
+      </c>
+      <c r="P21" s="222"/>
+      <c r="Q21" s="222"/>
+      <c r="R21" s="222"/>
+      <c r="S21" s="223"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="311"/>
+      <c r="B22" s="319" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="320"/>
+      <c r="D22" s="320"/>
+      <c r="E22" s="320"/>
+      <c r="F22" s="321"/>
+      <c r="G22" s="173">
+        <v>130000</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="305" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="306"/>
+      <c r="K22" s="298">
+        <f>Pengeluaran!L30</f>
+        <v>46000</v>
+      </c>
+      <c r="L22" s="299"/>
+      <c r="M22" s="312"/>
+      <c r="N22" s="197"/>
+      <c r="O22" s="243"/>
+      <c r="P22" s="222"/>
+      <c r="Q22" s="222"/>
+      <c r="R22" s="222"/>
+      <c r="S22" s="223"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="311"/>
+      <c r="B23" s="317" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="318"/>
+      <c r="D23" s="318"/>
+      <c r="E23" s="318"/>
+      <c r="F23" s="306"/>
+      <c r="G23" s="173">
+        <f>SUM(G20:G22)</f>
+        <v>1887729.1800000002</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="305" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="306"/>
+      <c r="K23" s="300">
+        <f>Pemasukkan!F42</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="301"/>
+      <c r="M23" s="312"/>
+      <c r="N23" s="197"/>
+      <c r="O23" s="243"/>
+      <c r="P23" s="222"/>
+      <c r="Q23" s="222"/>
+      <c r="R23" s="222"/>
+      <c r="S23" s="223"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="311"/>
+      <c r="B24" s="324" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="322"/>
+      <c r="D24" s="322"/>
+      <c r="E24" s="322"/>
+      <c r="F24" s="323"/>
+      <c r="G24" s="174">
+        <f>K24</f>
+        <v>1841729.1800000002</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="250" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" s="304"/>
+      <c r="K24" s="302">
+        <f>(K21-K22)+K23</f>
+        <v>1841729.1800000002</v>
+      </c>
+      <c r="L24" s="303"/>
+      <c r="M24" s="312"/>
+      <c r="N24" s="197"/>
+      <c r="O24" s="243"/>
+      <c r="P24" s="222"/>
+      <c r="Q24" s="222"/>
+      <c r="R24" s="222"/>
+      <c r="S24" s="223"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="311"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="312"/>
+      <c r="N25" s="197"/>
+      <c r="O25" s="243"/>
+      <c r="P25" s="222"/>
+      <c r="Q25" s="222"/>
+      <c r="R25" s="222"/>
+      <c r="S25" s="223"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="311"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="312"/>
+      <c r="N26" s="197"/>
+      <c r="O26" s="243"/>
+      <c r="P26" s="222"/>
+      <c r="Q26" s="222"/>
+      <c r="R26" s="222"/>
+      <c r="S26" s="223"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="313"/>
+      <c r="B27" s="314"/>
+      <c r="C27" s="314"/>
+      <c r="D27" s="314"/>
+      <c r="E27" s="314"/>
+      <c r="F27" s="314"/>
+      <c r="G27" s="314"/>
+      <c r="H27" s="314"/>
+      <c r="I27" s="314"/>
+      <c r="J27" s="314"/>
+      <c r="K27" s="314"/>
+      <c r="L27" s="314"/>
+      <c r="M27" s="315"/>
+      <c r="N27" s="197"/>
+      <c r="O27" s="339"/>
+      <c r="P27" s="219"/>
+      <c r="Q27" s="219"/>
+      <c r="R27" s="219"/>
+      <c r="S27" s="220"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="197"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="197"/>
+      <c r="N28" s="197"/>
+      <c r="O28" s="197"/>
+      <c r="P28" s="197"/>
+      <c r="Q28" s="197"/>
+      <c r="R28" s="197"/>
+      <c r="S28" s="197"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="66">
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:AD3"/>
+    <mergeCell ref="W12:AD12"/>
+    <mergeCell ref="W13:AD13"/>
+    <mergeCell ref="W14:AD14"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:AD7"/>
+    <mergeCell ref="W9:AD9"/>
+    <mergeCell ref="W10:AD10"/>
+    <mergeCell ref="W11:AD11"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:AD4"/>
+    <mergeCell ref="W8:AD8"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:M220"/>
+  <sheetViews>
+    <sheetView topLeftCell="G4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="1" max="2" width="8.7109375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="53" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="79.7109375" style="53" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="53" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="34" style="53" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="53" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="53" customWidth="1"/>
+    <col min="13" max="13" width="77.140625" style="53" customWidth="1"/>
+    <col min="14" max="16384" width="14.42578125" style="53"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="281" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="282"/>
-    </row>
-    <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="282"/>
-    </row>
-    <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="279" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+      <c r="K2" s="280"/>
+    </row>
+    <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="280"/>
+      <c r="G3" s="280"/>
+      <c r="H3" s="280"/>
+      <c r="I3" s="280"/>
+      <c r="J3" s="280"/>
+      <c r="K3" s="280"/>
+    </row>
+    <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="307" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="307"/>
+      <c r="E5" s="307"/>
+      <c r="F5" s="307"/>
+      <c r="G5" s="307"/>
+      <c r="I5" s="307" t="s">
+        <v>251</v>
+      </c>
+      <c r="J5" s="307"/>
+      <c r="K5" s="307"/>
+      <c r="L5" s="307"/>
+      <c r="M5" s="307"/>
+    </row>
+    <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
         <v>1</v>
       </c>
@@ -13310,7 +14061,7 @@
         <v>65</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F6" s="58" t="s">
         <v>180</v>
@@ -13318,220 +14069,359 @@
       <c r="G6" s="58" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="57">
+      <c r="I6" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>181</v>
+      <c r="J6" s="198" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="198" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>185</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="56">
-        <v>750000</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="57">
+        <v>188</v>
+      </c>
+      <c r="F7" s="64">
+        <v>122000</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="198"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="66"/>
+    </row>
+    <row r="8" spans="3:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="158" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="61">
-        <v>45000</v>
-      </c>
-      <c r="G8" s="158"/>
-    </row>
-    <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="159">
+      <c r="D8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="64">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="162" t="s">
-        <v>224</v>
-      </c>
-      <c r="E9" s="163" t="s">
-        <v>225</v>
-      </c>
-      <c r="F9" s="56">
-        <v>100000</v>
-      </c>
-      <c r="G9" s="57"/>
-    </row>
-    <row r="10" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="57">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="160" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="161">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="160"/>
-    </row>
-    <row r="11" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="57">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" s="56">
-        <v>800</v>
-      </c>
-      <c r="G11" s="57"/>
-    </row>
-    <row r="12" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="57">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="57"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
-    </row>
-    <row r="13" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="57">
+      <c r="F12" s="64"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
         <v>7</v>
       </c>
-      <c r="D13" s="57"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-    </row>
-    <row r="14" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="57">
+      <c r="F13" s="64"/>
+      <c r="G13" s="1"/>
+      <c r="I13" s="1">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-    </row>
-    <row r="15" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="57">
+      <c r="F14" s="64"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
         <v>9</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-    </row>
-    <row r="16" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="57">
+      <c r="F15" s="64"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
         <v>10</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-    </row>
-    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="57">
+      <c r="F16" s="64"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
         <v>11</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-    </row>
-    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="57">
+      <c r="F17" s="64"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
         <v>12</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-    </row>
-    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="57">
+      <c r="F18" s="64"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="1">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
         <v>13</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-    </row>
-    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="57">
+      <c r="F19" s="64"/>
+      <c r="G19" s="1"/>
+      <c r="I19" s="1">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
         <v>14</v>
       </c>
-      <c r="D20" s="57"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-    </row>
-    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="57">
+      <c r="F20" s="64"/>
+      <c r="G20" s="1"/>
+      <c r="I20" s="1">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
         <v>15</v>
       </c>
-      <c r="D21" s="57"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-    </row>
-    <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="57">
+      <c r="F21" s="64"/>
+      <c r="G21" s="1"/>
+      <c r="I21" s="1">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
         <v>16</v>
       </c>
-      <c r="D22" s="57"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-    </row>
-    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="57">
+      <c r="F22" s="64"/>
+      <c r="G22" s="1"/>
+      <c r="I22" s="1">
+        <v>16</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
         <v>17</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-    </row>
-    <row r="24" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="57">
+      <c r="F23" s="64"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="1">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
         <v>18</v>
       </c>
-      <c r="D24" s="57"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-    </row>
-    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="57">
+      <c r="F24" s="64"/>
+      <c r="G24" s="1"/>
+      <c r="I24" s="1">
+        <v>18</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
         <v>19</v>
       </c>
-      <c r="D25" s="57"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
-    </row>
-    <row r="26" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="57">
-        <v>20</v>
-      </c>
-      <c r="D26" s="57"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="1"/>
+      <c r="I25" s="1">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="1">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="57"/>
-    </row>
-    <row r="27" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="67"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1">
+        <v>20</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="62" t="s">
@@ -13539,54 +14429,110 @@
       </c>
       <c r="F27" s="63">
         <f>SUM(F7:F26)</f>
-        <v>896800</v>
+        <v>222000</v>
       </c>
       <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="241" t="s">
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="63">
+        <f>SUM(L7:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="24"/>
+    </row>
+    <row r="28" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="197"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="197"/>
+    </row>
+    <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="265" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="243"/>
-      <c r="F29" s="283">
-        <f>'2019'!T65</f>
+      <c r="E29" s="266"/>
+      <c r="F29" s="281">
+        <f>'Hitung Pemasukan Pengeluaran'!G6</f>
         <v>760000</v>
       </c>
-      <c r="G29" s="284"/>
-    </row>
-    <row r="30" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="221" t="s">
+      <c r="G29" s="282"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="265" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="266"/>
+      <c r="L29" s="281">
+        <f>'Hitung Pemasukan Pengeluaran'!G23</f>
+        <v>1887729.1800000002</v>
+      </c>
+      <c r="M29" s="282"/>
+    </row>
+    <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="253" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="222"/>
-      <c r="F30" s="264">
+      <c r="F30" s="237">
+        <f>Pengeluaran!F30</f>
+        <v>903300</v>
+      </c>
+      <c r="G30" s="275"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="253" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="222"/>
+      <c r="L30" s="237">
+        <f>Pengeluaran!L30</f>
+        <v>46000</v>
+      </c>
+      <c r="M30" s="275"/>
+    </row>
+    <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="243" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="222"/>
+      <c r="F31" s="238">
         <f>F27</f>
-        <v>896800</v>
-      </c>
-      <c r="G30" s="287"/>
-    </row>
-    <row r="31" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="221" t="s">
+        <v>222000</v>
+      </c>
+      <c r="G31" s="276"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="243" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="222"/>
-      <c r="F31" s="266">
-        <f>Pemasukkan!F27</f>
-        <v>222000</v>
-      </c>
-      <c r="G31" s="288"/>
-    </row>
-    <row r="32" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="223" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="224"/>
-      <c r="F32" s="285">
-        <f>'2019'!T67</f>
-        <v>1657729.1800000002</v>
-      </c>
-      <c r="G32" s="286"/>
+      <c r="K31" s="222"/>
+      <c r="L31" s="238">
+        <f>L27</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="276"/>
+    </row>
+    <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="244" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="245"/>
+      <c r="F32" s="277">
+        <f>'Hitung Pemasukan Pengeluaran'!G8</f>
+        <v>1651229.1800000002</v>
+      </c>
+      <c r="G32" s="278"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="244" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" s="245"/>
+      <c r="L32" s="277">
+        <f>'Hitung Pemasukan Pengeluaran'!G24</f>
+        <v>1841729.1800000002</v>
+      </c>
+      <c r="M32" s="278"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13778,70 +14724,97 @@
     <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="9">
+  <mergeCells count="19">
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K220"/>
+  <dimension ref="C2:M220"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="53" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="53" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="53" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="79.7109375" style="53" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="53"/>
-    <col min="11" max="11" width="16.28515625" style="53" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="53"/>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="10" max="10" width="35.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="13" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="291" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-    </row>
-    <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="292"/>
-      <c r="D3" s="292"/>
-      <c r="E3" s="292"/>
-      <c r="F3" s="292"/>
-      <c r="G3" s="292"/>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
-      <c r="J3" s="292"/>
-      <c r="K3" s="292"/>
-    </row>
-    <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="269" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+    </row>
+    <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270"/>
+      <c r="I3" s="270"/>
+      <c r="J3" s="270"/>
+      <c r="K3" s="270"/>
+    </row>
+    <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="307" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="307"/>
+      <c r="E5" s="307"/>
+      <c r="F5" s="307"/>
+      <c r="G5" s="307"/>
+      <c r="I5" s="307" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="307"/>
+      <c r="K5" s="307"/>
+      <c r="L5" s="307"/>
+      <c r="M5" s="307"/>
+    </row>
+    <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
         <v>1</v>
       </c>
@@ -13849,7 +14822,7 @@
         <v>65</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F6" s="58" t="s">
         <v>180</v>
@@ -13857,204 +14830,385 @@
       <c r="G6" s="58" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+      <c r="I6" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>185</v>
+      <c r="J6" s="198" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="198" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="57">
+        <v>1</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>181</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="64">
-        <v>122000</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
+        <v>183</v>
+      </c>
+      <c r="F7" s="56">
+        <v>750000</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" s="64">
+        <v>21000</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="57">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="64">
+      <c r="D8" s="158" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="61">
+        <v>45000</v>
+      </c>
+      <c r="G8" s="158"/>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L8" s="64">
+        <v>25000</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="159">
+        <v>3</v>
+      </c>
+      <c r="D9" s="162" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="163" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="56">
         <v>100000</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+      <c r="G9" s="57"/>
+      <c r="I9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
+    </row>
+    <row r="10" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="57">
         <v>4</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+      <c r="D10" s="160" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="161">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="160"/>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="57">
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
+      <c r="D11" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="56">
+        <v>800</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="57">
         <v>6</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
+      <c r="D12" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="56">
+        <v>6500</v>
+      </c>
+      <c r="G12" s="57"/>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="I13" s="1">
         <v>7</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="I14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="57">
         <v>9</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="I15" s="1">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="57">
         <v>10</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="57">
         <v>11</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="I17" s="1">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="57">
         <v>12</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="I18" s="1">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="57">
         <v>13</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="I19" s="1">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="57">
         <v>14</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="I20" s="1">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="57">
         <v>15</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="1">
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="I21" s="1">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="57">
         <v>16</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="1">
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="I22" s="1">
+        <v>16</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="57">
         <v>17</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="I23" s="1">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="57">
         <v>18</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="1">
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
+      <c r="I24" s="1">
+        <v>18</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="57">
         <v>19</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="1">
-        <v>20</v>
-      </c>
-      <c r="D26" s="1"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="I25" s="1">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="57">
+        <v>20</v>
+      </c>
+      <c r="D26" s="57"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="61"/>
+      <c r="G26" s="57"/>
+      <c r="I26" s="1">
+        <v>20</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="62" t="s">
@@ -14062,54 +15216,110 @@
       </c>
       <c r="F27" s="63">
         <f>SUM(F7:F26)</f>
+        <v>903300</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="56">
+        <f>SUM(L7:L26)</f>
+        <v>46000</v>
+      </c>
+      <c r="M27" s="57"/>
+    </row>
+    <row r="28" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="197"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="197"/>
+    </row>
+    <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="254" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="256"/>
+      <c r="F29" s="271">
+        <f>'Hitung Pemasukan Pengeluaran'!G6</f>
+        <v>760000</v>
+      </c>
+      <c r="G29" s="272"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="254" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="256"/>
+      <c r="L29" s="271">
+        <f>'Hitung Pemasukan Pengeluaran'!G23</f>
+        <v>1887729.1800000002</v>
+      </c>
+      <c r="M29" s="272"/>
+    </row>
+    <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="243" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="222"/>
+      <c r="F30" s="237">
+        <f>F27</f>
+        <v>903300</v>
+      </c>
+      <c r="G30" s="275"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="243" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="222"/>
+      <c r="L30" s="237">
+        <f>L27</f>
+        <v>46000</v>
+      </c>
+      <c r="M30" s="275"/>
+    </row>
+    <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="243" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="222"/>
+      <c r="F31" s="238">
+        <f>Pemasukkan!F27</f>
         <v>222000</v>
       </c>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="252" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="253"/>
-      <c r="F29" s="293">
-        <f>'2019'!T65</f>
-        <v>760000</v>
-      </c>
-      <c r="G29" s="294"/>
-    </row>
-    <row r="30" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="237" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="222"/>
-      <c r="F30" s="264">
-        <f>Pengeluaran!F30</f>
-        <v>896800</v>
-      </c>
-      <c r="G30" s="287"/>
-    </row>
-    <row r="31" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="221" t="s">
+      <c r="G31" s="276"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="243" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="222"/>
-      <c r="F31" s="266">
-        <f>F27</f>
-        <v>222000</v>
-      </c>
-      <c r="G31" s="288"/>
-    </row>
-    <row r="32" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="223" t="s">
-        <v>190</v>
-      </c>
-      <c r="E32" s="224"/>
-      <c r="F32" s="289">
-        <f>'2019'!T67</f>
-        <v>1657729.1800000002</v>
-      </c>
-      <c r="G32" s="290"/>
+      <c r="K31" s="222"/>
+      <c r="L31" s="238">
+        <f>Pemasukkan!L27</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="276"/>
+    </row>
+    <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="244" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="245"/>
+      <c r="F32" s="273">
+        <f>'Hitung Pemasukan Pengeluaran'!G8</f>
+        <v>1651229.1800000002</v>
+      </c>
+      <c r="G32" s="274"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="244" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" s="245"/>
+      <c r="L32" s="273">
+        <f>'Hitung Pemasukan Pengeluaran'!M8</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="274"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14301,27 +15511,37 @@
     <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="9">
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
+  <mergeCells count="19">
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -14335,28 +15555,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="297" t="s">
+      <c r="C2" s="285" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="286"/>
+      <c r="J3" s="286"/>
+      <c r="K3" s="286"/>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" s="156"/>
@@ -14698,10 +15918,10 @@
     </row>
     <row r="29" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="156"/>
-      <c r="D29" s="299"/>
-      <c r="E29" s="299"/>
-      <c r="F29" s="300"/>
-      <c r="G29" s="300"/>
+      <c r="D29" s="287"/>
+      <c r="E29" s="287"/>
+      <c r="F29" s="288"/>
+      <c r="G29" s="288"/>
       <c r="H29" s="156"/>
       <c r="I29" s="156"/>
       <c r="J29" s="156"/>
@@ -14709,15 +15929,15 @@
     </row>
     <row r="30" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="24"/>
-      <c r="D30" s="301" t="s">
+      <c r="D30" s="289" t="s">
         <v>231</v>
       </c>
-      <c r="E30" s="302"/>
-      <c r="F30" s="303">
+      <c r="E30" s="290"/>
+      <c r="F30" s="291">
         <f>F27</f>
         <v>60000</v>
       </c>
-      <c r="G30" s="304"/>
+      <c r="G30" s="292"/>
       <c r="H30" s="156"/>
       <c r="I30" s="156"/>
       <c r="J30" s="156"/>
@@ -14732,10 +15952,10 @@
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="156"/>
-      <c r="D32" s="295"/>
-      <c r="E32" s="295"/>
-      <c r="F32" s="296"/>
-      <c r="G32" s="295"/>
+      <c r="D32" s="283"/>
+      <c r="E32" s="283"/>
+      <c r="F32" s="284"/>
+      <c r="G32" s="283"/>
       <c r="H32" s="156"/>
       <c r="I32" s="156"/>
       <c r="J32" s="156"/>
@@ -14757,7 +15977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14773,17 +15993,17 @@
     <row r="3" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26"/>
-      <c r="C4" s="305" t="s">
+      <c r="C4" s="293" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="306"/>
+      <c r="D4" s="294"/>
       <c r="E4" s="27"/>
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
-      <c r="H4" s="305" t="s">
+      <c r="H4" s="293" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="306"/>
+      <c r="I4" s="294"/>
       <c r="J4" s="35"/>
       <c r="K4" s="27"/>
     </row>
@@ -14910,17 +16130,17 @@
     <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
-      <c r="C17" s="305" t="s">
+      <c r="C17" s="293" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="306"/>
+      <c r="D17" s="294"/>
       <c r="E17" s="27"/>
       <c r="F17" s="26"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="305" t="s">
+      <c r="H17" s="293" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="306"/>
+      <c r="I17" s="294"/>
       <c r="J17" s="35"/>
       <c r="K17" s="27"/>
     </row>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="533" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="533" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2018(NOT UPDATED)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="266">
   <si>
     <t>LAPORAN KEUANGAN KAS GAS</t>
   </si>
@@ -815,6 +815,9 @@
   </si>
   <si>
     <t>Uang KAS yang dibayarkan via trf</t>
+  </si>
+  <si>
+    <t>once trf 70k kas(135-70)</t>
   </si>
 </sst>
 </file>
@@ -1957,7 +1960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="345">
+  <cellXfs count="346">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2371,307 +2374,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="13" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2680,76 +2382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2759,6 +2392,379 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="13" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3582,126 +3588,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="214"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="201"/>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="202"/>
+      <c r="A2" s="215"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="201"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="216"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="201"/>
-      <c r="B4" s="202"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
+      <c r="A4" s="215"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+      <c r="K4" s="216"/>
+      <c r="L4" s="216"/>
+      <c r="M4" s="216"/>
+      <c r="N4" s="216"/>
+      <c r="O4" s="216"/>
+      <c r="P4" s="216"/>
+      <c r="Q4" s="216"/>
+      <c r="R4" s="216"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="201"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="202"/>
-      <c r="P5" s="202"/>
-      <c r="Q5" s="202"/>
-      <c r="R5" s="202"/>
+      <c r="A5" s="215"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="216"/>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="216"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="201"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="202"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202"/>
-      <c r="O6" s="202"/>
-      <c r="P6" s="202"/>
-      <c r="Q6" s="202"/>
-      <c r="R6" s="202"/>
+      <c r="A6" s="215"/>
+      <c r="B6" s="216"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="216"/>
+      <c r="L6" s="216"/>
+      <c r="M6" s="216"/>
+      <c r="N6" s="216"/>
+      <c r="O6" s="216"/>
+      <c r="P6" s="216"/>
+      <c r="Q6" s="216"/>
+      <c r="R6" s="216"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="s">
@@ -6646,58 +6652,58 @@
     <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J79" s="207" t="s">
+      <c r="J79" s="221" t="s">
         <v>65</v>
       </c>
-      <c r="K79" s="208"/>
-      <c r="L79" s="208"/>
-      <c r="M79" s="208"/>
-      <c r="N79" s="209"/>
-      <c r="P79" s="215" t="s">
+      <c r="K79" s="222"/>
+      <c r="L79" s="222"/>
+      <c r="M79" s="222"/>
+      <c r="N79" s="223"/>
+      <c r="P79" s="229" t="s">
         <v>66</v>
       </c>
-      <c r="Q79" s="208"/>
-      <c r="R79" s="208"/>
-      <c r="S79" s="209"/>
+      <c r="Q79" s="222"/>
+      <c r="R79" s="222"/>
+      <c r="S79" s="223"/>
     </row>
     <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J80" s="210" t="s">
+      <c r="J80" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="K80" s="202"/>
-      <c r="L80" s="202"/>
-      <c r="M80" s="202"/>
-      <c r="N80" s="211"/>
-      <c r="P80" s="210" t="s">
+      <c r="K80" s="216"/>
+      <c r="L80" s="216"/>
+      <c r="M80" s="216"/>
+      <c r="N80" s="225"/>
+      <c r="P80" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="Q80" s="202"/>
-      <c r="R80" s="202"/>
-      <c r="S80" s="211"/>
+      <c r="Q80" s="216"/>
+      <c r="R80" s="216"/>
+      <c r="S80" s="225"/>
     </row>
     <row r="81" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J81" s="212"/>
-      <c r="K81" s="213"/>
-      <c r="L81" s="213"/>
-      <c r="M81" s="213"/>
-      <c r="N81" s="214"/>
-      <c r="P81" s="212"/>
-      <c r="Q81" s="213"/>
-      <c r="R81" s="213"/>
-      <c r="S81" s="214"/>
+      <c r="J81" s="226"/>
+      <c r="K81" s="227"/>
+      <c r="L81" s="227"/>
+      <c r="M81" s="227"/>
+      <c r="N81" s="228"/>
+      <c r="P81" s="226"/>
+      <c r="Q81" s="227"/>
+      <c r="R81" s="227"/>
+      <c r="S81" s="228"/>
     </row>
     <row r="82" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J82" s="205" t="s">
+      <c r="J82" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="K82" s="206"/>
-      <c r="L82" s="204"/>
-      <c r="M82" s="205" t="s">
+      <c r="K82" s="220"/>
+      <c r="L82" s="218"/>
+      <c r="M82" s="219" t="s">
         <v>69</v>
       </c>
-      <c r="N82" s="204"/>
-      <c r="P82" s="205"/>
-      <c r="Q82" s="204"/>
+      <c r="N82" s="218"/>
+      <c r="P82" s="219"/>
+      <c r="Q82" s="218"/>
       <c r="R82" s="3" t="s">
         <v>19</v>
       </c>
@@ -6706,38 +6712,38 @@
       </c>
     </row>
     <row r="83" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J83" s="216" t="s">
+      <c r="J83" s="230" t="s">
         <v>70</v>
       </c>
-      <c r="K83" s="206"/>
-      <c r="L83" s="204"/>
-      <c r="M83" s="217">
+      <c r="K83" s="220"/>
+      <c r="L83" s="218"/>
+      <c r="M83" s="231">
         <v>7350000</v>
       </c>
-      <c r="N83" s="204"/>
-      <c r="P83" s="203" t="s">
+      <c r="N83" s="218"/>
+      <c r="P83" s="217" t="s">
         <v>71</v>
       </c>
-      <c r="Q83" s="204"/>
+      <c r="Q83" s="218"/>
       <c r="R83" s="4"/>
       <c r="S83" s="5">
         <v>40000</v>
       </c>
     </row>
     <row r="84" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J84" s="216" t="s">
+      <c r="J84" s="230" t="s">
         <v>72</v>
       </c>
-      <c r="K84" s="206"/>
-      <c r="L84" s="204"/>
-      <c r="M84" s="218">
+      <c r="K84" s="220"/>
+      <c r="L84" s="218"/>
+      <c r="M84" s="232">
         <v>1100000</v>
       </c>
-      <c r="N84" s="204"/>
-      <c r="P84" s="203" t="s">
+      <c r="N84" s="218"/>
+      <c r="P84" s="217" t="s">
         <v>73</v>
       </c>
-      <c r="Q84" s="204"/>
+      <c r="Q84" s="218"/>
       <c r="R84" s="6" t="s">
         <v>74</v>
       </c>
@@ -6746,39 +6752,39 @@
       </c>
     </row>
     <row r="85" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J85" s="216" t="s">
+      <c r="J85" s="230" t="s">
         <v>75</v>
       </c>
-      <c r="K85" s="206"/>
-      <c r="L85" s="204"/>
-      <c r="M85" s="217">
+      <c r="K85" s="220"/>
+      <c r="L85" s="218"/>
+      <c r="M85" s="231">
         <f>M83+M84</f>
         <v>8450000</v>
       </c>
-      <c r="N85" s="204"/>
-      <c r="P85" s="203" t="s">
+      <c r="N85" s="218"/>
+      <c r="P85" s="217" t="s">
         <v>76</v>
       </c>
-      <c r="Q85" s="204"/>
+      <c r="Q85" s="218"/>
       <c r="R85" s="4"/>
       <c r="S85" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J86" s="216" t="s">
+      <c r="J86" s="230" t="s">
         <v>77</v>
       </c>
-      <c r="K86" s="206"/>
-      <c r="L86" s="204"/>
-      <c r="M86" s="217">
+      <c r="K86" s="220"/>
+      <c r="L86" s="218"/>
+      <c r="M86" s="231">
         <v>8411850</v>
       </c>
-      <c r="N86" s="204"/>
-      <c r="P86" s="203" t="s">
+      <c r="N86" s="218"/>
+      <c r="P86" s="217" t="s">
         <v>78</v>
       </c>
-      <c r="Q86" s="204"/>
+      <c r="Q86" s="218"/>
       <c r="R86" s="4"/>
       <c r="S86" s="5">
         <f>S83-S84+S85</f>
@@ -6786,20 +6792,20 @@
       </c>
     </row>
     <row r="87" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J87" s="216" t="s">
+      <c r="J87" s="230" t="s">
         <v>79</v>
       </c>
-      <c r="K87" s="206"/>
-      <c r="L87" s="204"/>
-      <c r="M87" s="217">
+      <c r="K87" s="220"/>
+      <c r="L87" s="218"/>
+      <c r="M87" s="231">
         <f>M85-M86</f>
         <v>38150</v>
       </c>
-      <c r="N87" s="204"/>
-      <c r="P87" s="203" t="s">
+      <c r="N87" s="218"/>
+      <c r="P87" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="Q87" s="204"/>
+      <c r="Q87" s="218"/>
       <c r="R87" s="4"/>
       <c r="S87" s="5">
         <f>M87+S86</f>
@@ -7045,7 +7051,7 @@
   <dimension ref="A2:BM260"/>
   <sheetViews>
     <sheetView defaultGridColor="0" topLeftCell="A43" colorId="8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+      <selection activeCell="G53" sqref="D53:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7087,46 +7093,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="C2" s="239" t="s">
+      <c r="C2" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="201"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="216"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="216"/>
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7213,25 +7219,25 @@
       <c r="V5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="228" t="s">
+      <c r="X5" s="245" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="206"/>
-      <c r="Z5" s="206"/>
-      <c r="AA5" s="206"/>
-      <c r="AB5" s="206"/>
-      <c r="AC5" s="206"/>
-      <c r="AD5" s="206"/>
-      <c r="AE5" s="206"/>
-      <c r="AF5" s="206"/>
-      <c r="AG5" s="206"/>
-      <c r="AH5" s="206"/>
-      <c r="AI5" s="206"/>
-      <c r="AJ5" s="206"/>
-      <c r="AK5" s="206"/>
-      <c r="AL5" s="206"/>
-      <c r="AM5" s="206"/>
-      <c r="AN5" s="204"/>
+      <c r="Y5" s="220"/>
+      <c r="Z5" s="220"/>
+      <c r="AA5" s="220"/>
+      <c r="AB5" s="220"/>
+      <c r="AC5" s="220"/>
+      <c r="AD5" s="220"/>
+      <c r="AE5" s="220"/>
+      <c r="AF5" s="220"/>
+      <c r="AG5" s="220"/>
+      <c r="AH5" s="220"/>
+      <c r="AI5" s="220"/>
+      <c r="AJ5" s="220"/>
+      <c r="AK5" s="220"/>
+      <c r="AL5" s="220"/>
+      <c r="AM5" s="220"/>
+      <c r="AN5" s="218"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -7296,29 +7302,29 @@
         <v>NO</v>
       </c>
       <c r="V6" s="13"/>
-      <c r="X6" s="240" t="s">
+      <c r="X6" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="240" t="s">
+      <c r="Y6" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="Z6" s="222" t="s">
+      <c r="Z6" s="243" t="s">
         <v>86</v>
       </c>
-      <c r="AA6" s="227"/>
-      <c r="AB6" s="227"/>
-      <c r="AC6" s="227"/>
-      <c r="AD6" s="227"/>
-      <c r="AE6" s="227"/>
-      <c r="AF6" s="227"/>
-      <c r="AG6" s="227"/>
-      <c r="AH6" s="227"/>
-      <c r="AI6" s="227"/>
-      <c r="AJ6" s="227"/>
-      <c r="AK6" s="227"/>
-      <c r="AL6" s="227"/>
-      <c r="AM6" s="227"/>
-      <c r="AN6" s="227"/>
+      <c r="AA6" s="244"/>
+      <c r="AB6" s="244"/>
+      <c r="AC6" s="244"/>
+      <c r="AD6" s="244"/>
+      <c r="AE6" s="244"/>
+      <c r="AF6" s="244"/>
+      <c r="AG6" s="244"/>
+      <c r="AH6" s="244"/>
+      <c r="AI6" s="244"/>
+      <c r="AJ6" s="244"/>
+      <c r="AK6" s="244"/>
+      <c r="AL6" s="244"/>
+      <c r="AM6" s="244"/>
+      <c r="AN6" s="244"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -7381,27 +7387,27 @@
         <v>NO</v>
       </c>
       <c r="V7" s="13"/>
-      <c r="X7" s="227"/>
-      <c r="Y7" s="227"/>
-      <c r="Z7" s="222" t="s">
+      <c r="X7" s="244"/>
+      <c r="Y7" s="244"/>
+      <c r="Z7" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="227"/>
-      <c r="AB7" s="227"/>
-      <c r="AC7" s="227"/>
-      <c r="AD7" s="222" t="s">
+      <c r="AA7" s="244"/>
+      <c r="AB7" s="244"/>
+      <c r="AC7" s="244"/>
+      <c r="AD7" s="243" t="s">
         <v>88</v>
       </c>
-      <c r="AE7" s="227"/>
-      <c r="AF7" s="227"/>
-      <c r="AG7" s="227"/>
-      <c r="AH7" s="227"/>
-      <c r="AI7" s="227"/>
-      <c r="AJ7" s="227"/>
-      <c r="AK7" s="227"/>
-      <c r="AL7" s="227"/>
-      <c r="AM7" s="227"/>
-      <c r="AN7" s="227"/>
+      <c r="AE7" s="244"/>
+      <c r="AF7" s="244"/>
+      <c r="AG7" s="244"/>
+      <c r="AH7" s="244"/>
+      <c r="AI7" s="244"/>
+      <c r="AJ7" s="244"/>
+      <c r="AK7" s="244"/>
+      <c r="AL7" s="244"/>
+      <c r="AM7" s="244"/>
+      <c r="AN7" s="244"/>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -7451,8 +7457,8 @@
         <v>NO</v>
       </c>
       <c r="V8" s="13"/>
-      <c r="X8" s="227"/>
-      <c r="Y8" s="227"/>
+      <c r="X8" s="244"/>
+      <c r="Y8" s="244"/>
       <c r="Z8" s="172" t="s">
         <v>19</v>
       </c>
@@ -8663,10 +8669,10 @@
       </c>
     </row>
     <row r="20" spans="1:65" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="340">
+      <c r="A20" s="208">
         <v>15</v>
       </c>
-      <c r="B20" s="341" t="s">
+      <c r="B20" s="209" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="138">
@@ -8687,12 +8693,12 @@
       <c r="H20" s="138">
         <v>10</v>
       </c>
-      <c r="I20" s="342"/>
-      <c r="J20" s="342"/>
-      <c r="K20" s="342"/>
-      <c r="L20" s="342"/>
-      <c r="M20" s="342"/>
-      <c r="N20" s="342"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="210"/>
+      <c r="L20" s="210"/>
+      <c r="M20" s="210"/>
+      <c r="N20" s="210"/>
       <c r="O20" s="135">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -8713,11 +8719,11 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="T20" s="343">
+      <c r="T20" s="211">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="U20" s="344" t="str">
+      <c r="U20" s="212" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -12044,12 +12050,12 @@
       <c r="AE50" s="21"/>
       <c r="AF50" s="21"/>
       <c r="AG50" s="21"/>
-      <c r="AI50" s="233" t="s">
+      <c r="AI50" s="237" t="s">
         <v>170</v>
       </c>
-      <c r="AJ50" s="234"/>
-      <c r="AK50" s="234"/>
-      <c r="AL50" s="235"/>
+      <c r="AJ50" s="238"/>
+      <c r="AK50" s="238"/>
+      <c r="AL50" s="239"/>
       <c r="AM50" s="40">
         <v>3077000</v>
       </c>
@@ -12110,12 +12116,12 @@
       <c r="AF51" s="21"/>
       <c r="AG51" s="21"/>
       <c r="AH51" s="21"/>
-      <c r="AI51" s="230" t="s">
+      <c r="AI51" s="234" t="s">
         <v>176</v>
       </c>
-      <c r="AJ51" s="231"/>
-      <c r="AK51" s="231"/>
-      <c r="AL51" s="232"/>
+      <c r="AJ51" s="235"/>
+      <c r="AK51" s="235"/>
+      <c r="AL51" s="236"/>
       <c r="AM51" s="41">
         <v>2550000</v>
       </c>
@@ -12212,10 +12218,18 @@
       <c r="C53" s="65">
         <v>5</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
+      <c r="D53" s="65">
+        <v>20</v>
+      </c>
+      <c r="E53" s="65">
+        <v>20</v>
+      </c>
+      <c r="F53" s="65">
+        <v>20</v>
+      </c>
+      <c r="G53" s="65">
+        <v>10</v>
+      </c>
       <c r="H53" s="65"/>
       <c r="I53" s="65"/>
       <c r="J53" s="65"/>
@@ -12225,24 +12239,24 @@
       <c r="N53" s="65"/>
       <c r="O53" s="13">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="P53" s="130"/>
       <c r="Q53" s="131">
         <f t="shared" si="4"/>
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="R53" s="132">
         <f t="shared" si="5"/>
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="S53" s="13">
         <f t="shared" si="10"/>
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="T53" s="12">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="U53" s="20" t="str">
         <f t="shared" si="3"/>
@@ -12373,14 +12387,14 @@
         <v>NO</v>
       </c>
       <c r="V55" s="2"/>
-      <c r="AC55" s="236"/>
-      <c r="AD55" s="236"/>
-      <c r="AI55" s="233" t="s">
+      <c r="AC55" s="240"/>
+      <c r="AD55" s="240"/>
+      <c r="AI55" s="237" t="s">
         <v>174</v>
       </c>
-      <c r="AJ55" s="234"/>
-      <c r="AK55" s="234"/>
-      <c r="AL55" s="235"/>
+      <c r="AJ55" s="238"/>
+      <c r="AK55" s="238"/>
+      <c r="AL55" s="239"/>
       <c r="AM55" s="38">
         <f>AM54</f>
         <v>2627000</v>
@@ -12433,12 +12447,12 @@
         <v>NO</v>
       </c>
       <c r="V56" s="2"/>
-      <c r="AI56" s="229" t="s">
+      <c r="AI56" s="233" t="s">
         <v>168</v>
       </c>
-      <c r="AJ56" s="229"/>
-      <c r="AK56" s="229"/>
-      <c r="AL56" s="229"/>
+      <c r="AJ56" s="233"/>
+      <c r="AK56" s="233"/>
+      <c r="AL56" s="233"/>
       <c r="AM56" s="52">
         <f>AM50-AM55</f>
         <v>450000</v>
@@ -12633,32 +12647,32 @@
     <row r="61" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="258" t="s">
+      <c r="C63" s="246" t="s">
         <v>177</v>
       </c>
-      <c r="D63" s="259"/>
-      <c r="E63" s="259"/>
-      <c r="F63" s="259"/>
-      <c r="G63" s="260"/>
-      <c r="I63" s="264" t="s">
+      <c r="D63" s="247"/>
+      <c r="E63" s="247"/>
+      <c r="F63" s="247"/>
+      <c r="G63" s="248"/>
+      <c r="I63" s="252" t="s">
         <v>178</v>
       </c>
-      <c r="J63" s="264"/>
-      <c r="K63" s="264"/>
-      <c r="L63" s="264"/>
-      <c r="M63" s="264"/>
+      <c r="J63" s="252"/>
+      <c r="K63" s="252"/>
+      <c r="L63" s="252"/>
+      <c r="M63" s="252"/>
     </row>
     <row r="64" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="261"/>
-      <c r="D64" s="262"/>
-      <c r="E64" s="262"/>
-      <c r="F64" s="262"/>
-      <c r="G64" s="263"/>
-      <c r="I64" s="264"/>
-      <c r="J64" s="264"/>
-      <c r="K64" s="264"/>
-      <c r="L64" s="264"/>
-      <c r="M64" s="264"/>
+      <c r="C64" s="249"/>
+      <c r="D64" s="250"/>
+      <c r="E64" s="250"/>
+      <c r="F64" s="250"/>
+      <c r="G64" s="251"/>
+      <c r="I64" s="252"/>
+      <c r="J64" s="252"/>
+      <c r="K64" s="252"/>
+      <c r="L64" s="252"/>
+      <c r="M64" s="252"/>
     </row>
     <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12679,10 +12693,10 @@
       <c r="M70" s="55"/>
       <c r="N70" s="55"/>
       <c r="O70" s="55"/>
-      <c r="P70" s="229" t="s">
+      <c r="P70" s="233" t="s">
         <v>214</v>
       </c>
-      <c r="Q70" s="229"/>
+      <c r="Q70" s="233"/>
       <c r="R70" s="55"/>
       <c r="S70" s="55"/>
     </row>
@@ -13229,8 +13243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13241,32 +13255,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="308"/>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
+      <c r="A1" s="199"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="308"/>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="316" t="s">
+      <c r="A2" s="199"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="263" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316"/>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
-      <c r="M2" s="310"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="201"/>
       <c r="N2" s="24"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="311"/>
+      <c r="A3" s="202"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -13278,209 +13292,209 @@
       <c r="J3" s="24"/>
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
-      <c r="M3" s="312"/>
-      <c r="U3" s="254" t="s">
+      <c r="M3" s="203"/>
+      <c r="U3" s="304" t="s">
         <v>195</v>
       </c>
-      <c r="V3" s="255"/>
-      <c r="W3" s="256" t="s">
+      <c r="V3" s="305"/>
+      <c r="W3" s="306" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="255"/>
-      <c r="Z3" s="255"/>
-      <c r="AA3" s="255"/>
-      <c r="AB3" s="255"/>
-      <c r="AC3" s="255"/>
-      <c r="AD3" s="257"/>
+      <c r="X3" s="305"/>
+      <c r="Y3" s="305"/>
+      <c r="Z3" s="305"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="305"/>
+      <c r="AC3" s="305"/>
+      <c r="AD3" s="307"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="311"/>
-      <c r="B4" s="265" t="s">
+      <c r="A4" s="202"/>
+      <c r="B4" s="264" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="266"/>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
-      <c r="F4" s="266"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
+      <c r="F4" s="265"/>
       <c r="G4" s="70">
         <v>1004200</v>
       </c>
       <c r="H4" s="24"/>
-      <c r="I4" s="221" t="s">
+      <c r="I4" s="266" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="222"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="312"/>
-      <c r="U4" s="253" t="s">
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="203"/>
+      <c r="U4" s="297" t="s">
         <v>196</v>
       </c>
-      <c r="V4" s="222"/>
-      <c r="W4" s="221" t="s">
+      <c r="V4" s="243"/>
+      <c r="W4" s="266" t="s">
         <v>198</v>
       </c>
-      <c r="X4" s="222"/>
-      <c r="Y4" s="222"/>
-      <c r="Z4" s="222"/>
-      <c r="AA4" s="222"/>
-      <c r="AB4" s="222"/>
-      <c r="AC4" s="222"/>
-      <c r="AD4" s="223"/>
+      <c r="X4" s="243"/>
+      <c r="Y4" s="243"/>
+      <c r="Z4" s="243"/>
+      <c r="AA4" s="243"/>
+      <c r="AB4" s="243"/>
+      <c r="AC4" s="243"/>
+      <c r="AD4" s="288"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="311"/>
-      <c r="B5" s="243" t="s">
+      <c r="A5" s="202"/>
+      <c r="B5" s="273" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="G5" s="173">
         <v>568329.18000000005</v>
       </c>
       <c r="H5" s="24"/>
-      <c r="I5" s="250" t="s">
+      <c r="I5" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="304"/>
-      <c r="K5" s="296">
+      <c r="J5" s="262"/>
+      <c r="K5" s="269">
         <f>G7</f>
         <v>2332529.1800000002</v>
       </c>
-      <c r="L5" s="297"/>
-      <c r="M5" s="312"/>
-      <c r="U5" s="329" t="s">
+      <c r="L5" s="270"/>
+      <c r="M5" s="203"/>
+      <c r="U5" s="298" t="s">
         <v>233</v>
       </c>
-      <c r="V5" s="330"/>
-      <c r="W5" s="250" t="s">
+      <c r="V5" s="299"/>
+      <c r="W5" s="261" t="s">
         <v>234</v>
       </c>
-      <c r="X5" s="251"/>
-      <c r="Y5" s="251"/>
-      <c r="Z5" s="251"/>
-      <c r="AA5" s="251"/>
-      <c r="AB5" s="251"/>
-      <c r="AC5" s="251"/>
-      <c r="AD5" s="252"/>
+      <c r="X5" s="292"/>
+      <c r="Y5" s="292"/>
+      <c r="Z5" s="292"/>
+      <c r="AA5" s="292"/>
+      <c r="AB5" s="292"/>
+      <c r="AC5" s="292"/>
+      <c r="AD5" s="293"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="311"/>
-      <c r="B6" s="267" t="s">
+      <c r="A6" s="202"/>
+      <c r="B6" s="255" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
+      <c r="C6" s="256"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
       <c r="G6" s="173">
         <v>760000</v>
       </c>
       <c r="H6" s="24"/>
-      <c r="I6" s="305" t="s">
+      <c r="I6" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="306"/>
-      <c r="K6" s="298">
+      <c r="J6" s="260"/>
+      <c r="K6" s="271">
         <f>Pengeluaran!F30</f>
         <v>903300</v>
       </c>
-      <c r="L6" s="299"/>
-      <c r="M6" s="312"/>
-      <c r="U6" s="331"/>
-      <c r="V6" s="332"/>
-      <c r="W6" s="224" t="s">
+      <c r="L6" s="272"/>
+      <c r="M6" s="203"/>
+      <c r="U6" s="300"/>
+      <c r="V6" s="301"/>
+      <c r="W6" s="294" t="s">
         <v>235</v>
       </c>
-      <c r="X6" s="225"/>
-      <c r="Y6" s="225"/>
-      <c r="Z6" s="225"/>
-      <c r="AA6" s="225"/>
-      <c r="AB6" s="225"/>
-      <c r="AC6" s="225"/>
-      <c r="AD6" s="226"/>
+      <c r="X6" s="295"/>
+      <c r="Y6" s="295"/>
+      <c r="Z6" s="295"/>
+      <c r="AA6" s="295"/>
+      <c r="AB6" s="295"/>
+      <c r="AC6" s="295"/>
+      <c r="AD6" s="296"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="311"/>
-      <c r="B7" s="317" t="s">
+      <c r="A7" s="202"/>
+      <c r="B7" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="318"/>
-      <c r="D7" s="318"/>
-      <c r="E7" s="318"/>
-      <c r="F7" s="306"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="260"/>
       <c r="G7" s="173">
         <f>SUM(G4:G6)</f>
         <v>2332529.1800000002</v>
       </c>
       <c r="H7" s="24"/>
-      <c r="I7" s="305" t="s">
+      <c r="I7" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="306"/>
-      <c r="K7" s="300">
+      <c r="J7" s="260"/>
+      <c r="K7" s="267">
         <f>Pemasukkan!F31</f>
         <v>222000</v>
       </c>
-      <c r="L7" s="301"/>
-      <c r="M7" s="312"/>
-      <c r="U7" s="333"/>
-      <c r="V7" s="334"/>
-      <c r="W7" s="221" t="s">
+      <c r="L7" s="268"/>
+      <c r="M7" s="203"/>
+      <c r="U7" s="308"/>
+      <c r="V7" s="309"/>
+      <c r="W7" s="266" t="s">
         <v>236</v>
       </c>
-      <c r="X7" s="222"/>
-      <c r="Y7" s="222"/>
-      <c r="Z7" s="222"/>
-      <c r="AA7" s="222"/>
-      <c r="AB7" s="222"/>
-      <c r="AC7" s="222"/>
-      <c r="AD7" s="223"/>
+      <c r="X7" s="243"/>
+      <c r="Y7" s="243"/>
+      <c r="Z7" s="243"/>
+      <c r="AA7" s="243"/>
+      <c r="AB7" s="243"/>
+      <c r="AC7" s="243"/>
+      <c r="AD7" s="288"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="311"/>
-      <c r="B8" s="244" t="s">
+      <c r="A8" s="202"/>
+      <c r="B8" s="274" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="245"/>
-      <c r="D8" s="245"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="245"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="275"/>
+      <c r="F8" s="275"/>
       <c r="G8" s="174">
         <f>K8</f>
         <v>1651229.1800000002</v>
       </c>
       <c r="H8" s="24"/>
-      <c r="I8" s="250" t="s">
+      <c r="I8" s="261" t="s">
         <v>191</v>
       </c>
-      <c r="J8" s="304"/>
-      <c r="K8" s="302">
+      <c r="J8" s="262"/>
+      <c r="K8" s="257">
         <f>(K5-K6)+K7</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="L8" s="303"/>
-      <c r="M8" s="312"/>
-      <c r="U8" s="246" t="s">
+      <c r="L8" s="258"/>
+      <c r="M8" s="203"/>
+      <c r="U8" s="312" t="s">
         <v>197</v>
       </c>
-      <c r="V8" s="247"/>
-      <c r="W8" s="224" t="s">
+      <c r="V8" s="313"/>
+      <c r="W8" s="294" t="s">
         <v>199</v>
       </c>
-      <c r="X8" s="225"/>
-      <c r="Y8" s="225"/>
-      <c r="Z8" s="225"/>
-      <c r="AA8" s="225"/>
-      <c r="AB8" s="225"/>
-      <c r="AC8" s="225"/>
-      <c r="AD8" s="226"/>
+      <c r="X8" s="295"/>
+      <c r="Y8" s="295"/>
+      <c r="Z8" s="295"/>
+      <c r="AA8" s="295"/>
+      <c r="AB8" s="295"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="296"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="311"/>
+      <c r="A9" s="202"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -13492,29 +13506,29 @@
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="312"/>
-      <c r="U9" s="248"/>
-      <c r="V9" s="249"/>
-      <c r="W9" s="224" t="s">
+      <c r="M9" s="203"/>
+      <c r="U9" s="314"/>
+      <c r="V9" s="315"/>
+      <c r="W9" s="294" t="s">
         <v>239</v>
       </c>
-      <c r="X9" s="225"/>
-      <c r="Y9" s="225"/>
-      <c r="Z9" s="225"/>
-      <c r="AA9" s="225"/>
-      <c r="AB9" s="225"/>
-      <c r="AC9" s="225"/>
-      <c r="AD9" s="226"/>
+      <c r="X9" s="295"/>
+      <c r="Y9" s="295"/>
+      <c r="Z9" s="295"/>
+      <c r="AA9" s="295"/>
+      <c r="AB9" s="295"/>
+      <c r="AC9" s="295"/>
+      <c r="AD9" s="296"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="311"/>
-      <c r="B10" s="222" t="s">
+      <c r="A10" s="202"/>
+      <c r="B10" s="243" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="222"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="222"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="G10" s="56">
         <f>G5</f>
         <v>568329.18000000005</v>
@@ -13524,31 +13538,31 @@
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
-      <c r="M10" s="312"/>
-      <c r="U10" s="267" t="s">
+      <c r="M10" s="203"/>
+      <c r="U10" s="255" t="s">
         <v>246</v>
       </c>
-      <c r="V10" s="268"/>
-      <c r="W10" s="222" t="s">
+      <c r="V10" s="256"/>
+      <c r="W10" s="243" t="s">
         <v>263</v>
       </c>
-      <c r="X10" s="222"/>
-      <c r="Y10" s="222"/>
-      <c r="Z10" s="222"/>
-      <c r="AA10" s="222"/>
-      <c r="AB10" s="222"/>
-      <c r="AC10" s="222"/>
-      <c r="AD10" s="223"/>
+      <c r="X10" s="243"/>
+      <c r="Y10" s="243"/>
+      <c r="Z10" s="243"/>
+      <c r="AA10" s="243"/>
+      <c r="AB10" s="243"/>
+      <c r="AC10" s="243"/>
+      <c r="AD10" s="288"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="311"/>
-      <c r="B11" s="222" t="s">
+      <c r="A11" s="202"/>
+      <c r="B11" s="243" t="s">
         <v>259</v>
       </c>
-      <c r="C11" s="222"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
       <c r="G11" s="56">
         <v>1089400</v>
       </c>
@@ -13557,32 +13571,32 @@
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="312"/>
-      <c r="U11" s="267" t="s">
+      <c r="M11" s="203"/>
+      <c r="U11" s="255" t="s">
         <v>262</v>
       </c>
-      <c r="V11" s="268"/>
-      <c r="W11" s="337" t="s">
+      <c r="V11" s="256"/>
+      <c r="W11" s="310" t="s">
         <v>264</v>
       </c>
-      <c r="X11" s="337"/>
-      <c r="Y11" s="337"/>
-      <c r="Z11" s="337"/>
-      <c r="AA11" s="337"/>
-      <c r="AB11" s="337"/>
-      <c r="AC11" s="337"/>
-      <c r="AD11" s="338"/>
+      <c r="X11" s="310"/>
+      <c r="Y11" s="310"/>
+      <c r="Z11" s="310"/>
+      <c r="AA11" s="310"/>
+      <c r="AB11" s="310"/>
+      <c r="AC11" s="310"/>
+      <c r="AD11" s="311"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="311"/>
-      <c r="B12" s="327" t="s">
+      <c r="A12" s="202"/>
+      <c r="B12" s="278" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="327"/>
-      <c r="D12" s="327"/>
-      <c r="E12" s="327"/>
-      <c r="F12" s="327"/>
-      <c r="G12" s="328">
+      <c r="C12" s="278"/>
+      <c r="D12" s="278"/>
+      <c r="E12" s="278"/>
+      <c r="F12" s="278"/>
+      <c r="G12" s="207">
         <f>SUM(G10:G11)</f>
         <v>1657729.1800000002</v>
       </c>
@@ -13591,246 +13605,248 @@
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="312"/>
-      <c r="U12" s="267"/>
-      <c r="V12" s="268"/>
-      <c r="W12" s="222"/>
-      <c r="X12" s="222"/>
-      <c r="Y12" s="222"/>
-      <c r="Z12" s="222"/>
-      <c r="AA12" s="222"/>
-      <c r="AB12" s="222"/>
-      <c r="AC12" s="222"/>
-      <c r="AD12" s="223"/>
+      <c r="M12" s="203"/>
+      <c r="U12" s="255"/>
+      <c r="V12" s="256"/>
+      <c r="W12" s="243"/>
+      <c r="X12" s="243"/>
+      <c r="Y12" s="243"/>
+      <c r="Z12" s="243"/>
+      <c r="AA12" s="243"/>
+      <c r="AB12" s="243"/>
+      <c r="AC12" s="243"/>
+      <c r="AD12" s="288"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="313"/>
-      <c r="B13" s="314"/>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="314"/>
-      <c r="I13" s="314"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="314"/>
-      <c r="M13" s="315"/>
-      <c r="U13" s="267"/>
-      <c r="V13" s="268"/>
-      <c r="W13" s="222"/>
-      <c r="X13" s="222"/>
-      <c r="Y13" s="222"/>
-      <c r="Z13" s="222"/>
-      <c r="AA13" s="222"/>
-      <c r="AB13" s="222"/>
-      <c r="AC13" s="222"/>
-      <c r="AD13" s="223"/>
+      <c r="A13" s="204"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="205"/>
+      <c r="I13" s="205"/>
+      <c r="J13" s="205"/>
+      <c r="K13" s="205"/>
+      <c r="L13" s="205"/>
+      <c r="M13" s="206"/>
+      <c r="U13" s="255"/>
+      <c r="V13" s="256"/>
+      <c r="W13" s="243"/>
+      <c r="X13" s="243"/>
+      <c r="Y13" s="243"/>
+      <c r="Z13" s="243"/>
+      <c r="AA13" s="243"/>
+      <c r="AB13" s="243"/>
+      <c r="AC13" s="243"/>
+      <c r="AD13" s="288"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U14" s="335"/>
-      <c r="V14" s="336"/>
-      <c r="W14" s="219"/>
-      <c r="X14" s="219"/>
-      <c r="Y14" s="219"/>
-      <c r="Z14" s="219"/>
-      <c r="AA14" s="219"/>
-      <c r="AB14" s="219"/>
-      <c r="AC14" s="219"/>
-      <c r="AD14" s="220"/>
+      <c r="U14" s="302"/>
+      <c r="V14" s="303"/>
+      <c r="W14" s="290"/>
+      <c r="X14" s="290"/>
+      <c r="Y14" s="290"/>
+      <c r="Z14" s="290"/>
+      <c r="AA14" s="290"/>
+      <c r="AB14" s="290"/>
+      <c r="AC14" s="290"/>
+      <c r="AD14" s="291"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="308"/>
-      <c r="B18" s="309"/>
-      <c r="C18" s="309"/>
-      <c r="D18" s="316" t="s">
+      <c r="A18" s="199"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="263" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="316"/>
-      <c r="F18" s="316"/>
-      <c r="G18" s="316"/>
-      <c r="H18" s="316"/>
-      <c r="I18" s="316"/>
-      <c r="J18" s="316"/>
-      <c r="K18" s="316"/>
-      <c r="L18" s="316"/>
-      <c r="M18" s="310"/>
-      <c r="O18" s="325" t="s">
+      <c r="E18" s="263"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="263"/>
+      <c r="I18" s="263"/>
+      <c r="J18" s="263"/>
+      <c r="K18" s="263"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="201"/>
+      <c r="O18" s="279" t="s">
         <v>253</v>
       </c>
-      <c r="P18" s="295"/>
-      <c r="Q18" s="295"/>
-      <c r="R18" s="295"/>
-      <c r="S18" s="326"/>
+      <c r="P18" s="280"/>
+      <c r="Q18" s="280"/>
+      <c r="R18" s="280"/>
+      <c r="S18" s="281"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="311"/>
-      <c r="M19" s="312"/>
-      <c r="O19" s="243" t="s">
+      <c r="A19" s="202"/>
+      <c r="M19" s="203"/>
+      <c r="O19" s="273" t="s">
         <v>254</v>
       </c>
-      <c r="P19" s="222"/>
-      <c r="Q19" s="222"/>
-      <c r="R19" s="222"/>
-      <c r="S19" s="223"/>
+      <c r="P19" s="243"/>
+      <c r="Q19" s="243"/>
+      <c r="R19" s="243"/>
+      <c r="S19" s="288"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="311"/>
-      <c r="B20" s="265" t="s">
+      <c r="A20" s="202"/>
+      <c r="B20" s="264" t="s">
         <v>257</v>
       </c>
-      <c r="C20" s="266"/>
-      <c r="D20" s="266"/>
-      <c r="E20" s="266"/>
-      <c r="F20" s="266"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="265"/>
+      <c r="E20" s="265"/>
+      <c r="F20" s="265"/>
       <c r="G20" s="70">
         <v>100000</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="I20" s="221" t="s">
+      <c r="I20" s="266" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="222"/>
-      <c r="K20" s="222"/>
-      <c r="L20" s="222"/>
-      <c r="M20" s="312"/>
-      <c r="O20" s="243" t="s">
+      <c r="J20" s="243"/>
+      <c r="K20" s="243"/>
+      <c r="L20" s="243"/>
+      <c r="M20" s="203"/>
+      <c r="O20" s="273" t="s">
         <v>255</v>
       </c>
-      <c r="P20" s="222"/>
-      <c r="Q20" s="222"/>
-      <c r="R20" s="222"/>
-      <c r="S20" s="223"/>
+      <c r="P20" s="243"/>
+      <c r="Q20" s="243"/>
+      <c r="R20" s="243"/>
+      <c r="S20" s="288"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="311"/>
-      <c r="B21" s="317" t="s">
+      <c r="A21" s="202"/>
+      <c r="B21" s="276" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="318"/>
-      <c r="D21" s="318"/>
-      <c r="E21" s="318"/>
-      <c r="F21" s="306"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="277"/>
+      <c r="E21" s="277"/>
+      <c r="F21" s="260"/>
       <c r="G21" s="173">
         <f>G12</f>
         <v>1657729.1800000002</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="I21" s="250" t="s">
+      <c r="I21" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="304"/>
-      <c r="K21" s="296">
+      <c r="J21" s="262"/>
+      <c r="K21" s="269">
         <f>G23</f>
-        <v>1887729.1800000002</v>
-      </c>
-      <c r="L21" s="297"/>
-      <c r="M21" s="312"/>
+        <v>1957729.1800000002</v>
+      </c>
+      <c r="L21" s="270"/>
+      <c r="M21" s="203"/>
       <c r="N21" s="197"/>
-      <c r="O21" s="243" t="s">
+      <c r="O21" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="P21" s="222"/>
-      <c r="Q21" s="222"/>
-      <c r="R21" s="222"/>
-      <c r="S21" s="223"/>
+      <c r="P21" s="243"/>
+      <c r="Q21" s="243"/>
+      <c r="R21" s="243"/>
+      <c r="S21" s="288"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="311"/>
-      <c r="B22" s="319" t="s">
+      <c r="A22" s="202"/>
+      <c r="B22" s="282" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="320"/>
-      <c r="D22" s="320"/>
-      <c r="E22" s="320"/>
-      <c r="F22" s="321"/>
+      <c r="C22" s="283"/>
+      <c r="D22" s="283"/>
+      <c r="E22" s="283"/>
+      <c r="F22" s="284"/>
       <c r="G22" s="173">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="I22" s="305" t="s">
+      <c r="I22" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="306"/>
-      <c r="K22" s="298">
+      <c r="J22" s="260"/>
+      <c r="K22" s="271">
         <f>Pengeluaran!L30</f>
         <v>46000</v>
       </c>
-      <c r="L22" s="299"/>
-      <c r="M22" s="312"/>
+      <c r="L22" s="272"/>
+      <c r="M22" s="203"/>
       <c r="N22" s="197"/>
-      <c r="O22" s="243"/>
-      <c r="P22" s="222"/>
-      <c r="Q22" s="222"/>
-      <c r="R22" s="222"/>
-      <c r="S22" s="223"/>
+      <c r="O22" s="297" t="s">
+        <v>265</v>
+      </c>
+      <c r="P22" s="266"/>
+      <c r="Q22" s="266"/>
+      <c r="R22" s="266"/>
+      <c r="S22" s="345"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="311"/>
-      <c r="B23" s="317" t="s">
+      <c r="A23" s="202"/>
+      <c r="B23" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="318"/>
-      <c r="D23" s="318"/>
-      <c r="E23" s="318"/>
-      <c r="F23" s="306"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="277"/>
+      <c r="E23" s="277"/>
+      <c r="F23" s="260"/>
       <c r="G23" s="173">
         <f>SUM(G20:G22)</f>
-        <v>1887729.1800000002</v>
+        <v>1957729.1800000002</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="I23" s="305" t="s">
+      <c r="I23" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="306"/>
-      <c r="K23" s="300">
+      <c r="J23" s="260"/>
+      <c r="K23" s="267">
         <f>Pemasukkan!F42</f>
         <v>0</v>
       </c>
-      <c r="L23" s="301"/>
-      <c r="M23" s="312"/>
+      <c r="L23" s="268"/>
+      <c r="M23" s="203"/>
       <c r="N23" s="197"/>
-      <c r="O23" s="243"/>
-      <c r="P23" s="222"/>
-      <c r="Q23" s="222"/>
-      <c r="R23" s="222"/>
-      <c r="S23" s="223"/>
+      <c r="O23" s="273"/>
+      <c r="P23" s="243"/>
+      <c r="Q23" s="243"/>
+      <c r="R23" s="243"/>
+      <c r="S23" s="288"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="311"/>
-      <c r="B24" s="324" t="s">
+      <c r="A24" s="202"/>
+      <c r="B24" s="285" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="322"/>
-      <c r="D24" s="322"/>
-      <c r="E24" s="322"/>
-      <c r="F24" s="323"/>
+      <c r="C24" s="286"/>
+      <c r="D24" s="286"/>
+      <c r="E24" s="286"/>
+      <c r="F24" s="287"/>
       <c r="G24" s="174">
         <f>K24</f>
-        <v>1841729.1800000002</v>
+        <v>1911729.1800000002</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="I24" s="250" t="s">
+      <c r="I24" s="261" t="s">
         <v>191</v>
       </c>
-      <c r="J24" s="304"/>
-      <c r="K24" s="302">
+      <c r="J24" s="262"/>
+      <c r="K24" s="257">
         <f>(K21-K22)+K23</f>
-        <v>1841729.1800000002</v>
-      </c>
-      <c r="L24" s="303"/>
-      <c r="M24" s="312"/>
+        <v>1911729.1800000002</v>
+      </c>
+      <c r="L24" s="258"/>
+      <c r="M24" s="203"/>
       <c r="N24" s="197"/>
-      <c r="O24" s="243"/>
-      <c r="P24" s="222"/>
-      <c r="Q24" s="222"/>
-      <c r="R24" s="222"/>
-      <c r="S24" s="223"/>
+      <c r="O24" s="273"/>
+      <c r="P24" s="243"/>
+      <c r="Q24" s="243"/>
+      <c r="R24" s="243"/>
+      <c r="S24" s="288"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="311"/>
+      <c r="A25" s="202"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -13842,16 +13858,16 @@
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
-      <c r="M25" s="312"/>
+      <c r="M25" s="203"/>
       <c r="N25" s="197"/>
-      <c r="O25" s="243"/>
-      <c r="P25" s="222"/>
-      <c r="Q25" s="222"/>
-      <c r="R25" s="222"/>
-      <c r="S25" s="223"/>
+      <c r="O25" s="273"/>
+      <c r="P25" s="243"/>
+      <c r="Q25" s="243"/>
+      <c r="R25" s="243"/>
+      <c r="S25" s="288"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="311"/>
+      <c r="A26" s="202"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -13863,34 +13879,34 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
-      <c r="M26" s="312"/>
+      <c r="M26" s="203"/>
       <c r="N26" s="197"/>
-      <c r="O26" s="243"/>
-      <c r="P26" s="222"/>
-      <c r="Q26" s="222"/>
-      <c r="R26" s="222"/>
-      <c r="S26" s="223"/>
+      <c r="O26" s="273"/>
+      <c r="P26" s="243"/>
+      <c r="Q26" s="243"/>
+      <c r="R26" s="243"/>
+      <c r="S26" s="288"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="313"/>
-      <c r="B27" s="314"/>
-      <c r="C27" s="314"/>
-      <c r="D27" s="314"/>
-      <c r="E27" s="314"/>
-      <c r="F27" s="314"/>
-      <c r="G27" s="314"/>
-      <c r="H27" s="314"/>
-      <c r="I27" s="314"/>
-      <c r="J27" s="314"/>
-      <c r="K27" s="314"/>
-      <c r="L27" s="314"/>
-      <c r="M27" s="315"/>
+      <c r="A27" s="204"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="205"/>
+      <c r="K27" s="205"/>
+      <c r="L27" s="205"/>
+      <c r="M27" s="206"/>
       <c r="N27" s="197"/>
-      <c r="O27" s="339"/>
-      <c r="P27" s="219"/>
-      <c r="Q27" s="219"/>
-      <c r="R27" s="219"/>
-      <c r="S27" s="220"/>
+      <c r="O27" s="289"/>
+      <c r="P27" s="290"/>
+      <c r="Q27" s="290"/>
+      <c r="R27" s="290"/>
+      <c r="S27" s="291"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="197"/>
@@ -13916,12 +13932,6 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="66">
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:AD3"/>
     <mergeCell ref="W12:AD12"/>
@@ -13932,21 +13942,26 @@
     <mergeCell ref="W9:AD9"/>
     <mergeCell ref="W10:AD10"/>
     <mergeCell ref="W11:AD11"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:AD4"/>
     <mergeCell ref="W8:AD8"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="W6:AD6"/>
     <mergeCell ref="O25:S25"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="O18:S18"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B23:F23"/>
@@ -13955,20 +13970,13 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="O24:S24"/>
     <mergeCell ref="O21:S21"/>
     <mergeCell ref="O22:S22"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D2:L2"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="K7:L7"/>
@@ -13981,7 +13989,15 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="D18:L18"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14014,44 +14030,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="279" t="s">
+      <c r="C2" s="316" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
-      <c r="K2" s="280"/>
+      <c r="D2" s="317"/>
+      <c r="E2" s="317"/>
+      <c r="F2" s="317"/>
+      <c r="G2" s="317"/>
+      <c r="H2" s="317"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="317"/>
     </row>
     <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="280"/>
-      <c r="H3" s="280"/>
-      <c r="I3" s="280"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="317"/>
+      <c r="I3" s="317"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="317"/>
     </row>
     <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="307" t="s">
+      <c r="C5" s="324" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="307"/>
-      <c r="E5" s="307"/>
-      <c r="F5" s="307"/>
-      <c r="G5" s="307"/>
-      <c r="I5" s="307" t="s">
+      <c r="D5" s="324"/>
+      <c r="E5" s="324"/>
+      <c r="F5" s="324"/>
+      <c r="G5" s="324"/>
+      <c r="I5" s="324" t="s">
         <v>251</v>
       </c>
-      <c r="J5" s="307"/>
-      <c r="K5" s="307"/>
-      <c r="L5" s="307"/>
-      <c r="M5" s="307"/>
+      <c r="J5" s="324"/>
+      <c r="K5" s="324"/>
+      <c r="L5" s="324"/>
+      <c r="M5" s="324"/>
     </row>
     <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
@@ -14451,88 +14467,88 @@
       <c r="M28" s="197"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="265" t="s">
+      <c r="D29" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="266"/>
-      <c r="F29" s="281">
+      <c r="E29" s="265"/>
+      <c r="F29" s="318">
         <f>'Hitung Pemasukan Pengeluaran'!G6</f>
         <v>760000</v>
       </c>
-      <c r="G29" s="282"/>
+      <c r="G29" s="319"/>
       <c r="I29" s="197"/>
-      <c r="J29" s="265" t="s">
+      <c r="J29" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="266"/>
-      <c r="L29" s="281">
+      <c r="K29" s="265"/>
+      <c r="L29" s="318">
         <f>'Hitung Pemasukan Pengeluaran'!G23</f>
-        <v>1887729.1800000002</v>
-      </c>
-      <c r="M29" s="282"/>
+        <v>1957729.1800000002</v>
+      </c>
+      <c r="M29" s="319"/>
     </row>
     <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="253" t="s">
+      <c r="D30" s="297" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="222"/>
-      <c r="F30" s="237">
+      <c r="E30" s="243"/>
+      <c r="F30" s="320">
         <f>Pengeluaran!F30</f>
         <v>903300</v>
       </c>
-      <c r="G30" s="275"/>
+      <c r="G30" s="321"/>
       <c r="I30" s="197"/>
-      <c r="J30" s="253" t="s">
+      <c r="J30" s="297" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="222"/>
-      <c r="L30" s="237">
+      <c r="K30" s="243"/>
+      <c r="L30" s="320">
         <f>Pengeluaran!L30</f>
         <v>46000</v>
       </c>
-      <c r="M30" s="275"/>
+      <c r="M30" s="321"/>
     </row>
     <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="243" t="s">
+      <c r="D31" s="273" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="222"/>
-      <c r="F31" s="238">
+      <c r="E31" s="243"/>
+      <c r="F31" s="325">
         <f>F27</f>
         <v>222000</v>
       </c>
-      <c r="G31" s="276"/>
+      <c r="G31" s="326"/>
       <c r="I31" s="197"/>
-      <c r="J31" s="243" t="s">
+      <c r="J31" s="273" t="s">
         <v>98</v>
       </c>
-      <c r="K31" s="222"/>
-      <c r="L31" s="238">
+      <c r="K31" s="243"/>
+      <c r="L31" s="325">
         <f>L27</f>
         <v>0</v>
       </c>
-      <c r="M31" s="276"/>
+      <c r="M31" s="326"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="244" t="s">
+      <c r="D32" s="274" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="245"/>
-      <c r="F32" s="277">
+      <c r="E32" s="275"/>
+      <c r="F32" s="322">
         <f>'Hitung Pemasukan Pengeluaran'!G8</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="G32" s="278"/>
+      <c r="G32" s="323"/>
       <c r="I32" s="197"/>
-      <c r="J32" s="244" t="s">
+      <c r="J32" s="274" t="s">
         <v>190</v>
       </c>
-      <c r="K32" s="245"/>
-      <c r="L32" s="277">
+      <c r="K32" s="275"/>
+      <c r="L32" s="322">
         <f>'Hitung Pemasukan Pengeluaran'!G24</f>
-        <v>1841729.1800000002</v>
-      </c>
-      <c r="M32" s="278"/>
+        <v>1911729.1800000002</v>
+      </c>
+      <c r="M32" s="323"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14737,13 +14753,13 @@
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -14775,44 +14791,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="269" t="s">
+      <c r="C2" s="327" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="328"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
     </row>
     <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="270"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
-      <c r="G3" s="270"/>
-      <c r="H3" s="270"/>
-      <c r="I3" s="270"/>
-      <c r="J3" s="270"/>
-      <c r="K3" s="270"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
     </row>
     <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="307" t="s">
+      <c r="C5" s="324" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="307"/>
-      <c r="E5" s="307"/>
-      <c r="F5" s="307"/>
-      <c r="G5" s="307"/>
-      <c r="I5" s="307" t="s">
+      <c r="D5" s="324"/>
+      <c r="E5" s="324"/>
+      <c r="F5" s="324"/>
+      <c r="G5" s="324"/>
+      <c r="I5" s="324" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="307"/>
-      <c r="K5" s="307"/>
-      <c r="L5" s="307"/>
-      <c r="M5" s="307"/>
+      <c r="J5" s="324"/>
+      <c r="K5" s="324"/>
+      <c r="L5" s="324"/>
+      <c r="M5" s="324"/>
     </row>
     <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
@@ -15238,88 +15254,88 @@
       <c r="M28" s="197"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="254" t="s">
+      <c r="D29" s="304" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="256"/>
-      <c r="F29" s="271">
+      <c r="E29" s="306"/>
+      <c r="F29" s="329">
         <f>'Hitung Pemasukan Pengeluaran'!G6</f>
         <v>760000</v>
       </c>
-      <c r="G29" s="272"/>
+      <c r="G29" s="330"/>
       <c r="I29" s="197"/>
-      <c r="J29" s="254" t="s">
+      <c r="J29" s="304" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="256"/>
-      <c r="L29" s="271">
+      <c r="K29" s="306"/>
+      <c r="L29" s="329">
         <f>'Hitung Pemasukan Pengeluaran'!G23</f>
-        <v>1887729.1800000002</v>
-      </c>
-      <c r="M29" s="272"/>
+        <v>1957729.1800000002</v>
+      </c>
+      <c r="M29" s="330"/>
     </row>
     <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="243" t="s">
+      <c r="D30" s="273" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="222"/>
-      <c r="F30" s="237">
+      <c r="E30" s="243"/>
+      <c r="F30" s="320">
         <f>F27</f>
         <v>903300</v>
       </c>
-      <c r="G30" s="275"/>
+      <c r="G30" s="321"/>
       <c r="I30" s="197"/>
-      <c r="J30" s="243" t="s">
+      <c r="J30" s="273" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="222"/>
-      <c r="L30" s="237">
+      <c r="K30" s="243"/>
+      <c r="L30" s="320">
         <f>L27</f>
         <v>46000</v>
       </c>
-      <c r="M30" s="275"/>
+      <c r="M30" s="321"/>
     </row>
     <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="243" t="s">
+      <c r="D31" s="273" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="222"/>
-      <c r="F31" s="238">
+      <c r="E31" s="243"/>
+      <c r="F31" s="325">
         <f>Pemasukkan!F27</f>
         <v>222000</v>
       </c>
-      <c r="G31" s="276"/>
+      <c r="G31" s="326"/>
       <c r="I31" s="197"/>
-      <c r="J31" s="243" t="s">
+      <c r="J31" s="273" t="s">
         <v>98</v>
       </c>
-      <c r="K31" s="222"/>
-      <c r="L31" s="238">
+      <c r="K31" s="243"/>
+      <c r="L31" s="325">
         <f>Pemasukkan!L27</f>
         <v>0</v>
       </c>
-      <c r="M31" s="276"/>
+      <c r="M31" s="326"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="244" t="s">
+      <c r="D32" s="274" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="245"/>
-      <c r="F32" s="273">
+      <c r="E32" s="275"/>
+      <c r="F32" s="331">
         <f>'Hitung Pemasukan Pengeluaran'!G8</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="G32" s="274"/>
+      <c r="G32" s="332"/>
       <c r="I32" s="197"/>
-      <c r="J32" s="244" t="s">
+      <c r="J32" s="274" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="245"/>
-      <c r="L32" s="273">
+      <c r="K32" s="275"/>
+      <c r="L32" s="331">
         <f>'Hitung Pemasukan Pengeluaran'!M8</f>
         <v>0</v>
       </c>
-      <c r="M32" s="274"/>
+      <c r="M32" s="332"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15541,7 +15557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -15555,28 +15571,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="285" t="s">
+      <c r="C2" s="335" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="286"/>
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" s="156"/>
@@ -15918,10 +15934,10 @@
     </row>
     <row r="29" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="156"/>
-      <c r="D29" s="287"/>
-      <c r="E29" s="287"/>
-      <c r="F29" s="288"/>
-      <c r="G29" s="288"/>
+      <c r="D29" s="337"/>
+      <c r="E29" s="337"/>
+      <c r="F29" s="338"/>
+      <c r="G29" s="338"/>
       <c r="H29" s="156"/>
       <c r="I29" s="156"/>
       <c r="J29" s="156"/>
@@ -15929,15 +15945,15 @@
     </row>
     <row r="30" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="24"/>
-      <c r="D30" s="289" t="s">
+      <c r="D30" s="339" t="s">
         <v>231</v>
       </c>
-      <c r="E30" s="290"/>
-      <c r="F30" s="291">
+      <c r="E30" s="340"/>
+      <c r="F30" s="341">
         <f>F27</f>
         <v>60000</v>
       </c>
-      <c r="G30" s="292"/>
+      <c r="G30" s="342"/>
       <c r="H30" s="156"/>
       <c r="I30" s="156"/>
       <c r="J30" s="156"/>
@@ -15952,10 +15968,10 @@
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="156"/>
-      <c r="D32" s="283"/>
-      <c r="E32" s="283"/>
-      <c r="F32" s="284"/>
-      <c r="G32" s="283"/>
+      <c r="D32" s="333"/>
+      <c r="E32" s="333"/>
+      <c r="F32" s="334"/>
+      <c r="G32" s="333"/>
       <c r="H32" s="156"/>
       <c r="I32" s="156"/>
       <c r="J32" s="156"/>
@@ -15993,17 +16009,17 @@
     <row r="3" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26"/>
-      <c r="C4" s="293" t="s">
+      <c r="C4" s="343" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="294"/>
+      <c r="D4" s="344"/>
       <c r="E4" s="27"/>
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
-      <c r="H4" s="293" t="s">
+      <c r="H4" s="343" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="294"/>
+      <c r="I4" s="344"/>
       <c r="J4" s="35"/>
       <c r="K4" s="27"/>
     </row>
@@ -16130,17 +16146,17 @@
     <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
-      <c r="C17" s="293" t="s">
+      <c r="C17" s="343" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="294"/>
+      <c r="D17" s="344"/>
       <c r="E17" s="27"/>
       <c r="F17" s="26"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="293" t="s">
+      <c r="H17" s="343" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="294"/>
+      <c r="I17" s="344"/>
       <c r="J17" s="35"/>
       <c r="K17" s="27"/>
     </row>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="533" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="533" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018(NOT UPDATED)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="268">
   <si>
     <t>LAPORAN KEUANGAN KAS GAS</t>
   </si>
@@ -818,6 +818,12 @@
   </si>
   <si>
     <t>once trf 70k kas(135-70)</t>
+  </si>
+  <si>
+    <t>Simpanan 45k</t>
+  </si>
+  <si>
+    <t>Ruman Bayar KAS 60k tunai</t>
   </si>
 </sst>
 </file>
@@ -2566,6 +2572,63 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2575,54 +2638,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2635,12 +2650,6 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2762,9 +2771,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2773,6 +2779,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2791,13 +2804,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7050,8 +7056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BM260"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" topLeftCell="A43" colorId="8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G53" sqref="D53:G53"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="D1" colorId="8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7282,12 +7288,12 @@
         <v>0</v>
       </c>
       <c r="Q6" s="131">
-        <f>(140-SUM(C6:I6))</f>
-        <v>0</v>
+        <f>(140-SUM(C6:J6))</f>
+        <v>-10</v>
       </c>
       <c r="R6" s="132">
         <f>Q6+P6</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="S6" s="13">
         <f t="shared" ref="S6:S37" si="1">(240)-(O6)</f>
@@ -8693,35 +8699,41 @@
       <c r="H20" s="138">
         <v>10</v>
       </c>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="210"/>
+      <c r="I20" s="210">
+        <v>20</v>
+      </c>
+      <c r="J20" s="210">
+        <v>20</v>
+      </c>
+      <c r="K20" s="210">
+        <v>20</v>
+      </c>
       <c r="L20" s="210"/>
       <c r="M20" s="210"/>
       <c r="N20" s="210"/>
       <c r="O20" s="135">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="P20" s="132">
         <f>'2018(NOT UPDATED)'!S24</f>
         <v>80</v>
       </c>
       <c r="Q20" s="132">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f>140-SUM(C20:K20)</f>
+        <v>-30</v>
       </c>
       <c r="R20" s="132">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="S20" s="135">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="T20" s="211">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="U20" s="212" t="str">
         <f t="shared" si="3"/>
@@ -10946,12 +10958,12 @@
         <v>0</v>
       </c>
       <c r="Q40" s="131">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>140-SUM(C40:J40)</f>
+        <v>-10</v>
       </c>
       <c r="R40" s="132">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="S40" s="13">
         <f t="shared" si="10"/>
@@ -11325,12 +11337,12 @@
         <v>0</v>
       </c>
       <c r="Q43" s="131">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>140-SUM(C43:L43)</f>
+        <v>-60</v>
       </c>
       <c r="R43" s="132">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="S43" s="13">
         <f t="shared" si="10"/>
@@ -11862,12 +11874,12 @@
         <v>0</v>
       </c>
       <c r="Q48" s="131">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>140-SUM(C48:N48)</f>
+        <v>-100</v>
       </c>
       <c r="R48" s="132">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S48" s="13">
         <f t="shared" si="10"/>
@@ -11881,7 +11893,9 @@
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="V48" s="74"/>
+      <c r="V48" s="74" t="s">
+        <v>266</v>
+      </c>
       <c r="X48" s="57"/>
       <c r="Y48" s="59"/>
       <c r="Z48" s="59"/>
@@ -13217,20 +13231,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:R60">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P60">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:AN48">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(ISBLANK($AA$4), 0, SEARCH($AA$4,$Y9))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13243,8 +13257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13293,20 +13307,20 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="203"/>
-      <c r="U3" s="304" t="s">
+      <c r="U3" s="305" t="s">
         <v>195</v>
       </c>
-      <c r="V3" s="305"/>
-      <c r="W3" s="306" t="s">
+      <c r="V3" s="306"/>
+      <c r="W3" s="307" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="305"/>
-      <c r="Y3" s="305"/>
-      <c r="Z3" s="305"/>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="305"/>
-      <c r="AC3" s="305"/>
-      <c r="AD3" s="307"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="306"/>
+      <c r="AA3" s="306"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="306"/>
+      <c r="AD3" s="308"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
@@ -13328,7 +13342,7 @@
       <c r="K4" s="243"/>
       <c r="L4" s="243"/>
       <c r="M4" s="203"/>
-      <c r="U4" s="297" t="s">
+      <c r="U4" s="280" t="s">
         <v>196</v>
       </c>
       <c r="V4" s="243"/>
@@ -13341,7 +13355,7 @@
       <c r="AA4" s="243"/>
       <c r="AB4" s="243"/>
       <c r="AC4" s="243"/>
-      <c r="AD4" s="288"/>
+      <c r="AD4" s="279"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
@@ -13366,20 +13380,20 @@
       </c>
       <c r="L5" s="270"/>
       <c r="M5" s="203"/>
-      <c r="U5" s="298" t="s">
+      <c r="U5" s="301" t="s">
         <v>233</v>
       </c>
-      <c r="V5" s="299"/>
+      <c r="V5" s="302"/>
       <c r="W5" s="261" t="s">
         <v>234</v>
       </c>
-      <c r="X5" s="292"/>
-      <c r="Y5" s="292"/>
-      <c r="Z5" s="292"/>
-      <c r="AA5" s="292"/>
-      <c r="AB5" s="292"/>
-      <c r="AC5" s="292"/>
-      <c r="AD5" s="293"/>
+      <c r="X5" s="291"/>
+      <c r="Y5" s="291"/>
+      <c r="Z5" s="291"/>
+      <c r="AA5" s="291"/>
+      <c r="AB5" s="291"/>
+      <c r="AC5" s="291"/>
+      <c r="AD5" s="292"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
@@ -13404,18 +13418,18 @@
       </c>
       <c r="L6" s="272"/>
       <c r="M6" s="203"/>
-      <c r="U6" s="300"/>
-      <c r="V6" s="301"/>
-      <c r="W6" s="294" t="s">
+      <c r="U6" s="303"/>
+      <c r="V6" s="304"/>
+      <c r="W6" s="293" t="s">
         <v>235</v>
       </c>
-      <c r="X6" s="295"/>
-      <c r="Y6" s="295"/>
-      <c r="Z6" s="295"/>
-      <c r="AA6" s="295"/>
-      <c r="AB6" s="295"/>
-      <c r="AC6" s="295"/>
-      <c r="AD6" s="296"/>
+      <c r="X6" s="294"/>
+      <c r="Y6" s="294"/>
+      <c r="Z6" s="294"/>
+      <c r="AA6" s="294"/>
+      <c r="AB6" s="294"/>
+      <c r="AC6" s="294"/>
+      <c r="AD6" s="295"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
@@ -13441,8 +13455,8 @@
       </c>
       <c r="L7" s="268"/>
       <c r="M7" s="203"/>
-      <c r="U7" s="308"/>
-      <c r="V7" s="309"/>
+      <c r="U7" s="309"/>
+      <c r="V7" s="310"/>
       <c r="W7" s="266" t="s">
         <v>236</v>
       </c>
@@ -13452,7 +13466,7 @@
       <c r="AA7" s="243"/>
       <c r="AB7" s="243"/>
       <c r="AC7" s="243"/>
-      <c r="AD7" s="288"/>
+      <c r="AD7" s="279"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="202"/>
@@ -13478,20 +13492,20 @@
       </c>
       <c r="L8" s="258"/>
       <c r="M8" s="203"/>
-      <c r="U8" s="312" t="s">
+      <c r="U8" s="313" t="s">
         <v>197</v>
       </c>
-      <c r="V8" s="313"/>
-      <c r="W8" s="294" t="s">
+      <c r="V8" s="314"/>
+      <c r="W8" s="293" t="s">
         <v>199</v>
       </c>
-      <c r="X8" s="295"/>
-      <c r="Y8" s="295"/>
-      <c r="Z8" s="295"/>
-      <c r="AA8" s="295"/>
-      <c r="AB8" s="295"/>
-      <c r="AC8" s="295"/>
-      <c r="AD8" s="296"/>
+      <c r="X8" s="294"/>
+      <c r="Y8" s="294"/>
+      <c r="Z8" s="294"/>
+      <c r="AA8" s="294"/>
+      <c r="AB8" s="294"/>
+      <c r="AC8" s="294"/>
+      <c r="AD8" s="295"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="202"/>
@@ -13507,18 +13521,18 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="203"/>
-      <c r="U9" s="314"/>
-      <c r="V9" s="315"/>
-      <c r="W9" s="294" t="s">
+      <c r="U9" s="315"/>
+      <c r="V9" s="316"/>
+      <c r="W9" s="293" t="s">
         <v>239</v>
       </c>
-      <c r="X9" s="295"/>
-      <c r="Y9" s="295"/>
-      <c r="Z9" s="295"/>
-      <c r="AA9" s="295"/>
-      <c r="AB9" s="295"/>
-      <c r="AC9" s="295"/>
-      <c r="AD9" s="296"/>
+      <c r="X9" s="294"/>
+      <c r="Y9" s="294"/>
+      <c r="Z9" s="294"/>
+      <c r="AA9" s="294"/>
+      <c r="AB9" s="294"/>
+      <c r="AC9" s="294"/>
+      <c r="AD9" s="295"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="202"/>
@@ -13552,7 +13566,7 @@
       <c r="AA10" s="243"/>
       <c r="AB10" s="243"/>
       <c r="AC10" s="243"/>
-      <c r="AD10" s="288"/>
+      <c r="AD10" s="279"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="202"/>
@@ -13576,16 +13590,16 @@
         <v>262</v>
       </c>
       <c r="V11" s="256"/>
-      <c r="W11" s="310" t="s">
+      <c r="W11" s="311" t="s">
         <v>264</v>
       </c>
-      <c r="X11" s="310"/>
-      <c r="Y11" s="310"/>
-      <c r="Z11" s="310"/>
-      <c r="AA11" s="310"/>
-      <c r="AB11" s="310"/>
-      <c r="AC11" s="310"/>
-      <c r="AD11" s="311"/>
+      <c r="X11" s="311"/>
+      <c r="Y11" s="311"/>
+      <c r="Z11" s="311"/>
+      <c r="AA11" s="311"/>
+      <c r="AB11" s="311"/>
+      <c r="AC11" s="311"/>
+      <c r="AD11" s="312"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="202"/>
@@ -13615,7 +13629,7 @@
       <c r="AA12" s="243"/>
       <c r="AB12" s="243"/>
       <c r="AC12" s="243"/>
-      <c r="AD12" s="288"/>
+      <c r="AD12" s="279"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="204"/>
@@ -13640,19 +13654,19 @@
       <c r="AA13" s="243"/>
       <c r="AB13" s="243"/>
       <c r="AC13" s="243"/>
-      <c r="AD13" s="288"/>
+      <c r="AD13" s="279"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U14" s="302"/>
-      <c r="V14" s="303"/>
-      <c r="W14" s="290"/>
-      <c r="X14" s="290"/>
-      <c r="Y14" s="290"/>
-      <c r="Z14" s="290"/>
-      <c r="AA14" s="290"/>
-      <c r="AB14" s="290"/>
-      <c r="AC14" s="290"/>
-      <c r="AD14" s="291"/>
+      <c r="U14" s="296"/>
+      <c r="V14" s="297"/>
+      <c r="W14" s="289"/>
+      <c r="X14" s="289"/>
+      <c r="Y14" s="289"/>
+      <c r="Z14" s="289"/>
+      <c r="AA14" s="289"/>
+      <c r="AB14" s="289"/>
+      <c r="AC14" s="289"/>
+      <c r="AD14" s="290"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -13671,13 +13685,13 @@
       <c r="K18" s="263"/>
       <c r="L18" s="263"/>
       <c r="M18" s="201"/>
-      <c r="O18" s="279" t="s">
+      <c r="O18" s="298" t="s">
         <v>253</v>
       </c>
-      <c r="P18" s="280"/>
-      <c r="Q18" s="280"/>
-      <c r="R18" s="280"/>
-      <c r="S18" s="281"/>
+      <c r="P18" s="299"/>
+      <c r="Q18" s="299"/>
+      <c r="R18" s="299"/>
+      <c r="S18" s="300"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="202"/>
@@ -13688,7 +13702,7 @@
       <c r="P19" s="243"/>
       <c r="Q19" s="243"/>
       <c r="R19" s="243"/>
-      <c r="S19" s="288"/>
+      <c r="S19" s="279"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="202"/>
@@ -13700,7 +13714,7 @@
       <c r="E20" s="265"/>
       <c r="F20" s="265"/>
       <c r="G20" s="70">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="266" t="s">
@@ -13716,7 +13730,7 @@
       <c r="P20" s="243"/>
       <c r="Q20" s="243"/>
       <c r="R20" s="243"/>
-      <c r="S20" s="288"/>
+      <c r="S20" s="279"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="202"/>
@@ -13738,7 +13752,7 @@
       <c r="J21" s="262"/>
       <c r="K21" s="269">
         <f>G23</f>
-        <v>1957729.1800000002</v>
+        <v>2017729.1800000002</v>
       </c>
       <c r="L21" s="270"/>
       <c r="M21" s="203"/>
@@ -13749,7 +13763,7 @@
       <c r="P21" s="243"/>
       <c r="Q21" s="243"/>
       <c r="R21" s="243"/>
-      <c r="S21" s="288"/>
+      <c r="S21" s="279"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="202"/>
@@ -13775,13 +13789,13 @@
       <c r="L22" s="272"/>
       <c r="M22" s="203"/>
       <c r="N22" s="197"/>
-      <c r="O22" s="297" t="s">
+      <c r="O22" s="280" t="s">
         <v>265</v>
       </c>
       <c r="P22" s="266"/>
       <c r="Q22" s="266"/>
       <c r="R22" s="266"/>
-      <c r="S22" s="345"/>
+      <c r="S22" s="281"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="202"/>
@@ -13794,7 +13808,7 @@
       <c r="F23" s="260"/>
       <c r="G23" s="173">
         <f>SUM(G20:G22)</f>
-        <v>1957729.1800000002</v>
+        <v>2017729.1800000002</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="259" t="s">
@@ -13808,11 +13822,13 @@
       <c r="L23" s="268"/>
       <c r="M23" s="203"/>
       <c r="N23" s="197"/>
-      <c r="O23" s="273"/>
+      <c r="O23" s="273" t="s">
+        <v>267</v>
+      </c>
       <c r="P23" s="243"/>
       <c r="Q23" s="243"/>
       <c r="R23" s="243"/>
-      <c r="S23" s="288"/>
+      <c r="S23" s="279"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="202"/>
@@ -13825,7 +13841,7 @@
       <c r="F24" s="287"/>
       <c r="G24" s="174">
         <f>K24</f>
-        <v>1911729.1800000002</v>
+        <v>1971729.1800000002</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="261" t="s">
@@ -13834,7 +13850,7 @@
       <c r="J24" s="262"/>
       <c r="K24" s="257">
         <f>(K21-K22)+K23</f>
-        <v>1911729.1800000002</v>
+        <v>1971729.1800000002</v>
       </c>
       <c r="L24" s="258"/>
       <c r="M24" s="203"/>
@@ -13843,7 +13859,7 @@
       <c r="P24" s="243"/>
       <c r="Q24" s="243"/>
       <c r="R24" s="243"/>
-      <c r="S24" s="288"/>
+      <c r="S24" s="279"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="202"/>
@@ -13864,7 +13880,7 @@
       <c r="P25" s="243"/>
       <c r="Q25" s="243"/>
       <c r="R25" s="243"/>
-      <c r="S25" s="288"/>
+      <c r="S25" s="279"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="202"/>
@@ -13885,7 +13901,7 @@
       <c r="P26" s="243"/>
       <c r="Q26" s="243"/>
       <c r="R26" s="243"/>
-      <c r="S26" s="288"/>
+      <c r="S26" s="279"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="204"/>
@@ -13902,11 +13918,11 @@
       <c r="L27" s="205"/>
       <c r="M27" s="206"/>
       <c r="N27" s="197"/>
-      <c r="O27" s="289"/>
-      <c r="P27" s="290"/>
-      <c r="Q27" s="290"/>
-      <c r="R27" s="290"/>
-      <c r="S27" s="291"/>
+      <c r="O27" s="288"/>
+      <c r="P27" s="289"/>
+      <c r="Q27" s="289"/>
+      <c r="R27" s="289"/>
+      <c r="S27" s="290"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="197"/>
@@ -14030,44 +14046,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="316" t="s">
+      <c r="C2" s="317" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="317"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
     </row>
     <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
-      <c r="G3" s="317"/>
-      <c r="H3" s="317"/>
-      <c r="I3" s="317"/>
-      <c r="J3" s="317"/>
-      <c r="K3" s="317"/>
+      <c r="C3" s="318"/>
+      <c r="D3" s="318"/>
+      <c r="E3" s="318"/>
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
     </row>
     <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="324" t="s">
+      <c r="C5" s="325" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="I5" s="324" t="s">
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="325"/>
+      <c r="I5" s="325" t="s">
         <v>251</v>
       </c>
-      <c r="J5" s="324"/>
-      <c r="K5" s="324"/>
-      <c r="L5" s="324"/>
-      <c r="M5" s="324"/>
+      <c r="J5" s="325"/>
+      <c r="K5" s="325"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="325"/>
     </row>
     <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
@@ -14471,84 +14487,84 @@
         <v>72</v>
       </c>
       <c r="E29" s="265"/>
-      <c r="F29" s="318">
+      <c r="F29" s="319">
         <f>'Hitung Pemasukan Pengeluaran'!G6</f>
         <v>760000</v>
       </c>
-      <c r="G29" s="319"/>
+      <c r="G29" s="320"/>
       <c r="I29" s="197"/>
       <c r="J29" s="264" t="s">
         <v>72</v>
       </c>
       <c r="K29" s="265"/>
-      <c r="L29" s="318">
+      <c r="L29" s="319">
         <f>'Hitung Pemasukan Pengeluaran'!G23</f>
-        <v>1957729.1800000002</v>
-      </c>
-      <c r="M29" s="319"/>
+        <v>2017729.1800000002</v>
+      </c>
+      <c r="M29" s="320"/>
     </row>
     <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="297" t="s">
+      <c r="D30" s="280" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="243"/>
-      <c r="F30" s="320">
+      <c r="F30" s="321">
         <f>Pengeluaran!F30</f>
         <v>903300</v>
       </c>
-      <c r="G30" s="321"/>
+      <c r="G30" s="322"/>
       <c r="I30" s="197"/>
-      <c r="J30" s="297" t="s">
+      <c r="J30" s="280" t="s">
         <v>65</v>
       </c>
       <c r="K30" s="243"/>
-      <c r="L30" s="320">
+      <c r="L30" s="321">
         <f>Pengeluaran!L30</f>
         <v>46000</v>
       </c>
-      <c r="M30" s="321"/>
+      <c r="M30" s="322"/>
     </row>
     <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="273" t="s">
         <v>98</v>
       </c>
       <c r="E31" s="243"/>
-      <c r="F31" s="325">
+      <c r="F31" s="326">
         <f>F27</f>
         <v>222000</v>
       </c>
-      <c r="G31" s="326"/>
+      <c r="G31" s="327"/>
       <c r="I31" s="197"/>
       <c r="J31" s="273" t="s">
         <v>98</v>
       </c>
       <c r="K31" s="243"/>
-      <c r="L31" s="325">
+      <c r="L31" s="326">
         <f>L27</f>
         <v>0</v>
       </c>
-      <c r="M31" s="326"/>
+      <c r="M31" s="327"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="274" t="s">
         <v>190</v>
       </c>
       <c r="E32" s="275"/>
-      <c r="F32" s="322">
+      <c r="F32" s="323">
         <f>'Hitung Pemasukan Pengeluaran'!G8</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="G32" s="323"/>
+      <c r="G32" s="324"/>
       <c r="I32" s="197"/>
       <c r="J32" s="274" t="s">
         <v>190</v>
       </c>
       <c r="K32" s="275"/>
-      <c r="L32" s="322">
+      <c r="L32" s="323">
         <f>'Hitung Pemasukan Pengeluaran'!G24</f>
-        <v>1911729.1800000002</v>
-      </c>
-      <c r="M32" s="323"/>
+        <v>1971729.1800000002</v>
+      </c>
+      <c r="M32" s="324"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14791,44 +14807,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="327" t="s">
+      <c r="C2" s="328" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
+      <c r="J2" s="329"/>
+      <c r="K2" s="329"/>
     </row>
     <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
     </row>
     <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="324" t="s">
+      <c r="C5" s="325" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="I5" s="324" t="s">
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="325"/>
+      <c r="I5" s="325" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="324"/>
-      <c r="K5" s="324"/>
-      <c r="L5" s="324"/>
-      <c r="M5" s="324"/>
+      <c r="J5" s="325"/>
+      <c r="K5" s="325"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="325"/>
     </row>
     <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
@@ -15254,88 +15270,88 @@
       <c r="M28" s="197"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="304" t="s">
+      <c r="D29" s="305" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="306"/>
-      <c r="F29" s="329">
+      <c r="E29" s="307"/>
+      <c r="F29" s="330">
         <f>'Hitung Pemasukan Pengeluaran'!G6</f>
         <v>760000</v>
       </c>
-      <c r="G29" s="330"/>
+      <c r="G29" s="331"/>
       <c r="I29" s="197"/>
-      <c r="J29" s="304" t="s">
+      <c r="J29" s="305" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="306"/>
-      <c r="L29" s="329">
+      <c r="K29" s="307"/>
+      <c r="L29" s="330">
         <f>'Hitung Pemasukan Pengeluaran'!G23</f>
-        <v>1957729.1800000002</v>
-      </c>
-      <c r="M29" s="330"/>
+        <v>2017729.1800000002</v>
+      </c>
+      <c r="M29" s="331"/>
     </row>
     <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="273" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="243"/>
-      <c r="F30" s="320">
+      <c r="F30" s="321">
         <f>F27</f>
         <v>903300</v>
       </c>
-      <c r="G30" s="321"/>
+      <c r="G30" s="322"/>
       <c r="I30" s="197"/>
       <c r="J30" s="273" t="s">
         <v>65</v>
       </c>
       <c r="K30" s="243"/>
-      <c r="L30" s="320">
+      <c r="L30" s="321">
         <f>L27</f>
         <v>46000</v>
       </c>
-      <c r="M30" s="321"/>
+      <c r="M30" s="322"/>
     </row>
     <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="273" t="s">
         <v>98</v>
       </c>
       <c r="E31" s="243"/>
-      <c r="F31" s="325">
+      <c r="F31" s="326">
         <f>Pemasukkan!F27</f>
         <v>222000</v>
       </c>
-      <c r="G31" s="326"/>
+      <c r="G31" s="327"/>
       <c r="I31" s="197"/>
       <c r="J31" s="273" t="s">
         <v>98</v>
       </c>
       <c r="K31" s="243"/>
-      <c r="L31" s="325">
+      <c r="L31" s="326">
         <f>Pemasukkan!L27</f>
         <v>0</v>
       </c>
-      <c r="M31" s="326"/>
+      <c r="M31" s="327"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="274" t="s">
         <v>191</v>
       </c>
       <c r="E32" s="275"/>
-      <c r="F32" s="331">
+      <c r="F32" s="332">
         <f>'Hitung Pemasukan Pengeluaran'!G8</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="G32" s="332"/>
+      <c r="G32" s="333"/>
       <c r="I32" s="197"/>
       <c r="J32" s="274" t="s">
         <v>191</v>
       </c>
       <c r="K32" s="275"/>
-      <c r="L32" s="331">
+      <c r="L32" s="332">
         <f>'Hitung Pemasukan Pengeluaran'!M8</f>
         <v>0</v>
       </c>
-      <c r="M32" s="332"/>
+      <c r="M32" s="333"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15571,28 +15587,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="335" t="s">
+      <c r="C2" s="336" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="337"/>
+      <c r="K2" s="337"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="337"/>
+      <c r="K3" s="337"/>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" s="156"/>
@@ -15934,10 +15950,10 @@
     </row>
     <row r="29" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="156"/>
-      <c r="D29" s="337"/>
-      <c r="E29" s="337"/>
-      <c r="F29" s="338"/>
-      <c r="G29" s="338"/>
+      <c r="D29" s="338"/>
+      <c r="E29" s="338"/>
+      <c r="F29" s="339"/>
+      <c r="G29" s="339"/>
       <c r="H29" s="156"/>
       <c r="I29" s="156"/>
       <c r="J29" s="156"/>
@@ -15945,15 +15961,15 @@
     </row>
     <row r="30" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="24"/>
-      <c r="D30" s="339" t="s">
+      <c r="D30" s="340" t="s">
         <v>231</v>
       </c>
-      <c r="E30" s="340"/>
-      <c r="F30" s="341">
+      <c r="E30" s="341"/>
+      <c r="F30" s="342">
         <f>F27</f>
         <v>60000</v>
       </c>
-      <c r="G30" s="342"/>
+      <c r="G30" s="343"/>
       <c r="H30" s="156"/>
       <c r="I30" s="156"/>
       <c r="J30" s="156"/>
@@ -15968,10 +15984,10 @@
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="156"/>
-      <c r="D32" s="333"/>
-      <c r="E32" s="333"/>
-      <c r="F32" s="334"/>
-      <c r="G32" s="333"/>
+      <c r="D32" s="334"/>
+      <c r="E32" s="334"/>
+      <c r="F32" s="335"/>
+      <c r="G32" s="334"/>
       <c r="H32" s="156"/>
       <c r="I32" s="156"/>
       <c r="J32" s="156"/>
@@ -16009,17 +16025,17 @@
     <row r="3" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26"/>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="344" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="344"/>
+      <c r="D4" s="345"/>
       <c r="E4" s="27"/>
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
-      <c r="H4" s="343" t="s">
+      <c r="H4" s="344" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="344"/>
+      <c r="I4" s="345"/>
       <c r="J4" s="35"/>
       <c r="K4" s="27"/>
     </row>
@@ -16146,17 +16162,17 @@
     <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
-      <c r="C17" s="343" t="s">
+      <c r="C17" s="344" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="344"/>
+      <c r="D17" s="345"/>
       <c r="E17" s="27"/>
       <c r="F17" s="26"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="343" t="s">
+      <c r="H17" s="344" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="344"/>
+      <c r="I17" s="345"/>
       <c r="J17" s="35"/>
       <c r="K17" s="27"/>
     </row>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -2400,20 +2400,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2429,39 +2438,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2469,36 +2476,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2506,185 +2563,155 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2692,31 +2719,16 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="13" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2724,18 +2736,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="13" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2778,11 +2778,12 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2804,6 +2805,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3594,126 +3602,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="214"/>
-      <c r="O1" s="214"/>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="214"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="215"/>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="216"/>
+      <c r="A2" s="221"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="222"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="222"/>
+      <c r="Q2" s="222"/>
+      <c r="R2" s="222"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="215"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="216"/>
-      <c r="P3" s="216"/>
-      <c r="Q3" s="216"/>
-      <c r="R3" s="216"/>
+      <c r="A3" s="221"/>
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="222"/>
+      <c r="Q3" s="222"/>
+      <c r="R3" s="222"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="215"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
-      <c r="J4" s="216"/>
-      <c r="K4" s="216"/>
-      <c r="L4" s="216"/>
-      <c r="M4" s="216"/>
-      <c r="N4" s="216"/>
-      <c r="O4" s="216"/>
-      <c r="P4" s="216"/>
-      <c r="Q4" s="216"/>
-      <c r="R4" s="216"/>
+      <c r="A4" s="221"/>
+      <c r="B4" s="222"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="222"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="222"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="215"/>
-      <c r="B5" s="216"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="216"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="216"/>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="216"/>
+      <c r="A5" s="221"/>
+      <c r="B5" s="222"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
+      <c r="N5" s="222"/>
+      <c r="O5" s="222"/>
+      <c r="P5" s="222"/>
+      <c r="Q5" s="222"/>
+      <c r="R5" s="222"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="215"/>
-      <c r="B6" s="216"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="216"/>
-      <c r="M6" s="216"/>
-      <c r="N6" s="216"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="216"/>
-      <c r="Q6" s="216"/>
-      <c r="R6" s="216"/>
+      <c r="A6" s="221"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="222"/>
+      <c r="N6" s="222"/>
+      <c r="O6" s="222"/>
+      <c r="P6" s="222"/>
+      <c r="Q6" s="222"/>
+      <c r="R6" s="222"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="s">
@@ -6658,58 +6666,58 @@
     <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J79" s="221" t="s">
+      <c r="J79" s="224" t="s">
         <v>65</v>
       </c>
-      <c r="K79" s="222"/>
-      <c r="L79" s="222"/>
-      <c r="M79" s="222"/>
-      <c r="N79" s="223"/>
-      <c r="P79" s="229" t="s">
+      <c r="K79" s="225"/>
+      <c r="L79" s="225"/>
+      <c r="M79" s="225"/>
+      <c r="N79" s="226"/>
+      <c r="P79" s="232" t="s">
         <v>66</v>
       </c>
-      <c r="Q79" s="222"/>
-      <c r="R79" s="222"/>
-      <c r="S79" s="223"/>
+      <c r="Q79" s="225"/>
+      <c r="R79" s="225"/>
+      <c r="S79" s="226"/>
     </row>
     <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J80" s="224" t="s">
+      <c r="J80" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="K80" s="216"/>
-      <c r="L80" s="216"/>
-      <c r="M80" s="216"/>
-      <c r="N80" s="225"/>
-      <c r="P80" s="224" t="s">
+      <c r="K80" s="222"/>
+      <c r="L80" s="222"/>
+      <c r="M80" s="222"/>
+      <c r="N80" s="228"/>
+      <c r="P80" s="227" t="s">
         <v>68</v>
       </c>
-      <c r="Q80" s="216"/>
-      <c r="R80" s="216"/>
-      <c r="S80" s="225"/>
+      <c r="Q80" s="222"/>
+      <c r="R80" s="222"/>
+      <c r="S80" s="228"/>
     </row>
     <row r="81" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J81" s="226"/>
-      <c r="K81" s="227"/>
-      <c r="L81" s="227"/>
-      <c r="M81" s="227"/>
-      <c r="N81" s="228"/>
-      <c r="P81" s="226"/>
-      <c r="Q81" s="227"/>
-      <c r="R81" s="227"/>
-      <c r="S81" s="228"/>
+      <c r="J81" s="229"/>
+      <c r="K81" s="230"/>
+      <c r="L81" s="230"/>
+      <c r="M81" s="230"/>
+      <c r="N81" s="231"/>
+      <c r="P81" s="229"/>
+      <c r="Q81" s="230"/>
+      <c r="R81" s="230"/>
+      <c r="S81" s="231"/>
     </row>
     <row r="82" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J82" s="219" t="s">
+      <c r="J82" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="K82" s="220"/>
-      <c r="L82" s="218"/>
-      <c r="M82" s="219" t="s">
+      <c r="K82" s="214"/>
+      <c r="L82" s="215"/>
+      <c r="M82" s="223" t="s">
         <v>69</v>
       </c>
-      <c r="N82" s="218"/>
-      <c r="P82" s="219"/>
-      <c r="Q82" s="218"/>
+      <c r="N82" s="215"/>
+      <c r="P82" s="223"/>
+      <c r="Q82" s="215"/>
       <c r="R82" s="3" t="s">
         <v>19</v>
       </c>
@@ -6718,38 +6726,38 @@
       </c>
     </row>
     <row r="83" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J83" s="230" t="s">
+      <c r="J83" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="K83" s="220"/>
-      <c r="L83" s="218"/>
-      <c r="M83" s="231">
+      <c r="K83" s="214"/>
+      <c r="L83" s="215"/>
+      <c r="M83" s="216">
         <v>7350000</v>
       </c>
-      <c r="N83" s="218"/>
+      <c r="N83" s="215"/>
       <c r="P83" s="217" t="s">
         <v>71</v>
       </c>
-      <c r="Q83" s="218"/>
+      <c r="Q83" s="215"/>
       <c r="R83" s="4"/>
       <c r="S83" s="5">
         <v>40000</v>
       </c>
     </row>
     <row r="84" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J84" s="230" t="s">
+      <c r="J84" s="213" t="s">
         <v>72</v>
       </c>
-      <c r="K84" s="220"/>
-      <c r="L84" s="218"/>
-      <c r="M84" s="232">
+      <c r="K84" s="214"/>
+      <c r="L84" s="215"/>
+      <c r="M84" s="218">
         <v>1100000</v>
       </c>
-      <c r="N84" s="218"/>
+      <c r="N84" s="215"/>
       <c r="P84" s="217" t="s">
         <v>73</v>
       </c>
-      <c r="Q84" s="218"/>
+      <c r="Q84" s="215"/>
       <c r="R84" s="6" t="s">
         <v>74</v>
       </c>
@@ -6758,39 +6766,39 @@
       </c>
     </row>
     <row r="85" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J85" s="230" t="s">
+      <c r="J85" s="213" t="s">
         <v>75</v>
       </c>
-      <c r="K85" s="220"/>
-      <c r="L85" s="218"/>
-      <c r="M85" s="231">
+      <c r="K85" s="214"/>
+      <c r="L85" s="215"/>
+      <c r="M85" s="216">
         <f>M83+M84</f>
         <v>8450000</v>
       </c>
-      <c r="N85" s="218"/>
+      <c r="N85" s="215"/>
       <c r="P85" s="217" t="s">
         <v>76</v>
       </c>
-      <c r="Q85" s="218"/>
+      <c r="Q85" s="215"/>
       <c r="R85" s="4"/>
       <c r="S85" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J86" s="230" t="s">
+      <c r="J86" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="K86" s="220"/>
-      <c r="L86" s="218"/>
-      <c r="M86" s="231">
+      <c r="K86" s="214"/>
+      <c r="L86" s="215"/>
+      <c r="M86" s="216">
         <v>8411850</v>
       </c>
-      <c r="N86" s="218"/>
+      <c r="N86" s="215"/>
       <c r="P86" s="217" t="s">
         <v>78</v>
       </c>
-      <c r="Q86" s="218"/>
+      <c r="Q86" s="215"/>
       <c r="R86" s="4"/>
       <c r="S86" s="5">
         <f>S83-S84+S85</f>
@@ -6798,20 +6806,20 @@
       </c>
     </row>
     <row r="87" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J87" s="230" t="s">
+      <c r="J87" s="213" t="s">
         <v>79</v>
       </c>
-      <c r="K87" s="220"/>
-      <c r="L87" s="218"/>
-      <c r="M87" s="231">
+      <c r="K87" s="214"/>
+      <c r="L87" s="215"/>
+      <c r="M87" s="216">
         <f>M85-M86</f>
         <v>38150</v>
       </c>
-      <c r="N87" s="218"/>
+      <c r="N87" s="215"/>
       <c r="P87" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="Q87" s="218"/>
+      <c r="Q87" s="215"/>
       <c r="R87" s="4"/>
       <c r="S87" s="5">
         <f>M87+S86</f>
@@ -7000,17 +7008,6 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="23">
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="M84:N84"/>
     <mergeCell ref="A1:R6"/>
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="J82:L82"/>
@@ -7023,27 +7020,38 @@
     <mergeCell ref="P83:Q83"/>
     <mergeCell ref="P82:Q82"/>
     <mergeCell ref="P80:S81"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P86:Q86"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T52">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S52">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S51">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>$S$12=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7056,8 +7064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BM260"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="D1" colorId="8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="L16" colorId="8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7099,46 +7107,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="C2" s="253" t="s">
+      <c r="C2" s="241" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="214"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="215"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="216"/>
-      <c r="P3" s="216"/>
-      <c r="Q3" s="216"/>
-      <c r="R3" s="216"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="216"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="222"/>
+      <c r="Q3" s="222"/>
+      <c r="R3" s="222"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="222"/>
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7225,25 +7233,25 @@
       <c r="V5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="245" t="s">
+      <c r="X5" s="247" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="220"/>
-      <c r="Z5" s="220"/>
-      <c r="AA5" s="220"/>
-      <c r="AB5" s="220"/>
-      <c r="AC5" s="220"/>
-      <c r="AD5" s="220"/>
-      <c r="AE5" s="220"/>
-      <c r="AF5" s="220"/>
-      <c r="AG5" s="220"/>
-      <c r="AH5" s="220"/>
-      <c r="AI5" s="220"/>
-      <c r="AJ5" s="220"/>
-      <c r="AK5" s="220"/>
-      <c r="AL5" s="220"/>
-      <c r="AM5" s="220"/>
-      <c r="AN5" s="218"/>
+      <c r="Y5" s="214"/>
+      <c r="Z5" s="214"/>
+      <c r="AA5" s="214"/>
+      <c r="AB5" s="214"/>
+      <c r="AC5" s="214"/>
+      <c r="AD5" s="214"/>
+      <c r="AE5" s="214"/>
+      <c r="AF5" s="214"/>
+      <c r="AG5" s="214"/>
+      <c r="AH5" s="214"/>
+      <c r="AI5" s="214"/>
+      <c r="AJ5" s="214"/>
+      <c r="AK5" s="214"/>
+      <c r="AL5" s="214"/>
+      <c r="AM5" s="214"/>
+      <c r="AN5" s="215"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -7308,29 +7316,29 @@
         <v>NO</v>
       </c>
       <c r="V6" s="13"/>
-      <c r="X6" s="254" t="s">
+      <c r="X6" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="254" t="s">
+      <c r="Y6" s="242" t="s">
         <v>85</v>
       </c>
-      <c r="Z6" s="243" t="s">
+      <c r="Z6" s="246" t="s">
         <v>86</v>
       </c>
-      <c r="AA6" s="244"/>
-      <c r="AB6" s="244"/>
-      <c r="AC6" s="244"/>
-      <c r="AD6" s="244"/>
-      <c r="AE6" s="244"/>
-      <c r="AF6" s="244"/>
-      <c r="AG6" s="244"/>
-      <c r="AH6" s="244"/>
-      <c r="AI6" s="244"/>
-      <c r="AJ6" s="244"/>
-      <c r="AK6" s="244"/>
-      <c r="AL6" s="244"/>
-      <c r="AM6" s="244"/>
-      <c r="AN6" s="244"/>
+      <c r="AA6" s="243"/>
+      <c r="AB6" s="243"/>
+      <c r="AC6" s="243"/>
+      <c r="AD6" s="243"/>
+      <c r="AE6" s="243"/>
+      <c r="AF6" s="243"/>
+      <c r="AG6" s="243"/>
+      <c r="AH6" s="243"/>
+      <c r="AI6" s="243"/>
+      <c r="AJ6" s="243"/>
+      <c r="AK6" s="243"/>
+      <c r="AL6" s="243"/>
+      <c r="AM6" s="243"/>
+      <c r="AN6" s="243"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -7393,27 +7401,27 @@
         <v>NO</v>
       </c>
       <c r="V7" s="13"/>
-      <c r="X7" s="244"/>
-      <c r="Y7" s="244"/>
-      <c r="Z7" s="243" t="s">
+      <c r="X7" s="243"/>
+      <c r="Y7" s="243"/>
+      <c r="Z7" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="244"/>
-      <c r="AB7" s="244"/>
-      <c r="AC7" s="244"/>
-      <c r="AD7" s="243" t="s">
+      <c r="AA7" s="243"/>
+      <c r="AB7" s="243"/>
+      <c r="AC7" s="243"/>
+      <c r="AD7" s="246" t="s">
         <v>88</v>
       </c>
-      <c r="AE7" s="244"/>
-      <c r="AF7" s="244"/>
-      <c r="AG7" s="244"/>
-      <c r="AH7" s="244"/>
-      <c r="AI7" s="244"/>
-      <c r="AJ7" s="244"/>
-      <c r="AK7" s="244"/>
-      <c r="AL7" s="244"/>
-      <c r="AM7" s="244"/>
-      <c r="AN7" s="244"/>
+      <c r="AE7" s="243"/>
+      <c r="AF7" s="243"/>
+      <c r="AG7" s="243"/>
+      <c r="AH7" s="243"/>
+      <c r="AI7" s="243"/>
+      <c r="AJ7" s="243"/>
+      <c r="AK7" s="243"/>
+      <c r="AL7" s="243"/>
+      <c r="AM7" s="243"/>
+      <c r="AN7" s="243"/>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -7463,8 +7471,8 @@
         <v>NO</v>
       </c>
       <c r="V8" s="13"/>
-      <c r="X8" s="244"/>
-      <c r="Y8" s="244"/>
+      <c r="X8" s="243"/>
+      <c r="Y8" s="243"/>
       <c r="Z8" s="172" t="s">
         <v>19</v>
       </c>
@@ -8697,7 +8705,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="138">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I20" s="210">
         <v>20</v>
@@ -8708,12 +8716,18 @@
       <c r="K20" s="210">
         <v>20</v>
       </c>
-      <c r="L20" s="210"/>
-      <c r="M20" s="210"/>
-      <c r="N20" s="210"/>
+      <c r="L20" s="210">
+        <v>20</v>
+      </c>
+      <c r="M20" s="210">
+        <v>20</v>
+      </c>
+      <c r="N20" s="210">
+        <v>20</v>
+      </c>
       <c r="O20" s="135">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="P20" s="132">
         <f>'2018(NOT UPDATED)'!S24</f>
@@ -8721,23 +8735,23 @@
       </c>
       <c r="Q20" s="132">
         <f>140-SUM(C20:K20)</f>
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="R20" s="132">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="S20" s="135">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="T20" s="211">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>-60</v>
       </c>
       <c r="U20" s="212" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
+        <v>OK</v>
       </c>
       <c r="V20" s="135"/>
       <c r="X20" s="135">
@@ -10804,44 +10818,64 @@
       <c r="B39" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
+      <c r="C39" s="73">
+        <v>20</v>
+      </c>
+      <c r="D39" s="73">
+        <v>20</v>
+      </c>
+      <c r="E39" s="73">
+        <v>20</v>
+      </c>
+      <c r="F39" s="73">
+        <v>20</v>
+      </c>
+      <c r="G39" s="73">
+        <v>20</v>
+      </c>
+      <c r="H39" s="73">
+        <v>20</v>
+      </c>
+      <c r="I39" s="73">
+        <v>20</v>
+      </c>
+      <c r="J39" s="73">
+        <v>20</v>
+      </c>
+      <c r="K39" s="73">
+        <v>20</v>
+      </c>
+      <c r="L39" s="73">
+        <v>20</v>
+      </c>
       <c r="M39" s="72"/>
       <c r="N39" s="72"/>
       <c r="O39" s="13">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P39" s="130">
         <v>0</v>
       </c>
       <c r="Q39" s="131">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R39" s="132">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S39" s="13">
         <f t="shared" si="10"/>
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="T39" s="14">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>-20</v>
       </c>
       <c r="U39" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
+        <v>OK</v>
       </c>
       <c r="V39" s="13"/>
       <c r="W39" s="134"/>
@@ -11983,10 +12017,10 @@
       <c r="X49" s="24"/>
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
-      <c r="AA49" s="241" t="s">
+      <c r="AA49" s="244" t="s">
         <v>142</v>
       </c>
-      <c r="AB49" s="242"/>
+      <c r="AB49" s="245"/>
       <c r="AC49" s="16">
         <f>SUM(AC9:AC21)</f>
         <v>20000</v>
@@ -12064,12 +12098,12 @@
       <c r="AE50" s="21"/>
       <c r="AF50" s="21"/>
       <c r="AG50" s="21"/>
-      <c r="AI50" s="237" t="s">
+      <c r="AI50" s="251" t="s">
         <v>170</v>
       </c>
-      <c r="AJ50" s="238"/>
-      <c r="AK50" s="238"/>
-      <c r="AL50" s="239"/>
+      <c r="AJ50" s="252"/>
+      <c r="AK50" s="252"/>
+      <c r="AL50" s="253"/>
       <c r="AM50" s="40">
         <v>3077000</v>
       </c>
@@ -12130,12 +12164,12 @@
       <c r="AF51" s="21"/>
       <c r="AG51" s="21"/>
       <c r="AH51" s="21"/>
-      <c r="AI51" s="234" t="s">
+      <c r="AI51" s="248" t="s">
         <v>176</v>
       </c>
-      <c r="AJ51" s="235"/>
-      <c r="AK51" s="235"/>
-      <c r="AL51" s="236"/>
+      <c r="AJ51" s="249"/>
+      <c r="AK51" s="249"/>
+      <c r="AL51" s="250"/>
       <c r="AM51" s="41">
         <v>2550000</v>
       </c>
@@ -12401,14 +12435,14 @@
         <v>NO</v>
       </c>
       <c r="V55" s="2"/>
-      <c r="AC55" s="240"/>
-      <c r="AD55" s="240"/>
-      <c r="AI55" s="237" t="s">
+      <c r="AC55" s="254"/>
+      <c r="AD55" s="254"/>
+      <c r="AI55" s="251" t="s">
         <v>174</v>
       </c>
-      <c r="AJ55" s="238"/>
-      <c r="AK55" s="238"/>
-      <c r="AL55" s="239"/>
+      <c r="AJ55" s="252"/>
+      <c r="AK55" s="252"/>
+      <c r="AL55" s="253"/>
       <c r="AM55" s="38">
         <f>AM54</f>
         <v>2627000</v>
@@ -12661,32 +12695,32 @@
     <row r="61" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="246" t="s">
+      <c r="C63" s="234" t="s">
         <v>177</v>
       </c>
-      <c r="D63" s="247"/>
-      <c r="E63" s="247"/>
-      <c r="F63" s="247"/>
-      <c r="G63" s="248"/>
-      <c r="I63" s="252" t="s">
+      <c r="D63" s="235"/>
+      <c r="E63" s="235"/>
+      <c r="F63" s="235"/>
+      <c r="G63" s="236"/>
+      <c r="I63" s="240" t="s">
         <v>178</v>
       </c>
-      <c r="J63" s="252"/>
-      <c r="K63" s="252"/>
-      <c r="L63" s="252"/>
-      <c r="M63" s="252"/>
+      <c r="J63" s="240"/>
+      <c r="K63" s="240"/>
+      <c r="L63" s="240"/>
+      <c r="M63" s="240"/>
     </row>
     <row r="64" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="249"/>
-      <c r="D64" s="250"/>
-      <c r="E64" s="250"/>
-      <c r="F64" s="250"/>
-      <c r="G64" s="251"/>
-      <c r="I64" s="252"/>
-      <c r="J64" s="252"/>
-      <c r="K64" s="252"/>
-      <c r="L64" s="252"/>
-      <c r="M64" s="252"/>
+      <c r="C64" s="237"/>
+      <c r="D64" s="238"/>
+      <c r="E64" s="238"/>
+      <c r="F64" s="238"/>
+      <c r="G64" s="239"/>
+      <c r="I64" s="240"/>
+      <c r="J64" s="240"/>
+      <c r="K64" s="240"/>
+      <c r="L64" s="240"/>
+      <c r="M64" s="240"/>
     </row>
     <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13176,62 +13210,61 @@
     <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
+    <mergeCell ref="AI56:AL56"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="AI50:AL50"/>
+    <mergeCell ref="AI55:AL55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="AD7:AN7"/>
+    <mergeCell ref="X5:AN5"/>
+    <mergeCell ref="Z6:AN6"/>
     <mergeCell ref="P70:Q70"/>
     <mergeCell ref="C63:G64"/>
     <mergeCell ref="I63:M64"/>
     <mergeCell ref="C2:T3"/>
     <mergeCell ref="Y6:Y8"/>
     <mergeCell ref="X6:X8"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="AD7:AN7"/>
-    <mergeCell ref="X5:AN5"/>
-    <mergeCell ref="Z6:AN6"/>
-    <mergeCell ref="AI56:AL56"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="AI50:AL50"/>
-    <mergeCell ref="AI55:AL55"/>
-    <mergeCell ref="AC55:AD55"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:V60">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>IF(ISBLANK($B$4), 0, SEARCH($B$4,$B6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9:AK48">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH(("YES"),(AK9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9:AK48">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(AK9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:AN9 Y46:AC46 AD46:AL48 AC47:AC48 Y10:AL45 AM10:AN48">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>IF(ISBLANK($Z$4), 0, SEARCH($Z$4,$Y9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U60">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(U6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U60">
-    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH(("OK"),(U6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10:Y45">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>IF(AK10="YES",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:R60">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13279,17 +13312,17 @@
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
       <c r="C2" s="200"/>
-      <c r="D2" s="263" t="s">
+      <c r="D2" s="316" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="316"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="316"/>
       <c r="M2" s="201"/>
       <c r="N2" s="24"/>
     </row>
@@ -13307,205 +13340,205 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="203"/>
-      <c r="U3" s="305" t="s">
+      <c r="U3" s="255" t="s">
         <v>195</v>
       </c>
-      <c r="V3" s="306"/>
-      <c r="W3" s="307" t="s">
+      <c r="V3" s="256"/>
+      <c r="W3" s="257" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="306"/>
-      <c r="Y3" s="306"/>
-      <c r="Z3" s="306"/>
-      <c r="AA3" s="306"/>
-      <c r="AB3" s="306"/>
-      <c r="AC3" s="306"/>
-      <c r="AD3" s="308"/>
+      <c r="X3" s="256"/>
+      <c r="Y3" s="256"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="256"/>
+      <c r="AB3" s="256"/>
+      <c r="AC3" s="256"/>
+      <c r="AD3" s="258"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="264" t="s">
+      <c r="B4" s="311" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
-      <c r="F4" s="265"/>
+      <c r="C4" s="312"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
       <c r="G4" s="70">
         <v>1004200</v>
       </c>
       <c r="H4" s="24"/>
-      <c r="I4" s="266" t="s">
+      <c r="I4" s="264" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="243"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="243"/>
+      <c r="J4" s="246"/>
+      <c r="K4" s="246"/>
+      <c r="L4" s="246"/>
       <c r="M4" s="203"/>
-      <c r="U4" s="280" t="s">
+      <c r="U4" s="276" t="s">
         <v>196</v>
       </c>
-      <c r="V4" s="243"/>
-      <c r="W4" s="266" t="s">
+      <c r="V4" s="246"/>
+      <c r="W4" s="264" t="s">
         <v>198</v>
       </c>
-      <c r="X4" s="243"/>
-      <c r="Y4" s="243"/>
-      <c r="Z4" s="243"/>
-      <c r="AA4" s="243"/>
-      <c r="AB4" s="243"/>
-      <c r="AC4" s="243"/>
-      <c r="AD4" s="279"/>
+      <c r="X4" s="246"/>
+      <c r="Y4" s="246"/>
+      <c r="Z4" s="246"/>
+      <c r="AA4" s="246"/>
+      <c r="AB4" s="246"/>
+      <c r="AC4" s="246"/>
+      <c r="AD4" s="259"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="273" t="s">
+      <c r="B5" s="281" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="246"/>
       <c r="G5" s="173">
         <v>568329.18000000005</v>
       </c>
       <c r="H5" s="24"/>
-      <c r="I5" s="261" t="s">
+      <c r="I5" s="283" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="262"/>
-      <c r="K5" s="269">
+      <c r="J5" s="300"/>
+      <c r="K5" s="302">
         <f>G7</f>
         <v>2332529.1800000002</v>
       </c>
-      <c r="L5" s="270"/>
+      <c r="L5" s="303"/>
       <c r="M5" s="203"/>
-      <c r="U5" s="301" t="s">
+      <c r="U5" s="277" t="s">
         <v>233</v>
       </c>
-      <c r="V5" s="302"/>
-      <c r="W5" s="261" t="s">
+      <c r="V5" s="278"/>
+      <c r="W5" s="283" t="s">
         <v>234</v>
       </c>
-      <c r="X5" s="291"/>
-      <c r="Y5" s="291"/>
-      <c r="Z5" s="291"/>
-      <c r="AA5" s="291"/>
-      <c r="AB5" s="291"/>
-      <c r="AC5" s="291"/>
-      <c r="AD5" s="292"/>
+      <c r="X5" s="284"/>
+      <c r="Y5" s="284"/>
+      <c r="Z5" s="284"/>
+      <c r="AA5" s="284"/>
+      <c r="AB5" s="284"/>
+      <c r="AC5" s="284"/>
+      <c r="AD5" s="285"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="255" t="s">
+      <c r="B6" s="274" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="256"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
+      <c r="C6" s="275"/>
+      <c r="D6" s="275"/>
+      <c r="E6" s="275"/>
+      <c r="F6" s="275"/>
       <c r="G6" s="173">
         <v>760000</v>
       </c>
       <c r="H6" s="24"/>
-      <c r="I6" s="259" t="s">
+      <c r="I6" s="301" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="260"/>
-      <c r="K6" s="271">
+      <c r="J6" s="293"/>
+      <c r="K6" s="306">
         <f>Pengeluaran!F30</f>
         <v>903300</v>
       </c>
-      <c r="L6" s="272"/>
+      <c r="L6" s="307"/>
       <c r="M6" s="203"/>
-      <c r="U6" s="303"/>
-      <c r="V6" s="304"/>
-      <c r="W6" s="293" t="s">
+      <c r="U6" s="279"/>
+      <c r="V6" s="280"/>
+      <c r="W6" s="265" t="s">
         <v>235</v>
       </c>
-      <c r="X6" s="294"/>
-      <c r="Y6" s="294"/>
-      <c r="Z6" s="294"/>
-      <c r="AA6" s="294"/>
-      <c r="AB6" s="294"/>
-      <c r="AC6" s="294"/>
-      <c r="AD6" s="295"/>
+      <c r="X6" s="266"/>
+      <c r="Y6" s="266"/>
+      <c r="Z6" s="266"/>
+      <c r="AA6" s="266"/>
+      <c r="AB6" s="266"/>
+      <c r="AC6" s="266"/>
+      <c r="AD6" s="267"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="276" t="s">
+      <c r="B7" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="277"/>
-      <c r="F7" s="260"/>
+      <c r="C7" s="292"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="293"/>
       <c r="G7" s="173">
         <f>SUM(G4:G6)</f>
         <v>2332529.1800000002</v>
       </c>
       <c r="H7" s="24"/>
-      <c r="I7" s="259" t="s">
+      <c r="I7" s="301" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="260"/>
-      <c r="K7" s="267">
+      <c r="J7" s="293"/>
+      <c r="K7" s="304">
         <f>Pemasukkan!F31</f>
         <v>222000</v>
       </c>
-      <c r="L7" s="268"/>
+      <c r="L7" s="305"/>
       <c r="M7" s="203"/>
-      <c r="U7" s="309"/>
-      <c r="V7" s="310"/>
-      <c r="W7" s="266" t="s">
+      <c r="U7" s="262"/>
+      <c r="V7" s="263"/>
+      <c r="W7" s="264" t="s">
         <v>236</v>
       </c>
-      <c r="X7" s="243"/>
-      <c r="Y7" s="243"/>
-      <c r="Z7" s="243"/>
-      <c r="AA7" s="243"/>
-      <c r="AB7" s="243"/>
-      <c r="AC7" s="243"/>
-      <c r="AD7" s="279"/>
+      <c r="X7" s="246"/>
+      <c r="Y7" s="246"/>
+      <c r="Z7" s="246"/>
+      <c r="AA7" s="246"/>
+      <c r="AB7" s="246"/>
+      <c r="AC7" s="246"/>
+      <c r="AD7" s="259"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="202"/>
-      <c r="B8" s="274" t="s">
+      <c r="B8" s="313" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="275"/>
-      <c r="D8" s="275"/>
-      <c r="E8" s="275"/>
-      <c r="F8" s="275"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="314"/>
+      <c r="E8" s="314"/>
+      <c r="F8" s="314"/>
       <c r="G8" s="174">
         <f>K8</f>
         <v>1651229.1800000002</v>
       </c>
       <c r="H8" s="24"/>
-      <c r="I8" s="261" t="s">
+      <c r="I8" s="283" t="s">
         <v>191</v>
       </c>
-      <c r="J8" s="262"/>
-      <c r="K8" s="257">
+      <c r="J8" s="300"/>
+      <c r="K8" s="308">
         <f>(K5-K6)+K7</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="L8" s="258"/>
+      <c r="L8" s="309"/>
       <c r="M8" s="203"/>
-      <c r="U8" s="313" t="s">
+      <c r="U8" s="270" t="s">
         <v>197</v>
       </c>
-      <c r="V8" s="314"/>
-      <c r="W8" s="293" t="s">
+      <c r="V8" s="271"/>
+      <c r="W8" s="265" t="s">
         <v>199</v>
       </c>
-      <c r="X8" s="294"/>
-      <c r="Y8" s="294"/>
-      <c r="Z8" s="294"/>
-      <c r="AA8" s="294"/>
-      <c r="AB8" s="294"/>
-      <c r="AC8" s="294"/>
-      <c r="AD8" s="295"/>
+      <c r="X8" s="266"/>
+      <c r="Y8" s="266"/>
+      <c r="Z8" s="266"/>
+      <c r="AA8" s="266"/>
+      <c r="AB8" s="266"/>
+      <c r="AC8" s="266"/>
+      <c r="AD8" s="267"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="202"/>
@@ -13521,28 +13554,28 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="203"/>
-      <c r="U9" s="315"/>
-      <c r="V9" s="316"/>
-      <c r="W9" s="293" t="s">
+      <c r="U9" s="272"/>
+      <c r="V9" s="273"/>
+      <c r="W9" s="265" t="s">
         <v>239</v>
       </c>
-      <c r="X9" s="294"/>
-      <c r="Y9" s="294"/>
-      <c r="Z9" s="294"/>
-      <c r="AA9" s="294"/>
-      <c r="AB9" s="294"/>
-      <c r="AC9" s="294"/>
-      <c r="AD9" s="295"/>
+      <c r="X9" s="266"/>
+      <c r="Y9" s="266"/>
+      <c r="Z9" s="266"/>
+      <c r="AA9" s="266"/>
+      <c r="AB9" s="266"/>
+      <c r="AC9" s="266"/>
+      <c r="AD9" s="267"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="202"/>
-      <c r="B10" s="243" t="s">
+      <c r="B10" s="246" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
       <c r="G10" s="56">
         <f>G5</f>
         <v>568329.18000000005</v>
@@ -13553,30 +13586,30 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="203"/>
-      <c r="U10" s="255" t="s">
+      <c r="U10" s="274" t="s">
         <v>246</v>
       </c>
-      <c r="V10" s="256"/>
-      <c r="W10" s="243" t="s">
+      <c r="V10" s="275"/>
+      <c r="W10" s="246" t="s">
         <v>263</v>
       </c>
-      <c r="X10" s="243"/>
-      <c r="Y10" s="243"/>
-      <c r="Z10" s="243"/>
-      <c r="AA10" s="243"/>
-      <c r="AB10" s="243"/>
-      <c r="AC10" s="243"/>
-      <c r="AD10" s="279"/>
+      <c r="X10" s="246"/>
+      <c r="Y10" s="246"/>
+      <c r="Z10" s="246"/>
+      <c r="AA10" s="246"/>
+      <c r="AB10" s="246"/>
+      <c r="AC10" s="246"/>
+      <c r="AD10" s="259"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="202"/>
-      <c r="B11" s="243" t="s">
+      <c r="B11" s="246" t="s">
         <v>259</v>
       </c>
-      <c r="C11" s="243"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="243"/>
-      <c r="F11" s="243"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
       <c r="G11" s="56">
         <v>1089400</v>
       </c>
@@ -13586,30 +13619,30 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="203"/>
-      <c r="U11" s="255" t="s">
+      <c r="U11" s="274" t="s">
         <v>262</v>
       </c>
-      <c r="V11" s="256"/>
-      <c r="W11" s="311" t="s">
+      <c r="V11" s="275"/>
+      <c r="W11" s="268" t="s">
         <v>264</v>
       </c>
-      <c r="X11" s="311"/>
-      <c r="Y11" s="311"/>
-      <c r="Z11" s="311"/>
-      <c r="AA11" s="311"/>
-      <c r="AB11" s="311"/>
-      <c r="AC11" s="311"/>
-      <c r="AD11" s="312"/>
+      <c r="X11" s="268"/>
+      <c r="Y11" s="268"/>
+      <c r="Z11" s="268"/>
+      <c r="AA11" s="268"/>
+      <c r="AB11" s="268"/>
+      <c r="AC11" s="268"/>
+      <c r="AD11" s="269"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="202"/>
-      <c r="B12" s="278" t="s">
+      <c r="B12" s="315" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="278"/>
-      <c r="D12" s="278"/>
-      <c r="E12" s="278"/>
-      <c r="F12" s="278"/>
+      <c r="C12" s="315"/>
+      <c r="D12" s="315"/>
+      <c r="E12" s="315"/>
+      <c r="F12" s="315"/>
       <c r="G12" s="207">
         <f>SUM(G10:G11)</f>
         <v>1657729.1800000002</v>
@@ -13620,16 +13653,16 @@
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="203"/>
-      <c r="U12" s="255"/>
-      <c r="V12" s="256"/>
-      <c r="W12" s="243"/>
-      <c r="X12" s="243"/>
-      <c r="Y12" s="243"/>
-      <c r="Z12" s="243"/>
-      <c r="AA12" s="243"/>
-      <c r="AB12" s="243"/>
-      <c r="AC12" s="243"/>
-      <c r="AD12" s="279"/>
+      <c r="U12" s="274"/>
+      <c r="V12" s="275"/>
+      <c r="W12" s="246"/>
+      <c r="X12" s="246"/>
+      <c r="Y12" s="246"/>
+      <c r="Z12" s="246"/>
+      <c r="AA12" s="246"/>
+      <c r="AB12" s="246"/>
+      <c r="AC12" s="246"/>
+      <c r="AD12" s="259"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="204"/>
@@ -13645,221 +13678,221 @@
       <c r="K13" s="205"/>
       <c r="L13" s="205"/>
       <c r="M13" s="206"/>
-      <c r="U13" s="255"/>
-      <c r="V13" s="256"/>
-      <c r="W13" s="243"/>
-      <c r="X13" s="243"/>
-      <c r="Y13" s="243"/>
-      <c r="Z13" s="243"/>
-      <c r="AA13" s="243"/>
-      <c r="AB13" s="243"/>
-      <c r="AC13" s="243"/>
-      <c r="AD13" s="279"/>
+      <c r="U13" s="274"/>
+      <c r="V13" s="275"/>
+      <c r="W13" s="246"/>
+      <c r="X13" s="246"/>
+      <c r="Y13" s="246"/>
+      <c r="Z13" s="246"/>
+      <c r="AA13" s="246"/>
+      <c r="AB13" s="246"/>
+      <c r="AC13" s="246"/>
+      <c r="AD13" s="259"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U14" s="296"/>
-      <c r="V14" s="297"/>
-      <c r="W14" s="289"/>
-      <c r="X14" s="289"/>
-      <c r="Y14" s="289"/>
-      <c r="Z14" s="289"/>
-      <c r="AA14" s="289"/>
-      <c r="AB14" s="289"/>
-      <c r="AC14" s="289"/>
-      <c r="AD14" s="290"/>
+      <c r="U14" s="286"/>
+      <c r="V14" s="287"/>
+      <c r="W14" s="260"/>
+      <c r="X14" s="260"/>
+      <c r="Y14" s="260"/>
+      <c r="Z14" s="260"/>
+      <c r="AA14" s="260"/>
+      <c r="AB14" s="260"/>
+      <c r="AC14" s="260"/>
+      <c r="AD14" s="261"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="199"/>
       <c r="B18" s="200"/>
       <c r="C18" s="200"/>
-      <c r="D18" s="263" t="s">
+      <c r="D18" s="316" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="263"/>
-      <c r="F18" s="263"/>
-      <c r="G18" s="263"/>
-      <c r="H18" s="263"/>
-      <c r="I18" s="263"/>
-      <c r="J18" s="263"/>
-      <c r="K18" s="263"/>
-      <c r="L18" s="263"/>
+      <c r="E18" s="316"/>
+      <c r="F18" s="316"/>
+      <c r="G18" s="316"/>
+      <c r="H18" s="316"/>
+      <c r="I18" s="316"/>
+      <c r="J18" s="316"/>
+      <c r="K18" s="316"/>
+      <c r="L18" s="316"/>
       <c r="M18" s="201"/>
-      <c r="O18" s="298" t="s">
+      <c r="O18" s="288" t="s">
         <v>253</v>
       </c>
-      <c r="P18" s="299"/>
-      <c r="Q18" s="299"/>
-      <c r="R18" s="299"/>
-      <c r="S18" s="300"/>
+      <c r="P18" s="289"/>
+      <c r="Q18" s="289"/>
+      <c r="R18" s="289"/>
+      <c r="S18" s="290"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="202"/>
       <c r="M19" s="203"/>
-      <c r="O19" s="273" t="s">
+      <c r="O19" s="281" t="s">
         <v>254</v>
       </c>
-      <c r="P19" s="243"/>
-      <c r="Q19" s="243"/>
-      <c r="R19" s="243"/>
-      <c r="S19" s="279"/>
+      <c r="P19" s="246"/>
+      <c r="Q19" s="246"/>
+      <c r="R19" s="246"/>
+      <c r="S19" s="259"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="202"/>
-      <c r="B20" s="264" t="s">
+      <c r="B20" s="311" t="s">
         <v>257</v>
       </c>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265"/>
-      <c r="E20" s="265"/>
-      <c r="F20" s="265"/>
+      <c r="C20" s="312"/>
+      <c r="D20" s="312"/>
+      <c r="E20" s="312"/>
+      <c r="F20" s="312"/>
       <c r="G20" s="70">
         <v>160000</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="I20" s="266" t="s">
+      <c r="I20" s="264" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="243"/>
-      <c r="K20" s="243"/>
-      <c r="L20" s="243"/>
+      <c r="J20" s="246"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="246"/>
       <c r="M20" s="203"/>
-      <c r="O20" s="273" t="s">
+      <c r="O20" s="281" t="s">
         <v>255</v>
       </c>
-      <c r="P20" s="243"/>
-      <c r="Q20" s="243"/>
-      <c r="R20" s="243"/>
-      <c r="S20" s="279"/>
+      <c r="P20" s="246"/>
+      <c r="Q20" s="246"/>
+      <c r="R20" s="246"/>
+      <c r="S20" s="259"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="202"/>
-      <c r="B21" s="276" t="s">
+      <c r="B21" s="291" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="277"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="277"/>
-      <c r="F21" s="260"/>
+      <c r="C21" s="292"/>
+      <c r="D21" s="292"/>
+      <c r="E21" s="292"/>
+      <c r="F21" s="293"/>
       <c r="G21" s="173">
         <f>G12</f>
         <v>1657729.1800000002</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="I21" s="261" t="s">
+      <c r="I21" s="283" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="262"/>
-      <c r="K21" s="269">
+      <c r="J21" s="300"/>
+      <c r="K21" s="302">
         <f>G23</f>
         <v>2017729.1800000002</v>
       </c>
-      <c r="L21" s="270"/>
+      <c r="L21" s="303"/>
       <c r="M21" s="203"/>
       <c r="N21" s="197"/>
-      <c r="O21" s="273" t="s">
+      <c r="O21" s="281" t="s">
         <v>261</v>
       </c>
-      <c r="P21" s="243"/>
-      <c r="Q21" s="243"/>
-      <c r="R21" s="243"/>
-      <c r="S21" s="279"/>
+      <c r="P21" s="246"/>
+      <c r="Q21" s="246"/>
+      <c r="R21" s="246"/>
+      <c r="S21" s="259"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="202"/>
-      <c r="B22" s="282" t="s">
+      <c r="B22" s="294" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="283"/>
-      <c r="D22" s="283"/>
-      <c r="E22" s="283"/>
-      <c r="F22" s="284"/>
+      <c r="C22" s="295"/>
+      <c r="D22" s="295"/>
+      <c r="E22" s="295"/>
+      <c r="F22" s="296"/>
       <c r="G22" s="173">
         <v>200000</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="I22" s="259" t="s">
+      <c r="I22" s="301" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="260"/>
-      <c r="K22" s="271">
+      <c r="J22" s="293"/>
+      <c r="K22" s="306">
         <f>Pengeluaran!L30</f>
         <v>46000</v>
       </c>
-      <c r="L22" s="272"/>
+      <c r="L22" s="307"/>
       <c r="M22" s="203"/>
       <c r="N22" s="197"/>
-      <c r="O22" s="280" t="s">
+      <c r="O22" s="276" t="s">
         <v>265</v>
       </c>
-      <c r="P22" s="266"/>
-      <c r="Q22" s="266"/>
-      <c r="R22" s="266"/>
-      <c r="S22" s="281"/>
+      <c r="P22" s="264"/>
+      <c r="Q22" s="264"/>
+      <c r="R22" s="264"/>
+      <c r="S22" s="310"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="202"/>
-      <c r="B23" s="276" t="s">
+      <c r="B23" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="277"/>
-      <c r="D23" s="277"/>
-      <c r="E23" s="277"/>
-      <c r="F23" s="260"/>
+      <c r="C23" s="292"/>
+      <c r="D23" s="292"/>
+      <c r="E23" s="292"/>
+      <c r="F23" s="293"/>
       <c r="G23" s="173">
         <f>SUM(G20:G22)</f>
         <v>2017729.1800000002</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="I23" s="259" t="s">
+      <c r="I23" s="301" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="260"/>
-      <c r="K23" s="267">
+      <c r="J23" s="293"/>
+      <c r="K23" s="304">
         <f>Pemasukkan!F42</f>
         <v>0</v>
       </c>
-      <c r="L23" s="268"/>
+      <c r="L23" s="305"/>
       <c r="M23" s="203"/>
       <c r="N23" s="197"/>
-      <c r="O23" s="273" t="s">
+      <c r="O23" s="281" t="s">
         <v>267</v>
       </c>
-      <c r="P23" s="243"/>
-      <c r="Q23" s="243"/>
-      <c r="R23" s="243"/>
-      <c r="S23" s="279"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="259"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="202"/>
-      <c r="B24" s="285" t="s">
+      <c r="B24" s="297" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="286"/>
-      <c r="D24" s="286"/>
-      <c r="E24" s="286"/>
-      <c r="F24" s="287"/>
+      <c r="C24" s="298"/>
+      <c r="D24" s="298"/>
+      <c r="E24" s="298"/>
+      <c r="F24" s="299"/>
       <c r="G24" s="174">
         <f>K24</f>
         <v>1971729.1800000002</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="I24" s="261" t="s">
+      <c r="I24" s="283" t="s">
         <v>191</v>
       </c>
-      <c r="J24" s="262"/>
-      <c r="K24" s="257">
+      <c r="J24" s="300"/>
+      <c r="K24" s="308">
         <f>(K21-K22)+K23</f>
         <v>1971729.1800000002</v>
       </c>
-      <c r="L24" s="258"/>
+      <c r="L24" s="309"/>
       <c r="M24" s="203"/>
       <c r="N24" s="197"/>
-      <c r="O24" s="273"/>
-      <c r="P24" s="243"/>
-      <c r="Q24" s="243"/>
-      <c r="R24" s="243"/>
-      <c r="S24" s="279"/>
+      <c r="O24" s="281"/>
+      <c r="P24" s="246"/>
+      <c r="Q24" s="246"/>
+      <c r="R24" s="246"/>
+      <c r="S24" s="259"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="202"/>
@@ -13876,11 +13909,11 @@
       <c r="L25" s="24"/>
       <c r="M25" s="203"/>
       <c r="N25" s="197"/>
-      <c r="O25" s="273"/>
-      <c r="P25" s="243"/>
-      <c r="Q25" s="243"/>
-      <c r="R25" s="243"/>
-      <c r="S25" s="279"/>
+      <c r="O25" s="281"/>
+      <c r="P25" s="246"/>
+      <c r="Q25" s="246"/>
+      <c r="R25" s="246"/>
+      <c r="S25" s="259"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="202"/>
@@ -13897,11 +13930,11 @@
       <c r="L26" s="24"/>
       <c r="M26" s="203"/>
       <c r="N26" s="197"/>
-      <c r="O26" s="273"/>
-      <c r="P26" s="243"/>
-      <c r="Q26" s="243"/>
-      <c r="R26" s="243"/>
-      <c r="S26" s="279"/>
+      <c r="O26" s="281"/>
+      <c r="P26" s="246"/>
+      <c r="Q26" s="246"/>
+      <c r="R26" s="246"/>
+      <c r="S26" s="259"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="204"/>
@@ -13918,11 +13951,11 @@
       <c r="L27" s="205"/>
       <c r="M27" s="206"/>
       <c r="N27" s="197"/>
-      <c r="O27" s="288"/>
-      <c r="P27" s="289"/>
-      <c r="Q27" s="289"/>
-      <c r="R27" s="289"/>
-      <c r="S27" s="290"/>
+      <c r="O27" s="282"/>
+      <c r="P27" s="260"/>
+      <c r="Q27" s="260"/>
+      <c r="R27" s="260"/>
+      <c r="S27" s="261"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="197"/>
@@ -13946,8 +13979,57 @@
       <c r="S28" s="197"/>
     </row>
   </sheetData>
-  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="66">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="W4:AD4"/>
+    <mergeCell ref="W8:AD8"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="O23:S23"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:AD3"/>
     <mergeCell ref="W12:AD12"/>
@@ -13964,56 +14046,6 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:AD4"/>
-    <mergeCell ref="W8:AD8"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="W6:AD6"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14046,44 +14078,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="317" t="s">
+      <c r="C2" s="326" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="318"/>
-      <c r="E2" s="318"/>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
+      <c r="K2" s="327"/>
     </row>
     <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="327"/>
+      <c r="E3" s="327"/>
+      <c r="F3" s="327"/>
+      <c r="G3" s="327"/>
+      <c r="H3" s="327"/>
+      <c r="I3" s="327"/>
+      <c r="J3" s="327"/>
+      <c r="K3" s="327"/>
     </row>
     <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="325" t="s">
+      <c r="C5" s="319" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="I5" s="325" t="s">
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="I5" s="319" t="s">
         <v>251</v>
       </c>
-      <c r="J5" s="325"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
+      <c r="J5" s="319"/>
+      <c r="K5" s="319"/>
+      <c r="L5" s="319"/>
+      <c r="M5" s="319"/>
     </row>
     <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
@@ -14483,88 +14515,88 @@
       <c r="M28" s="197"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="264" t="s">
+      <c r="D29" s="311" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="265"/>
-      <c r="F29" s="319">
+      <c r="E29" s="312"/>
+      <c r="F29" s="320">
         <f>'Hitung Pemasukan Pengeluaran'!G6</f>
         <v>760000</v>
       </c>
-      <c r="G29" s="320"/>
+      <c r="G29" s="321"/>
       <c r="I29" s="197"/>
-      <c r="J29" s="264" t="s">
+      <c r="J29" s="311" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="265"/>
-      <c r="L29" s="319">
+      <c r="K29" s="312"/>
+      <c r="L29" s="320">
         <f>'Hitung Pemasukan Pengeluaran'!G23</f>
         <v>2017729.1800000002</v>
       </c>
-      <c r="M29" s="320"/>
+      <c r="M29" s="321"/>
     </row>
     <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="280" t="s">
+      <c r="D30" s="276" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="243"/>
-      <c r="F30" s="321">
+      <c r="E30" s="246"/>
+      <c r="F30" s="322">
         <f>Pengeluaran!F30</f>
         <v>903300</v>
       </c>
-      <c r="G30" s="322"/>
+      <c r="G30" s="323"/>
       <c r="I30" s="197"/>
-      <c r="J30" s="280" t="s">
+      <c r="J30" s="276" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="243"/>
-      <c r="L30" s="321">
+      <c r="K30" s="246"/>
+      <c r="L30" s="322">
         <f>Pengeluaran!L30</f>
         <v>46000</v>
       </c>
-      <c r="M30" s="322"/>
+      <c r="M30" s="323"/>
     </row>
     <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="273" t="s">
+      <c r="D31" s="281" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="243"/>
-      <c r="F31" s="326">
+      <c r="E31" s="246"/>
+      <c r="F31" s="324">
         <f>F27</f>
         <v>222000</v>
       </c>
-      <c r="G31" s="327"/>
+      <c r="G31" s="325"/>
       <c r="I31" s="197"/>
-      <c r="J31" s="273" t="s">
+      <c r="J31" s="281" t="s">
         <v>98</v>
       </c>
-      <c r="K31" s="243"/>
-      <c r="L31" s="326">
+      <c r="K31" s="246"/>
+      <c r="L31" s="324">
         <f>L27</f>
         <v>0</v>
       </c>
-      <c r="M31" s="327"/>
+      <c r="M31" s="325"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="274" t="s">
+      <c r="D32" s="313" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="275"/>
-      <c r="F32" s="323">
+      <c r="E32" s="314"/>
+      <c r="F32" s="317">
         <f>'Hitung Pemasukan Pengeluaran'!G8</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="G32" s="324"/>
+      <c r="G32" s="318"/>
       <c r="I32" s="197"/>
-      <c r="J32" s="274" t="s">
+      <c r="J32" s="313" t="s">
         <v>190</v>
       </c>
-      <c r="K32" s="275"/>
-      <c r="L32" s="323">
+      <c r="K32" s="314"/>
+      <c r="L32" s="317">
         <f>'Hitung Pemasukan Pengeluaran'!G24</f>
         <v>1971729.1800000002</v>
       </c>
-      <c r="M32" s="324"/>
+      <c r="M32" s="318"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14757,6 +14789,12 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
+    <mergeCell ref="C2:K3"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J29:K29"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="I5:M5"/>
@@ -14770,12 +14808,6 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="J32:K32"/>
-    <mergeCell ref="C2:K3"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -14807,44 +14839,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="328" t="s">
+      <c r="C2" s="332" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="333"/>
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
     </row>
     <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
+      <c r="C3" s="333"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="333"/>
+      <c r="F3" s="333"/>
+      <c r="G3" s="333"/>
+      <c r="H3" s="333"/>
+      <c r="I3" s="333"/>
+      <c r="J3" s="333"/>
+      <c r="K3" s="333"/>
     </row>
     <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="325" t="s">
+      <c r="C5" s="319" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="I5" s="325" t="s">
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="I5" s="319" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="325"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
+      <c r="J5" s="319"/>
+      <c r="K5" s="319"/>
+      <c r="L5" s="319"/>
+      <c r="M5" s="319"/>
     </row>
     <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
@@ -15270,20 +15302,20 @@
       <c r="M28" s="197"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="305" t="s">
+      <c r="D29" s="255" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="307"/>
+      <c r="E29" s="257"/>
       <c r="F29" s="330">
         <f>'Hitung Pemasukan Pengeluaran'!G6</f>
         <v>760000</v>
       </c>
       <c r="G29" s="331"/>
       <c r="I29" s="197"/>
-      <c r="J29" s="305" t="s">
+      <c r="J29" s="255" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="307"/>
+      <c r="K29" s="257"/>
       <c r="L29" s="330">
         <f>'Hitung Pemasukan Pengeluaran'!G23</f>
         <v>2017729.1800000002</v>
@@ -15291,67 +15323,67 @@
       <c r="M29" s="331"/>
     </row>
     <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="273" t="s">
+      <c r="D30" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="243"/>
-      <c r="F30" s="321">
+      <c r="E30" s="246"/>
+      <c r="F30" s="322">
         <f>F27</f>
         <v>903300</v>
       </c>
-      <c r="G30" s="322"/>
+      <c r="G30" s="323"/>
       <c r="I30" s="197"/>
-      <c r="J30" s="273" t="s">
+      <c r="J30" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="243"/>
-      <c r="L30" s="321">
+      <c r="K30" s="246"/>
+      <c r="L30" s="322">
         <f>L27</f>
         <v>46000</v>
       </c>
-      <c r="M30" s="322"/>
+      <c r="M30" s="323"/>
     </row>
     <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="273" t="s">
+      <c r="D31" s="281" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="243"/>
-      <c r="F31" s="326">
+      <c r="E31" s="246"/>
+      <c r="F31" s="324">
         <f>Pemasukkan!F27</f>
         <v>222000</v>
       </c>
-      <c r="G31" s="327"/>
+      <c r="G31" s="325"/>
       <c r="I31" s="197"/>
-      <c r="J31" s="273" t="s">
+      <c r="J31" s="281" t="s">
         <v>98</v>
       </c>
-      <c r="K31" s="243"/>
-      <c r="L31" s="326">
+      <c r="K31" s="246"/>
+      <c r="L31" s="324">
         <f>Pemasukkan!L27</f>
         <v>0</v>
       </c>
-      <c r="M31" s="327"/>
+      <c r="M31" s="325"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="274" t="s">
+      <c r="D32" s="313" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="275"/>
-      <c r="F32" s="332">
+      <c r="E32" s="314"/>
+      <c r="F32" s="328">
         <f>'Hitung Pemasukan Pengeluaran'!G8</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="G32" s="333"/>
+      <c r="G32" s="329"/>
       <c r="I32" s="197"/>
-      <c r="J32" s="274" t="s">
+      <c r="J32" s="313" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="275"/>
-      <c r="L32" s="332">
+      <c r="K32" s="314"/>
+      <c r="L32" s="328">
         <f>'Hitung Pemasukan Pengeluaran'!M8</f>
         <v>0</v>
       </c>
-      <c r="M32" s="333"/>
+      <c r="M32" s="329"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15544,14 +15576,6 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
@@ -15563,6 +15587,14 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="533" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="533" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2018(NOT UPDATED)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="270">
   <si>
     <t>LAPORAN KEUANGAN KAS GAS</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>Ruman Bayar KAS 60k tunai</t>
+  </si>
+  <si>
+    <t>Ruman KAS 70k tunai</t>
+  </si>
+  <si>
+    <t>Dia KAS 200k tunai</t>
   </si>
 </sst>
 </file>
@@ -2400,29 +2406,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2438,37 +2435,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2476,28 +2475,185 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2512,33 +2668,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2557,133 +2692,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2695,47 +2719,29 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="13" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2778,15 +2784,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -3602,126 +3600,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="220"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="214"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="221"/>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="222"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="222"/>
+      <c r="A2" s="215"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="221"/>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="222"/>
-      <c r="H3" s="222"/>
-      <c r="I3" s="222"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="222"/>
-      <c r="M3" s="222"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="222"/>
-      <c r="P3" s="222"/>
-      <c r="Q3" s="222"/>
-      <c r="R3" s="222"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="216"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="221"/>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="222"/>
-      <c r="J4" s="222"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="222"/>
-      <c r="O4" s="222"/>
-      <c r="P4" s="222"/>
-      <c r="Q4" s="222"/>
-      <c r="R4" s="222"/>
+      <c r="A4" s="215"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+      <c r="K4" s="216"/>
+      <c r="L4" s="216"/>
+      <c r="M4" s="216"/>
+      <c r="N4" s="216"/>
+      <c r="O4" s="216"/>
+      <c r="P4" s="216"/>
+      <c r="Q4" s="216"/>
+      <c r="R4" s="216"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="221"/>
-      <c r="B5" s="222"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="222"/>
-      <c r="J5" s="222"/>
-      <c r="K5" s="222"/>
-      <c r="L5" s="222"/>
-      <c r="M5" s="222"/>
-      <c r="N5" s="222"/>
-      <c r="O5" s="222"/>
-      <c r="P5" s="222"/>
-      <c r="Q5" s="222"/>
-      <c r="R5" s="222"/>
+      <c r="A5" s="215"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="216"/>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="216"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="221"/>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="222"/>
-      <c r="N6" s="222"/>
-      <c r="O6" s="222"/>
-      <c r="P6" s="222"/>
-      <c r="Q6" s="222"/>
-      <c r="R6" s="222"/>
+      <c r="A6" s="215"/>
+      <c r="B6" s="216"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="216"/>
+      <c r="L6" s="216"/>
+      <c r="M6" s="216"/>
+      <c r="N6" s="216"/>
+      <c r="O6" s="216"/>
+      <c r="P6" s="216"/>
+      <c r="Q6" s="216"/>
+      <c r="R6" s="216"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="s">
@@ -6666,58 +6664,58 @@
     <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J79" s="224" t="s">
+      <c r="J79" s="221" t="s">
         <v>65</v>
       </c>
-      <c r="K79" s="225"/>
-      <c r="L79" s="225"/>
-      <c r="M79" s="225"/>
-      <c r="N79" s="226"/>
-      <c r="P79" s="232" t="s">
+      <c r="K79" s="222"/>
+      <c r="L79" s="222"/>
+      <c r="M79" s="222"/>
+      <c r="N79" s="223"/>
+      <c r="P79" s="229" t="s">
         <v>66</v>
       </c>
-      <c r="Q79" s="225"/>
-      <c r="R79" s="225"/>
-      <c r="S79" s="226"/>
+      <c r="Q79" s="222"/>
+      <c r="R79" s="222"/>
+      <c r="S79" s="223"/>
     </row>
     <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J80" s="227" t="s">
+      <c r="J80" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="K80" s="222"/>
-      <c r="L80" s="222"/>
-      <c r="M80" s="222"/>
-      <c r="N80" s="228"/>
-      <c r="P80" s="227" t="s">
+      <c r="K80" s="216"/>
+      <c r="L80" s="216"/>
+      <c r="M80" s="216"/>
+      <c r="N80" s="225"/>
+      <c r="P80" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="Q80" s="222"/>
-      <c r="R80" s="222"/>
-      <c r="S80" s="228"/>
+      <c r="Q80" s="216"/>
+      <c r="R80" s="216"/>
+      <c r="S80" s="225"/>
     </row>
     <row r="81" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J81" s="229"/>
-      <c r="K81" s="230"/>
-      <c r="L81" s="230"/>
-      <c r="M81" s="230"/>
-      <c r="N81" s="231"/>
-      <c r="P81" s="229"/>
-      <c r="Q81" s="230"/>
-      <c r="R81" s="230"/>
-      <c r="S81" s="231"/>
+      <c r="J81" s="226"/>
+      <c r="K81" s="227"/>
+      <c r="L81" s="227"/>
+      <c r="M81" s="227"/>
+      <c r="N81" s="228"/>
+      <c r="P81" s="226"/>
+      <c r="Q81" s="227"/>
+      <c r="R81" s="227"/>
+      <c r="S81" s="228"/>
     </row>
     <row r="82" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J82" s="223" t="s">
+      <c r="J82" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="K82" s="214"/>
-      <c r="L82" s="215"/>
-      <c r="M82" s="223" t="s">
+      <c r="K82" s="220"/>
+      <c r="L82" s="218"/>
+      <c r="M82" s="219" t="s">
         <v>69</v>
       </c>
-      <c r="N82" s="215"/>
-      <c r="P82" s="223"/>
-      <c r="Q82" s="215"/>
+      <c r="N82" s="218"/>
+      <c r="P82" s="219"/>
+      <c r="Q82" s="218"/>
       <c r="R82" s="3" t="s">
         <v>19</v>
       </c>
@@ -6726,38 +6724,38 @@
       </c>
     </row>
     <row r="83" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J83" s="213" t="s">
+      <c r="J83" s="230" t="s">
         <v>70</v>
       </c>
-      <c r="K83" s="214"/>
-      <c r="L83" s="215"/>
-      <c r="M83" s="216">
+      <c r="K83" s="220"/>
+      <c r="L83" s="218"/>
+      <c r="M83" s="231">
         <v>7350000</v>
       </c>
-      <c r="N83" s="215"/>
+      <c r="N83" s="218"/>
       <c r="P83" s="217" t="s">
         <v>71</v>
       </c>
-      <c r="Q83" s="215"/>
+      <c r="Q83" s="218"/>
       <c r="R83" s="4"/>
       <c r="S83" s="5">
         <v>40000</v>
       </c>
     </row>
     <row r="84" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J84" s="213" t="s">
+      <c r="J84" s="230" t="s">
         <v>72</v>
       </c>
-      <c r="K84" s="214"/>
-      <c r="L84" s="215"/>
-      <c r="M84" s="218">
+      <c r="K84" s="220"/>
+      <c r="L84" s="218"/>
+      <c r="M84" s="232">
         <v>1100000</v>
       </c>
-      <c r="N84" s="215"/>
+      <c r="N84" s="218"/>
       <c r="P84" s="217" t="s">
         <v>73</v>
       </c>
-      <c r="Q84" s="215"/>
+      <c r="Q84" s="218"/>
       <c r="R84" s="6" t="s">
         <v>74</v>
       </c>
@@ -6766,39 +6764,39 @@
       </c>
     </row>
     <row r="85" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J85" s="213" t="s">
+      <c r="J85" s="230" t="s">
         <v>75</v>
       </c>
-      <c r="K85" s="214"/>
-      <c r="L85" s="215"/>
-      <c r="M85" s="216">
+      <c r="K85" s="220"/>
+      <c r="L85" s="218"/>
+      <c r="M85" s="231">
         <f>M83+M84</f>
         <v>8450000</v>
       </c>
-      <c r="N85" s="215"/>
+      <c r="N85" s="218"/>
       <c r="P85" s="217" t="s">
         <v>76</v>
       </c>
-      <c r="Q85" s="215"/>
+      <c r="Q85" s="218"/>
       <c r="R85" s="4"/>
       <c r="S85" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J86" s="213" t="s">
+      <c r="J86" s="230" t="s">
         <v>77</v>
       </c>
-      <c r="K86" s="214"/>
-      <c r="L86" s="215"/>
-      <c r="M86" s="216">
+      <c r="K86" s="220"/>
+      <c r="L86" s="218"/>
+      <c r="M86" s="231">
         <v>8411850</v>
       </c>
-      <c r="N86" s="215"/>
+      <c r="N86" s="218"/>
       <c r="P86" s="217" t="s">
         <v>78</v>
       </c>
-      <c r="Q86" s="215"/>
+      <c r="Q86" s="218"/>
       <c r="R86" s="4"/>
       <c r="S86" s="5">
         <f>S83-S84+S85</f>
@@ -6806,20 +6804,20 @@
       </c>
     </row>
     <row r="87" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J87" s="213" t="s">
+      <c r="J87" s="230" t="s">
         <v>79</v>
       </c>
-      <c r="K87" s="214"/>
-      <c r="L87" s="215"/>
-      <c r="M87" s="216">
+      <c r="K87" s="220"/>
+      <c r="L87" s="218"/>
+      <c r="M87" s="231">
         <f>M85-M86</f>
         <v>38150</v>
       </c>
-      <c r="N87" s="215"/>
+      <c r="N87" s="218"/>
       <c r="P87" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="Q87" s="215"/>
+      <c r="Q87" s="218"/>
       <c r="R87" s="4"/>
       <c r="S87" s="5">
         <f>M87+S86</f>
@@ -7008,6 +7006,17 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="23">
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="M84:N84"/>
     <mergeCell ref="A1:R6"/>
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="J82:L82"/>
@@ -7020,38 +7029,27 @@
     <mergeCell ref="P83:Q83"/>
     <mergeCell ref="P82:Q82"/>
     <mergeCell ref="P80:S81"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P86:Q86"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T52">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S52">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S51">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>$S$12=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7064,7 +7062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BM260"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="L16" colorId="8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView defaultGridColor="0" topLeftCell="L16" colorId="8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
@@ -7107,46 +7105,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="C2" s="241" t="s">
+      <c r="C2" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="221"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="222"/>
-      <c r="H3" s="222"/>
-      <c r="I3" s="222"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="222"/>
-      <c r="M3" s="222"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="222"/>
-      <c r="P3" s="222"/>
-      <c r="Q3" s="222"/>
-      <c r="R3" s="222"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="222"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="216"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="216"/>
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7233,25 +7231,25 @@
       <c r="V5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="247" t="s">
+      <c r="X5" s="245" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="214"/>
-      <c r="Z5" s="214"/>
-      <c r="AA5" s="214"/>
-      <c r="AB5" s="214"/>
-      <c r="AC5" s="214"/>
-      <c r="AD5" s="214"/>
-      <c r="AE5" s="214"/>
-      <c r="AF5" s="214"/>
-      <c r="AG5" s="214"/>
-      <c r="AH5" s="214"/>
-      <c r="AI5" s="214"/>
-      <c r="AJ5" s="214"/>
-      <c r="AK5" s="214"/>
-      <c r="AL5" s="214"/>
-      <c r="AM5" s="214"/>
-      <c r="AN5" s="215"/>
+      <c r="Y5" s="220"/>
+      <c r="Z5" s="220"/>
+      <c r="AA5" s="220"/>
+      <c r="AB5" s="220"/>
+      <c r="AC5" s="220"/>
+      <c r="AD5" s="220"/>
+      <c r="AE5" s="220"/>
+      <c r="AF5" s="220"/>
+      <c r="AG5" s="220"/>
+      <c r="AH5" s="220"/>
+      <c r="AI5" s="220"/>
+      <c r="AJ5" s="220"/>
+      <c r="AK5" s="220"/>
+      <c r="AL5" s="220"/>
+      <c r="AM5" s="220"/>
+      <c r="AN5" s="218"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -7316,29 +7314,29 @@
         <v>NO</v>
       </c>
       <c r="V6" s="13"/>
-      <c r="X6" s="242" t="s">
+      <c r="X6" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="242" t="s">
+      <c r="Y6" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="Z6" s="246" t="s">
+      <c r="Z6" s="243" t="s">
         <v>86</v>
       </c>
-      <c r="AA6" s="243"/>
-      <c r="AB6" s="243"/>
-      <c r="AC6" s="243"/>
-      <c r="AD6" s="243"/>
-      <c r="AE6" s="243"/>
-      <c r="AF6" s="243"/>
-      <c r="AG6" s="243"/>
-      <c r="AH6" s="243"/>
-      <c r="AI6" s="243"/>
-      <c r="AJ6" s="243"/>
-      <c r="AK6" s="243"/>
-      <c r="AL6" s="243"/>
-      <c r="AM6" s="243"/>
-      <c r="AN6" s="243"/>
+      <c r="AA6" s="244"/>
+      <c r="AB6" s="244"/>
+      <c r="AC6" s="244"/>
+      <c r="AD6" s="244"/>
+      <c r="AE6" s="244"/>
+      <c r="AF6" s="244"/>
+      <c r="AG6" s="244"/>
+      <c r="AH6" s="244"/>
+      <c r="AI6" s="244"/>
+      <c r="AJ6" s="244"/>
+      <c r="AK6" s="244"/>
+      <c r="AL6" s="244"/>
+      <c r="AM6" s="244"/>
+      <c r="AN6" s="244"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -7401,27 +7399,27 @@
         <v>NO</v>
       </c>
       <c r="V7" s="13"/>
-      <c r="X7" s="243"/>
-      <c r="Y7" s="243"/>
-      <c r="Z7" s="246" t="s">
+      <c r="X7" s="244"/>
+      <c r="Y7" s="244"/>
+      <c r="Z7" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="243"/>
-      <c r="AB7" s="243"/>
-      <c r="AC7" s="243"/>
-      <c r="AD7" s="246" t="s">
+      <c r="AA7" s="244"/>
+      <c r="AB7" s="244"/>
+      <c r="AC7" s="244"/>
+      <c r="AD7" s="243" t="s">
         <v>88</v>
       </c>
-      <c r="AE7" s="243"/>
-      <c r="AF7" s="243"/>
-      <c r="AG7" s="243"/>
-      <c r="AH7" s="243"/>
-      <c r="AI7" s="243"/>
-      <c r="AJ7" s="243"/>
-      <c r="AK7" s="243"/>
-      <c r="AL7" s="243"/>
-      <c r="AM7" s="243"/>
-      <c r="AN7" s="243"/>
+      <c r="AE7" s="244"/>
+      <c r="AF7" s="244"/>
+      <c r="AG7" s="244"/>
+      <c r="AH7" s="244"/>
+      <c r="AI7" s="244"/>
+      <c r="AJ7" s="244"/>
+      <c r="AK7" s="244"/>
+      <c r="AL7" s="244"/>
+      <c r="AM7" s="244"/>
+      <c r="AN7" s="244"/>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -7471,8 +7469,8 @@
         <v>NO</v>
       </c>
       <c r="V8" s="13"/>
-      <c r="X8" s="243"/>
-      <c r="Y8" s="243"/>
+      <c r="X8" s="244"/>
+      <c r="Y8" s="244"/>
       <c r="Z8" s="172" t="s">
         <v>19</v>
       </c>
@@ -12017,10 +12015,10 @@
       <c r="X49" s="24"/>
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
-      <c r="AA49" s="244" t="s">
+      <c r="AA49" s="241" t="s">
         <v>142</v>
       </c>
-      <c r="AB49" s="245"/>
+      <c r="AB49" s="242"/>
       <c r="AC49" s="16">
         <f>SUM(AC9:AC21)</f>
         <v>20000</v>
@@ -12098,12 +12096,12 @@
       <c r="AE50" s="21"/>
       <c r="AF50" s="21"/>
       <c r="AG50" s="21"/>
-      <c r="AI50" s="251" t="s">
+      <c r="AI50" s="237" t="s">
         <v>170</v>
       </c>
-      <c r="AJ50" s="252"/>
-      <c r="AK50" s="252"/>
-      <c r="AL50" s="253"/>
+      <c r="AJ50" s="238"/>
+      <c r="AK50" s="238"/>
+      <c r="AL50" s="239"/>
       <c r="AM50" s="40">
         <v>3077000</v>
       </c>
@@ -12164,12 +12162,12 @@
       <c r="AF51" s="21"/>
       <c r="AG51" s="21"/>
       <c r="AH51" s="21"/>
-      <c r="AI51" s="248" t="s">
+      <c r="AI51" s="234" t="s">
         <v>176</v>
       </c>
-      <c r="AJ51" s="249"/>
-      <c r="AK51" s="249"/>
-      <c r="AL51" s="250"/>
+      <c r="AJ51" s="235"/>
+      <c r="AK51" s="235"/>
+      <c r="AL51" s="236"/>
       <c r="AM51" s="41">
         <v>2550000</v>
       </c>
@@ -12435,14 +12433,14 @@
         <v>NO</v>
       </c>
       <c r="V55" s="2"/>
-      <c r="AC55" s="254"/>
-      <c r="AD55" s="254"/>
-      <c r="AI55" s="251" t="s">
+      <c r="AC55" s="240"/>
+      <c r="AD55" s="240"/>
+      <c r="AI55" s="237" t="s">
         <v>174</v>
       </c>
-      <c r="AJ55" s="252"/>
-      <c r="AK55" s="252"/>
-      <c r="AL55" s="253"/>
+      <c r="AJ55" s="238"/>
+      <c r="AK55" s="238"/>
+      <c r="AL55" s="239"/>
       <c r="AM55" s="38">
         <f>AM54</f>
         <v>2627000</v>
@@ -12695,32 +12693,32 @@
     <row r="61" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="234" t="s">
+      <c r="C63" s="246" t="s">
         <v>177</v>
       </c>
-      <c r="D63" s="235"/>
-      <c r="E63" s="235"/>
-      <c r="F63" s="235"/>
-      <c r="G63" s="236"/>
-      <c r="I63" s="240" t="s">
+      <c r="D63" s="247"/>
+      <c r="E63" s="247"/>
+      <c r="F63" s="247"/>
+      <c r="G63" s="248"/>
+      <c r="I63" s="252" t="s">
         <v>178</v>
       </c>
-      <c r="J63" s="240"/>
-      <c r="K63" s="240"/>
-      <c r="L63" s="240"/>
-      <c r="M63" s="240"/>
+      <c r="J63" s="252"/>
+      <c r="K63" s="252"/>
+      <c r="L63" s="252"/>
+      <c r="M63" s="252"/>
     </row>
     <row r="64" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="237"/>
-      <c r="D64" s="238"/>
-      <c r="E64" s="238"/>
-      <c r="F64" s="238"/>
-      <c r="G64" s="239"/>
-      <c r="I64" s="240"/>
-      <c r="J64" s="240"/>
-      <c r="K64" s="240"/>
-      <c r="L64" s="240"/>
-      <c r="M64" s="240"/>
+      <c r="C64" s="249"/>
+      <c r="D64" s="250"/>
+      <c r="E64" s="250"/>
+      <c r="F64" s="250"/>
+      <c r="G64" s="251"/>
+      <c r="I64" s="252"/>
+      <c r="J64" s="252"/>
+      <c r="K64" s="252"/>
+      <c r="L64" s="252"/>
+      <c r="M64" s="252"/>
     </row>
     <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13210,74 +13208,75 @@
     <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
-    <mergeCell ref="AI56:AL56"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="AI50:AL50"/>
-    <mergeCell ref="AI55:AL55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="AD7:AN7"/>
-    <mergeCell ref="X5:AN5"/>
-    <mergeCell ref="Z6:AN6"/>
     <mergeCell ref="P70:Q70"/>
     <mergeCell ref="C63:G64"/>
     <mergeCell ref="I63:M64"/>
     <mergeCell ref="C2:T3"/>
     <mergeCell ref="Y6:Y8"/>
     <mergeCell ref="X6:X8"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="AD7:AN7"/>
+    <mergeCell ref="X5:AN5"/>
+    <mergeCell ref="Z6:AN6"/>
+    <mergeCell ref="AI56:AL56"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="AI50:AL50"/>
+    <mergeCell ref="AI55:AL55"/>
+    <mergeCell ref="AC55:AD55"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:V60">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>IF(ISBLANK($B$4), 0, SEARCH($B$4,$B6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9:AK48">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH(("YES"),(AK9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9:AK48">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(AK9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:AN9 Y46:AC46 AD46:AL48 AC47:AC48 Y10:AL45 AM10:AN48">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>IF(ISBLANK($Z$4), 0, SEARCH($Z$4,$Y9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U60">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH(("NO"),(U6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U60">
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH(("OK"),(U6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10:Y45">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>IF(AK10="YES",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:R60">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P60">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:AN48">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(ISBLANK($AA$4), 0, SEARCH($AA$4,$Y9))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13290,8 +13289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21:S21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13312,17 +13311,17 @@
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
       <c r="C2" s="200"/>
-      <c r="D2" s="316" t="s">
+      <c r="D2" s="263" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316"/>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
       <c r="M2" s="201"/>
       <c r="N2" s="24"/>
     </row>
@@ -13340,205 +13339,205 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="203"/>
-      <c r="U3" s="255" t="s">
+      <c r="U3" s="305" t="s">
         <v>195</v>
       </c>
-      <c r="V3" s="256"/>
-      <c r="W3" s="257" t="s">
+      <c r="V3" s="306"/>
+      <c r="W3" s="307" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="256"/>
-      <c r="Z3" s="256"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="256"/>
-      <c r="AC3" s="256"/>
-      <c r="AD3" s="258"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="306"/>
+      <c r="AA3" s="306"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="306"/>
+      <c r="AD3" s="308"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="311" t="s">
+      <c r="B4" s="264" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="312"/>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
+      <c r="F4" s="265"/>
       <c r="G4" s="70">
         <v>1004200</v>
       </c>
       <c r="H4" s="24"/>
-      <c r="I4" s="264" t="s">
+      <c r="I4" s="266" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="246"/>
-      <c r="K4" s="246"/>
-      <c r="L4" s="246"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
       <c r="M4" s="203"/>
-      <c r="U4" s="276" t="s">
+      <c r="U4" s="280" t="s">
         <v>196</v>
       </c>
-      <c r="V4" s="246"/>
-      <c r="W4" s="264" t="s">
+      <c r="V4" s="243"/>
+      <c r="W4" s="266" t="s">
         <v>198</v>
       </c>
-      <c r="X4" s="246"/>
-      <c r="Y4" s="246"/>
-      <c r="Z4" s="246"/>
-      <c r="AA4" s="246"/>
-      <c r="AB4" s="246"/>
-      <c r="AC4" s="246"/>
-      <c r="AD4" s="259"/>
+      <c r="X4" s="243"/>
+      <c r="Y4" s="243"/>
+      <c r="Z4" s="243"/>
+      <c r="AA4" s="243"/>
+      <c r="AB4" s="243"/>
+      <c r="AC4" s="243"/>
+      <c r="AD4" s="279"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="281" t="s">
+      <c r="B5" s="273" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
-      <c r="F5" s="246"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="G5" s="173">
         <v>568329.18000000005</v>
       </c>
       <c r="H5" s="24"/>
-      <c r="I5" s="283" t="s">
+      <c r="I5" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="300"/>
-      <c r="K5" s="302">
+      <c r="J5" s="262"/>
+      <c r="K5" s="269">
         <f>G7</f>
         <v>2332529.1800000002</v>
       </c>
-      <c r="L5" s="303"/>
+      <c r="L5" s="270"/>
       <c r="M5" s="203"/>
-      <c r="U5" s="277" t="s">
+      <c r="U5" s="301" t="s">
         <v>233</v>
       </c>
-      <c r="V5" s="278"/>
-      <c r="W5" s="283" t="s">
+      <c r="V5" s="302"/>
+      <c r="W5" s="261" t="s">
         <v>234</v>
       </c>
-      <c r="X5" s="284"/>
-      <c r="Y5" s="284"/>
-      <c r="Z5" s="284"/>
-      <c r="AA5" s="284"/>
-      <c r="AB5" s="284"/>
-      <c r="AC5" s="284"/>
-      <c r="AD5" s="285"/>
+      <c r="X5" s="291"/>
+      <c r="Y5" s="291"/>
+      <c r="Z5" s="291"/>
+      <c r="AA5" s="291"/>
+      <c r="AB5" s="291"/>
+      <c r="AC5" s="291"/>
+      <c r="AD5" s="292"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="274" t="s">
+      <c r="B6" s="255" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="275"/>
-      <c r="D6" s="275"/>
-      <c r="E6" s="275"/>
-      <c r="F6" s="275"/>
+      <c r="C6" s="256"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
       <c r="G6" s="173">
         <v>760000</v>
       </c>
       <c r="H6" s="24"/>
-      <c r="I6" s="301" t="s">
+      <c r="I6" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="293"/>
-      <c r="K6" s="306">
+      <c r="J6" s="260"/>
+      <c r="K6" s="271">
         <f>Pengeluaran!F30</f>
         <v>903300</v>
       </c>
-      <c r="L6" s="307"/>
+      <c r="L6" s="272"/>
       <c r="M6" s="203"/>
-      <c r="U6" s="279"/>
-      <c r="V6" s="280"/>
-      <c r="W6" s="265" t="s">
+      <c r="U6" s="303"/>
+      <c r="V6" s="304"/>
+      <c r="W6" s="293" t="s">
         <v>235</v>
       </c>
-      <c r="X6" s="266"/>
-      <c r="Y6" s="266"/>
-      <c r="Z6" s="266"/>
-      <c r="AA6" s="266"/>
-      <c r="AB6" s="266"/>
-      <c r="AC6" s="266"/>
-      <c r="AD6" s="267"/>
+      <c r="X6" s="294"/>
+      <c r="Y6" s="294"/>
+      <c r="Z6" s="294"/>
+      <c r="AA6" s="294"/>
+      <c r="AB6" s="294"/>
+      <c r="AC6" s="294"/>
+      <c r="AD6" s="295"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="291" t="s">
+      <c r="B7" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="292"/>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="293"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="260"/>
       <c r="G7" s="173">
         <f>SUM(G4:G6)</f>
         <v>2332529.1800000002</v>
       </c>
       <c r="H7" s="24"/>
-      <c r="I7" s="301" t="s">
+      <c r="I7" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="293"/>
-      <c r="K7" s="304">
+      <c r="J7" s="260"/>
+      <c r="K7" s="267">
         <f>Pemasukkan!F31</f>
         <v>222000</v>
       </c>
-      <c r="L7" s="305"/>
+      <c r="L7" s="268"/>
       <c r="M7" s="203"/>
-      <c r="U7" s="262"/>
-      <c r="V7" s="263"/>
-      <c r="W7" s="264" t="s">
+      <c r="U7" s="309"/>
+      <c r="V7" s="310"/>
+      <c r="W7" s="266" t="s">
         <v>236</v>
       </c>
-      <c r="X7" s="246"/>
-      <c r="Y7" s="246"/>
-      <c r="Z7" s="246"/>
-      <c r="AA7" s="246"/>
-      <c r="AB7" s="246"/>
-      <c r="AC7" s="246"/>
-      <c r="AD7" s="259"/>
+      <c r="X7" s="243"/>
+      <c r="Y7" s="243"/>
+      <c r="Z7" s="243"/>
+      <c r="AA7" s="243"/>
+      <c r="AB7" s="243"/>
+      <c r="AC7" s="243"/>
+      <c r="AD7" s="279"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="202"/>
-      <c r="B8" s="313" t="s">
+      <c r="B8" s="274" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="314"/>
-      <c r="D8" s="314"/>
-      <c r="E8" s="314"/>
-      <c r="F8" s="314"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="275"/>
+      <c r="F8" s="275"/>
       <c r="G8" s="174">
         <f>K8</f>
         <v>1651229.1800000002</v>
       </c>
       <c r="H8" s="24"/>
-      <c r="I8" s="283" t="s">
+      <c r="I8" s="261" t="s">
         <v>191</v>
       </c>
-      <c r="J8" s="300"/>
-      <c r="K8" s="308">
+      <c r="J8" s="262"/>
+      <c r="K8" s="257">
         <f>(K5-K6)+K7</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="L8" s="309"/>
+      <c r="L8" s="258"/>
       <c r="M8" s="203"/>
-      <c r="U8" s="270" t="s">
+      <c r="U8" s="313" t="s">
         <v>197</v>
       </c>
-      <c r="V8" s="271"/>
-      <c r="W8" s="265" t="s">
+      <c r="V8" s="314"/>
+      <c r="W8" s="293" t="s">
         <v>199</v>
       </c>
-      <c r="X8" s="266"/>
-      <c r="Y8" s="266"/>
-      <c r="Z8" s="266"/>
-      <c r="AA8" s="266"/>
-      <c r="AB8" s="266"/>
-      <c r="AC8" s="266"/>
-      <c r="AD8" s="267"/>
+      <c r="X8" s="294"/>
+      <c r="Y8" s="294"/>
+      <c r="Z8" s="294"/>
+      <c r="AA8" s="294"/>
+      <c r="AB8" s="294"/>
+      <c r="AC8" s="294"/>
+      <c r="AD8" s="295"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="202"/>
@@ -13554,28 +13553,28 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="203"/>
-      <c r="U9" s="272"/>
-      <c r="V9" s="273"/>
-      <c r="W9" s="265" t="s">
+      <c r="U9" s="315"/>
+      <c r="V9" s="316"/>
+      <c r="W9" s="293" t="s">
         <v>239</v>
       </c>
-      <c r="X9" s="266"/>
-      <c r="Y9" s="266"/>
-      <c r="Z9" s="266"/>
-      <c r="AA9" s="266"/>
-      <c r="AB9" s="266"/>
-      <c r="AC9" s="266"/>
-      <c r="AD9" s="267"/>
+      <c r="X9" s="294"/>
+      <c r="Y9" s="294"/>
+      <c r="Z9" s="294"/>
+      <c r="AA9" s="294"/>
+      <c r="AB9" s="294"/>
+      <c r="AC9" s="294"/>
+      <c r="AD9" s="295"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="202"/>
-      <c r="B10" s="246" t="s">
+      <c r="B10" s="243" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="G10" s="56">
         <f>G5</f>
         <v>568329.18000000005</v>
@@ -13586,30 +13585,30 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="203"/>
-      <c r="U10" s="274" t="s">
+      <c r="U10" s="255" t="s">
         <v>246</v>
       </c>
-      <c r="V10" s="275"/>
-      <c r="W10" s="246" t="s">
+      <c r="V10" s="256"/>
+      <c r="W10" s="243" t="s">
         <v>263</v>
       </c>
-      <c r="X10" s="246"/>
-      <c r="Y10" s="246"/>
-      <c r="Z10" s="246"/>
-      <c r="AA10" s="246"/>
-      <c r="AB10" s="246"/>
-      <c r="AC10" s="246"/>
-      <c r="AD10" s="259"/>
+      <c r="X10" s="243"/>
+      <c r="Y10" s="243"/>
+      <c r="Z10" s="243"/>
+      <c r="AA10" s="243"/>
+      <c r="AB10" s="243"/>
+      <c r="AC10" s="243"/>
+      <c r="AD10" s="279"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="202"/>
-      <c r="B11" s="246" t="s">
+      <c r="B11" s="243" t="s">
         <v>259</v>
       </c>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
       <c r="G11" s="56">
         <v>1089400</v>
       </c>
@@ -13619,30 +13618,30 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="203"/>
-      <c r="U11" s="274" t="s">
+      <c r="U11" s="255" t="s">
         <v>262</v>
       </c>
-      <c r="V11" s="275"/>
-      <c r="W11" s="268" t="s">
+      <c r="V11" s="256"/>
+      <c r="W11" s="311" t="s">
         <v>264</v>
       </c>
-      <c r="X11" s="268"/>
-      <c r="Y11" s="268"/>
-      <c r="Z11" s="268"/>
-      <c r="AA11" s="268"/>
-      <c r="AB11" s="268"/>
-      <c r="AC11" s="268"/>
-      <c r="AD11" s="269"/>
+      <c r="X11" s="311"/>
+      <c r="Y11" s="311"/>
+      <c r="Z11" s="311"/>
+      <c r="AA11" s="311"/>
+      <c r="AB11" s="311"/>
+      <c r="AC11" s="311"/>
+      <c r="AD11" s="312"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="202"/>
-      <c r="B12" s="315" t="s">
+      <c r="B12" s="278" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="315"/>
-      <c r="D12" s="315"/>
-      <c r="E12" s="315"/>
-      <c r="F12" s="315"/>
+      <c r="C12" s="278"/>
+      <c r="D12" s="278"/>
+      <c r="E12" s="278"/>
+      <c r="F12" s="278"/>
       <c r="G12" s="207">
         <f>SUM(G10:G11)</f>
         <v>1657729.1800000002</v>
@@ -13653,16 +13652,16 @@
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="203"/>
-      <c r="U12" s="274"/>
-      <c r="V12" s="275"/>
-      <c r="W12" s="246"/>
-      <c r="X12" s="246"/>
-      <c r="Y12" s="246"/>
-      <c r="Z12" s="246"/>
-      <c r="AA12" s="246"/>
-      <c r="AB12" s="246"/>
-      <c r="AC12" s="246"/>
-      <c r="AD12" s="259"/>
+      <c r="U12" s="255"/>
+      <c r="V12" s="256"/>
+      <c r="W12" s="243"/>
+      <c r="X12" s="243"/>
+      <c r="Y12" s="243"/>
+      <c r="Z12" s="243"/>
+      <c r="AA12" s="243"/>
+      <c r="AB12" s="243"/>
+      <c r="AC12" s="243"/>
+      <c r="AD12" s="279"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="204"/>
@@ -13678,221 +13677,223 @@
       <c r="K13" s="205"/>
       <c r="L13" s="205"/>
       <c r="M13" s="206"/>
-      <c r="U13" s="274"/>
-      <c r="V13" s="275"/>
-      <c r="W13" s="246"/>
-      <c r="X13" s="246"/>
-      <c r="Y13" s="246"/>
-      <c r="Z13" s="246"/>
-      <c r="AA13" s="246"/>
-      <c r="AB13" s="246"/>
-      <c r="AC13" s="246"/>
-      <c r="AD13" s="259"/>
+      <c r="U13" s="255"/>
+      <c r="V13" s="256"/>
+      <c r="W13" s="243"/>
+      <c r="X13" s="243"/>
+      <c r="Y13" s="243"/>
+      <c r="Z13" s="243"/>
+      <c r="AA13" s="243"/>
+      <c r="AB13" s="243"/>
+      <c r="AC13" s="243"/>
+      <c r="AD13" s="279"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U14" s="286"/>
-      <c r="V14" s="287"/>
-      <c r="W14" s="260"/>
-      <c r="X14" s="260"/>
-      <c r="Y14" s="260"/>
-      <c r="Z14" s="260"/>
-      <c r="AA14" s="260"/>
-      <c r="AB14" s="260"/>
-      <c r="AC14" s="260"/>
-      <c r="AD14" s="261"/>
+      <c r="U14" s="296"/>
+      <c r="V14" s="297"/>
+      <c r="W14" s="289"/>
+      <c r="X14" s="289"/>
+      <c r="Y14" s="289"/>
+      <c r="Z14" s="289"/>
+      <c r="AA14" s="289"/>
+      <c r="AB14" s="289"/>
+      <c r="AC14" s="289"/>
+      <c r="AD14" s="290"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="199"/>
       <c r="B18" s="200"/>
       <c r="C18" s="200"/>
-      <c r="D18" s="316" t="s">
+      <c r="D18" s="263" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="316"/>
-      <c r="F18" s="316"/>
-      <c r="G18" s="316"/>
-      <c r="H18" s="316"/>
-      <c r="I18" s="316"/>
-      <c r="J18" s="316"/>
-      <c r="K18" s="316"/>
-      <c r="L18" s="316"/>
+      <c r="E18" s="263"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="263"/>
+      <c r="I18" s="263"/>
+      <c r="J18" s="263"/>
+      <c r="K18" s="263"/>
+      <c r="L18" s="263"/>
       <c r="M18" s="201"/>
-      <c r="O18" s="288" t="s">
+      <c r="O18" s="298" t="s">
         <v>253</v>
       </c>
-      <c r="P18" s="289"/>
-      <c r="Q18" s="289"/>
-      <c r="R18" s="289"/>
-      <c r="S18" s="290"/>
+      <c r="P18" s="299"/>
+      <c r="Q18" s="299"/>
+      <c r="R18" s="299"/>
+      <c r="S18" s="300"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="202"/>
       <c r="M19" s="203"/>
-      <c r="O19" s="281" t="s">
+      <c r="O19" s="273" t="s">
         <v>254</v>
       </c>
-      <c r="P19" s="246"/>
-      <c r="Q19" s="246"/>
-      <c r="R19" s="246"/>
-      <c r="S19" s="259"/>
+      <c r="P19" s="243"/>
+      <c r="Q19" s="243"/>
+      <c r="R19" s="243"/>
+      <c r="S19" s="279"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="202"/>
-      <c r="B20" s="311" t="s">
+      <c r="B20" s="264" t="s">
         <v>257</v>
       </c>
-      <c r="C20" s="312"/>
-      <c r="D20" s="312"/>
-      <c r="E20" s="312"/>
-      <c r="F20" s="312"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="265"/>
+      <c r="E20" s="265"/>
+      <c r="F20" s="265"/>
       <c r="G20" s="70">
-        <v>160000</v>
+        <v>430000</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="I20" s="264" t="s">
+      <c r="I20" s="266" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="246"/>
-      <c r="K20" s="246"/>
-      <c r="L20" s="246"/>
+      <c r="J20" s="243"/>
+      <c r="K20" s="243"/>
+      <c r="L20" s="243"/>
       <c r="M20" s="203"/>
-      <c r="O20" s="281" t="s">
+      <c r="O20" s="273" t="s">
         <v>255</v>
       </c>
-      <c r="P20" s="246"/>
-      <c r="Q20" s="246"/>
-      <c r="R20" s="246"/>
-      <c r="S20" s="259"/>
+      <c r="P20" s="243"/>
+      <c r="Q20" s="243"/>
+      <c r="R20" s="243"/>
+      <c r="S20" s="279"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="202"/>
-      <c r="B21" s="291" t="s">
+      <c r="B21" s="276" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="292"/>
-      <c r="D21" s="292"/>
-      <c r="E21" s="292"/>
-      <c r="F21" s="293"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="277"/>
+      <c r="E21" s="277"/>
+      <c r="F21" s="260"/>
       <c r="G21" s="173">
         <f>G12</f>
         <v>1657729.1800000002</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="I21" s="283" t="s">
+      <c r="I21" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="300"/>
-      <c r="K21" s="302">
+      <c r="J21" s="262"/>
+      <c r="K21" s="269">
         <f>G23</f>
-        <v>2017729.1800000002</v>
-      </c>
-      <c r="L21" s="303"/>
+        <v>2287729.1800000002</v>
+      </c>
+      <c r="L21" s="270"/>
       <c r="M21" s="203"/>
       <c r="N21" s="197"/>
-      <c r="O21" s="281" t="s">
+      <c r="O21" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="P21" s="246"/>
-      <c r="Q21" s="246"/>
-      <c r="R21" s="246"/>
-      <c r="S21" s="259"/>
+      <c r="P21" s="243"/>
+      <c r="Q21" s="243"/>
+      <c r="R21" s="243"/>
+      <c r="S21" s="279"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="202"/>
-      <c r="B22" s="294" t="s">
+      <c r="B22" s="282" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="295"/>
-      <c r="D22" s="295"/>
-      <c r="E22" s="295"/>
-      <c r="F22" s="296"/>
+      <c r="C22" s="283"/>
+      <c r="D22" s="283"/>
+      <c r="E22" s="283"/>
+      <c r="F22" s="284"/>
       <c r="G22" s="173">
         <v>200000</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="I22" s="301" t="s">
+      <c r="I22" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="293"/>
-      <c r="K22" s="306">
+      <c r="J22" s="260"/>
+      <c r="K22" s="271">
         <f>Pengeluaran!L30</f>
         <v>46000</v>
       </c>
-      <c r="L22" s="307"/>
+      <c r="L22" s="272"/>
       <c r="M22" s="203"/>
       <c r="N22" s="197"/>
-      <c r="O22" s="276" t="s">
+      <c r="O22" s="280" t="s">
         <v>265</v>
       </c>
-      <c r="P22" s="264"/>
-      <c r="Q22" s="264"/>
-      <c r="R22" s="264"/>
-      <c r="S22" s="310"/>
+      <c r="P22" s="266"/>
+      <c r="Q22" s="266"/>
+      <c r="R22" s="266"/>
+      <c r="S22" s="281"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="202"/>
-      <c r="B23" s="291" t="s">
+      <c r="B23" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="292"/>
-      <c r="D23" s="292"/>
-      <c r="E23" s="292"/>
-      <c r="F23" s="293"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="277"/>
+      <c r="E23" s="277"/>
+      <c r="F23" s="260"/>
       <c r="G23" s="173">
         <f>SUM(G20:G22)</f>
-        <v>2017729.1800000002</v>
+        <v>2287729.1800000002</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="I23" s="301" t="s">
+      <c r="I23" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="293"/>
-      <c r="K23" s="304">
+      <c r="J23" s="260"/>
+      <c r="K23" s="267">
         <f>Pemasukkan!F42</f>
         <v>0</v>
       </c>
-      <c r="L23" s="305"/>
+      <c r="L23" s="268"/>
       <c r="M23" s="203"/>
       <c r="N23" s="197"/>
-      <c r="O23" s="281" t="s">
+      <c r="O23" s="273" t="s">
         <v>267</v>
       </c>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="259"/>
+      <c r="P23" s="243"/>
+      <c r="Q23" s="243"/>
+      <c r="R23" s="243"/>
+      <c r="S23" s="279"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="202"/>
-      <c r="B24" s="297" t="s">
+      <c r="B24" s="285" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="298"/>
-      <c r="D24" s="298"/>
-      <c r="E24" s="298"/>
-      <c r="F24" s="299"/>
+      <c r="C24" s="286"/>
+      <c r="D24" s="286"/>
+      <c r="E24" s="286"/>
+      <c r="F24" s="287"/>
       <c r="G24" s="174">
         <f>K24</f>
-        <v>1971729.1800000002</v>
+        <v>2241729.1800000002</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="I24" s="283" t="s">
+      <c r="I24" s="261" t="s">
         <v>191</v>
       </c>
-      <c r="J24" s="300"/>
-      <c r="K24" s="308">
+      <c r="J24" s="262"/>
+      <c r="K24" s="257">
         <f>(K21-K22)+K23</f>
-        <v>1971729.1800000002</v>
-      </c>
-      <c r="L24" s="309"/>
+        <v>2241729.1800000002</v>
+      </c>
+      <c r="L24" s="258"/>
       <c r="M24" s="203"/>
       <c r="N24" s="197"/>
-      <c r="O24" s="281"/>
-      <c r="P24" s="246"/>
-      <c r="Q24" s="246"/>
-      <c r="R24" s="246"/>
-      <c r="S24" s="259"/>
+      <c r="O24" s="273" t="s">
+        <v>268</v>
+      </c>
+      <c r="P24" s="243"/>
+      <c r="Q24" s="243"/>
+      <c r="R24" s="243"/>
+      <c r="S24" s="279"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="202"/>
@@ -13909,11 +13910,13 @@
       <c r="L25" s="24"/>
       <c r="M25" s="203"/>
       <c r="N25" s="197"/>
-      <c r="O25" s="281"/>
-      <c r="P25" s="246"/>
-      <c r="Q25" s="246"/>
-      <c r="R25" s="246"/>
-      <c r="S25" s="259"/>
+      <c r="O25" s="273" t="s">
+        <v>269</v>
+      </c>
+      <c r="P25" s="243"/>
+      <c r="Q25" s="243"/>
+      <c r="R25" s="243"/>
+      <c r="S25" s="279"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="202"/>
@@ -13930,11 +13933,11 @@
       <c r="L26" s="24"/>
       <c r="M26" s="203"/>
       <c r="N26" s="197"/>
-      <c r="O26" s="281"/>
-      <c r="P26" s="246"/>
-      <c r="Q26" s="246"/>
-      <c r="R26" s="246"/>
-      <c r="S26" s="259"/>
+      <c r="O26" s="273"/>
+      <c r="P26" s="243"/>
+      <c r="Q26" s="243"/>
+      <c r="R26" s="243"/>
+      <c r="S26" s="279"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="204"/>
@@ -13951,11 +13954,11 @@
       <c r="L27" s="205"/>
       <c r="M27" s="206"/>
       <c r="N27" s="197"/>
-      <c r="O27" s="282"/>
-      <c r="P27" s="260"/>
-      <c r="Q27" s="260"/>
-      <c r="R27" s="260"/>
-      <c r="S27" s="261"/>
+      <c r="O27" s="288"/>
+      <c r="P27" s="289"/>
+      <c r="Q27" s="289"/>
+      <c r="R27" s="289"/>
+      <c r="S27" s="290"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="197"/>
@@ -13979,12 +13982,53 @@
       <c r="S28" s="197"/>
     </row>
   </sheetData>
+  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="66">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:AD3"/>
+    <mergeCell ref="W12:AD12"/>
+    <mergeCell ref="W13:AD13"/>
+    <mergeCell ref="W14:AD14"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:AD7"/>
+    <mergeCell ref="W9:AD9"/>
+    <mergeCell ref="W10:AD10"/>
+    <mergeCell ref="W11:AD11"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:AD4"/>
+    <mergeCell ref="W8:AD8"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="O22:S22"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="K7:L7"/>
@@ -14001,51 +14045,11 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="D18:L18"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="W6:AD6"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="W4:AD4"/>
-    <mergeCell ref="W8:AD8"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:AD3"/>
-    <mergeCell ref="W12:AD12"/>
-    <mergeCell ref="W13:AD13"/>
-    <mergeCell ref="W14:AD14"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:AD7"/>
-    <mergeCell ref="W9:AD9"/>
-    <mergeCell ref="W10:AD10"/>
-    <mergeCell ref="W11:AD11"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14078,44 +14082,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="326" t="s">
+      <c r="C2" s="317" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
     </row>
     <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="327"/>
+      <c r="C3" s="318"/>
+      <c r="D3" s="318"/>
+      <c r="E3" s="318"/>
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
     </row>
     <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="319" t="s">
+      <c r="C5" s="325" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="I5" s="319" t="s">
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="325"/>
+      <c r="I5" s="325" t="s">
         <v>251</v>
       </c>
-      <c r="J5" s="319"/>
-      <c r="K5" s="319"/>
-      <c r="L5" s="319"/>
-      <c r="M5" s="319"/>
+      <c r="J5" s="325"/>
+      <c r="K5" s="325"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="325"/>
     </row>
     <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
@@ -14515,88 +14519,88 @@
       <c r="M28" s="197"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="311" t="s">
+      <c r="D29" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="312"/>
-      <c r="F29" s="320">
+      <c r="E29" s="265"/>
+      <c r="F29" s="319">
         <f>'Hitung Pemasukan Pengeluaran'!G6</f>
         <v>760000</v>
       </c>
-      <c r="G29" s="321"/>
+      <c r="G29" s="320"/>
       <c r="I29" s="197"/>
-      <c r="J29" s="311" t="s">
+      <c r="J29" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="312"/>
-      <c r="L29" s="320">
+      <c r="K29" s="265"/>
+      <c r="L29" s="319">
         <f>'Hitung Pemasukan Pengeluaran'!G23</f>
-        <v>2017729.1800000002</v>
-      </c>
-      <c r="M29" s="321"/>
+        <v>2287729.1800000002</v>
+      </c>
+      <c r="M29" s="320"/>
     </row>
     <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="276" t="s">
+      <c r="D30" s="280" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="246"/>
-      <c r="F30" s="322">
+      <c r="E30" s="243"/>
+      <c r="F30" s="321">
         <f>Pengeluaran!F30</f>
         <v>903300</v>
       </c>
-      <c r="G30" s="323"/>
+      <c r="G30" s="322"/>
       <c r="I30" s="197"/>
-      <c r="J30" s="276" t="s">
+      <c r="J30" s="280" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="246"/>
-      <c r="L30" s="322">
+      <c r="K30" s="243"/>
+      <c r="L30" s="321">
         <f>Pengeluaran!L30</f>
         <v>46000</v>
       </c>
-      <c r="M30" s="323"/>
+      <c r="M30" s="322"/>
     </row>
     <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="281" t="s">
+      <c r="D31" s="273" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="246"/>
-      <c r="F31" s="324">
+      <c r="E31" s="243"/>
+      <c r="F31" s="326">
         <f>F27</f>
         <v>222000</v>
       </c>
-      <c r="G31" s="325"/>
+      <c r="G31" s="327"/>
       <c r="I31" s="197"/>
-      <c r="J31" s="281" t="s">
+      <c r="J31" s="273" t="s">
         <v>98</v>
       </c>
-      <c r="K31" s="246"/>
-      <c r="L31" s="324">
+      <c r="K31" s="243"/>
+      <c r="L31" s="326">
         <f>L27</f>
         <v>0</v>
       </c>
-      <c r="M31" s="325"/>
+      <c r="M31" s="327"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="313" t="s">
+      <c r="D32" s="274" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="314"/>
-      <c r="F32" s="317">
+      <c r="E32" s="275"/>
+      <c r="F32" s="323">
         <f>'Hitung Pemasukan Pengeluaran'!G8</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="G32" s="318"/>
+      <c r="G32" s="324"/>
       <c r="I32" s="197"/>
-      <c r="J32" s="313" t="s">
+      <c r="J32" s="274" t="s">
         <v>190</v>
       </c>
-      <c r="K32" s="314"/>
-      <c r="L32" s="317">
+      <c r="K32" s="275"/>
+      <c r="L32" s="323">
         <f>'Hitung Pemasukan Pengeluaran'!G24</f>
-        <v>1971729.1800000002</v>
-      </c>
-      <c r="M32" s="318"/>
+        <v>2241729.1800000002</v>
+      </c>
+      <c r="M32" s="324"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14789,12 +14793,6 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
-    <mergeCell ref="C2:K3"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J29:K29"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="I5:M5"/>
@@ -14808,6 +14806,12 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="J32:K32"/>
+    <mergeCell ref="C2:K3"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -14839,44 +14843,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="332" t="s">
+      <c r="C2" s="328" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333"/>
-      <c r="F2" s="333"/>
-      <c r="G2" s="333"/>
-      <c r="H2" s="333"/>
-      <c r="I2" s="333"/>
-      <c r="J2" s="333"/>
-      <c r="K2" s="333"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
+      <c r="J2" s="329"/>
+      <c r="K2" s="329"/>
     </row>
     <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333"/>
-      <c r="I3" s="333"/>
-      <c r="J3" s="333"/>
-      <c r="K3" s="333"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
     </row>
     <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="319" t="s">
+      <c r="C5" s="325" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="I5" s="319" t="s">
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="325"/>
+      <c r="I5" s="325" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="319"/>
-      <c r="K5" s="319"/>
-      <c r="L5" s="319"/>
-      <c r="M5" s="319"/>
+      <c r="J5" s="325"/>
+      <c r="K5" s="325"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="325"/>
     </row>
     <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
@@ -15302,88 +15306,88 @@
       <c r="M28" s="197"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="255" t="s">
+      <c r="D29" s="305" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="257"/>
+      <c r="E29" s="307"/>
       <c r="F29" s="330">
         <f>'Hitung Pemasukan Pengeluaran'!G6</f>
         <v>760000</v>
       </c>
       <c r="G29" s="331"/>
       <c r="I29" s="197"/>
-      <c r="J29" s="255" t="s">
+      <c r="J29" s="305" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="257"/>
+      <c r="K29" s="307"/>
       <c r="L29" s="330">
         <f>'Hitung Pemasukan Pengeluaran'!G23</f>
-        <v>2017729.1800000002</v>
+        <v>2287729.1800000002</v>
       </c>
       <c r="M29" s="331"/>
     </row>
     <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="281" t="s">
+      <c r="D30" s="273" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="246"/>
-      <c r="F30" s="322">
+      <c r="E30" s="243"/>
+      <c r="F30" s="321">
         <f>F27</f>
         <v>903300</v>
       </c>
-      <c r="G30" s="323"/>
+      <c r="G30" s="322"/>
       <c r="I30" s="197"/>
-      <c r="J30" s="281" t="s">
+      <c r="J30" s="273" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="246"/>
-      <c r="L30" s="322">
+      <c r="K30" s="243"/>
+      <c r="L30" s="321">
         <f>L27</f>
         <v>46000</v>
       </c>
-      <c r="M30" s="323"/>
+      <c r="M30" s="322"/>
     </row>
     <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="281" t="s">
+      <c r="D31" s="273" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="246"/>
-      <c r="F31" s="324">
+      <c r="E31" s="243"/>
+      <c r="F31" s="326">
         <f>Pemasukkan!F27</f>
         <v>222000</v>
       </c>
-      <c r="G31" s="325"/>
+      <c r="G31" s="327"/>
       <c r="I31" s="197"/>
-      <c r="J31" s="281" t="s">
+      <c r="J31" s="273" t="s">
         <v>98</v>
       </c>
-      <c r="K31" s="246"/>
-      <c r="L31" s="324">
+      <c r="K31" s="243"/>
+      <c r="L31" s="326">
         <f>Pemasukkan!L27</f>
         <v>0</v>
       </c>
-      <c r="M31" s="325"/>
+      <c r="M31" s="327"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="313" t="s">
+      <c r="D32" s="274" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="314"/>
-      <c r="F32" s="328">
+      <c r="E32" s="275"/>
+      <c r="F32" s="332">
         <f>'Hitung Pemasukan Pengeluaran'!G8</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="G32" s="329"/>
+      <c r="G32" s="333"/>
       <c r="I32" s="197"/>
-      <c r="J32" s="313" t="s">
+      <c r="J32" s="274" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="314"/>
-      <c r="L32" s="328">
+      <c r="K32" s="275"/>
+      <c r="L32" s="332">
         <f>'Hitung Pemasukan Pengeluaran'!M8</f>
         <v>0</v>
       </c>
-      <c r="M32" s="329"/>
+      <c r="M32" s="333"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15576,6 +15580,14 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
@@ -15587,14 +15599,6 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="533" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="533" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018(NOT UPDATED)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="272">
   <si>
     <t>LAPORAN KEUANGAN KAS GAS</t>
   </si>
@@ -830,6 +830,12 @@
   </si>
   <si>
     <t>Dia KAS 200k tunai</t>
+  </si>
+  <si>
+    <t>Pendaftaran OH 1</t>
+  </si>
+  <si>
+    <t>Gagas, Evita, Ino,Khairul,Luqman,Sagina,Devina,Raihan @8k</t>
   </si>
 </sst>
 </file>
@@ -2406,20 +2412,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2435,39 +2450,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2475,36 +2488,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2512,185 +2575,155 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2698,31 +2731,16 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="13" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2730,18 +2748,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="13" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3600,126 +3606,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="214"/>
-      <c r="O1" s="214"/>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="214"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="215"/>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="216"/>
+      <c r="A2" s="221"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="222"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="222"/>
+      <c r="Q2" s="222"/>
+      <c r="R2" s="222"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="215"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="216"/>
-      <c r="P3" s="216"/>
-      <c r="Q3" s="216"/>
-      <c r="R3" s="216"/>
+      <c r="A3" s="221"/>
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="222"/>
+      <c r="Q3" s="222"/>
+      <c r="R3" s="222"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="215"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
-      <c r="J4" s="216"/>
-      <c r="K4" s="216"/>
-      <c r="L4" s="216"/>
-      <c r="M4" s="216"/>
-      <c r="N4" s="216"/>
-      <c r="O4" s="216"/>
-      <c r="P4" s="216"/>
-      <c r="Q4" s="216"/>
-      <c r="R4" s="216"/>
+      <c r="A4" s="221"/>
+      <c r="B4" s="222"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="222"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="222"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="215"/>
-      <c r="B5" s="216"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="216"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="216"/>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="216"/>
+      <c r="A5" s="221"/>
+      <c r="B5" s="222"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
+      <c r="N5" s="222"/>
+      <c r="O5" s="222"/>
+      <c r="P5" s="222"/>
+      <c r="Q5" s="222"/>
+      <c r="R5" s="222"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="215"/>
-      <c r="B6" s="216"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="216"/>
-      <c r="M6" s="216"/>
-      <c r="N6" s="216"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="216"/>
-      <c r="Q6" s="216"/>
-      <c r="R6" s="216"/>
+      <c r="A6" s="221"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="222"/>
+      <c r="N6" s="222"/>
+      <c r="O6" s="222"/>
+      <c r="P6" s="222"/>
+      <c r="Q6" s="222"/>
+      <c r="R6" s="222"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="s">
@@ -6664,58 +6670,58 @@
     <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J79" s="221" t="s">
+      <c r="J79" s="224" t="s">
         <v>65</v>
       </c>
-      <c r="K79" s="222"/>
-      <c r="L79" s="222"/>
-      <c r="M79" s="222"/>
-      <c r="N79" s="223"/>
-      <c r="P79" s="229" t="s">
+      <c r="K79" s="225"/>
+      <c r="L79" s="225"/>
+      <c r="M79" s="225"/>
+      <c r="N79" s="226"/>
+      <c r="P79" s="232" t="s">
         <v>66</v>
       </c>
-      <c r="Q79" s="222"/>
-      <c r="R79" s="222"/>
-      <c r="S79" s="223"/>
+      <c r="Q79" s="225"/>
+      <c r="R79" s="225"/>
+      <c r="S79" s="226"/>
     </row>
     <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J80" s="224" t="s">
+      <c r="J80" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="K80" s="216"/>
-      <c r="L80" s="216"/>
-      <c r="M80" s="216"/>
-      <c r="N80" s="225"/>
-      <c r="P80" s="224" t="s">
+      <c r="K80" s="222"/>
+      <c r="L80" s="222"/>
+      <c r="M80" s="222"/>
+      <c r="N80" s="228"/>
+      <c r="P80" s="227" t="s">
         <v>68</v>
       </c>
-      <c r="Q80" s="216"/>
-      <c r="R80" s="216"/>
-      <c r="S80" s="225"/>
+      <c r="Q80" s="222"/>
+      <c r="R80" s="222"/>
+      <c r="S80" s="228"/>
     </row>
     <row r="81" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J81" s="226"/>
-      <c r="K81" s="227"/>
-      <c r="L81" s="227"/>
-      <c r="M81" s="227"/>
-      <c r="N81" s="228"/>
-      <c r="P81" s="226"/>
-      <c r="Q81" s="227"/>
-      <c r="R81" s="227"/>
-      <c r="S81" s="228"/>
+      <c r="J81" s="229"/>
+      <c r="K81" s="230"/>
+      <c r="L81" s="230"/>
+      <c r="M81" s="230"/>
+      <c r="N81" s="231"/>
+      <c r="P81" s="229"/>
+      <c r="Q81" s="230"/>
+      <c r="R81" s="230"/>
+      <c r="S81" s="231"/>
     </row>
     <row r="82" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J82" s="219" t="s">
+      <c r="J82" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="K82" s="220"/>
-      <c r="L82" s="218"/>
-      <c r="M82" s="219" t="s">
+      <c r="K82" s="214"/>
+      <c r="L82" s="215"/>
+      <c r="M82" s="223" t="s">
         <v>69</v>
       </c>
-      <c r="N82" s="218"/>
-      <c r="P82" s="219"/>
-      <c r="Q82" s="218"/>
+      <c r="N82" s="215"/>
+      <c r="P82" s="223"/>
+      <c r="Q82" s="215"/>
       <c r="R82" s="3" t="s">
         <v>19</v>
       </c>
@@ -6724,38 +6730,38 @@
       </c>
     </row>
     <row r="83" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J83" s="230" t="s">
+      <c r="J83" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="K83" s="220"/>
-      <c r="L83" s="218"/>
-      <c r="M83" s="231">
+      <c r="K83" s="214"/>
+      <c r="L83" s="215"/>
+      <c r="M83" s="216">
         <v>7350000</v>
       </c>
-      <c r="N83" s="218"/>
+      <c r="N83" s="215"/>
       <c r="P83" s="217" t="s">
         <v>71</v>
       </c>
-      <c r="Q83" s="218"/>
+      <c r="Q83" s="215"/>
       <c r="R83" s="4"/>
       <c r="S83" s="5">
         <v>40000</v>
       </c>
     </row>
     <row r="84" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J84" s="230" t="s">
+      <c r="J84" s="213" t="s">
         <v>72</v>
       </c>
-      <c r="K84" s="220"/>
-      <c r="L84" s="218"/>
-      <c r="M84" s="232">
+      <c r="K84" s="214"/>
+      <c r="L84" s="215"/>
+      <c r="M84" s="218">
         <v>1100000</v>
       </c>
-      <c r="N84" s="218"/>
+      <c r="N84" s="215"/>
       <c r="P84" s="217" t="s">
         <v>73</v>
       </c>
-      <c r="Q84" s="218"/>
+      <c r="Q84" s="215"/>
       <c r="R84" s="6" t="s">
         <v>74</v>
       </c>
@@ -6764,39 +6770,39 @@
       </c>
     </row>
     <row r="85" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J85" s="230" t="s">
+      <c r="J85" s="213" t="s">
         <v>75</v>
       </c>
-      <c r="K85" s="220"/>
-      <c r="L85" s="218"/>
-      <c r="M85" s="231">
+      <c r="K85" s="214"/>
+      <c r="L85" s="215"/>
+      <c r="M85" s="216">
         <f>M83+M84</f>
         <v>8450000</v>
       </c>
-      <c r="N85" s="218"/>
+      <c r="N85" s="215"/>
       <c r="P85" s="217" t="s">
         <v>76</v>
       </c>
-      <c r="Q85" s="218"/>
+      <c r="Q85" s="215"/>
       <c r="R85" s="4"/>
       <c r="S85" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J86" s="230" t="s">
+      <c r="J86" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="K86" s="220"/>
-      <c r="L86" s="218"/>
-      <c r="M86" s="231">
+      <c r="K86" s="214"/>
+      <c r="L86" s="215"/>
+      <c r="M86" s="216">
         <v>8411850</v>
       </c>
-      <c r="N86" s="218"/>
+      <c r="N86" s="215"/>
       <c r="P86" s="217" t="s">
         <v>78</v>
       </c>
-      <c r="Q86" s="218"/>
+      <c r="Q86" s="215"/>
       <c r="R86" s="4"/>
       <c r="S86" s="5">
         <f>S83-S84+S85</f>
@@ -6804,20 +6810,20 @@
       </c>
     </row>
     <row r="87" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J87" s="230" t="s">
+      <c r="J87" s="213" t="s">
         <v>79</v>
       </c>
-      <c r="K87" s="220"/>
-      <c r="L87" s="218"/>
-      <c r="M87" s="231">
+      <c r="K87" s="214"/>
+      <c r="L87" s="215"/>
+      <c r="M87" s="216">
         <f>M85-M86</f>
         <v>38150</v>
       </c>
-      <c r="N87" s="218"/>
+      <c r="N87" s="215"/>
       <c r="P87" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="Q87" s="218"/>
+      <c r="Q87" s="215"/>
       <c r="R87" s="4"/>
       <c r="S87" s="5">
         <f>M87+S86</f>
@@ -7006,17 +7012,6 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="23">
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="M84:N84"/>
     <mergeCell ref="A1:R6"/>
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="J82:L82"/>
@@ -7029,6 +7024,17 @@
     <mergeCell ref="P83:Q83"/>
     <mergeCell ref="P82:Q82"/>
     <mergeCell ref="P80:S81"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P86:Q86"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T52">
     <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
@@ -7062,8 +7068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BM260"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" topLeftCell="L16" colorId="8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7105,46 +7111,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="C2" s="253" t="s">
+      <c r="C2" s="241" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="214"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="215"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="216"/>
-      <c r="P3" s="216"/>
-      <c r="Q3" s="216"/>
-      <c r="R3" s="216"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="216"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="222"/>
+      <c r="Q3" s="222"/>
+      <c r="R3" s="222"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="222"/>
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7231,25 +7237,25 @@
       <c r="V5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="245" t="s">
+      <c r="X5" s="247" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="220"/>
-      <c r="Z5" s="220"/>
-      <c r="AA5" s="220"/>
-      <c r="AB5" s="220"/>
-      <c r="AC5" s="220"/>
-      <c r="AD5" s="220"/>
-      <c r="AE5" s="220"/>
-      <c r="AF5" s="220"/>
-      <c r="AG5" s="220"/>
-      <c r="AH5" s="220"/>
-      <c r="AI5" s="220"/>
-      <c r="AJ5" s="220"/>
-      <c r="AK5" s="220"/>
-      <c r="AL5" s="220"/>
-      <c r="AM5" s="220"/>
-      <c r="AN5" s="218"/>
+      <c r="Y5" s="214"/>
+      <c r="Z5" s="214"/>
+      <c r="AA5" s="214"/>
+      <c r="AB5" s="214"/>
+      <c r="AC5" s="214"/>
+      <c r="AD5" s="214"/>
+      <c r="AE5" s="214"/>
+      <c r="AF5" s="214"/>
+      <c r="AG5" s="214"/>
+      <c r="AH5" s="214"/>
+      <c r="AI5" s="214"/>
+      <c r="AJ5" s="214"/>
+      <c r="AK5" s="214"/>
+      <c r="AL5" s="214"/>
+      <c r="AM5" s="214"/>
+      <c r="AN5" s="215"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -7280,7 +7286,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="72">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K6" s="72"/>
       <c r="L6" s="72"/>
@@ -7288,55 +7294,55 @@
       <c r="N6" s="72"/>
       <c r="O6" s="13">
         <f t="shared" ref="O6:O37" si="0">SUM(C6:N6)</f>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="P6" s="130">
         <v>0</v>
       </c>
       <c r="Q6" s="131">
         <f>(140-SUM(C6:J6))</f>
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="R6" s="132">
         <f>Q6+P6</f>
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="S6" s="13">
         <f t="shared" ref="S6:S37" si="1">(240)-(O6)</f>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="T6" s="14">
         <f t="shared" ref="T6:T60" si="2">S6-60</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U6" s="15" t="str">
         <f t="shared" ref="U6:U60" si="3">IF(T6&lt;=0,"OK","NO")</f>
         <v>NO</v>
       </c>
       <c r="V6" s="13"/>
-      <c r="X6" s="254" t="s">
+      <c r="X6" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="254" t="s">
+      <c r="Y6" s="242" t="s">
         <v>85</v>
       </c>
-      <c r="Z6" s="243" t="s">
+      <c r="Z6" s="246" t="s">
         <v>86</v>
       </c>
-      <c r="AA6" s="244"/>
-      <c r="AB6" s="244"/>
-      <c r="AC6" s="244"/>
-      <c r="AD6" s="244"/>
-      <c r="AE6" s="244"/>
-      <c r="AF6" s="244"/>
-      <c r="AG6" s="244"/>
-      <c r="AH6" s="244"/>
-      <c r="AI6" s="244"/>
-      <c r="AJ6" s="244"/>
-      <c r="AK6" s="244"/>
-      <c r="AL6" s="244"/>
-      <c r="AM6" s="244"/>
-      <c r="AN6" s="244"/>
+      <c r="AA6" s="243"/>
+      <c r="AB6" s="243"/>
+      <c r="AC6" s="243"/>
+      <c r="AD6" s="243"/>
+      <c r="AE6" s="243"/>
+      <c r="AF6" s="243"/>
+      <c r="AG6" s="243"/>
+      <c r="AH6" s="243"/>
+      <c r="AI6" s="243"/>
+      <c r="AJ6" s="243"/>
+      <c r="AK6" s="243"/>
+      <c r="AL6" s="243"/>
+      <c r="AM6" s="243"/>
+      <c r="AN6" s="243"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -7399,27 +7405,27 @@
         <v>NO</v>
       </c>
       <c r="V7" s="13"/>
-      <c r="X7" s="244"/>
-      <c r="Y7" s="244"/>
-      <c r="Z7" s="243" t="s">
+      <c r="X7" s="243"/>
+      <c r="Y7" s="243"/>
+      <c r="Z7" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="244"/>
-      <c r="AB7" s="244"/>
-      <c r="AC7" s="244"/>
-      <c r="AD7" s="243" t="s">
+      <c r="AA7" s="243"/>
+      <c r="AB7" s="243"/>
+      <c r="AC7" s="243"/>
+      <c r="AD7" s="246" t="s">
         <v>88</v>
       </c>
-      <c r="AE7" s="244"/>
-      <c r="AF7" s="244"/>
-      <c r="AG7" s="244"/>
-      <c r="AH7" s="244"/>
-      <c r="AI7" s="244"/>
-      <c r="AJ7" s="244"/>
-      <c r="AK7" s="244"/>
-      <c r="AL7" s="244"/>
-      <c r="AM7" s="244"/>
-      <c r="AN7" s="244"/>
+      <c r="AE7" s="243"/>
+      <c r="AF7" s="243"/>
+      <c r="AG7" s="243"/>
+      <c r="AH7" s="243"/>
+      <c r="AI7" s="243"/>
+      <c r="AJ7" s="243"/>
+      <c r="AK7" s="243"/>
+      <c r="AL7" s="243"/>
+      <c r="AM7" s="243"/>
+      <c r="AN7" s="243"/>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -7469,8 +7475,8 @@
         <v>NO</v>
       </c>
       <c r="V8" s="13"/>
-      <c r="X8" s="244"/>
-      <c r="Y8" s="244"/>
+      <c r="X8" s="243"/>
+      <c r="Y8" s="243"/>
       <c r="Z8" s="172" t="s">
         <v>19</v>
       </c>
@@ -12015,10 +12021,10 @@
       <c r="X49" s="24"/>
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
-      <c r="AA49" s="241" t="s">
+      <c r="AA49" s="244" t="s">
         <v>142</v>
       </c>
-      <c r="AB49" s="242"/>
+      <c r="AB49" s="245"/>
       <c r="AC49" s="16">
         <f>SUM(AC9:AC21)</f>
         <v>20000</v>
@@ -12096,12 +12102,12 @@
       <c r="AE50" s="21"/>
       <c r="AF50" s="21"/>
       <c r="AG50" s="21"/>
-      <c r="AI50" s="237" t="s">
+      <c r="AI50" s="251" t="s">
         <v>170</v>
       </c>
-      <c r="AJ50" s="238"/>
-      <c r="AK50" s="238"/>
-      <c r="AL50" s="239"/>
+      <c r="AJ50" s="252"/>
+      <c r="AK50" s="252"/>
+      <c r="AL50" s="253"/>
       <c r="AM50" s="40">
         <v>3077000</v>
       </c>
@@ -12162,12 +12168,12 @@
       <c r="AF51" s="21"/>
       <c r="AG51" s="21"/>
       <c r="AH51" s="21"/>
-      <c r="AI51" s="234" t="s">
+      <c r="AI51" s="248" t="s">
         <v>176</v>
       </c>
-      <c r="AJ51" s="235"/>
-      <c r="AK51" s="235"/>
-      <c r="AL51" s="236"/>
+      <c r="AJ51" s="249"/>
+      <c r="AK51" s="249"/>
+      <c r="AL51" s="250"/>
       <c r="AM51" s="41">
         <v>2550000</v>
       </c>
@@ -12433,14 +12439,14 @@
         <v>NO</v>
       </c>
       <c r="V55" s="2"/>
-      <c r="AC55" s="240"/>
-      <c r="AD55" s="240"/>
-      <c r="AI55" s="237" t="s">
+      <c r="AC55" s="254"/>
+      <c r="AD55" s="254"/>
+      <c r="AI55" s="251" t="s">
         <v>174</v>
       </c>
-      <c r="AJ55" s="238"/>
-      <c r="AK55" s="238"/>
-      <c r="AL55" s="239"/>
+      <c r="AJ55" s="252"/>
+      <c r="AK55" s="252"/>
+      <c r="AL55" s="253"/>
       <c r="AM55" s="38">
         <f>AM54</f>
         <v>2627000</v>
@@ -12693,32 +12699,32 @@
     <row r="61" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="246" t="s">
+      <c r="C63" s="234" t="s">
         <v>177</v>
       </c>
-      <c r="D63" s="247"/>
-      <c r="E63" s="247"/>
-      <c r="F63" s="247"/>
-      <c r="G63" s="248"/>
-      <c r="I63" s="252" t="s">
+      <c r="D63" s="235"/>
+      <c r="E63" s="235"/>
+      <c r="F63" s="235"/>
+      <c r="G63" s="236"/>
+      <c r="I63" s="240" t="s">
         <v>178</v>
       </c>
-      <c r="J63" s="252"/>
-      <c r="K63" s="252"/>
-      <c r="L63" s="252"/>
-      <c r="M63" s="252"/>
+      <c r="J63" s="240"/>
+      <c r="K63" s="240"/>
+      <c r="L63" s="240"/>
+      <c r="M63" s="240"/>
     </row>
     <row r="64" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="249"/>
-      <c r="D64" s="250"/>
-      <c r="E64" s="250"/>
-      <c r="F64" s="250"/>
-      <c r="G64" s="251"/>
-      <c r="I64" s="252"/>
-      <c r="J64" s="252"/>
-      <c r="K64" s="252"/>
-      <c r="L64" s="252"/>
-      <c r="M64" s="252"/>
+      <c r="C64" s="237"/>
+      <c r="D64" s="238"/>
+      <c r="E64" s="238"/>
+      <c r="F64" s="238"/>
+      <c r="G64" s="239"/>
+      <c r="I64" s="240"/>
+      <c r="J64" s="240"/>
+      <c r="K64" s="240"/>
+      <c r="L64" s="240"/>
+      <c r="M64" s="240"/>
     </row>
     <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13210,22 +13216,22 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
+    <mergeCell ref="AI56:AL56"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="AI50:AL50"/>
+    <mergeCell ref="AI55:AL55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="AD7:AN7"/>
+    <mergeCell ref="X5:AN5"/>
+    <mergeCell ref="Z6:AN6"/>
     <mergeCell ref="P70:Q70"/>
     <mergeCell ref="C63:G64"/>
     <mergeCell ref="I63:M64"/>
     <mergeCell ref="C2:T3"/>
     <mergeCell ref="Y6:Y8"/>
     <mergeCell ref="X6:X8"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="AD7:AN7"/>
-    <mergeCell ref="X5:AN5"/>
-    <mergeCell ref="Z6:AN6"/>
-    <mergeCell ref="AI56:AL56"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="AI50:AL50"/>
-    <mergeCell ref="AI55:AL55"/>
-    <mergeCell ref="AC55:AD55"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:V60">
     <cfRule type="expression" dxfId="10" priority="7">
@@ -13289,8 +13295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13311,17 +13317,17 @@
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
       <c r="C2" s="200"/>
-      <c r="D2" s="263" t="s">
+      <c r="D2" s="316" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="316"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="316"/>
       <c r="M2" s="201"/>
       <c r="N2" s="24"/>
     </row>
@@ -13339,205 +13345,205 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="203"/>
-      <c r="U3" s="305" t="s">
+      <c r="U3" s="255" t="s">
         <v>195</v>
       </c>
-      <c r="V3" s="306"/>
-      <c r="W3" s="307" t="s">
+      <c r="V3" s="256"/>
+      <c r="W3" s="257" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="306"/>
-      <c r="Y3" s="306"/>
-      <c r="Z3" s="306"/>
-      <c r="AA3" s="306"/>
-      <c r="AB3" s="306"/>
-      <c r="AC3" s="306"/>
-      <c r="AD3" s="308"/>
+      <c r="X3" s="256"/>
+      <c r="Y3" s="256"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="256"/>
+      <c r="AB3" s="256"/>
+      <c r="AC3" s="256"/>
+      <c r="AD3" s="258"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="264" t="s">
+      <c r="B4" s="311" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
-      <c r="F4" s="265"/>
+      <c r="C4" s="312"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
       <c r="G4" s="70">
         <v>1004200</v>
       </c>
       <c r="H4" s="24"/>
-      <c r="I4" s="266" t="s">
+      <c r="I4" s="264" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="243"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="243"/>
+      <c r="J4" s="246"/>
+      <c r="K4" s="246"/>
+      <c r="L4" s="246"/>
       <c r="M4" s="203"/>
-      <c r="U4" s="280" t="s">
+      <c r="U4" s="276" t="s">
         <v>196</v>
       </c>
-      <c r="V4" s="243"/>
-      <c r="W4" s="266" t="s">
+      <c r="V4" s="246"/>
+      <c r="W4" s="264" t="s">
         <v>198</v>
       </c>
-      <c r="X4" s="243"/>
-      <c r="Y4" s="243"/>
-      <c r="Z4" s="243"/>
-      <c r="AA4" s="243"/>
-      <c r="AB4" s="243"/>
-      <c r="AC4" s="243"/>
-      <c r="AD4" s="279"/>
+      <c r="X4" s="246"/>
+      <c r="Y4" s="246"/>
+      <c r="Z4" s="246"/>
+      <c r="AA4" s="246"/>
+      <c r="AB4" s="246"/>
+      <c r="AC4" s="246"/>
+      <c r="AD4" s="259"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="273" t="s">
+      <c r="B5" s="281" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="246"/>
       <c r="G5" s="173">
         <v>568329.18000000005</v>
       </c>
       <c r="H5" s="24"/>
-      <c r="I5" s="261" t="s">
+      <c r="I5" s="283" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="262"/>
-      <c r="K5" s="269">
+      <c r="J5" s="300"/>
+      <c r="K5" s="302">
         <f>G7</f>
         <v>2332529.1800000002</v>
       </c>
-      <c r="L5" s="270"/>
+      <c r="L5" s="303"/>
       <c r="M5" s="203"/>
-      <c r="U5" s="301" t="s">
+      <c r="U5" s="277" t="s">
         <v>233</v>
       </c>
-      <c r="V5" s="302"/>
-      <c r="W5" s="261" t="s">
+      <c r="V5" s="278"/>
+      <c r="W5" s="283" t="s">
         <v>234</v>
       </c>
-      <c r="X5" s="291"/>
-      <c r="Y5" s="291"/>
-      <c r="Z5" s="291"/>
-      <c r="AA5" s="291"/>
-      <c r="AB5" s="291"/>
-      <c r="AC5" s="291"/>
-      <c r="AD5" s="292"/>
+      <c r="X5" s="284"/>
+      <c r="Y5" s="284"/>
+      <c r="Z5" s="284"/>
+      <c r="AA5" s="284"/>
+      <c r="AB5" s="284"/>
+      <c r="AC5" s="284"/>
+      <c r="AD5" s="285"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="255" t="s">
+      <c r="B6" s="274" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="256"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
+      <c r="C6" s="275"/>
+      <c r="D6" s="275"/>
+      <c r="E6" s="275"/>
+      <c r="F6" s="275"/>
       <c r="G6" s="173">
         <v>760000</v>
       </c>
       <c r="H6" s="24"/>
-      <c r="I6" s="259" t="s">
+      <c r="I6" s="301" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="260"/>
-      <c r="K6" s="271">
+      <c r="J6" s="293"/>
+      <c r="K6" s="306">
         <f>Pengeluaran!F30</f>
         <v>903300</v>
       </c>
-      <c r="L6" s="272"/>
+      <c r="L6" s="307"/>
       <c r="M6" s="203"/>
-      <c r="U6" s="303"/>
-      <c r="V6" s="304"/>
-      <c r="W6" s="293" t="s">
+      <c r="U6" s="279"/>
+      <c r="V6" s="280"/>
+      <c r="W6" s="265" t="s">
         <v>235</v>
       </c>
-      <c r="X6" s="294"/>
-      <c r="Y6" s="294"/>
-      <c r="Z6" s="294"/>
-      <c r="AA6" s="294"/>
-      <c r="AB6" s="294"/>
-      <c r="AC6" s="294"/>
-      <c r="AD6" s="295"/>
+      <c r="X6" s="266"/>
+      <c r="Y6" s="266"/>
+      <c r="Z6" s="266"/>
+      <c r="AA6" s="266"/>
+      <c r="AB6" s="266"/>
+      <c r="AC6" s="266"/>
+      <c r="AD6" s="267"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="276" t="s">
+      <c r="B7" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="277"/>
-      <c r="F7" s="260"/>
+      <c r="C7" s="292"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="293"/>
       <c r="G7" s="173">
         <f>SUM(G4:G6)</f>
         <v>2332529.1800000002</v>
       </c>
       <c r="H7" s="24"/>
-      <c r="I7" s="259" t="s">
+      <c r="I7" s="301" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="260"/>
-      <c r="K7" s="267">
+      <c r="J7" s="293"/>
+      <c r="K7" s="304">
         <f>Pemasukkan!F31</f>
         <v>222000</v>
       </c>
-      <c r="L7" s="268"/>
+      <c r="L7" s="305"/>
       <c r="M7" s="203"/>
-      <c r="U7" s="309"/>
-      <c r="V7" s="310"/>
-      <c r="W7" s="266" t="s">
+      <c r="U7" s="262"/>
+      <c r="V7" s="263"/>
+      <c r="W7" s="264" t="s">
         <v>236</v>
       </c>
-      <c r="X7" s="243"/>
-      <c r="Y7" s="243"/>
-      <c r="Z7" s="243"/>
-      <c r="AA7" s="243"/>
-      <c r="AB7" s="243"/>
-      <c r="AC7" s="243"/>
-      <c r="AD7" s="279"/>
+      <c r="X7" s="246"/>
+      <c r="Y7" s="246"/>
+      <c r="Z7" s="246"/>
+      <c r="AA7" s="246"/>
+      <c r="AB7" s="246"/>
+      <c r="AC7" s="246"/>
+      <c r="AD7" s="259"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="202"/>
-      <c r="B8" s="274" t="s">
+      <c r="B8" s="313" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="275"/>
-      <c r="D8" s="275"/>
-      <c r="E8" s="275"/>
-      <c r="F8" s="275"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="314"/>
+      <c r="E8" s="314"/>
+      <c r="F8" s="314"/>
       <c r="G8" s="174">
         <f>K8</f>
         <v>1651229.1800000002</v>
       </c>
       <c r="H8" s="24"/>
-      <c r="I8" s="261" t="s">
+      <c r="I8" s="283" t="s">
         <v>191</v>
       </c>
-      <c r="J8" s="262"/>
-      <c r="K8" s="257">
+      <c r="J8" s="300"/>
+      <c r="K8" s="308">
         <f>(K5-K6)+K7</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="L8" s="258"/>
+      <c r="L8" s="309"/>
       <c r="M8" s="203"/>
-      <c r="U8" s="313" t="s">
+      <c r="U8" s="270" t="s">
         <v>197</v>
       </c>
-      <c r="V8" s="314"/>
-      <c r="W8" s="293" t="s">
+      <c r="V8" s="271"/>
+      <c r="W8" s="265" t="s">
         <v>199</v>
       </c>
-      <c r="X8" s="294"/>
-      <c r="Y8" s="294"/>
-      <c r="Z8" s="294"/>
-      <c r="AA8" s="294"/>
-      <c r="AB8" s="294"/>
-      <c r="AC8" s="294"/>
-      <c r="AD8" s="295"/>
+      <c r="X8" s="266"/>
+      <c r="Y8" s="266"/>
+      <c r="Z8" s="266"/>
+      <c r="AA8" s="266"/>
+      <c r="AB8" s="266"/>
+      <c r="AC8" s="266"/>
+      <c r="AD8" s="267"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="202"/>
@@ -13553,28 +13559,28 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="203"/>
-      <c r="U9" s="315"/>
-      <c r="V9" s="316"/>
-      <c r="W9" s="293" t="s">
+      <c r="U9" s="272"/>
+      <c r="V9" s="273"/>
+      <c r="W9" s="265" t="s">
         <v>239</v>
       </c>
-      <c r="X9" s="294"/>
-      <c r="Y9" s="294"/>
-      <c r="Z9" s="294"/>
-      <c r="AA9" s="294"/>
-      <c r="AB9" s="294"/>
-      <c r="AC9" s="294"/>
-      <c r="AD9" s="295"/>
+      <c r="X9" s="266"/>
+      <c r="Y9" s="266"/>
+      <c r="Z9" s="266"/>
+      <c r="AA9" s="266"/>
+      <c r="AB9" s="266"/>
+      <c r="AC9" s="266"/>
+      <c r="AD9" s="267"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="202"/>
-      <c r="B10" s="243" t="s">
+      <c r="B10" s="246" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
       <c r="G10" s="56">
         <f>G5</f>
         <v>568329.18000000005</v>
@@ -13585,30 +13591,30 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="203"/>
-      <c r="U10" s="255" t="s">
+      <c r="U10" s="274" t="s">
         <v>246</v>
       </c>
-      <c r="V10" s="256"/>
-      <c r="W10" s="243" t="s">
+      <c r="V10" s="275"/>
+      <c r="W10" s="246" t="s">
         <v>263</v>
       </c>
-      <c r="X10" s="243"/>
-      <c r="Y10" s="243"/>
-      <c r="Z10" s="243"/>
-      <c r="AA10" s="243"/>
-      <c r="AB10" s="243"/>
-      <c r="AC10" s="243"/>
-      <c r="AD10" s="279"/>
+      <c r="X10" s="246"/>
+      <c r="Y10" s="246"/>
+      <c r="Z10" s="246"/>
+      <c r="AA10" s="246"/>
+      <c r="AB10" s="246"/>
+      <c r="AC10" s="246"/>
+      <c r="AD10" s="259"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="202"/>
-      <c r="B11" s="243" t="s">
+      <c r="B11" s="246" t="s">
         <v>259</v>
       </c>
-      <c r="C11" s="243"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="243"/>
-      <c r="F11" s="243"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
       <c r="G11" s="56">
         <v>1089400</v>
       </c>
@@ -13618,30 +13624,30 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="203"/>
-      <c r="U11" s="255" t="s">
+      <c r="U11" s="274" t="s">
         <v>262</v>
       </c>
-      <c r="V11" s="256"/>
-      <c r="W11" s="311" t="s">
+      <c r="V11" s="275"/>
+      <c r="W11" s="268" t="s">
         <v>264</v>
       </c>
-      <c r="X11" s="311"/>
-      <c r="Y11" s="311"/>
-      <c r="Z11" s="311"/>
-      <c r="AA11" s="311"/>
-      <c r="AB11" s="311"/>
-      <c r="AC11" s="311"/>
-      <c r="AD11" s="312"/>
+      <c r="X11" s="268"/>
+      <c r="Y11" s="268"/>
+      <c r="Z11" s="268"/>
+      <c r="AA11" s="268"/>
+      <c r="AB11" s="268"/>
+      <c r="AC11" s="268"/>
+      <c r="AD11" s="269"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="202"/>
-      <c r="B12" s="278" t="s">
+      <c r="B12" s="315" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="278"/>
-      <c r="D12" s="278"/>
-      <c r="E12" s="278"/>
-      <c r="F12" s="278"/>
+      <c r="C12" s="315"/>
+      <c r="D12" s="315"/>
+      <c r="E12" s="315"/>
+      <c r="F12" s="315"/>
       <c r="G12" s="207">
         <f>SUM(G10:G11)</f>
         <v>1657729.1800000002</v>
@@ -13652,16 +13658,16 @@
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="203"/>
-      <c r="U12" s="255"/>
-      <c r="V12" s="256"/>
-      <c r="W12" s="243"/>
-      <c r="X12" s="243"/>
-      <c r="Y12" s="243"/>
-      <c r="Z12" s="243"/>
-      <c r="AA12" s="243"/>
-      <c r="AB12" s="243"/>
-      <c r="AC12" s="243"/>
-      <c r="AD12" s="279"/>
+      <c r="U12" s="274"/>
+      <c r="V12" s="275"/>
+      <c r="W12" s="246"/>
+      <c r="X12" s="246"/>
+      <c r="Y12" s="246"/>
+      <c r="Z12" s="246"/>
+      <c r="AA12" s="246"/>
+      <c r="AB12" s="246"/>
+      <c r="AC12" s="246"/>
+      <c r="AD12" s="259"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="204"/>
@@ -13677,223 +13683,223 @@
       <c r="K13" s="205"/>
       <c r="L13" s="205"/>
       <c r="M13" s="206"/>
-      <c r="U13" s="255"/>
-      <c r="V13" s="256"/>
-      <c r="W13" s="243"/>
-      <c r="X13" s="243"/>
-      <c r="Y13" s="243"/>
-      <c r="Z13" s="243"/>
-      <c r="AA13" s="243"/>
-      <c r="AB13" s="243"/>
-      <c r="AC13" s="243"/>
-      <c r="AD13" s="279"/>
+      <c r="U13" s="274"/>
+      <c r="V13" s="275"/>
+      <c r="W13" s="246"/>
+      <c r="X13" s="246"/>
+      <c r="Y13" s="246"/>
+      <c r="Z13" s="246"/>
+      <c r="AA13" s="246"/>
+      <c r="AB13" s="246"/>
+      <c r="AC13" s="246"/>
+      <c r="AD13" s="259"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U14" s="296"/>
-      <c r="V14" s="297"/>
-      <c r="W14" s="289"/>
-      <c r="X14" s="289"/>
-      <c r="Y14" s="289"/>
-      <c r="Z14" s="289"/>
-      <c r="AA14" s="289"/>
-      <c r="AB14" s="289"/>
-      <c r="AC14" s="289"/>
-      <c r="AD14" s="290"/>
+      <c r="U14" s="286"/>
+      <c r="V14" s="287"/>
+      <c r="W14" s="260"/>
+      <c r="X14" s="260"/>
+      <c r="Y14" s="260"/>
+      <c r="Z14" s="260"/>
+      <c r="AA14" s="260"/>
+      <c r="AB14" s="260"/>
+      <c r="AC14" s="260"/>
+      <c r="AD14" s="261"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="199"/>
       <c r="B18" s="200"/>
       <c r="C18" s="200"/>
-      <c r="D18" s="263" t="s">
+      <c r="D18" s="316" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="263"/>
-      <c r="F18" s="263"/>
-      <c r="G18" s="263"/>
-      <c r="H18" s="263"/>
-      <c r="I18" s="263"/>
-      <c r="J18" s="263"/>
-      <c r="K18" s="263"/>
-      <c r="L18" s="263"/>
+      <c r="E18" s="316"/>
+      <c r="F18" s="316"/>
+      <c r="G18" s="316"/>
+      <c r="H18" s="316"/>
+      <c r="I18" s="316"/>
+      <c r="J18" s="316"/>
+      <c r="K18" s="316"/>
+      <c r="L18" s="316"/>
       <c r="M18" s="201"/>
-      <c r="O18" s="298" t="s">
+      <c r="O18" s="288" t="s">
         <v>253</v>
       </c>
-      <c r="P18" s="299"/>
-      <c r="Q18" s="299"/>
-      <c r="R18" s="299"/>
-      <c r="S18" s="300"/>
+      <c r="P18" s="289"/>
+      <c r="Q18" s="289"/>
+      <c r="R18" s="289"/>
+      <c r="S18" s="290"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="202"/>
       <c r="M19" s="203"/>
-      <c r="O19" s="273" t="s">
+      <c r="O19" s="281" t="s">
         <v>254</v>
       </c>
-      <c r="P19" s="243"/>
-      <c r="Q19" s="243"/>
-      <c r="R19" s="243"/>
-      <c r="S19" s="279"/>
+      <c r="P19" s="246"/>
+      <c r="Q19" s="246"/>
+      <c r="R19" s="246"/>
+      <c r="S19" s="259"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="202"/>
-      <c r="B20" s="264" t="s">
+      <c r="B20" s="311" t="s">
         <v>257</v>
       </c>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265"/>
-      <c r="E20" s="265"/>
-      <c r="F20" s="265"/>
+      <c r="C20" s="312"/>
+      <c r="D20" s="312"/>
+      <c r="E20" s="312"/>
+      <c r="F20" s="312"/>
       <c r="G20" s="70">
-        <v>430000</v>
+        <v>440000</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="I20" s="266" t="s">
+      <c r="I20" s="264" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="243"/>
-      <c r="K20" s="243"/>
-      <c r="L20" s="243"/>
+      <c r="J20" s="246"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="246"/>
       <c r="M20" s="203"/>
-      <c r="O20" s="273" t="s">
+      <c r="O20" s="281" t="s">
         <v>255</v>
       </c>
-      <c r="P20" s="243"/>
-      <c r="Q20" s="243"/>
-      <c r="R20" s="243"/>
-      <c r="S20" s="279"/>
+      <c r="P20" s="246"/>
+      <c r="Q20" s="246"/>
+      <c r="R20" s="246"/>
+      <c r="S20" s="259"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="202"/>
-      <c r="B21" s="276" t="s">
+      <c r="B21" s="291" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="277"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="277"/>
-      <c r="F21" s="260"/>
+      <c r="C21" s="292"/>
+      <c r="D21" s="292"/>
+      <c r="E21" s="292"/>
+      <c r="F21" s="293"/>
       <c r="G21" s="173">
         <f>G12</f>
         <v>1657729.1800000002</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="I21" s="261" t="s">
+      <c r="I21" s="283" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="262"/>
-      <c r="K21" s="269">
+      <c r="J21" s="300"/>
+      <c r="K21" s="302">
         <f>G23</f>
-        <v>2287729.1800000002</v>
-      </c>
-      <c r="L21" s="270"/>
+        <v>2297729.1800000002</v>
+      </c>
+      <c r="L21" s="303"/>
       <c r="M21" s="203"/>
       <c r="N21" s="197"/>
-      <c r="O21" s="273" t="s">
+      <c r="O21" s="281" t="s">
         <v>261</v>
       </c>
-      <c r="P21" s="243"/>
-      <c r="Q21" s="243"/>
-      <c r="R21" s="243"/>
-      <c r="S21" s="279"/>
+      <c r="P21" s="246"/>
+      <c r="Q21" s="246"/>
+      <c r="R21" s="246"/>
+      <c r="S21" s="259"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="202"/>
-      <c r="B22" s="282" t="s">
+      <c r="B22" s="294" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="283"/>
-      <c r="D22" s="283"/>
-      <c r="E22" s="283"/>
-      <c r="F22" s="284"/>
+      <c r="C22" s="295"/>
+      <c r="D22" s="295"/>
+      <c r="E22" s="295"/>
+      <c r="F22" s="296"/>
       <c r="G22" s="173">
         <v>200000</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="I22" s="259" t="s">
+      <c r="I22" s="301" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="260"/>
-      <c r="K22" s="271">
+      <c r="J22" s="293"/>
+      <c r="K22" s="306">
         <f>Pengeluaran!L30</f>
         <v>46000</v>
       </c>
-      <c r="L22" s="272"/>
+      <c r="L22" s="307"/>
       <c r="M22" s="203"/>
       <c r="N22" s="197"/>
-      <c r="O22" s="280" t="s">
+      <c r="O22" s="276" t="s">
         <v>265</v>
       </c>
-      <c r="P22" s="266"/>
-      <c r="Q22" s="266"/>
-      <c r="R22" s="266"/>
-      <c r="S22" s="281"/>
+      <c r="P22" s="264"/>
+      <c r="Q22" s="264"/>
+      <c r="R22" s="264"/>
+      <c r="S22" s="310"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="202"/>
-      <c r="B23" s="276" t="s">
+      <c r="B23" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="277"/>
-      <c r="D23" s="277"/>
-      <c r="E23" s="277"/>
-      <c r="F23" s="260"/>
+      <c r="C23" s="292"/>
+      <c r="D23" s="292"/>
+      <c r="E23" s="292"/>
+      <c r="F23" s="293"/>
       <c r="G23" s="173">
         <f>SUM(G20:G22)</f>
-        <v>2287729.1800000002</v>
+        <v>2297729.1800000002</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="I23" s="259" t="s">
+      <c r="I23" s="301" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="260"/>
-      <c r="K23" s="267">
-        <f>Pemasukkan!F42</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="268"/>
+      <c r="J23" s="293"/>
+      <c r="K23" s="304">
+        <f>Pemasukkan!L31</f>
+        <v>64000</v>
+      </c>
+      <c r="L23" s="305"/>
       <c r="M23" s="203"/>
       <c r="N23" s="197"/>
-      <c r="O23" s="273" t="s">
+      <c r="O23" s="281" t="s">
         <v>267</v>
       </c>
-      <c r="P23" s="243"/>
-      <c r="Q23" s="243"/>
-      <c r="R23" s="243"/>
-      <c r="S23" s="279"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="259"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="202"/>
-      <c r="B24" s="285" t="s">
+      <c r="B24" s="297" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="286"/>
-      <c r="D24" s="286"/>
-      <c r="E24" s="286"/>
-      <c r="F24" s="287"/>
+      <c r="C24" s="298"/>
+      <c r="D24" s="298"/>
+      <c r="E24" s="298"/>
+      <c r="F24" s="299"/>
       <c r="G24" s="174">
         <f>K24</f>
-        <v>2241729.1800000002</v>
+        <v>2315729.1800000002</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="I24" s="261" t="s">
+      <c r="I24" s="283" t="s">
         <v>191</v>
       </c>
-      <c r="J24" s="262"/>
-      <c r="K24" s="257">
+      <c r="J24" s="300"/>
+      <c r="K24" s="308">
         <f>(K21-K22)+K23</f>
-        <v>2241729.1800000002</v>
-      </c>
-      <c r="L24" s="258"/>
+        <v>2315729.1800000002</v>
+      </c>
+      <c r="L24" s="309"/>
       <c r="M24" s="203"/>
       <c r="N24" s="197"/>
-      <c r="O24" s="273" t="s">
+      <c r="O24" s="281" t="s">
         <v>268</v>
       </c>
-      <c r="P24" s="243"/>
-      <c r="Q24" s="243"/>
-      <c r="R24" s="243"/>
-      <c r="S24" s="279"/>
+      <c r="P24" s="246"/>
+      <c r="Q24" s="246"/>
+      <c r="R24" s="246"/>
+      <c r="S24" s="259"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="202"/>
@@ -13910,13 +13916,13 @@
       <c r="L25" s="24"/>
       <c r="M25" s="203"/>
       <c r="N25" s="197"/>
-      <c r="O25" s="273" t="s">
+      <c r="O25" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="P25" s="243"/>
-      <c r="Q25" s="243"/>
-      <c r="R25" s="243"/>
-      <c r="S25" s="279"/>
+      <c r="P25" s="246"/>
+      <c r="Q25" s="246"/>
+      <c r="R25" s="246"/>
+      <c r="S25" s="259"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="202"/>
@@ -13933,11 +13939,11 @@
       <c r="L26" s="24"/>
       <c r="M26" s="203"/>
       <c r="N26" s="197"/>
-      <c r="O26" s="273"/>
-      <c r="P26" s="243"/>
-      <c r="Q26" s="243"/>
-      <c r="R26" s="243"/>
-      <c r="S26" s="279"/>
+      <c r="O26" s="281"/>
+      <c r="P26" s="246"/>
+      <c r="Q26" s="246"/>
+      <c r="R26" s="246"/>
+      <c r="S26" s="259"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="204"/>
@@ -13954,11 +13960,11 @@
       <c r="L27" s="205"/>
       <c r="M27" s="206"/>
       <c r="N27" s="197"/>
-      <c r="O27" s="288"/>
-      <c r="P27" s="289"/>
-      <c r="Q27" s="289"/>
-      <c r="R27" s="289"/>
-      <c r="S27" s="290"/>
+      <c r="O27" s="282"/>
+      <c r="P27" s="260"/>
+      <c r="Q27" s="260"/>
+      <c r="R27" s="260"/>
+      <c r="S27" s="261"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="197"/>
@@ -13984,6 +13990,56 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="66">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="W4:AD4"/>
+    <mergeCell ref="W8:AD8"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="O23:S23"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:AD3"/>
     <mergeCell ref="W12:AD12"/>
@@ -14000,56 +14056,6 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:AD4"/>
-    <mergeCell ref="W8:AD8"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="W6:AD6"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14060,8 +14066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M220"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31:M31"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14075,58 +14081,58 @@
     <col min="8" max="8" width="19.140625" style="53" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="53" customWidth="1"/>
     <col min="10" max="10" width="34" style="53" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="53" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="53" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" style="53" customWidth="1"/>
     <col min="13" max="13" width="77.140625" style="53" customWidth="1"/>
     <col min="14" max="16384" width="14.42578125" style="53"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="317" t="s">
+      <c r="C2" s="326" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="318"/>
-      <c r="E2" s="318"/>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
+      <c r="K2" s="327"/>
     </row>
     <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="327"/>
+      <c r="E3" s="327"/>
+      <c r="F3" s="327"/>
+      <c r="G3" s="327"/>
+      <c r="H3" s="327"/>
+      <c r="I3" s="327"/>
+      <c r="J3" s="327"/>
+      <c r="K3" s="327"/>
     </row>
     <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="325" t="s">
+      <c r="C5" s="319" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="I5" s="325" t="s">
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="I5" s="319" t="s">
         <v>251</v>
       </c>
-      <c r="J5" s="325"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
+      <c r="J5" s="319"/>
+      <c r="K5" s="319"/>
+      <c r="L5" s="319"/>
+      <c r="M5" s="319"/>
     </row>
     <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>187</v>
@@ -14141,7 +14147,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="198" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="K6" s="198" t="s">
         <v>187</v>
@@ -14172,10 +14178,18 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="66"/>
+      <c r="J7" s="198" t="s">
+        <v>270</v>
+      </c>
+      <c r="K7" s="60">
+        <v>43709</v>
+      </c>
+      <c r="L7" s="64">
+        <v>64000</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="8" spans="3:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
@@ -14507,7 +14521,7 @@
       </c>
       <c r="L27" s="63">
         <f>SUM(L7:L26)</f>
-        <v>0</v>
+        <v>64000</v>
       </c>
       <c r="M27" s="24"/>
     </row>
@@ -14519,88 +14533,874 @@
       <c r="M28" s="197"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="264" t="s">
+      <c r="D29" s="311" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="265"/>
-      <c r="F29" s="319">
+      <c r="E29" s="312"/>
+      <c r="F29" s="320">
         <f>'Hitung Pemasukan Pengeluaran'!G6</f>
         <v>760000</v>
       </c>
-      <c r="G29" s="320"/>
+      <c r="G29" s="321"/>
       <c r="I29" s="197"/>
-      <c r="J29" s="264" t="s">
+      <c r="J29" s="311" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="265"/>
-      <c r="L29" s="319">
+      <c r="K29" s="312"/>
+      <c r="L29" s="320">
         <f>'Hitung Pemasukan Pengeluaran'!G23</f>
-        <v>2287729.1800000002</v>
-      </c>
-      <c r="M29" s="320"/>
+        <v>2297729.1800000002</v>
+      </c>
+      <c r="M29" s="321"/>
     </row>
     <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="280" t="s">
+      <c r="D30" s="276" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="243"/>
-      <c r="F30" s="321">
+      <c r="E30" s="246"/>
+      <c r="F30" s="322">
         <f>Pengeluaran!F30</f>
         <v>903300</v>
       </c>
-      <c r="G30" s="322"/>
+      <c r="G30" s="323"/>
       <c r="I30" s="197"/>
-      <c r="J30" s="280" t="s">
+      <c r="J30" s="276" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="243"/>
-      <c r="L30" s="321">
+      <c r="K30" s="246"/>
+      <c r="L30" s="322">
         <f>Pengeluaran!L30</f>
         <v>46000</v>
       </c>
-      <c r="M30" s="322"/>
+      <c r="M30" s="323"/>
     </row>
     <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="273" t="s">
+      <c r="D31" s="281" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="243"/>
-      <c r="F31" s="326">
+      <c r="E31" s="246"/>
+      <c r="F31" s="324">
         <f>F27</f>
         <v>222000</v>
       </c>
-      <c r="G31" s="327"/>
+      <c r="G31" s="325"/>
       <c r="I31" s="197"/>
-      <c r="J31" s="273" t="s">
+      <c r="J31" s="281" t="s">
         <v>98</v>
       </c>
-      <c r="K31" s="243"/>
-      <c r="L31" s="326">
+      <c r="K31" s="246"/>
+      <c r="L31" s="324">
         <f>L27</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="327"/>
+        <v>64000</v>
+      </c>
+      <c r="M31" s="325"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="274" t="s">
+      <c r="D32" s="313" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="275"/>
-      <c r="F32" s="323">
+      <c r="E32" s="314"/>
+      <c r="F32" s="317">
         <f>'Hitung Pemasukan Pengeluaran'!G8</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="G32" s="324"/>
+      <c r="G32" s="318"/>
       <c r="I32" s="197"/>
-      <c r="J32" s="274" t="s">
+      <c r="J32" s="313" t="s">
         <v>190</v>
       </c>
-      <c r="K32" s="275"/>
-      <c r="L32" s="323">
+      <c r="K32" s="314"/>
+      <c r="L32" s="317">
         <f>'Hitung Pemasukan Pengeluaran'!G24</f>
-        <v>2241729.1800000002</v>
-      </c>
-      <c r="M32" s="324"/>
+        <v>2315729.1800000002</v>
+      </c>
+      <c r="M32" s="318"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C2:K3"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J32:K32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:M220"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="10" max="10" width="35.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="13" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="332" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="333"/>
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+    </row>
+    <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="333"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="333"/>
+      <c r="F3" s="333"/>
+      <c r="G3" s="333"/>
+      <c r="H3" s="333"/>
+      <c r="I3" s="333"/>
+      <c r="J3" s="333"/>
+      <c r="K3" s="333"/>
+    </row>
+    <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="319" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="I5" s="319" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="319"/>
+      <c r="K5" s="319"/>
+      <c r="L5" s="319"/>
+      <c r="M5" s="319"/>
+    </row>
+    <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="198" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="198" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="57">
+        <v>1</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="56">
+        <v>750000</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" s="64">
+        <v>21000</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="57">
+        <v>2</v>
+      </c>
+      <c r="D8" s="158" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="61">
+        <v>45000</v>
+      </c>
+      <c r="G8" s="158"/>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L8" s="64">
+        <v>25000</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="159">
+        <v>3</v>
+      </c>
+      <c r="D9" s="162" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="163" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="56">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="57">
+        <v>4</v>
+      </c>
+      <c r="D10" s="160" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="161">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="160"/>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="57">
+        <v>5</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="56">
+        <v>800</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="57">
+        <v>6</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="56">
+        <v>6500</v>
+      </c>
+      <c r="G12" s="57"/>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="I13" s="1">
+        <v>7</v>
+      </c>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="I14" s="1">
+        <v>8</v>
+      </c>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="57">
+        <v>9</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="I15" s="1">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="57">
+        <v>10</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="57">
+        <v>11</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="I17" s="1">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="57">
+        <v>12</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="I18" s="1">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="57">
+        <v>13</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="I19" s="1">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="57">
+        <v>14</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="I20" s="1">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="57">
+        <v>15</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="I21" s="1">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="57">
+        <v>16</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="I22" s="1">
+        <v>16</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="57">
+        <v>17</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="I23" s="1">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="57">
+        <v>18</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
+      <c r="I24" s="1">
+        <v>18</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="57">
+        <v>19</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="I25" s="1">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="57">
+        <v>20</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="57"/>
+      <c r="I26" s="1">
+        <v>20</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="63">
+        <f>SUM(F7:F26)</f>
+        <v>903300</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="56">
+        <f>SUM(L7:L26)</f>
+        <v>46000</v>
+      </c>
+      <c r="M27" s="57"/>
+    </row>
+    <row r="28" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="197"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="197"/>
+    </row>
+    <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="255" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="257"/>
+      <c r="F29" s="330">
+        <f>'Hitung Pemasukan Pengeluaran'!G6</f>
+        <v>760000</v>
+      </c>
+      <c r="G29" s="331"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="255" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="257"/>
+      <c r="L29" s="330">
+        <f>'Hitung Pemasukan Pengeluaran'!G23</f>
+        <v>2297729.1800000002</v>
+      </c>
+      <c r="M29" s="331"/>
+    </row>
+    <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="281" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="246"/>
+      <c r="F30" s="322">
+        <f>F27</f>
+        <v>903300</v>
+      </c>
+      <c r="G30" s="323"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="281" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="246"/>
+      <c r="L30" s="322">
+        <f>L27</f>
+        <v>46000</v>
+      </c>
+      <c r="M30" s="323"/>
+    </row>
+    <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="281" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="246"/>
+      <c r="F31" s="324">
+        <f>Pemasukkan!F27</f>
+        <v>222000</v>
+      </c>
+      <c r="G31" s="325"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="281" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" s="246"/>
+      <c r="L31" s="324">
+        <f>Pemasukkan!L27</f>
+        <v>64000</v>
+      </c>
+      <c r="M31" s="325"/>
+    </row>
+    <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="313" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="314"/>
+      <c r="F32" s="328">
+        <f>'Hitung Pemasukan Pengeluaran'!G8</f>
+        <v>1651229.1800000002</v>
+      </c>
+      <c r="G32" s="329"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="313" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" s="314"/>
+      <c r="L32" s="328">
+        <f>'Hitung Pemasukan Pengeluaran'!M8</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="329"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14793,801 +15593,6 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="C2:K3"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J29:K29"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M220"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="13" width="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="328" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
-    </row>
-    <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-    </row>
-    <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="325" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="I5" s="325" t="s">
-        <v>249</v>
-      </c>
-      <c r="J5" s="325"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
-    </row>
-    <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="198" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="198" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="198" t="s">
-        <v>182</v>
-      </c>
-      <c r="L6" s="198" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" s="198" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="57">
-        <v>1</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="56">
-        <v>750000</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L7" s="64">
-        <v>21000</v>
-      </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="57">
-        <v>2</v>
-      </c>
-      <c r="D8" s="158" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="61">
-        <v>45000</v>
-      </c>
-      <c r="G8" s="158"/>
-      <c r="I8" s="1">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L8" s="64">
-        <v>25000</v>
-      </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="159">
-        <v>3</v>
-      </c>
-      <c r="D9" s="162" t="s">
-        <v>224</v>
-      </c>
-      <c r="E9" s="163" t="s">
-        <v>225</v>
-      </c>
-      <c r="F9" s="56">
-        <v>100000</v>
-      </c>
-      <c r="G9" s="57"/>
-      <c r="I9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="57">
-        <v>4</v>
-      </c>
-      <c r="D10" s="160" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="161">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="160"/>
-      <c r="I10" s="1">
-        <v>4</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="57">
-        <v>5</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" s="56">
-        <v>800</v>
-      </c>
-      <c r="G11" s="57"/>
-      <c r="I11" s="1">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="57">
-        <v>6</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F12" s="56">
-        <v>6500</v>
-      </c>
-      <c r="G12" s="57"/>
-      <c r="I12" s="1">
-        <v>6</v>
-      </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="I13" s="1">
-        <v>7</v>
-      </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="I14" s="1">
-        <v>8</v>
-      </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="57">
-        <v>9</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="I15" s="1">
-        <v>9</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="57">
-        <v>10</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="57">
-        <v>11</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="I17" s="1">
-        <v>11</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="57">
-        <v>12</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="I18" s="1">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="57">
-        <v>13</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="I19" s="1">
-        <v>13</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="57">
-        <v>14</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="I20" s="1">
-        <v>14</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="57">
-        <v>15</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="I21" s="1">
-        <v>15</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="57">
-        <v>16</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="I22" s="1">
-        <v>16</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="57">
-        <v>17</v>
-      </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="I23" s="1">
-        <v>17</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="57">
-        <v>18</v>
-      </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-      <c r="I24" s="1">
-        <v>18</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="57">
-        <v>19</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
-      <c r="I25" s="1">
-        <v>19</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="57">
-        <v>20</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="57"/>
-      <c r="I26" s="1">
-        <v>20</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="63">
-        <f>SUM(F7:F26)</f>
-        <v>903300</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="56">
-        <f>SUM(L7:L26)</f>
-        <v>46000</v>
-      </c>
-      <c r="M27" s="57"/>
-    </row>
-    <row r="28" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="197"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="197"/>
-    </row>
-    <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="305" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="307"/>
-      <c r="F29" s="330">
-        <f>'Hitung Pemasukan Pengeluaran'!G6</f>
-        <v>760000</v>
-      </c>
-      <c r="G29" s="331"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="305" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" s="307"/>
-      <c r="L29" s="330">
-        <f>'Hitung Pemasukan Pengeluaran'!G23</f>
-        <v>2287729.1800000002</v>
-      </c>
-      <c r="M29" s="331"/>
-    </row>
-    <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="273" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="243"/>
-      <c r="F30" s="321">
-        <f>F27</f>
-        <v>903300</v>
-      </c>
-      <c r="G30" s="322"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="273" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="243"/>
-      <c r="L30" s="321">
-        <f>L27</f>
-        <v>46000</v>
-      </c>
-      <c r="M30" s="322"/>
-    </row>
-    <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="273" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="243"/>
-      <c r="F31" s="326">
-        <f>Pemasukkan!F27</f>
-        <v>222000</v>
-      </c>
-      <c r="G31" s="327"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="273" t="s">
-        <v>98</v>
-      </c>
-      <c r="K31" s="243"/>
-      <c r="L31" s="326">
-        <f>Pemasukkan!L27</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="327"/>
-    </row>
-    <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="274" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="275"/>
-      <c r="F32" s="332">
-        <f>'Hitung Pemasukan Pengeluaran'!G8</f>
-        <v>1651229.1800000002</v>
-      </c>
-      <c r="G32" s="333"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="274" t="s">
-        <v>191</v>
-      </c>
-      <c r="K32" s="275"/>
-      <c r="L32" s="332">
-        <f>'Hitung Pemasukan Pengeluaran'!M8</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="333"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="19">
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
@@ -15599,6 +15604,14 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="533" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-2205" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="533" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2018(NOT UPDATED)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="274">
   <si>
     <t>LAPORAN KEUANGAN KAS GAS</t>
   </si>
@@ -805,9 +805,6 @@
     <t>Total Uang Di Setor Rekening</t>
   </si>
   <si>
-    <t>4k sisa ambil duit perkap gelex masi di rapli</t>
-  </si>
-  <si>
     <t>(*T)</t>
   </si>
   <si>
@@ -836,6 +833,15 @@
   </si>
   <si>
     <t>Gagas, Evita, Ino,Khairul,Luqman,Sagina,Devina,Raihan @8k</t>
+  </si>
+  <si>
+    <t>Pendaftaran OH 2</t>
+  </si>
+  <si>
+    <t>Ani(kembali2k),Arnanto,Christopher,Zain,Novan,Zaki,Fachry,Ahmad</t>
+  </si>
+  <si>
+    <t>Alfi KAS 10k tunai</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +1984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="347">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2412,29 +2418,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2450,37 +2447,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2488,28 +2487,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2524,33 +2677,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2569,133 +2701,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2707,29 +2728,23 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="13" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2737,18 +2752,6 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2783,6 +2786,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3606,126 +3615,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="220"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="214"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="221"/>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="222"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="222"/>
+      <c r="A2" s="215"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="221"/>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="222"/>
-      <c r="H3" s="222"/>
-      <c r="I3" s="222"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="222"/>
-      <c r="M3" s="222"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="222"/>
-      <c r="P3" s="222"/>
-      <c r="Q3" s="222"/>
-      <c r="R3" s="222"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="216"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="221"/>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="222"/>
-      <c r="J4" s="222"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="222"/>
-      <c r="O4" s="222"/>
-      <c r="P4" s="222"/>
-      <c r="Q4" s="222"/>
-      <c r="R4" s="222"/>
+      <c r="A4" s="215"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+      <c r="K4" s="216"/>
+      <c r="L4" s="216"/>
+      <c r="M4" s="216"/>
+      <c r="N4" s="216"/>
+      <c r="O4" s="216"/>
+      <c r="P4" s="216"/>
+      <c r="Q4" s="216"/>
+      <c r="R4" s="216"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="221"/>
-      <c r="B5" s="222"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="222"/>
-      <c r="J5" s="222"/>
-      <c r="K5" s="222"/>
-      <c r="L5" s="222"/>
-      <c r="M5" s="222"/>
-      <c r="N5" s="222"/>
-      <c r="O5" s="222"/>
-      <c r="P5" s="222"/>
-      <c r="Q5" s="222"/>
-      <c r="R5" s="222"/>
+      <c r="A5" s="215"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="216"/>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="216"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="221"/>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="222"/>
-      <c r="N6" s="222"/>
-      <c r="O6" s="222"/>
-      <c r="P6" s="222"/>
-      <c r="Q6" s="222"/>
-      <c r="R6" s="222"/>
+      <c r="A6" s="215"/>
+      <c r="B6" s="216"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="216"/>
+      <c r="L6" s="216"/>
+      <c r="M6" s="216"/>
+      <c r="N6" s="216"/>
+      <c r="O6" s="216"/>
+      <c r="P6" s="216"/>
+      <c r="Q6" s="216"/>
+      <c r="R6" s="216"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="s">
@@ -6670,58 +6679,58 @@
     <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J79" s="224" t="s">
+      <c r="J79" s="221" t="s">
         <v>65</v>
       </c>
-      <c r="K79" s="225"/>
-      <c r="L79" s="225"/>
-      <c r="M79" s="225"/>
-      <c r="N79" s="226"/>
-      <c r="P79" s="232" t="s">
+      <c r="K79" s="222"/>
+      <c r="L79" s="222"/>
+      <c r="M79" s="222"/>
+      <c r="N79" s="223"/>
+      <c r="P79" s="229" t="s">
         <v>66</v>
       </c>
-      <c r="Q79" s="225"/>
-      <c r="R79" s="225"/>
-      <c r="S79" s="226"/>
+      <c r="Q79" s="222"/>
+      <c r="R79" s="222"/>
+      <c r="S79" s="223"/>
     </row>
     <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J80" s="227" t="s">
+      <c r="J80" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="K80" s="222"/>
-      <c r="L80" s="222"/>
-      <c r="M80" s="222"/>
-      <c r="N80" s="228"/>
-      <c r="P80" s="227" t="s">
+      <c r="K80" s="216"/>
+      <c r="L80" s="216"/>
+      <c r="M80" s="216"/>
+      <c r="N80" s="225"/>
+      <c r="P80" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="Q80" s="222"/>
-      <c r="R80" s="222"/>
-      <c r="S80" s="228"/>
+      <c r="Q80" s="216"/>
+      <c r="R80" s="216"/>
+      <c r="S80" s="225"/>
     </row>
     <row r="81" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J81" s="229"/>
-      <c r="K81" s="230"/>
-      <c r="L81" s="230"/>
-      <c r="M81" s="230"/>
-      <c r="N81" s="231"/>
-      <c r="P81" s="229"/>
-      <c r="Q81" s="230"/>
-      <c r="R81" s="230"/>
-      <c r="S81" s="231"/>
+      <c r="J81" s="226"/>
+      <c r="K81" s="227"/>
+      <c r="L81" s="227"/>
+      <c r="M81" s="227"/>
+      <c r="N81" s="228"/>
+      <c r="P81" s="226"/>
+      <c r="Q81" s="227"/>
+      <c r="R81" s="227"/>
+      <c r="S81" s="228"/>
     </row>
     <row r="82" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J82" s="223" t="s">
+      <c r="J82" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="K82" s="214"/>
-      <c r="L82" s="215"/>
-      <c r="M82" s="223" t="s">
+      <c r="K82" s="220"/>
+      <c r="L82" s="218"/>
+      <c r="M82" s="219" t="s">
         <v>69</v>
       </c>
-      <c r="N82" s="215"/>
-      <c r="P82" s="223"/>
-      <c r="Q82" s="215"/>
+      <c r="N82" s="218"/>
+      <c r="P82" s="219"/>
+      <c r="Q82" s="218"/>
       <c r="R82" s="3" t="s">
         <v>19</v>
       </c>
@@ -6730,38 +6739,38 @@
       </c>
     </row>
     <row r="83" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J83" s="213" t="s">
+      <c r="J83" s="230" t="s">
         <v>70</v>
       </c>
-      <c r="K83" s="214"/>
-      <c r="L83" s="215"/>
-      <c r="M83" s="216">
+      <c r="K83" s="220"/>
+      <c r="L83" s="218"/>
+      <c r="M83" s="231">
         <v>7350000</v>
       </c>
-      <c r="N83" s="215"/>
+      <c r="N83" s="218"/>
       <c r="P83" s="217" t="s">
         <v>71</v>
       </c>
-      <c r="Q83" s="215"/>
+      <c r="Q83" s="218"/>
       <c r="R83" s="4"/>
       <c r="S83" s="5">
         <v>40000</v>
       </c>
     </row>
     <row r="84" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J84" s="213" t="s">
+      <c r="J84" s="230" t="s">
         <v>72</v>
       </c>
-      <c r="K84" s="214"/>
-      <c r="L84" s="215"/>
-      <c r="M84" s="218">
+      <c r="K84" s="220"/>
+      <c r="L84" s="218"/>
+      <c r="M84" s="232">
         <v>1100000</v>
       </c>
-      <c r="N84" s="215"/>
+      <c r="N84" s="218"/>
       <c r="P84" s="217" t="s">
         <v>73</v>
       </c>
-      <c r="Q84" s="215"/>
+      <c r="Q84" s="218"/>
       <c r="R84" s="6" t="s">
         <v>74</v>
       </c>
@@ -6770,39 +6779,39 @@
       </c>
     </row>
     <row r="85" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J85" s="213" t="s">
+      <c r="J85" s="230" t="s">
         <v>75</v>
       </c>
-      <c r="K85" s="214"/>
-      <c r="L85" s="215"/>
-      <c r="M85" s="216">
+      <c r="K85" s="220"/>
+      <c r="L85" s="218"/>
+      <c r="M85" s="231">
         <f>M83+M84</f>
         <v>8450000</v>
       </c>
-      <c r="N85" s="215"/>
+      <c r="N85" s="218"/>
       <c r="P85" s="217" t="s">
         <v>76</v>
       </c>
-      <c r="Q85" s="215"/>
+      <c r="Q85" s="218"/>
       <c r="R85" s="4"/>
       <c r="S85" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J86" s="213" t="s">
+      <c r="J86" s="230" t="s">
         <v>77</v>
       </c>
-      <c r="K86" s="214"/>
-      <c r="L86" s="215"/>
-      <c r="M86" s="216">
+      <c r="K86" s="220"/>
+      <c r="L86" s="218"/>
+      <c r="M86" s="231">
         <v>8411850</v>
       </c>
-      <c r="N86" s="215"/>
+      <c r="N86" s="218"/>
       <c r="P86" s="217" t="s">
         <v>78</v>
       </c>
-      <c r="Q86" s="215"/>
+      <c r="Q86" s="218"/>
       <c r="R86" s="4"/>
       <c r="S86" s="5">
         <f>S83-S84+S85</f>
@@ -6810,20 +6819,20 @@
       </c>
     </row>
     <row r="87" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J87" s="213" t="s">
+      <c r="J87" s="230" t="s">
         <v>79</v>
       </c>
-      <c r="K87" s="214"/>
-      <c r="L87" s="215"/>
-      <c r="M87" s="216">
+      <c r="K87" s="220"/>
+      <c r="L87" s="218"/>
+      <c r="M87" s="231">
         <f>M85-M86</f>
         <v>38150</v>
       </c>
-      <c r="N87" s="215"/>
+      <c r="N87" s="218"/>
       <c r="P87" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="Q87" s="215"/>
+      <c r="Q87" s="218"/>
       <c r="R87" s="4"/>
       <c r="S87" s="5">
         <f>M87+S86</f>
@@ -7012,6 +7021,17 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="23">
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="M84:N84"/>
     <mergeCell ref="A1:R6"/>
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="J82:L82"/>
@@ -7024,17 +7044,6 @@
     <mergeCell ref="P83:Q83"/>
     <mergeCell ref="P82:Q82"/>
     <mergeCell ref="P80:S81"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P86:Q86"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T52">
     <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
@@ -7068,8 +7077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BM260"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView defaultGridColor="0" colorId="8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7111,46 +7120,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="C2" s="241" t="s">
+      <c r="C2" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="221"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="222"/>
-      <c r="H3" s="222"/>
-      <c r="I3" s="222"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="222"/>
-      <c r="M3" s="222"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="222"/>
-      <c r="P3" s="222"/>
-      <c r="Q3" s="222"/>
-      <c r="R3" s="222"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="222"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="216"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="216"/>
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7237,25 +7246,25 @@
       <c r="V5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="247" t="s">
+      <c r="X5" s="245" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="214"/>
-      <c r="Z5" s="214"/>
-      <c r="AA5" s="214"/>
-      <c r="AB5" s="214"/>
-      <c r="AC5" s="214"/>
-      <c r="AD5" s="214"/>
-      <c r="AE5" s="214"/>
-      <c r="AF5" s="214"/>
-      <c r="AG5" s="214"/>
-      <c r="AH5" s="214"/>
-      <c r="AI5" s="214"/>
-      <c r="AJ5" s="214"/>
-      <c r="AK5" s="214"/>
-      <c r="AL5" s="214"/>
-      <c r="AM5" s="214"/>
-      <c r="AN5" s="215"/>
+      <c r="Y5" s="220"/>
+      <c r="Z5" s="220"/>
+      <c r="AA5" s="220"/>
+      <c r="AB5" s="220"/>
+      <c r="AC5" s="220"/>
+      <c r="AD5" s="220"/>
+      <c r="AE5" s="220"/>
+      <c r="AF5" s="220"/>
+      <c r="AG5" s="220"/>
+      <c r="AH5" s="220"/>
+      <c r="AI5" s="220"/>
+      <c r="AJ5" s="220"/>
+      <c r="AK5" s="220"/>
+      <c r="AL5" s="220"/>
+      <c r="AM5" s="220"/>
+      <c r="AN5" s="218"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -7320,29 +7329,29 @@
         <v>NO</v>
       </c>
       <c r="V6" s="13"/>
-      <c r="X6" s="242" t="s">
+      <c r="X6" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="242" t="s">
+      <c r="Y6" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="Z6" s="246" t="s">
+      <c r="Z6" s="243" t="s">
         <v>86</v>
       </c>
-      <c r="AA6" s="243"/>
-      <c r="AB6" s="243"/>
-      <c r="AC6" s="243"/>
-      <c r="AD6" s="243"/>
-      <c r="AE6" s="243"/>
-      <c r="AF6" s="243"/>
-      <c r="AG6" s="243"/>
-      <c r="AH6" s="243"/>
-      <c r="AI6" s="243"/>
-      <c r="AJ6" s="243"/>
-      <c r="AK6" s="243"/>
-      <c r="AL6" s="243"/>
-      <c r="AM6" s="243"/>
-      <c r="AN6" s="243"/>
+      <c r="AA6" s="244"/>
+      <c r="AB6" s="244"/>
+      <c r="AC6" s="244"/>
+      <c r="AD6" s="244"/>
+      <c r="AE6" s="244"/>
+      <c r="AF6" s="244"/>
+      <c r="AG6" s="244"/>
+      <c r="AH6" s="244"/>
+      <c r="AI6" s="244"/>
+      <c r="AJ6" s="244"/>
+      <c r="AK6" s="244"/>
+      <c r="AL6" s="244"/>
+      <c r="AM6" s="244"/>
+      <c r="AN6" s="244"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -7405,27 +7414,27 @@
         <v>NO</v>
       </c>
       <c r="V7" s="13"/>
-      <c r="X7" s="243"/>
-      <c r="Y7" s="243"/>
-      <c r="Z7" s="246" t="s">
+      <c r="X7" s="244"/>
+      <c r="Y7" s="244"/>
+      <c r="Z7" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="243"/>
-      <c r="AB7" s="243"/>
-      <c r="AC7" s="243"/>
-      <c r="AD7" s="246" t="s">
+      <c r="AA7" s="244"/>
+      <c r="AB7" s="244"/>
+      <c r="AC7" s="244"/>
+      <c r="AD7" s="243" t="s">
         <v>88</v>
       </c>
-      <c r="AE7" s="243"/>
-      <c r="AF7" s="243"/>
-      <c r="AG7" s="243"/>
-      <c r="AH7" s="243"/>
-      <c r="AI7" s="243"/>
-      <c r="AJ7" s="243"/>
-      <c r="AK7" s="243"/>
-      <c r="AL7" s="243"/>
-      <c r="AM7" s="243"/>
-      <c r="AN7" s="243"/>
+      <c r="AE7" s="244"/>
+      <c r="AF7" s="244"/>
+      <c r="AG7" s="244"/>
+      <c r="AH7" s="244"/>
+      <c r="AI7" s="244"/>
+      <c r="AJ7" s="244"/>
+      <c r="AK7" s="244"/>
+      <c r="AL7" s="244"/>
+      <c r="AM7" s="244"/>
+      <c r="AN7" s="244"/>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -7475,8 +7484,8 @@
         <v>NO</v>
       </c>
       <c r="V8" s="13"/>
-      <c r="X8" s="243"/>
-      <c r="Y8" s="243"/>
+      <c r="X8" s="244"/>
+      <c r="Y8" s="244"/>
       <c r="Z8" s="172" t="s">
         <v>19</v>
       </c>
@@ -8473,7 +8482,9 @@
       <c r="B18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="73">
+        <v>20</v>
+      </c>
       <c r="D18" s="73"/>
       <c r="E18" s="72"/>
       <c r="F18" s="72">
@@ -8489,7 +8500,7 @@
       <c r="N18" s="72"/>
       <c r="O18" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="P18" s="130">
         <f>'2018(NOT UPDATED)'!S22</f>
@@ -8497,19 +8508,19 @@
       </c>
       <c r="Q18" s="131">
         <f t="shared" si="4"/>
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="R18" s="132">
         <f t="shared" si="5"/>
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="S18" s="13">
         <f t="shared" si="1"/>
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="T18" s="14">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="U18" s="15" t="str">
         <f t="shared" si="3"/>
@@ -11932,7 +11943,7 @@
         <v>OK</v>
       </c>
       <c r="V48" s="74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X48" s="57"/>
       <c r="Y48" s="59"/>
@@ -12021,10 +12032,10 @@
       <c r="X49" s="24"/>
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
-      <c r="AA49" s="244" t="s">
+      <c r="AA49" s="241" t="s">
         <v>142</v>
       </c>
-      <c r="AB49" s="245"/>
+      <c r="AB49" s="242"/>
       <c r="AC49" s="16">
         <f>SUM(AC9:AC21)</f>
         <v>20000</v>
@@ -12102,12 +12113,12 @@
       <c r="AE50" s="21"/>
       <c r="AF50" s="21"/>
       <c r="AG50" s="21"/>
-      <c r="AI50" s="251" t="s">
+      <c r="AI50" s="237" t="s">
         <v>170</v>
       </c>
-      <c r="AJ50" s="252"/>
-      <c r="AK50" s="252"/>
-      <c r="AL50" s="253"/>
+      <c r="AJ50" s="238"/>
+      <c r="AK50" s="238"/>
+      <c r="AL50" s="239"/>
       <c r="AM50" s="40">
         <v>3077000</v>
       </c>
@@ -12168,12 +12179,12 @@
       <c r="AF51" s="21"/>
       <c r="AG51" s="21"/>
       <c r="AH51" s="21"/>
-      <c r="AI51" s="248" t="s">
+      <c r="AI51" s="234" t="s">
         <v>176</v>
       </c>
-      <c r="AJ51" s="249"/>
-      <c r="AK51" s="249"/>
-      <c r="AL51" s="250"/>
+      <c r="AJ51" s="235"/>
+      <c r="AK51" s="235"/>
+      <c r="AL51" s="236"/>
       <c r="AM51" s="41">
         <v>2550000</v>
       </c>
@@ -12439,14 +12450,14 @@
         <v>NO</v>
       </c>
       <c r="V55" s="2"/>
-      <c r="AC55" s="254"/>
-      <c r="AD55" s="254"/>
-      <c r="AI55" s="251" t="s">
+      <c r="AC55" s="240"/>
+      <c r="AD55" s="240"/>
+      <c r="AI55" s="237" t="s">
         <v>174</v>
       </c>
-      <c r="AJ55" s="252"/>
-      <c r="AK55" s="252"/>
-      <c r="AL55" s="253"/>
+      <c r="AJ55" s="238"/>
+      <c r="AK55" s="238"/>
+      <c r="AL55" s="239"/>
       <c r="AM55" s="38">
         <f>AM54</f>
         <v>2627000</v>
@@ -12699,32 +12710,32 @@
     <row r="61" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="234" t="s">
+      <c r="C63" s="246" t="s">
         <v>177</v>
       </c>
-      <c r="D63" s="235"/>
-      <c r="E63" s="235"/>
-      <c r="F63" s="235"/>
-      <c r="G63" s="236"/>
-      <c r="I63" s="240" t="s">
+      <c r="D63" s="247"/>
+      <c r="E63" s="247"/>
+      <c r="F63" s="247"/>
+      <c r="G63" s="248"/>
+      <c r="I63" s="252" t="s">
         <v>178</v>
       </c>
-      <c r="J63" s="240"/>
-      <c r="K63" s="240"/>
-      <c r="L63" s="240"/>
-      <c r="M63" s="240"/>
+      <c r="J63" s="252"/>
+      <c r="K63" s="252"/>
+      <c r="L63" s="252"/>
+      <c r="M63" s="252"/>
     </row>
     <row r="64" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="237"/>
-      <c r="D64" s="238"/>
-      <c r="E64" s="238"/>
-      <c r="F64" s="238"/>
-      <c r="G64" s="239"/>
-      <c r="I64" s="240"/>
-      <c r="J64" s="240"/>
-      <c r="K64" s="240"/>
-      <c r="L64" s="240"/>
-      <c r="M64" s="240"/>
+      <c r="C64" s="249"/>
+      <c r="D64" s="250"/>
+      <c r="E64" s="250"/>
+      <c r="F64" s="250"/>
+      <c r="G64" s="251"/>
+      <c r="I64" s="252"/>
+      <c r="J64" s="252"/>
+      <c r="K64" s="252"/>
+      <c r="L64" s="252"/>
+      <c r="M64" s="252"/>
     </row>
     <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13216,22 +13227,22 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
-    <mergeCell ref="AI56:AL56"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="AI50:AL50"/>
-    <mergeCell ref="AI55:AL55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="AD7:AN7"/>
-    <mergeCell ref="X5:AN5"/>
-    <mergeCell ref="Z6:AN6"/>
     <mergeCell ref="P70:Q70"/>
     <mergeCell ref="C63:G64"/>
     <mergeCell ref="I63:M64"/>
     <mergeCell ref="C2:T3"/>
     <mergeCell ref="Y6:Y8"/>
     <mergeCell ref="X6:X8"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="AD7:AN7"/>
+    <mergeCell ref="X5:AN5"/>
+    <mergeCell ref="Z6:AN6"/>
+    <mergeCell ref="AI56:AL56"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="AI50:AL50"/>
+    <mergeCell ref="AI55:AL55"/>
+    <mergeCell ref="AC55:AD55"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:V60">
     <cfRule type="expression" dxfId="10" priority="7">
@@ -13296,7 +13307,7 @@
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24:L24"/>
+      <selection activeCell="O26" sqref="O26:S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13317,17 +13328,17 @@
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
       <c r="C2" s="200"/>
-      <c r="D2" s="316" t="s">
+      <c r="D2" s="263" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316"/>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
       <c r="M2" s="201"/>
       <c r="N2" s="24"/>
     </row>
@@ -13345,205 +13356,205 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="203"/>
-      <c r="U3" s="255" t="s">
+      <c r="U3" s="304" t="s">
         <v>195</v>
       </c>
-      <c r="V3" s="256"/>
-      <c r="W3" s="257" t="s">
+      <c r="V3" s="305"/>
+      <c r="W3" s="306" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="256"/>
-      <c r="Z3" s="256"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="256"/>
-      <c r="AC3" s="256"/>
-      <c r="AD3" s="258"/>
+      <c r="X3" s="305"/>
+      <c r="Y3" s="305"/>
+      <c r="Z3" s="305"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="305"/>
+      <c r="AC3" s="305"/>
+      <c r="AD3" s="307"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="311" t="s">
+      <c r="B4" s="264" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="312"/>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
+      <c r="F4" s="265"/>
       <c r="G4" s="70">
         <v>1004200</v>
       </c>
       <c r="H4" s="24"/>
-      <c r="I4" s="264" t="s">
+      <c r="I4" s="266" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="246"/>
-      <c r="K4" s="246"/>
-      <c r="L4" s="246"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
       <c r="M4" s="203"/>
-      <c r="U4" s="276" t="s">
+      <c r="U4" s="280" t="s">
         <v>196</v>
       </c>
-      <c r="V4" s="246"/>
-      <c r="W4" s="264" t="s">
+      <c r="V4" s="243"/>
+      <c r="W4" s="266" t="s">
         <v>198</v>
       </c>
-      <c r="X4" s="246"/>
-      <c r="Y4" s="246"/>
-      <c r="Z4" s="246"/>
-      <c r="AA4" s="246"/>
-      <c r="AB4" s="246"/>
-      <c r="AC4" s="246"/>
-      <c r="AD4" s="259"/>
+      <c r="X4" s="243"/>
+      <c r="Y4" s="243"/>
+      <c r="Z4" s="243"/>
+      <c r="AA4" s="243"/>
+      <c r="AB4" s="243"/>
+      <c r="AC4" s="243"/>
+      <c r="AD4" s="279"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="281" t="s">
+      <c r="B5" s="273" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
-      <c r="F5" s="246"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="G5" s="173">
         <v>568329.18000000005</v>
       </c>
       <c r="H5" s="24"/>
-      <c r="I5" s="283" t="s">
+      <c r="I5" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="300"/>
-      <c r="K5" s="302">
+      <c r="J5" s="262"/>
+      <c r="K5" s="269">
         <f>G7</f>
         <v>2332529.1800000002</v>
       </c>
-      <c r="L5" s="303"/>
+      <c r="L5" s="270"/>
       <c r="M5" s="203"/>
-      <c r="U5" s="277" t="s">
+      <c r="U5" s="300" t="s">
         <v>233</v>
       </c>
-      <c r="V5" s="278"/>
-      <c r="W5" s="283" t="s">
+      <c r="V5" s="301"/>
+      <c r="W5" s="261" t="s">
         <v>234</v>
       </c>
-      <c r="X5" s="284"/>
-      <c r="Y5" s="284"/>
-      <c r="Z5" s="284"/>
-      <c r="AA5" s="284"/>
-      <c r="AB5" s="284"/>
-      <c r="AC5" s="284"/>
-      <c r="AD5" s="285"/>
+      <c r="X5" s="290"/>
+      <c r="Y5" s="290"/>
+      <c r="Z5" s="290"/>
+      <c r="AA5" s="290"/>
+      <c r="AB5" s="290"/>
+      <c r="AC5" s="290"/>
+      <c r="AD5" s="291"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="274" t="s">
+      <c r="B6" s="255" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="275"/>
-      <c r="D6" s="275"/>
-      <c r="E6" s="275"/>
-      <c r="F6" s="275"/>
+      <c r="C6" s="256"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
       <c r="G6" s="173">
         <v>760000</v>
       </c>
       <c r="H6" s="24"/>
-      <c r="I6" s="301" t="s">
+      <c r="I6" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="293"/>
-      <c r="K6" s="306">
+      <c r="J6" s="260"/>
+      <c r="K6" s="271">
         <f>Pengeluaran!F30</f>
         <v>903300</v>
       </c>
-      <c r="L6" s="307"/>
+      <c r="L6" s="272"/>
       <c r="M6" s="203"/>
-      <c r="U6" s="279"/>
-      <c r="V6" s="280"/>
-      <c r="W6" s="265" t="s">
+      <c r="U6" s="302"/>
+      <c r="V6" s="303"/>
+      <c r="W6" s="292" t="s">
         <v>235</v>
       </c>
-      <c r="X6" s="266"/>
-      <c r="Y6" s="266"/>
-      <c r="Z6" s="266"/>
-      <c r="AA6" s="266"/>
-      <c r="AB6" s="266"/>
-      <c r="AC6" s="266"/>
-      <c r="AD6" s="267"/>
+      <c r="X6" s="293"/>
+      <c r="Y6" s="293"/>
+      <c r="Z6" s="293"/>
+      <c r="AA6" s="293"/>
+      <c r="AB6" s="293"/>
+      <c r="AC6" s="293"/>
+      <c r="AD6" s="294"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="291" t="s">
+      <c r="B7" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="292"/>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="293"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="260"/>
       <c r="G7" s="173">
         <f>SUM(G4:G6)</f>
         <v>2332529.1800000002</v>
       </c>
       <c r="H7" s="24"/>
-      <c r="I7" s="301" t="s">
+      <c r="I7" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="293"/>
-      <c r="K7" s="304">
+      <c r="J7" s="260"/>
+      <c r="K7" s="267">
         <f>Pemasukkan!F31</f>
         <v>222000</v>
       </c>
-      <c r="L7" s="305"/>
+      <c r="L7" s="268"/>
       <c r="M7" s="203"/>
-      <c r="U7" s="262"/>
-      <c r="V7" s="263"/>
-      <c r="W7" s="264" t="s">
+      <c r="U7" s="308"/>
+      <c r="V7" s="309"/>
+      <c r="W7" s="266" t="s">
         <v>236</v>
       </c>
-      <c r="X7" s="246"/>
-      <c r="Y7" s="246"/>
-      <c r="Z7" s="246"/>
-      <c r="AA7" s="246"/>
-      <c r="AB7" s="246"/>
-      <c r="AC7" s="246"/>
-      <c r="AD7" s="259"/>
+      <c r="X7" s="243"/>
+      <c r="Y7" s="243"/>
+      <c r="Z7" s="243"/>
+      <c r="AA7" s="243"/>
+      <c r="AB7" s="243"/>
+      <c r="AC7" s="243"/>
+      <c r="AD7" s="279"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="202"/>
-      <c r="B8" s="313" t="s">
+      <c r="B8" s="274" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="314"/>
-      <c r="D8" s="314"/>
-      <c r="E8" s="314"/>
-      <c r="F8" s="314"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="275"/>
+      <c r="F8" s="275"/>
       <c r="G8" s="174">
         <f>K8</f>
         <v>1651229.1800000002</v>
       </c>
       <c r="H8" s="24"/>
-      <c r="I8" s="283" t="s">
+      <c r="I8" s="261" t="s">
         <v>191</v>
       </c>
-      <c r="J8" s="300"/>
-      <c r="K8" s="308">
+      <c r="J8" s="262"/>
+      <c r="K8" s="257">
         <f>(K5-K6)+K7</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="L8" s="309"/>
+      <c r="L8" s="258"/>
       <c r="M8" s="203"/>
-      <c r="U8" s="270" t="s">
+      <c r="U8" s="312" t="s">
         <v>197</v>
       </c>
-      <c r="V8" s="271"/>
-      <c r="W8" s="265" t="s">
+      <c r="V8" s="313"/>
+      <c r="W8" s="292" t="s">
         <v>199</v>
       </c>
-      <c r="X8" s="266"/>
-      <c r="Y8" s="266"/>
-      <c r="Z8" s="266"/>
-      <c r="AA8" s="266"/>
-      <c r="AB8" s="266"/>
-      <c r="AC8" s="266"/>
-      <c r="AD8" s="267"/>
+      <c r="X8" s="293"/>
+      <c r="Y8" s="293"/>
+      <c r="Z8" s="293"/>
+      <c r="AA8" s="293"/>
+      <c r="AB8" s="293"/>
+      <c r="AC8" s="293"/>
+      <c r="AD8" s="294"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="202"/>
@@ -13559,28 +13570,28 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="203"/>
-      <c r="U9" s="272"/>
-      <c r="V9" s="273"/>
-      <c r="W9" s="265" t="s">
+      <c r="U9" s="314"/>
+      <c r="V9" s="315"/>
+      <c r="W9" s="292" t="s">
         <v>239</v>
       </c>
-      <c r="X9" s="266"/>
-      <c r="Y9" s="266"/>
-      <c r="Z9" s="266"/>
-      <c r="AA9" s="266"/>
-      <c r="AB9" s="266"/>
-      <c r="AC9" s="266"/>
-      <c r="AD9" s="267"/>
+      <c r="X9" s="293"/>
+      <c r="Y9" s="293"/>
+      <c r="Z9" s="293"/>
+      <c r="AA9" s="293"/>
+      <c r="AB9" s="293"/>
+      <c r="AC9" s="293"/>
+      <c r="AD9" s="294"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="202"/>
-      <c r="B10" s="246" t="s">
+      <c r="B10" s="243" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="G10" s="56">
         <f>G5</f>
         <v>568329.18000000005</v>
@@ -13591,30 +13602,30 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="203"/>
-      <c r="U10" s="274" t="s">
+      <c r="U10" s="255" t="s">
         <v>246</v>
       </c>
-      <c r="V10" s="275"/>
-      <c r="W10" s="246" t="s">
-        <v>263</v>
-      </c>
-      <c r="X10" s="246"/>
-      <c r="Y10" s="246"/>
-      <c r="Z10" s="246"/>
-      <c r="AA10" s="246"/>
-      <c r="AB10" s="246"/>
-      <c r="AC10" s="246"/>
-      <c r="AD10" s="259"/>
+      <c r="V10" s="256"/>
+      <c r="W10" s="243" t="s">
+        <v>262</v>
+      </c>
+      <c r="X10" s="243"/>
+      <c r="Y10" s="243"/>
+      <c r="Z10" s="243"/>
+      <c r="AA10" s="243"/>
+      <c r="AB10" s="243"/>
+      <c r="AC10" s="243"/>
+      <c r="AD10" s="279"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="202"/>
-      <c r="B11" s="246" t="s">
+      <c r="B11" s="243" t="s">
         <v>259</v>
       </c>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
       <c r="G11" s="56">
         <v>1089400</v>
       </c>
@@ -13624,30 +13635,30 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="203"/>
-      <c r="U11" s="274" t="s">
-        <v>262</v>
-      </c>
-      <c r="V11" s="275"/>
-      <c r="W11" s="268" t="s">
-        <v>264</v>
-      </c>
-      <c r="X11" s="268"/>
-      <c r="Y11" s="268"/>
-      <c r="Z11" s="268"/>
-      <c r="AA11" s="268"/>
-      <c r="AB11" s="268"/>
-      <c r="AC11" s="268"/>
-      <c r="AD11" s="269"/>
+      <c r="U11" s="255" t="s">
+        <v>261</v>
+      </c>
+      <c r="V11" s="256"/>
+      <c r="W11" s="310" t="s">
+        <v>263</v>
+      </c>
+      <c r="X11" s="310"/>
+      <c r="Y11" s="310"/>
+      <c r="Z11" s="310"/>
+      <c r="AA11" s="310"/>
+      <c r="AB11" s="310"/>
+      <c r="AC11" s="310"/>
+      <c r="AD11" s="311"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="202"/>
-      <c r="B12" s="315" t="s">
+      <c r="B12" s="278" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="315"/>
-      <c r="D12" s="315"/>
-      <c r="E12" s="315"/>
-      <c r="F12" s="315"/>
+      <c r="C12" s="278"/>
+      <c r="D12" s="278"/>
+      <c r="E12" s="278"/>
+      <c r="F12" s="278"/>
       <c r="G12" s="207">
         <f>SUM(G10:G11)</f>
         <v>1657729.1800000002</v>
@@ -13658,16 +13669,16 @@
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="203"/>
-      <c r="U12" s="274"/>
-      <c r="V12" s="275"/>
-      <c r="W12" s="246"/>
-      <c r="X12" s="246"/>
-      <c r="Y12" s="246"/>
-      <c r="Z12" s="246"/>
-      <c r="AA12" s="246"/>
-      <c r="AB12" s="246"/>
-      <c r="AC12" s="246"/>
-      <c r="AD12" s="259"/>
+      <c r="U12" s="255"/>
+      <c r="V12" s="256"/>
+      <c r="W12" s="243"/>
+      <c r="X12" s="243"/>
+      <c r="Y12" s="243"/>
+      <c r="Z12" s="243"/>
+      <c r="AA12" s="243"/>
+      <c r="AB12" s="243"/>
+      <c r="AC12" s="243"/>
+      <c r="AD12" s="279"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="204"/>
@@ -13683,223 +13694,223 @@
       <c r="K13" s="205"/>
       <c r="L13" s="205"/>
       <c r="M13" s="206"/>
-      <c r="U13" s="274"/>
-      <c r="V13" s="275"/>
-      <c r="W13" s="246"/>
-      <c r="X13" s="246"/>
-      <c r="Y13" s="246"/>
-      <c r="Z13" s="246"/>
-      <c r="AA13" s="246"/>
-      <c r="AB13" s="246"/>
-      <c r="AC13" s="246"/>
-      <c r="AD13" s="259"/>
+      <c r="U13" s="255"/>
+      <c r="V13" s="256"/>
+      <c r="W13" s="243"/>
+      <c r="X13" s="243"/>
+      <c r="Y13" s="243"/>
+      <c r="Z13" s="243"/>
+      <c r="AA13" s="243"/>
+      <c r="AB13" s="243"/>
+      <c r="AC13" s="243"/>
+      <c r="AD13" s="279"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U14" s="286"/>
-      <c r="V14" s="287"/>
-      <c r="W14" s="260"/>
-      <c r="X14" s="260"/>
-      <c r="Y14" s="260"/>
-      <c r="Z14" s="260"/>
-      <c r="AA14" s="260"/>
-      <c r="AB14" s="260"/>
-      <c r="AC14" s="260"/>
-      <c r="AD14" s="261"/>
+      <c r="U14" s="295"/>
+      <c r="V14" s="296"/>
+      <c r="W14" s="288"/>
+      <c r="X14" s="288"/>
+      <c r="Y14" s="288"/>
+      <c r="Z14" s="288"/>
+      <c r="AA14" s="288"/>
+      <c r="AB14" s="288"/>
+      <c r="AC14" s="288"/>
+      <c r="AD14" s="289"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="199"/>
       <c r="B18" s="200"/>
       <c r="C18" s="200"/>
-      <c r="D18" s="316" t="s">
+      <c r="D18" s="263" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="316"/>
-      <c r="F18" s="316"/>
-      <c r="G18" s="316"/>
-      <c r="H18" s="316"/>
-      <c r="I18" s="316"/>
-      <c r="J18" s="316"/>
-      <c r="K18" s="316"/>
-      <c r="L18" s="316"/>
+      <c r="E18" s="263"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="263"/>
+      <c r="I18" s="263"/>
+      <c r="J18" s="263"/>
+      <c r="K18" s="263"/>
+      <c r="L18" s="263"/>
       <c r="M18" s="201"/>
-      <c r="O18" s="288" t="s">
+      <c r="O18" s="297" t="s">
         <v>253</v>
       </c>
-      <c r="P18" s="289"/>
-      <c r="Q18" s="289"/>
-      <c r="R18" s="289"/>
-      <c r="S18" s="290"/>
+      <c r="P18" s="298"/>
+      <c r="Q18" s="298"/>
+      <c r="R18" s="298"/>
+      <c r="S18" s="299"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="202"/>
       <c r="M19" s="203"/>
-      <c r="O19" s="281" t="s">
+      <c r="O19" s="273" t="s">
         <v>254</v>
       </c>
-      <c r="P19" s="246"/>
-      <c r="Q19" s="246"/>
-      <c r="R19" s="246"/>
-      <c r="S19" s="259"/>
+      <c r="P19" s="243"/>
+      <c r="Q19" s="243"/>
+      <c r="R19" s="243"/>
+      <c r="S19" s="279"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="202"/>
-      <c r="B20" s="311" t="s">
+      <c r="B20" s="264" t="s">
         <v>257</v>
       </c>
-      <c r="C20" s="312"/>
-      <c r="D20" s="312"/>
-      <c r="E20" s="312"/>
-      <c r="F20" s="312"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="265"/>
+      <c r="E20" s="265"/>
+      <c r="F20" s="265"/>
       <c r="G20" s="70">
         <v>440000</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="I20" s="264" t="s">
+      <c r="I20" s="266" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="246"/>
-      <c r="K20" s="246"/>
-      <c r="L20" s="246"/>
+      <c r="J20" s="243"/>
+      <c r="K20" s="243"/>
+      <c r="L20" s="243"/>
       <c r="M20" s="203"/>
-      <c r="O20" s="281" t="s">
+      <c r="O20" s="273" t="s">
         <v>255</v>
       </c>
-      <c r="P20" s="246"/>
-      <c r="Q20" s="246"/>
-      <c r="R20" s="246"/>
-      <c r="S20" s="259"/>
+      <c r="P20" s="243"/>
+      <c r="Q20" s="243"/>
+      <c r="R20" s="243"/>
+      <c r="S20" s="279"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="202"/>
-      <c r="B21" s="291" t="s">
+      <c r="B21" s="276" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="292"/>
-      <c r="D21" s="292"/>
-      <c r="E21" s="292"/>
-      <c r="F21" s="293"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="277"/>
+      <c r="E21" s="277"/>
+      <c r="F21" s="260"/>
       <c r="G21" s="173">
         <f>G12</f>
         <v>1657729.1800000002</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="I21" s="283" t="s">
+      <c r="I21" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="300"/>
-      <c r="K21" s="302">
+      <c r="J21" s="262"/>
+      <c r="K21" s="269">
         <f>G23</f>
         <v>2297729.1800000002</v>
       </c>
-      <c r="L21" s="303"/>
+      <c r="L21" s="270"/>
       <c r="M21" s="203"/>
       <c r="N21" s="197"/>
-      <c r="O21" s="281" t="s">
-        <v>261</v>
-      </c>
-      <c r="P21" s="246"/>
-      <c r="Q21" s="246"/>
-      <c r="R21" s="246"/>
-      <c r="S21" s="259"/>
+      <c r="O21" s="345" t="s">
+        <v>264</v>
+      </c>
+      <c r="P21" s="290"/>
+      <c r="Q21" s="290"/>
+      <c r="R21" s="290"/>
+      <c r="S21" s="291"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="202"/>
-      <c r="B22" s="294" t="s">
+      <c r="B22" s="281" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="295"/>
-      <c r="D22" s="295"/>
-      <c r="E22" s="295"/>
-      <c r="F22" s="296"/>
+      <c r="C22" s="282"/>
+      <c r="D22" s="282"/>
+      <c r="E22" s="282"/>
+      <c r="F22" s="283"/>
       <c r="G22" s="173">
         <v>200000</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="I22" s="301" t="s">
+      <c r="I22" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="293"/>
-      <c r="K22" s="306">
+      <c r="J22" s="260"/>
+      <c r="K22" s="271">
         <f>Pengeluaran!L30</f>
         <v>46000</v>
       </c>
-      <c r="L22" s="307"/>
+      <c r="L22" s="272"/>
       <c r="M22" s="203"/>
       <c r="N22" s="197"/>
       <c r="O22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="P22" s="264"/>
-      <c r="Q22" s="264"/>
-      <c r="R22" s="264"/>
-      <c r="S22" s="310"/>
+        <v>266</v>
+      </c>
+      <c r="P22" s="277"/>
+      <c r="Q22" s="277"/>
+      <c r="R22" s="277"/>
+      <c r="S22" s="346"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="202"/>
-      <c r="B23" s="291" t="s">
+      <c r="B23" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="292"/>
-      <c r="D23" s="292"/>
-      <c r="E23" s="292"/>
-      <c r="F23" s="293"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="277"/>
+      <c r="E23" s="277"/>
+      <c r="F23" s="260"/>
       <c r="G23" s="173">
         <f>SUM(G20:G22)</f>
         <v>2297729.1800000002</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="I23" s="301" t="s">
+      <c r="I23" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="293"/>
-      <c r="K23" s="304">
+      <c r="J23" s="260"/>
+      <c r="K23" s="267">
         <f>Pemasukkan!L31</f>
-        <v>64000</v>
-      </c>
-      <c r="L23" s="305"/>
+        <v>130000</v>
+      </c>
+      <c r="L23" s="268"/>
       <c r="M23" s="203"/>
       <c r="N23" s="197"/>
-      <c r="O23" s="281" t="s">
+      <c r="O23" s="276" t="s">
         <v>267</v>
       </c>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="259"/>
+      <c r="P23" s="277"/>
+      <c r="Q23" s="277"/>
+      <c r="R23" s="277"/>
+      <c r="S23" s="346"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="202"/>
-      <c r="B24" s="297" t="s">
+      <c r="B24" s="284" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="298"/>
-      <c r="D24" s="298"/>
-      <c r="E24" s="298"/>
-      <c r="F24" s="299"/>
+      <c r="C24" s="285"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="285"/>
+      <c r="F24" s="286"/>
       <c r="G24" s="174">
         <f>K24</f>
-        <v>2315729.1800000002</v>
+        <v>2381729.1800000002</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="I24" s="283" t="s">
+      <c r="I24" s="261" t="s">
         <v>191</v>
       </c>
-      <c r="J24" s="300"/>
-      <c r="K24" s="308">
+      <c r="J24" s="262"/>
+      <c r="K24" s="257">
         <f>(K21-K22)+K23</f>
-        <v>2315729.1800000002</v>
-      </c>
-      <c r="L24" s="309"/>
+        <v>2381729.1800000002</v>
+      </c>
+      <c r="L24" s="258"/>
       <c r="M24" s="203"/>
       <c r="N24" s="197"/>
-      <c r="O24" s="281" t="s">
+      <c r="O24" s="276" t="s">
         <v>268</v>
       </c>
-      <c r="P24" s="246"/>
-      <c r="Q24" s="246"/>
-      <c r="R24" s="246"/>
-      <c r="S24" s="259"/>
+      <c r="P24" s="277"/>
+      <c r="Q24" s="277"/>
+      <c r="R24" s="277"/>
+      <c r="S24" s="346"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="202"/>
@@ -13916,15 +13927,15 @@
       <c r="L25" s="24"/>
       <c r="M25" s="203"/>
       <c r="N25" s="197"/>
-      <c r="O25" s="281" t="s">
-        <v>269</v>
-      </c>
-      <c r="P25" s="246"/>
-      <c r="Q25" s="246"/>
-      <c r="R25" s="246"/>
-      <c r="S25" s="259"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O25" s="273" t="s">
+        <v>273</v>
+      </c>
+      <c r="P25" s="243"/>
+      <c r="Q25" s="243"/>
+      <c r="R25" s="243"/>
+      <c r="S25" s="279"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="202"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -13939,11 +13950,11 @@
       <c r="L26" s="24"/>
       <c r="M26" s="203"/>
       <c r="N26" s="197"/>
-      <c r="O26" s="281"/>
-      <c r="P26" s="246"/>
-      <c r="Q26" s="246"/>
-      <c r="R26" s="246"/>
-      <c r="S26" s="259"/>
+      <c r="O26" s="287"/>
+      <c r="P26" s="288"/>
+      <c r="Q26" s="288"/>
+      <c r="R26" s="288"/>
+      <c r="S26" s="289"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="204"/>
@@ -13960,11 +13971,6 @@
       <c r="L27" s="205"/>
       <c r="M27" s="206"/>
       <c r="N27" s="197"/>
-      <c r="O27" s="282"/>
-      <c r="P27" s="260"/>
-      <c r="Q27" s="260"/>
-      <c r="R27" s="260"/>
-      <c r="S27" s="261"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="197"/>
@@ -13988,13 +13994,51 @@
       <c r="S28" s="197"/>
     </row>
   </sheetData>
-  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="66">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D2:L2"/>
+  <mergeCells count="65">
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:AD3"/>
+    <mergeCell ref="W12:AD12"/>
+    <mergeCell ref="W13:AD13"/>
+    <mergeCell ref="W14:AD14"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:AD7"/>
+    <mergeCell ref="W9:AD9"/>
+    <mergeCell ref="W10:AD10"/>
+    <mergeCell ref="W11:AD11"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:AD4"/>
+    <mergeCell ref="W8:AD8"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K24:L24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="K7:L7"/>
@@ -14011,51 +14055,11 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="D18:L18"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="W6:AD6"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="W4:AD4"/>
-    <mergeCell ref="W8:AD8"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:AD3"/>
-    <mergeCell ref="W12:AD12"/>
-    <mergeCell ref="W13:AD13"/>
-    <mergeCell ref="W14:AD14"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:AD7"/>
-    <mergeCell ref="W9:AD9"/>
-    <mergeCell ref="W10:AD10"/>
-    <mergeCell ref="W11:AD11"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14067,7 +14071,7 @@
   <dimension ref="C2:M220"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14088,44 +14092,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="326" t="s">
+      <c r="C2" s="316" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
+      <c r="D2" s="317"/>
+      <c r="E2" s="317"/>
+      <c r="F2" s="317"/>
+      <c r="G2" s="317"/>
+      <c r="H2" s="317"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="317"/>
     </row>
     <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="327"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="317"/>
+      <c r="I3" s="317"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="317"/>
     </row>
     <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="319" t="s">
+      <c r="C5" s="324" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="I5" s="319" t="s">
+      <c r="D5" s="324"/>
+      <c r="E5" s="324"/>
+      <c r="F5" s="324"/>
+      <c r="G5" s="324"/>
+      <c r="I5" s="324" t="s">
         <v>251</v>
       </c>
-      <c r="J5" s="319"/>
-      <c r="K5" s="319"/>
-      <c r="L5" s="319"/>
-      <c r="M5" s="319"/>
+      <c r="J5" s="324"/>
+      <c r="K5" s="324"/>
+      <c r="L5" s="324"/>
+      <c r="M5" s="324"/>
     </row>
     <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
@@ -14179,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="198" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K7" s="60">
         <v>43709</v>
@@ -14188,7 +14192,7 @@
         <v>64000</v>
       </c>
       <c r="M7" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14210,10 +14214,18 @@
       <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K8" s="60">
+        <v>43716</v>
+      </c>
+      <c r="L8" s="64">
+        <v>66000</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="9" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
@@ -14227,7 +14239,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="64"/>
       <c r="M9" s="1"/>
     </row>
@@ -14243,7 +14255,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="64"/>
       <c r="M10" s="1"/>
     </row>
@@ -14259,7 +14271,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="64"/>
       <c r="M11" s="1"/>
     </row>
@@ -14275,7 +14287,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="60"/>
       <c r="L12" s="64"/>
       <c r="M12" s="1"/>
     </row>
@@ -14291,7 +14303,7 @@
         <v>7</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="60"/>
       <c r="L13" s="64"/>
       <c r="M13" s="1"/>
     </row>
@@ -14307,7 +14319,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="60"/>
       <c r="L14" s="64"/>
       <c r="M14" s="1"/>
     </row>
@@ -14323,7 +14335,7 @@
         <v>9</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="60"/>
       <c r="L15" s="64"/>
       <c r="M15" s="1"/>
     </row>
@@ -14339,7 +14351,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="60"/>
       <c r="L16" s="64"/>
       <c r="M16" s="1"/>
     </row>
@@ -14355,7 +14367,7 @@
         <v>11</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="60"/>
       <c r="L17" s="64"/>
       <c r="M17" s="1"/>
     </row>
@@ -14371,7 +14383,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="60"/>
       <c r="L18" s="64"/>
       <c r="M18" s="1"/>
     </row>
@@ -14387,7 +14399,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="60"/>
       <c r="L19" s="64"/>
       <c r="M19" s="1"/>
     </row>
@@ -14403,7 +14415,7 @@
         <v>14</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="60"/>
       <c r="L20" s="64"/>
       <c r="M20" s="1"/>
     </row>
@@ -14419,7 +14431,7 @@
         <v>15</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="60"/>
       <c r="L21" s="64"/>
       <c r="M21" s="1"/>
     </row>
@@ -14435,7 +14447,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="60"/>
       <c r="L22" s="64"/>
       <c r="M22" s="1"/>
     </row>
@@ -14451,7 +14463,7 @@
         <v>17</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="60"/>
       <c r="L23" s="64"/>
       <c r="M23" s="1"/>
     </row>
@@ -14467,7 +14479,7 @@
         <v>18</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="60"/>
       <c r="L24" s="64"/>
       <c r="M24" s="1"/>
     </row>
@@ -14483,7 +14495,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="60"/>
       <c r="L25" s="64"/>
       <c r="M25" s="1"/>
     </row>
@@ -14499,7 +14511,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="23"/>
+      <c r="K26" s="60"/>
       <c r="L26" s="67"/>
       <c r="M26" s="1"/>
     </row>
@@ -14521,7 +14533,7 @@
       </c>
       <c r="L27" s="63">
         <f>SUM(L7:L26)</f>
-        <v>64000</v>
+        <v>130000</v>
       </c>
       <c r="M27" s="24"/>
     </row>
@@ -14533,874 +14545,88 @@
       <c r="M28" s="197"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="311" t="s">
+      <c r="D29" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="312"/>
-      <c r="F29" s="320">
+      <c r="E29" s="265"/>
+      <c r="F29" s="318">
         <f>'Hitung Pemasukan Pengeluaran'!G6</f>
         <v>760000</v>
       </c>
-      <c r="G29" s="321"/>
+      <c r="G29" s="319"/>
       <c r="I29" s="197"/>
-      <c r="J29" s="311" t="s">
+      <c r="J29" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="312"/>
-      <c r="L29" s="320">
+      <c r="K29" s="265"/>
+      <c r="L29" s="318">
         <f>'Hitung Pemasukan Pengeluaran'!G23</f>
         <v>2297729.1800000002</v>
       </c>
-      <c r="M29" s="321"/>
+      <c r="M29" s="319"/>
     </row>
     <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="276" t="s">
+      <c r="D30" s="280" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="246"/>
-      <c r="F30" s="322">
+      <c r="E30" s="243"/>
+      <c r="F30" s="320">
         <f>Pengeluaran!F30</f>
         <v>903300</v>
       </c>
-      <c r="G30" s="323"/>
+      <c r="G30" s="321"/>
       <c r="I30" s="197"/>
-      <c r="J30" s="276" t="s">
+      <c r="J30" s="280" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="246"/>
-      <c r="L30" s="322">
+      <c r="K30" s="243"/>
+      <c r="L30" s="320">
         <f>Pengeluaran!L30</f>
         <v>46000</v>
       </c>
-      <c r="M30" s="323"/>
+      <c r="M30" s="321"/>
     </row>
     <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="281" t="s">
+      <c r="D31" s="273" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="246"/>
-      <c r="F31" s="324">
+      <c r="E31" s="243"/>
+      <c r="F31" s="325">
         <f>F27</f>
         <v>222000</v>
       </c>
-      <c r="G31" s="325"/>
+      <c r="G31" s="326"/>
       <c r="I31" s="197"/>
-      <c r="J31" s="281" t="s">
+      <c r="J31" s="273" t="s">
         <v>98</v>
       </c>
-      <c r="K31" s="246"/>
-      <c r="L31" s="324">
+      <c r="K31" s="243"/>
+      <c r="L31" s="325">
         <f>L27</f>
-        <v>64000</v>
-      </c>
-      <c r="M31" s="325"/>
+        <v>130000</v>
+      </c>
+      <c r="M31" s="326"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="313" t="s">
+      <c r="D32" s="274" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="314"/>
-      <c r="F32" s="317">
+      <c r="E32" s="275"/>
+      <c r="F32" s="322">
         <f>'Hitung Pemasukan Pengeluaran'!G8</f>
         <v>1651229.1800000002</v>
       </c>
-      <c r="G32" s="318"/>
+      <c r="G32" s="323"/>
       <c r="I32" s="197"/>
-      <c r="J32" s="313" t="s">
+      <c r="J32" s="274" t="s">
         <v>190</v>
       </c>
-      <c r="K32" s="314"/>
-      <c r="L32" s="317">
+      <c r="K32" s="275"/>
+      <c r="L32" s="322">
         <f>'Hitung Pemasukan Pengeluaran'!G24</f>
-        <v>2315729.1800000002</v>
-      </c>
-      <c r="M32" s="318"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C2:K3"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="J32:K32"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M220"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="13" width="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="332" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333"/>
-      <c r="F2" s="333"/>
-      <c r="G2" s="333"/>
-      <c r="H2" s="333"/>
-      <c r="I2" s="333"/>
-      <c r="J2" s="333"/>
-      <c r="K2" s="333"/>
-    </row>
-    <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333"/>
-      <c r="I3" s="333"/>
-      <c r="J3" s="333"/>
-      <c r="K3" s="333"/>
-    </row>
-    <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="319" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="I5" s="319" t="s">
-        <v>249</v>
-      </c>
-      <c r="J5" s="319"/>
-      <c r="K5" s="319"/>
-      <c r="L5" s="319"/>
-      <c r="M5" s="319"/>
-    </row>
-    <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="198" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="198" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="198" t="s">
-        <v>182</v>
-      </c>
-      <c r="L6" s="198" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" s="198" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="57">
-        <v>1</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="56">
-        <v>750000</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L7" s="64">
-        <v>21000</v>
-      </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="57">
-        <v>2</v>
-      </c>
-      <c r="D8" s="158" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="61">
-        <v>45000</v>
-      </c>
-      <c r="G8" s="158"/>
-      <c r="I8" s="1">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L8" s="64">
-        <v>25000</v>
-      </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="159">
-        <v>3</v>
-      </c>
-      <c r="D9" s="162" t="s">
-        <v>224</v>
-      </c>
-      <c r="E9" s="163" t="s">
-        <v>225</v>
-      </c>
-      <c r="F9" s="56">
-        <v>100000</v>
-      </c>
-      <c r="G9" s="57"/>
-      <c r="I9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="57">
-        <v>4</v>
-      </c>
-      <c r="D10" s="160" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="161">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="160"/>
-      <c r="I10" s="1">
-        <v>4</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="57">
-        <v>5</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" s="56">
-        <v>800</v>
-      </c>
-      <c r="G11" s="57"/>
-      <c r="I11" s="1">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="57">
-        <v>6</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F12" s="56">
-        <v>6500</v>
-      </c>
-      <c r="G12" s="57"/>
-      <c r="I12" s="1">
-        <v>6</v>
-      </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="I13" s="1">
-        <v>7</v>
-      </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="I14" s="1">
-        <v>8</v>
-      </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="57">
-        <v>9</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="I15" s="1">
-        <v>9</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="57">
-        <v>10</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="57">
-        <v>11</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="I17" s="1">
-        <v>11</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="57">
-        <v>12</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="I18" s="1">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="57">
-        <v>13</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="I19" s="1">
-        <v>13</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="57">
-        <v>14</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="I20" s="1">
-        <v>14</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="57">
-        <v>15</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="I21" s="1">
-        <v>15</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="57">
-        <v>16</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="I22" s="1">
-        <v>16</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="57">
-        <v>17</v>
-      </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="I23" s="1">
-        <v>17</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="57">
-        <v>18</v>
-      </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-      <c r="I24" s="1">
-        <v>18</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="57">
-        <v>19</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
-      <c r="I25" s="1">
-        <v>19</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="57">
-        <v>20</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="57"/>
-      <c r="I26" s="1">
-        <v>20</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="63">
-        <f>SUM(F7:F26)</f>
-        <v>903300</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="56">
-        <f>SUM(L7:L26)</f>
-        <v>46000</v>
-      </c>
-      <c r="M27" s="57"/>
-    </row>
-    <row r="28" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="197"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="197"/>
-    </row>
-    <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="255" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="257"/>
-      <c r="F29" s="330">
-        <f>'Hitung Pemasukan Pengeluaran'!G6</f>
-        <v>760000</v>
-      </c>
-      <c r="G29" s="331"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="255" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" s="257"/>
-      <c r="L29" s="330">
-        <f>'Hitung Pemasukan Pengeluaran'!G23</f>
-        <v>2297729.1800000002</v>
-      </c>
-      <c r="M29" s="331"/>
-    </row>
-    <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="281" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="246"/>
-      <c r="F30" s="322">
-        <f>F27</f>
-        <v>903300</v>
-      </c>
-      <c r="G30" s="323"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="281" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="246"/>
-      <c r="L30" s="322">
-        <f>L27</f>
-        <v>46000</v>
-      </c>
-      <c r="M30" s="323"/>
-    </row>
-    <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="281" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="246"/>
-      <c r="F31" s="324">
-        <f>Pemasukkan!F27</f>
-        <v>222000</v>
-      </c>
-      <c r="G31" s="325"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="281" t="s">
-        <v>98</v>
-      </c>
-      <c r="K31" s="246"/>
-      <c r="L31" s="324">
-        <f>Pemasukkan!L27</f>
-        <v>64000</v>
-      </c>
-      <c r="M31" s="325"/>
-    </row>
-    <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="313" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="314"/>
-      <c r="F32" s="328">
-        <f>'Hitung Pemasukan Pengeluaran'!G8</f>
-        <v>1651229.1800000002</v>
-      </c>
-      <c r="G32" s="329"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="313" t="s">
-        <v>191</v>
-      </c>
-      <c r="K32" s="314"/>
-      <c r="L32" s="328">
-        <f>'Hitung Pemasukan Pengeluaran'!M8</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="329"/>
+        <v>2381729.1800000002</v>
+      </c>
+      <c r="M32" s="323"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15593,6 +14819,801 @@
   </sheetData>
   <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="C2:K3"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J29:K29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:M220"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="10" max="10" width="35.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="13" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="327" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="328"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+    </row>
+    <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+    </row>
+    <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="324" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="324"/>
+      <c r="E5" s="324"/>
+      <c r="F5" s="324"/>
+      <c r="G5" s="324"/>
+      <c r="I5" s="324" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="324"/>
+      <c r="K5" s="324"/>
+      <c r="L5" s="324"/>
+      <c r="M5" s="324"/>
+    </row>
+    <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="198" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="198" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="57">
+        <v>1</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="56">
+        <v>750000</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" s="64">
+        <v>21000</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="57">
+        <v>2</v>
+      </c>
+      <c r="D8" s="158" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="61">
+        <v>45000</v>
+      </c>
+      <c r="G8" s="158"/>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L8" s="64">
+        <v>25000</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="159">
+        <v>3</v>
+      </c>
+      <c r="D9" s="162" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="163" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="56">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="57">
+        <v>4</v>
+      </c>
+      <c r="D10" s="160" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="161">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="160"/>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="57">
+        <v>5</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="56">
+        <v>800</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="57">
+        <v>6</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="56">
+        <v>6500</v>
+      </c>
+      <c r="G12" s="57"/>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="I13" s="1">
+        <v>7</v>
+      </c>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="I14" s="1">
+        <v>8</v>
+      </c>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="57">
+        <v>9</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="I15" s="1">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="57">
+        <v>10</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="57">
+        <v>11</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="I17" s="1">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="57">
+        <v>12</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="I18" s="1">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="57">
+        <v>13</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="I19" s="1">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="57">
+        <v>14</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="I20" s="1">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="57">
+        <v>15</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="I21" s="1">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="57">
+        <v>16</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="I22" s="1">
+        <v>16</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="57">
+        <v>17</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="I23" s="1">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="57">
+        <v>18</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
+      <c r="I24" s="1">
+        <v>18</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="57">
+        <v>19</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="I25" s="1">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="57">
+        <v>20</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="57"/>
+      <c r="I26" s="1">
+        <v>20</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="63">
+        <f>SUM(F7:F26)</f>
+        <v>903300</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="56">
+        <f>SUM(L7:L26)</f>
+        <v>46000</v>
+      </c>
+      <c r="M27" s="57"/>
+    </row>
+    <row r="28" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="197"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="197"/>
+    </row>
+    <row r="29" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="304" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="306"/>
+      <c r="F29" s="329">
+        <f>'Hitung Pemasukan Pengeluaran'!G6</f>
+        <v>760000</v>
+      </c>
+      <c r="G29" s="330"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="304" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="306"/>
+      <c r="L29" s="329">
+        <f>'Hitung Pemasukan Pengeluaran'!G23</f>
+        <v>2297729.1800000002</v>
+      </c>
+      <c r="M29" s="330"/>
+    </row>
+    <row r="30" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="273" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="243"/>
+      <c r="F30" s="320">
+        <f>F27</f>
+        <v>903300</v>
+      </c>
+      <c r="G30" s="321"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="273" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="243"/>
+      <c r="L30" s="320">
+        <f>L27</f>
+        <v>46000</v>
+      </c>
+      <c r="M30" s="321"/>
+    </row>
+    <row r="31" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="273" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="243"/>
+      <c r="F31" s="325">
+        <f>Pemasukkan!F27</f>
+        <v>222000</v>
+      </c>
+      <c r="G31" s="326"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="273" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" s="243"/>
+      <c r="L31" s="325">
+        <f>Pemasukkan!L27</f>
+        <v>130000</v>
+      </c>
+      <c r="M31" s="326"/>
+    </row>
+    <row r="32" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="274" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="275"/>
+      <c r="F32" s="331">
+        <f>'Hitung Pemasukan Pengeluaran'!G8</f>
+        <v>1651229.1800000002</v>
+      </c>
+      <c r="G32" s="332"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="274" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" s="275"/>
+      <c r="L32" s="331">
+        <f>'Hitung Pemasukan Pengeluaran'!M8</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="332"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="19">
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
@@ -15604,14 +15625,6 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -15622,7 +15635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -15636,28 +15649,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="336" t="s">
+      <c r="C2" s="335" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="337"/>
-      <c r="K2" s="337"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="337"/>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337"/>
-      <c r="K3" s="337"/>
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" s="156"/>
@@ -15999,10 +16012,10 @@
     </row>
     <row r="29" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="156"/>
-      <c r="D29" s="338"/>
-      <c r="E29" s="338"/>
-      <c r="F29" s="339"/>
-      <c r="G29" s="339"/>
+      <c r="D29" s="337"/>
+      <c r="E29" s="337"/>
+      <c r="F29" s="338"/>
+      <c r="G29" s="338"/>
       <c r="H29" s="156"/>
       <c r="I29" s="156"/>
       <c r="J29" s="156"/>
@@ -16010,15 +16023,15 @@
     </row>
     <row r="30" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="24"/>
-      <c r="D30" s="340" t="s">
+      <c r="D30" s="339" t="s">
         <v>231</v>
       </c>
-      <c r="E30" s="341"/>
-      <c r="F30" s="342">
+      <c r="E30" s="340"/>
+      <c r="F30" s="341">
         <f>F27</f>
         <v>60000</v>
       </c>
-      <c r="G30" s="343"/>
+      <c r="G30" s="342"/>
       <c r="H30" s="156"/>
       <c r="I30" s="156"/>
       <c r="J30" s="156"/>
@@ -16033,10 +16046,10 @@
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="156"/>
-      <c r="D32" s="334"/>
-      <c r="E32" s="334"/>
-      <c r="F32" s="335"/>
-      <c r="G32" s="334"/>
+      <c r="D32" s="333"/>
+      <c r="E32" s="333"/>
+      <c r="F32" s="334"/>
+      <c r="G32" s="333"/>
       <c r="H32" s="156"/>
       <c r="I32" s="156"/>
       <c r="J32" s="156"/>
@@ -16074,17 +16087,17 @@
     <row r="3" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26"/>
-      <c r="C4" s="344" t="s">
+      <c r="C4" s="343" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="345"/>
+      <c r="D4" s="344"/>
       <c r="E4" s="27"/>
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
-      <c r="H4" s="344" t="s">
+      <c r="H4" s="343" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="345"/>
+      <c r="I4" s="344"/>
       <c r="J4" s="35"/>
       <c r="K4" s="27"/>
     </row>
@@ -16211,17 +16224,17 @@
     <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
-      <c r="C17" s="344" t="s">
+      <c r="C17" s="343" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="345"/>
+      <c r="D17" s="344"/>
       <c r="E17" s="27"/>
       <c r="F17" s="26"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="344" t="s">
+      <c r="H17" s="343" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="345"/>
+      <c r="I17" s="344"/>
       <c r="J17" s="35"/>
       <c r="K17" s="27"/>
     </row>

--- a/GAS/KAS GAS.xlsx
+++ b/GAS/KAS GAS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="279">
   <si>
     <t>LAPORAN KEUANGAN KAS GAS</t>
   </si>
@@ -817,9 +817,6 @@
     <t>once trf 70k kas(135-70)</t>
   </si>
   <si>
-    <t>Simpanan 45k</t>
-  </si>
-  <si>
     <t>Ruman Bayar KAS 60k tunai</t>
   </si>
   <si>
@@ -842,6 +839,24 @@
   </si>
   <si>
     <t>Alfi KAS 10k tunai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sewa Lampu </t>
+  </si>
+  <si>
+    <t>11 September 2019</t>
+  </si>
+  <si>
+    <t>Aby bawa kwitansi kerumah rapli</t>
+  </si>
+  <si>
+    <t>Spanduk Tacticat93 OH</t>
+  </si>
+  <si>
+    <t>Dandy sumbang 160k untuk buat spanduk Tacticat93 untuk OH, dimasukkan ke Inventaris GAS dan Simpanan Dandy untuk KAS tahun depan</t>
+  </si>
+  <si>
+    <t>Simpanan 205k</t>
   </si>
 </sst>
 </file>
@@ -1980,11 +1995,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="353">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2418,20 +2434,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2447,39 +2487,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2487,36 +2525,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2524,55 +2612,124 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2581,125 +2738,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2707,31 +2771,16 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="13" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2740,18 +2789,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="13" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2788,16 +2825,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -3615,126 +3650,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="214"/>
-      <c r="O1" s="214"/>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="214"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="225"/>
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
+      <c r="R1" s="225"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="215"/>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="216"/>
+      <c r="A2" s="226"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
+      <c r="R2" s="227"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="215"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="216"/>
-      <c r="P3" s="216"/>
-      <c r="Q3" s="216"/>
-      <c r="R3" s="216"/>
+      <c r="A3" s="226"/>
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="227"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="227"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="215"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
-      <c r="J4" s="216"/>
-      <c r="K4" s="216"/>
-      <c r="L4" s="216"/>
-      <c r="M4" s="216"/>
-      <c r="N4" s="216"/>
-      <c r="O4" s="216"/>
-      <c r="P4" s="216"/>
-      <c r="Q4" s="216"/>
-      <c r="R4" s="216"/>
+      <c r="A4" s="226"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="227"/>
+      <c r="L4" s="227"/>
+      <c r="M4" s="227"/>
+      <c r="N4" s="227"/>
+      <c r="O4" s="227"/>
+      <c r="P4" s="227"/>
+      <c r="Q4" s="227"/>
+      <c r="R4" s="227"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="215"/>
-      <c r="B5" s="216"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="216"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="216"/>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="216"/>
+      <c r="A5" s="226"/>
+      <c r="B5" s="227"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="227"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="227"/>
+      <c r="K5" s="227"/>
+      <c r="L5" s="227"/>
+      <c r="M5" s="227"/>
+      <c r="N5" s="227"/>
+      <c r="O5" s="227"/>
+      <c r="P5" s="227"/>
+      <c r="Q5" s="227"/>
+      <c r="R5" s="227"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="215"/>
-      <c r="B6" s="216"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="216"/>
-      <c r="M6" s="216"/>
-      <c r="N6" s="216"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="216"/>
-      <c r="Q6" s="216"/>
-      <c r="R6" s="216"/>
+      <c r="A6" s="226"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="227"/>
+      <c r="N6" s="227"/>
+      <c r="O6" s="227"/>
+      <c r="P6" s="227"/>
+      <c r="Q6" s="227"/>
+      <c r="R6" s="227"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="s">
@@ -6679,58 +6714,58 @@
     <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J79" s="221" t="s">
+      <c r="J79" s="229" t="s">
         <v>65</v>
       </c>
-      <c r="K79" s="222"/>
-      <c r="L79" s="222"/>
-      <c r="M79" s="222"/>
-      <c r="N79" s="223"/>
-      <c r="P79" s="229" t="s">
+      <c r="K79" s="230"/>
+      <c r="L79" s="230"/>
+      <c r="M79" s="230"/>
+      <c r="N79" s="231"/>
+      <c r="P79" s="237" t="s">
         <v>66</v>
       </c>
-      <c r="Q79" s="222"/>
-      <c r="R79" s="222"/>
-      <c r="S79" s="223"/>
+      <c r="Q79" s="230"/>
+      <c r="R79" s="230"/>
+      <c r="S79" s="231"/>
     </row>
     <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J80" s="224" t="s">
+      <c r="J80" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="K80" s="216"/>
-      <c r="L80" s="216"/>
-      <c r="M80" s="216"/>
-      <c r="N80" s="225"/>
-      <c r="P80" s="224" t="s">
+      <c r="K80" s="227"/>
+      <c r="L80" s="227"/>
+      <c r="M80" s="227"/>
+      <c r="N80" s="233"/>
+      <c r="P80" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="Q80" s="216"/>
-      <c r="R80" s="216"/>
-      <c r="S80" s="225"/>
+      <c r="Q80" s="227"/>
+      <c r="R80" s="227"/>
+      <c r="S80" s="233"/>
     </row>
